--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="462">
   <si>
     <t>铁杖</t>
   </si>
@@ -115,9 +115,6 @@
     <t>冰之盾</t>
   </si>
   <si>
-    <t>waterball2</t>
-  </si>
-  <si>
     <t>风刃术</t>
   </si>
   <si>
@@ -130,30 +127,18 @@
     <t>fireball</t>
   </si>
   <si>
-    <t>rockball</t>
-  </si>
-  <si>
     <t>冻结术</t>
   </si>
   <si>
-    <t>iceball2</t>
-  </si>
-  <si>
     <t>electball</t>
   </si>
   <si>
     <t>极光术</t>
   </si>
   <si>
-    <t>landlight</t>
-  </si>
-  <si>
     <t>坏血术</t>
   </si>
   <si>
-    <t>badblood</t>
-  </si>
-  <si>
     <t>流星锤</t>
   </si>
   <si>
@@ -329,9 +314,6 @@
   </si>
   <si>
     <t>昏睡术</t>
-  </si>
-  <si>
-    <t>purplewave</t>
   </si>
   <si>
     <t>魂之壶</t>
@@ -1482,6 +1464,56 @@
   </si>
   <si>
     <t>基础</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrowlight</t>
+  </si>
+  <si>
+    <t>greenpea</t>
+  </si>
+  <si>
+    <t>arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>holybolt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceball</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterball</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkwheel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowerline</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purplewave</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrow</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2402,7 +2434,15 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3168,6 +3208,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -3499,72 +3547,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:V130" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A3:V130"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:W130" totalsRowShown="0" dataDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A3:W130"/>
   <sortState ref="A4:AB130">
     <sortCondition ref="A3:A130"/>
   </sortState>
-  <tableColumns count="22">
-    <tableColumn id="1" name="Id" dataDxfId="45"/>
-    <tableColumn id="2" name="Name" dataDxfId="44"/>
-    <tableColumn id="3" name="Ename" dataDxfId="43"/>
-    <tableColumn id="4" name="EnameShort" dataDxfId="42"/>
-    <tableColumn id="5" name="Star" dataDxfId="41"/>
-    <tableColumn id="6" name="Type" dataDxfId="40"/>
-    <tableColumn id="7" name="Attr" dataDxfId="39"/>
-    <tableColumn id="15" name="Cost" dataDxfId="38"/>
-    <tableColumn id="8" name="Atk" dataDxfId="37"/>
-    <tableColumn id="9" name="Def" dataDxfId="36"/>
-    <tableColumn id="26" name="SkillMark" dataDxfId="35"/>
-    <tableColumn id="24" name="Sum" dataDxfId="34">
+  <tableColumns count="23">
+    <tableColumn id="1" name="Id" dataDxfId="47"/>
+    <tableColumn id="2" name="Name" dataDxfId="46"/>
+    <tableColumn id="3" name="Ename" dataDxfId="45"/>
+    <tableColumn id="4" name="EnameShort" dataDxfId="44"/>
+    <tableColumn id="5" name="Star" dataDxfId="43"/>
+    <tableColumn id="6" name="Type" dataDxfId="42"/>
+    <tableColumn id="7" name="Attr" dataDxfId="41"/>
+    <tableColumn id="15" name="Cost" dataDxfId="40"/>
+    <tableColumn id="8" name="Atk" dataDxfId="39"/>
+    <tableColumn id="9" name="Def" dataDxfId="38"/>
+    <tableColumn id="26" name="SkillMark" dataDxfId="37"/>
+    <tableColumn id="24" name="Sum" dataDxfId="36">
       <calculatedColumnFormula>SUM(表1[[#This Row],[Atk]:[SkillMark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Modify" dataDxfId="33"/>
-    <tableColumn id="27" name="Dura" dataDxfId="32"/>
-    <tableColumn id="13" name="SkillId" dataDxfId="31"/>
-    <tableColumn id="14" name="Percent" dataDxfId="30"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="29"/>
-    <tableColumn id="17" name="Res" dataDxfId="28"/>
-    <tableColumn id="18" name="Icon" dataDxfId="27"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="26"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="25"/>
-    <tableColumn id="28" name="Remark" dataDxfId="24"/>
+    <tableColumn id="25" name="Modify" dataDxfId="35"/>
+    <tableColumn id="27" name="Dura" dataDxfId="34"/>
+    <tableColumn id="10" name="Range" dataDxfId="33"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="32"/>
+    <tableColumn id="14" name="Percent" dataDxfId="31"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="30"/>
+    <tableColumn id="17" name="Res" dataDxfId="29"/>
+    <tableColumn id="18" name="Icon" dataDxfId="28"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="27"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="26"/>
+    <tableColumn id="28" name="Remark" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:V5" totalsRowShown="0" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A3:V5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:W5" totalsRowShown="0" dataDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A3:W5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
-  <tableColumns count="22">
-    <tableColumn id="1" name="Id" dataDxfId="21"/>
-    <tableColumn id="2" name="Name" dataDxfId="20"/>
-    <tableColumn id="3" name="Ename" dataDxfId="19"/>
-    <tableColumn id="4" name="EnameShort" dataDxfId="18"/>
-    <tableColumn id="5" name="Star" dataDxfId="17"/>
-    <tableColumn id="6" name="Type" dataDxfId="16"/>
-    <tableColumn id="7" name="Attr" dataDxfId="15"/>
-    <tableColumn id="15" name="Cost" dataDxfId="14"/>
-    <tableColumn id="8" name="Atk" dataDxfId="13"/>
-    <tableColumn id="9" name="Def" dataDxfId="12"/>
-    <tableColumn id="26" name="SkillMark" dataDxfId="11"/>
-    <tableColumn id="24" name="Sum" dataDxfId="10">
+  <tableColumns count="23">
+    <tableColumn id="1" name="Id" dataDxfId="22"/>
+    <tableColumn id="2" name="Name" dataDxfId="21"/>
+    <tableColumn id="3" name="Ename" dataDxfId="20"/>
+    <tableColumn id="4" name="EnameShort" dataDxfId="19"/>
+    <tableColumn id="5" name="Star" dataDxfId="18"/>
+    <tableColumn id="6" name="Type" dataDxfId="17"/>
+    <tableColumn id="7" name="Attr" dataDxfId="16"/>
+    <tableColumn id="15" name="Cost" dataDxfId="15"/>
+    <tableColumn id="8" name="Atk" dataDxfId="14"/>
+    <tableColumn id="9" name="Def" dataDxfId="13"/>
+    <tableColumn id="26" name="SkillMark" dataDxfId="12"/>
+    <tableColumn id="24" name="Sum" dataDxfId="11">
       <calculatedColumnFormula>SUM(表1_3[[#This Row],[Atk]:[SkillMark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Modify" dataDxfId="9"/>
-    <tableColumn id="27" name="Dura" dataDxfId="8"/>
-    <tableColumn id="13" name="SkillId" dataDxfId="7"/>
-    <tableColumn id="14" name="Percent" dataDxfId="6"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="5"/>
-    <tableColumn id="17" name="Res" dataDxfId="4"/>
-    <tableColumn id="18" name="Icon" dataDxfId="3"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="2"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="1"/>
-    <tableColumn id="28" name="Remark" dataDxfId="0"/>
+    <tableColumn id="25" name="Modify" dataDxfId="10"/>
+    <tableColumn id="27" name="Dura" dataDxfId="9"/>
+    <tableColumn id="10" name="Range" dataDxfId="0"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="8"/>
+    <tableColumn id="14" name="Percent" dataDxfId="7"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="6"/>
+    <tableColumn id="17" name="Res" dataDxfId="5"/>
+    <tableColumn id="18" name="Icon" dataDxfId="4"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="3"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="2"/>
+    <tableColumn id="28" name="Remark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3857,13 +3907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V130"/>
+  <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3873,220 +3923,229 @@
     <col min="4" max="4" width="6.125" customWidth="1"/>
     <col min="5" max="8" width="4.125" customWidth="1"/>
     <col min="9" max="12" width="3.75" customWidth="1"/>
-    <col min="13" max="14" width="3.875" customWidth="1"/>
-    <col min="15" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16" width="7.125" customWidth="1"/>
-    <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="18" max="19" width="7.375" customWidth="1"/>
-    <col min="20" max="21" width="4.375" customWidth="1"/>
-    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="3.875" customWidth="1"/>
+    <col min="16" max="16" width="9.5" customWidth="1"/>
+    <col min="17" max="17" width="7.125" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="19" max="20" width="7.375" customWidth="1"/>
+    <col min="21" max="22" width="4.375" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="55.5">
+    <row r="1" spans="1:23" ht="55.5">
       <c r="A1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="P1" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="T1" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="U1" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="P3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="V3" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>452</v>
+      <c r="W3" s="29" t="s">
+        <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="O3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R3" t="s">
-        <v>134</v>
-      </c>
-      <c r="S3" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="14.25">
+    <row r="4" spans="1:23" ht="14.25">
       <c r="A4">
         <v>52000001</v>
       </c>
@@ -4094,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -4130,32 +4189,35 @@
       <c r="N4" s="9">
         <v>4</v>
       </c>
-      <c r="O4" s="4">
-        <v>0</v>
+      <c r="O4" s="9">
+        <v>10</v>
       </c>
       <c r="P4" s="4">
         <v>0</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="4">
-        <v>5</v>
-      </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
+        <v>5</v>
+      </c>
+      <c r="T4" s="5">
         <v>1</v>
       </c>
-      <c r="T4" s="32">
-        <v>0</v>
-      </c>
-      <c r="U4" s="31">
-        <v>0</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>454</v>
+      <c r="U4" s="32">
+        <v>0</v>
+      </c>
+      <c r="V4" s="31">
+        <v>0</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.25">
+    <row r="5" spans="1:23" ht="14.25">
       <c r="A5">
         <v>52000002</v>
       </c>
@@ -4163,10 +4225,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -4199,32 +4261,35 @@
       <c r="N5" s="9">
         <v>4</v>
       </c>
-      <c r="O5" s="4">
-        <v>0</v>
+      <c r="O5" s="9">
+        <v>10</v>
       </c>
       <c r="P5" s="4">
         <v>0</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="4">
-        <v>5</v>
-      </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
+        <v>5</v>
+      </c>
+      <c r="T5" s="5">
         <v>2</v>
       </c>
-      <c r="T5" s="32">
-        <v>0</v>
-      </c>
-      <c r="U5" s="31">
-        <v>0</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>454</v>
+      <c r="U5" s="32">
+        <v>0</v>
+      </c>
+      <c r="V5" s="31">
+        <v>0</v>
+      </c>
+      <c r="W5" s="31" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.25">
+    <row r="6" spans="1:23" ht="14.25">
       <c r="A6">
         <v>52000003</v>
       </c>
@@ -4232,10 +4297,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -4268,32 +4333,35 @@
       <c r="N6" s="9">
         <v>4</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="9">
         <v>0</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6" s="4">
-        <v>5</v>
-      </c>
-      <c r="S6" s="5">
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="4">
+        <v>5</v>
+      </c>
+      <c r="T6" s="5">
         <v>3</v>
       </c>
-      <c r="T6" s="32">
-        <v>0</v>
-      </c>
-      <c r="U6" s="31">
-        <v>0</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>454</v>
+      <c r="U6" s="32">
+        <v>0</v>
+      </c>
+      <c r="V6" s="31">
+        <v>0</v>
+      </c>
+      <c r="W6" s="31" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.25">
+    <row r="7" spans="1:23" ht="14.25">
       <c r="A7">
         <v>52000004</v>
       </c>
@@ -4301,10 +4369,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -4337,32 +4405,35 @@
       <c r="N7" s="9">
         <v>4</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="9">
         <v>0</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" s="4">
-        <v>5</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4">
+        <v>5</v>
+      </c>
+      <c r="T7" s="5">
         <v>4</v>
       </c>
-      <c r="T7" s="32">
-        <v>0</v>
-      </c>
-      <c r="U7" s="31">
-        <v>0</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>454</v>
+      <c r="U7" s="32">
+        <v>0</v>
+      </c>
+      <c r="V7" s="31">
+        <v>0</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.25">
+    <row r="8" spans="1:23" ht="14.25">
       <c r="A8">
         <v>52000005</v>
       </c>
@@ -4370,10 +4441,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
@@ -4406,30 +4477,33 @@
       <c r="N8" s="9">
         <v>4</v>
       </c>
-      <c r="O8" s="4">
-        <v>0</v>
+      <c r="O8" s="9">
+        <v>10</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="4">
-        <v>5</v>
-      </c>
-      <c r="S8" s="5">
-        <v>5</v>
-      </c>
-      <c r="T8" s="32">
-        <v>0</v>
-      </c>
-      <c r="U8" s="31">
-        <v>0</v>
-      </c>
-      <c r="V8" s="31"/>
+      <c r="S8" s="4">
+        <v>5</v>
+      </c>
+      <c r="T8" s="5">
+        <v>5</v>
+      </c>
+      <c r="U8" s="32">
+        <v>0</v>
+      </c>
+      <c r="V8" s="31">
+        <v>0</v>
+      </c>
+      <c r="W8" s="31"/>
     </row>
-    <row r="9" spans="1:22" ht="14.25">
+    <row r="9" spans="1:23" ht="14.25">
       <c r="A9">
         <v>52000006</v>
       </c>
@@ -4437,10 +4511,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -4473,30 +4547,33 @@
       <c r="N9" s="9">
         <v>4</v>
       </c>
-      <c r="O9" s="4">
-        <v>0</v>
+      <c r="O9" s="9">
+        <v>10</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="4">
-        <v>5</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
+        <v>5</v>
+      </c>
+      <c r="T9" s="5">
         <v>6</v>
       </c>
-      <c r="T9" s="32">
-        <v>0</v>
-      </c>
-      <c r="U9" s="31">
-        <v>0</v>
-      </c>
-      <c r="V9" s="31"/>
+      <c r="U9" s="32">
+        <v>0</v>
+      </c>
+      <c r="V9" s="31">
+        <v>0</v>
+      </c>
+      <c r="W9" s="31"/>
     </row>
-    <row r="10" spans="1:22" ht="14.25">
+    <row r="10" spans="1:23" ht="14.25">
       <c r="A10">
         <v>52000007</v>
       </c>
@@ -4504,10 +4581,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -4540,30 +4617,33 @@
       <c r="N10" s="9">
         <v>4</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="9">
         <v>0</v>
       </c>
       <c r="P10" s="4">
         <v>0</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="4">
-        <v>5</v>
-      </c>
-      <c r="S10" s="5">
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4">
+        <v>5</v>
+      </c>
+      <c r="T10" s="5">
         <v>7</v>
       </c>
-      <c r="T10" s="32">
-        <v>0</v>
-      </c>
-      <c r="U10" s="31">
-        <v>0</v>
-      </c>
-      <c r="V10" s="31"/>
+      <c r="U10" s="32">
+        <v>0</v>
+      </c>
+      <c r="V10" s="31">
+        <v>0</v>
+      </c>
+      <c r="W10" s="31"/>
     </row>
-    <row r="11" spans="1:22" ht="14.25">
+    <row r="11" spans="1:23" ht="14.25">
       <c r="A11">
         <v>52000008</v>
       </c>
@@ -4571,10 +4651,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E11" s="4">
         <v>4</v>
@@ -4607,30 +4687,33 @@
       <c r="N11" s="9">
         <v>4</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="9">
         <v>0</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R11" s="4">
-        <v>5</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="4">
+        <v>5</v>
+      </c>
+      <c r="T11" s="5">
         <v>8</v>
       </c>
-      <c r="T11" s="32">
-        <v>0</v>
-      </c>
-      <c r="U11" s="31">
-        <v>0</v>
-      </c>
-      <c r="V11" s="31"/>
+      <c r="U11" s="32">
+        <v>0</v>
+      </c>
+      <c r="V11" s="31">
+        <v>0</v>
+      </c>
+      <c r="W11" s="31"/>
     </row>
-    <row r="12" spans="1:22" ht="14.25">
+    <row r="12" spans="1:23" ht="14.25">
       <c r="A12">
         <v>52000009</v>
       </c>
@@ -4638,10 +4721,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -4674,32 +4757,35 @@
       <c r="N12" s="9">
         <v>3</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
         <v>55000060</v>
       </c>
-      <c r="P12" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="4">
-        <v>5</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="Q12" s="4">
+        <v>100</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="4">
+        <v>5</v>
+      </c>
+      <c r="T12" s="5">
         <v>9</v>
       </c>
-      <c r="T12" s="32">
-        <v>0</v>
-      </c>
-      <c r="U12" s="31">
-        <v>0</v>
-      </c>
-      <c r="V12" s="31" t="s">
-        <v>454</v>
+      <c r="U12" s="32">
+        <v>0</v>
+      </c>
+      <c r="V12" s="31">
+        <v>0</v>
+      </c>
+      <c r="W12" s="31" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.25">
+    <row r="13" spans="1:23" ht="14.25">
       <c r="A13">
         <v>52000010</v>
       </c>
@@ -4707,10 +4793,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -4743,41 +4829,44 @@
       <c r="N13" s="9">
         <v>3</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="9">
+        <v>10</v>
+      </c>
+      <c r="P13" s="14">
         <v>55020003</v>
       </c>
-      <c r="P13" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="4">
+        <v>100</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="4">
-        <v>5</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="S13" s="4">
+        <v>5</v>
+      </c>
+      <c r="T13" s="5">
         <v>10</v>
       </c>
-      <c r="T13" s="32">
-        <v>0</v>
-      </c>
-      <c r="U13" s="31">
-        <v>0</v>
-      </c>
-      <c r="V13" s="31"/>
+      <c r="U13" s="32">
+        <v>0</v>
+      </c>
+      <c r="V13" s="31">
+        <v>0</v>
+      </c>
+      <c r="W13" s="31"/>
     </row>
-    <row r="14" spans="1:22" ht="14.25">
+    <row r="14" spans="1:23" ht="14.25">
       <c r="A14">
         <v>52000011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -4810,30 +4899,33 @@
       <c r="N14" s="9">
         <v>3</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="9">
+        <v>10</v>
+      </c>
+      <c r="P14" s="14">
         <v>55020001</v>
       </c>
-      <c r="P14" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="4">
+        <v>100</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="4">
-        <v>5</v>
-      </c>
-      <c r="S14" s="5">
+      <c r="S14" s="4">
+        <v>5</v>
+      </c>
+      <c r="T14" s="5">
         <v>11</v>
       </c>
-      <c r="T14" s="32">
-        <v>0</v>
-      </c>
-      <c r="U14" s="31">
-        <v>0</v>
-      </c>
-      <c r="V14" s="31"/>
+      <c r="U14" s="32">
+        <v>0</v>
+      </c>
+      <c r="V14" s="31">
+        <v>0</v>
+      </c>
+      <c r="W14" s="31"/>
     </row>
-    <row r="15" spans="1:22" ht="14.25">
+    <row r="15" spans="1:23" ht="14.25">
       <c r="A15">
         <v>52000012</v>
       </c>
@@ -4841,10 +4933,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -4877,41 +4969,44 @@
       <c r="N15" s="9">
         <v>3</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="9">
+        <v>25</v>
+      </c>
+      <c r="P15" s="14">
         <v>55020002</v>
       </c>
-      <c r="P15" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" s="4">
-        <v>5</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="Q15" s="4">
+        <v>100</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="S15" s="4">
+        <v>5</v>
+      </c>
+      <c r="T15" s="5">
         <v>12</v>
       </c>
-      <c r="T15" s="32">
-        <v>0</v>
-      </c>
-      <c r="U15" s="31">
-        <v>0</v>
-      </c>
-      <c r="V15" s="31"/>
+      <c r="U15" s="32">
+        <v>0</v>
+      </c>
+      <c r="V15" s="31">
+        <v>0</v>
+      </c>
+      <c r="W15" s="31"/>
     </row>
-    <row r="16" spans="1:22" ht="14.25">
+    <row r="16" spans="1:23" ht="14.25">
       <c r="A16">
         <v>52000013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -4944,30 +5039,33 @@
       <c r="N16" s="9">
         <v>3</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="14">
         <v>55020004</v>
       </c>
-      <c r="P16" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="4">
+        <v>100</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="4">
-        <v>5</v>
-      </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
+        <v>5</v>
+      </c>
+      <c r="T16" s="5">
         <v>13</v>
       </c>
-      <c r="T16" s="32">
-        <v>0</v>
-      </c>
-      <c r="U16" s="31">
-        <v>0</v>
-      </c>
-      <c r="V16" s="31"/>
+      <c r="U16" s="32">
+        <v>0</v>
+      </c>
+      <c r="V16" s="31">
+        <v>0</v>
+      </c>
+      <c r="W16" s="31"/>
     </row>
-    <row r="17" spans="1:22" ht="14.25">
+    <row r="17" spans="1:23" ht="14.25">
       <c r="A17">
         <v>52000014</v>
       </c>
@@ -4975,10 +5073,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -5011,30 +5109,33 @@
       <c r="N17" s="9">
         <v>4</v>
       </c>
-      <c r="O17" s="4">
-        <v>0</v>
+      <c r="O17" s="9">
+        <v>10</v>
       </c>
       <c r="P17" s="4">
         <v>0</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="4">
-        <v>5</v>
-      </c>
-      <c r="S17" s="5">
+      <c r="S17" s="4">
+        <v>5</v>
+      </c>
+      <c r="T17" s="5">
         <v>14</v>
       </c>
-      <c r="T17" s="32">
-        <v>0</v>
-      </c>
-      <c r="U17" s="31">
-        <v>0</v>
-      </c>
-      <c r="V17" s="31"/>
+      <c r="U17" s="32">
+        <v>0</v>
+      </c>
+      <c r="V17" s="31">
+        <v>0</v>
+      </c>
+      <c r="W17" s="31"/>
     </row>
-    <row r="18" spans="1:22" ht="14.25">
+    <row r="18" spans="1:23" ht="14.25">
       <c r="A18">
         <v>52000015</v>
       </c>
@@ -5042,10 +5143,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -5078,30 +5179,33 @@
       <c r="N18" s="9">
         <v>3</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="9">
+        <v>10</v>
+      </c>
+      <c r="P18" s="14">
         <v>55020007</v>
       </c>
-      <c r="P18" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="4">
+        <v>100</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="4">
-        <v>5</v>
-      </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
+        <v>5</v>
+      </c>
+      <c r="T18" s="5">
         <v>15</v>
       </c>
-      <c r="T18" s="32">
-        <v>0</v>
-      </c>
-      <c r="U18" s="31">
-        <v>0</v>
-      </c>
-      <c r="V18" s="31"/>
+      <c r="U18" s="32">
+        <v>0</v>
+      </c>
+      <c r="V18" s="31">
+        <v>0</v>
+      </c>
+      <c r="W18" s="31"/>
     </row>
-    <row r="19" spans="1:22" ht="14.25">
+    <row r="19" spans="1:23" ht="14.25">
       <c r="A19">
         <v>52000016</v>
       </c>
@@ -5109,10 +5213,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
@@ -5145,41 +5249,44 @@
       <c r="N19" s="9">
         <v>3</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="9">
+        <v>10</v>
+      </c>
+      <c r="P19" s="14">
         <v>55020005</v>
       </c>
-      <c r="P19" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="4">
+        <v>100</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="4">
-        <v>5</v>
-      </c>
-      <c r="S19" s="5">
+      <c r="S19" s="4">
+        <v>5</v>
+      </c>
+      <c r="T19" s="5">
         <v>16</v>
       </c>
-      <c r="T19" s="32">
-        <v>0</v>
-      </c>
-      <c r="U19" s="31">
-        <v>0</v>
-      </c>
-      <c r="V19" s="31"/>
+      <c r="U19" s="32">
+        <v>0</v>
+      </c>
+      <c r="V19" s="31">
+        <v>0</v>
+      </c>
+      <c r="W19" s="31"/>
     </row>
-    <row r="20" spans="1:22" ht="14.25">
+    <row r="20" spans="1:23" ht="14.25">
       <c r="A20">
         <v>52000017</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -5212,30 +5319,33 @@
       <c r="N20" s="9">
         <v>3</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="9">
+        <v>10</v>
+      </c>
+      <c r="P20" s="14">
         <v>55020008</v>
       </c>
-      <c r="P20" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="4">
+        <v>100</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="4">
-        <v>5</v>
-      </c>
-      <c r="S20" s="5">
+      <c r="S20" s="4">
+        <v>5</v>
+      </c>
+      <c r="T20" s="5">
         <v>17</v>
       </c>
-      <c r="T20" s="32">
-        <v>0</v>
-      </c>
-      <c r="U20" s="31">
-        <v>0</v>
-      </c>
-      <c r="V20" s="31"/>
+      <c r="U20" s="32">
+        <v>0</v>
+      </c>
+      <c r="V20" s="31">
+        <v>0</v>
+      </c>
+      <c r="W20" s="31"/>
     </row>
-    <row r="21" spans="1:22" ht="14.25">
+    <row r="21" spans="1:23" ht="14.25">
       <c r="A21">
         <v>52000018</v>
       </c>
@@ -5243,10 +5353,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
@@ -5279,30 +5389,33 @@
       <c r="N21" s="9">
         <v>3</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="9">
+        <v>10</v>
+      </c>
+      <c r="P21" s="14">
         <v>55020006</v>
       </c>
-      <c r="P21" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="4">
+        <v>100</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="4">
-        <v>5</v>
-      </c>
-      <c r="S21" s="5">
+      <c r="S21" s="4">
+        <v>5</v>
+      </c>
+      <c r="T21" s="5">
         <v>18</v>
       </c>
-      <c r="T21" s="32">
-        <v>0</v>
-      </c>
-      <c r="U21" s="31">
-        <v>0</v>
-      </c>
-      <c r="V21" s="31"/>
+      <c r="U21" s="32">
+        <v>0</v>
+      </c>
+      <c r="V21" s="31">
+        <v>0</v>
+      </c>
+      <c r="W21" s="31"/>
     </row>
-    <row r="22" spans="1:22" ht="14.25">
+    <row r="22" spans="1:23" ht="14.25">
       <c r="A22">
         <v>52000019</v>
       </c>
@@ -5310,10 +5423,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
@@ -5346,30 +5459,33 @@
       <c r="N22" s="9">
         <v>4</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
         <v>55000119</v>
       </c>
-      <c r="P22" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="4">
-        <v>5</v>
-      </c>
-      <c r="S22" s="5">
+      <c r="Q22" s="4">
+        <v>100</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="4">
+        <v>5</v>
+      </c>
+      <c r="T22" s="5">
         <v>19</v>
       </c>
-      <c r="T22" s="32">
-        <v>0</v>
-      </c>
-      <c r="U22" s="31">
-        <v>0</v>
-      </c>
-      <c r="V22" s="31"/>
+      <c r="U22" s="32">
+        <v>0</v>
+      </c>
+      <c r="V22" s="31">
+        <v>0</v>
+      </c>
+      <c r="W22" s="31"/>
     </row>
-    <row r="23" spans="1:22" ht="14.25">
+    <row r="23" spans="1:23" ht="14.25">
       <c r="A23">
         <v>52000020</v>
       </c>
@@ -5377,10 +5493,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -5413,30 +5529,33 @@
       <c r="N23" s="9">
         <v>4</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="9">
+        <v>20</v>
+      </c>
+      <c r="P23" s="14">
         <v>55000060</v>
       </c>
-      <c r="P23" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="4">
-        <v>5</v>
-      </c>
-      <c r="S23" s="5">
+      <c r="Q23" s="4">
+        <v>100</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="S23" s="4">
+        <v>5</v>
+      </c>
+      <c r="T23" s="5">
         <v>20</v>
       </c>
-      <c r="T23" s="32">
-        <v>0</v>
-      </c>
-      <c r="U23" s="31">
-        <v>0</v>
-      </c>
-      <c r="V23" s="31"/>
+      <c r="U23" s="32">
+        <v>0</v>
+      </c>
+      <c r="V23" s="31">
+        <v>0</v>
+      </c>
+      <c r="W23" s="31"/>
     </row>
-    <row r="24" spans="1:22" ht="14.25">
+    <row r="24" spans="1:23" ht="14.25">
       <c r="A24">
         <v>52000021</v>
       </c>
@@ -5444,10 +5563,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -5480,30 +5599,33 @@
       <c r="N24" s="9">
         <v>4</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="9">
+        <v>20</v>
+      </c>
+      <c r="P24" s="14">
         <v>55000060</v>
       </c>
-      <c r="P24" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="4">
-        <v>5</v>
-      </c>
-      <c r="S24" s="5">
+      <c r="Q24" s="4">
+        <v>100</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="S24" s="4">
+        <v>5</v>
+      </c>
+      <c r="T24" s="5">
         <v>21</v>
       </c>
-      <c r="T24" s="32">
-        <v>0</v>
-      </c>
-      <c r="U24" s="31">
-        <v>0</v>
-      </c>
-      <c r="V24" s="31"/>
+      <c r="U24" s="32">
+        <v>0</v>
+      </c>
+      <c r="V24" s="31">
+        <v>0</v>
+      </c>
+      <c r="W24" s="31"/>
     </row>
-    <row r="25" spans="1:22" ht="14.25">
+    <row r="25" spans="1:23" ht="14.25">
       <c r="A25">
         <v>52000022</v>
       </c>
@@ -5511,10 +5633,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -5547,41 +5669,44 @@
       <c r="N25" s="9">
         <v>6</v>
       </c>
-      <c r="O25" s="4">
-        <v>0</v>
+      <c r="O25" s="9">
+        <v>10</v>
       </c>
       <c r="P25" s="4">
         <v>0</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="4">
-        <v>5</v>
-      </c>
-      <c r="S25" s="5">
+      <c r="S25" s="4">
+        <v>5</v>
+      </c>
+      <c r="T25" s="5">
         <v>22</v>
       </c>
-      <c r="T25" s="32">
-        <v>0</v>
-      </c>
-      <c r="U25" s="31">
-        <v>0</v>
-      </c>
-      <c r="V25" s="31"/>
+      <c r="U25" s="32">
+        <v>0</v>
+      </c>
+      <c r="V25" s="31">
+        <v>0</v>
+      </c>
+      <c r="W25" s="31"/>
     </row>
-    <row r="26" spans="1:22" ht="14.25">
+    <row r="26" spans="1:23" ht="14.25">
       <c r="A26">
         <v>52000023</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E26" s="16">
         <v>4</v>
@@ -5614,30 +5739,33 @@
       <c r="N26" s="9">
         <v>6</v>
       </c>
-      <c r="O26" s="4">
-        <v>0</v>
+      <c r="O26" s="9">
+        <v>30</v>
       </c>
       <c r="P26" s="4">
         <v>0</v>
       </c>
-      <c r="Q26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="4">
-        <v>5</v>
-      </c>
-      <c r="S26" s="5">
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="S26" s="4">
+        <v>5</v>
+      </c>
+      <c r="T26" s="5">
         <v>23</v>
       </c>
-      <c r="T26" s="32">
-        <v>0</v>
-      </c>
-      <c r="U26" s="31">
-        <v>0</v>
-      </c>
-      <c r="V26" s="31"/>
+      <c r="U26" s="32">
+        <v>0</v>
+      </c>
+      <c r="V26" s="31">
+        <v>0</v>
+      </c>
+      <c r="W26" s="31"/>
     </row>
-    <row r="27" spans="1:22" ht="14.25">
+    <row r="27" spans="1:23" ht="14.25">
       <c r="A27">
         <v>52000024</v>
       </c>
@@ -5645,10 +5773,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -5681,30 +5809,33 @@
       <c r="N27" s="9">
         <v>6</v>
       </c>
-      <c r="O27" s="4">
-        <v>0</v>
+      <c r="O27" s="9">
+        <v>30</v>
       </c>
       <c r="P27" s="4">
         <v>0</v>
       </c>
-      <c r="Q27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="4">
-        <v>5</v>
-      </c>
-      <c r="S27" s="5">
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="S27" s="4">
+        <v>5</v>
+      </c>
+      <c r="T27" s="5">
         <v>24</v>
       </c>
-      <c r="T27" s="32">
-        <v>0</v>
-      </c>
-      <c r="U27" s="31">
-        <v>0</v>
-      </c>
-      <c r="V27" s="31"/>
+      <c r="U27" s="32">
+        <v>0</v>
+      </c>
+      <c r="V27" s="31">
+        <v>0</v>
+      </c>
+      <c r="W27" s="31"/>
     </row>
-    <row r="28" spans="1:22" ht="14.25">
+    <row r="28" spans="1:23" ht="14.25">
       <c r="A28">
         <v>52000025</v>
       </c>
@@ -5712,10 +5843,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -5748,30 +5879,33 @@
       <c r="N28" s="9">
         <v>3</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
         <v>55020014</v>
       </c>
-      <c r="P28" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R28" s="4">
-        <v>5</v>
-      </c>
-      <c r="S28" s="5">
+      <c r="Q28" s="4">
+        <v>100</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S28" s="4">
+        <v>5</v>
+      </c>
+      <c r="T28" s="5">
         <v>25</v>
       </c>
-      <c r="T28" s="32">
-        <v>0</v>
-      </c>
-      <c r="U28" s="31">
-        <v>0</v>
-      </c>
-      <c r="V28" s="31"/>
+      <c r="U28" s="32">
+        <v>0</v>
+      </c>
+      <c r="V28" s="31">
+        <v>0</v>
+      </c>
+      <c r="W28" s="31"/>
     </row>
-    <row r="29" spans="1:22" ht="14.25">
+    <row r="29" spans="1:23" ht="14.25">
       <c r="A29">
         <v>52000026</v>
       </c>
@@ -5779,10 +5913,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -5815,30 +5949,33 @@
       <c r="N29" s="9">
         <v>3</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
         <v>55020011</v>
       </c>
-      <c r="P29" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="4">
-        <v>5</v>
-      </c>
-      <c r="S29" s="5">
+      <c r="Q29" s="4">
+        <v>100</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="4">
+        <v>5</v>
+      </c>
+      <c r="T29" s="5">
         <v>26</v>
       </c>
-      <c r="T29" s="32">
-        <v>0</v>
-      </c>
-      <c r="U29" s="31">
-        <v>0</v>
-      </c>
-      <c r="V29" s="31"/>
+      <c r="U29" s="32">
+        <v>0</v>
+      </c>
+      <c r="V29" s="31">
+        <v>0</v>
+      </c>
+      <c r="W29" s="31"/>
     </row>
-    <row r="30" spans="1:22" ht="14.25">
+    <row r="30" spans="1:23" ht="14.25">
       <c r="A30">
         <v>52000027</v>
       </c>
@@ -5846,10 +5983,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -5882,30 +6019,33 @@
       <c r="N30" s="9">
         <v>3</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14">
         <v>55020009</v>
       </c>
-      <c r="P30" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R30" s="4">
-        <v>5</v>
-      </c>
-      <c r="S30" s="5">
+      <c r="Q30" s="4">
+        <v>100</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S30" s="4">
+        <v>5</v>
+      </c>
+      <c r="T30" s="5">
         <v>27</v>
       </c>
-      <c r="T30" s="32">
-        <v>0</v>
-      </c>
-      <c r="U30" s="31">
-        <v>0</v>
-      </c>
-      <c r="V30" s="31"/>
+      <c r="U30" s="32">
+        <v>0</v>
+      </c>
+      <c r="V30" s="31">
+        <v>0</v>
+      </c>
+      <c r="W30" s="31"/>
     </row>
-    <row r="31" spans="1:22" ht="14.25">
+    <row r="31" spans="1:23" ht="14.25">
       <c r="A31">
         <v>52000028</v>
       </c>
@@ -5913,10 +6053,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -5949,30 +6089,33 @@
       <c r="N31" s="9">
         <v>3</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14">
         <v>55020012</v>
       </c>
-      <c r="P31" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R31" s="4">
-        <v>5</v>
-      </c>
-      <c r="S31" s="5">
+      <c r="Q31" s="4">
+        <v>100</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S31" s="4">
+        <v>5</v>
+      </c>
+      <c r="T31" s="5">
         <v>28</v>
       </c>
-      <c r="T31" s="32">
-        <v>0</v>
-      </c>
-      <c r="U31" s="31">
-        <v>0</v>
-      </c>
-      <c r="V31" s="31"/>
+      <c r="U31" s="32">
+        <v>0</v>
+      </c>
+      <c r="V31" s="31">
+        <v>0</v>
+      </c>
+      <c r="W31" s="31"/>
     </row>
-    <row r="32" spans="1:22" ht="14.25">
+    <row r="32" spans="1:23" ht="14.25">
       <c r="A32">
         <v>52000029</v>
       </c>
@@ -5980,10 +6123,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -6016,30 +6159,33 @@
       <c r="N32" s="9">
         <v>3</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="14">
         <v>55020016</v>
       </c>
-      <c r="P32" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="4">
-        <v>5</v>
-      </c>
-      <c r="S32" s="5">
+      <c r="Q32" s="4">
+        <v>100</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="4">
+        <v>5</v>
+      </c>
+      <c r="T32" s="5">
         <v>29</v>
       </c>
-      <c r="T32" s="32">
-        <v>0</v>
-      </c>
-      <c r="U32" s="31">
-        <v>0</v>
-      </c>
-      <c r="V32" s="31"/>
+      <c r="U32" s="32">
+        <v>0</v>
+      </c>
+      <c r="V32" s="31">
+        <v>0</v>
+      </c>
+      <c r="W32" s="31"/>
     </row>
-    <row r="33" spans="1:22" ht="14.25">
+    <row r="33" spans="1:23" ht="14.25">
       <c r="A33">
         <v>52000030</v>
       </c>
@@ -6047,10 +6193,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -6083,30 +6229,33 @@
       <c r="N33" s="9">
         <v>3</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="14">
         <v>55020015</v>
       </c>
-      <c r="P33" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="4">
-        <v>5</v>
-      </c>
-      <c r="S33" s="5">
+      <c r="Q33" s="4">
+        <v>100</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="4">
+        <v>5</v>
+      </c>
+      <c r="T33" s="5">
         <v>30</v>
       </c>
-      <c r="T33" s="32">
-        <v>0</v>
-      </c>
-      <c r="U33" s="31">
-        <v>0</v>
-      </c>
-      <c r="V33" s="31"/>
+      <c r="U33" s="32">
+        <v>0</v>
+      </c>
+      <c r="V33" s="31">
+        <v>0</v>
+      </c>
+      <c r="W33" s="31"/>
     </row>
-    <row r="34" spans="1:22" ht="14.25">
+    <row r="34" spans="1:23" ht="14.25">
       <c r="A34">
         <v>52000031</v>
       </c>
@@ -6114,10 +6263,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -6150,30 +6299,33 @@
       <c r="N34" s="9">
         <v>3</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="14">
         <v>55020010</v>
       </c>
-      <c r="P34" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34" s="4">
-        <v>5</v>
-      </c>
-      <c r="S34" s="5">
+      <c r="Q34" s="4">
+        <v>100</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" s="4">
+        <v>5</v>
+      </c>
+      <c r="T34" s="5">
         <v>31</v>
       </c>
-      <c r="T34" s="32">
-        <v>0</v>
-      </c>
-      <c r="U34" s="31">
-        <v>0</v>
-      </c>
-      <c r="V34" s="31"/>
+      <c r="U34" s="32">
+        <v>0</v>
+      </c>
+      <c r="V34" s="31">
+        <v>0</v>
+      </c>
+      <c r="W34" s="31"/>
     </row>
-    <row r="35" spans="1:22" ht="14.25">
+    <row r="35" spans="1:23" ht="14.25">
       <c r="A35">
         <v>52000032</v>
       </c>
@@ -6181,10 +6333,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -6217,41 +6369,44 @@
       <c r="N35" s="9">
         <v>3</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14">
         <v>55020013</v>
       </c>
-      <c r="P35" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="4">
-        <v>5</v>
-      </c>
-      <c r="S35" s="5">
+      <c r="Q35" s="4">
+        <v>100</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="4">
+        <v>5</v>
+      </c>
+      <c r="T35" s="5">
         <v>32</v>
       </c>
-      <c r="T35" s="32">
-        <v>0</v>
-      </c>
-      <c r="U35" s="31">
-        <v>0</v>
-      </c>
-      <c r="V35" s="31"/>
+      <c r="U35" s="32">
+        <v>0</v>
+      </c>
+      <c r="V35" s="31">
+        <v>0</v>
+      </c>
+      <c r="W35" s="31"/>
     </row>
-    <row r="36" spans="1:22" ht="14.25">
+    <row r="36" spans="1:23" ht="14.25">
       <c r="A36">
         <v>52000033</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
@@ -6284,41 +6439,44 @@
       <c r="N36" s="9">
         <v>5</v>
       </c>
-      <c r="O36" s="4">
-        <v>0</v>
+      <c r="O36" s="9">
+        <v>20</v>
       </c>
       <c r="P36" s="4">
         <v>0</v>
       </c>
-      <c r="Q36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R36" s="4">
-        <v>5</v>
-      </c>
-      <c r="S36" s="5">
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="S36" s="4">
+        <v>5</v>
+      </c>
+      <c r="T36" s="5">
         <v>33</v>
       </c>
-      <c r="T36" s="32">
-        <v>0</v>
-      </c>
-      <c r="U36" s="31">
-        <v>0</v>
-      </c>
-      <c r="V36" s="31"/>
+      <c r="U36" s="32">
+        <v>0</v>
+      </c>
+      <c r="V36" s="31">
+        <v>0</v>
+      </c>
+      <c r="W36" s="31"/>
     </row>
-    <row r="37" spans="1:22" ht="14.25">
+    <row r="37" spans="1:23" ht="14.25">
       <c r="A37">
         <v>52000034</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
@@ -6351,41 +6509,44 @@
       <c r="N37" s="9">
         <v>5</v>
       </c>
-      <c r="O37" s="4">
-        <v>0</v>
+      <c r="O37" s="9">
+        <v>20</v>
       </c>
       <c r="P37" s="4">
         <v>0</v>
       </c>
-      <c r="Q37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R37" s="4">
-        <v>5</v>
-      </c>
-      <c r="S37" s="5">
+      <c r="Q37" s="4">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="4">
+        <v>5</v>
+      </c>
+      <c r="T37" s="5">
         <v>34</v>
       </c>
-      <c r="T37" s="32">
-        <v>0</v>
-      </c>
-      <c r="U37" s="31">
-        <v>0</v>
-      </c>
-      <c r="V37" s="31"/>
+      <c r="U37" s="32">
+        <v>0</v>
+      </c>
+      <c r="V37" s="31">
+        <v>0</v>
+      </c>
+      <c r="W37" s="31"/>
     </row>
-    <row r="38" spans="1:22" ht="14.25">
+    <row r="38" spans="1:23" ht="14.25">
       <c r="A38">
         <v>52000035</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E38" s="4">
         <v>2</v>
@@ -6418,41 +6579,44 @@
       <c r="N38" s="9">
         <v>5</v>
       </c>
-      <c r="O38" s="4">
-        <v>0</v>
+      <c r="O38" s="9">
+        <v>20</v>
       </c>
       <c r="P38" s="4">
         <v>0</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S38" s="4">
+        <v>5</v>
+      </c>
+      <c r="T38" s="5">
         <v>35</v>
       </c>
-      <c r="R38" s="4">
-        <v>5</v>
-      </c>
-      <c r="S38" s="5">
-        <v>35</v>
-      </c>
-      <c r="T38" s="32">
-        <v>0</v>
-      </c>
-      <c r="U38" s="31">
-        <v>0</v>
-      </c>
-      <c r="V38" s="31"/>
+      <c r="U38" s="32">
+        <v>0</v>
+      </c>
+      <c r="V38" s="31">
+        <v>0</v>
+      </c>
+      <c r="W38" s="31"/>
     </row>
-    <row r="39" spans="1:22" ht="14.25">
+    <row r="39" spans="1:23" ht="14.25">
       <c r="A39">
         <v>52000036</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
@@ -6485,41 +6649,44 @@
       <c r="N39" s="9">
         <v>5</v>
       </c>
-      <c r="O39" s="4">
-        <v>0</v>
+      <c r="O39" s="9">
+        <v>20</v>
       </c>
       <c r="P39" s="4">
         <v>0</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="4">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="S39" s="4">
+        <v>5</v>
+      </c>
+      <c r="T39" s="5">
         <v>36</v>
       </c>
-      <c r="R39" s="4">
-        <v>5</v>
-      </c>
-      <c r="S39" s="5">
-        <v>36</v>
-      </c>
-      <c r="T39" s="32">
-        <v>0</v>
-      </c>
-      <c r="U39" s="31">
-        <v>0</v>
-      </c>
-      <c r="V39" s="31"/>
+      <c r="U39" s="32">
+        <v>0</v>
+      </c>
+      <c r="V39" s="31">
+        <v>0</v>
+      </c>
+      <c r="W39" s="31"/>
     </row>
-    <row r="40" spans="1:22" ht="14.25">
+    <row r="40" spans="1:23" ht="14.25">
       <c r="A40">
         <v>52000037</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -6552,41 +6719,44 @@
       <c r="N40" s="9">
         <v>5</v>
       </c>
-      <c r="O40" s="4">
-        <v>0</v>
+      <c r="O40" s="9">
+        <v>20</v>
       </c>
       <c r="P40" s="4">
         <v>0</v>
       </c>
-      <c r="Q40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R40" s="4">
-        <v>5</v>
-      </c>
-      <c r="S40" s="5">
+      <c r="Q40" s="4">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="S40" s="4">
+        <v>5</v>
+      </c>
+      <c r="T40" s="5">
         <v>37</v>
       </c>
-      <c r="T40" s="32">
-        <v>0</v>
-      </c>
-      <c r="U40" s="31">
-        <v>0</v>
-      </c>
-      <c r="V40" s="31"/>
+      <c r="U40" s="32">
+        <v>0</v>
+      </c>
+      <c r="V40" s="31">
+        <v>0</v>
+      </c>
+      <c r="W40" s="31"/>
     </row>
-    <row r="41" spans="1:22" ht="14.25">
+    <row r="41" spans="1:23" ht="14.25">
       <c r="A41">
         <v>52000038</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -6619,41 +6789,44 @@
       <c r="N41" s="9">
         <v>5</v>
       </c>
-      <c r="O41" s="4">
-        <v>0</v>
+      <c r="O41" s="9">
+        <v>20</v>
       </c>
       <c r="P41" s="4">
         <v>0</v>
       </c>
-      <c r="Q41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R41" s="4">
-        <v>5</v>
-      </c>
-      <c r="S41" s="5">
+      <c r="Q41" s="4">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="4">
+        <v>5</v>
+      </c>
+      <c r="T41" s="5">
         <v>38</v>
       </c>
-      <c r="T41" s="32">
-        <v>0</v>
-      </c>
-      <c r="U41" s="31">
-        <v>0</v>
-      </c>
-      <c r="V41" s="31"/>
+      <c r="U41" s="32">
+        <v>0</v>
+      </c>
+      <c r="V41" s="31">
+        <v>0</v>
+      </c>
+      <c r="W41" s="31"/>
     </row>
-    <row r="42" spans="1:22" ht="14.25">
+    <row r="42" spans="1:23" ht="14.25">
       <c r="A42">
         <v>52000039</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -6686,41 +6859,44 @@
       <c r="N42" s="9">
         <v>5</v>
       </c>
-      <c r="O42" s="4">
-        <v>0</v>
+      <c r="O42" s="9">
+        <v>20</v>
       </c>
       <c r="P42" s="4">
         <v>0</v>
       </c>
-      <c r="Q42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R42" s="4">
-        <v>5</v>
-      </c>
-      <c r="S42" s="5">
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="S42" s="4">
+        <v>5</v>
+      </c>
+      <c r="T42" s="5">
         <v>39</v>
       </c>
-      <c r="T42" s="32">
-        <v>0</v>
-      </c>
-      <c r="U42" s="31">
-        <v>0</v>
-      </c>
-      <c r="V42" s="31"/>
+      <c r="U42" s="32">
+        <v>0</v>
+      </c>
+      <c r="V42" s="31">
+        <v>0</v>
+      </c>
+      <c r="W42" s="31"/>
     </row>
-    <row r="43" spans="1:22" ht="14.25">
+    <row r="43" spans="1:23" ht="14.25">
       <c r="A43">
         <v>52000040</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
@@ -6753,41 +6929,44 @@
       <c r="N43" s="9">
         <v>5</v>
       </c>
-      <c r="O43" s="4">
-        <v>0</v>
+      <c r="O43" s="9">
+        <v>20</v>
       </c>
       <c r="P43" s="4">
         <v>0</v>
       </c>
-      <c r="Q43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R43" s="4">
-        <v>5</v>
-      </c>
-      <c r="S43" s="5">
+      <c r="Q43" s="4">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="S43" s="4">
+        <v>5</v>
+      </c>
+      <c r="T43" s="5">
         <v>40</v>
       </c>
-      <c r="T43" s="32">
-        <v>0</v>
-      </c>
-      <c r="U43" s="31">
-        <v>0</v>
-      </c>
-      <c r="V43" s="31"/>
+      <c r="U43" s="32">
+        <v>0</v>
+      </c>
+      <c r="V43" s="31">
+        <v>0</v>
+      </c>
+      <c r="W43" s="31"/>
     </row>
-    <row r="44" spans="1:22" ht="14.25">
+    <row r="44" spans="1:23" ht="14.25">
       <c r="A44">
         <v>52000041</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
@@ -6820,41 +6999,44 @@
       <c r="N44" s="9">
         <v>4</v>
       </c>
-      <c r="O44" s="4">
-        <v>0</v>
+      <c r="O44" s="9">
+        <v>20</v>
       </c>
       <c r="P44" s="4">
         <v>0</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="4">
-        <v>5</v>
-      </c>
-      <c r="S44" s="5">
+      <c r="S44" s="4">
+        <v>5</v>
+      </c>
+      <c r="T44" s="5">
         <v>41</v>
       </c>
-      <c r="T44" s="32">
-        <v>0</v>
-      </c>
-      <c r="U44" s="31">
-        <v>0</v>
-      </c>
-      <c r="V44" s="31"/>
+      <c r="U44" s="32">
+        <v>0</v>
+      </c>
+      <c r="V44" s="31">
+        <v>0</v>
+      </c>
+      <c r="W44" s="31"/>
     </row>
-    <row r="45" spans="1:22" ht="14.25">
+    <row r="45" spans="1:23" ht="14.25">
       <c r="A45">
         <v>52000042</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -6887,41 +7069,44 @@
       <c r="N45" s="9">
         <v>4</v>
       </c>
-      <c r="O45" s="4">
-        <v>0</v>
+      <c r="O45" s="9">
+        <v>10</v>
       </c>
       <c r="P45" s="4">
         <v>0</v>
       </c>
-      <c r="Q45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R45" s="4">
-        <v>5</v>
-      </c>
-      <c r="S45" s="5">
+      <c r="Q45" s="4">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S45" s="4">
+        <v>5</v>
+      </c>
+      <c r="T45" s="5">
         <v>42</v>
       </c>
-      <c r="T45" s="32">
-        <v>0</v>
-      </c>
-      <c r="U45" s="31">
-        <v>0</v>
-      </c>
-      <c r="V45" s="31"/>
+      <c r="U45" s="32">
+        <v>0</v>
+      </c>
+      <c r="V45" s="31">
+        <v>0</v>
+      </c>
+      <c r="W45" s="31"/>
     </row>
-    <row r="46" spans="1:22" ht="14.25">
+    <row r="46" spans="1:23" ht="14.25">
       <c r="A46">
         <v>52000043</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E46" s="4">
         <v>3</v>
@@ -6954,41 +7139,44 @@
       <c r="N46" s="9">
         <v>4</v>
       </c>
-      <c r="O46" s="4">
-        <v>0</v>
+      <c r="O46" s="9">
+        <v>10</v>
       </c>
       <c r="P46" s="4">
         <v>0</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="Q46" s="4">
+        <v>0</v>
+      </c>
+      <c r="R46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R46" s="4">
-        <v>5</v>
-      </c>
-      <c r="S46" s="5">
+      <c r="S46" s="4">
+        <v>5</v>
+      </c>
+      <c r="T46" s="5">
         <v>43</v>
       </c>
-      <c r="T46" s="32">
-        <v>0</v>
-      </c>
-      <c r="U46" s="31">
-        <v>0</v>
-      </c>
-      <c r="V46" s="31"/>
+      <c r="U46" s="32">
+        <v>0</v>
+      </c>
+      <c r="V46" s="31">
+        <v>0</v>
+      </c>
+      <c r="W46" s="31"/>
     </row>
-    <row r="47" spans="1:22" ht="14.25">
+    <row r="47" spans="1:23" ht="14.25">
       <c r="A47">
         <v>52000044</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E47" s="4">
         <v>4</v>
@@ -7021,41 +7209,44 @@
       <c r="N47" s="9">
         <v>4</v>
       </c>
-      <c r="O47" s="4">
-        <v>0</v>
+      <c r="O47" s="9">
+        <v>10</v>
       </c>
       <c r="P47" s="4">
         <v>0</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="Q47" s="4">
+        <v>0</v>
+      </c>
+      <c r="R47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="4">
-        <v>5</v>
-      </c>
-      <c r="S47" s="5">
+      <c r="S47" s="4">
+        <v>5</v>
+      </c>
+      <c r="T47" s="5">
         <v>44</v>
       </c>
-      <c r="T47" s="32">
-        <v>0</v>
-      </c>
-      <c r="U47" s="31">
-        <v>0</v>
-      </c>
-      <c r="V47" s="31"/>
+      <c r="U47" s="32">
+        <v>0</v>
+      </c>
+      <c r="V47" s="31">
+        <v>0</v>
+      </c>
+      <c r="W47" s="31"/>
     </row>
-    <row r="48" spans="1:22" ht="14.25">
+    <row r="48" spans="1:23" ht="14.25">
       <c r="A48">
         <v>52000045</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E48" s="4">
         <v>3</v>
@@ -7088,41 +7279,44 @@
       <c r="N48" s="9">
         <v>4</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48" s="9">
+        <v>0</v>
+      </c>
+      <c r="P48" s="14">
         <v>55000051</v>
       </c>
-      <c r="P48" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="4">
-        <v>5</v>
-      </c>
-      <c r="S48" s="5">
+      <c r="Q48" s="4">
+        <v>100</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="4">
+        <v>5</v>
+      </c>
+      <c r="T48" s="5">
         <v>45</v>
       </c>
-      <c r="T48" s="32">
-        <v>0</v>
-      </c>
-      <c r="U48" s="31">
-        <v>0</v>
-      </c>
-      <c r="V48" s="31"/>
+      <c r="U48" s="32">
+        <v>0</v>
+      </c>
+      <c r="V48" s="31">
+        <v>0</v>
+      </c>
+      <c r="W48" s="31"/>
     </row>
-    <row r="49" spans="1:22" ht="14.25">
+    <row r="49" spans="1:23" ht="14.25">
       <c r="A49">
         <v>52000046</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
@@ -7155,41 +7349,44 @@
       <c r="N49" s="9">
         <v>4</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="9">
         <v>0</v>
       </c>
       <c r="P49" s="4">
         <v>0</v>
       </c>
-      <c r="Q49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="4">
-        <v>5</v>
-      </c>
-      <c r="S49" s="5">
+      <c r="Q49" s="4">
+        <v>0</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="4">
+        <v>5</v>
+      </c>
+      <c r="T49" s="5">
         <v>46</v>
       </c>
-      <c r="T49" s="32">
-        <v>0</v>
-      </c>
-      <c r="U49" s="31">
-        <v>0</v>
-      </c>
-      <c r="V49" s="31"/>
+      <c r="U49" s="32">
+        <v>0</v>
+      </c>
+      <c r="V49" s="31">
+        <v>0</v>
+      </c>
+      <c r="W49" s="31"/>
     </row>
-    <row r="50" spans="1:22" ht="14.25">
+    <row r="50" spans="1:23" ht="14.25">
       <c r="A50">
         <v>52000047</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -7222,41 +7419,44 @@
       <c r="N50" s="9">
         <v>4</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="9">
         <v>0</v>
       </c>
       <c r="P50" s="4">
         <v>0</v>
       </c>
-      <c r="Q50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R50" s="4">
-        <v>5</v>
-      </c>
-      <c r="S50" s="5">
+      <c r="Q50" s="4">
+        <v>0</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S50" s="4">
+        <v>5</v>
+      </c>
+      <c r="T50" s="5">
         <v>47</v>
       </c>
-      <c r="T50" s="32">
-        <v>0</v>
-      </c>
-      <c r="U50" s="31">
-        <v>0</v>
-      </c>
-      <c r="V50" s="31"/>
+      <c r="U50" s="32">
+        <v>0</v>
+      </c>
+      <c r="V50" s="31">
+        <v>0</v>
+      </c>
+      <c r="W50" s="31"/>
     </row>
-    <row r="51" spans="1:22" ht="14.25">
+    <row r="51" spans="1:23" ht="14.25">
       <c r="A51">
         <v>52000048</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -7289,41 +7489,44 @@
       <c r="N51" s="9">
         <v>4</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O51" s="9">
+        <v>10</v>
+      </c>
+      <c r="P51" s="14">
         <v>55000158</v>
       </c>
-      <c r="P51" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R51" s="4">
-        <v>5</v>
-      </c>
-      <c r="S51" s="5">
+      <c r="Q51" s="4">
+        <v>100</v>
+      </c>
+      <c r="R51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T51" s="32">
-        <v>0</v>
-      </c>
-      <c r="U51" s="31">
-        <v>0</v>
-      </c>
-      <c r="V51" s="31"/>
+      <c r="S51" s="4">
+        <v>5</v>
+      </c>
+      <c r="T51" s="5">
+        <v>48</v>
+      </c>
+      <c r="U51" s="32">
+        <v>0</v>
+      </c>
+      <c r="V51" s="31">
+        <v>0</v>
+      </c>
+      <c r="W51" s="31"/>
     </row>
-    <row r="52" spans="1:22" ht="14.25">
+    <row r="52" spans="1:23" ht="14.25">
       <c r="A52">
         <v>52000049</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -7356,41 +7559,44 @@
       <c r="N52" s="9">
         <v>6</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="9">
         <v>0</v>
       </c>
       <c r="P52" s="4">
         <v>0</v>
       </c>
-      <c r="Q52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="4">
-        <v>5</v>
-      </c>
-      <c r="S52" s="5">
+      <c r="Q52" s="4">
+        <v>0</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="4">
+        <v>5</v>
+      </c>
+      <c r="T52" s="5">
         <v>49</v>
       </c>
-      <c r="T52" s="32">
-        <v>0</v>
-      </c>
-      <c r="U52" s="31">
-        <v>0</v>
-      </c>
-      <c r="V52" s="31"/>
+      <c r="U52" s="32">
+        <v>0</v>
+      </c>
+      <c r="V52" s="31">
+        <v>0</v>
+      </c>
+      <c r="W52" s="31"/>
     </row>
-    <row r="53" spans="1:22" ht="14.25">
+    <row r="53" spans="1:23" ht="14.25">
       <c r="A53">
         <v>52000050</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -7423,41 +7629,44 @@
       <c r="N53" s="9">
         <v>6</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="9">
         <v>0</v>
       </c>
       <c r="P53" s="4">
         <v>0</v>
       </c>
-      <c r="Q53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R53" s="4">
-        <v>5</v>
-      </c>
-      <c r="S53" s="5">
+      <c r="Q53" s="4">
+        <v>0</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S53" s="4">
+        <v>5</v>
+      </c>
+      <c r="T53" s="5">
         <v>50</v>
       </c>
-      <c r="T53" s="32">
-        <v>0</v>
-      </c>
-      <c r="U53" s="31">
-        <v>0</v>
-      </c>
-      <c r="V53" s="31"/>
+      <c r="U53" s="32">
+        <v>0</v>
+      </c>
+      <c r="V53" s="31">
+        <v>0</v>
+      </c>
+      <c r="W53" s="31"/>
     </row>
-    <row r="54" spans="1:22" ht="14.25">
+    <row r="54" spans="1:23" ht="14.25">
       <c r="A54">
         <v>52000051</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E54" s="4">
         <v>1</v>
@@ -7490,41 +7699,44 @@
       <c r="N54" s="9">
         <v>6</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="9">
         <v>0</v>
       </c>
       <c r="P54" s="4">
         <v>0</v>
       </c>
-      <c r="Q54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="4">
-        <v>5</v>
-      </c>
-      <c r="S54" s="5">
+      <c r="Q54" s="4">
+        <v>0</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="4">
+        <v>5</v>
+      </c>
+      <c r="T54" s="5">
         <v>51</v>
       </c>
-      <c r="T54" s="32">
-        <v>0</v>
-      </c>
-      <c r="U54" s="31">
-        <v>0</v>
-      </c>
-      <c r="V54" s="31"/>
+      <c r="U54" s="32">
+        <v>0</v>
+      </c>
+      <c r="V54" s="31">
+        <v>0</v>
+      </c>
+      <c r="W54" s="31"/>
     </row>
-    <row r="55" spans="1:22" ht="14.25">
+    <row r="55" spans="1:23" ht="14.25">
       <c r="A55">
         <v>52000052</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -7557,41 +7769,44 @@
       <c r="N55" s="9">
         <v>4</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="9">
         <v>0</v>
       </c>
       <c r="P55" s="4">
         <v>0</v>
       </c>
-      <c r="Q55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R55" s="4">
-        <v>5</v>
-      </c>
-      <c r="S55" s="5">
+      <c r="Q55" s="4">
+        <v>0</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S55" s="4">
+        <v>5</v>
+      </c>
+      <c r="T55" s="5">
         <v>52</v>
       </c>
-      <c r="T55" s="32">
-        <v>0</v>
-      </c>
-      <c r="U55" s="31">
-        <v>0</v>
-      </c>
-      <c r="V55" s="31"/>
+      <c r="U55" s="32">
+        <v>0</v>
+      </c>
+      <c r="V55" s="31">
+        <v>0</v>
+      </c>
+      <c r="W55" s="31"/>
     </row>
-    <row r="56" spans="1:22" ht="14.25">
+    <row r="56" spans="1:23" ht="14.25">
       <c r="A56">
         <v>52000053</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E56" s="4">
         <v>2</v>
@@ -7624,41 +7839,44 @@
       <c r="N56" s="9">
         <v>4</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="9">
         <v>0</v>
       </c>
       <c r="P56" s="4">
         <v>0</v>
       </c>
-      <c r="Q56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R56" s="4">
-        <v>5</v>
-      </c>
-      <c r="S56" s="5">
+      <c r="Q56" s="4">
+        <v>0</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S56" s="4">
+        <v>5</v>
+      </c>
+      <c r="T56" s="5">
         <v>53</v>
       </c>
-      <c r="T56" s="32">
-        <v>0</v>
-      </c>
-      <c r="U56" s="31">
-        <v>0</v>
-      </c>
-      <c r="V56" s="31"/>
+      <c r="U56" s="32">
+        <v>0</v>
+      </c>
+      <c r="V56" s="31">
+        <v>0</v>
+      </c>
+      <c r="W56" s="31"/>
     </row>
-    <row r="57" spans="1:22" ht="14.25">
+    <row r="57" spans="1:23" ht="14.25">
       <c r="A57">
         <v>52000054</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E57" s="4">
         <v>2</v>
@@ -7691,41 +7909,44 @@
       <c r="N57" s="9">
         <v>4</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="9">
         <v>0</v>
       </c>
       <c r="P57" s="4">
         <v>0</v>
       </c>
-      <c r="Q57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="4">
-        <v>5</v>
-      </c>
-      <c r="S57" s="5">
+      <c r="Q57" s="4">
+        <v>0</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="4">
+        <v>5</v>
+      </c>
+      <c r="T57" s="5">
         <v>54</v>
       </c>
-      <c r="T57" s="32">
-        <v>0</v>
-      </c>
-      <c r="U57" s="31">
-        <v>0</v>
-      </c>
-      <c r="V57" s="31"/>
+      <c r="U57" s="32">
+        <v>0</v>
+      </c>
+      <c r="V57" s="31">
+        <v>0</v>
+      </c>
+      <c r="W57" s="31"/>
     </row>
-    <row r="58" spans="1:22" ht="14.25">
+    <row r="58" spans="1:23" ht="14.25">
       <c r="A58">
         <v>52000055</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E58" s="4">
         <v>3</v>
@@ -7758,41 +7979,44 @@
       <c r="N58" s="9">
         <v>4</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O58" s="9">
         <v>0</v>
       </c>
       <c r="P58" s="4">
         <v>0</v>
       </c>
-      <c r="Q58" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="4">
-        <v>5</v>
-      </c>
-      <c r="S58" s="5">
+      <c r="Q58" s="4">
+        <v>0</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="4">
+        <v>5</v>
+      </c>
+      <c r="T58" s="5">
         <v>55</v>
       </c>
-      <c r="T58" s="32">
-        <v>0</v>
-      </c>
-      <c r="U58" s="31">
-        <v>0</v>
-      </c>
-      <c r="V58" s="31"/>
+      <c r="U58" s="32">
+        <v>0</v>
+      </c>
+      <c r="V58" s="31">
+        <v>0</v>
+      </c>
+      <c r="W58" s="31"/>
     </row>
-    <row r="59" spans="1:22" ht="14.25">
+    <row r="59" spans="1:23" ht="14.25">
       <c r="A59">
         <v>52000056</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E59" s="4">
         <v>3</v>
@@ -7825,41 +8049,44 @@
       <c r="N59" s="9">
         <v>4</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="9">
         <v>0</v>
       </c>
       <c r="P59" s="4">
         <v>0</v>
       </c>
-      <c r="Q59" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="4">
-        <v>5</v>
-      </c>
-      <c r="S59" s="5">
+      <c r="Q59" s="4">
+        <v>0</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="4">
+        <v>5</v>
+      </c>
+      <c r="T59" s="5">
         <v>56</v>
       </c>
-      <c r="T59" s="32">
-        <v>0</v>
-      </c>
-      <c r="U59" s="31">
-        <v>0</v>
-      </c>
-      <c r="V59" s="31"/>
+      <c r="U59" s="32">
+        <v>0</v>
+      </c>
+      <c r="V59" s="31">
+        <v>0</v>
+      </c>
+      <c r="W59" s="31"/>
     </row>
-    <row r="60" spans="1:22" ht="14.25">
+    <row r="60" spans="1:23" ht="14.25">
       <c r="A60">
         <v>52000057</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E60" s="4">
         <v>3</v>
@@ -7892,41 +8119,44 @@
       <c r="N60" s="9">
         <v>4</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="9">
         <v>0</v>
       </c>
       <c r="P60" s="4">
         <v>0</v>
       </c>
-      <c r="Q60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="4">
-        <v>5</v>
-      </c>
-      <c r="S60" s="5">
+      <c r="Q60" s="4">
+        <v>0</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="4">
+        <v>5</v>
+      </c>
+      <c r="T60" s="5">
         <v>57</v>
       </c>
-      <c r="T60" s="32">
-        <v>0</v>
-      </c>
-      <c r="U60" s="31">
-        <v>0</v>
-      </c>
-      <c r="V60" s="31"/>
+      <c r="U60" s="32">
+        <v>0</v>
+      </c>
+      <c r="V60" s="31">
+        <v>0</v>
+      </c>
+      <c r="W60" s="31"/>
     </row>
-    <row r="61" spans="1:22" ht="14.25">
+    <row r="61" spans="1:23" ht="14.25">
       <c r="A61">
         <v>52000058</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -7959,41 +8189,44 @@
       <c r="N61" s="9">
         <v>4</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O61" s="9">
+        <v>0</v>
+      </c>
+      <c r="P61" s="14">
         <v>55000092</v>
       </c>
-      <c r="P61" s="4">
+      <c r="Q61" s="4">
         <v>50</v>
       </c>
-      <c r="Q61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R61" s="4">
-        <v>5</v>
-      </c>
-      <c r="S61" s="5">
+      <c r="R61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S61" s="4">
+        <v>5</v>
+      </c>
+      <c r="T61" s="5">
         <v>58</v>
       </c>
-      <c r="T61" s="32">
-        <v>0</v>
-      </c>
-      <c r="U61" s="31">
-        <v>0</v>
-      </c>
-      <c r="V61" s="31"/>
+      <c r="U61" s="32">
+        <v>0</v>
+      </c>
+      <c r="V61" s="31">
+        <v>0</v>
+      </c>
+      <c r="W61" s="31"/>
     </row>
-    <row r="62" spans="1:22" ht="14.25">
+    <row r="62" spans="1:23" ht="14.25">
       <c r="A62">
         <v>52000059</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E62" s="4">
         <v>4</v>
@@ -8026,41 +8259,44 @@
       <c r="N62" s="9">
         <v>4</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O62" s="9">
+        <v>0</v>
+      </c>
+      <c r="P62" s="14">
         <v>55000089</v>
       </c>
-      <c r="P62" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="4">
-        <v>5</v>
-      </c>
-      <c r="S62" s="5">
+      <c r="Q62" s="4">
+        <v>100</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="4">
+        <v>5</v>
+      </c>
+      <c r="T62" s="5">
         <v>59</v>
       </c>
-      <c r="T62" s="32">
-        <v>0</v>
-      </c>
-      <c r="U62" s="31">
-        <v>0</v>
-      </c>
-      <c r="V62" s="31"/>
+      <c r="U62" s="32">
+        <v>0</v>
+      </c>
+      <c r="V62" s="31">
+        <v>0</v>
+      </c>
+      <c r="W62" s="31"/>
     </row>
-    <row r="63" spans="1:22" ht="14.25">
+    <row r="63" spans="1:23" ht="14.25">
       <c r="A63">
         <v>52000060</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
@@ -8093,41 +8329,44 @@
       <c r="N63" s="9">
         <v>4</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="9">
+        <v>0</v>
+      </c>
+      <c r="P63">
         <v>55000101</v>
       </c>
-      <c r="P63" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R63" s="4">
-        <v>5</v>
-      </c>
-      <c r="S63" s="5">
+      <c r="Q63" s="4">
+        <v>100</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S63" s="4">
+        <v>5</v>
+      </c>
+      <c r="T63" s="5">
         <v>60</v>
       </c>
-      <c r="T63" s="32">
-        <v>0</v>
-      </c>
-      <c r="U63" s="31">
-        <v>0</v>
-      </c>
-      <c r="V63" s="31"/>
+      <c r="U63" s="32">
+        <v>0</v>
+      </c>
+      <c r="V63" s="31">
+        <v>0</v>
+      </c>
+      <c r="W63" s="31"/>
     </row>
-    <row r="64" spans="1:22" ht="14.25">
+    <row r="64" spans="1:23" ht="14.25">
       <c r="A64">
         <v>52000061</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E64" s="4">
         <v>3</v>
@@ -8160,41 +8399,44 @@
       <c r="N64" s="9">
         <v>4</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="9">
+        <v>0</v>
+      </c>
+      <c r="P64">
         <v>55000102</v>
       </c>
-      <c r="P64" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R64" s="4">
-        <v>5</v>
-      </c>
-      <c r="S64" s="5">
+      <c r="Q64" s="4">
+        <v>100</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S64" s="4">
+        <v>5</v>
+      </c>
+      <c r="T64" s="5">
         <v>61</v>
       </c>
-      <c r="T64" s="32">
-        <v>0</v>
-      </c>
-      <c r="U64" s="31">
-        <v>0</v>
-      </c>
-      <c r="V64" s="31"/>
+      <c r="U64" s="32">
+        <v>0</v>
+      </c>
+      <c r="V64" s="31">
+        <v>0</v>
+      </c>
+      <c r="W64" s="31"/>
     </row>
-    <row r="65" spans="1:22" ht="14.25">
+    <row r="65" spans="1:23" ht="14.25">
       <c r="A65">
         <v>52000062</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E65" s="4">
         <v>3</v>
@@ -8227,41 +8469,44 @@
       <c r="N65" s="9">
         <v>4</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="9">
+        <v>0</v>
+      </c>
+      <c r="P65">
         <v>55000143</v>
       </c>
-      <c r="P65" s="4">
+      <c r="Q65" s="4">
         <v>30</v>
       </c>
-      <c r="Q65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R65" s="4">
-        <v>5</v>
-      </c>
-      <c r="S65" s="5">
+      <c r="R65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S65" s="4">
+        <v>5</v>
+      </c>
+      <c r="T65" s="5">
         <v>62</v>
       </c>
-      <c r="T65" s="32">
-        <v>0</v>
-      </c>
-      <c r="U65" s="31">
-        <v>0</v>
-      </c>
-      <c r="V65" s="31"/>
+      <c r="U65" s="32">
+        <v>0</v>
+      </c>
+      <c r="V65" s="31">
+        <v>0</v>
+      </c>
+      <c r="W65" s="31"/>
     </row>
-    <row r="66" spans="1:22" ht="14.25">
+    <row r="66" spans="1:23" ht="14.25">
       <c r="A66">
         <v>52000063</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -8294,41 +8539,44 @@
       <c r="N66" s="9">
         <v>3</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="9">
+        <v>0</v>
+      </c>
+      <c r="P66">
         <v>55000163</v>
       </c>
-      <c r="P66" s="4">
+      <c r="Q66" s="4">
         <v>60</v>
       </c>
-      <c r="Q66" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="4">
-        <v>5</v>
-      </c>
-      <c r="S66" s="5">
+      <c r="R66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="4">
+        <v>5</v>
+      </c>
+      <c r="T66" s="5">
         <v>63</v>
       </c>
-      <c r="T66" s="32">
-        <v>0</v>
-      </c>
-      <c r="U66" s="31">
-        <v>0</v>
-      </c>
-      <c r="V66" s="31"/>
+      <c r="U66" s="32">
+        <v>0</v>
+      </c>
+      <c r="V66" s="31">
+        <v>0</v>
+      </c>
+      <c r="W66" s="31"/>
     </row>
-    <row r="67" spans="1:22" ht="14.25">
+    <row r="67" spans="1:23" ht="14.25">
       <c r="A67">
         <v>52000064</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E67" s="4">
         <v>4</v>
@@ -8361,41 +8609,44 @@
       <c r="N67" s="9">
         <v>4</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="9">
+        <v>0</v>
+      </c>
+      <c r="P67">
         <v>55000166</v>
       </c>
-      <c r="P67" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R67" s="4">
-        <v>5</v>
-      </c>
-      <c r="S67" s="5">
+      <c r="Q67" s="4">
+        <v>100</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S67" s="4">
+        <v>5</v>
+      </c>
+      <c r="T67" s="5">
         <v>64</v>
       </c>
-      <c r="T67" s="32">
-        <v>0</v>
-      </c>
-      <c r="U67" s="31">
-        <v>0</v>
-      </c>
-      <c r="V67" s="31"/>
+      <c r="U67" s="32">
+        <v>0</v>
+      </c>
+      <c r="V67" s="31">
+        <v>0</v>
+      </c>
+      <c r="W67" s="31"/>
     </row>
-    <row r="68" spans="1:22" ht="14.25">
+    <row r="68" spans="1:23" ht="14.25">
       <c r="A68">
         <v>52000065</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E68" s="4">
         <v>1</v>
@@ -8428,41 +8679,44 @@
       <c r="N68" s="9">
         <v>4</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="9">
+        <v>10</v>
+      </c>
+      <c r="P68">
         <v>55000222</v>
       </c>
-      <c r="P68" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q68" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R68" s="4">
-        <v>5</v>
-      </c>
-      <c r="S68" s="5">
+      <c r="Q68" s="4">
+        <v>100</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S68" s="4">
+        <v>5</v>
+      </c>
+      <c r="T68" s="5">
         <v>65</v>
       </c>
-      <c r="T68" s="32">
-        <v>0</v>
-      </c>
-      <c r="U68" s="31">
-        <v>0</v>
-      </c>
-      <c r="V68" s="31"/>
+      <c r="U68" s="32">
+        <v>0</v>
+      </c>
+      <c r="V68" s="31">
+        <v>0</v>
+      </c>
+      <c r="W68" s="31"/>
     </row>
-    <row r="69" spans="1:22" ht="14.25">
+    <row r="69" spans="1:23" ht="14.25">
       <c r="A69">
         <v>52000066</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E69" s="4">
         <v>2</v>
@@ -8495,41 +8749,44 @@
       <c r="N69" s="9">
         <v>5</v>
       </c>
-      <c r="O69" s="39">
-        <v>0</v>
-      </c>
-      <c r="P69" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="4" t="s">
+      <c r="O69" s="9">
+        <v>10</v>
+      </c>
+      <c r="P69" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>0</v>
+      </c>
+      <c r="R69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R69" s="4">
-        <v>5</v>
-      </c>
-      <c r="S69" s="5">
+      <c r="S69" s="4">
+        <v>5</v>
+      </c>
+      <c r="T69" s="5">
         <v>66</v>
       </c>
-      <c r="T69" s="32">
-        <v>0</v>
-      </c>
-      <c r="U69" s="31">
-        <v>0</v>
-      </c>
-      <c r="V69" s="31"/>
+      <c r="U69" s="32">
+        <v>0</v>
+      </c>
+      <c r="V69" s="31">
+        <v>0</v>
+      </c>
+      <c r="W69" s="31"/>
     </row>
-    <row r="70" spans="1:22" ht="14.25">
+    <row r="70" spans="1:23" ht="14.25">
       <c r="A70">
         <v>52000067</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E70" s="4">
         <v>3</v>
@@ -8562,41 +8819,44 @@
       <c r="N70" s="9">
         <v>5</v>
       </c>
-      <c r="O70" s="39">
-        <v>0</v>
-      </c>
-      <c r="P70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="4" t="s">
+      <c r="O70" s="9">
+        <v>10</v>
+      </c>
+      <c r="P70" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>0</v>
+      </c>
+      <c r="R70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R70" s="4">
-        <v>5</v>
-      </c>
-      <c r="S70" s="5">
+      <c r="S70" s="4">
+        <v>5</v>
+      </c>
+      <c r="T70" s="5">
         <v>67</v>
       </c>
-      <c r="T70" s="32">
-        <v>0</v>
-      </c>
-      <c r="U70" s="31">
-        <v>0</v>
-      </c>
-      <c r="V70" s="31"/>
+      <c r="U70" s="32">
+        <v>0</v>
+      </c>
+      <c r="V70" s="31">
+        <v>0</v>
+      </c>
+      <c r="W70" s="31"/>
     </row>
-    <row r="71" spans="1:22" ht="14.25">
+    <row r="71" spans="1:23" ht="14.25">
       <c r="A71">
         <v>52000068</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E71" s="4">
         <v>2</v>
@@ -8629,41 +8889,44 @@
       <c r="N71" s="9">
         <v>4</v>
       </c>
-      <c r="O71" s="39">
-        <v>0</v>
-      </c>
-      <c r="P71" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R71" s="4">
-        <v>5</v>
-      </c>
-      <c r="S71" s="5">
+      <c r="O71" s="9">
+        <v>0</v>
+      </c>
+      <c r="P71" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>0</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S71" s="4">
+        <v>5</v>
+      </c>
+      <c r="T71" s="5">
         <v>68</v>
       </c>
-      <c r="T71" s="32">
-        <v>0</v>
-      </c>
-      <c r="U71" s="31">
-        <v>0</v>
-      </c>
-      <c r="V71" s="31"/>
+      <c r="U71" s="32">
+        <v>0</v>
+      </c>
+      <c r="V71" s="31">
+        <v>0</v>
+      </c>
+      <c r="W71" s="31"/>
     </row>
-    <row r="72" spans="1:22" ht="14.25">
+    <row r="72" spans="1:23" ht="14.25">
       <c r="A72">
         <v>52000069</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E72" s="4">
         <v>5</v>
@@ -8696,41 +8959,44 @@
       <c r="N72" s="9">
         <v>4</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="9">
+        <v>0</v>
+      </c>
+      <c r="P72">
         <v>55000159</v>
       </c>
-      <c r="P72" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q72" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="4">
-        <v>5</v>
-      </c>
-      <c r="S72" s="5">
+      <c r="Q72" s="4">
+        <v>100</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="4">
+        <v>5</v>
+      </c>
+      <c r="T72" s="5">
         <v>69</v>
       </c>
-      <c r="T72" s="32">
-        <v>0</v>
-      </c>
-      <c r="U72" s="31">
-        <v>0</v>
-      </c>
-      <c r="V72" s="31"/>
+      <c r="U72" s="32">
+        <v>0</v>
+      </c>
+      <c r="V72" s="31">
+        <v>0</v>
+      </c>
+      <c r="W72" s="31"/>
     </row>
-    <row r="73" spans="1:22" ht="14.25">
+    <row r="73" spans="1:23" ht="14.25">
       <c r="A73">
         <v>52000070</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E73" s="4">
         <v>2</v>
@@ -8763,41 +9029,44 @@
       <c r="N73" s="9">
         <v>4</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="9">
+        <v>0</v>
+      </c>
+      <c r="P73">
         <v>55000167</v>
       </c>
-      <c r="P73" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R73" s="4">
-        <v>5</v>
-      </c>
-      <c r="S73" s="5">
+      <c r="Q73" s="4">
+        <v>100</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S73" s="4">
+        <v>5</v>
+      </c>
+      <c r="T73" s="5">
         <v>70</v>
       </c>
-      <c r="T73" s="32">
-        <v>0</v>
-      </c>
-      <c r="U73" s="31">
-        <v>0</v>
-      </c>
-      <c r="V73" s="31"/>
+      <c r="U73" s="32">
+        <v>0</v>
+      </c>
+      <c r="V73" s="31">
+        <v>0</v>
+      </c>
+      <c r="W73" s="31"/>
     </row>
-    <row r="74" spans="1:22" ht="14.25">
+    <row r="74" spans="1:23" ht="14.25">
       <c r="A74">
         <v>52000071</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E74" s="4">
         <v>4</v>
@@ -8830,41 +9099,44 @@
       <c r="N74" s="9">
         <v>4</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="9">
+        <v>0</v>
+      </c>
+      <c r="P74">
         <v>55000168</v>
       </c>
-      <c r="P74" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R74" s="4">
-        <v>5</v>
-      </c>
-      <c r="S74" s="5">
+      <c r="Q74" s="4">
+        <v>100</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S74" s="4">
+        <v>5</v>
+      </c>
+      <c r="T74" s="5">
         <v>71</v>
       </c>
-      <c r="T74" s="32">
-        <v>0</v>
-      </c>
-      <c r="U74" s="31">
-        <v>0</v>
-      </c>
-      <c r="V74" s="31"/>
+      <c r="U74" s="32">
+        <v>0</v>
+      </c>
+      <c r="V74" s="31">
+        <v>0</v>
+      </c>
+      <c r="W74" s="31"/>
     </row>
-    <row r="75" spans="1:22" ht="14.25">
+    <row r="75" spans="1:23" ht="14.25">
       <c r="A75">
         <v>52000072</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
@@ -8897,41 +9169,44 @@
       <c r="N75" s="9">
         <v>4</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="9">
+        <v>0</v>
+      </c>
+      <c r="P75">
         <v>55000062</v>
       </c>
-      <c r="P75" s="4">
+      <c r="Q75" s="4">
         <v>70</v>
       </c>
-      <c r="Q75" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R75" s="4">
-        <v>5</v>
-      </c>
-      <c r="S75" s="5">
+      <c r="R75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S75" s="4">
+        <v>5</v>
+      </c>
+      <c r="T75" s="5">
         <v>72</v>
       </c>
-      <c r="T75" s="32">
-        <v>0</v>
-      </c>
-      <c r="U75" s="31">
-        <v>0</v>
-      </c>
-      <c r="V75" s="31"/>
+      <c r="U75" s="32">
+        <v>0</v>
+      </c>
+      <c r="V75" s="31">
+        <v>0</v>
+      </c>
+      <c r="W75" s="31"/>
     </row>
-    <row r="76" spans="1:22" ht="14.25">
+    <row r="76" spans="1:23" ht="14.25">
       <c r="A76">
         <v>52000073</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E76" s="4">
         <v>4</v>
@@ -8964,41 +9239,44 @@
       <c r="N76" s="9">
         <v>4</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="9">
+        <v>10</v>
+      </c>
+      <c r="P76">
         <v>55000169</v>
       </c>
-      <c r="P76" s="4">
+      <c r="Q76" s="4">
         <v>70</v>
       </c>
-      <c r="Q76" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R76" s="4">
-        <v>5</v>
-      </c>
-      <c r="S76" s="5">
+      <c r="R76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S76" s="4">
+        <v>5</v>
+      </c>
+      <c r="T76" s="5">
         <v>73</v>
       </c>
-      <c r="T76" s="32">
-        <v>0</v>
-      </c>
-      <c r="U76" s="31">
-        <v>0</v>
-      </c>
-      <c r="V76" s="31"/>
+      <c r="U76" s="32">
+        <v>0</v>
+      </c>
+      <c r="V76" s="31">
+        <v>0</v>
+      </c>
+      <c r="W76" s="31"/>
     </row>
-    <row r="77" spans="1:22" ht="14.25">
+    <row r="77" spans="1:23" ht="14.25">
       <c r="A77">
         <v>52000074</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E77" s="4">
         <v>3</v>
@@ -9031,41 +9309,44 @@
       <c r="N77" s="9">
         <v>4</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="9">
+        <v>10</v>
+      </c>
+      <c r="P77">
         <v>55000086</v>
       </c>
-      <c r="P77" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q77" s="4" t="s">
+      <c r="Q77" s="4">
+        <v>100</v>
+      </c>
+      <c r="R77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R77" s="4">
-        <v>5</v>
-      </c>
-      <c r="S77" s="5">
+      <c r="S77" s="4">
+        <v>5</v>
+      </c>
+      <c r="T77" s="5">
         <v>74</v>
       </c>
-      <c r="T77" s="32">
-        <v>0</v>
-      </c>
-      <c r="U77" s="31">
-        <v>0</v>
-      </c>
-      <c r="V77" s="31"/>
+      <c r="U77" s="32">
+        <v>0</v>
+      </c>
+      <c r="V77" s="31">
+        <v>0</v>
+      </c>
+      <c r="W77" s="31"/>
     </row>
-    <row r="78" spans="1:22" ht="14.25">
+    <row r="78" spans="1:23" ht="14.25">
       <c r="A78">
         <v>52000075</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E78" s="4">
         <v>3</v>
@@ -9098,41 +9379,44 @@
       <c r="N78" s="9">
         <v>4</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="9">
+        <v>10</v>
+      </c>
+      <c r="P78">
         <v>55000005</v>
       </c>
-      <c r="P78" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q78" s="4" t="s">
+      <c r="Q78" s="4">
+        <v>100</v>
+      </c>
+      <c r="R78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R78" s="4">
-        <v>5</v>
-      </c>
-      <c r="S78" s="5">
+      <c r="S78" s="4">
+        <v>5</v>
+      </c>
+      <c r="T78" s="5">
         <v>75</v>
       </c>
-      <c r="T78" s="32">
-        <v>0</v>
-      </c>
-      <c r="U78" s="31">
-        <v>0</v>
-      </c>
-      <c r="V78" s="31"/>
+      <c r="U78" s="32">
+        <v>0</v>
+      </c>
+      <c r="V78" s="31">
+        <v>0</v>
+      </c>
+      <c r="W78" s="31"/>
     </row>
-    <row r="79" spans="1:22" ht="14.25">
+    <row r="79" spans="1:23" ht="14.25">
       <c r="A79">
         <v>52000076</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E79" s="4">
         <v>3</v>
@@ -9165,41 +9449,44 @@
       <c r="N79" s="9">
         <v>4</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="9">
+        <v>10</v>
+      </c>
+      <c r="P79">
         <v>55000017</v>
       </c>
-      <c r="P79" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q79" s="4" t="s">
+      <c r="Q79" s="4">
+        <v>100</v>
+      </c>
+      <c r="R79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R79" s="4">
-        <v>5</v>
-      </c>
-      <c r="S79" s="5">
+      <c r="S79" s="4">
+        <v>5</v>
+      </c>
+      <c r="T79" s="5">
         <v>76</v>
       </c>
-      <c r="T79" s="32">
-        <v>0</v>
-      </c>
-      <c r="U79" s="31">
-        <v>0</v>
-      </c>
-      <c r="V79" s="31"/>
+      <c r="U79" s="32">
+        <v>0</v>
+      </c>
+      <c r="V79" s="31">
+        <v>0</v>
+      </c>
+      <c r="W79" s="31"/>
     </row>
-    <row r="80" spans="1:22" ht="14.25">
+    <row r="80" spans="1:23" ht="14.25">
       <c r="A80">
         <v>52000077</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E80" s="4">
         <v>3</v>
@@ -9232,41 +9519,44 @@
       <c r="N80" s="9">
         <v>4</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="9">
+        <v>10</v>
+      </c>
+      <c r="P80">
         <v>55000015</v>
       </c>
-      <c r="P80" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q80" s="4" t="s">
+      <c r="Q80" s="4">
+        <v>100</v>
+      </c>
+      <c r="R80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R80" s="4">
-        <v>5</v>
-      </c>
-      <c r="S80" s="5">
+      <c r="S80" s="4">
+        <v>5</v>
+      </c>
+      <c r="T80" s="5">
         <v>77</v>
       </c>
-      <c r="T80" s="32">
-        <v>0</v>
-      </c>
-      <c r="U80" s="31">
-        <v>0</v>
-      </c>
-      <c r="V80" s="31"/>
+      <c r="U80" s="32">
+        <v>0</v>
+      </c>
+      <c r="V80" s="31">
+        <v>0</v>
+      </c>
+      <c r="W80" s="31"/>
     </row>
-    <row r="81" spans="1:22" ht="14.25">
+    <row r="81" spans="1:23" ht="14.25">
       <c r="A81">
         <v>52000078</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E81" s="4">
         <v>3</v>
@@ -9299,41 +9589,44 @@
       <c r="N81" s="9">
         <v>4</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="9">
+        <v>10</v>
+      </c>
+      <c r="P81">
         <v>55000009</v>
       </c>
-      <c r="P81" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="4" t="s">
+      <c r="Q81" s="4">
+        <v>100</v>
+      </c>
+      <c r="R81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R81" s="4">
-        <v>5</v>
-      </c>
-      <c r="S81" s="5">
+      <c r="S81" s="4">
+        <v>5</v>
+      </c>
+      <c r="T81" s="5">
         <v>78</v>
       </c>
-      <c r="T81" s="32">
-        <v>0</v>
-      </c>
-      <c r="U81" s="31">
-        <v>0</v>
-      </c>
-      <c r="V81" s="31"/>
+      <c r="U81" s="32">
+        <v>0</v>
+      </c>
+      <c r="V81" s="31">
+        <v>0</v>
+      </c>
+      <c r="W81" s="31"/>
     </row>
-    <row r="82" spans="1:22" ht="14.25">
+    <row r="82" spans="1:23" ht="14.25">
       <c r="A82">
         <v>52000079</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E82" s="4">
         <v>3</v>
@@ -9366,41 +9659,44 @@
       <c r="N82" s="9">
         <v>4</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="9">
+        <v>10</v>
+      </c>
+      <c r="P82">
         <v>55000007</v>
       </c>
-      <c r="P82" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q82" s="4" t="s">
+      <c r="Q82" s="4">
+        <v>100</v>
+      </c>
+      <c r="R82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R82" s="4">
-        <v>5</v>
-      </c>
-      <c r="S82" s="5">
+      <c r="S82" s="4">
+        <v>5</v>
+      </c>
+      <c r="T82" s="5">
         <v>79</v>
       </c>
-      <c r="T82" s="32">
-        <v>0</v>
-      </c>
-      <c r="U82" s="31">
-        <v>0</v>
-      </c>
-      <c r="V82" s="31"/>
+      <c r="U82" s="32">
+        <v>0</v>
+      </c>
+      <c r="V82" s="31">
+        <v>0</v>
+      </c>
+      <c r="W82" s="31"/>
     </row>
-    <row r="83" spans="1:22" ht="14.25">
+    <row r="83" spans="1:23" ht="14.25">
       <c r="A83">
         <v>52000080</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E83" s="4">
         <v>3</v>
@@ -9433,41 +9729,44 @@
       <c r="N83" s="9">
         <v>4</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="9">
+        <v>10</v>
+      </c>
+      <c r="P83">
         <v>55000016</v>
       </c>
-      <c r="P83" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q83" s="4" t="s">
+      <c r="Q83" s="4">
+        <v>100</v>
+      </c>
+      <c r="R83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="4">
-        <v>5</v>
-      </c>
-      <c r="S83" s="5">
+      <c r="S83" s="4">
+        <v>5</v>
+      </c>
+      <c r="T83" s="5">
         <v>80</v>
       </c>
-      <c r="T83" s="32">
-        <v>0</v>
-      </c>
-      <c r="U83" s="31">
-        <v>0</v>
-      </c>
-      <c r="V83" s="31"/>
+      <c r="U83" s="32">
+        <v>0</v>
+      </c>
+      <c r="V83" s="31">
+        <v>0</v>
+      </c>
+      <c r="W83" s="31"/>
     </row>
-    <row r="84" spans="1:22" ht="14.25">
+    <row r="84" spans="1:23" ht="14.25">
       <c r="A84">
         <v>52000081</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E84" s="4">
         <v>3</v>
@@ -9500,41 +9799,44 @@
       <c r="N84" s="9">
         <v>4</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="9">
+        <v>10</v>
+      </c>
+      <c r="P84">
         <v>55000104</v>
       </c>
-      <c r="P84" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q84" s="4" t="s">
+      <c r="Q84" s="4">
+        <v>100</v>
+      </c>
+      <c r="R84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R84" s="4">
-        <v>5</v>
-      </c>
-      <c r="S84" s="5">
+      <c r="S84" s="4">
+        <v>5</v>
+      </c>
+      <c r="T84" s="5">
         <v>81</v>
       </c>
-      <c r="T84" s="32">
-        <v>0</v>
-      </c>
-      <c r="U84" s="31">
-        <v>0</v>
-      </c>
-      <c r="V84" s="31"/>
+      <c r="U84" s="32">
+        <v>0</v>
+      </c>
+      <c r="V84" s="31">
+        <v>0</v>
+      </c>
+      <c r="W84" s="31"/>
     </row>
-    <row r="85" spans="1:22" ht="14.25">
+    <row r="85" spans="1:23" ht="14.25">
       <c r="A85">
         <v>52000082</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E85" s="4">
         <v>4</v>
@@ -9567,41 +9869,44 @@
       <c r="N85" s="9">
         <v>6</v>
       </c>
-      <c r="O85" s="39">
-        <v>0</v>
-      </c>
-      <c r="P85" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R85" s="4">
-        <v>5</v>
-      </c>
-      <c r="S85" s="5">
+      <c r="O85" s="9">
+        <v>20</v>
+      </c>
+      <c r="P85" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="S85" s="4">
+        <v>5</v>
+      </c>
+      <c r="T85" s="5">
         <v>82</v>
       </c>
-      <c r="T85" s="32">
-        <v>0</v>
-      </c>
-      <c r="U85" s="31">
-        <v>0</v>
-      </c>
-      <c r="V85" s="31"/>
+      <c r="U85" s="32">
+        <v>0</v>
+      </c>
+      <c r="V85" s="31">
+        <v>0</v>
+      </c>
+      <c r="W85" s="31"/>
     </row>
-    <row r="86" spans="1:22" ht="14.25">
+    <row r="86" spans="1:23" ht="14.25">
       <c r="A86">
         <v>52000083</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E86" s="4">
         <v>4</v>
@@ -9634,41 +9939,44 @@
       <c r="N86" s="9">
         <v>6</v>
       </c>
-      <c r="O86" s="39">
-        <v>0</v>
-      </c>
-      <c r="P86" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R86" s="4">
-        <v>5</v>
-      </c>
-      <c r="S86" s="5">
+      <c r="O86" s="9">
+        <v>20</v>
+      </c>
+      <c r="P86" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>0</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S86" s="4">
+        <v>5</v>
+      </c>
+      <c r="T86" s="5">
         <v>83</v>
       </c>
-      <c r="T86" s="32">
-        <v>0</v>
-      </c>
-      <c r="U86" s="31">
-        <v>0</v>
-      </c>
-      <c r="V86" s="31"/>
+      <c r="U86" s="32">
+        <v>0</v>
+      </c>
+      <c r="V86" s="31">
+        <v>0</v>
+      </c>
+      <c r="W86" s="31"/>
     </row>
-    <row r="87" spans="1:22" ht="14.25">
+    <row r="87" spans="1:23" ht="14.25">
       <c r="A87">
         <v>52000084</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E87" s="4">
         <v>4</v>
@@ -9701,41 +10009,44 @@
       <c r="N87" s="9">
         <v>6</v>
       </c>
-      <c r="O87" s="39">
-        <v>0</v>
-      </c>
-      <c r="P87" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R87" s="4">
-        <v>5</v>
-      </c>
-      <c r="S87" s="5">
+      <c r="O87" s="9">
+        <v>20</v>
+      </c>
+      <c r="P87" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>0</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S87" s="4">
+        <v>5</v>
+      </c>
+      <c r="T87" s="5">
         <v>84</v>
       </c>
-      <c r="T87" s="32">
-        <v>0</v>
-      </c>
-      <c r="U87" s="31">
-        <v>0</v>
-      </c>
-      <c r="V87" s="31"/>
+      <c r="U87" s="32">
+        <v>0</v>
+      </c>
+      <c r="V87" s="31">
+        <v>0</v>
+      </c>
+      <c r="W87" s="31"/>
     </row>
-    <row r="88" spans="1:22" ht="14.25">
+    <row r="88" spans="1:23" ht="14.25">
       <c r="A88">
         <v>52000085</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E88" s="4">
         <v>4</v>
@@ -9768,41 +10079,44 @@
       <c r="N88" s="9">
         <v>6</v>
       </c>
-      <c r="O88" s="39">
-        <v>0</v>
-      </c>
-      <c r="P88" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R88" s="4">
-        <v>5</v>
-      </c>
-      <c r="S88" s="5">
+      <c r="O88" s="9">
+        <v>20</v>
+      </c>
+      <c r="P88" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>0</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="S88" s="4">
+        <v>5</v>
+      </c>
+      <c r="T88" s="5">
         <v>85</v>
       </c>
-      <c r="T88" s="32">
-        <v>0</v>
-      </c>
-      <c r="U88" s="31">
-        <v>0</v>
-      </c>
-      <c r="V88" s="31"/>
+      <c r="U88" s="32">
+        <v>0</v>
+      </c>
+      <c r="V88" s="31">
+        <v>0</v>
+      </c>
+      <c r="W88" s="31"/>
     </row>
-    <row r="89" spans="1:22" ht="14.25">
+    <row r="89" spans="1:23" ht="14.25">
       <c r="A89">
         <v>52000086</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E89" s="4">
         <v>4</v>
@@ -9835,41 +10149,44 @@
       <c r="N89" s="9">
         <v>6</v>
       </c>
-      <c r="O89" s="39">
-        <v>0</v>
-      </c>
-      <c r="P89" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R89" s="4">
-        <v>5</v>
-      </c>
-      <c r="S89" s="5">
+      <c r="O89" s="9">
+        <v>20</v>
+      </c>
+      <c r="P89" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>0</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="S89" s="4">
+        <v>5</v>
+      </c>
+      <c r="T89" s="5">
         <v>86</v>
       </c>
-      <c r="T89" s="32">
-        <v>0</v>
-      </c>
-      <c r="U89" s="31">
-        <v>0</v>
-      </c>
-      <c r="V89" s="31"/>
+      <c r="U89" s="32">
+        <v>0</v>
+      </c>
+      <c r="V89" s="31">
+        <v>0</v>
+      </c>
+      <c r="W89" s="31"/>
     </row>
-    <row r="90" spans="1:22" ht="14.25">
+    <row r="90" spans="1:23" ht="14.25">
       <c r="A90">
         <v>52000087</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E90" s="4">
         <v>4</v>
@@ -9902,41 +10219,44 @@
       <c r="N90" s="9">
         <v>6</v>
       </c>
-      <c r="O90" s="39">
-        <v>0</v>
-      </c>
-      <c r="P90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R90" s="4">
-        <v>5</v>
-      </c>
-      <c r="S90" s="5">
+      <c r="O90" s="9">
+        <v>20</v>
+      </c>
+      <c r="P90" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>0</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S90" s="4">
+        <v>5</v>
+      </c>
+      <c r="T90" s="5">
         <v>87</v>
       </c>
-      <c r="T90" s="32">
-        <v>0</v>
-      </c>
-      <c r="U90" s="31">
-        <v>0</v>
-      </c>
-      <c r="V90" s="31"/>
+      <c r="U90" s="32">
+        <v>0</v>
+      </c>
+      <c r="V90" s="31">
+        <v>0</v>
+      </c>
+      <c r="W90" s="31"/>
     </row>
-    <row r="91" spans="1:22" ht="14.25">
+    <row r="91" spans="1:23" ht="14.25">
       <c r="A91">
         <v>52000088</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E91" s="4">
         <v>4</v>
@@ -9969,41 +10289,44 @@
       <c r="N91" s="9">
         <v>6</v>
       </c>
-      <c r="O91" s="39">
-        <v>0</v>
-      </c>
-      <c r="P91" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R91" s="4">
-        <v>5</v>
-      </c>
-      <c r="S91" s="5">
+      <c r="O91" s="9">
+        <v>20</v>
+      </c>
+      <c r="P91" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>0</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="S91" s="4">
+        <v>5</v>
+      </c>
+      <c r="T91" s="5">
         <v>88</v>
       </c>
-      <c r="T91" s="32">
-        <v>0</v>
-      </c>
-      <c r="U91" s="31">
-        <v>0</v>
-      </c>
-      <c r="V91" s="31"/>
+      <c r="U91" s="32">
+        <v>0</v>
+      </c>
+      <c r="V91" s="31">
+        <v>0</v>
+      </c>
+      <c r="W91" s="31"/>
     </row>
-    <row r="92" spans="1:22" ht="14.25">
+    <row r="92" spans="1:23" ht="14.25">
       <c r="A92">
         <v>52000089</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E92" s="4">
         <v>4</v>
@@ -10036,41 +10359,44 @@
       <c r="N92" s="9">
         <v>6</v>
       </c>
-      <c r="O92" s="39">
-        <v>0</v>
-      </c>
-      <c r="P92" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R92" s="4">
-        <v>5</v>
-      </c>
-      <c r="S92" s="5">
+      <c r="O92" s="9">
+        <v>20</v>
+      </c>
+      <c r="P92" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>0</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="S92" s="4">
+        <v>5</v>
+      </c>
+      <c r="T92" s="5">
         <v>89</v>
       </c>
-      <c r="T92" s="32">
-        <v>0</v>
-      </c>
-      <c r="U92" s="31">
-        <v>0</v>
-      </c>
-      <c r="V92" s="31"/>
+      <c r="U92" s="32">
+        <v>0</v>
+      </c>
+      <c r="V92" s="31">
+        <v>0</v>
+      </c>
+      <c r="W92" s="31"/>
     </row>
-    <row r="93" spans="1:22" ht="14.25">
+    <row r="93" spans="1:23" ht="14.25">
       <c r="A93">
         <v>52000090</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E93" s="4">
         <v>6</v>
@@ -10103,41 +10429,44 @@
       <c r="N93" s="9">
         <v>3</v>
       </c>
-      <c r="O93" s="39">
-        <v>0</v>
-      </c>
-      <c r="P93" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="R93" s="4">
-        <v>5</v>
-      </c>
-      <c r="S93" s="5">
+      <c r="O93" s="9">
+        <v>20</v>
+      </c>
+      <c r="P93" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>0</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="S93" s="4">
+        <v>5</v>
+      </c>
+      <c r="T93" s="5">
         <v>90</v>
       </c>
-      <c r="T93" s="32">
-        <v>0</v>
-      </c>
-      <c r="U93" s="31">
-        <v>0</v>
-      </c>
-      <c r="V93" s="31"/>
+      <c r="U93" s="32">
+        <v>0</v>
+      </c>
+      <c r="V93" s="31">
+        <v>0</v>
+      </c>
+      <c r="W93" s="31"/>
     </row>
-    <row r="94" spans="1:22" ht="14.25">
+    <row r="94" spans="1:23" ht="14.25">
       <c r="A94">
         <v>52000091</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E94" s="4">
         <v>4</v>
@@ -10170,41 +10499,44 @@
       <c r="N94" s="9">
         <v>3</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="9">
+        <v>0</v>
+      </c>
+      <c r="P94">
         <v>55000077</v>
       </c>
-      <c r="P94" s="4">
+      <c r="Q94" s="4">
         <v>70</v>
       </c>
-      <c r="Q94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="4">
-        <v>5</v>
-      </c>
-      <c r="S94" s="5">
+      <c r="R94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="4">
+        <v>5</v>
+      </c>
+      <c r="T94" s="5">
         <v>91</v>
       </c>
-      <c r="T94" s="32">
-        <v>0</v>
-      </c>
-      <c r="U94" s="31">
-        <v>0</v>
-      </c>
-      <c r="V94" s="31"/>
+      <c r="U94" s="32">
+        <v>0</v>
+      </c>
+      <c r="V94" s="31">
+        <v>0</v>
+      </c>
+      <c r="W94" s="31"/>
     </row>
-    <row r="95" spans="1:22" ht="14.25">
+    <row r="95" spans="1:23" ht="14.25">
       <c r="A95">
         <v>52000092</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E95" s="4">
         <v>2</v>
@@ -10237,41 +10569,44 @@
       <c r="N95" s="9">
         <v>4</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="9">
+        <v>0</v>
+      </c>
+      <c r="P95">
         <v>55000087</v>
       </c>
-      <c r="P95" s="4">
+      <c r="Q95" s="4">
         <v>70</v>
       </c>
-      <c r="Q95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R95" s="4">
-        <v>5</v>
-      </c>
-      <c r="S95" s="5">
+      <c r="R95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S95" s="4">
+        <v>5</v>
+      </c>
+      <c r="T95" s="5">
         <v>92</v>
       </c>
-      <c r="T95" s="32">
-        <v>0</v>
-      </c>
-      <c r="U95" s="31">
-        <v>0</v>
-      </c>
-      <c r="V95" s="31"/>
+      <c r="U95" s="32">
+        <v>0</v>
+      </c>
+      <c r="V95" s="31">
+        <v>0</v>
+      </c>
+      <c r="W95" s="31"/>
     </row>
-    <row r="96" spans="1:22" ht="14.25">
+    <row r="96" spans="1:23" ht="14.25">
       <c r="A96">
         <v>52000093</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E96" s="4">
         <v>6</v>
@@ -10304,41 +10639,44 @@
       <c r="N96" s="9">
         <v>5</v>
       </c>
-      <c r="O96" s="39">
-        <v>0</v>
-      </c>
-      <c r="P96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="4" t="s">
+      <c r="O96" s="9">
+        <v>10</v>
+      </c>
+      <c r="P96" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>0</v>
+      </c>
+      <c r="R96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R96" s="4">
-        <v>5</v>
-      </c>
-      <c r="S96" s="5">
+      <c r="S96" s="4">
+        <v>5</v>
+      </c>
+      <c r="T96" s="5">
         <v>93</v>
       </c>
-      <c r="T96" s="32">
-        <v>0</v>
-      </c>
-      <c r="U96" s="31">
-        <v>0</v>
-      </c>
-      <c r="V96" s="31"/>
+      <c r="U96" s="32">
+        <v>0</v>
+      </c>
+      <c r="V96" s="31">
+        <v>0</v>
+      </c>
+      <c r="W96" s="31"/>
     </row>
-    <row r="97" spans="1:22" ht="14.25">
+    <row r="97" spans="1:23" ht="14.25">
       <c r="A97">
         <v>52000094</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E97" s="4">
         <v>2</v>
@@ -10371,41 +10709,44 @@
       <c r="N97" s="9">
         <v>4</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="9">
+        <v>0</v>
+      </c>
+      <c r="P97">
         <v>55000206</v>
       </c>
-      <c r="P97" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q97" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R97" s="4">
-        <v>5</v>
-      </c>
-      <c r="S97" s="5">
+      <c r="Q97" s="4">
+        <v>100</v>
+      </c>
+      <c r="R97" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S97" s="4">
+        <v>5</v>
+      </c>
+      <c r="T97" s="5">
         <v>94</v>
       </c>
-      <c r="T97" s="32">
-        <v>0</v>
-      </c>
-      <c r="U97" s="31">
-        <v>0</v>
-      </c>
-      <c r="V97" s="31"/>
+      <c r="U97" s="32">
+        <v>0</v>
+      </c>
+      <c r="V97" s="31">
+        <v>0</v>
+      </c>
+      <c r="W97" s="31"/>
     </row>
-    <row r="98" spans="1:22" ht="14.25">
+    <row r="98" spans="1:23" ht="14.25">
       <c r="A98">
         <v>52000095</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E98" s="4">
         <v>5</v>
@@ -10438,41 +10779,44 @@
       <c r="N98" s="9">
         <v>4</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="9">
+        <v>0</v>
+      </c>
+      <c r="P98">
         <v>55000100</v>
       </c>
-      <c r="P98" s="4">
+      <c r="Q98" s="4">
         <v>40</v>
       </c>
-      <c r="Q98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R98" s="4">
-        <v>5</v>
-      </c>
-      <c r="S98" s="5">
+      <c r="R98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S98" s="4">
+        <v>5</v>
+      </c>
+      <c r="T98" s="5">
         <v>95</v>
       </c>
-      <c r="T98" s="32">
-        <v>0</v>
-      </c>
-      <c r="U98" s="31">
-        <v>0</v>
-      </c>
-      <c r="V98" s="31"/>
+      <c r="U98" s="32">
+        <v>0</v>
+      </c>
+      <c r="V98" s="31">
+        <v>0</v>
+      </c>
+      <c r="W98" s="31"/>
     </row>
-    <row r="99" spans="1:22" ht="14.25">
+    <row r="99" spans="1:23" ht="14.25">
       <c r="A99">
         <v>52000096</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E99" s="4">
         <v>6</v>
@@ -10505,41 +10849,44 @@
       <c r="N99" s="9">
         <v>7</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="9">
+        <v>0</v>
+      </c>
+      <c r="P99">
         <v>55000076</v>
       </c>
-      <c r="P99" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R99" s="4">
-        <v>5</v>
-      </c>
-      <c r="S99" s="5">
+      <c r="Q99" s="4">
+        <v>100</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S99" s="4">
+        <v>5</v>
+      </c>
+      <c r="T99" s="5">
         <v>96</v>
       </c>
-      <c r="T99" s="32">
-        <v>0</v>
-      </c>
-      <c r="U99" s="31">
-        <v>0</v>
-      </c>
-      <c r="V99" s="31"/>
+      <c r="U99" s="32">
+        <v>0</v>
+      </c>
+      <c r="V99" s="31">
+        <v>0</v>
+      </c>
+      <c r="W99" s="31"/>
     </row>
-    <row r="100" spans="1:22" ht="14.25">
+    <row r="100" spans="1:23" ht="14.25">
       <c r="A100">
         <v>52000097</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E100" s="4">
         <v>2</v>
@@ -10572,41 +10919,44 @@
       <c r="N100" s="9">
         <v>4</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="9">
+        <v>0</v>
+      </c>
+      <c r="P100">
         <v>55000172</v>
       </c>
-      <c r="P100" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="4">
-        <v>5</v>
-      </c>
-      <c r="S100" s="5">
+      <c r="Q100" s="4">
+        <v>100</v>
+      </c>
+      <c r="R100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="4">
+        <v>5</v>
+      </c>
+      <c r="T100" s="5">
         <v>97</v>
       </c>
-      <c r="T100" s="32">
-        <v>0</v>
-      </c>
-      <c r="U100" s="31">
-        <v>0</v>
-      </c>
-      <c r="V100" s="31"/>
+      <c r="U100" s="32">
+        <v>0</v>
+      </c>
+      <c r="V100" s="31">
+        <v>0</v>
+      </c>
+      <c r="W100" s="31"/>
     </row>
-    <row r="101" spans="1:22" ht="14.25">
+    <row r="101" spans="1:23" ht="14.25">
       <c r="A101">
         <v>52000098</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -10639,41 +10989,44 @@
       <c r="N101" s="9">
         <v>4</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="9">
+        <v>20</v>
+      </c>
+      <c r="P101">
         <v>55000214</v>
       </c>
-      <c r="P101" s="4">
+      <c r="Q101" s="4">
         <v>30</v>
       </c>
-      <c r="Q101" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R101" s="4">
-        <v>5</v>
-      </c>
-      <c r="S101" s="5">
+      <c r="R101" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="S101" s="4">
+        <v>5</v>
+      </c>
+      <c r="T101" s="5">
         <v>98</v>
       </c>
-      <c r="T101" s="32">
-        <v>0</v>
-      </c>
-      <c r="U101" s="31">
-        <v>0</v>
-      </c>
-      <c r="V101" s="31"/>
+      <c r="U101" s="32">
+        <v>0</v>
+      </c>
+      <c r="V101" s="31">
+        <v>0</v>
+      </c>
+      <c r="W101" s="31"/>
     </row>
-    <row r="102" spans="1:22" ht="14.25">
+    <row r="102" spans="1:23" ht="14.25">
       <c r="A102">
         <v>52000099</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E102" s="4">
         <v>2</v>
@@ -10706,41 +11059,44 @@
       <c r="N102" s="9">
         <v>4</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="9">
+        <v>0</v>
+      </c>
+      <c r="P102">
         <v>55000228</v>
       </c>
-      <c r="P102" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="4">
-        <v>5</v>
-      </c>
-      <c r="S102" s="5">
+      <c r="Q102" s="4">
+        <v>100</v>
+      </c>
+      <c r="R102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="4">
+        <v>5</v>
+      </c>
+      <c r="T102" s="5">
         <v>99</v>
       </c>
-      <c r="T102" s="32">
-        <v>0</v>
-      </c>
-      <c r="U102" s="31">
-        <v>0</v>
-      </c>
-      <c r="V102" s="31"/>
+      <c r="U102" s="32">
+        <v>0</v>
+      </c>
+      <c r="V102" s="31">
+        <v>0</v>
+      </c>
+      <c r="W102" s="31"/>
     </row>
-    <row r="103" spans="1:22" ht="14.25">
+    <row r="103" spans="1:23" ht="14.25">
       <c r="A103">
         <v>52000100</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E103" s="4">
         <v>4</v>
@@ -10773,41 +11129,44 @@
       <c r="N103" s="9">
         <v>3</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="9">
+        <v>10</v>
+      </c>
+      <c r="P103">
         <v>55000229</v>
       </c>
-      <c r="P103" s="4">
+      <c r="Q103" s="4">
         <v>25</v>
       </c>
-      <c r="Q103" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R103" s="4">
-        <v>5</v>
-      </c>
-      <c r="S103" s="5">
-        <v>100</v>
-      </c>
-      <c r="T103" s="32">
-        <v>0</v>
-      </c>
-      <c r="U103" s="31">
-        <v>0</v>
-      </c>
-      <c r="V103" s="31"/>
+      <c r="R103" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="S103" s="4">
+        <v>5</v>
+      </c>
+      <c r="T103" s="5">
+        <v>100</v>
+      </c>
+      <c r="U103" s="32">
+        <v>0</v>
+      </c>
+      <c r="V103" s="31">
+        <v>0</v>
+      </c>
+      <c r="W103" s="31"/>
     </row>
-    <row r="104" spans="1:22" ht="14.25">
+    <row r="104" spans="1:23" ht="14.25">
       <c r="A104">
         <v>52000101</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E104" s="4">
         <v>3</v>
@@ -10840,41 +11199,44 @@
       <c r="N104" s="9">
         <v>4</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="9">
+        <v>0</v>
+      </c>
+      <c r="P104">
         <v>55000078</v>
       </c>
-      <c r="P104" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R104" s="4">
-        <v>5</v>
-      </c>
-      <c r="S104" s="5">
+      <c r="Q104" s="4">
+        <v>100</v>
+      </c>
+      <c r="R104" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S104" s="4">
+        <v>5</v>
+      </c>
+      <c r="T104" s="5">
         <v>101</v>
       </c>
-      <c r="T104" s="32">
-        <v>0</v>
-      </c>
-      <c r="U104" s="31">
-        <v>0</v>
-      </c>
-      <c r="V104" s="31"/>
+      <c r="U104" s="32">
+        <v>0</v>
+      </c>
+      <c r="V104" s="31">
+        <v>0</v>
+      </c>
+      <c r="W104" s="31"/>
     </row>
-    <row r="105" spans="1:22" ht="14.25">
+    <row r="105" spans="1:23" ht="14.25">
       <c r="A105">
         <v>52000102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -10907,41 +11269,44 @@
       <c r="N105" s="9">
         <v>4</v>
       </c>
-      <c r="O105">
+      <c r="O105" s="9">
+        <v>0</v>
+      </c>
+      <c r="P105">
         <v>55000035</v>
       </c>
-      <c r="P105" s="4">
+      <c r="Q105" s="4">
         <v>60</v>
       </c>
-      <c r="Q105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R105" s="4">
-        <v>5</v>
-      </c>
-      <c r="S105" s="5">
+      <c r="R105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S105" s="4">
+        <v>5</v>
+      </c>
+      <c r="T105" s="5">
         <v>102</v>
       </c>
-      <c r="T105" s="32">
-        <v>0</v>
-      </c>
-      <c r="U105" s="31">
-        <v>0</v>
-      </c>
-      <c r="V105" s="31"/>
+      <c r="U105" s="32">
+        <v>0</v>
+      </c>
+      <c r="V105" s="31">
+        <v>0</v>
+      </c>
+      <c r="W105" s="31"/>
     </row>
-    <row r="106" spans="1:22" ht="14.25">
+    <row r="106" spans="1:23" ht="14.25">
       <c r="A106">
         <v>52000103</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E106" s="4">
         <v>4</v>
@@ -10974,41 +11339,44 @@
       <c r="N106" s="9">
         <v>4</v>
       </c>
-      <c r="O106" s="39">
-        <v>0</v>
-      </c>
-      <c r="P106" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R106" s="4">
-        <v>5</v>
-      </c>
-      <c r="S106" s="5">
+      <c r="O106" s="9">
+        <v>0</v>
+      </c>
+      <c r="P106" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>0</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S106" s="4">
+        <v>5</v>
+      </c>
+      <c r="T106" s="5">
         <v>103</v>
       </c>
-      <c r="T106" s="32">
-        <v>0</v>
-      </c>
-      <c r="U106" s="31">
-        <v>0</v>
-      </c>
-      <c r="V106" s="31"/>
+      <c r="U106" s="32">
+        <v>0</v>
+      </c>
+      <c r="V106" s="31">
+        <v>0</v>
+      </c>
+      <c r="W106" s="31"/>
     </row>
-    <row r="107" spans="1:22" ht="14.25">
+    <row r="107" spans="1:23" ht="14.25">
       <c r="A107">
         <v>52000104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E107" s="4">
         <v>2</v>
@@ -11041,41 +11409,44 @@
       <c r="N107" s="9">
         <v>4</v>
       </c>
-      <c r="O107">
+      <c r="O107" s="9">
+        <v>10</v>
+      </c>
+      <c r="P107">
         <v>55000230</v>
       </c>
-      <c r="P107" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q107" s="4" t="s">
+      <c r="Q107" s="4">
+        <v>100</v>
+      </c>
+      <c r="R107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R107" s="4">
-        <v>5</v>
-      </c>
-      <c r="S107" s="5">
+      <c r="S107" s="4">
+        <v>5</v>
+      </c>
+      <c r="T107" s="5">
         <v>104</v>
       </c>
-      <c r="T107" s="32">
-        <v>0</v>
-      </c>
-      <c r="U107" s="31">
-        <v>0</v>
-      </c>
-      <c r="V107" s="31"/>
+      <c r="U107" s="32">
+        <v>0</v>
+      </c>
+      <c r="V107" s="31">
+        <v>0</v>
+      </c>
+      <c r="W107" s="31"/>
     </row>
-    <row r="108" spans="1:22" ht="14.25">
+    <row r="108" spans="1:23" ht="14.25">
       <c r="A108">
         <v>52000105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E108" s="4">
         <v>2</v>
@@ -11108,41 +11479,44 @@
       <c r="N108" s="9">
         <v>4</v>
       </c>
-      <c r="O108">
+      <c r="O108" s="9">
+        <v>0</v>
+      </c>
+      <c r="P108">
         <v>55000216</v>
       </c>
-      <c r="P108" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R108" s="4">
-        <v>5</v>
-      </c>
-      <c r="S108" s="5">
+      <c r="Q108" s="4">
+        <v>100</v>
+      </c>
+      <c r="R108" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S108" s="4">
+        <v>5</v>
+      </c>
+      <c r="T108" s="5">
         <v>105</v>
       </c>
-      <c r="T108" s="32">
-        <v>0</v>
-      </c>
-      <c r="U108" s="31">
-        <v>0</v>
-      </c>
-      <c r="V108" s="31"/>
+      <c r="U108" s="32">
+        <v>0</v>
+      </c>
+      <c r="V108" s="31">
+        <v>0</v>
+      </c>
+      <c r="W108" s="31"/>
     </row>
-    <row r="109" spans="1:22" ht="14.25">
+    <row r="109" spans="1:23" ht="14.25">
       <c r="A109">
         <v>52000106</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E109" s="4">
         <v>2</v>
@@ -11175,41 +11549,44 @@
       <c r="N109" s="9">
         <v>4</v>
       </c>
-      <c r="O109">
+      <c r="O109" s="9">
+        <v>0</v>
+      </c>
+      <c r="P109">
         <v>55000231</v>
       </c>
-      <c r="P109" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q109" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R109" s="4">
-        <v>5</v>
-      </c>
-      <c r="S109" s="5">
+      <c r="Q109" s="4">
+        <v>100</v>
+      </c>
+      <c r="R109" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S109" s="4">
+        <v>5</v>
+      </c>
+      <c r="T109" s="5">
         <v>106</v>
       </c>
-      <c r="T109" s="32">
-        <v>0</v>
-      </c>
-      <c r="U109" s="31">
-        <v>0</v>
-      </c>
-      <c r="V109" s="31"/>
+      <c r="U109" s="32">
+        <v>0</v>
+      </c>
+      <c r="V109" s="31">
+        <v>0</v>
+      </c>
+      <c r="W109" s="31"/>
     </row>
-    <row r="110" spans="1:22" ht="14.25">
+    <row r="110" spans="1:23" ht="14.25">
       <c r="A110">
         <v>52000107</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E110" s="4">
         <v>4</v>
@@ -11242,41 +11619,44 @@
       <c r="N110" s="9">
         <v>4</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="9">
+        <v>0</v>
+      </c>
+      <c r="P110">
         <v>55000156</v>
       </c>
-      <c r="P110" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R110" s="4">
-        <v>5</v>
-      </c>
-      <c r="S110" s="5">
+      <c r="Q110" s="4">
+        <v>100</v>
+      </c>
+      <c r="R110" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S110" s="4">
+        <v>5</v>
+      </c>
+      <c r="T110" s="5">
         <v>107</v>
       </c>
-      <c r="T110" s="32">
-        <v>0</v>
-      </c>
-      <c r="U110" s="31">
-        <v>0</v>
-      </c>
-      <c r="V110" s="31"/>
+      <c r="U110" s="32">
+        <v>0</v>
+      </c>
+      <c r="V110" s="31">
+        <v>0</v>
+      </c>
+      <c r="W110" s="31"/>
     </row>
-    <row r="111" spans="1:22" ht="14.25">
+    <row r="111" spans="1:23" ht="14.25">
       <c r="A111">
         <v>52000108</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E111" s="4">
         <v>4</v>
@@ -11309,41 +11689,44 @@
       <c r="N111" s="9">
         <v>4</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="9">
+        <v>10</v>
+      </c>
+      <c r="P111">
         <v>55000232</v>
       </c>
-      <c r="P111" s="4">
+      <c r="Q111" s="4">
         <v>40</v>
       </c>
-      <c r="Q111" s="4" t="s">
+      <c r="R111" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R111" s="4">
-        <v>5</v>
-      </c>
-      <c r="S111" s="5">
+      <c r="S111" s="4">
+        <v>5</v>
+      </c>
+      <c r="T111" s="5">
         <v>108</v>
       </c>
-      <c r="T111" s="32">
-        <v>0</v>
-      </c>
-      <c r="U111" s="31">
-        <v>0</v>
-      </c>
-      <c r="V111" s="31"/>
+      <c r="U111" s="32">
+        <v>0</v>
+      </c>
+      <c r="V111" s="31">
+        <v>0</v>
+      </c>
+      <c r="W111" s="31"/>
     </row>
-    <row r="112" spans="1:22" ht="14.25">
+    <row r="112" spans="1:23" ht="14.25">
       <c r="A112">
         <v>52000109</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E112" s="4">
         <v>2</v>
@@ -11376,41 +11759,44 @@
       <c r="N112" s="9">
         <v>4</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="9">
+        <v>0</v>
+      </c>
+      <c r="P112">
         <v>55000088</v>
       </c>
-      <c r="P112" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q112" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R112" s="4">
-        <v>5</v>
-      </c>
-      <c r="S112" s="5">
+      <c r="Q112" s="4">
+        <v>100</v>
+      </c>
+      <c r="R112" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S112" s="4">
+        <v>5</v>
+      </c>
+      <c r="T112" s="5">
         <v>109</v>
       </c>
-      <c r="T112" s="32">
-        <v>0</v>
-      </c>
-      <c r="U112" s="31">
-        <v>0</v>
-      </c>
-      <c r="V112" s="31"/>
+      <c r="U112" s="32">
+        <v>0</v>
+      </c>
+      <c r="V112" s="31">
+        <v>0</v>
+      </c>
+      <c r="W112" s="31"/>
     </row>
-    <row r="113" spans="1:22" ht="14.25">
+    <row r="113" spans="1:23" ht="14.25">
       <c r="A113">
         <v>52000110</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E113" s="4">
         <v>6</v>
@@ -11443,41 +11829,44 @@
       <c r="N113" s="9">
         <v>6</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="9">
+        <v>0</v>
+      </c>
+      <c r="P113">
         <v>55000233</v>
       </c>
-      <c r="P113" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R113" s="4">
-        <v>5</v>
-      </c>
-      <c r="S113" s="5">
+      <c r="Q113" s="4">
+        <v>100</v>
+      </c>
+      <c r="R113" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S113" s="4">
+        <v>5</v>
+      </c>
+      <c r="T113" s="5">
         <v>110</v>
       </c>
-      <c r="T113" s="32">
-        <v>0</v>
-      </c>
-      <c r="U113" s="31">
-        <v>0</v>
-      </c>
-      <c r="V113" s="31"/>
+      <c r="U113" s="32">
+        <v>0</v>
+      </c>
+      <c r="V113" s="31">
+        <v>0</v>
+      </c>
+      <c r="W113" s="31"/>
     </row>
-    <row r="114" spans="1:22" ht="14.25">
+    <row r="114" spans="1:23" ht="14.25">
       <c r="A114">
         <v>52000111</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E114" s="4">
         <v>5</v>
@@ -11510,41 +11899,44 @@
       <c r="N114" s="9">
         <v>4</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="9">
+        <v>10</v>
+      </c>
+      <c r="P114">
         <v>55000233</v>
       </c>
-      <c r="P114" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q114" s="4" t="s">
+      <c r="Q114" s="4">
+        <v>100</v>
+      </c>
+      <c r="R114" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R114" s="4">
-        <v>5</v>
-      </c>
-      <c r="S114" s="5">
+      <c r="S114" s="4">
+        <v>5</v>
+      </c>
+      <c r="T114" s="5">
         <v>111</v>
       </c>
-      <c r="T114" s="32">
-        <v>0</v>
-      </c>
-      <c r="U114" s="31">
-        <v>0</v>
-      </c>
-      <c r="V114" s="31"/>
+      <c r="U114" s="32">
+        <v>0</v>
+      </c>
+      <c r="V114" s="31">
+        <v>0</v>
+      </c>
+      <c r="W114" s="31"/>
     </row>
-    <row r="115" spans="1:22" ht="14.25">
+    <row r="115" spans="1:23" ht="14.25">
       <c r="A115">
         <v>52000112</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E115" s="4">
         <v>5</v>
@@ -11577,41 +11969,44 @@
       <c r="N115" s="9">
         <v>4</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="9">
+        <v>0</v>
+      </c>
+      <c r="P115">
         <v>55000037</v>
       </c>
-      <c r="P115" s="4">
+      <c r="Q115" s="4">
         <v>40</v>
       </c>
-      <c r="Q115" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R115" s="4">
-        <v>5</v>
-      </c>
-      <c r="S115" s="5">
+      <c r="R115" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S115" s="4">
+        <v>5</v>
+      </c>
+      <c r="T115" s="5">
         <v>112</v>
       </c>
-      <c r="T115" s="32">
-        <v>0</v>
-      </c>
-      <c r="U115" s="31">
-        <v>0</v>
-      </c>
-      <c r="V115" s="31"/>
+      <c r="U115" s="32">
+        <v>0</v>
+      </c>
+      <c r="V115" s="31">
+        <v>0</v>
+      </c>
+      <c r="W115" s="31"/>
     </row>
-    <row r="116" spans="1:22" ht="14.25">
+    <row r="116" spans="1:23" ht="14.25">
       <c r="A116">
         <v>52000113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E116" s="4">
         <v>1</v>
@@ -11644,41 +12039,44 @@
       <c r="N116" s="9">
         <v>4</v>
       </c>
-      <c r="O116">
+      <c r="O116" s="9">
+        <v>0</v>
+      </c>
+      <c r="P116">
         <v>55000132</v>
       </c>
-      <c r="P116" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R116" s="4">
-        <v>5</v>
-      </c>
-      <c r="S116" s="5">
+      <c r="Q116" s="4">
+        <v>100</v>
+      </c>
+      <c r="R116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S116" s="4">
+        <v>5</v>
+      </c>
+      <c r="T116" s="5">
         <v>113</v>
       </c>
-      <c r="T116" s="32">
-        <v>0</v>
-      </c>
-      <c r="U116" s="31">
-        <v>0</v>
-      </c>
-      <c r="V116" s="31"/>
+      <c r="U116" s="32">
+        <v>0</v>
+      </c>
+      <c r="V116" s="31">
+        <v>0</v>
+      </c>
+      <c r="W116" s="31"/>
     </row>
-    <row r="117" spans="1:22" ht="14.25">
+    <row r="117" spans="1:23" ht="14.25">
       <c r="A117">
         <v>52000114</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E117" s="4">
         <v>2</v>
@@ -11711,41 +12109,44 @@
       <c r="N117" s="9">
         <v>4</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="9">
+        <v>0</v>
+      </c>
+      <c r="P117">
         <v>55000093</v>
       </c>
-      <c r="P117" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q117" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R117" s="4">
-        <v>5</v>
-      </c>
-      <c r="S117" s="5">
+      <c r="Q117" s="4">
+        <v>100</v>
+      </c>
+      <c r="R117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S117" s="4">
+        <v>5</v>
+      </c>
+      <c r="T117" s="5">
         <v>114</v>
       </c>
-      <c r="T117" s="32">
-        <v>0</v>
-      </c>
-      <c r="U117" s="31">
-        <v>0</v>
-      </c>
-      <c r="V117" s="31"/>
+      <c r="U117" s="32">
+        <v>0</v>
+      </c>
+      <c r="V117" s="31">
+        <v>0</v>
+      </c>
+      <c r="W117" s="31"/>
     </row>
-    <row r="118" spans="1:22" ht="14.25">
+    <row r="118" spans="1:23" ht="14.25">
       <c r="A118">
         <v>52000115</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E118" s="4">
         <v>4</v>
@@ -11778,41 +12179,44 @@
       <c r="N118" s="9">
         <v>3</v>
       </c>
-      <c r="O118">
+      <c r="O118" s="9">
+        <v>10</v>
+      </c>
+      <c r="P118">
         <v>55000234</v>
       </c>
-      <c r="P118" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q118" s="4" t="s">
+      <c r="Q118" s="4">
+        <v>100</v>
+      </c>
+      <c r="R118" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R118" s="4">
-        <v>5</v>
-      </c>
-      <c r="S118" s="5">
+      <c r="S118" s="4">
+        <v>5</v>
+      </c>
+      <c r="T118" s="5">
         <v>115</v>
       </c>
-      <c r="T118" s="32">
-        <v>0</v>
-      </c>
-      <c r="U118" s="31">
-        <v>0</v>
-      </c>
-      <c r="V118" s="31"/>
+      <c r="U118" s="32">
+        <v>0</v>
+      </c>
+      <c r="V118" s="31">
+        <v>0</v>
+      </c>
+      <c r="W118" s="31"/>
     </row>
-    <row r="119" spans="1:22" ht="14.25">
+    <row r="119" spans="1:23" ht="14.25">
       <c r="A119">
         <v>52000116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E119" s="4">
         <v>3</v>
@@ -11845,41 +12249,44 @@
       <c r="N119" s="9">
         <v>4</v>
       </c>
-      <c r="O119">
+      <c r="O119" s="9">
+        <v>0</v>
+      </c>
+      <c r="P119">
         <v>55000180</v>
       </c>
-      <c r="P119" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R119" s="4">
-        <v>5</v>
-      </c>
-      <c r="S119" s="5">
+      <c r="Q119" s="4">
+        <v>100</v>
+      </c>
+      <c r="R119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S119" s="4">
+        <v>5</v>
+      </c>
+      <c r="T119" s="5">
         <v>116</v>
       </c>
-      <c r="T119" s="32">
-        <v>0</v>
-      </c>
-      <c r="U119" s="31">
-        <v>0</v>
-      </c>
-      <c r="V119" s="31"/>
+      <c r="U119" s="32">
+        <v>0</v>
+      </c>
+      <c r="V119" s="31">
+        <v>0</v>
+      </c>
+      <c r="W119" s="31"/>
     </row>
-    <row r="120" spans="1:22" ht="14.25">
+    <row r="120" spans="1:23" ht="14.25">
       <c r="A120">
         <v>52000117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E120" s="4">
         <v>5</v>
@@ -11912,41 +12319,44 @@
       <c r="N120" s="9">
         <v>2</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="9">
+        <v>0</v>
+      </c>
+      <c r="P120">
         <v>55000212</v>
       </c>
-      <c r="P120" s="4">
+      <c r="Q120" s="4">
         <v>80</v>
       </c>
-      <c r="Q120" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R120" s="4">
-        <v>5</v>
-      </c>
-      <c r="S120" s="5">
+      <c r="R120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S120" s="4">
+        <v>5</v>
+      </c>
+      <c r="T120" s="5">
         <v>117</v>
       </c>
-      <c r="T120" s="32">
-        <v>0</v>
-      </c>
-      <c r="U120" s="31">
-        <v>0</v>
-      </c>
-      <c r="V120" s="31"/>
+      <c r="U120" s="32">
+        <v>0</v>
+      </c>
+      <c r="V120" s="31">
+        <v>0</v>
+      </c>
+      <c r="W120" s="31"/>
     </row>
-    <row r="121" spans="1:22" ht="14.25">
+    <row r="121" spans="1:23" ht="14.25">
       <c r="A121">
         <v>52000118</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E121" s="16">
         <v>3</v>
@@ -11979,41 +12389,44 @@
       <c r="N121" s="9">
         <v>4</v>
       </c>
-      <c r="O121" s="31">
-        <v>0</v>
-      </c>
-      <c r="P121" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R121" s="16">
-        <v>5</v>
-      </c>
-      <c r="S121" s="19">
+      <c r="O121" s="9">
+        <v>0</v>
+      </c>
+      <c r="P121" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="16">
+        <v>0</v>
+      </c>
+      <c r="R121" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S121" s="16">
+        <v>5</v>
+      </c>
+      <c r="T121" s="19">
         <v>118</v>
       </c>
-      <c r="T121" s="32">
-        <v>0</v>
-      </c>
-      <c r="U121" s="31">
-        <v>0</v>
-      </c>
-      <c r="V121" s="31"/>
+      <c r="U121" s="32">
+        <v>0</v>
+      </c>
+      <c r="V121" s="31">
+        <v>0</v>
+      </c>
+      <c r="W121" s="31"/>
     </row>
-    <row r="122" spans="1:22" ht="14.25">
+    <row r="122" spans="1:23" ht="14.25">
       <c r="A122">
         <v>52000119</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E122" s="16">
         <v>5</v>
@@ -12046,41 +12459,44 @@
       <c r="N122" s="9">
         <v>4</v>
       </c>
-      <c r="O122" s="31">
-        <v>0</v>
-      </c>
-      <c r="P122" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R122" s="16">
-        <v>5</v>
-      </c>
-      <c r="S122" s="19">
+      <c r="O122" s="9">
+        <v>0</v>
+      </c>
+      <c r="P122" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="16">
+        <v>0</v>
+      </c>
+      <c r="R122" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S122" s="16">
+        <v>5</v>
+      </c>
+      <c r="T122" s="19">
         <v>119</v>
       </c>
-      <c r="T122" s="32">
-        <v>0</v>
-      </c>
-      <c r="U122" s="31">
-        <v>0</v>
-      </c>
-      <c r="V122" s="31"/>
+      <c r="U122" s="32">
+        <v>0</v>
+      </c>
+      <c r="V122" s="31">
+        <v>0</v>
+      </c>
+      <c r="W122" s="31"/>
     </row>
-    <row r="123" spans="1:22" ht="14.25">
+    <row r="123" spans="1:23" ht="14.25">
       <c r="A123">
         <v>52000120</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E123" s="16">
         <v>4</v>
@@ -12113,41 +12529,44 @@
       <c r="N123" s="9">
         <v>4</v>
       </c>
-      <c r="O123" s="31">
-        <v>0</v>
-      </c>
-      <c r="P123" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R123" s="16">
-        <v>5</v>
-      </c>
-      <c r="S123" s="19">
+      <c r="O123" s="9">
+        <v>0</v>
+      </c>
+      <c r="P123" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="16">
+        <v>0</v>
+      </c>
+      <c r="R123" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S123" s="16">
+        <v>5</v>
+      </c>
+      <c r="T123" s="19">
         <v>120</v>
       </c>
-      <c r="T123" s="32">
-        <v>0</v>
-      </c>
-      <c r="U123" s="31">
-        <v>0</v>
-      </c>
-      <c r="V123" s="31"/>
+      <c r="U123" s="32">
+        <v>0</v>
+      </c>
+      <c r="V123" s="31">
+        <v>0</v>
+      </c>
+      <c r="W123" s="31"/>
     </row>
-    <row r="124" spans="1:22" ht="14.25">
+    <row r="124" spans="1:23" ht="14.25">
       <c r="A124">
         <v>52000121</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E124" s="16">
         <v>5</v>
@@ -12180,41 +12599,44 @@
       <c r="N124" s="9">
         <v>3</v>
       </c>
-      <c r="O124" s="31">
-        <v>0</v>
-      </c>
-      <c r="P124" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="16" t="s">
+      <c r="O124" s="9">
+        <v>10</v>
+      </c>
+      <c r="P124" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="16">
+        <v>0</v>
+      </c>
+      <c r="R124" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R124" s="16">
-        <v>5</v>
-      </c>
-      <c r="S124" s="19">
+      <c r="S124" s="16">
+        <v>5</v>
+      </c>
+      <c r="T124" s="19">
         <v>121</v>
       </c>
-      <c r="T124" s="32">
-        <v>0</v>
-      </c>
-      <c r="U124" s="31">
-        <v>0</v>
-      </c>
-      <c r="V124" s="31"/>
+      <c r="U124" s="32">
+        <v>0</v>
+      </c>
+      <c r="V124" s="31">
+        <v>0</v>
+      </c>
+      <c r="W124" s="31"/>
     </row>
-    <row r="125" spans="1:22" ht="14.25">
+    <row r="125" spans="1:23" ht="14.25">
       <c r="A125">
         <v>52000122</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E125" s="16">
         <v>1</v>
@@ -12247,43 +12669,46 @@
       <c r="N125" s="9">
         <v>4</v>
       </c>
-      <c r="O125" s="31">
-        <v>0</v>
-      </c>
-      <c r="P125" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="16" t="s">
+      <c r="O125" s="9">
+        <v>10</v>
+      </c>
+      <c r="P125" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="16">
+        <v>0</v>
+      </c>
+      <c r="R125" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R125" s="16">
-        <v>5</v>
-      </c>
-      <c r="S125" s="19">
+      <c r="S125" s="16">
+        <v>5</v>
+      </c>
+      <c r="T125" s="19">
         <v>122</v>
       </c>
-      <c r="T125" s="32">
-        <v>0</v>
-      </c>
-      <c r="U125" s="31">
-        <v>0</v>
-      </c>
-      <c r="V125" s="31" t="s">
-        <v>454</v>
+      <c r="U125" s="32">
+        <v>0</v>
+      </c>
+      <c r="V125" s="31">
+        <v>0</v>
+      </c>
+      <c r="W125" s="31" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="14.25">
+    <row r="126" spans="1:23" ht="14.25">
       <c r="A126">
         <v>52000123</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E126" s="4">
         <v>3</v>
@@ -12316,43 +12741,46 @@
       <c r="N126" s="9">
         <v>4</v>
       </c>
-      <c r="O126" s="31">
-        <v>0</v>
-      </c>
-      <c r="P126" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="R126" s="16">
-        <v>5</v>
-      </c>
-      <c r="S126" s="19">
+      <c r="O126" s="9">
+        <v>25</v>
+      </c>
+      <c r="P126" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="16">
+        <v>0</v>
+      </c>
+      <c r="R126" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="S126" s="16">
+        <v>5</v>
+      </c>
+      <c r="T126" s="19">
         <v>123</v>
       </c>
-      <c r="T126" s="32">
-        <v>0</v>
-      </c>
-      <c r="U126" s="31">
+      <c r="U126" s="32">
+        <v>0</v>
+      </c>
+      <c r="V126" s="31">
         <v>1</v>
       </c>
-      <c r="V126" s="31" t="s">
-        <v>454</v>
+      <c r="W126" s="31" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="14.25">
+    <row r="127" spans="1:23" ht="14.25">
       <c r="A127">
         <v>52000124</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E127" s="16">
         <v>3</v>
@@ -12385,41 +12813,44 @@
       <c r="N127" s="9">
         <v>4</v>
       </c>
-      <c r="O127" s="31">
-        <v>0</v>
-      </c>
-      <c r="P127" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q127" s="16" t="s">
+      <c r="O127" s="9">
+        <v>10</v>
+      </c>
+      <c r="P127" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="16">
+        <v>0</v>
+      </c>
+      <c r="R127" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R127" s="16">
-        <v>5</v>
-      </c>
-      <c r="S127" s="19">
+      <c r="S127" s="16">
+        <v>5</v>
+      </c>
+      <c r="T127" s="19">
         <v>124</v>
       </c>
-      <c r="T127" s="32">
-        <v>0</v>
-      </c>
-      <c r="U127" s="31">
+      <c r="U127" s="32">
+        <v>0</v>
+      </c>
+      <c r="V127" s="31">
         <v>1</v>
       </c>
-      <c r="V127" s="31"/>
+      <c r="W127" s="31"/>
     </row>
-    <row r="128" spans="1:22" ht="14.25">
+    <row r="128" spans="1:23" ht="14.25">
       <c r="A128">
         <v>52000125</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E128" s="16">
         <v>3</v>
@@ -12452,41 +12883,44 @@
       <c r="N128" s="9">
         <v>4</v>
       </c>
-      <c r="O128" s="31">
-        <v>0</v>
-      </c>
-      <c r="P128" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="16" t="s">
+      <c r="O128" s="9">
+        <v>10</v>
+      </c>
+      <c r="P128" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="16">
+        <v>0</v>
+      </c>
+      <c r="R128" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R128" s="16">
-        <v>5</v>
-      </c>
-      <c r="S128" s="19">
+      <c r="S128" s="16">
+        <v>5</v>
+      </c>
+      <c r="T128" s="19">
         <v>125</v>
       </c>
-      <c r="T128" s="32">
-        <v>0</v>
-      </c>
-      <c r="U128" s="31">
+      <c r="U128" s="32">
+        <v>0</v>
+      </c>
+      <c r="V128" s="31">
         <v>1</v>
       </c>
-      <c r="V128" s="31"/>
+      <c r="W128" s="31"/>
     </row>
-    <row r="129" spans="1:22" ht="14.25">
+    <row r="129" spans="1:23" ht="14.25">
       <c r="A129">
         <v>52000126</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E129" s="16">
         <v>1</v>
@@ -12519,41 +12953,44 @@
       <c r="N129" s="9">
         <v>4</v>
       </c>
-      <c r="O129" s="31">
-        <v>0</v>
-      </c>
-      <c r="P129" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q129" s="16" t="s">
+      <c r="O129" s="9">
+        <v>10</v>
+      </c>
+      <c r="P129" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="16">
+        <v>0</v>
+      </c>
+      <c r="R129" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R129" s="16">
-        <v>5</v>
-      </c>
-      <c r="S129" s="19">
+      <c r="S129" s="16">
+        <v>5</v>
+      </c>
+      <c r="T129" s="19">
         <v>126</v>
       </c>
-      <c r="T129" s="32">
-        <v>0</v>
-      </c>
-      <c r="U129" s="31">
+      <c r="U129" s="32">
+        <v>0</v>
+      </c>
+      <c r="V129" s="31">
         <v>1</v>
       </c>
-      <c r="V129" s="31"/>
+      <c r="W129" s="31"/>
     </row>
-    <row r="130" spans="1:22" ht="14.25">
+    <row r="130" spans="1:23" ht="14.25">
       <c r="A130">
         <v>52000127</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E130" s="16">
         <v>5</v>
@@ -12586,28 +13023,31 @@
       <c r="N130" s="9">
         <v>4</v>
       </c>
-      <c r="O130" s="31">
-        <v>0</v>
-      </c>
-      <c r="P130" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q130" s="16" t="s">
+      <c r="O130" s="9">
+        <v>10</v>
+      </c>
+      <c r="P130" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="16">
+        <v>0</v>
+      </c>
+      <c r="R130" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R130" s="16">
-        <v>5</v>
-      </c>
-      <c r="S130" s="19">
+      <c r="S130" s="16">
+        <v>5</v>
+      </c>
+      <c r="T130" s="19">
         <v>127</v>
       </c>
-      <c r="T130" s="32">
-        <v>0</v>
-      </c>
-      <c r="U130" s="31">
+      <c r="U130" s="32">
+        <v>0</v>
+      </c>
+      <c r="V130" s="31">
         <v>1</v>
       </c>
-      <c r="V130" s="31"/>
+      <c r="W130" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -12825,13 +13265,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:M1048576"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12840,229 +13280,238 @@
     <col min="4" max="4" width="6.125" customWidth="1"/>
     <col min="5" max="8" width="4.125" customWidth="1"/>
     <col min="9" max="12" width="3.75" customWidth="1"/>
-    <col min="13" max="14" width="6.375" customWidth="1"/>
-    <col min="15" max="16" width="7.125" customWidth="1"/>
-    <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="18" max="19" width="7.375" customWidth="1"/>
-    <col min="20" max="21" width="4.375" customWidth="1"/>
+    <col min="13" max="15" width="4.375" customWidth="1"/>
+    <col min="16" max="17" width="7.125" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="19" max="20" width="7.375" customWidth="1"/>
+    <col min="21" max="22" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="55.5">
+    <row r="1" spans="1:23" ht="55.5">
       <c r="A1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="P1" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="T1" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="U1" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="P3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="V3" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>452</v>
+      <c r="W3" s="29" t="s">
+        <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="O3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R3" t="s">
-        <v>134</v>
-      </c>
-      <c r="S3" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="14.25">
+    <row r="4" spans="1:23" ht="14.25">
       <c r="A4">
         <v>52100000</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
@@ -13095,41 +13544,44 @@
       <c r="N4" s="15">
         <v>4</v>
       </c>
-      <c r="O4" s="16">
-        <v>0</v>
+      <c r="O4" s="15">
+        <v>10</v>
       </c>
       <c r="P4" s="16">
         <v>0</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="16">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="16">
-        <v>5</v>
-      </c>
-      <c r="S4" s="19">
+      <c r="S4" s="16">
+        <v>5</v>
+      </c>
+      <c r="T4" s="19">
         <v>1000</v>
       </c>
-      <c r="T4" s="32">
+      <c r="U4" s="32">
         <v>1</v>
       </c>
-      <c r="U4" s="31">
-        <v>0</v>
-      </c>
-      <c r="V4" s="38"/>
+      <c r="V4" s="31">
+        <v>0</v>
+      </c>
+      <c r="W4" s="38"/>
     </row>
-    <row r="5" spans="1:22" ht="14.25">
+    <row r="5" spans="1:23" ht="14.25">
       <c r="A5">
         <v>52100001</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E5" s="16">
         <v>1</v>
@@ -13162,28 +13614,31 @@
       <c r="N5" s="15">
         <v>4</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="15">
         <v>0</v>
       </c>
       <c r="P5" s="16">
         <v>0</v>
       </c>
-      <c r="Q5" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="R5" s="16">
-        <v>5</v>
-      </c>
-      <c r="S5" s="19">
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="S5" s="16">
+        <v>5</v>
+      </c>
+      <c r="T5" s="19">
         <v>1001</v>
       </c>
-      <c r="T5" s="32">
+      <c r="U5" s="32">
         <v>1</v>
       </c>
-      <c r="U5" s="16">
-        <v>0</v>
-      </c>
-      <c r="V5" s="38"/>
+      <c r="V5" s="16">
+        <v>0</v>
+      </c>
+      <c r="W5" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -2551,6 +2551,34 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="72">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3593,33 +3621,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -6294,83 +6295,83 @@
     <tableColumn id="5" name="Star" dataDxfId="61"/>
     <tableColumn id="6" name="Type" dataDxfId="60"/>
     <tableColumn id="7" name="Attr" dataDxfId="59"/>
-    <tableColumn id="34" name="Quality" dataDxfId="58">
-      <calculatedColumnFormula>IF(U4&gt;10,5,IF(U4&gt;4,4,IF(U4&gt;2,3,IF(U4&gt;0,2,IF(U4&gt;-2.5,1,IF(U4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="34" name="Quality" dataDxfId="0">
+      <calculatedColumnFormula>IF(U4&gt;10,5,IF(U4&gt;5,4,IF(U4&gt;2.5,3,IF(U4&gt;0,2,IF(U4&gt;-2.5,1,IF(U4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="57"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="56"/>
-    <tableColumn id="9" name="VitP" dataDxfId="55"/>
-    <tableColumn id="25" name="Modify" dataDxfId="54"/>
-    <tableColumn id="27" name="Dura" dataDxfId="53"/>
-    <tableColumn id="20" name="Def" dataDxfId="52"/>
-    <tableColumn id="21" name="Mag" dataDxfId="51"/>
-    <tableColumn id="29" name="Spd" dataDxfId="50"/>
-    <tableColumn id="30" name="Hit" dataDxfId="49"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="48"/>
-    <tableColumn id="12" name="Crt" dataDxfId="47"/>
-    <tableColumn id="11" name="Luk" dataDxfId="46"/>
-    <tableColumn id="32" name="Sum" dataDxfId="45">
+    <tableColumn id="15" name="Cost" dataDxfId="58"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="57"/>
+    <tableColumn id="9" name="VitP" dataDxfId="56"/>
+    <tableColumn id="25" name="Modify" dataDxfId="55"/>
+    <tableColumn id="27" name="Dura" dataDxfId="54"/>
+    <tableColumn id="20" name="Def" dataDxfId="53"/>
+    <tableColumn id="21" name="Mag" dataDxfId="52"/>
+    <tableColumn id="29" name="Spd" dataDxfId="51"/>
+    <tableColumn id="30" name="Hit" dataDxfId="50"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="49"/>
+    <tableColumn id="12" name="Crt" dataDxfId="48"/>
+    <tableColumn id="11" name="Luk" dataDxfId="47"/>
+    <tableColumn id="32" name="Sum" dataDxfId="46">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+X4/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="44"/>
-    <tableColumn id="31" name="Mov" dataDxfId="43"/>
-    <tableColumn id="33" name="SkillMark" dataDxfId="42">
+    <tableColumn id="10" name="Range" dataDxfId="45"/>
+    <tableColumn id="31" name="Mov" dataDxfId="44"/>
+    <tableColumn id="33" name="SkillMark" dataDxfId="43">
       <calculatedColumnFormula>IF(ISBLANK(Y4),0, LOOKUP(Y4,[1]Skill!$A:$A,[1]Skill!$Q:$Q)*Z4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="41"/>
-    <tableColumn id="14" name="Percent" dataDxfId="40"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="39"/>
-    <tableColumn id="17" name="Res" dataDxfId="38"/>
-    <tableColumn id="18" name="Icon" dataDxfId="37"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="36"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="35"/>
-    <tableColumn id="28" name="Remark" dataDxfId="34"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="42"/>
+    <tableColumn id="14" name="Percent" dataDxfId="41"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="40"/>
+    <tableColumn id="17" name="Res" dataDxfId="39"/>
+    <tableColumn id="18" name="Icon" dataDxfId="38"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="37"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="36"/>
+    <tableColumn id="28" name="Remark" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="A3:AF5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" name="Name" dataDxfId="30"/>
-    <tableColumn id="3" name="Ename" dataDxfId="29"/>
-    <tableColumn id="4" name="EnameShort" dataDxfId="28"/>
-    <tableColumn id="5" name="Star" dataDxfId="27"/>
-    <tableColumn id="6" name="Type" dataDxfId="26"/>
-    <tableColumn id="7" name="Attr" dataDxfId="25"/>
-    <tableColumn id="34" name="Quality" dataDxfId="24"/>
-    <tableColumn id="15" name="Cost" dataDxfId="23"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
-    <tableColumn id="9" name="VitP" dataDxfId="21"/>
-    <tableColumn id="25" name="Modify" dataDxfId="20"/>
-    <tableColumn id="31" name="Dura" dataDxfId="19"/>
-    <tableColumn id="11" name="Def" dataDxfId="18"/>
-    <tableColumn id="21" name="Mag" dataDxfId="17"/>
-    <tableColumn id="29" name="Spd" dataDxfId="16"/>
-    <tableColumn id="30" name="Hit" dataDxfId="15"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="14"/>
-    <tableColumn id="19" name="Crt" dataDxfId="13"/>
-    <tableColumn id="12" name="Luk" dataDxfId="12"/>
-    <tableColumn id="32" name="Sum" dataDxfId="11">
+    <tableColumn id="1" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" name="Name" dataDxfId="31"/>
+    <tableColumn id="3" name="Ename" dataDxfId="30"/>
+    <tableColumn id="4" name="EnameShort" dataDxfId="29"/>
+    <tableColumn id="5" name="Star" dataDxfId="28"/>
+    <tableColumn id="6" name="Type" dataDxfId="27"/>
+    <tableColumn id="7" name="Attr" dataDxfId="26"/>
+    <tableColumn id="34" name="Quality" dataDxfId="25"/>
+    <tableColumn id="15" name="Cost" dataDxfId="24"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="23"/>
+    <tableColumn id="9" name="VitP" dataDxfId="22"/>
+    <tableColumn id="25" name="Modify" dataDxfId="21"/>
+    <tableColumn id="31" name="Dura" dataDxfId="20"/>
+    <tableColumn id="11" name="Def" dataDxfId="19"/>
+    <tableColumn id="21" name="Mag" dataDxfId="18"/>
+    <tableColumn id="29" name="Spd" dataDxfId="17"/>
+    <tableColumn id="30" name="Hit" dataDxfId="16"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="15"/>
+    <tableColumn id="19" name="Crt" dataDxfId="14"/>
+    <tableColumn id="12" name="Luk" dataDxfId="13"/>
+    <tableColumn id="32" name="Sum" dataDxfId="12">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+X4/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="10"/>
-    <tableColumn id="27" name="Mov" dataDxfId="9"/>
-    <tableColumn id="33" name="SkillMark" dataDxfId="8"/>
-    <tableColumn id="13" name="SkillId" dataDxfId="7"/>
-    <tableColumn id="14" name="Percent" dataDxfId="6"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="5"/>
-    <tableColumn id="17" name="Res" dataDxfId="4"/>
-    <tableColumn id="18" name="Icon" dataDxfId="3"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="2"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="1"/>
-    <tableColumn id="28" name="Remark" dataDxfId="0"/>
+    <tableColumn id="10" name="Range" dataDxfId="11"/>
+    <tableColumn id="27" name="Mov" dataDxfId="10"/>
+    <tableColumn id="33" name="SkillMark" dataDxfId="9"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="8"/>
+    <tableColumn id="14" name="Percent" dataDxfId="7"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="6"/>
+    <tableColumn id="17" name="Res" dataDxfId="5"/>
+    <tableColumn id="18" name="Icon" dataDxfId="4"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="3"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="2"/>
+    <tableColumn id="28" name="Remark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6666,10 +6667,10 @@
   <dimension ref="A1:AF130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7008,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>IF(U4&gt;10,5,IF(U4&gt;4,4,IF(U4&gt;2,3,IF(U4&gt;0,2,IF(U4&gt;-2.5,1,IF(U4&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H4:H35" si="0">IF(U4&gt;10,5,IF(U4&gt;5,4,IF(U4&gt;2.5,3,IF(U4&gt;0,2,IF(U4&gt;-2.5,1,IF(U4&gt;-10,0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -7048,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="11">
-        <f t="shared" ref="U4:U35" si="0">J4+K4-100+L4+ SUM(N4:T4)*5+X4/100</f>
+        <f t="shared" ref="U4:U35" si="1">J4+K4-100+L4+ SUM(N4:T4)*5+X4/100</f>
         <v>-3</v>
       </c>
       <c r="V4" s="9">
@@ -7105,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H68" si="1">IF(U5&gt;10,5,IF(U5&gt;4,4,IF(U5&gt;2,3,IF(U5&gt;0,2,IF(U5&gt;-2.5,1,IF(U5&gt;-10,0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
@@ -7145,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="V5" s="9">
@@ -7202,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
@@ -7242,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="V6" s="9">
@@ -7299,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
@@ -7339,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="V7" s="9">
@@ -7396,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I8" s="4">
@@ -7436,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-98</v>
       </c>
       <c r="V8" s="9">
@@ -7497,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I9" s="16">
@@ -7537,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-21</v>
       </c>
       <c r="V9" s="9">
@@ -7594,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I10" s="4">
@@ -7634,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31</v>
       </c>
       <c r="V10" s="9">
@@ -7691,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
@@ -7731,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="V11" s="9">
@@ -7788,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="4">
@@ -7828,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="V12" s="9">
@@ -7885,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="4">
@@ -7925,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="V13" s="9">
@@ -7982,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="4">
@@ -8022,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="V14" s="9">
@@ -8079,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I15" s="4">
@@ -8119,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="V15" s="9">
@@ -8180,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I16" s="4">
@@ -8220,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="V16" s="9">
@@ -8281,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
@@ -8321,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="V17" s="9">
@@ -8382,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I18" s="4">
@@ -8422,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="V18" s="9">
@@ -8483,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I19" s="4">
@@ -8523,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-30</v>
       </c>
       <c r="V19" s="9">
@@ -8580,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I20" s="4">
@@ -8620,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="V20" s="9">
@@ -8681,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I21" s="4">
@@ -8721,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="V21" s="9">
@@ -8782,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I22" s="4">
@@ -8822,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="V22" s="9">
@@ -8883,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I23" s="4">
@@ -8923,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="V23" s="9">
@@ -8984,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I24" s="4">
@@ -9024,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-30</v>
       </c>
       <c r="V24" s="9">
@@ -9085,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I25" s="4">
@@ -9125,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-27</v>
       </c>
       <c r="V25" s="9">
@@ -9186,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="4">
@@ -9226,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
       <c r="V26" s="9">
@@ -9287,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I27" s="4">
@@ -9327,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V27" s="9">
@@ -9384,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I28" s="16">
@@ -9424,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-24</v>
       </c>
       <c r="V28" s="9">
@@ -9481,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I29" s="4">
@@ -9521,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V29" s="9">
@@ -9578,7 +9579,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I30" s="4">
@@ -9618,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31</v>
       </c>
       <c r="V30" s="9">
@@ -9679,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I31" s="4">
@@ -9719,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31</v>
       </c>
       <c r="V31" s="9">
@@ -9780,7 +9781,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I32" s="4">
@@ -9820,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31</v>
       </c>
       <c r="V32" s="9">
@@ -9881,7 +9882,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I33" s="4">
@@ -9921,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31</v>
       </c>
       <c r="V33" s="9">
@@ -9982,7 +9983,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I34" s="4">
@@ -10022,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31</v>
       </c>
       <c r="V34" s="9">
@@ -10083,7 +10084,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I35" s="4">
@@ -10123,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31</v>
       </c>
       <c r="V35" s="9">
@@ -10184,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H36:H67" si="2">IF(U36&gt;10,5,IF(U36&gt;5,4,IF(U36&gt;2.5,3,IF(U36&gt;0,2,IF(U36&gt;-2.5,1,IF(U36&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I36" s="4">
@@ -10224,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" ref="U36:U67" si="2">J36+K36-100+L36+ SUM(N36:T36)*5+X36/100</f>
+        <f t="shared" ref="U36:U67" si="3">J36+K36-100+L36+ SUM(N36:T36)*5+X36/100</f>
         <v>-31</v>
       </c>
       <c r="V36" s="9">
@@ -10285,7 +10286,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I37" s="4">
@@ -10325,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-31</v>
       </c>
       <c r="V37" s="9">
@@ -10386,7 +10387,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I38" s="4">
@@ -10426,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V38" s="9">
@@ -10483,7 +10484,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I39" s="4">
@@ -10523,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V39" s="9">
@@ -10580,7 +10581,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I40" s="4">
@@ -10620,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V40" s="9">
@@ -10677,7 +10678,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I41" s="4">
@@ -10717,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V41" s="9">
@@ -10774,7 +10775,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I42" s="4">
@@ -10814,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V42" s="9">
@@ -10871,7 +10872,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I43" s="4">
@@ -10911,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V43" s="9">
@@ -10968,7 +10969,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I44" s="4">
@@ -11008,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V44" s="9">
@@ -11065,7 +11066,7 @@
         <v>8</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I45" s="4">
@@ -11105,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V45" s="9">
@@ -11162,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I46" s="4">
@@ -11202,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="V46" s="9">
@@ -11259,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I47" s="4">
@@ -11299,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-29</v>
       </c>
       <c r="V47" s="9">
@@ -11356,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I48" s="4">
@@ -11396,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-48</v>
       </c>
       <c r="V48" s="9">
@@ -11453,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I49" s="4">
@@ -11493,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-28</v>
       </c>
       <c r="V49" s="9">
@@ -11550,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I50" s="4">
@@ -11590,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-93</v>
       </c>
       <c r="V50" s="9">
@@ -11651,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I51" s="4">
@@ -11691,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="V51" s="9">
@@ -11748,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I52" s="4">
@@ -11788,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-41</v>
       </c>
       <c r="V52" s="9">
@@ -11845,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I53" s="4">
@@ -11885,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-94</v>
       </c>
       <c r="V53" s="9">
@@ -11946,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I54" s="4">
@@ -11986,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-102</v>
       </c>
       <c r="V54" s="9">
@@ -12043,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I55" s="4">
@@ -12083,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="V55" s="9">
@@ -12140,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I56" s="4">
@@ -12180,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="V56" s="9">
@@ -12237,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I57" s="4">
@@ -12277,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-28</v>
       </c>
       <c r="V57" s="9">
@@ -12334,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I58" s="4">
@@ -12374,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-46</v>
       </c>
       <c r="V58" s="9">
@@ -12431,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I59" s="4">
@@ -12471,7 +12472,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="V59" s="9">
@@ -12528,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I60" s="4">
@@ -12568,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-49</v>
       </c>
       <c r="V60" s="9">
@@ -12625,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I61" s="4">
@@ -12665,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-74</v>
       </c>
       <c r="V61" s="9">
@@ -12722,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I62" s="4">
@@ -12762,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-33</v>
       </c>
       <c r="V62" s="9">
@@ -12819,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I63" s="4">
@@ -12859,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-95.5</v>
       </c>
       <c r="V63" s="9">
@@ -12920,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I64" s="4">
@@ -12960,7 +12961,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-68</v>
       </c>
       <c r="V64" s="9">
@@ -13021,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I65" s="4">
@@ -13061,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-98.2</v>
       </c>
       <c r="V65" s="9">
@@ -13122,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I66" s="4">
@@ -13162,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-97</v>
       </c>
       <c r="V66" s="9">
@@ -13223,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I67" s="4">
@@ -13263,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-96.8</v>
       </c>
       <c r="V67" s="9">
@@ -13324,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H68:H99" si="4">IF(U68&gt;10,5,IF(U68&gt;5,4,IF(U68&gt;2.5,3,IF(U68&gt;0,2,IF(U68&gt;-2.5,1,IF(U68&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I68" s="4">
@@ -13364,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" ref="U68:U99" si="3">J68+K68-100+L68+ SUM(N68:T68)*5+X68/100</f>
+        <f t="shared" ref="U68:U99" si="5">J68+K68-100+L68+ SUM(N68:T68)*5+X68/100</f>
         <v>-36</v>
       </c>
       <c r="V68" s="9">
@@ -13425,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" ref="H69:H130" si="4">IF(U69&gt;10,5,IF(U69&gt;4,4,IF(U69&gt;2,3,IF(U69&gt;0,2,IF(U69&gt;-2.5,1,IF(U69&gt;-10,0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I69" s="4">
@@ -13465,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-17</v>
       </c>
       <c r="V69" s="9">
@@ -13566,7 +13567,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-30</v>
       </c>
       <c r="V70" s="9">
@@ -13667,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-11</v>
       </c>
       <c r="V71" s="9">
@@ -13764,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-11</v>
       </c>
       <c r="V72" s="9">
@@ -13861,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-16</v>
       </c>
       <c r="V73" s="9">
@@ -13958,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-95.8</v>
       </c>
       <c r="V74" s="9">
@@ -14059,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-22</v>
       </c>
       <c r="V75" s="9">
@@ -14160,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-61</v>
       </c>
       <c r="V76" s="9">
@@ -14261,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-50.85</v>
       </c>
       <c r="V77" s="9">
@@ -14362,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9.5</v>
       </c>
       <c r="V78" s="9">
@@ -14463,7 +14464,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.68</v>
       </c>
       <c r="V79" s="9">
@@ -14564,7 +14565,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.68</v>
       </c>
       <c r="V80" s="9">
@@ -14665,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.34</v>
       </c>
       <c r="V81" s="9">
@@ -14766,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="U82" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.68</v>
       </c>
       <c r="V82" s="9">
@@ -14867,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.68</v>
       </c>
       <c r="V83" s="9">
@@ -14968,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.68</v>
       </c>
       <c r="V84" s="9">
@@ -15069,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.34</v>
       </c>
       <c r="V85" s="9">
@@ -15170,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.68</v>
       </c>
       <c r="V86" s="9">
@@ -15271,7 +15272,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V87" s="9">
@@ -15368,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V88" s="9">
@@ -15465,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V89" s="9">
@@ -15562,7 +15563,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V90" s="9">
@@ -15659,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V91" s="9">
@@ -15756,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V92" s="9">
@@ -15853,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="U93" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V93" s="9">
@@ -15950,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V94" s="9">
@@ -16047,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="U95" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-97</v>
       </c>
       <c r="V95" s="9">
@@ -16144,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-82.8</v>
       </c>
       <c r="V96" s="9">
@@ -16245,7 +16246,7 @@
         <v>0</v>
       </c>
       <c r="U97" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-94.8</v>
       </c>
       <c r="V97" s="9">
@@ -16346,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="U98" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-12</v>
       </c>
       <c r="V98" s="9">
@@ -16443,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-98.8</v>
       </c>
       <c r="V99" s="9">
@@ -16504,7 +16505,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H100:H130" si="6">IF(U100&gt;10,5,IF(U100&gt;5,4,IF(U100&gt;2.5,3,IF(U100&gt;0,2,IF(U100&gt;-2.5,1,IF(U100&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I100" s="4">
@@ -16544,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="11">
-        <f t="shared" ref="U100:U130" si="5">J100+K100-100+L100+ SUM(N100:T100)*5+X100/100</f>
+        <f t="shared" ref="U100:U130" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+X100/100</f>
         <v>-97.78</v>
       </c>
       <c r="V100" s="9">
@@ -16605,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I101" s="4">
@@ -16645,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="U101" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-57</v>
       </c>
       <c r="V101" s="9">
@@ -16706,7 +16707,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I102" s="4">
@@ -16746,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="U102" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-71</v>
       </c>
       <c r="V102" s="9">
@@ -16807,7 +16808,7 @@
         <v>8</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I103" s="4">
@@ -16847,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="U103" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-95.5</v>
       </c>
       <c r="V103" s="9">
@@ -16908,7 +16909,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I104" s="4">
@@ -16948,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-58.2</v>
       </c>
       <c r="V104" s="9">
@@ -17009,7 +17010,7 @@
         <v>6</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I105" s="4">
@@ -17049,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="U105" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-91.5</v>
       </c>
       <c r="V105" s="9">
@@ -17110,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I106" s="4">
@@ -17150,7 +17151,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="V106" s="9">
@@ -17211,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I107" s="4">
@@ -17251,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="U107" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-94.2</v>
       </c>
       <c r="V107" s="9">
@@ -17312,7 +17313,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I108" s="4">
@@ -17352,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="U108" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-98</v>
       </c>
       <c r="V108" s="9">
@@ -17409,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I109" s="4">
@@ -17449,7 +17450,7 @@
         <v>0</v>
       </c>
       <c r="U109" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-16</v>
       </c>
       <c r="V109" s="9">
@@ -17510,7 +17511,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I110" s="4">
@@ -17550,7 +17551,7 @@
         <v>0</v>
       </c>
       <c r="U110" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-62</v>
       </c>
       <c r="V110" s="9">
@@ -17611,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I111" s="4">
@@ -17651,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-83</v>
       </c>
       <c r="V111" s="9">
@@ -17712,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I112" s="4">
@@ -17752,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-46.1</v>
       </c>
       <c r="V112" s="9">
@@ -17813,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I113" s="4">
@@ -17853,7 +17854,7 @@
         <v>0</v>
       </c>
       <c r="U113" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-25.8</v>
       </c>
       <c r="V113" s="9">
@@ -17914,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I114" s="4">
@@ -17954,7 +17955,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-96</v>
       </c>
       <c r="V114" s="9">
@@ -18015,7 +18016,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I115" s="4">
@@ -18055,7 +18056,7 @@
         <v>0</v>
       </c>
       <c r="U115" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V115" s="9">
@@ -18116,7 +18117,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I116" s="4">
@@ -18156,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="V116" s="9">
@@ -18217,7 +18218,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I117" s="4">
@@ -18257,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="U117" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-57</v>
       </c>
       <c r="V117" s="9">
@@ -18318,7 +18319,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I118" s="4">
@@ -18358,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-68</v>
       </c>
       <c r="V118" s="9">
@@ -18419,7 +18420,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I119" s="4">
@@ -18459,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-97</v>
       </c>
       <c r="V119" s="9">
@@ -18520,7 +18521,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I120" s="4">
@@ -18560,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-46.67</v>
       </c>
       <c r="V120" s="9">
@@ -18621,7 +18622,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I121" s="4">
@@ -18661,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="U121" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-87</v>
       </c>
       <c r="V121" s="9">
@@ -18722,7 +18723,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I122" s="4">
@@ -18762,7 +18763,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-71.599999999999994</v>
       </c>
       <c r="V122" s="9">
@@ -18823,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I123" s="16">
@@ -18863,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="U123" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-36</v>
       </c>
       <c r="V123" s="9">
@@ -18920,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I124" s="16">
@@ -18960,7 +18961,7 @@
         <v>0</v>
       </c>
       <c r="U124" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V124" s="9">
@@ -19017,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I125" s="16">
@@ -19057,7 +19058,7 @@
         <v>0</v>
       </c>
       <c r="U125" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-31</v>
       </c>
       <c r="V125" s="9">
@@ -19114,7 +19115,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I126" s="16">
@@ -19154,7 +19155,7 @@
         <v>0</v>
       </c>
       <c r="U126" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-23</v>
       </c>
       <c r="V126" s="9">
@@ -19211,7 +19212,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I127" s="16">
@@ -19251,7 +19252,7 @@
         <v>0</v>
       </c>
       <c r="U127" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-23</v>
       </c>
       <c r="V127" s="9">
@@ -19308,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I128" s="16">
@@ -19348,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="V128" s="9">
@@ -19405,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I129" s="16">
@@ -19445,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="U129" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-22</v>
       </c>
       <c r="V129" s="9">
@@ -19502,7 +19503,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I130" s="16">
@@ -19542,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="U130" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
       <c r="V130" s="9">
@@ -19812,7 +19813,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20149,7 +20150,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="16">
-        <f>IF(U4&gt;10,5,IF(U4&gt;4,4,IF(U4&gt;2,3,IF(U4&gt;0,2,IF(U4&gt;-2.5,1,IF(U4&gt;-10,0,6))))))</f>
+        <f>IF(U4&gt;10,5,IF(U4&gt;5,4,IF(U4&gt;2.5,3,IF(U4&gt;0,2,IF(U4&gt;-2.5,1,IF(U4&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="16">
@@ -20247,7 +20248,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="16">
-        <f>IF(U5&gt;10,5,IF(U5&gt;4,4,IF(U5&gt;2,3,IF(U5&gt;0,2,IF(U5&gt;-2.5,1,IF(U5&gt;-10,0,6))))))</f>
+        <f>IF(U5&gt;10,5,IF(U5&gt;5,4,IF(U5&gt;2.5,3,IF(U5&gt;0,2,IF(U5&gt;-2.5,1,IF(U5&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I5" s="16">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -2551,7 +2551,329 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="107">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2924,33 +3246,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3595,34 +3890,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -4270,7 +4537,7 @@
             <v>55000064</v>
           </cell>
           <cell r="V52">
-            <v>5</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="53">
@@ -4822,7 +5089,7 @@
             <v>55000134</v>
           </cell>
           <cell r="V121">
-            <v>5</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="122">
@@ -5174,7 +5441,7 @@
             <v>55000178</v>
           </cell>
           <cell r="V165">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="166">
@@ -5182,7 +5449,7 @@
             <v>55000179</v>
           </cell>
           <cell r="V166">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="167">
@@ -5550,7 +5817,7 @@
             <v>55000225</v>
           </cell>
           <cell r="V212">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="213">
@@ -5558,7 +5825,7 @@
             <v>55000226</v>
           </cell>
           <cell r="V213">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="214">
@@ -6300,98 +6567,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF130" totalsRowShown="0" dataDxfId="67" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF130" totalsRowShown="0" dataDxfId="102" tableBorderDxfId="101">
   <autoFilter ref="A3:AF130"/>
   <sortState ref="A4:AH130">
     <sortCondition ref="AF3:AF130"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="65"/>
-    <tableColumn id="2" name="Name" dataDxfId="64"/>
-    <tableColumn id="3" name="Ename" dataDxfId="63"/>
-    <tableColumn id="4" name="EnameShort" dataDxfId="62"/>
-    <tableColumn id="5" name="Star" dataDxfId="61"/>
-    <tableColumn id="6" name="Type" dataDxfId="60"/>
-    <tableColumn id="7" name="Attr" dataDxfId="59"/>
-    <tableColumn id="34" name="Quality" dataDxfId="58">
-      <calculatedColumnFormula>IF(U4&gt;10,5,IF(U4&gt;5,4,IF(U4&gt;2.5,3,IF(U4&gt;0,2,IF(U4&gt;-2.5,1,IF(U4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="1" name="Id" dataDxfId="100"/>
+    <tableColumn id="2" name="Name" dataDxfId="99"/>
+    <tableColumn id="3" name="Ename" dataDxfId="98"/>
+    <tableColumn id="4" name="EnameShort" dataDxfId="97"/>
+    <tableColumn id="5" name="Star" dataDxfId="96"/>
+    <tableColumn id="6" name="Type" dataDxfId="95"/>
+    <tableColumn id="7" name="Attr" dataDxfId="94"/>
+    <tableColumn id="34" name="Quality" dataDxfId="11">
+      <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="57"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="56"/>
-    <tableColumn id="9" name="VitP" dataDxfId="55"/>
-    <tableColumn id="25" name="Modify" dataDxfId="54"/>
-    <tableColumn id="27" name="Dura" dataDxfId="53"/>
-    <tableColumn id="20" name="Def" dataDxfId="52"/>
-    <tableColumn id="21" name="Mag" dataDxfId="51"/>
-    <tableColumn id="29" name="Spd" dataDxfId="50"/>
-    <tableColumn id="30" name="Hit" dataDxfId="49"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="48"/>
-    <tableColumn id="12" name="Crt" dataDxfId="47"/>
-    <tableColumn id="11" name="Luk" dataDxfId="46"/>
-    <tableColumn id="32" name="Sum" dataDxfId="45">
+    <tableColumn id="15" name="Cost" dataDxfId="93"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="92"/>
+    <tableColumn id="9" name="VitP" dataDxfId="91"/>
+    <tableColumn id="25" name="Modify" dataDxfId="90"/>
+    <tableColumn id="27" name="Dura" dataDxfId="89"/>
+    <tableColumn id="20" name="Def" dataDxfId="88"/>
+    <tableColumn id="21" name="Mag" dataDxfId="87"/>
+    <tableColumn id="29" name="Spd" dataDxfId="86"/>
+    <tableColumn id="30" name="Hit" dataDxfId="85"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="84"/>
+    <tableColumn id="12" name="Crt" dataDxfId="83"/>
+    <tableColumn id="11" name="Luk" dataDxfId="82"/>
+    <tableColumn id="32" name="Sum" dataDxfId="81">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="44"/>
-    <tableColumn id="31" name="Mov" dataDxfId="43"/>
-    <tableColumn id="33" name="SkillMark" dataDxfId="42">
+    <tableColumn id="10" name="Range" dataDxfId="80"/>
+    <tableColumn id="31" name="Mov" dataDxfId="79"/>
+    <tableColumn id="33" name="SkillMark" dataDxfId="78">
       <calculatedColumnFormula>IF(ISBLANK(Y4),0, LOOKUP(Y4,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="41"/>
-    <tableColumn id="14" name="Percent" dataDxfId="40"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="39"/>
-    <tableColumn id="17" name="Res" dataDxfId="38"/>
-    <tableColumn id="18" name="Icon" dataDxfId="37"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="36"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="35"/>
-    <tableColumn id="28" name="Remark" dataDxfId="34"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="77"/>
+    <tableColumn id="14" name="Percent" dataDxfId="76"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="75"/>
+    <tableColumn id="17" name="Res" dataDxfId="74"/>
+    <tableColumn id="18" name="Icon" dataDxfId="73"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="72"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="71"/>
+    <tableColumn id="28" name="Remark" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="A3:AF5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" name="Name" dataDxfId="30"/>
-    <tableColumn id="3" name="Ename" dataDxfId="29"/>
-    <tableColumn id="4" name="EnameShort" dataDxfId="28"/>
-    <tableColumn id="5" name="Star" dataDxfId="27"/>
-    <tableColumn id="6" name="Type" dataDxfId="26"/>
-    <tableColumn id="7" name="Attr" dataDxfId="25"/>
-    <tableColumn id="34" name="Quality" dataDxfId="24"/>
-    <tableColumn id="15" name="Cost" dataDxfId="23"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
-    <tableColumn id="9" name="VitP" dataDxfId="21"/>
-    <tableColumn id="25" name="Modify" dataDxfId="20"/>
-    <tableColumn id="31" name="Dura" dataDxfId="19"/>
-    <tableColumn id="11" name="Def" dataDxfId="18"/>
-    <tableColumn id="21" name="Mag" dataDxfId="17"/>
-    <tableColumn id="29" name="Spd" dataDxfId="16"/>
-    <tableColumn id="30" name="Hit" dataDxfId="15"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="14"/>
-    <tableColumn id="19" name="Crt" dataDxfId="13"/>
-    <tableColumn id="12" name="Luk" dataDxfId="12"/>
-    <tableColumn id="32" name="Sum" dataDxfId="11">
+    <tableColumn id="1" name="Id" dataDxfId="67"/>
+    <tableColumn id="2" name="Name" dataDxfId="66"/>
+    <tableColumn id="3" name="Ename" dataDxfId="65"/>
+    <tableColumn id="4" name="EnameShort" dataDxfId="64"/>
+    <tableColumn id="5" name="Star" dataDxfId="63"/>
+    <tableColumn id="6" name="Type" dataDxfId="62"/>
+    <tableColumn id="7" name="Attr" dataDxfId="61"/>
+    <tableColumn id="34" name="Quality" dataDxfId="0">
+      <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="Cost" dataDxfId="60"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="59"/>
+    <tableColumn id="9" name="VitP" dataDxfId="58"/>
+    <tableColumn id="25" name="Modify" dataDxfId="57"/>
+    <tableColumn id="31" name="Dura" dataDxfId="56"/>
+    <tableColumn id="11" name="Def" dataDxfId="55"/>
+    <tableColumn id="21" name="Mag" dataDxfId="54"/>
+    <tableColumn id="29" name="Spd" dataDxfId="53"/>
+    <tableColumn id="30" name="Hit" dataDxfId="52"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="51"/>
+    <tableColumn id="19" name="Crt" dataDxfId="50"/>
+    <tableColumn id="12" name="Luk" dataDxfId="49"/>
+    <tableColumn id="32" name="Sum" dataDxfId="48">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="10"/>
-    <tableColumn id="27" name="Mov" dataDxfId="9"/>
-    <tableColumn id="33" name="SkillMark" dataDxfId="8">
+    <tableColumn id="10" name="Range" dataDxfId="47"/>
+    <tableColumn id="27" name="Mov" dataDxfId="46"/>
+    <tableColumn id="33" name="SkillMark" dataDxfId="45">
       <calculatedColumnFormula>IF(ISBLANK(Y4),0, LOOKUP(Y4,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="7"/>
-    <tableColumn id="14" name="Percent" dataDxfId="6"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="5"/>
-    <tableColumn id="17" name="Res" dataDxfId="4"/>
-    <tableColumn id="18" name="Icon" dataDxfId="3"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="2"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="1"/>
-    <tableColumn id="28" name="Remark" dataDxfId="0"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="44"/>
+    <tableColumn id="14" name="Percent" dataDxfId="43"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="42"/>
+    <tableColumn id="17" name="Res" dataDxfId="41"/>
+    <tableColumn id="18" name="Icon" dataDxfId="40"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="39"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="38"/>
+    <tableColumn id="28" name="Remark" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6690,7 +6959,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7029,8 +7298,8 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H35" si="0">IF(U4&gt;10,5,IF(U4&gt;5,4,IF(U4&gt;2.5,3,IF(U4&gt;0,2,IF(U4&gt;-2.5,1,IF(U4&gt;-10,0,6))))))</f>
-        <v>0</v>
+        <f t="shared" ref="H4:H35" si="0">IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</f>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -7127,7 +7396,7 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
@@ -7224,7 +7493,7 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -7321,7 +7590,7 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
         <v>2</v>
@@ -7713,7 +7982,7 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
         <v>3</v>
@@ -7810,7 +8079,7 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
         <v>4</v>
@@ -7907,7 +8176,7 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
         <v>3</v>
@@ -8004,7 +8273,7 @@
       </c>
       <c r="H14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <v>4</v>
@@ -8101,7 +8370,7 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4">
         <v>2</v>
@@ -8202,7 +8471,7 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
@@ -8303,7 +8572,7 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
@@ -8404,7 +8673,7 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="4">
         <v>2</v>
@@ -8602,7 +8871,7 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="4">
         <v>2</v>
@@ -8703,7 +8972,7 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
@@ -8804,7 +9073,7 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="4">
         <v>2</v>
@@ -8905,7 +9174,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" s="4">
         <v>2</v>
@@ -9107,7 +9376,7 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -9208,7 +9477,7 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" s="4">
         <v>2</v>
@@ -9309,7 +9578,7 @@
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
@@ -9503,7 +9772,7 @@
       </c>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="4">
         <v>4</v>
@@ -9600,7 +9869,7 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="4">
         <v>1</v>
@@ -9701,7 +9970,7 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="4">
         <v>1</v>
@@ -9802,7 +10071,7 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" s="4">
         <v>1</v>
@@ -9903,7 +10172,7 @@
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4">
         <v>1</v>
@@ -10004,7 +10273,7 @@
       </c>
       <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="4">
         <v>1</v>
@@ -10105,7 +10374,7 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="4">
         <v>1</v>
@@ -10205,8 +10474,8 @@
         <v>2</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" ref="H36:H67" si="2">IF(U36&gt;10,5,IF(U36&gt;5,4,IF(U36&gt;2.5,3,IF(U36&gt;0,2,IF(U36&gt;-2.5,1,IF(U36&gt;-10,0,6))))))</f>
-        <v>3</v>
+        <f t="shared" ref="H36:H67" si="2">IF(AND(U36&gt;=13,U36&lt;=16),5,IF(AND(U36&gt;=9,U36&lt;=12),4,IF(AND(U36&gt;=5,U36&lt;=8),3,IF(AND(U36&gt;=1,U36&lt;=4),2,IF(AND(U36&gt;=-3,U36&lt;=0),1,IF(AND(U36&gt;=-5,U36&lt;=-4),0,6))))))</f>
+        <v>2</v>
       </c>
       <c r="I36" s="4">
         <v>1</v>
@@ -10307,7 +10576,7 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" s="4">
         <v>1</v>
@@ -11184,7 +11453,7 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" s="4">
         <v>2</v>
@@ -13345,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H99" si="4">IF(U68&gt;10,5,IF(U68&gt;5,4,IF(U68&gt;2.5,3,IF(U68&gt;0,2,IF(U68&gt;-2.5,1,IF(U68&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H68:H99" si="4">IF(AND(U68&gt;=13,U68&lt;=16),5,IF(AND(U68&gt;=9,U68&lt;=12),4,IF(AND(U68&gt;=5,U68&lt;=8),3,IF(AND(U68&gt;=1,U68&lt;=4),2,IF(AND(U68&gt;=-3,U68&lt;=0),1,IF(AND(U68&gt;=-5,U68&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I68" s="4">
@@ -14344,7 +14613,7 @@
       </c>
       <c r="H78" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I78" s="4">
         <v>4</v>
@@ -14445,7 +14714,7 @@
       </c>
       <c r="H79" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I79" s="4">
         <v>3</v>
@@ -14546,7 +14815,7 @@
       </c>
       <c r="H80" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I80" s="4">
         <v>3</v>
@@ -14647,7 +14916,7 @@
       </c>
       <c r="H81" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I81" s="4">
         <v>3</v>
@@ -14748,7 +15017,7 @@
       </c>
       <c r="H82" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I82" s="4">
         <v>3</v>
@@ -14849,7 +15118,7 @@
       </c>
       <c r="H83" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I83" s="4">
         <v>3</v>
@@ -14950,7 +15219,7 @@
       </c>
       <c r="H84" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I84" s="4">
         <v>3</v>
@@ -15051,7 +15320,7 @@
       </c>
       <c r="H85" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I85" s="4">
         <v>3</v>
@@ -15152,7 +15421,7 @@
       </c>
       <c r="H86" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I86" s="4">
         <v>3</v>
@@ -16525,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" ref="H100:H130" si="6">IF(U100&gt;10,5,IF(U100&gt;5,4,IF(U100&gt;2.5,3,IF(U100&gt;0,2,IF(U100&gt;-2.5,1,IF(U100&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H100:H130" si="6">IF(AND(U100&gt;=13,U100&lt;=16),5,IF(AND(U100&gt;=9,U100&lt;=12),4,IF(AND(U100&gt;=5,U100&lt;=8),3,IF(AND(U100&gt;=1,U100&lt;=4),2,IF(AND(U100&gt;=-3,U100&lt;=0),1,IF(AND(U100&gt;=-5,U100&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I100" s="4">
@@ -19330,7 +19599,7 @@
       </c>
       <c r="H128" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" s="16">
         <v>3</v>
@@ -19600,6 +19869,42 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="U121">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U122:U123">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U124">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U125">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -19611,8 +19916,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U122:U123">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="U126">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19623,7 +19928,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U124">
+  <conditionalFormatting sqref="U127">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U127">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -19635,7 +19952,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U125">
+  <conditionalFormatting sqref="U128">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -19647,7 +19964,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U126">
+  <conditionalFormatting sqref="U128">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U129">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -19659,7 +19988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U127">
+  <conditionalFormatting sqref="U129">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -19671,7 +20000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U127">
+  <conditionalFormatting sqref="U129">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -19683,7 +20012,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U128">
+  <conditionalFormatting sqref="U130">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -19695,7 +20024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U128">
+  <conditionalFormatting sqref="U130">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -19707,7 +20036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U129">
+  <conditionalFormatting sqref="U130">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -19719,7 +20048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U129">
+  <conditionalFormatting sqref="U130">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -19731,8 +20060,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U129">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="U4:U130">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19743,77 +20072,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U130">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="H5:H130">
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="9" operator="greaterThanOrEqual">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U130">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U130">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U130">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U130">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H130">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19833,7 +20119,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20169,8 +20455,8 @@
       <c r="G4" s="16">
         <v>0</v>
       </c>
-      <c r="H4" s="16">
-        <f>IF(U4&gt;10,5,IF(U4&gt;5,4,IF(U4&gt;2.5,3,IF(U4&gt;0,2,IF(U4&gt;-2.5,1,IF(U4&gt;-10,0,6))))))</f>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H5" si="0">IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="16">
@@ -20210,7 +20496,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="20">
-        <f t="shared" ref="U4:U5" si="0">J4+K4-100+L4+ SUM(N4:T4)*5+X4</f>
+        <f t="shared" ref="U4:U5" si="1">J4+K4-100+L4+ SUM(N4:T4)*5+X4</f>
         <v>-53</v>
       </c>
       <c r="V4" s="15">
@@ -20264,8 +20550,8 @@
       <c r="G5" s="16">
         <v>0</v>
       </c>
-      <c r="H5" s="16">
-        <f>IF(U5&gt;10,5,IF(U5&gt;5,4,IF(U5&gt;2.5,3,IF(U5&gt;0,2,IF(U5&gt;-2.5,1,IF(U5&gt;-10,0,6))))))</f>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I5" s="16">
@@ -20305,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-53</v>
       </c>
       <c r="V5" s="15">
@@ -20340,6 +20626,126 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="U4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -20351,8 +20757,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="U4:U5">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20363,124 +20769,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>2</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U5">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -1230,10 +1230,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SkillMark</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>黑影铠</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1614,11 +1610,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SkillMark</t>
+    <t>double</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>double</t>
+    <t>~SkillMark</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>~SkillMark</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2551,326 +2551,22 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="107">
+  <dxfs count="87">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3106,15 +2802,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3264,6 +2951,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3471,6 +3186,82 @@
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3705,15 +3496,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3863,6 +3645,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -4099,6 +3909,44 @@
         <color rgb="FF00B050"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4117,6 +3965,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Skill"/>
+      <sheetName val="SkillOld"/>
       <sheetName val="基础"/>
       <sheetName val="道具"/>
       <sheetName val="~标准"/>
@@ -4150,2410 +3999,122 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>55000001</v>
+            <v>55100001</v>
           </cell>
           <cell r="V4">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>55000002</v>
+            <v>55200001</v>
           </cell>
           <cell r="V5">
-            <v>0</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>55000003</v>
+            <v>55300001</v>
           </cell>
           <cell r="V6">
-            <v>1</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>55000004</v>
+            <v>55300002</v>
           </cell>
           <cell r="V7">
-            <v>0</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>55000005</v>
+            <v>55300003</v>
           </cell>
           <cell r="V8">
-            <v>1</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>55000006</v>
+            <v>55300004</v>
           </cell>
           <cell r="V9">
-            <v>0</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>55000007</v>
+            <v>55300005</v>
           </cell>
           <cell r="V10">
-            <v>1</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>55000008</v>
+            <v>55300006</v>
           </cell>
           <cell r="V11">
-            <v>0</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>55000009</v>
+            <v>55300007</v>
           </cell>
           <cell r="V12">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>55000010</v>
+            <v>55310001</v>
           </cell>
           <cell r="V13">
-            <v>0</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>55000011</v>
+            <v>55400001</v>
           </cell>
           <cell r="V14">
-            <v>1</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>55000012</v>
+            <v>55400002</v>
           </cell>
           <cell r="V15">
-            <v>0</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>55000013</v>
+            <v>55900001</v>
           </cell>
           <cell r="V16">
-            <v>1</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>55000014</v>
+            <v>55900002</v>
           </cell>
           <cell r="V17">
-            <v>0</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>55000015</v>
+            <v>55900003</v>
           </cell>
           <cell r="V18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>55000016</v>
-          </cell>
-          <cell r="V19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>55000017</v>
-          </cell>
-          <cell r="V20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>55000018</v>
-          </cell>
-          <cell r="V21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>55000019</v>
-          </cell>
-          <cell r="V22">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>55000020</v>
-          </cell>
-          <cell r="V23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>55000021</v>
-          </cell>
-          <cell r="V24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>55000029</v>
-          </cell>
-          <cell r="V25">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>55000030</v>
-          </cell>
-          <cell r="V26">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>55000031</v>
-          </cell>
-          <cell r="V27">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>55000032</v>
-          </cell>
-          <cell r="V28">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>55000033</v>
-          </cell>
-          <cell r="V29">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>55000034</v>
-          </cell>
-          <cell r="V30">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>55000035</v>
-          </cell>
-          <cell r="V31">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>55000036</v>
-          </cell>
-          <cell r="V32">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>55000037</v>
-          </cell>
-          <cell r="V33">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>55000038</v>
-          </cell>
-          <cell r="V34">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>55000039</v>
-          </cell>
-          <cell r="V35">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>55000040</v>
-          </cell>
-          <cell r="V36">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>55000041</v>
-          </cell>
-          <cell r="V37">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>55000042</v>
-          </cell>
-          <cell r="V38">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>55000043</v>
-          </cell>
-          <cell r="V39">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>55000044</v>
-          </cell>
-          <cell r="V40">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>55000045</v>
-          </cell>
-          <cell r="V41">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>55000046</v>
-          </cell>
-          <cell r="V42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>55000047</v>
-          </cell>
-          <cell r="V43">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>55000048</v>
-          </cell>
-          <cell r="V44">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>55000049</v>
-          </cell>
-          <cell r="V45">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>55000050</v>
-          </cell>
-          <cell r="V46">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>55000051</v>
-          </cell>
-          <cell r="V47">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>55000052</v>
-          </cell>
-          <cell r="V48">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>55000061</v>
-          </cell>
-          <cell r="V49">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>55000062</v>
-          </cell>
-          <cell r="V50">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>55000063</v>
-          </cell>
-          <cell r="V51">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>55000064</v>
-          </cell>
-          <cell r="V52">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>55000065</v>
-          </cell>
-          <cell r="V53">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>55000066</v>
-          </cell>
-          <cell r="V54">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>55000067</v>
-          </cell>
-          <cell r="V55">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>55000068</v>
-          </cell>
-          <cell r="V56">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>55000069</v>
-          </cell>
-          <cell r="V57">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>55000070</v>
-          </cell>
-          <cell r="V58">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>55000071</v>
-          </cell>
-          <cell r="V59">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>55000072</v>
-          </cell>
-          <cell r="V60">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>55000073</v>
-          </cell>
-          <cell r="V61">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>55000074</v>
-          </cell>
-          <cell r="V62">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>55000075</v>
-          </cell>
-          <cell r="V63">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>55000076</v>
-          </cell>
-          <cell r="V64">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>55000077</v>
-          </cell>
-          <cell r="V65">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>55000078</v>
-          </cell>
-          <cell r="V66">
-            <v>-4</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>55000079</v>
-          </cell>
-          <cell r="V67">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>55000080</v>
-          </cell>
-          <cell r="V68">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>55000081</v>
-          </cell>
-          <cell r="V69">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>55000082</v>
-          </cell>
-          <cell r="V70">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>55000083</v>
-          </cell>
-          <cell r="V71">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>55000084</v>
-          </cell>
-          <cell r="V72">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>55000085</v>
-          </cell>
-          <cell r="V73">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>55000086</v>
-          </cell>
-          <cell r="V74">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>55000087</v>
-          </cell>
-          <cell r="V75">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>55000088</v>
-          </cell>
-          <cell r="V76">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>55000089</v>
-          </cell>
-          <cell r="V77">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>55000090</v>
-          </cell>
-          <cell r="V78">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>55000091</v>
-          </cell>
-          <cell r="V79">
-            <v>-15</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>55000092</v>
-          </cell>
-          <cell r="V80">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>55000093</v>
-          </cell>
-          <cell r="V81">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>55000094</v>
-          </cell>
-          <cell r="V82">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>55000095</v>
-          </cell>
-          <cell r="V83">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>55000096</v>
-          </cell>
-          <cell r="V84">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>55000097</v>
-          </cell>
-          <cell r="V85">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>55000098</v>
-          </cell>
-          <cell r="V86">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>55000099</v>
-          </cell>
-          <cell r="V87">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>55000100</v>
-          </cell>
-          <cell r="V88">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>55000101</v>
-          </cell>
-          <cell r="V89">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>55000102</v>
-          </cell>
-          <cell r="V90">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>55000103</v>
-          </cell>
-          <cell r="V91">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>55000104</v>
-          </cell>
-          <cell r="V92">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>55000105</v>
-          </cell>
-          <cell r="V93">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>55000106</v>
-          </cell>
-          <cell r="V94">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>55000107</v>
-          </cell>
-          <cell r="V95">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>55000108</v>
-          </cell>
-          <cell r="V96">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>55000109</v>
-          </cell>
-          <cell r="V97">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>55000110</v>
-          </cell>
-          <cell r="V98">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>55000111</v>
-          </cell>
-          <cell r="V99">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>55000112</v>
-          </cell>
-          <cell r="V100">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>55000113</v>
-          </cell>
-          <cell r="V101">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>55000114</v>
-          </cell>
-          <cell r="V102">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>55000115</v>
-          </cell>
-          <cell r="V103">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>55000116</v>
-          </cell>
-          <cell r="V104">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>55000117</v>
-          </cell>
-          <cell r="V105">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>55000118</v>
-          </cell>
-          <cell r="V106">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>55000119</v>
-          </cell>
-          <cell r="V107">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>55000120</v>
-          </cell>
-          <cell r="V108">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>55000121</v>
-          </cell>
-          <cell r="V109">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>55000122</v>
-          </cell>
-          <cell r="V110">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>55000123</v>
-          </cell>
-          <cell r="V111">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>55000124</v>
-          </cell>
-          <cell r="V112">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>55000125</v>
-          </cell>
-          <cell r="V113">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>55000126</v>
-          </cell>
-          <cell r="V114">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>55000127</v>
-          </cell>
-          <cell r="V115">
             <v>80</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>55000129</v>
-          </cell>
-          <cell r="V116">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>55000130</v>
-          </cell>
-          <cell r="V117">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>55000131</v>
-          </cell>
-          <cell r="V118">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>55000132</v>
-          </cell>
-          <cell r="V119">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>55000133</v>
-          </cell>
-          <cell r="V120">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>55000134</v>
-          </cell>
-          <cell r="V121">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>55000135</v>
-          </cell>
-          <cell r="V122">
-            <v>-5</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>55000136</v>
-          </cell>
-          <cell r="V123">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>55000137</v>
-          </cell>
-          <cell r="V124">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>55000138</v>
-          </cell>
-          <cell r="V125">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>55000139</v>
-          </cell>
-          <cell r="V126">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>55000140</v>
-          </cell>
-          <cell r="V127">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>55000141</v>
-          </cell>
-          <cell r="V128">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>55000142</v>
-          </cell>
-          <cell r="V129">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>55000143</v>
-          </cell>
-          <cell r="V130">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>55000144</v>
-          </cell>
-          <cell r="V131">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>55000145</v>
-          </cell>
-          <cell r="V132">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>55000146</v>
-          </cell>
-          <cell r="V133">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>55000147</v>
-          </cell>
-          <cell r="V134">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>55000148</v>
-          </cell>
-          <cell r="V135">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>55000149</v>
-          </cell>
-          <cell r="V136">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>55000150</v>
-          </cell>
-          <cell r="V137">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>55000151</v>
-          </cell>
-          <cell r="V138">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>55000152</v>
-          </cell>
-          <cell r="V139">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>55000153</v>
-          </cell>
-          <cell r="V140">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>55000154</v>
-          </cell>
-          <cell r="V141">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>55000155</v>
-          </cell>
-          <cell r="V142">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>55000156</v>
-          </cell>
-          <cell r="V143">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>55000157</v>
-          </cell>
-          <cell r="V144">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>55000158</v>
-          </cell>
-          <cell r="V145">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>55000159</v>
-          </cell>
-          <cell r="V146">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>55000160</v>
-          </cell>
-          <cell r="V147">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>55000161</v>
-          </cell>
-          <cell r="V148">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>55000162</v>
-          </cell>
-          <cell r="V149">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>55000163</v>
-          </cell>
-          <cell r="V150">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>55000164</v>
-          </cell>
-          <cell r="V151">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>55000165</v>
-          </cell>
-          <cell r="V152">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>55000166</v>
-          </cell>
-          <cell r="V153">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>55000167</v>
-          </cell>
-          <cell r="V154">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>55000168</v>
-          </cell>
-          <cell r="V155">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>55000169</v>
-          </cell>
-          <cell r="V156">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>55000170</v>
-          </cell>
-          <cell r="V157">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>55000171</v>
-          </cell>
-          <cell r="V158">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>55000172</v>
-          </cell>
-          <cell r="V159">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>55000173</v>
-          </cell>
-          <cell r="V160">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>55000174</v>
-          </cell>
-          <cell r="V161">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>55000175</v>
-          </cell>
-          <cell r="V162">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>55000176</v>
-          </cell>
-          <cell r="V163">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>55000177</v>
-          </cell>
-          <cell r="V164">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>55000178</v>
-          </cell>
-          <cell r="V165">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>55000179</v>
-          </cell>
-          <cell r="V166">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>55000180</v>
-          </cell>
-          <cell r="V167">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>55000181</v>
-          </cell>
-          <cell r="V168">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>55000182</v>
-          </cell>
-          <cell r="V169">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>55000183</v>
-          </cell>
-          <cell r="V170">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>55000184</v>
-          </cell>
-          <cell r="V171">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>55000185</v>
-          </cell>
-          <cell r="V172">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>55000186</v>
-          </cell>
-          <cell r="V173">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>55000187</v>
-          </cell>
-          <cell r="V174">
-            <v>-12</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>55000188</v>
-          </cell>
-          <cell r="V175">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>55000189</v>
-          </cell>
-          <cell r="V176">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>55000190</v>
-          </cell>
-          <cell r="V177">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>55000191</v>
-          </cell>
-          <cell r="V178">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>55000192</v>
-          </cell>
-          <cell r="V179">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>55000193</v>
-          </cell>
-          <cell r="V180">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>55000194</v>
-          </cell>
-          <cell r="V181">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>55000195</v>
-          </cell>
-          <cell r="V182">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>55000196</v>
-          </cell>
-          <cell r="V183">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>55000197</v>
-          </cell>
-          <cell r="V184">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>55000198</v>
-          </cell>
-          <cell r="V185">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>55000199</v>
-          </cell>
-          <cell r="V186">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>55000200</v>
-          </cell>
-          <cell r="V187">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>55000201</v>
-          </cell>
-          <cell r="V188">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>55000202</v>
-          </cell>
-          <cell r="V189">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>55000203</v>
-          </cell>
-          <cell r="V190">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>55000204</v>
-          </cell>
-          <cell r="V191">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>55000205</v>
-          </cell>
-          <cell r="V192">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>55000206</v>
-          </cell>
-          <cell r="V193">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>55000207</v>
-          </cell>
-          <cell r="V194">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>55000208</v>
-          </cell>
-          <cell r="V195">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>55000209</v>
-          </cell>
-          <cell r="V196">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>55000210</v>
-          </cell>
-          <cell r="V197">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>55000211</v>
-          </cell>
-          <cell r="V198">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>55000212</v>
-          </cell>
-          <cell r="V199">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>55000213</v>
-          </cell>
-          <cell r="V200">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>55000214</v>
-          </cell>
-          <cell r="V201">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>55000215</v>
-          </cell>
-          <cell r="V202">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>55000216</v>
-          </cell>
-          <cell r="V203">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>55000217</v>
-          </cell>
-          <cell r="V204">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>55000218</v>
-          </cell>
-          <cell r="V205">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>55000219</v>
-          </cell>
-          <cell r="V206">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>55000220</v>
-          </cell>
-          <cell r="V207">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>55000221</v>
-          </cell>
-          <cell r="V208">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>55000222</v>
-          </cell>
-          <cell r="V209">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>55000223</v>
-          </cell>
-          <cell r="V210">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>55000224</v>
-          </cell>
-          <cell r="V211">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>55000225</v>
-          </cell>
-          <cell r="V212">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>55000226</v>
-          </cell>
-          <cell r="V213">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>55000227</v>
-          </cell>
-          <cell r="V214">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>55000228</v>
-          </cell>
-          <cell r="V215">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>55000229</v>
-          </cell>
-          <cell r="V216">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>55000230</v>
-          </cell>
-          <cell r="V217">
-            <v>-18</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>55000231</v>
-          </cell>
-          <cell r="V218">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>55000232</v>
-          </cell>
-          <cell r="V219">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>55000233</v>
-          </cell>
-          <cell r="V220">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>55000234</v>
-          </cell>
-          <cell r="V221">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>55000235</v>
-          </cell>
-          <cell r="V222">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>55000236</v>
-          </cell>
-          <cell r="V223">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>55000237</v>
-          </cell>
-          <cell r="V224">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>55000238</v>
-          </cell>
-          <cell r="V225">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>55000239</v>
-          </cell>
-          <cell r="V226">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>55000240</v>
-          </cell>
-          <cell r="V227">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>55000241</v>
-          </cell>
-          <cell r="V228">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>55000242</v>
-          </cell>
-          <cell r="V229">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>55000243</v>
-          </cell>
-          <cell r="V230">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>55000244</v>
-          </cell>
-          <cell r="V231">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>55000245</v>
-          </cell>
-          <cell r="V232">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233">
-            <v>55000246</v>
-          </cell>
-          <cell r="V233">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234">
-            <v>55000247</v>
-          </cell>
-          <cell r="V234">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235">
-            <v>55000248</v>
-          </cell>
-          <cell r="V235">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>55000249</v>
-          </cell>
-          <cell r="V236">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>55000250</v>
-          </cell>
-          <cell r="V237">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>55000251</v>
-          </cell>
-          <cell r="V238">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>55000252</v>
-          </cell>
-          <cell r="V239">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240">
-            <v>55000253</v>
-          </cell>
-          <cell r="V240">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241">
-            <v>55000254</v>
-          </cell>
-          <cell r="V241">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242">
-            <v>55000255</v>
-          </cell>
-          <cell r="V242">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243">
-            <v>55000256</v>
-          </cell>
-          <cell r="V243">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244">
-            <v>55000257</v>
-          </cell>
-          <cell r="V244">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245">
-            <v>55000258</v>
-          </cell>
-          <cell r="V245">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246">
-            <v>55000259</v>
-          </cell>
-          <cell r="V246">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247">
-            <v>55000260</v>
-          </cell>
-          <cell r="V247">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248">
-            <v>55000261</v>
-          </cell>
-          <cell r="V248">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249">
-            <v>55000262</v>
-          </cell>
-          <cell r="V249">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250">
-            <v>55000263</v>
-          </cell>
-          <cell r="V250">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251">
-            <v>55000264</v>
-          </cell>
-          <cell r="V251">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252">
-            <v>55000265</v>
-          </cell>
-          <cell r="V252">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253">
-            <v>55000266</v>
-          </cell>
-          <cell r="V253">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254">
-            <v>55000267</v>
-          </cell>
-          <cell r="V254">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255">
-            <v>55000268</v>
-          </cell>
-          <cell r="V255">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256">
-            <v>55000269</v>
-          </cell>
-          <cell r="V256">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257">
-            <v>55000270</v>
-          </cell>
-          <cell r="V257">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258">
-            <v>55000271</v>
-          </cell>
-          <cell r="V258">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259">
-            <v>55000272</v>
-          </cell>
-          <cell r="V259">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260">
-            <v>55000273</v>
-          </cell>
-          <cell r="V260">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261">
-            <v>55000274</v>
-          </cell>
-          <cell r="V261">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262">
-            <v>55000275</v>
-          </cell>
-          <cell r="V262">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263">
-            <v>55000276</v>
-          </cell>
-          <cell r="V263">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264">
-            <v>55000277</v>
-          </cell>
-          <cell r="V264">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265">
-            <v>55000278</v>
-          </cell>
-          <cell r="V265">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266">
-            <v>55000279</v>
-          </cell>
-          <cell r="V266">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267">
-            <v>55000280</v>
-          </cell>
-          <cell r="V267">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268">
-            <v>55000281</v>
-          </cell>
-          <cell r="V268">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269">
-            <v>55000282</v>
-          </cell>
-          <cell r="V269">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270">
-            <v>55000284</v>
-          </cell>
-          <cell r="V270">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="A271">
-            <v>55000285</v>
-          </cell>
-          <cell r="V271">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="A272">
-            <v>55000286</v>
-          </cell>
-          <cell r="V272">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="A273">
-            <v>55000287</v>
-          </cell>
-          <cell r="V273">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="A274">
-            <v>55000288</v>
-          </cell>
-          <cell r="V274">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="A275">
-            <v>55000289</v>
-          </cell>
-          <cell r="V275">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="A276">
-            <v>55000290</v>
-          </cell>
-          <cell r="V276">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="A277">
-            <v>55000291</v>
-          </cell>
-          <cell r="V277">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="A278">
-            <v>55000292</v>
-          </cell>
-          <cell r="V278">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="A279">
-            <v>55000293</v>
-          </cell>
-          <cell r="V279">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="A280">
-            <v>55000294</v>
-          </cell>
-          <cell r="V280">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="A281">
-            <v>55000295</v>
-          </cell>
-          <cell r="V281">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="A282">
-            <v>55000296</v>
-          </cell>
-          <cell r="V282">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="A283">
-            <v>55000297</v>
-          </cell>
-          <cell r="V283">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="A284">
-            <v>55000298</v>
-          </cell>
-          <cell r="V284">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="A285">
-            <v>55000299</v>
-          </cell>
-          <cell r="V285">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="A286">
-            <v>55000300</v>
-          </cell>
-          <cell r="V286">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="A287">
-            <v>55000324</v>
-          </cell>
-          <cell r="V287">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="A288">
-            <v>55000325</v>
-          </cell>
-          <cell r="V288">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="A289">
-            <v>55000326</v>
-          </cell>
-          <cell r="V289">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="A290">
-            <v>55000327</v>
-          </cell>
-          <cell r="V290">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="A291">
-            <v>55000328</v>
-          </cell>
-          <cell r="V291">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="A292">
-            <v>55000329</v>
-          </cell>
-          <cell r="V292">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="A293">
-            <v>55000330</v>
-          </cell>
-          <cell r="V293">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="A294">
-            <v>55000331</v>
-          </cell>
-          <cell r="V294">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="A295">
-            <v>55000332</v>
-          </cell>
-          <cell r="V295">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="A296">
-            <v>55000333</v>
-          </cell>
-          <cell r="V296">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="A297">
-            <v>55000334</v>
-          </cell>
-          <cell r="V297">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="A298">
-            <v>55000335</v>
-          </cell>
-          <cell r="V298">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="A299">
-            <v>55000340</v>
-          </cell>
-          <cell r="V299">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="A300">
-            <v>55000341</v>
-          </cell>
-          <cell r="V300">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="A301">
-            <v>55000342</v>
-          </cell>
-          <cell r="V301">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="A302">
-            <v>55000343</v>
-          </cell>
-          <cell r="V302">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="A303" t="str">
-            <v>55000060|FightQuick</v>
-          </cell>
-          <cell r="V303">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="A304">
-            <v>55000344</v>
-          </cell>
-          <cell r="V304">
-            <v>40</v>
           </cell>
         </row>
       </sheetData>
@@ -6561,106 +4122,107 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF130" totalsRowShown="0" dataDxfId="102" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF130" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="A3:AF130"/>
   <sortState ref="A4:AH130">
     <sortCondition ref="AF3:AF130"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="100"/>
-    <tableColumn id="2" name="Name" dataDxfId="99"/>
-    <tableColumn id="3" name="Ename" dataDxfId="98"/>
-    <tableColumn id="4" name="EnameShort" dataDxfId="97"/>
-    <tableColumn id="5" name="Star" dataDxfId="96"/>
-    <tableColumn id="6" name="Type" dataDxfId="95"/>
-    <tableColumn id="7" name="Attr" dataDxfId="94"/>
-    <tableColumn id="34" name="Quality" dataDxfId="11">
+    <tableColumn id="1" name="Id" dataDxfId="75"/>
+    <tableColumn id="2" name="Name" dataDxfId="74"/>
+    <tableColumn id="3" name="Ename" dataDxfId="73"/>
+    <tableColumn id="4" name="EnameShort" dataDxfId="72"/>
+    <tableColumn id="5" name="Star" dataDxfId="71"/>
+    <tableColumn id="6" name="Type" dataDxfId="70"/>
+    <tableColumn id="7" name="Attr" dataDxfId="69"/>
+    <tableColumn id="34" name="Quality" dataDxfId="68">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="93"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="92"/>
-    <tableColumn id="9" name="VitP" dataDxfId="91"/>
-    <tableColumn id="25" name="Modify" dataDxfId="90"/>
-    <tableColumn id="27" name="Dura" dataDxfId="89"/>
-    <tableColumn id="20" name="Def" dataDxfId="88"/>
-    <tableColumn id="21" name="Mag" dataDxfId="87"/>
-    <tableColumn id="29" name="Spd" dataDxfId="86"/>
-    <tableColumn id="30" name="Hit" dataDxfId="85"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="84"/>
-    <tableColumn id="12" name="Crt" dataDxfId="83"/>
-    <tableColumn id="11" name="Luk" dataDxfId="82"/>
-    <tableColumn id="32" name="Sum" dataDxfId="81">
-      <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+X4</calculatedColumnFormula>
+    <tableColumn id="15" name="Cost" dataDxfId="67"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="66"/>
+    <tableColumn id="9" name="VitP" dataDxfId="65"/>
+    <tableColumn id="25" name="Modify" dataDxfId="64"/>
+    <tableColumn id="27" name="Dura" dataDxfId="63"/>
+    <tableColumn id="20" name="Def" dataDxfId="62"/>
+    <tableColumn id="21" name="Mag" dataDxfId="61"/>
+    <tableColumn id="29" name="Spd" dataDxfId="60"/>
+    <tableColumn id="30" name="Hit" dataDxfId="59"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="58"/>
+    <tableColumn id="12" name="Crt" dataDxfId="57"/>
+    <tableColumn id="11" name="Luk" dataDxfId="56"/>
+    <tableColumn id="32" name="Sum" dataDxfId="1">
+      <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(X4),X4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="80"/>
-    <tableColumn id="31" name="Mov" dataDxfId="79"/>
-    <tableColumn id="33" name="SkillMark" dataDxfId="78">
+    <tableColumn id="10" name="Range" dataDxfId="55"/>
+    <tableColumn id="31" name="Mov" dataDxfId="54"/>
+    <tableColumn id="33" name="~SkillMark" dataDxfId="53">
       <calculatedColumnFormula>IF(ISBLANK(Y4),0, LOOKUP(Y4,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="77"/>
-    <tableColumn id="14" name="Percent" dataDxfId="76"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="75"/>
-    <tableColumn id="17" name="Res" dataDxfId="74"/>
-    <tableColumn id="18" name="Icon" dataDxfId="73"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="72"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="71"/>
-    <tableColumn id="28" name="Remark" dataDxfId="70"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="52"/>
+    <tableColumn id="14" name="Percent" dataDxfId="51"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="50"/>
+    <tableColumn id="17" name="Res" dataDxfId="49"/>
+    <tableColumn id="18" name="Icon" dataDxfId="48"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="47"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="46"/>
+    <tableColumn id="28" name="Remark" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="A3:AF5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="67"/>
-    <tableColumn id="2" name="Name" dataDxfId="66"/>
-    <tableColumn id="3" name="Ename" dataDxfId="65"/>
-    <tableColumn id="4" name="EnameShort" dataDxfId="64"/>
-    <tableColumn id="5" name="Star" dataDxfId="63"/>
-    <tableColumn id="6" name="Type" dataDxfId="62"/>
-    <tableColumn id="7" name="Attr" dataDxfId="61"/>
-    <tableColumn id="34" name="Quality" dataDxfId="0">
+    <tableColumn id="1" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" name="Name" dataDxfId="31"/>
+    <tableColumn id="3" name="Ename" dataDxfId="30"/>
+    <tableColumn id="4" name="EnameShort" dataDxfId="29"/>
+    <tableColumn id="5" name="Star" dataDxfId="28"/>
+    <tableColumn id="6" name="Type" dataDxfId="27"/>
+    <tableColumn id="7" name="Attr" dataDxfId="26"/>
+    <tableColumn id="34" name="Quality" dataDxfId="25">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="60"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="59"/>
-    <tableColumn id="9" name="VitP" dataDxfId="58"/>
-    <tableColumn id="25" name="Modify" dataDxfId="57"/>
-    <tableColumn id="31" name="Dura" dataDxfId="56"/>
-    <tableColumn id="11" name="Def" dataDxfId="55"/>
-    <tableColumn id="21" name="Mag" dataDxfId="54"/>
-    <tableColumn id="29" name="Spd" dataDxfId="53"/>
-    <tableColumn id="30" name="Hit" dataDxfId="52"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="51"/>
-    <tableColumn id="19" name="Crt" dataDxfId="50"/>
-    <tableColumn id="12" name="Luk" dataDxfId="49"/>
-    <tableColumn id="32" name="Sum" dataDxfId="48">
-      <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+X4</calculatedColumnFormula>
+    <tableColumn id="15" name="Cost" dataDxfId="24"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="23"/>
+    <tableColumn id="9" name="VitP" dataDxfId="22"/>
+    <tableColumn id="25" name="Modify" dataDxfId="21"/>
+    <tableColumn id="31" name="Dura" dataDxfId="20"/>
+    <tableColumn id="11" name="Def" dataDxfId="19"/>
+    <tableColumn id="21" name="Mag" dataDxfId="18"/>
+    <tableColumn id="29" name="Spd" dataDxfId="17"/>
+    <tableColumn id="30" name="Hit" dataDxfId="16"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="15"/>
+    <tableColumn id="19" name="Crt" dataDxfId="14"/>
+    <tableColumn id="12" name="Luk" dataDxfId="13"/>
+    <tableColumn id="32" name="Sum" dataDxfId="0">
+      <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(X4),X4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="47"/>
-    <tableColumn id="27" name="Mov" dataDxfId="46"/>
-    <tableColumn id="33" name="SkillMark" dataDxfId="45">
+    <tableColumn id="10" name="Range" dataDxfId="12"/>
+    <tableColumn id="27" name="Mov" dataDxfId="11"/>
+    <tableColumn id="33" name="~SkillMark" dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(Y4),0, LOOKUP(Y4,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="44"/>
-    <tableColumn id="14" name="Percent" dataDxfId="43"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="42"/>
-    <tableColumn id="17" name="Res" dataDxfId="41"/>
-    <tableColumn id="18" name="Icon" dataDxfId="40"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="39"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="38"/>
-    <tableColumn id="28" name="Remark" dataDxfId="37"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="9"/>
+    <tableColumn id="14" name="Percent" dataDxfId="8"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="7"/>
+    <tableColumn id="17" name="Res" dataDxfId="6"/>
+    <tableColumn id="18" name="Icon" dataDxfId="5"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="4"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="3"/>
+    <tableColumn id="28" name="Remark" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6959,7 +4521,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7004,52 +4566,52 @@
         <v>259</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>380</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>383</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N1" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>461</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>462</v>
       </c>
       <c r="U1" s="23" t="s">
         <v>382</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="W1" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X1" s="23" t="s">
         <v>387</v>
@@ -7070,13 +4632,13 @@
         <v>264</v>
       </c>
       <c r="AD1" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AE1" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF1" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -7105,7 +4667,7 @@
         <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>116</v>
@@ -7117,40 +4679,40 @@
         <v>384</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>381</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>381</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>381</v>
       </c>
       <c r="U2" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="X2" s="12" t="s">
         <v>484</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>486</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>116</v>
@@ -7200,55 +4762,55 @@
         <v>122</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>474</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>475</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>385</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O3" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="P3" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="Q3" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="R3" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="S3" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="T3" s="38" t="s">
         <v>469</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>470</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>386</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>388</v>
+        <v>485</v>
       </c>
       <c r="Y3" t="s">
         <v>123</v>
@@ -7266,13 +4828,13 @@
         <v>127</v>
       </c>
       <c r="AD3" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AE3" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF3" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="14.25">
@@ -7338,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="11">
-        <f t="shared" ref="U4:U35" si="1">J4+K4-100+L4+ SUM(N4:T4)*5+X4</f>
+        <f t="shared" ref="U4:U35" si="1">J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(X4),X4,0)</f>
         <v>-3</v>
       </c>
       <c r="V4" s="9">
@@ -7369,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.25">
@@ -7466,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.25">
@@ -7563,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.25">
@@ -7660,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.25">
@@ -7727,7 +5289,7 @@
       </c>
       <c r="U8" s="11">
         <f t="shared" si="1"/>
-        <v>-78</v>
+        <v>-103</v>
       </c>
       <c r="V8" s="9">
         <v>0</v>
@@ -7735,9 +5297,9 @@
       <c r="W8" s="9">
         <v>0</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="9" t="e">
         <f>IF(ISBLANK(Y8),0, LOOKUP(Y8,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z8/100)</f>
-        <v>25</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="14">
         <v>55000060</v>
@@ -7761,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.25">
@@ -7769,13 +5331,13 @@
         <v>52000122</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>406</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
@@ -7858,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.25">
@@ -7866,13 +5428,13 @@
         <v>52000123</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>407</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -7940,7 +5502,7 @@
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AB10" s="16">
         <v>5</v>
@@ -7955,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="AF10" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.25">
@@ -8052,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.25">
@@ -8149,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.25">
@@ -8246,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.25">
@@ -8343,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.25">
@@ -8410,7 +5972,7 @@
       </c>
       <c r="U15" s="11">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>-17</v>
       </c>
       <c r="V15" s="9">
         <v>10</v>
@@ -8418,9 +5980,9 @@
       <c r="W15" s="9">
         <v>0</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X15" s="9" t="e">
         <f>IF(ISBLANK(Y15),0, LOOKUP(Y15,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z15/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="14">
         <v>55020003</v>
@@ -8444,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.25">
@@ -8511,7 +6073,7 @@
       </c>
       <c r="U16" s="20">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>-17</v>
       </c>
       <c r="V16" s="9">
         <v>10</v>
@@ -8519,9 +6081,9 @@
       <c r="W16" s="9">
         <v>0</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="9" t="e">
         <f>IF(ISBLANK(Y16),0, LOOKUP(Y16,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z16/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="14">
         <v>55020001</v>
@@ -8545,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="14.25">
@@ -8612,7 +6174,7 @@
       </c>
       <c r="U17" s="11">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>-17</v>
       </c>
       <c r="V17" s="9">
         <v>25</v>
@@ -8620,9 +6182,9 @@
       <c r="W17" s="9">
         <v>0</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="9" t="e">
         <f>IF(ISBLANK(Y17),0, LOOKUP(Y17,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z17/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y17" s="14">
         <v>55020002</v>
@@ -8631,7 +6193,7 @@
         <v>100</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AB17" s="4">
         <v>5</v>
@@ -8646,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="14.25">
@@ -8713,7 +6275,7 @@
       </c>
       <c r="U18" s="11">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>-17</v>
       </c>
       <c r="V18" s="9">
         <v>10</v>
@@ -8721,9 +6283,9 @@
       <c r="W18" s="9">
         <v>0</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="9" t="e">
         <f>IF(ISBLANK(Y18),0, LOOKUP(Y18,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z18/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y18" s="14">
         <v>55020004</v>
@@ -8747,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="14.25">
@@ -8844,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="14.25">
@@ -8911,7 +6473,7 @@
       </c>
       <c r="U20" s="11">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>-17</v>
       </c>
       <c r="V20" s="9">
         <v>10</v>
@@ -8919,9 +6481,9 @@
       <c r="W20" s="9">
         <v>0</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X20" s="9" t="e">
         <f>IF(ISBLANK(Y20),0, LOOKUP(Y20,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z20/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y20" s="14">
         <v>55020007</v>
@@ -8945,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="14.25">
@@ -9012,7 +6574,7 @@
       </c>
       <c r="U21" s="11">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>-17</v>
       </c>
       <c r="V21" s="9">
         <v>10</v>
@@ -9020,9 +6582,9 @@
       <c r="W21" s="9">
         <v>0</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="9" t="e">
         <f>IF(ISBLANK(Y21),0, LOOKUP(Y21,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z21/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y21" s="14">
         <v>55020005</v>
@@ -9046,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="14.25">
@@ -9113,7 +6675,7 @@
       </c>
       <c r="U22" s="20">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>-17</v>
       </c>
       <c r="V22" s="9">
         <v>10</v>
@@ -9121,9 +6683,9 @@
       <c r="W22" s="9">
         <v>0</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="9" t="e">
         <f>IF(ISBLANK(Y22),0, LOOKUP(Y22,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z22/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y22" s="14">
         <v>55020008</v>
@@ -9147,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="14.25">
@@ -9214,7 +6776,7 @@
       </c>
       <c r="U23" s="11">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>-17</v>
       </c>
       <c r="V23" s="9">
         <v>10</v>
@@ -9222,9 +6784,9 @@
       <c r="W23" s="9">
         <v>0</v>
       </c>
-      <c r="X23" s="9">
+      <c r="X23" s="9" t="e">
         <f>IF(ISBLANK(Y23),0, LOOKUP(Y23,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z23/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y23" s="14">
         <v>55020006</v>
@@ -9248,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="14.25">
@@ -9315,7 +6877,7 @@
       </c>
       <c r="U24" s="11">
         <f t="shared" si="1"/>
-        <v>-30</v>
+        <v>-37</v>
       </c>
       <c r="V24" s="9">
         <v>0</v>
@@ -9323,9 +6885,9 @@
       <c r="W24" s="9">
         <v>0</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X24" s="9" t="e">
         <f>IF(ISBLANK(Y24),0, LOOKUP(Y24,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z24/100)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="Y24" s="14">
         <v>55000119</v>
@@ -9349,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="14.25">
@@ -9416,7 +6978,7 @@
       </c>
       <c r="U25" s="11">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-32</v>
       </c>
       <c r="V25" s="9">
         <v>20</v>
@@ -9424,9 +6986,9 @@
       <c r="W25" s="9">
         <v>0</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X25" s="9" t="e">
         <f>IF(ISBLANK(Y25),0, LOOKUP(Y25,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z25/100)</f>
-        <v>25</v>
+        <v>#N/A</v>
       </c>
       <c r="Y25" s="14">
         <v>55000060</v>
@@ -9435,7 +6997,7 @@
         <v>100</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AB25" s="4">
         <v>5</v>
@@ -9450,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="14.25">
@@ -9477,7 +7039,7 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26" s="4">
         <v>2</v>
@@ -9517,7 +7079,7 @@
       </c>
       <c r="U26" s="11">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>-14</v>
       </c>
       <c r="V26" s="9">
         <v>20</v>
@@ -9525,9 +7087,9 @@
       <c r="W26" s="9">
         <v>0</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="9" t="e">
         <f>IF(ISBLANK(Y26),0, LOOKUP(Y26,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z26/100)</f>
-        <v>25</v>
+        <v>#N/A</v>
       </c>
       <c r="Y26" s="14">
         <v>55000060</v>
@@ -9536,7 +7098,7 @@
         <v>100</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AB26" s="4">
         <v>5</v>
@@ -9551,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="14.25">
@@ -9648,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="14.25">
@@ -9656,13 +7218,13 @@
         <v>52000023</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>411</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>412</v>
       </c>
       <c r="E28" s="16">
         <v>4</v>
@@ -9730,7 +7292,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AB28" s="4">
         <v>5</v>
@@ -9745,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="14.25">
@@ -9827,7 +7389,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AB29" s="4">
         <v>5</v>
@@ -9842,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="14.25">
@@ -9869,7 +7431,7 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I30" s="4">
         <v>1</v>
@@ -9909,7 +7471,7 @@
       </c>
       <c r="U30" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-37</v>
       </c>
       <c r="V30" s="9">
         <v>0</v>
@@ -9917,9 +7479,9 @@
       <c r="W30" s="9">
         <v>0</v>
       </c>
-      <c r="X30" s="9">
+      <c r="X30" s="9" t="e">
         <f>IF(ISBLANK(Y30),0, LOOKUP(Y30,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z30/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y30" s="14">
         <v>55020014</v>
@@ -9943,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="14.25">
@@ -9970,7 +7532,7 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I31" s="4">
         <v>1</v>
@@ -10010,7 +7572,7 @@
       </c>
       <c r="U31" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-37</v>
       </c>
       <c r="V31" s="9">
         <v>0</v>
@@ -10018,9 +7580,9 @@
       <c r="W31" s="9">
         <v>0</v>
       </c>
-      <c r="X31" s="9">
+      <c r="X31" s="9" t="e">
         <f>IF(ISBLANK(Y31),0, LOOKUP(Y31,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z31/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y31" s="14">
         <v>55020011</v>
@@ -10044,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="14.25">
@@ -10071,7 +7633,7 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I32" s="4">
         <v>1</v>
@@ -10111,7 +7673,7 @@
       </c>
       <c r="U32" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-37</v>
       </c>
       <c r="V32" s="9">
         <v>0</v>
@@ -10119,9 +7681,9 @@
       <c r="W32" s="9">
         <v>0</v>
       </c>
-      <c r="X32" s="9">
+      <c r="X32" s="9" t="e">
         <f>IF(ISBLANK(Y32),0, LOOKUP(Y32,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z32/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y32" s="14">
         <v>55020009</v>
@@ -10145,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="14.25">
@@ -10172,7 +7734,7 @@
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I33" s="4">
         <v>1</v>
@@ -10212,7 +7774,7 @@
       </c>
       <c r="U33" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-37</v>
       </c>
       <c r="V33" s="9">
         <v>0</v>
@@ -10220,9 +7782,9 @@
       <c r="W33" s="9">
         <v>0</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X33" s="9" t="e">
         <f>IF(ISBLANK(Y33),0, LOOKUP(Y33,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z33/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y33" s="14">
         <v>55020012</v>
@@ -10246,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="14.25">
@@ -10273,7 +7835,7 @@
       </c>
       <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I34" s="4">
         <v>1</v>
@@ -10313,7 +7875,7 @@
       </c>
       <c r="U34" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-37</v>
       </c>
       <c r="V34" s="9">
         <v>0</v>
@@ -10321,9 +7883,9 @@
       <c r="W34" s="9">
         <v>0</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X34" s="9" t="e">
         <f>IF(ISBLANK(Y34),0, LOOKUP(Y34,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z34/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y34" s="14">
         <v>55020016</v>
@@ -10347,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="14.25">
@@ -10374,7 +7936,7 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I35" s="4">
         <v>1</v>
@@ -10414,7 +7976,7 @@
       </c>
       <c r="U35" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-37</v>
       </c>
       <c r="V35" s="9">
         <v>0</v>
@@ -10422,9 +7984,9 @@
       <c r="W35" s="9">
         <v>0</v>
       </c>
-      <c r="X35" s="9">
+      <c r="X35" s="9" t="e">
         <f>IF(ISBLANK(Y35),0, LOOKUP(Y35,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z35/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y35" s="14">
         <v>55020015</v>
@@ -10448,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="14.25">
@@ -10475,7 +8037,7 @@
       </c>
       <c r="H36" s="4">
         <f t="shared" ref="H36:H67" si="2">IF(AND(U36&gt;=13,U36&lt;=16),5,IF(AND(U36&gt;=9,U36&lt;=12),4,IF(AND(U36&gt;=5,U36&lt;=8),3,IF(AND(U36&gt;=1,U36&lt;=4),2,IF(AND(U36&gt;=-3,U36&lt;=0),1,IF(AND(U36&gt;=-5,U36&lt;=-4),0,6))))))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I36" s="4">
         <v>1</v>
@@ -10514,8 +8076,8 @@
         <v>0</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" ref="U36:U67" si="3">J36+K36-100+L36+ SUM(N36:T36)*5+X36</f>
-        <v>3</v>
+        <f t="shared" ref="U36:U67" si="3">J36+K36-100+L36+ SUM(N36:T36)*5+IF(ISNUMBER(X36),X36,0)</f>
+        <v>-37</v>
       </c>
       <c r="V36" s="9">
         <v>0</v>
@@ -10523,9 +8085,9 @@
       <c r="W36" s="9">
         <v>0</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X36" s="9" t="e">
         <f>IF(ISBLANK(Y36),0, LOOKUP(Y36,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z36/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y36" s="14">
         <v>55020010</v>
@@ -10549,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="14.25">
@@ -10576,7 +8138,7 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I37" s="4">
         <v>1</v>
@@ -10616,7 +8178,7 @@
       </c>
       <c r="U37" s="11">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>-37</v>
       </c>
       <c r="V37" s="9">
         <v>0</v>
@@ -10624,9 +8186,9 @@
       <c r="W37" s="9">
         <v>0</v>
       </c>
-      <c r="X37" s="9">
+      <c r="X37" s="9" t="e">
         <f>IF(ISBLANK(Y37),0, LOOKUP(Y37,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z37/100)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
       <c r="Y37" s="14">
         <v>55020013</v>
@@ -10650,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="AF37" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="14.25">
@@ -10732,7 +8294,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AB38" s="4">
         <v>5</v>
@@ -10747,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="14.25">
@@ -10844,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="14.25">
@@ -10941,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="14.25">
@@ -11023,7 +8585,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AB41" s="4">
         <v>5</v>
@@ -11038,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="14.25">
@@ -11120,7 +8682,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB42" s="4">
         <v>5</v>
@@ -11135,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="14.25">
@@ -11232,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="14.25">
@@ -11314,7 +8876,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AB44" s="4">
         <v>5</v>
@@ -11329,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="14.25">
@@ -11411,7 +8973,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AB45" s="4">
         <v>5</v>
@@ -11426,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="14.25">
@@ -11523,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="14.25">
@@ -11620,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="14.25">
@@ -11717,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="14.25">
@@ -11814,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="14.25">
@@ -11881,7 +9443,7 @@
       </c>
       <c r="U50" s="11">
         <f t="shared" si="3"/>
-        <v>-93</v>
+        <v>-98</v>
       </c>
       <c r="V50" s="9">
         <v>0</v>
@@ -11889,9 +9451,9 @@
       <c r="W50" s="9">
         <v>0</v>
       </c>
-      <c r="X50" s="9">
+      <c r="X50" s="9" t="e">
         <f>IF(ISBLANK(Y50),0, LOOKUP(Y50,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z50/100)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y50" s="14">
         <v>55000051</v>
@@ -11915,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="14.25">
@@ -12012,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="14.25">
@@ -12109,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="AF52" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="14.25">
@@ -12176,7 +9738,7 @@
       </c>
       <c r="U53" s="11">
         <f t="shared" si="3"/>
-        <v>-94</v>
+        <v>-101</v>
       </c>
       <c r="V53" s="9">
         <v>10</v>
@@ -12184,9 +9746,9 @@
       <c r="W53" s="9">
         <v>0</v>
       </c>
-      <c r="X53" s="9">
+      <c r="X53" s="9" t="e">
         <f>IF(ISBLANK(Y53),0, LOOKUP(Y53,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z53/100)</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="Y53" s="14">
         <v>55000158</v>
@@ -12210,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="AF53" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="14.25">
@@ -12307,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="AF54" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="14.25">
@@ -12404,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="14.25">
@@ -12501,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="14.25">
@@ -12598,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="AF57" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="14.25">
@@ -12695,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="14.25">
@@ -12792,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="AF59" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="14.25">
@@ -12889,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="AF60" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="14.25">
@@ -12986,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="14.25">
@@ -13083,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="14.25">
@@ -13150,7 +10712,7 @@
       </c>
       <c r="U63" s="11">
         <f t="shared" si="3"/>
-        <v>-95.5</v>
+        <v>-98</v>
       </c>
       <c r="V63" s="9">
         <v>0</v>
@@ -13158,9 +10720,9 @@
       <c r="W63" s="9">
         <v>0</v>
       </c>
-      <c r="X63" s="9">
+      <c r="X63" s="9" t="e">
         <f>IF(ISBLANK(Y63),0, LOOKUP(Y63,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z63/100)</f>
-        <v>2.5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y63" s="43">
         <v>55000092</v>
@@ -13184,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="14.25">
@@ -13251,7 +10813,7 @@
       </c>
       <c r="U64" s="11">
         <f t="shared" si="3"/>
-        <v>-68</v>
+        <v>-74</v>
       </c>
       <c r="V64" s="9">
         <v>0</v>
@@ -13259,9 +10821,9 @@
       <c r="W64" s="9">
         <v>0</v>
       </c>
-      <c r="X64" s="9">
+      <c r="X64" s="9" t="e">
         <f>IF(ISBLANK(Y64),0, LOOKUP(Y64,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z64/100)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="Y64" s="43">
         <v>55000089</v>
@@ -13285,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="14.25">
@@ -13352,7 +10914,7 @@
       </c>
       <c r="U65" s="11">
         <f t="shared" si="3"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V65" s="9">
         <v>0</v>
@@ -13360,9 +10922,9 @@
       <c r="W65" s="9">
         <v>0</v>
       </c>
-      <c r="X65" s="9">
+      <c r="X65" s="9" t="e">
         <f>IF(ISBLANK(Y65),0, LOOKUP(Y65,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z65/100)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Y65">
         <v>55000101</v>
@@ -13386,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="14.25">
@@ -13453,7 +11015,7 @@
       </c>
       <c r="U66" s="11">
         <f t="shared" si="3"/>
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="V66" s="9">
         <v>0</v>
@@ -13461,9 +11023,9 @@
       <c r="W66" s="9">
         <v>0</v>
       </c>
-      <c r="X66" s="9">
+      <c r="X66" s="9" t="e">
         <f>IF(ISBLANK(Y66),0, LOOKUP(Y66,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z66/100)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="Y66">
         <v>55000102</v>
@@ -13487,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="14.25">
@@ -13554,7 +11116,7 @@
       </c>
       <c r="U67" s="11">
         <f t="shared" si="3"/>
-        <v>-96.8</v>
+        <v>-98</v>
       </c>
       <c r="V67" s="9">
         <v>0</v>
@@ -13562,9 +11124,9 @@
       <c r="W67" s="9">
         <v>0</v>
       </c>
-      <c r="X67" s="9">
+      <c r="X67" s="9" t="e">
         <f>IF(ISBLANK(Y67),0, LOOKUP(Y67,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z67/100)</f>
-        <v>1.2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y67">
         <v>55000143</v>
@@ -13588,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="AF67" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="14.25">
@@ -13654,8 +11216,8 @@
         <v>0</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" ref="U68:U99" si="5">J68+K68-100+L68+ SUM(N68:T68)*5+X68</f>
-        <v>-36</v>
+        <f t="shared" ref="U68:U99" si="5">J68+K68-100+L68+ SUM(N68:T68)*5+IF(ISNUMBER(X68),X68,0)</f>
+        <v>-42</v>
       </c>
       <c r="V68" s="9">
         <v>0</v>
@@ -13663,9 +11225,9 @@
       <c r="W68" s="9">
         <v>0</v>
       </c>
-      <c r="X68" s="9">
+      <c r="X68" s="9" t="e">
         <f>IF(ISBLANK(Y68),0, LOOKUP(Y68,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z68/100)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="Y68">
         <v>55000163</v>
@@ -13689,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="AF68" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="14.25">
@@ -13756,7 +11318,7 @@
       </c>
       <c r="U69" s="11">
         <f t="shared" si="5"/>
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="V69" s="9">
         <v>0</v>
@@ -13764,9 +11326,9 @@
       <c r="W69" s="9">
         <v>0</v>
       </c>
-      <c r="X69" s="9">
+      <c r="X69" s="9" t="e">
         <f>IF(ISBLANK(Y69),0, LOOKUP(Y69,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z69/100)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="Y69">
         <v>55000166</v>
@@ -13790,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="AF69" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="14.25">
@@ -13857,7 +11419,7 @@
       </c>
       <c r="U70" s="11">
         <f t="shared" si="5"/>
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="V70" s="9">
         <v>10</v>
@@ -13865,9 +11427,9 @@
       <c r="W70" s="9">
         <v>0</v>
       </c>
-      <c r="X70" s="9">
+      <c r="X70" s="9" t="e">
         <f>IF(ISBLANK(Y70),0, LOOKUP(Y70,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z70/100)</f>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y70">
         <v>55000222</v>
@@ -13891,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="AF70" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="14.25">
@@ -13988,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="AF71" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="14.25">
@@ -14085,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="AF72" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="14.25">
@@ -14093,13 +11655,13 @@
         <v>52000068</v>
       </c>
       <c r="B73" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="D73" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="E73" s="4">
         <v>2</v>
@@ -14182,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="AF73" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="14.25">
@@ -14249,7 +11811,7 @@
       </c>
       <c r="U74" s="11">
         <f t="shared" si="5"/>
-        <v>-96</v>
+        <v>-97</v>
       </c>
       <c r="V74" s="9">
         <v>0</v>
@@ -14257,9 +11819,9 @@
       <c r="W74" s="9">
         <v>0</v>
       </c>
-      <c r="X74" s="9">
+      <c r="X74" s="9" t="e">
         <f>IF(ISBLANK(Y74),0, LOOKUP(Y74,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z74/100)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Y74">
         <v>55000159</v>
@@ -14283,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="AF74" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="14.25">
@@ -14350,7 +11912,7 @@
       </c>
       <c r="U75" s="11">
         <f t="shared" si="5"/>
-        <v>-22</v>
+        <v>-32</v>
       </c>
       <c r="V75" s="9">
         <v>0</v>
@@ -14358,9 +11920,9 @@
       <c r="W75" s="9">
         <v>0</v>
       </c>
-      <c r="X75" s="9">
+      <c r="X75" s="9" t="e">
         <f>IF(ISBLANK(Y75),0, LOOKUP(Y75,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z75/100)</f>
-        <v>10</v>
+        <v>#N/A</v>
       </c>
       <c r="Y75">
         <v>55000167</v>
@@ -14384,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="AF75" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="14.25">
@@ -14451,7 +12013,7 @@
       </c>
       <c r="U76" s="11">
         <f t="shared" si="5"/>
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="V76" s="9">
         <v>0</v>
@@ -14459,9 +12021,9 @@
       <c r="W76" s="9">
         <v>0</v>
       </c>
-      <c r="X76" s="9">
+      <c r="X76" s="9" t="e">
         <f>IF(ISBLANK(Y76),0, LOOKUP(Y76,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z76/100)</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y76">
         <v>55000168</v>
@@ -14485,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="AF76" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="14.25">
@@ -14552,7 +12114,7 @@
       </c>
       <c r="U77" s="11">
         <f t="shared" si="5"/>
-        <v>-51.2</v>
+        <v>-54</v>
       </c>
       <c r="V77" s="9">
         <v>0</v>
@@ -14560,9 +12122,9 @@
       <c r="W77" s="9">
         <v>0</v>
       </c>
-      <c r="X77" s="9">
+      <c r="X77" s="9" t="e">
         <f>IF(ISBLANK(Y77),0, LOOKUP(Y77,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z77/100)</f>
-        <v>2.8</v>
+        <v>#N/A</v>
       </c>
       <c r="Y77">
         <v>55000062</v>
@@ -14586,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="AF77" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="14.25">
@@ -14653,7 +12215,7 @@
       </c>
       <c r="U78" s="11">
         <f t="shared" si="5"/>
-        <v>-9.5</v>
+        <v>-13</v>
       </c>
       <c r="V78" s="9">
         <v>10</v>
@@ -14661,9 +12223,9 @@
       <c r="W78" s="9">
         <v>0</v>
       </c>
-      <c r="X78" s="9">
+      <c r="X78" s="9" t="e">
         <f>IF(ISBLANK(Y78),0, LOOKUP(Y78,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z78/100)</f>
-        <v>3.5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y78">
         <v>55000169</v>
@@ -14687,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="AF78" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="14.25">
@@ -14754,7 +12316,7 @@
       </c>
       <c r="U79" s="11">
         <f t="shared" si="5"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="V79" s="9">
         <v>10</v>
@@ -14762,9 +12324,9 @@
       <c r="W79" s="9">
         <v>0</v>
       </c>
-      <c r="X79" s="9">
+      <c r="X79" s="9" t="e">
         <f>IF(ISBLANK(Y79),0, LOOKUP(Y79,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z79/100)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Y79">
         <v>55000086</v>
@@ -14788,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="AF79" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="14.25">
@@ -14855,7 +12417,7 @@
       </c>
       <c r="U80" s="11">
         <f t="shared" si="5"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="V80" s="9">
         <v>10</v>
@@ -14863,9 +12425,9 @@
       <c r="W80" s="9">
         <v>0</v>
       </c>
-      <c r="X80" s="9">
+      <c r="X80" s="9" t="e">
         <f>IF(ISBLANK(Y80),0, LOOKUP(Y80,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z80/100)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Y80">
         <v>55000005</v>
@@ -14889,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="AF80" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="14.25">
@@ -14964,9 +12526,9 @@
       <c r="W81" s="9">
         <v>0</v>
       </c>
-      <c r="X81" s="9">
+      <c r="X81" s="9" t="e">
         <f>IF(ISBLANK(Y81),0, LOOKUP(Y81,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z81/100)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y81">
         <v>55000017</v>
@@ -14990,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="AF81" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="14.25">
@@ -15057,7 +12619,7 @@
       </c>
       <c r="U82" s="11">
         <f t="shared" si="5"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="V82" s="9">
         <v>10</v>
@@ -15065,9 +12627,9 @@
       <c r="W82" s="9">
         <v>0</v>
       </c>
-      <c r="X82" s="9">
+      <c r="X82" s="9" t="e">
         <f>IF(ISBLANK(Y82),0, LOOKUP(Y82,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z82/100)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Y82">
         <v>55000015</v>
@@ -15091,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="AF82" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="14.25">
@@ -15158,7 +12720,7 @@
       </c>
       <c r="U83" s="11">
         <f t="shared" si="5"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="V83" s="9">
         <v>10</v>
@@ -15166,9 +12728,9 @@
       <c r="W83" s="9">
         <v>0</v>
       </c>
-      <c r="X83" s="9">
+      <c r="X83" s="9" t="e">
         <f>IF(ISBLANK(Y83),0, LOOKUP(Y83,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z83/100)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Y83">
         <v>55000009</v>
@@ -15192,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="AF83" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="14.25">
@@ -15259,7 +12821,7 @@
       </c>
       <c r="U84" s="11">
         <f t="shared" si="5"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="V84" s="9">
         <v>10</v>
@@ -15267,9 +12829,9 @@
       <c r="W84" s="9">
         <v>0</v>
       </c>
-      <c r="X84" s="9">
+      <c r="X84" s="9" t="e">
         <f>IF(ISBLANK(Y84),0, LOOKUP(Y84,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z84/100)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Y84">
         <v>55000007</v>
@@ -15293,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="AF84" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="14.25">
@@ -15368,9 +12930,9 @@
       <c r="W85" s="9">
         <v>0</v>
       </c>
-      <c r="X85" s="9">
+      <c r="X85" s="9" t="e">
         <f>IF(ISBLANK(Y85),0, LOOKUP(Y85,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z85/100)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y85">
         <v>55000016</v>
@@ -15394,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="AF85" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="14.25">
@@ -15461,7 +13023,7 @@
       </c>
       <c r="U86" s="11">
         <f t="shared" si="5"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="V86" s="9">
         <v>10</v>
@@ -15469,9 +13031,9 @@
       <c r="W86" s="9">
         <v>0</v>
       </c>
-      <c r="X86" s="9">
+      <c r="X86" s="9" t="e">
         <f>IF(ISBLANK(Y86),0, LOOKUP(Y86,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z86/100)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Y86">
         <v>55000104</v>
@@ -15495,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="AF86" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="14.25">
@@ -15577,7 +13139,7 @@
       <c r="Y87" s="36"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AB87" s="4">
         <v>5</v>
@@ -15592,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="AF87" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="14.25">
@@ -15689,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="AF88" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="14.25">
@@ -15786,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="AF89" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:32" ht="14.25">
@@ -15868,7 +13430,7 @@
       <c r="Y90" s="36"/>
       <c r="Z90" s="4"/>
       <c r="AA90" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AB90" s="4">
         <v>5</v>
@@ -15883,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="AF90" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="14.25">
@@ -15965,7 +13527,7 @@
       <c r="Y91" s="36"/>
       <c r="Z91" s="4"/>
       <c r="AA91" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB91" s="4">
         <v>5</v>
@@ -15980,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="AF91" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="14.25">
@@ -16077,7 +13639,7 @@
         <v>0</v>
       </c>
       <c r="AF92" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="14.25">
@@ -16159,7 +13721,7 @@
       <c r="Y93" s="36"/>
       <c r="Z93" s="4"/>
       <c r="AA93" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AB93" s="4">
         <v>5</v>
@@ -16174,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="AF93" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="14.25">
@@ -16256,7 +13818,7 @@
       <c r="Y94" s="36"/>
       <c r="Z94" s="4"/>
       <c r="AA94" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AB94" s="4">
         <v>5</v>
@@ -16271,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="AF94" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="14.25">
@@ -16368,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="AF95" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="14.25">
@@ -16435,7 +13997,7 @@
       </c>
       <c r="U96" s="11">
         <f t="shared" si="5"/>
-        <v>-82.8</v>
+        <v>-101</v>
       </c>
       <c r="V96" s="9">
         <v>0</v>
@@ -16443,9 +14005,9 @@
       <c r="W96" s="9">
         <v>0</v>
       </c>
-      <c r="X96" s="9">
+      <c r="X96" s="9" t="e">
         <f>IF(ISBLANK(Y96),0, LOOKUP(Y96,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z96/100)</f>
-        <v>18.2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y96">
         <v>55000077</v>
@@ -16469,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="AF96" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" spans="1:32" ht="14.25">
@@ -16536,7 +14098,7 @@
       </c>
       <c r="U97" s="11">
         <f t="shared" si="5"/>
-        <v>-94.8</v>
+        <v>-99</v>
       </c>
       <c r="V97" s="9">
         <v>0</v>
@@ -16544,9 +14106,9 @@
       <c r="W97" s="9">
         <v>0</v>
       </c>
-      <c r="X97" s="9">
+      <c r="X97" s="9" t="e">
         <f>IF(ISBLANK(Y97),0, LOOKUP(Y97,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z97/100)</f>
-        <v>4.2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y97">
         <v>55000087</v>
@@ -16570,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="AF97" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="14.25">
@@ -16667,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="AF98" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:32" ht="14.25">
@@ -16734,7 +14296,7 @@
       </c>
       <c r="U99" s="11">
         <f t="shared" si="5"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V99" s="9">
         <v>0</v>
@@ -16742,9 +14304,9 @@
       <c r="W99" s="9">
         <v>0</v>
       </c>
-      <c r="X99" s="9">
+      <c r="X99" s="9" t="e">
         <f>IF(ISBLANK(Y99),0, LOOKUP(Y99,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z99/100)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Y99">
         <v>55000206</v>
@@ -16768,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AF99" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="14.25">
@@ -16834,8 +14396,8 @@
         <v>0</v>
       </c>
       <c r="U100" s="11">
-        <f t="shared" ref="U100:U130" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+X100</f>
-        <v>-98</v>
+        <f t="shared" ref="U100:U131" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(X100),X100,0)</f>
+        <v>-100</v>
       </c>
       <c r="V100" s="9">
         <v>0</v>
@@ -16843,9 +14405,9 @@
       <c r="W100" s="9">
         <v>0</v>
       </c>
-      <c r="X100" s="9">
+      <c r="X100" s="9" t="e">
         <f>IF(ISBLANK(Y100),0, LOOKUP(Y100,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z100/100)</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y100">
         <v>55000100</v>
@@ -16869,7 +14431,7 @@
         <v>0</v>
       </c>
       <c r="AF100" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="14.25">
@@ -16936,7 +14498,7 @@
       </c>
       <c r="U101" s="11">
         <f t="shared" si="7"/>
-        <v>-57</v>
+        <v>-62</v>
       </c>
       <c r="V101" s="9">
         <v>0</v>
@@ -16944,9 +14506,9 @@
       <c r="W101" s="9">
         <v>0</v>
       </c>
-      <c r="X101" s="9">
+      <c r="X101" s="9" t="e">
         <f>IF(ISBLANK(Y101),0, LOOKUP(Y101,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z101/100)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y101">
         <v>55000076</v>
@@ -16970,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="AF101" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="14.25">
@@ -17037,7 +14599,7 @@
       </c>
       <c r="U102" s="11">
         <f t="shared" si="7"/>
-        <v>-71</v>
+        <v>-73</v>
       </c>
       <c r="V102" s="9">
         <v>0</v>
@@ -17045,9 +14607,9 @@
       <c r="W102" s="9">
         <v>0</v>
       </c>
-      <c r="X102" s="9">
+      <c r="X102" s="9" t="e">
         <f>IF(ISBLANK(Y102),0, LOOKUP(Y102,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z102/100)</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y102">
         <v>55000172</v>
@@ -17071,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="AF102" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="14.25">
@@ -17138,7 +14700,7 @@
       </c>
       <c r="U103" s="11">
         <f t="shared" si="7"/>
-        <v>-95.5</v>
+        <v>-100</v>
       </c>
       <c r="V103" s="9">
         <v>20</v>
@@ -17146,9 +14708,9 @@
       <c r="W103" s="9">
         <v>0</v>
       </c>
-      <c r="X103" s="9">
+      <c r="X103" s="9" t="e">
         <f>IF(ISBLANK(Y103),0, LOOKUP(Y103,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z103/100)</f>
-        <v>4.5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y103">
         <v>55000214</v>
@@ -17157,7 +14719,7 @@
         <v>30</v>
       </c>
       <c r="AA103" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AB103" s="4">
         <v>5</v>
@@ -17172,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="AF103" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="14.25">
@@ -17239,7 +14801,7 @@
       </c>
       <c r="U104" s="11">
         <f t="shared" si="7"/>
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="V104" s="9">
         <v>0</v>
@@ -17247,9 +14809,9 @@
       <c r="W104" s="9">
         <v>0</v>
       </c>
-      <c r="X104" s="9">
+      <c r="X104" s="9" t="e">
         <f>IF(ISBLANK(Y104),0, LOOKUP(Y104,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z104/100)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="Y104">
         <v>55000228</v>
@@ -17273,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="AF104" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="14.25">
@@ -17340,7 +14902,7 @@
       </c>
       <c r="U105" s="11">
         <f t="shared" si="7"/>
-        <v>-91.5</v>
+        <v>-99</v>
       </c>
       <c r="V105" s="9">
         <v>10</v>
@@ -17348,9 +14910,9 @@
       <c r="W105" s="9">
         <v>0</v>
       </c>
-      <c r="X105" s="9">
+      <c r="X105" s="9" t="e">
         <f>IF(ISBLANK(Y105),0, LOOKUP(Y105,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z105/100)</f>
-        <v>7.5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y105">
         <v>55000229</v>
@@ -17374,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="AF105" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="14.25">
@@ -17401,7 +14963,7 @@
       </c>
       <c r="H106" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" s="4">
         <v>3</v>
@@ -17441,7 +15003,7 @@
       </c>
       <c r="U106" s="11">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="V106" s="9">
         <v>0</v>
@@ -17449,9 +15011,9 @@
       <c r="W106" s="9">
         <v>0</v>
       </c>
-      <c r="X106" s="9">
+      <c r="X106" s="9" t="e">
         <f>IF(ISBLANK(Y106),0, LOOKUP(Y106,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z106/100)</f>
-        <v>-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y106">
         <v>55000078</v>
@@ -17475,7 +15037,7 @@
         <v>0</v>
       </c>
       <c r="AF106" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="14.25">
@@ -17542,7 +15104,7 @@
       </c>
       <c r="U107" s="11">
         <f t="shared" si="7"/>
-        <v>-94.2</v>
+        <v>-99</v>
       </c>
       <c r="V107" s="9">
         <v>0</v>
@@ -17550,9 +15112,9 @@
       <c r="W107" s="9">
         <v>0</v>
       </c>
-      <c r="X107" s="9">
+      <c r="X107" s="9" t="e">
         <f>IF(ISBLANK(Y107),0, LOOKUP(Y107,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z107/100)</f>
-        <v>4.8</v>
+        <v>#N/A</v>
       </c>
       <c r="Y107">
         <v>55000035</v>
@@ -17576,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="AF107" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="14.25">
@@ -17673,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="AF108" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="14.25">
@@ -17700,7 +15262,7 @@
       </c>
       <c r="H109" s="4">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I109" s="4">
         <v>2</v>
@@ -17740,7 +15302,7 @@
       </c>
       <c r="U109" s="11">
         <f t="shared" si="7"/>
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="V109" s="9">
         <v>10</v>
@@ -17748,9 +15310,9 @@
       <c r="W109" s="9">
         <v>0</v>
       </c>
-      <c r="X109" s="9">
+      <c r="X109" s="9" t="e">
         <f>IF(ISBLANK(Y109),0, LOOKUP(Y109,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z109/100)</f>
-        <v>-18</v>
+        <v>#N/A</v>
       </c>
       <c r="Y109">
         <v>55000230</v>
@@ -17774,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="AF109" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110" spans="1:32" ht="14.25">
@@ -17841,7 +15403,7 @@
       </c>
       <c r="U110" s="11">
         <f t="shared" si="7"/>
-        <v>-62</v>
+        <v>-67</v>
       </c>
       <c r="V110" s="9">
         <v>0</v>
@@ -17849,9 +15411,9 @@
       <c r="W110" s="9">
         <v>0</v>
       </c>
-      <c r="X110" s="9">
+      <c r="X110" s="9" t="e">
         <f>IF(ISBLANK(Y110),0, LOOKUP(Y110,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z110/100)</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y110">
         <v>55000216</v>
@@ -17875,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="AF110" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="14.25">
@@ -17942,7 +15504,7 @@
       </c>
       <c r="U111" s="11">
         <f t="shared" si="7"/>
-        <v>-83</v>
+        <v>-98</v>
       </c>
       <c r="V111" s="9">
         <v>0</v>
@@ -17950,9 +15512,9 @@
       <c r="W111" s="9">
         <v>0</v>
       </c>
-      <c r="X111" s="9">
+      <c r="X111" s="9" t="e">
         <f>IF(ISBLANK(Y111),0, LOOKUP(Y111,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z111/100)</f>
-        <v>15</v>
+        <v>#N/A</v>
       </c>
       <c r="Y111">
         <v>55000231</v>
@@ -17976,7 +15538,7 @@
         <v>0</v>
       </c>
       <c r="AF111" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="14.25">
@@ -18051,9 +15613,9 @@
       <c r="W112" s="9">
         <v>0</v>
       </c>
-      <c r="X112" s="9">
+      <c r="X112" s="9" t="e">
         <f>IF(ISBLANK(Y112),0, LOOKUP(Y112,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z112/100)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y112">
         <v>55000156</v>
@@ -18077,7 +15639,7 @@
         <v>0</v>
       </c>
       <c r="AF112" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="1:32" ht="14.25">
@@ -18144,7 +15706,7 @@
       </c>
       <c r="U113" s="11">
         <f t="shared" si="7"/>
-        <v>-25.8</v>
+        <v>-27</v>
       </c>
       <c r="V113" s="9">
         <v>10</v>
@@ -18152,9 +15714,9 @@
       <c r="W113" s="9">
         <v>0</v>
       </c>
-      <c r="X113" s="9">
+      <c r="X113" s="9" t="e">
         <f>IF(ISBLANK(Y113),0, LOOKUP(Y113,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z113/100)</f>
-        <v>1.2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y113">
         <v>55000232</v>
@@ -18178,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="AF113" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:32" ht="14.25">
@@ -18245,7 +15807,7 @@
       </c>
       <c r="U114" s="11">
         <f t="shared" si="7"/>
-        <v>-96</v>
+        <v>-99</v>
       </c>
       <c r="V114" s="9">
         <v>0</v>
@@ -18253,9 +15815,9 @@
       <c r="W114" s="9">
         <v>0</v>
       </c>
-      <c r="X114" s="9">
+      <c r="X114" s="9" t="e">
         <f>IF(ISBLANK(Y114),0, LOOKUP(Y114,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z114/100)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="Y114">
         <v>55000088</v>
@@ -18279,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="AF114" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="115" spans="1:32" ht="14.25">
@@ -18306,7 +15868,7 @@
       </c>
       <c r="H115" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" s="4">
         <v>6</v>
@@ -18346,7 +15908,7 @@
       </c>
       <c r="U115" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V115" s="9">
         <v>0</v>
@@ -18354,9 +15916,9 @@
       <c r="W115" s="9">
         <v>0</v>
       </c>
-      <c r="X115" s="9">
+      <c r="X115" s="9" t="e">
         <f>IF(ISBLANK(Y115),0, LOOKUP(Y115,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z115/100)</f>
-        <v>-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y115">
         <v>55000233</v>
@@ -18380,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="AF115" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="116" spans="1:32" ht="14.25">
@@ -18447,7 +16009,7 @@
       </c>
       <c r="U116" s="11">
         <f t="shared" si="7"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V116" s="9">
         <v>10</v>
@@ -18455,9 +16017,9 @@
       <c r="W116" s="9">
         <v>0</v>
       </c>
-      <c r="X116" s="9">
+      <c r="X116" s="9" t="e">
         <f>IF(ISBLANK(Y116),0, LOOKUP(Y116,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z116/100)</f>
-        <v>-2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y116">
         <v>55000233</v>
@@ -18481,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="AF116" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:32" ht="14.25">
@@ -18548,7 +16110,7 @@
       </c>
       <c r="U117" s="20">
         <f t="shared" si="7"/>
-        <v>-57</v>
+        <v>-59</v>
       </c>
       <c r="V117" s="9">
         <v>0</v>
@@ -18556,9 +16118,9 @@
       <c r="W117" s="9">
         <v>0</v>
       </c>
-      <c r="X117" s="9">
+      <c r="X117" s="9" t="e">
         <f>IF(ISBLANK(Y117),0, LOOKUP(Y117,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z117/100)</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y117">
         <v>55000037</v>
@@ -18582,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="AF117" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:32" ht="14.25">
@@ -18649,7 +16211,7 @@
       </c>
       <c r="U118" s="11">
         <f t="shared" si="7"/>
-        <v>-68</v>
+        <v>-71</v>
       </c>
       <c r="V118" s="9">
         <v>0</v>
@@ -18657,9 +16219,9 @@
       <c r="W118" s="9">
         <v>0</v>
       </c>
-      <c r="X118" s="9">
+      <c r="X118" s="9" t="e">
         <f>IF(ISBLANK(Y118),0, LOOKUP(Y118,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z118/100)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="Y118">
         <v>55000132</v>
@@ -18683,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="AF118" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:32" ht="14.25">
@@ -18750,7 +16312,7 @@
       </c>
       <c r="U119" s="11">
         <f t="shared" si="7"/>
-        <v>-97</v>
+        <v>-99</v>
       </c>
       <c r="V119" s="9">
         <v>0</v>
@@ -18758,9 +16320,9 @@
       <c r="W119" s="9">
         <v>0</v>
       </c>
-      <c r="X119" s="9">
+      <c r="X119" s="9" t="e">
         <f>IF(ISBLANK(Y119),0, LOOKUP(Y119,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z119/100)</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="Y119">
         <v>55000093</v>
@@ -18784,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="AF119" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:32" ht="14.25">
@@ -18851,7 +16413,7 @@
       </c>
       <c r="U120" s="20">
         <f t="shared" si="7"/>
-        <v>-47</v>
+        <v>-50</v>
       </c>
       <c r="V120" s="9">
         <v>10</v>
@@ -18859,9 +16421,9 @@
       <c r="W120" s="9">
         <v>0</v>
       </c>
-      <c r="X120" s="9">
+      <c r="X120" s="9" t="e">
         <f>IF(ISBLANK(Y120),0, LOOKUP(Y120,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z120/100)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="Y120">
         <v>55000234</v>
@@ -18885,7 +16447,7 @@
         <v>0</v>
       </c>
       <c r="AF120" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="1:32" ht="14.25">
@@ -18952,7 +16514,7 @@
       </c>
       <c r="U121" s="11">
         <f t="shared" si="7"/>
-        <v>-87</v>
+        <v>-97</v>
       </c>
       <c r="V121" s="9">
         <v>0</v>
@@ -18960,9 +16522,9 @@
       <c r="W121" s="9">
         <v>0</v>
       </c>
-      <c r="X121" s="9">
+      <c r="X121" s="9" t="e">
         <f>IF(ISBLANK(Y121),0, LOOKUP(Y121,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z121/100)</f>
-        <v>10</v>
+        <v>#N/A</v>
       </c>
       <c r="Y121">
         <v>55000180</v>
@@ -18986,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="AF121" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="122" spans="1:32" ht="14.25">
@@ -19053,7 +16615,7 @@
       </c>
       <c r="U122" s="42">
         <f t="shared" si="7"/>
-        <v>-71.599999999999994</v>
+        <v>-74</v>
       </c>
       <c r="V122" s="9">
         <v>0</v>
@@ -19061,9 +16623,9 @@
       <c r="W122" s="9">
         <v>0</v>
       </c>
-      <c r="X122" s="9">
+      <c r="X122" s="9" t="e">
         <f>IF(ISBLANK(Y122),0, LOOKUP(Y122,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z122/100)</f>
-        <v>2.4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y122">
         <v>55000212</v>
@@ -19087,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="AF122" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="123" spans="1:32" ht="14.25">
@@ -19095,13 +16657,13 @@
         <v>52000118</v>
       </c>
       <c r="B123" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C123" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="C123" s="32" t="s">
+      <c r="D123" s="19" t="s">
         <v>390</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>391</v>
       </c>
       <c r="E123" s="16">
         <v>3</v>
@@ -19184,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="AF123" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:32" ht="14.25">
@@ -19192,13 +16754,13 @@
         <v>52000119</v>
       </c>
       <c r="B124" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C124" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="D124" s="19" t="s">
         <v>393</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>394</v>
       </c>
       <c r="E124" s="16">
         <v>5</v>
@@ -19281,7 +16843,7 @@
         <v>0</v>
       </c>
       <c r="AF124" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="1:32" ht="14.25">
@@ -19289,13 +16851,13 @@
         <v>52000120</v>
       </c>
       <c r="B125" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C125" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="C125" s="39" t="s">
+      <c r="D125" s="19" t="s">
         <v>399</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>400</v>
       </c>
       <c r="E125" s="16">
         <v>4</v>
@@ -19378,7 +16940,7 @@
         <v>0</v>
       </c>
       <c r="AF125" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:32" ht="14.25">
@@ -19386,13 +16948,13 @@
         <v>52000121</v>
       </c>
       <c r="B126" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C126" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="D126" s="40" t="s">
         <v>402</v>
-      </c>
-      <c r="D126" s="40" t="s">
-        <v>403</v>
       </c>
       <c r="E126" s="16">
         <v>5</v>
@@ -19475,7 +17037,7 @@
         <v>0</v>
       </c>
       <c r="AF126" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:32" ht="14.25">
@@ -19483,13 +17045,13 @@
         <v>52000124</v>
       </c>
       <c r="B127" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C127" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="D127" s="19" t="s">
         <v>414</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>415</v>
       </c>
       <c r="E127" s="16">
         <v>3</v>
@@ -19572,7 +17134,7 @@
         <v>1</v>
       </c>
       <c r="AF127" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="1:32" ht="14.25">
@@ -19580,10 +17142,10 @@
         <v>52000125</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D128" s="19" t="s">
         <v>370</v>
@@ -19669,7 +17231,7 @@
         <v>1</v>
       </c>
       <c r="AF128" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:32" ht="14.25">
@@ -19677,13 +17239,13 @@
         <v>52000126</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C129" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D129" s="19" t="s">
         <v>418</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>419</v>
       </c>
       <c r="E129" s="16">
         <v>1</v>
@@ -19766,7 +17328,7 @@
         <v>1</v>
       </c>
       <c r="AF129" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:32" ht="14.25">
@@ -19774,13 +17336,13 @@
         <v>52000127</v>
       </c>
       <c r="B130" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C130" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C130" s="16" t="s">
-        <v>423</v>
-      </c>
       <c r="D130" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E130" s="16">
         <v>5</v>
@@ -19863,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="AF130" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -20073,33 +17635,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H130">
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="9" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20119,7 +17681,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20162,52 +17724,52 @@
         <v>259</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>380</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>383</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N1" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>461</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>462</v>
       </c>
       <c r="U1" s="23" t="s">
         <v>382</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="W1" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X1" s="23" t="s">
         <v>387</v>
@@ -20228,13 +17790,13 @@
         <v>264</v>
       </c>
       <c r="AD1" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AE1" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF1" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -20263,7 +17825,7 @@
         <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>116</v>
@@ -20275,40 +17837,40 @@
         <v>384</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>381</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>381</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>381</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>116</v>
@@ -20358,55 +17920,55 @@
         <v>122</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>385</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O3" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="P3" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="Q3" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="R3" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="S3" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="T3" s="38" t="s">
         <v>469</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>470</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>386</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y3" t="s">
         <v>123</v>
@@ -20424,13 +17986,13 @@
         <v>127</v>
       </c>
       <c r="AD3" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AE3" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF3" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="14.25">
@@ -20438,13 +18000,13 @@
         <v>52100000</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="27" t="s">
         <v>432</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>433</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
@@ -20495,8 +18057,8 @@
       <c r="T4" s="15">
         <v>0</v>
       </c>
-      <c r="U4" s="20">
-        <f t="shared" ref="U4:U5" si="1">J4+K4-100+L4+ SUM(N4:T4)*5+X4</f>
+      <c r="U4" s="11">
+        <f t="shared" ref="U4:U5" si="1">J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(X4),X4,0)</f>
         <v>-53</v>
       </c>
       <c r="V4" s="15">
@@ -20533,13 +18095,13 @@
         <v>52100001</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="27" t="s">
         <v>435</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>436</v>
       </c>
       <c r="E5" s="16">
         <v>1</v>
@@ -20607,7 +18169,7 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
       <c r="AA5" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AB5" s="16">
         <v>5</v>
@@ -20625,55 +18187,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
+  <conditionalFormatting sqref="U5">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -20746,19 +18260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U5">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20770,37 +18272,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -4002,7 +4002,7 @@
             <v>55100001</v>
           </cell>
           <cell r="V4">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="5">
@@ -4517,8 +4517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
@@ -17677,7 +17677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="360">
   <si>
     <t>铁杖</t>
   </si>
@@ -1201,6 +1201,10 @@
   </si>
   <si>
     <t>~SkillMark</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2112,174 +2116,6 @@
   <dxfs count="85">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2759,6 +2595,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2863,6 +2712,82 @@
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3346,6 +3271,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3451,6 +3389,72 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3482,7 +3486,7 @@
             <v>序列</v>
           </cell>
           <cell r="V1" t="str">
-            <v>评分</v>
+            <v>卡牌表面特效</v>
           </cell>
         </row>
         <row r="2">
@@ -3490,7 +3494,7 @@
             <v>int</v>
           </cell>
           <cell r="V2" t="str">
-            <v>int</v>
+            <v>string</v>
           </cell>
         </row>
         <row r="3">
@@ -3498,263 +3502,249 @@
             <v>Id</v>
           </cell>
           <cell r="V3" t="str">
-            <v>Mark</v>
+            <v>Cover</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
             <v>55100001</v>
           </cell>
-          <cell r="V4">
-            <v>10</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>55200001</v>
-          </cell>
-          <cell r="V5">
-            <v>40</v>
+            <v>55100002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>55200002</v>
-          </cell>
-          <cell r="V6">
-            <v>15</v>
+            <v>55100003</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>55300001</v>
-          </cell>
-          <cell r="V7">
-            <v>40</v>
+            <v>55100004</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>55300002</v>
-          </cell>
-          <cell r="V8">
-            <v>30</v>
+            <v>55100005</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>55300003</v>
-          </cell>
-          <cell r="V9">
-            <v>30</v>
+            <v>55100006</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>55300004</v>
-          </cell>
-          <cell r="V10">
-            <v>30</v>
+            <v>55100007</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>55300005</v>
-          </cell>
-          <cell r="V11">
-            <v>30</v>
+            <v>55100008</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>55300006</v>
-          </cell>
-          <cell r="V12">
-            <v>25</v>
+            <v>55100009</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>55300007</v>
-          </cell>
-          <cell r="V13">
-            <v>25</v>
+            <v>55110001</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>55310001</v>
+            <v>55200001</v>
           </cell>
-          <cell r="V14">
-            <v>100</v>
+          <cell r="V14" t="str">
+            <v>coveraoe</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>55400001</v>
-          </cell>
-          <cell r="V15">
-            <v>80</v>
+            <v>55200002</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>55400002</v>
+            <v>55300001</v>
           </cell>
-          <cell r="V16">
-            <v>80</v>
+          <cell r="V16" t="str">
+            <v>coverauro</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>55500001</v>
-          </cell>
-          <cell r="V17">
-            <v>5</v>
+            <v>55300002</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>55500002</v>
-          </cell>
-          <cell r="V18">
-            <v>5</v>
+            <v>55300003</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>55500003</v>
-          </cell>
-          <cell r="V19">
-            <v>5</v>
+            <v>55300004</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>55500004</v>
-          </cell>
-          <cell r="V20">
-            <v>5</v>
+            <v>55300005</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>55500005</v>
-          </cell>
-          <cell r="V21">
-            <v>5</v>
+            <v>55300006</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>55500006</v>
-          </cell>
-          <cell r="V22">
-            <v>5</v>
+            <v>55300007</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>55500007</v>
-          </cell>
-          <cell r="V23">
-            <v>5</v>
+            <v>55310001</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>55500008</v>
-          </cell>
-          <cell r="V24">
-            <v>5</v>
+            <v>55400001</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>55500009</v>
-          </cell>
-          <cell r="V25">
-            <v>5</v>
+            <v>55400002</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>55500010</v>
-          </cell>
-          <cell r="V26">
-            <v>5</v>
+            <v>55400003</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>55500011</v>
-          </cell>
-          <cell r="V27">
-            <v>5</v>
+            <v>55400004</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>55500012</v>
-          </cell>
-          <cell r="V28">
-            <v>5</v>
+            <v>55400005</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>55500013</v>
-          </cell>
-          <cell r="V29">
-            <v>5</v>
+            <v>55400006</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>55500014</v>
-          </cell>
-          <cell r="V30">
-            <v>5</v>
+            <v>55500001</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>55500015</v>
-          </cell>
-          <cell r="V31">
-            <v>5</v>
+            <v>55500002</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>55500016</v>
-          </cell>
-          <cell r="V32">
-            <v>5</v>
+            <v>55500003</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>55900001</v>
-          </cell>
-          <cell r="V33">
-            <v>35</v>
+            <v>55500004</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>55900002</v>
-          </cell>
-          <cell r="V34">
-            <v>30</v>
+            <v>55500005</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
+            <v>55500006</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>55500007</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>55500008</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>55500009</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>55500010</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>55500011</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>55500012</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>55500013</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>55500014</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>55500015</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>55500016</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>55600016</v>
+          </cell>
+          <cell r="V46" t="str">
+            <v>coverauro</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>55900001</v>
+          </cell>
+          <cell r="V47" t="str">
+            <v>covertrans</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>55900002</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
             <v>55900003</v>
-          </cell>
-          <cell r="V35">
-            <v>80</v>
           </cell>
         </row>
       </sheetData>
@@ -3769,98 +3759,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AE130" totalsRowShown="0" dataDxfId="84" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AE130" totalsRowShown="0" dataDxfId="75" tableBorderDxfId="74">
   <autoFilter ref="A3:AE130"/>
   <sortState ref="A4:AH130">
     <sortCondition ref="D3:D130"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" name="Id" dataDxfId="82"/>
-    <tableColumn id="2" name="Name" dataDxfId="81"/>
-    <tableColumn id="3" name="Ename" dataDxfId="80"/>
-    <tableColumn id="4" name="Remark" dataDxfId="20"/>
-    <tableColumn id="5" name="Star" dataDxfId="79"/>
-    <tableColumn id="6" name="Type" dataDxfId="78"/>
-    <tableColumn id="7" name="Attr" dataDxfId="77"/>
-    <tableColumn id="34" name="Quality" dataDxfId="76">
+    <tableColumn id="1" name="Id" dataDxfId="73"/>
+    <tableColumn id="2" name="Name" dataDxfId="72"/>
+    <tableColumn id="3" name="Ename" dataDxfId="71"/>
+    <tableColumn id="4" name="Remark" dataDxfId="70"/>
+    <tableColumn id="5" name="Star" dataDxfId="69"/>
+    <tableColumn id="6" name="Type" dataDxfId="68"/>
+    <tableColumn id="7" name="Attr" dataDxfId="67"/>
+    <tableColumn id="34" name="Quality" dataDxfId="66">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="75"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="74"/>
-    <tableColumn id="9" name="VitP" dataDxfId="73"/>
-    <tableColumn id="25" name="Modify" dataDxfId="72"/>
-    <tableColumn id="27" name="Dura" dataDxfId="71"/>
-    <tableColumn id="20" name="Def" dataDxfId="70"/>
-    <tableColumn id="21" name="Mag" dataDxfId="69"/>
-    <tableColumn id="29" name="Spd" dataDxfId="68"/>
-    <tableColumn id="30" name="Hit" dataDxfId="67"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="66"/>
-    <tableColumn id="12" name="Crt" dataDxfId="65"/>
-    <tableColumn id="11" name="Luk" dataDxfId="64"/>
-    <tableColumn id="32" name="Sum" dataDxfId="63">
+    <tableColumn id="15" name="Cost" dataDxfId="65"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="64"/>
+    <tableColumn id="9" name="VitP" dataDxfId="63"/>
+    <tableColumn id="25" name="Modify" dataDxfId="62"/>
+    <tableColumn id="27" name="Dura" dataDxfId="61"/>
+    <tableColumn id="20" name="Def" dataDxfId="60"/>
+    <tableColumn id="21" name="Mag" dataDxfId="59"/>
+    <tableColumn id="29" name="Spd" dataDxfId="58"/>
+    <tableColumn id="30" name="Hit" dataDxfId="57"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="56"/>
+    <tableColumn id="12" name="Crt" dataDxfId="55"/>
+    <tableColumn id="11" name="Luk" dataDxfId="54"/>
+    <tableColumn id="32" name="Sum" dataDxfId="53">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(X4),X4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="62"/>
-    <tableColumn id="31" name="Mov" dataDxfId="61"/>
-    <tableColumn id="33" name="~SkillMark" dataDxfId="60">
+    <tableColumn id="10" name="Range" dataDxfId="52"/>
+    <tableColumn id="31" name="Mov" dataDxfId="51"/>
+    <tableColumn id="33" name="~SkillMark" dataDxfId="50">
       <calculatedColumnFormula>IF(ISBLANK(Y4),0, LOOKUP(Y4,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="59"/>
-    <tableColumn id="14" name="Percent" dataDxfId="58"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="57"/>
-    <tableColumn id="17" name="Res" dataDxfId="56"/>
-    <tableColumn id="18" name="Icon" dataDxfId="55"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="54"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="53"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="49"/>
+    <tableColumn id="14" name="Percent" dataDxfId="48"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="47"/>
+    <tableColumn id="17" name="Res" dataDxfId="46"/>
+    <tableColumn id="18" name="Icon" dataDxfId="45"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="44"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AE5" totalsRowShown="0" dataDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AE5" totalsRowShown="0" dataDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A3:AE5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" name="Id" dataDxfId="50"/>
-    <tableColumn id="2" name="Name" dataDxfId="49"/>
-    <tableColumn id="3" name="Ename" dataDxfId="48"/>
-    <tableColumn id="4" name="Remark" dataDxfId="19"/>
-    <tableColumn id="5" name="Star" dataDxfId="47"/>
-    <tableColumn id="6" name="Type" dataDxfId="46"/>
-    <tableColumn id="7" name="Attr" dataDxfId="45"/>
-    <tableColumn id="34" name="Quality" dataDxfId="44">
+    <tableColumn id="1" name="Id" dataDxfId="30"/>
+    <tableColumn id="2" name="Name" dataDxfId="29"/>
+    <tableColumn id="3" name="Ename" dataDxfId="28"/>
+    <tableColumn id="4" name="Remark" dataDxfId="27"/>
+    <tableColumn id="5" name="Star" dataDxfId="26"/>
+    <tableColumn id="6" name="Type" dataDxfId="25"/>
+    <tableColumn id="7" name="Attr" dataDxfId="24"/>
+    <tableColumn id="34" name="Quality" dataDxfId="23">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="43"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="42"/>
-    <tableColumn id="9" name="VitP" dataDxfId="41"/>
-    <tableColumn id="25" name="Modify" dataDxfId="40"/>
-    <tableColumn id="31" name="Dura" dataDxfId="39"/>
-    <tableColumn id="11" name="Def" dataDxfId="38"/>
-    <tableColumn id="21" name="Mag" dataDxfId="37"/>
-    <tableColumn id="29" name="Spd" dataDxfId="36"/>
-    <tableColumn id="30" name="Hit" dataDxfId="35"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="34"/>
-    <tableColumn id="19" name="Crt" dataDxfId="33"/>
-    <tableColumn id="12" name="Luk" dataDxfId="32"/>
-    <tableColumn id="32" name="Sum" dataDxfId="31">
+    <tableColumn id="15" name="Cost" dataDxfId="22"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="21"/>
+    <tableColumn id="9" name="VitP" dataDxfId="20"/>
+    <tableColumn id="25" name="Modify" dataDxfId="19"/>
+    <tableColumn id="31" name="Dura" dataDxfId="18"/>
+    <tableColumn id="11" name="Def" dataDxfId="17"/>
+    <tableColumn id="21" name="Mag" dataDxfId="16"/>
+    <tableColumn id="29" name="Spd" dataDxfId="15"/>
+    <tableColumn id="30" name="Hit" dataDxfId="14"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="13"/>
+    <tableColumn id="19" name="Crt" dataDxfId="12"/>
+    <tableColumn id="12" name="Luk" dataDxfId="11"/>
+    <tableColumn id="32" name="Sum" dataDxfId="10">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(X4),X4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="30"/>
-    <tableColumn id="27" name="Mov" dataDxfId="29"/>
-    <tableColumn id="33" name="~SkillMark" dataDxfId="28">
+    <tableColumn id="10" name="Range" dataDxfId="9"/>
+    <tableColumn id="27" name="Mov" dataDxfId="8"/>
+    <tableColumn id="33" name="~SkillMark" dataDxfId="7">
       <calculatedColumnFormula>IF(ISBLANK(Y4),0, LOOKUP(Y4,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="27"/>
-    <tableColumn id="14" name="Percent" dataDxfId="26"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="25"/>
-    <tableColumn id="17" name="Res" dataDxfId="24"/>
-    <tableColumn id="18" name="Icon" dataDxfId="23"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="22"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="21"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="6"/>
+    <tableColumn id="14" name="Percent" dataDxfId="5"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="4"/>
+    <tableColumn id="17" name="Res" dataDxfId="3"/>
+    <tableColumn id="18" name="Icon" dataDxfId="2"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4156,31 +4146,31 @@
   <dimension ref="A1:AE130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D122" sqref="D122"/>
+      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="11" width="3.77734375" customWidth="1"/>
-    <col min="12" max="20" width="3.88671875" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" customWidth="1"/>
-    <col min="22" max="23" width="3.88671875" customWidth="1"/>
-    <col min="24" max="24" width="6.109375" customWidth="1"/>
-    <col min="25" max="25" width="9.44140625" customWidth="1"/>
-    <col min="26" max="26" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="9" width="4.125" customWidth="1"/>
+    <col min="10" max="11" width="3.75" customWidth="1"/>
+    <col min="12" max="20" width="3.875" customWidth="1"/>
+    <col min="21" max="21" width="6.375" customWidth="1"/>
+    <col min="22" max="23" width="3.875" customWidth="1"/>
+    <col min="24" max="24" width="6.125" customWidth="1"/>
+    <col min="25" max="25" width="9.5" customWidth="1"/>
+    <col min="26" max="26" width="7.125" customWidth="1"/>
     <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="29" width="7.33203125" customWidth="1"/>
-    <col min="30" max="31" width="4.33203125" customWidth="1"/>
-    <col min="34" max="34" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="7.375" customWidth="1"/>
+    <col min="30" max="31" width="4.375" customWidth="1"/>
+    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="58.8">
+    <row r="1" spans="1:31" ht="55.5">
       <c r="A1" s="19" t="s">
         <v>254</v>
       </c>
@@ -10600,7 +10590,7 @@
         <v>209</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E68" s="4">
         <v>1</v>
@@ -10613,7 +10603,7 @@
       </c>
       <c r="H68" s="4">
         <f t="shared" ref="H68:H99" si="4">IF(AND(U68&gt;=13,U68&lt;=16),5,IF(AND(U68&gt;=9,U68&lt;=12),4,IF(AND(U68&gt;=5,U68&lt;=8),3,IF(AND(U68&gt;=1,U68&lt;=4),2,IF(AND(U68&gt;=-3,U68&lt;=0),1,IF(AND(U68&gt;=-5,U68&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I68" s="4">
         <v>1</v>
@@ -10622,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="6">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="L68" s="8">
         <v>-2</v>
@@ -10631,7 +10621,7 @@
         <v>3</v>
       </c>
       <c r="N68" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O68" s="8">
         <v>0</v>
@@ -10653,7 +10643,7 @@
       </c>
       <c r="U68" s="10">
         <f t="shared" ref="U68:U99" si="5">J68+K68-100+L68+ SUM(N68:T68)*5+IF(ISNUMBER(X68),X68,0)</f>
-        <v>-42</v>
+        <v>-5</v>
       </c>
       <c r="V68" s="8">
         <v>0</v>
@@ -10661,16 +10651,11 @@
       <c r="W68" s="8">
         <v>0</v>
       </c>
-      <c r="X68" s="8" t="e">
+      <c r="X68" s="8">
         <f>IF(ISBLANK(Y68),0, LOOKUP(Y68,[1]Skill!$A:$A,[1]Skill!$V:$V)*Z68/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y68">
-        <v>55000163</v>
-      </c>
-      <c r="Z68" s="4">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="4"/>
       <c r="AA68" s="4" t="s">
         <v>5</v>
       </c>
@@ -16882,33 +16867,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H130">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="81" priority="9" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16931,23 +16916,23 @@
       <selection pane="bottomRight" activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="11" width="3.77734375" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="9" width="4.125" customWidth="1"/>
+    <col min="10" max="11" width="3.75" customWidth="1"/>
+    <col min="12" max="12" width="4.375" customWidth="1"/>
     <col min="13" max="20" width="4" customWidth="1"/>
-    <col min="21" max="21" width="3.77734375" customWidth="1"/>
+    <col min="21" max="21" width="3.75" customWidth="1"/>
     <col min="22" max="23" width="4" customWidth="1"/>
-    <col min="24" max="24" width="3.77734375" customWidth="1"/>
-    <col min="25" max="26" width="7.109375" customWidth="1"/>
+    <col min="24" max="24" width="3.75" customWidth="1"/>
+    <col min="25" max="26" width="7.125" customWidth="1"/>
     <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="29" width="7.33203125" customWidth="1"/>
-    <col min="30" max="31" width="4.33203125" customWidth="1"/>
+    <col min="28" max="29" width="7.375" customWidth="1"/>
+    <col min="30" max="31" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="58.8">
+    <row r="1" spans="1:31" ht="55.5">
       <c r="A1" s="19" t="s">
         <v>254</v>
       </c>
@@ -17503,36 +17488,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="360">
   <si>
     <t>铁杖</t>
   </si>
@@ -1200,6 +1200,18 @@
   </si>
   <si>
     <t>克制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobId</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1435,7 +1447,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1648,6 +1660,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
@@ -1942,7 +1972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2060,6 +2090,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2105,7 +2144,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="88">
     <dxf>
       <font>
         <b/>
@@ -2249,56 +2288,31 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2481,6 +2495,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2489,6 +2504,31 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3063,6 +3103,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3071,6 +3112,31 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3483,6 +3549,7 @@
     <sheetNames>
       <sheetName val="Skill"/>
       <sheetName val="~标准"/>
+      <sheetName val="道具"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -4642,6 +4709,7 @@
           <cell r="A145">
             <v>55900028</v>
           </cell>
+          <cell r="X145"/>
         </row>
         <row r="146">
           <cell r="A146">
@@ -4757,106 +4825,109 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF126" totalsRowShown="0" dataDxfId="86" tableBorderDxfId="85">
-  <autoFilter ref="A3:AF126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG126" totalsRowShown="0" dataDxfId="87" tableBorderDxfId="86">
+  <autoFilter ref="A3:AG126"/>
   <sortState ref="A4:AF126">
     <sortCondition ref="A3:A126"/>
   </sortState>
-  <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="84"/>
-    <tableColumn id="2" name="Name" dataDxfId="83"/>
-    <tableColumn id="3" name="Ename" dataDxfId="82"/>
-    <tableColumn id="4" name="Remark" dataDxfId="81"/>
-    <tableColumn id="5" name="Star" dataDxfId="80"/>
-    <tableColumn id="6" name="Type" dataDxfId="79"/>
-    <tableColumn id="7" name="Attr" dataDxfId="78"/>
-    <tableColumn id="34" name="Quality" dataDxfId="77">
+  <tableColumns count="33">
+    <tableColumn id="1" name="Id" dataDxfId="85"/>
+    <tableColumn id="2" name="Name" dataDxfId="84"/>
+    <tableColumn id="3" name="Ename" dataDxfId="83"/>
+    <tableColumn id="4" name="Remark" dataDxfId="82"/>
+    <tableColumn id="5" name="Star" dataDxfId="81"/>
+    <tableColumn id="6" name="Type" dataDxfId="80"/>
+    <tableColumn id="7" name="Attr" dataDxfId="79"/>
+    <tableColumn id="34" name="Quality" dataDxfId="78">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="76"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="75"/>
-    <tableColumn id="9" name="VitP" dataDxfId="74"/>
-    <tableColumn id="25" name="Modify" dataDxfId="73"/>
-    <tableColumn id="27" name="Dura" dataDxfId="72"/>
-    <tableColumn id="20" name="Def" dataDxfId="71"/>
-    <tableColumn id="21" name="Mag" dataDxfId="70"/>
-    <tableColumn id="29" name="Spd" dataDxfId="69"/>
-    <tableColumn id="30" name="Hit" dataDxfId="68"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="67"/>
-    <tableColumn id="12" name="Crt" dataDxfId="66"/>
-    <tableColumn id="11" name="Luk" dataDxfId="65"/>
-    <tableColumn id="32" name="Sum" dataDxfId="20">
+    <tableColumn id="15" name="Cost" dataDxfId="77"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="76"/>
+    <tableColumn id="9" name="VitP" dataDxfId="75"/>
+    <tableColumn id="25" name="Modify" dataDxfId="74"/>
+    <tableColumn id="27" name="Dura" dataDxfId="73"/>
+    <tableColumn id="20" name="Def" dataDxfId="72"/>
+    <tableColumn id="21" name="Mag" dataDxfId="71"/>
+    <tableColumn id="29" name="Spd" dataDxfId="70"/>
+    <tableColumn id="30" name="Hit" dataDxfId="69"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="68"/>
+    <tableColumn id="12" name="Crt" dataDxfId="67"/>
+    <tableColumn id="11" name="Luk" dataDxfId="66"/>
+    <tableColumn id="32" name="Sum" dataDxfId="65">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Range" dataDxfId="64"/>
     <tableColumn id="31" name="Mov" dataDxfId="63"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="22"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="24">
+    <tableColumn id="24" name="~SkillMark" dataDxfId="62"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="61">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="62"/>
-    <tableColumn id="14" name="Percent" dataDxfId="61"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="60"/>
-    <tableColumn id="17" name="Res" dataDxfId="59"/>
-    <tableColumn id="18" name="Icon" dataDxfId="58"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="57"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="56"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="60"/>
+    <tableColumn id="14" name="Percent" dataDxfId="59"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="58"/>
+    <tableColumn id="26" name="JobId" dataDxfId="19"/>
+    <tableColumn id="17" name="Res" dataDxfId="57"/>
+    <tableColumn id="18" name="Icon" dataDxfId="56"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="55"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="55" tableBorderDxfId="54">
-  <autoFilter ref="A3:AF5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG5" totalsRowShown="0" dataDxfId="53" tableBorderDxfId="52">
+  <autoFilter ref="A3:AG5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
-  <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="53"/>
-    <tableColumn id="2" name="Name" dataDxfId="52"/>
-    <tableColumn id="3" name="Ename" dataDxfId="51"/>
-    <tableColumn id="4" name="Remark" dataDxfId="50"/>
-    <tableColumn id="5" name="Star" dataDxfId="49"/>
-    <tableColumn id="6" name="Type" dataDxfId="48"/>
-    <tableColumn id="7" name="Attr" dataDxfId="47"/>
-    <tableColumn id="34" name="Quality" dataDxfId="46">
+  <tableColumns count="33">
+    <tableColumn id="1" name="Id" dataDxfId="51"/>
+    <tableColumn id="2" name="Name" dataDxfId="50"/>
+    <tableColumn id="3" name="Ename" dataDxfId="49"/>
+    <tableColumn id="4" name="Remark" dataDxfId="48"/>
+    <tableColumn id="5" name="Star" dataDxfId="47"/>
+    <tableColumn id="6" name="Type" dataDxfId="46"/>
+    <tableColumn id="7" name="Attr" dataDxfId="45"/>
+    <tableColumn id="34" name="Quality" dataDxfId="44">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="45"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="44"/>
-    <tableColumn id="9" name="VitP" dataDxfId="43"/>
-    <tableColumn id="25" name="Modify" dataDxfId="42"/>
-    <tableColumn id="31" name="Dura" dataDxfId="41"/>
-    <tableColumn id="11" name="Def" dataDxfId="40"/>
-    <tableColumn id="21" name="Mag" dataDxfId="39"/>
-    <tableColumn id="29" name="Spd" dataDxfId="38"/>
-    <tableColumn id="30" name="Hit" dataDxfId="37"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="36"/>
-    <tableColumn id="19" name="Crt" dataDxfId="35"/>
-    <tableColumn id="12" name="Luk" dataDxfId="34"/>
-    <tableColumn id="32" name="Sum" dataDxfId="19">
+    <tableColumn id="15" name="Cost" dataDxfId="43"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="42"/>
+    <tableColumn id="9" name="VitP" dataDxfId="41"/>
+    <tableColumn id="25" name="Modify" dataDxfId="40"/>
+    <tableColumn id="31" name="Dura" dataDxfId="39"/>
+    <tableColumn id="11" name="Def" dataDxfId="38"/>
+    <tableColumn id="21" name="Mag" dataDxfId="37"/>
+    <tableColumn id="29" name="Spd" dataDxfId="36"/>
+    <tableColumn id="30" name="Hit" dataDxfId="35"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="34"/>
+    <tableColumn id="19" name="Crt" dataDxfId="33"/>
+    <tableColumn id="12" name="Luk" dataDxfId="32"/>
+    <tableColumn id="32" name="Sum" dataDxfId="31">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="33"/>
-    <tableColumn id="27" name="Mov" dataDxfId="32"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="21"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="23">
+    <tableColumn id="10" name="Range" dataDxfId="30"/>
+    <tableColumn id="27" name="Mov" dataDxfId="29"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="28"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="27">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="31"/>
-    <tableColumn id="14" name="Percent" dataDxfId="30"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="29"/>
-    <tableColumn id="17" name="Res" dataDxfId="28"/>
-    <tableColumn id="18" name="Icon" dataDxfId="27"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="26"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="25"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="26"/>
+    <tableColumn id="14" name="Percent" dataDxfId="25"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="24"/>
+    <tableColumn id="26" name="JobId"/>
+    <tableColumn id="17" name="Res" dataDxfId="23"/>
+    <tableColumn id="18" name="Icon" dataDxfId="22"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="21"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5149,34 +5220,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF126"/>
+  <dimension ref="A1:AG126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="11" width="3.77734375" customWidth="1"/>
-    <col min="12" max="20" width="3.88671875" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" customWidth="1"/>
-    <col min="22" max="23" width="3.88671875" customWidth="1"/>
-    <col min="24" max="25" width="4.77734375" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" customWidth="1"/>
-    <col min="27" max="27" width="7.109375" customWidth="1"/>
-    <col min="28" max="28" width="9" customWidth="1"/>
-    <col min="29" max="30" width="7.33203125" customWidth="1"/>
-    <col min="31" max="32" width="4.33203125" customWidth="1"/>
-    <col min="35" max="35" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="9" width="4.125" customWidth="1"/>
+    <col min="10" max="11" width="3.75" customWidth="1"/>
+    <col min="12" max="20" width="3.875" customWidth="1"/>
+    <col min="21" max="21" width="6.375" customWidth="1"/>
+    <col min="22" max="23" width="3.875" customWidth="1"/>
+    <col min="24" max="25" width="4.75" customWidth="1"/>
+    <col min="26" max="26" width="9.5" customWidth="1"/>
+    <col min="27" max="27" width="7.125" customWidth="1"/>
+    <col min="28" max="29" width="9" customWidth="1"/>
+    <col min="30" max="31" width="7.375" customWidth="1"/>
+    <col min="32" max="33" width="4.375" customWidth="1"/>
+    <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="73.2">
+    <row r="1" spans="1:33" ht="69">
       <c r="A1" s="19" t="s">
         <v>246</v>
       </c>
@@ -5261,20 +5332,23 @@
       <c r="AB1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD1" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AE1" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
@@ -5359,20 +5433,23 @@
       <c r="AB2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AG2" s="28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -5457,20 +5534,23 @@
       <c r="AB3" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD3" t="s">
         <v>122</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>123</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AF3" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AG3" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>52000001</v>
       </c>
@@ -5493,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H4:H35" si="0">IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -5533,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="10">
-        <f>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</f>
+        <f t="shared" ref="U4:U35" si="1">J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</f>
         <v>-5</v>
       </c>
       <c r="V4" s="8">
@@ -5554,20 +5634,21 @@
       <c r="AB4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD4" s="5">
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="5">
         <v>1</v>
       </c>
-      <c r="AE4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="25">
+      <c r="AF4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>52000002</v>
       </c>
@@ -5590,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>IF(AND(U5&gt;=13,U5&lt;=16),5,IF(AND(U5&gt;=9,U5&lt;=12),4,IF(AND(U5&gt;=5,U5&lt;=8),3,IF(AND(U5&gt;=1,U5&lt;=4),2,IF(AND(U5&gt;=-3,U5&lt;=0),1,IF(AND(U5&gt;=-5,U5&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
@@ -5630,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="10">
-        <f>J5+K5-100+L5+ SUM(N5:T5)*5+IF(ISNUMBER(Y5),Y5,0)+X5</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V5" s="8">
@@ -5651,20 +5732,21 @@
       <c r="AB5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="5">
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="5">
         <v>2</v>
       </c>
-      <c r="AE5" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="25">
+      <c r="AF5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>52000003</v>
       </c>
@@ -5687,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>IF(AND(U6&gt;=13,U6&lt;=16),5,IF(AND(U6&gt;=9,U6&lt;=12),4,IF(AND(U6&gt;=5,U6&lt;=8),3,IF(AND(U6&gt;=1,U6&lt;=4),2,IF(AND(U6&gt;=-3,U6&lt;=0),1,IF(AND(U6&gt;=-5,U6&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
@@ -5727,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="10">
-        <f>J6+K6-100+L6+ SUM(N6:T6)*5+IF(ISNUMBER(Y6),Y6,0)+X6</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V6" s="8">
@@ -5748,20 +5830,21 @@
       <c r="AB6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="5">
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="5">
         <v>3</v>
       </c>
-      <c r="AE6" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="25">
+      <c r="AF6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:33">
       <c r="A7">
         <v>52000004</v>
       </c>
@@ -5784,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>IF(AND(U7&gt;=13,U7&lt;=16),5,IF(AND(U7&gt;=9,U7&lt;=12),4,IF(AND(U7&gt;=5,U7&lt;=8),3,IF(AND(U7&gt;=1,U7&lt;=4),2,IF(AND(U7&gt;=-3,U7&lt;=0),1,IF(AND(U7&gt;=-5,U7&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
@@ -5824,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="10">
-        <f>J7+K7-100+L7+ SUM(N7:T7)*5+IF(ISNUMBER(Y7),Y7,0)+X7</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V7" s="8">
@@ -5845,20 +5928,21 @@
       <c r="AB7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC7" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD7" s="5">
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="5">
         <v>4</v>
       </c>
-      <c r="AE7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="25">
+      <c r="AF7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>52000005</v>
       </c>
@@ -5881,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>IF(AND(U8&gt;=13,U8&lt;=16),5,IF(AND(U8&gt;=9,U8&lt;=12),4,IF(AND(U8&gt;=5,U8&lt;=8),3,IF(AND(U8&gt;=1,U8&lt;=4),2,IF(AND(U8&gt;=-3,U8&lt;=0),1,IF(AND(U8&gt;=-5,U8&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="15">
@@ -5921,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="18">
-        <f>J8+K8-100+L8+ SUM(N8:T8)*5+IF(ISNUMBER(Y8),Y8,0)+X8</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V8" s="8">
@@ -5942,20 +6026,21 @@
       <c r="AB8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC8" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="17">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="25">
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>52000006</v>
       </c>
@@ -5978,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>IF(AND(U9&gt;=13,U9&lt;=16),5,IF(AND(U9&gt;=9,U9&lt;=12),4,IF(AND(U9&gt;=5,U9&lt;=8),3,IF(AND(U9&gt;=1,U9&lt;=4),2,IF(AND(U9&gt;=-3,U9&lt;=0),1,IF(AND(U9&gt;=-5,U9&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
@@ -6018,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="10">
-        <f>J9+K9-100+L9+ SUM(N9:T9)*5+IF(ISNUMBER(Y9),Y9,0)+X9</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="V9" s="8">
@@ -6039,20 +6124,21 @@
       <c r="AB9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC9" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="5">
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="5">
         <v>6</v>
       </c>
-      <c r="AE9" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="25">
+      <c r="AF9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:33">
       <c r="A10">
         <v>52000007</v>
       </c>
@@ -6075,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>IF(AND(U10&gt;=13,U10&lt;=16),5,IF(AND(U10&gt;=9,U10&lt;=12),4,IF(AND(U10&gt;=5,U10&lt;=8),3,IF(AND(U10&gt;=1,U10&lt;=4),2,IF(AND(U10&gt;=-3,U10&lt;=0),1,IF(AND(U10&gt;=-5,U10&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
@@ -6115,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="10">
-        <f>J10+K10-100+L10+ SUM(N10:T10)*5+IF(ISNUMBER(Y10),Y10,0)+X10</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V10" s="8">
@@ -6136,20 +6222,21 @@
       <c r="AB10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC10" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="5">
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="5">
         <v>7</v>
       </c>
-      <c r="AE10" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="25">
+      <c r="AF10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:33">
       <c r="A11">
         <v>52000008</v>
       </c>
@@ -6172,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>IF(AND(U11&gt;=13,U11&lt;=16),5,IF(AND(U11&gt;=9,U11&lt;=12),4,IF(AND(U11&gt;=5,U11&lt;=8),3,IF(AND(U11&gt;=1,U11&lt;=4),2,IF(AND(U11&gt;=-3,U11&lt;=0),1,IF(AND(U11&gt;=-5,U11&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
@@ -6212,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="18">
-        <f>J11+K11-100+L11+ SUM(N11:T11)*5+IF(ISNUMBER(Y11),Y11,0)+X11</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V11" s="8">
@@ -6233,20 +6320,21 @@
       <c r="AB11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC11" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD11" s="5">
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="5">
         <v>8</v>
       </c>
-      <c r="AE11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="25">
+      <c r="AF11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:33">
       <c r="A12">
         <v>52000009</v>
       </c>
@@ -6269,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>IF(AND(U12&gt;=13,U12&lt;=16),5,IF(AND(U12&gt;=9,U12&lt;=12),4,IF(AND(U12&gt;=5,U12&lt;=8),3,IF(AND(U12&gt;=1,U12&lt;=4),2,IF(AND(U12&gt;=-3,U12&lt;=0),1,IF(AND(U12&gt;=-5,U12&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="4">
@@ -6309,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="18">
-        <f>J12+K12-100+L12+ SUM(N12:T12)*5+IF(ISNUMBER(Y12),Y12,0)+X12</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V12" s="8">
@@ -6334,20 +6422,21 @@
       <c r="AB12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC12" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD12" s="5">
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="5">
         <v>9</v>
       </c>
-      <c r="AE12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="25">
+      <c r="AF12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:33">
       <c r="A13">
         <v>52000010</v>
       </c>
@@ -6370,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>IF(AND(U13&gt;=13,U13&lt;=16),5,IF(AND(U13&gt;=9,U13&lt;=12),4,IF(AND(U13&gt;=5,U13&lt;=8),3,IF(AND(U13&gt;=1,U13&lt;=4),2,IF(AND(U13&gt;=-3,U13&lt;=0),1,IF(AND(U13&gt;=-5,U13&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I13" s="4">
@@ -6410,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="10">
-        <f>J13+K13-100+L13+ SUM(N13:T13)*5+IF(ISNUMBER(Y13),Y13,0)+X13</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V13" s="8">
@@ -6435,20 +6524,21 @@
       <c r="AB13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC13" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD13" s="5">
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="5">
         <v>10</v>
       </c>
-      <c r="AE13" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="25">
+      <c r="AF13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:33">
       <c r="A14">
         <v>52000011</v>
       </c>
@@ -6471,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>IF(AND(U14&gt;=13,U14&lt;=16),5,IF(AND(U14&gt;=9,U14&lt;=12),4,IF(AND(U14&gt;=5,U14&lt;=8),3,IF(AND(U14&gt;=1,U14&lt;=4),2,IF(AND(U14&gt;=-3,U14&lt;=0),1,IF(AND(U14&gt;=-5,U14&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I14" s="4">
@@ -6511,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="18">
-        <f>J14+K14-100+L14+ SUM(N14:T14)*5+IF(ISNUMBER(Y14),Y14,0)+X14</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V14" s="8">
@@ -6536,20 +6626,21 @@
       <c r="AB14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC14" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="5">
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="5">
         <v>11</v>
       </c>
-      <c r="AE14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="25">
+      <c r="AF14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:33">
       <c r="A15">
         <v>52000012</v>
       </c>
@@ -6572,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>IF(AND(U15&gt;=13,U15&lt;=16),5,IF(AND(U15&gt;=9,U15&lt;=12),4,IF(AND(U15&gt;=5,U15&lt;=8),3,IF(AND(U15&gt;=1,U15&lt;=4),2,IF(AND(U15&gt;=-3,U15&lt;=0),1,IF(AND(U15&gt;=-5,U15&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I15" s="4">
@@ -6612,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="10">
-        <f>J15+K15-100+L15+ SUM(N15:T15)*5+IF(ISNUMBER(Y15),Y15,0)+X15</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V15" s="8">
@@ -6637,20 +6728,21 @@
       <c r="AB15" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="AC15" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD15" s="5">
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="5">
         <v>12</v>
       </c>
-      <c r="AE15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="25">
+      <c r="AF15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:33">
       <c r="A16">
         <v>52000013</v>
       </c>
@@ -6673,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>IF(AND(U16&gt;=13,U16&lt;=16),5,IF(AND(U16&gt;=9,U16&lt;=12),4,IF(AND(U16&gt;=5,U16&lt;=8),3,IF(AND(U16&gt;=1,U16&lt;=4),2,IF(AND(U16&gt;=-3,U16&lt;=0),1,IF(AND(U16&gt;=-5,U16&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I16" s="4">
@@ -6713,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="10">
-        <f>J16+K16-100+L16+ SUM(N16:T16)*5+IF(ISNUMBER(Y16),Y16,0)+X16</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V16" s="8">
@@ -6738,20 +6830,21 @@
       <c r="AB16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC16" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="5">
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="5">
         <v>13</v>
       </c>
-      <c r="AE16" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="25">
+      <c r="AF16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:33">
       <c r="A17">
         <v>52000014</v>
       </c>
@@ -6774,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>IF(AND(U17&gt;=13,U17&lt;=16),5,IF(AND(U17&gt;=9,U17&lt;=12),4,IF(AND(U17&gt;=5,U17&lt;=8),3,IF(AND(U17&gt;=1,U17&lt;=4),2,IF(AND(U17&gt;=-3,U17&lt;=0),1,IF(AND(U17&gt;=-5,U17&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I17" s="4">
@@ -6814,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="18">
-        <f>J17+K17-100+L17+ SUM(N17:T17)*5+IF(ISNUMBER(Y17),Y17,0)+X17</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V17" s="8">
@@ -6839,20 +6932,21 @@
       <c r="AB17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC17" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD17" s="5">
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="5">
         <v>17</v>
       </c>
-      <c r="AE17" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="25">
+      <c r="AF17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:33">
       <c r="A18">
         <v>52000015</v>
       </c>
@@ -6875,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>IF(AND(U18&gt;=13,U18&lt;=16),5,IF(AND(U18&gt;=9,U18&lt;=12),4,IF(AND(U18&gt;=5,U18&lt;=8),3,IF(AND(U18&gt;=1,U18&lt;=4),2,IF(AND(U18&gt;=-3,U18&lt;=0),1,IF(AND(U18&gt;=-5,U18&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I18" s="4">
@@ -6915,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="10">
-        <f>J18+K18-100+L18+ SUM(N18:T18)*5+IF(ISNUMBER(Y18),Y18,0)+X18</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V18" s="8">
@@ -6940,20 +7034,21 @@
       <c r="AB18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC18" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD18" s="5">
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="5">
         <v>15</v>
       </c>
-      <c r="AE18" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="25">
+      <c r="AF18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:33">
       <c r="A19">
         <v>52000016</v>
       </c>
@@ -6976,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f>IF(AND(U19&gt;=13,U19&lt;=16),5,IF(AND(U19&gt;=9,U19&lt;=12),4,IF(AND(U19&gt;=5,U19&lt;=8),3,IF(AND(U19&gt;=1,U19&lt;=4),2,IF(AND(U19&gt;=-3,U19&lt;=0),1,IF(AND(U19&gt;=-5,U19&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I19" s="15">
@@ -7016,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="18">
-        <f>J19+K19-100+L19+ SUM(N19:T19)*5+IF(ISNUMBER(Y19),Y19,0)+X19</f>
+        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
       <c r="V19" s="8">
@@ -7037,20 +7132,21 @@
       <c r="AB19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC19" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD19" s="17">
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE19" s="17">
         <v>16</v>
       </c>
-      <c r="AE19" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="25">
+      <c r="AF19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:33">
       <c r="A20">
         <v>52000017</v>
       </c>
@@ -7073,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>IF(AND(U20&gt;=13,U20&lt;=16),5,IF(AND(U20&gt;=9,U20&lt;=12),4,IF(AND(U20&gt;=5,U20&lt;=8),3,IF(AND(U20&gt;=1,U20&lt;=4),2,IF(AND(U20&gt;=-3,U20&lt;=0),1,IF(AND(U20&gt;=-5,U20&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I20" s="4">
@@ -7113,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="10">
-        <f>J20+K20-100+L20+ SUM(N20:T20)*5+IF(ISNUMBER(Y20),Y20,0)+X20</f>
+        <f t="shared" si="1"/>
         <v>-30</v>
       </c>
       <c r="V20" s="8">
@@ -7134,20 +7230,21 @@
       <c r="AB20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC20" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD20" s="5">
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="5">
         <v>14</v>
       </c>
-      <c r="AE20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="25">
+      <c r="AF20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:33">
       <c r="A21">
         <v>52000018</v>
       </c>
@@ -7170,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>IF(AND(U21&gt;=13,U21&lt;=16),5,IF(AND(U21&gt;=9,U21&lt;=12),4,IF(AND(U21&gt;=5,U21&lt;=8),3,IF(AND(U21&gt;=1,U21&lt;=4),2,IF(AND(U21&gt;=-3,U21&lt;=0),1,IF(AND(U21&gt;=-5,U21&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I21" s="15">
@@ -7210,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="18">
-        <f>J21+K21-100+L21+ SUM(N21:T21)*5+IF(ISNUMBER(Y21),Y21,0)+X21</f>
+        <f t="shared" si="1"/>
         <v>-22</v>
       </c>
       <c r="V21" s="8">
@@ -7231,20 +7328,21 @@
       <c r="AB21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC21" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="17">
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="17">
         <v>18</v>
       </c>
-      <c r="AE21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="25">
+      <c r="AF21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:33">
       <c r="A22">
         <v>52000019</v>
       </c>
@@ -7267,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>IF(AND(U22&gt;=13,U22&lt;=16),5,IF(AND(U22&gt;=9,U22&lt;=12),4,IF(AND(U22&gt;=5,U22&lt;=8),3,IF(AND(U22&gt;=1,U22&lt;=4),2,IF(AND(U22&gt;=-3,U22&lt;=0),1,IF(AND(U22&gt;=-5,U22&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I22" s="4">
@@ -7307,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="10">
-        <f>J22+K22-100+L22+ SUM(N22:T22)*5+IF(ISNUMBER(Y22),Y22,0)+X22</f>
+        <f t="shared" si="1"/>
         <v>-37</v>
       </c>
       <c r="V22" s="8">
@@ -7332,20 +7430,21 @@
       <c r="AB22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC22" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD22" s="5">
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="5">
         <v>19</v>
       </c>
-      <c r="AE22" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="25">
+      <c r="AF22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:33">
       <c r="A23">
         <v>52000020</v>
       </c>
@@ -7368,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>IF(AND(U23&gt;=13,U23&lt;=16),5,IF(AND(U23&gt;=9,U23&lt;=12),4,IF(AND(U23&gt;=5,U23&lt;=8),3,IF(AND(U23&gt;=1,U23&lt;=4),2,IF(AND(U23&gt;=-3,U23&lt;=0),1,IF(AND(U23&gt;=-5,U23&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I23" s="4">
@@ -7408,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="10">
-        <f>J23+K23-100+L23+ SUM(N23:T23)*5+IF(ISNUMBER(Y23),Y23,0)+X23</f>
+        <f t="shared" si="1"/>
         <v>-32</v>
       </c>
       <c r="V23" s="8">
@@ -7433,20 +7532,21 @@
       <c r="AB23" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="AC23" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD23" s="5">
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="5">
         <v>20</v>
       </c>
-      <c r="AE23" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="25">
+      <c r="AF23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:33">
       <c r="A24">
         <v>52000021</v>
       </c>
@@ -7469,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>IF(AND(U24&gt;=13,U24&lt;=16),5,IF(AND(U24&gt;=9,U24&lt;=12),4,IF(AND(U24&gt;=5,U24&lt;=8),3,IF(AND(U24&gt;=1,U24&lt;=4),2,IF(AND(U24&gt;=-3,U24&lt;=0),1,IF(AND(U24&gt;=-5,U24&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I24" s="4">
@@ -7509,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="10">
-        <f>J24+K24-100+L24+ SUM(N24:T24)*5+IF(ISNUMBER(Y24),Y24,0)+X24</f>
+        <f t="shared" si="1"/>
         <v>-14</v>
       </c>
       <c r="V24" s="8">
@@ -7534,20 +7634,21 @@
       <c r="AB24" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="AC24" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="5">
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="5">
         <v>21</v>
       </c>
-      <c r="AE24" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="25">
+      <c r="AF24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:33">
       <c r="A25">
         <v>52000022</v>
       </c>
@@ -7570,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>IF(AND(U25&gt;=13,U25&lt;=16),5,IF(AND(U25&gt;=9,U25&lt;=12),4,IF(AND(U25&gt;=5,U25&lt;=8),3,IF(AND(U25&gt;=1,U25&lt;=4),2,IF(AND(U25&gt;=-3,U25&lt;=0),1,IF(AND(U25&gt;=-5,U25&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I25" s="4">
@@ -7610,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="10">
-        <f>J25+K25-100+L25+ SUM(N25:T25)*5+IF(ISNUMBER(Y25),Y25,0)+X25</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V25" s="8">
@@ -7631,20 +7732,21 @@
       <c r="AB25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC25" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD25" s="5">
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="5">
         <v>22</v>
       </c>
-      <c r="AE25" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="25">
+      <c r="AF25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:33">
       <c r="A26">
         <v>52000023</v>
       </c>
@@ -7667,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>IF(AND(U26&gt;=13,U26&lt;=16),5,IF(AND(U26&gt;=9,U26&lt;=12),4,IF(AND(U26&gt;=5,U26&lt;=8),3,IF(AND(U26&gt;=1,U26&lt;=4),2,IF(AND(U26&gt;=-3,U26&lt;=0),1,IF(AND(U26&gt;=-5,U26&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I26" s="15">
@@ -7707,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="10">
-        <f>J26+K26-100+L26+ SUM(N26:T26)*5+IF(ISNUMBER(Y26),Y26,0)+X26</f>
+        <f t="shared" si="1"/>
         <v>-24</v>
       </c>
       <c r="V26" s="8">
@@ -7728,20 +7830,21 @@
       <c r="AB26" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="AC26" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD26" s="5">
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="5">
         <v>23</v>
       </c>
-      <c r="AE26" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="25">
+      <c r="AF26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:33">
       <c r="A27">
         <v>52000024</v>
       </c>
@@ -7764,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>IF(AND(U27&gt;=13,U27&lt;=16),5,IF(AND(U27&gt;=9,U27&lt;=12),4,IF(AND(U27&gt;=5,U27&lt;=8),3,IF(AND(U27&gt;=1,U27&lt;=4),2,IF(AND(U27&gt;=-3,U27&lt;=0),1,IF(AND(U27&gt;=-5,U27&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I27" s="4">
@@ -7804,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="10">
-        <f>J27+K27-100+L27+ SUM(N27:T27)*5+IF(ISNUMBER(Y27),Y27,0)+X27</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V27" s="8">
@@ -7825,20 +7928,21 @@
       <c r="AB27" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="AC27" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD27" s="5">
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="5">
         <v>24</v>
       </c>
-      <c r="AE27" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="25">
+      <c r="AF27" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:33">
       <c r="A28">
         <v>52000025</v>
       </c>
@@ -7861,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>IF(AND(U28&gt;=13,U28&lt;=16),5,IF(AND(U28&gt;=9,U28&lt;=12),4,IF(AND(U28&gt;=5,U28&lt;=8),3,IF(AND(U28&gt;=1,U28&lt;=4),2,IF(AND(U28&gt;=-3,U28&lt;=0),1,IF(AND(U28&gt;=-5,U28&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I28" s="15">
@@ -7901,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="18">
-        <f>J28+K28-100+L28+ SUM(N28:T28)*5+IF(ISNUMBER(Y28),Y28,0)+X28</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V28" s="8">
@@ -7922,20 +8026,21 @@
       <c r="AB28" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC28" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD28" s="17">
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE28" s="17">
         <v>25</v>
       </c>
-      <c r="AE28" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="25">
+      <c r="AF28" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:33">
       <c r="A29">
         <v>52000026</v>
       </c>
@@ -7958,7 +8063,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="4">
-        <f>IF(AND(U29&gt;=13,U29&lt;=16),5,IF(AND(U29&gt;=9,U29&lt;=12),4,IF(AND(U29&gt;=5,U29&lt;=8),3,IF(AND(U29&gt;=1,U29&lt;=4),2,IF(AND(U29&gt;=-3,U29&lt;=0),1,IF(AND(U29&gt;=-5,U29&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I29" s="4">
@@ -7998,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="10">
-        <f>J29+K29-100+L29+ SUM(N29:T29)*5+IF(ISNUMBER(Y29),Y29,0)+X29</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V29" s="8">
@@ -8023,20 +8128,21 @@
       <c r="AB29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC29" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD29" s="5">
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="5">
         <v>26</v>
       </c>
-      <c r="AE29" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="25">
+      <c r="AF29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:33">
       <c r="A30">
         <v>52000027</v>
       </c>
@@ -8059,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="4">
-        <f>IF(AND(U30&gt;=13,U30&lt;=16),5,IF(AND(U30&gt;=9,U30&lt;=12),4,IF(AND(U30&gt;=5,U30&lt;=8),3,IF(AND(U30&gt;=1,U30&lt;=4),2,IF(AND(U30&gt;=-3,U30&lt;=0),1,IF(AND(U30&gt;=-5,U30&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I30" s="4">
@@ -8099,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="18">
-        <f>J30+K30-100+L30+ SUM(N30:T30)*5+IF(ISNUMBER(Y30),Y30,0)+X30</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V30" s="8">
@@ -8124,20 +8230,21 @@
       <c r="AB30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC30" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD30" s="5">
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="5">
         <v>27</v>
       </c>
-      <c r="AE30" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="25">
+      <c r="AF30" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:33">
       <c r="A31">
         <v>52000028</v>
       </c>
@@ -8160,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="4">
-        <f>IF(AND(U31&gt;=13,U31&lt;=16),5,IF(AND(U31&gt;=9,U31&lt;=12),4,IF(AND(U31&gt;=5,U31&lt;=8),3,IF(AND(U31&gt;=1,U31&lt;=4),2,IF(AND(U31&gt;=-3,U31&lt;=0),1,IF(AND(U31&gt;=-5,U31&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I31" s="4">
@@ -8200,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="10">
-        <f>J31+K31-100+L31+ SUM(N31:T31)*5+IF(ISNUMBER(Y31),Y31,0)+X31</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V31" s="8">
@@ -8225,20 +8332,21 @@
       <c r="AB31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC31" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD31" s="5">
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE31" s="5">
         <v>28</v>
       </c>
-      <c r="AE31" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="25">
+      <c r="AF31" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:33">
       <c r="A32">
         <v>52000029</v>
       </c>
@@ -8261,7 +8369,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="4">
-        <f>IF(AND(U32&gt;=13,U32&lt;=16),5,IF(AND(U32&gt;=9,U32&lt;=12),4,IF(AND(U32&gt;=5,U32&lt;=8),3,IF(AND(U32&gt;=1,U32&lt;=4),2,IF(AND(U32&gt;=-3,U32&lt;=0),1,IF(AND(U32&gt;=-5,U32&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I32" s="4">
@@ -8301,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="10">
-        <f>J32+K32-100+L32+ SUM(N32:T32)*5+IF(ISNUMBER(Y32),Y32,0)+X32</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V32" s="8">
@@ -8326,20 +8434,21 @@
       <c r="AB32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC32" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD32" s="5">
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="5">
         <v>31</v>
       </c>
-      <c r="AE32" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="25">
+      <c r="AF32" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:33">
       <c r="A33">
         <v>52000030</v>
       </c>
@@ -8362,7 +8471,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="4">
-        <f>IF(AND(U33&gt;=13,U33&lt;=16),5,IF(AND(U33&gt;=9,U33&lt;=12),4,IF(AND(U33&gt;=5,U33&lt;=8),3,IF(AND(U33&gt;=1,U33&lt;=4),2,IF(AND(U33&gt;=-3,U33&lt;=0),1,IF(AND(U33&gt;=-5,U33&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I33" s="4">
@@ -8402,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="10">
-        <f>J33+K33-100+L33+ SUM(N33:T33)*5+IF(ISNUMBER(Y33),Y33,0)+X33</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V33" s="8">
@@ -8427,20 +8536,21 @@
       <c r="AB33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC33" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD33" s="5">
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="5">
         <v>30</v>
       </c>
-      <c r="AE33" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="25">
+      <c r="AF33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:33">
       <c r="A34">
         <v>52000031</v>
       </c>
@@ -8463,7 +8573,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="4">
-        <f>IF(AND(U34&gt;=13,U34&lt;=16),5,IF(AND(U34&gt;=9,U34&lt;=12),4,IF(AND(U34&gt;=5,U34&lt;=8),3,IF(AND(U34&gt;=1,U34&lt;=4),2,IF(AND(U34&gt;=-3,U34&lt;=0),1,IF(AND(U34&gt;=-5,U34&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I34" s="4">
@@ -8503,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="10">
-        <f>J34+K34-100+L34+ SUM(N34:T34)*5+IF(ISNUMBER(Y34),Y34,0)+X34</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V34" s="8">
@@ -8528,20 +8638,21 @@
       <c r="AB34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC34" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD34" s="5">
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE34" s="5">
         <v>29</v>
       </c>
-      <c r="AE34" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="25">
+      <c r="AF34" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:33">
       <c r="A35">
         <v>52000032</v>
       </c>
@@ -8564,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <f>IF(AND(U35&gt;=13,U35&lt;=16),5,IF(AND(U35&gt;=9,U35&lt;=12),4,IF(AND(U35&gt;=5,U35&lt;=8),3,IF(AND(U35&gt;=1,U35&lt;=4),2,IF(AND(U35&gt;=-3,U35&lt;=0),1,IF(AND(U35&gt;=-5,U35&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I35" s="15">
@@ -8604,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="18">
-        <f>J35+K35-100+L35+ SUM(N35:T35)*5+IF(ISNUMBER(Y35),Y35,0)+X35</f>
+        <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="V35" s="8">
@@ -8625,20 +8736,21 @@
       <c r="AB35" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC35" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD35" s="17">
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="17">
         <v>32</v>
       </c>
-      <c r="AE35" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="25">
+      <c r="AF35" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:33">
       <c r="A36">
         <v>52000033</v>
       </c>
@@ -8661,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="4">
-        <f>IF(AND(U36&gt;=13,U36&lt;=16),5,IF(AND(U36&gt;=9,U36&lt;=12),4,IF(AND(U36&gt;=5,U36&lt;=8),3,IF(AND(U36&gt;=1,U36&lt;=4),2,IF(AND(U36&gt;=-3,U36&lt;=0),1,IF(AND(U36&gt;=-5,U36&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H36:H67" si="2">IF(AND(U36&gt;=13,U36&lt;=16),5,IF(AND(U36&gt;=9,U36&lt;=12),4,IF(AND(U36&gt;=5,U36&lt;=8),3,IF(AND(U36&gt;=1,U36&lt;=4),2,IF(AND(U36&gt;=-3,U36&lt;=0),1,IF(AND(U36&gt;=-5,U36&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I36" s="4">
@@ -8701,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="10">
-        <f>J36+K36-100+L36+ SUM(N36:T36)*5+IF(ISNUMBER(Y36),Y36,0)+X36</f>
+        <f t="shared" ref="U36:U67" si="3">J36+K36-100+L36+ SUM(N36:T36)*5+IF(ISNUMBER(Y36),Y36,0)+X36</f>
         <v>-103</v>
       </c>
       <c r="V36" s="8">
@@ -8722,20 +8834,21 @@
       <c r="AB36" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="AC36" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD36" s="5">
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE36" s="5">
         <v>33</v>
       </c>
-      <c r="AE36" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="25">
+      <c r="AF36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:33">
       <c r="A37">
         <v>52000034</v>
       </c>
@@ -8758,7 +8871,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="4">
-        <f>IF(AND(U37&gt;=13,U37&lt;=16),5,IF(AND(U37&gt;=9,U37&lt;=12),4,IF(AND(U37&gt;=5,U37&lt;=8),3,IF(AND(U37&gt;=1,U37&lt;=4),2,IF(AND(U37&gt;=-3,U37&lt;=0),1,IF(AND(U37&gt;=-5,U37&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I37" s="4">
@@ -8798,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="10">
-        <f>J37+K37-100+L37+ SUM(N37:T37)*5+IF(ISNUMBER(Y37),Y37,0)+X37</f>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V37" s="8">
@@ -8819,20 +8932,21 @@
       <c r="AB37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC37" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD37" s="5">
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="5">
         <v>34</v>
       </c>
-      <c r="AE37" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="25">
+      <c r="AF37" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:33">
       <c r="A38">
         <v>52000035</v>
       </c>
@@ -8855,7 +8969,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="4">
-        <f>IF(AND(U38&gt;=13,U38&lt;=16),5,IF(AND(U38&gt;=9,U38&lt;=12),4,IF(AND(U38&gt;=5,U38&lt;=8),3,IF(AND(U38&gt;=1,U38&lt;=4),2,IF(AND(U38&gt;=-3,U38&lt;=0),1,IF(AND(U38&gt;=-5,U38&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I38" s="4">
@@ -8895,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="10">
-        <f>J38+K38-100+L38+ SUM(N38:T38)*5+IF(ISNUMBER(Y38),Y38,0)+X38</f>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V38" s="8">
@@ -8916,20 +9030,21 @@
       <c r="AB38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AC38" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD38" s="5">
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE38" s="5">
         <v>35</v>
       </c>
-      <c r="AE38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="25">
+      <c r="AF38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:33">
       <c r="A39">
         <v>52000036</v>
       </c>
@@ -8952,7 +9067,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="4">
-        <f>IF(AND(U39&gt;=13,U39&lt;=16),5,IF(AND(U39&gt;=9,U39&lt;=12),4,IF(AND(U39&gt;=5,U39&lt;=8),3,IF(AND(U39&gt;=1,U39&lt;=4),2,IF(AND(U39&gt;=-3,U39&lt;=0),1,IF(AND(U39&gt;=-5,U39&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I39" s="4">
@@ -8992,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="10">
-        <f>J39+K39-100+L39+ SUM(N39:T39)*5+IF(ISNUMBER(Y39),Y39,0)+X39</f>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V39" s="8">
@@ -9013,20 +9128,21 @@
       <c r="AB39" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AC39" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD39" s="5">
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE39" s="5">
         <v>36</v>
       </c>
-      <c r="AE39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="25">
+      <c r="AF39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:33">
       <c r="A40">
         <v>52000037</v>
       </c>
@@ -9049,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <f>IF(AND(U40&gt;=13,U40&lt;=16),5,IF(AND(U40&gt;=9,U40&lt;=12),4,IF(AND(U40&gt;=5,U40&lt;=8),3,IF(AND(U40&gt;=1,U40&lt;=4),2,IF(AND(U40&gt;=-3,U40&lt;=0),1,IF(AND(U40&gt;=-5,U40&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I40" s="4">
@@ -9089,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="10">
-        <f>J40+K40-100+L40+ SUM(N40:T40)*5+IF(ISNUMBER(Y40),Y40,0)+X40</f>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V40" s="8">
@@ -9110,20 +9226,21 @@
       <c r="AB40" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="AC40" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD40" s="5">
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE40" s="5">
         <v>37</v>
       </c>
-      <c r="AE40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="25">
+      <c r="AF40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:33">
       <c r="A41">
         <v>52000038</v>
       </c>
@@ -9146,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <f>IF(AND(U41&gt;=13,U41&lt;=16),5,IF(AND(U41&gt;=9,U41&lt;=12),4,IF(AND(U41&gt;=5,U41&lt;=8),3,IF(AND(U41&gt;=1,U41&lt;=4),2,IF(AND(U41&gt;=-3,U41&lt;=0),1,IF(AND(U41&gt;=-5,U41&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I41" s="4">
@@ -9186,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="10">
-        <f>J41+K41-100+L41+ SUM(N41:T41)*5+IF(ISNUMBER(Y41),Y41,0)+X41</f>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V41" s="8">
@@ -9207,20 +9324,21 @@
       <c r="AB41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC41" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD41" s="5">
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="5">
         <v>38</v>
       </c>
-      <c r="AE41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="25">
+      <c r="AF41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:33">
       <c r="A42">
         <v>52000039</v>
       </c>
@@ -9243,7 +9361,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="4">
-        <f>IF(AND(U42&gt;=13,U42&lt;=16),5,IF(AND(U42&gt;=9,U42&lt;=12),4,IF(AND(U42&gt;=5,U42&lt;=8),3,IF(AND(U42&gt;=1,U42&lt;=4),2,IF(AND(U42&gt;=-3,U42&lt;=0),1,IF(AND(U42&gt;=-5,U42&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I42" s="4">
@@ -9283,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="10">
-        <f>J42+K42-100+L42+ SUM(N42:T42)*5+IF(ISNUMBER(Y42),Y42,0)+X42</f>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V42" s="8">
@@ -9304,20 +9422,21 @@
       <c r="AB42" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="AC42" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD42" s="5">
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="5">
         <v>39</v>
       </c>
-      <c r="AE42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="25">
+      <c r="AF42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:33">
       <c r="A43">
         <v>52000040</v>
       </c>
@@ -9340,7 +9459,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="4">
-        <f>IF(AND(U43&gt;=13,U43&lt;=16),5,IF(AND(U43&gt;=9,U43&lt;=12),4,IF(AND(U43&gt;=5,U43&lt;=8),3,IF(AND(U43&gt;=1,U43&lt;=4),2,IF(AND(U43&gt;=-3,U43&lt;=0),1,IF(AND(U43&gt;=-5,U43&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I43" s="4">
@@ -9380,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="10">
-        <f>J43+K43-100+L43+ SUM(N43:T43)*5+IF(ISNUMBER(Y43),Y43,0)+X43</f>
+        <f t="shared" si="3"/>
         <v>-103</v>
       </c>
       <c r="V43" s="8">
@@ -9401,20 +9520,21 @@
       <c r="AB43" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="AC43" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD43" s="5">
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="5">
         <v>40</v>
       </c>
-      <c r="AE43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="25">
+      <c r="AF43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:33">
       <c r="A44">
         <v>52000041</v>
       </c>
@@ -9437,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f>IF(AND(U44&gt;=13,U44&lt;=16),5,IF(AND(U44&gt;=9,U44&lt;=12),4,IF(AND(U44&gt;=5,U44&lt;=8),3,IF(AND(U44&gt;=1,U44&lt;=4),2,IF(AND(U44&gt;=-3,U44&lt;=0),1,IF(AND(U44&gt;=-5,U44&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I44" s="4">
@@ -9477,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="10">
-        <f>J44+K44-100+L44+ SUM(N44:T44)*5+IF(ISNUMBER(Y44),Y44,0)+X44</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="V44" s="8">
@@ -9498,20 +9618,21 @@
       <c r="AB44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC44" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD44" s="5">
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="5">
         <v>41</v>
       </c>
-      <c r="AE44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="25">
+      <c r="AF44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:33">
       <c r="A45">
         <v>52000042</v>
       </c>
@@ -9534,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f>IF(AND(U45&gt;=13,U45&lt;=16),5,IF(AND(U45&gt;=9,U45&lt;=12),4,IF(AND(U45&gt;=5,U45&lt;=8),3,IF(AND(U45&gt;=1,U45&lt;=4),2,IF(AND(U45&gt;=-3,U45&lt;=0),1,IF(AND(U45&gt;=-5,U45&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I45" s="4">
@@ -9574,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="10">
-        <f>J45+K45-100+L45+ SUM(N45:T45)*5+IF(ISNUMBER(Y45),Y45,0)+X45</f>
+        <f t="shared" si="3"/>
         <v>-29</v>
       </c>
       <c r="V45" s="8">
@@ -9595,20 +9716,21 @@
       <c r="AB45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AC45" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD45" s="5">
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE45" s="5">
         <v>42</v>
       </c>
-      <c r="AE45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="25">
+      <c r="AF45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:33">
       <c r="A46">
         <v>52000043</v>
       </c>
@@ -9631,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f>IF(AND(U46&gt;=13,U46&lt;=16),5,IF(AND(U46&gt;=9,U46&lt;=12),4,IF(AND(U46&gt;=5,U46&lt;=8),3,IF(AND(U46&gt;=1,U46&lt;=4),2,IF(AND(U46&gt;=-3,U46&lt;=0),1,IF(AND(U46&gt;=-5,U46&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I46" s="4">
@@ -9671,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="10">
-        <f>J46+K46-100+L46+ SUM(N46:T46)*5+IF(ISNUMBER(Y46),Y46,0)+X46</f>
+        <f t="shared" si="3"/>
         <v>-48</v>
       </c>
       <c r="V46" s="8">
@@ -9692,20 +9814,21 @@
       <c r="AB46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC46" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD46" s="5">
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="5">
         <v>43</v>
       </c>
-      <c r="AE46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="25">
+      <c r="AF46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:33">
       <c r="A47">
         <v>52000044</v>
       </c>
@@ -9728,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f>IF(AND(U47&gt;=13,U47&lt;=16),5,IF(AND(U47&gt;=9,U47&lt;=12),4,IF(AND(U47&gt;=5,U47&lt;=8),3,IF(AND(U47&gt;=1,U47&lt;=4),2,IF(AND(U47&gt;=-3,U47&lt;=0),1,IF(AND(U47&gt;=-5,U47&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I47" s="4">
@@ -9768,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="10">
-        <f>J47+K47-100+L47+ SUM(N47:T47)*5+IF(ISNUMBER(Y47),Y47,0)+X47</f>
+        <f t="shared" si="3"/>
         <v>-28</v>
       </c>
       <c r="V47" s="8">
@@ -9789,20 +9912,21 @@
       <c r="AB47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC47" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD47" s="5">
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="5">
         <v>44</v>
       </c>
-      <c r="AE47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="25">
+      <c r="AF47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:33">
       <c r="A48">
         <v>52000045</v>
       </c>
@@ -9825,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f>IF(AND(U48&gt;=13,U48&lt;=16),5,IF(AND(U48&gt;=9,U48&lt;=12),4,IF(AND(U48&gt;=5,U48&lt;=8),3,IF(AND(U48&gt;=1,U48&lt;=4),2,IF(AND(U48&gt;=-3,U48&lt;=0),1,IF(AND(U48&gt;=-5,U48&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I48" s="4">
@@ -9865,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="10">
-        <f>J48+K48-100+L48+ SUM(N48:T48)*5+IF(ISNUMBER(Y48),Y48,0)+X48</f>
+        <f t="shared" si="3"/>
         <v>-98</v>
       </c>
       <c r="V48" s="8">
@@ -9890,20 +10014,21 @@
       <c r="AB48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC48" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD48" s="5">
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="5">
         <v>45</v>
       </c>
-      <c r="AE48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="25">
+      <c r="AF48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:33">
       <c r="A49">
         <v>52000046</v>
       </c>
@@ -9926,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f>IF(AND(U49&gt;=13,U49&lt;=16),5,IF(AND(U49&gt;=9,U49&lt;=12),4,IF(AND(U49&gt;=5,U49&lt;=8),3,IF(AND(U49&gt;=1,U49&lt;=4),2,IF(AND(U49&gt;=-3,U49&lt;=0),1,IF(AND(U49&gt;=-5,U49&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I49" s="4">
@@ -9966,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="10">
-        <f>J49+K49-100+L49+ SUM(N49:T49)*5+IF(ISNUMBER(Y49),Y49,0)+X49</f>
+        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="V49" s="8">
@@ -9987,20 +10112,21 @@
       <c r="AB49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC49" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD49" s="5">
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="5">
         <v>46</v>
       </c>
-      <c r="AE49" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="25">
+      <c r="AF49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:33">
       <c r="A50">
         <v>52000047</v>
       </c>
@@ -10023,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f>IF(AND(U50&gt;=13,U50&lt;=16),5,IF(AND(U50&gt;=9,U50&lt;=12),4,IF(AND(U50&gt;=5,U50&lt;=8),3,IF(AND(U50&gt;=1,U50&lt;=4),2,IF(AND(U50&gt;=-3,U50&lt;=0),1,IF(AND(U50&gt;=-5,U50&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I50" s="4">
@@ -10063,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="10">
-        <f>J50+K50-100+L50+ SUM(N50:T50)*5+IF(ISNUMBER(Y50),Y50,0)+X50</f>
+        <f t="shared" si="3"/>
         <v>-41</v>
       </c>
       <c r="V50" s="8">
@@ -10084,20 +10210,21 @@
       <c r="AB50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC50" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD50" s="5">
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE50" s="5">
         <v>47</v>
       </c>
-      <c r="AE50" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="25">
+      <c r="AF50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:33">
       <c r="A51">
         <v>52000048</v>
       </c>
@@ -10120,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f>IF(AND(U51&gt;=13,U51&lt;=16),5,IF(AND(U51&gt;=9,U51&lt;=12),4,IF(AND(U51&gt;=5,U51&lt;=8),3,IF(AND(U51&gt;=1,U51&lt;=4),2,IF(AND(U51&gt;=-3,U51&lt;=0),1,IF(AND(U51&gt;=-5,U51&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I51" s="4">
@@ -10160,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="10">
-        <f>J51+K51-100+L51+ SUM(N51:T51)*5+IF(ISNUMBER(Y51),Y51,0)+X51</f>
+        <f t="shared" si="3"/>
         <v>-101</v>
       </c>
       <c r="V51" s="8">
@@ -10185,20 +10312,21 @@
       <c r="AB51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AC51" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD51" s="5">
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE51" s="5">
         <v>48</v>
       </c>
-      <c r="AE51" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="25">
+      <c r="AF51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:33">
       <c r="A52">
         <v>52000049</v>
       </c>
@@ -10221,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f>IF(AND(U52&gt;=13,U52&lt;=16),5,IF(AND(U52&gt;=9,U52&lt;=12),4,IF(AND(U52&gt;=5,U52&lt;=8),3,IF(AND(U52&gt;=1,U52&lt;=4),2,IF(AND(U52&gt;=-3,U52&lt;=0),1,IF(AND(U52&gt;=-5,U52&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I52" s="4">
@@ -10261,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="10">
-        <f>J52+K52-100+L52+ SUM(N52:T52)*5+IF(ISNUMBER(Y52),Y52,0)+X52</f>
+        <f t="shared" si="3"/>
         <v>-102</v>
       </c>
       <c r="V52" s="8">
@@ -10282,20 +10410,21 @@
       <c r="AB52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC52" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD52" s="5">
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="5">
         <v>49</v>
       </c>
-      <c r="AE52" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="25">
+      <c r="AF52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:33">
       <c r="A53">
         <v>52000050</v>
       </c>
@@ -10318,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f>IF(AND(U53&gt;=13,U53&lt;=16),5,IF(AND(U53&gt;=9,U53&lt;=12),4,IF(AND(U53&gt;=5,U53&lt;=8),3,IF(AND(U53&gt;=1,U53&lt;=4),2,IF(AND(U53&gt;=-3,U53&lt;=0),1,IF(AND(U53&gt;=-5,U53&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I53" s="4">
@@ -10358,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="10">
-        <f>J53+K53-100+L53+ SUM(N53:T53)*5+IF(ISNUMBER(Y53),Y53,0)+X53</f>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="V53" s="8">
@@ -10379,20 +10508,21 @@
       <c r="AB53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC53" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD53" s="5">
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE53" s="5">
         <v>50</v>
       </c>
-      <c r="AE53" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="25">
+      <c r="AF53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:33">
       <c r="A54">
         <v>52000051</v>
       </c>
@@ -10415,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f>IF(AND(U54&gt;=13,U54&lt;=16),5,IF(AND(U54&gt;=9,U54&lt;=12),4,IF(AND(U54&gt;=5,U54&lt;=8),3,IF(AND(U54&gt;=1,U54&lt;=4),2,IF(AND(U54&gt;=-3,U54&lt;=0),1,IF(AND(U54&gt;=-5,U54&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I54" s="4">
@@ -10455,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="10">
-        <f>J54+K54-100+L54+ SUM(N54:T54)*5+IF(ISNUMBER(Y54),Y54,0)+X54</f>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="V54" s="8">
@@ -10476,20 +10606,21 @@
       <c r="AB54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC54" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD54" s="5">
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE54" s="5">
         <v>51</v>
       </c>
-      <c r="AE54" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="25">
+      <c r="AF54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:33">
       <c r="A55">
         <v>52000052</v>
       </c>
@@ -10512,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f>IF(AND(U55&gt;=13,U55&lt;=16),5,IF(AND(U55&gt;=9,U55&lt;=12),4,IF(AND(U55&gt;=5,U55&lt;=8),3,IF(AND(U55&gt;=1,U55&lt;=4),2,IF(AND(U55&gt;=-3,U55&lt;=0),1,IF(AND(U55&gt;=-5,U55&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I55" s="4">
@@ -10552,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="10">
-        <f>J55+K55-100+L55+ SUM(N55:T55)*5+IF(ISNUMBER(Y55),Y55,0)+X55</f>
+        <f t="shared" si="3"/>
         <v>-28</v>
       </c>
       <c r="V55" s="8">
@@ -10573,20 +10704,21 @@
       <c r="AB55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC55" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD55" s="5">
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE55" s="5">
         <v>52</v>
       </c>
-      <c r="AE55" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="25">
+      <c r="AF55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:33">
       <c r="A56">
         <v>52000053</v>
       </c>
@@ -10609,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f>IF(AND(U56&gt;=13,U56&lt;=16),5,IF(AND(U56&gt;=9,U56&lt;=12),4,IF(AND(U56&gt;=5,U56&lt;=8),3,IF(AND(U56&gt;=1,U56&lt;=4),2,IF(AND(U56&gt;=-3,U56&lt;=0),1,IF(AND(U56&gt;=-5,U56&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I56" s="4">
@@ -10649,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="10">
-        <f>J56+K56-100+L56+ SUM(N56:T56)*5+IF(ISNUMBER(Y56),Y56,0)+X56</f>
+        <f t="shared" si="3"/>
         <v>-46</v>
       </c>
       <c r="V56" s="8">
@@ -10670,20 +10802,21 @@
       <c r="AB56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC56" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD56" s="5">
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE56" s="5">
         <v>53</v>
       </c>
-      <c r="AE56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="25">
+      <c r="AF56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:33">
       <c r="A57">
         <v>52000054</v>
       </c>
@@ -10706,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <f>IF(AND(U57&gt;=13,U57&lt;=16),5,IF(AND(U57&gt;=9,U57&lt;=12),4,IF(AND(U57&gt;=5,U57&lt;=8),3,IF(AND(U57&gt;=1,U57&lt;=4),2,IF(AND(U57&gt;=-3,U57&lt;=0),1,IF(AND(U57&gt;=-5,U57&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I57" s="4">
@@ -10746,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="10">
-        <f>J57+K57-100+L57+ SUM(N57:T57)*5+IF(ISNUMBER(Y57),Y57,0)+X57</f>
+        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="V57" s="8">
@@ -10767,20 +10900,21 @@
       <c r="AB57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC57" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD57" s="5">
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="5">
         <v>54</v>
       </c>
-      <c r="AE57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="25">
+      <c r="AF57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:33">
       <c r="A58">
         <v>52000055</v>
       </c>
@@ -10803,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f>IF(AND(U58&gt;=13,U58&lt;=16),5,IF(AND(U58&gt;=9,U58&lt;=12),4,IF(AND(U58&gt;=5,U58&lt;=8),3,IF(AND(U58&gt;=1,U58&lt;=4),2,IF(AND(U58&gt;=-3,U58&lt;=0),1,IF(AND(U58&gt;=-5,U58&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I58" s="4">
@@ -10843,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="10">
-        <f>J58+K58-100+L58+ SUM(N58:T58)*5+IF(ISNUMBER(Y58),Y58,0)+X58</f>
+        <f t="shared" si="3"/>
         <v>-49</v>
       </c>
       <c r="V58" s="8">
@@ -10864,20 +10998,21 @@
       <c r="AB58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC58" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD58" s="5">
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="5">
         <v>55</v>
       </c>
-      <c r="AE58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="25">
+      <c r="AF58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:33">
       <c r="A59">
         <v>52000056</v>
       </c>
@@ -10900,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f>IF(AND(U59&gt;=13,U59&lt;=16),5,IF(AND(U59&gt;=9,U59&lt;=12),4,IF(AND(U59&gt;=5,U59&lt;=8),3,IF(AND(U59&gt;=1,U59&lt;=4),2,IF(AND(U59&gt;=-3,U59&lt;=0),1,IF(AND(U59&gt;=-5,U59&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I59" s="4">
@@ -10940,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="10">
-        <f>J59+K59-100+L59+ SUM(N59:T59)*5+IF(ISNUMBER(Y59),Y59,0)+X59</f>
+        <f t="shared" si="3"/>
         <v>-74</v>
       </c>
       <c r="V59" s="8">
@@ -10961,20 +11096,21 @@
       <c r="AB59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC59" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD59" s="5">
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="5">
         <v>56</v>
       </c>
-      <c r="AE59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="25">
+      <c r="AF59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:33">
       <c r="A60">
         <v>52000057</v>
       </c>
@@ -10997,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <f>IF(AND(U60&gt;=13,U60&lt;=16),5,IF(AND(U60&gt;=9,U60&lt;=12),4,IF(AND(U60&gt;=5,U60&lt;=8),3,IF(AND(U60&gt;=1,U60&lt;=4),2,IF(AND(U60&gt;=-3,U60&lt;=0),1,IF(AND(U60&gt;=-5,U60&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I60" s="4">
@@ -11037,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="10">
-        <f>J60+K60-100+L60+ SUM(N60:T60)*5+IF(ISNUMBER(Y60),Y60,0)+X60</f>
+        <f t="shared" si="3"/>
         <v>-33</v>
       </c>
       <c r="V60" s="8">
@@ -11058,20 +11194,21 @@
       <c r="AB60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC60" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD60" s="5">
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="5">
         <v>57</v>
       </c>
-      <c r="AE60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="25">
+      <c r="AF60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:33">
       <c r="A61">
         <v>52000058</v>
       </c>
@@ -11094,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <f>IF(AND(U61&gt;=13,U61&lt;=16),5,IF(AND(U61&gt;=9,U61&lt;=12),4,IF(AND(U61&gt;=5,U61&lt;=8),3,IF(AND(U61&gt;=1,U61&lt;=4),2,IF(AND(U61&gt;=-3,U61&lt;=0),1,IF(AND(U61&gt;=-5,U61&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I61" s="4">
@@ -11134,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="10">
-        <f>J61+K61-100+L61+ SUM(N61:T61)*5+IF(ISNUMBER(Y61),Y61,0)+X61</f>
+        <f t="shared" si="3"/>
         <v>-98</v>
       </c>
       <c r="V61" s="8">
@@ -11159,20 +11296,21 @@
       <c r="AB61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC61" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD61" s="5">
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE61" s="5">
         <v>58</v>
       </c>
-      <c r="AE61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="25">
+      <c r="AF61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:33">
       <c r="A62">
         <v>52000059</v>
       </c>
@@ -11195,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f>IF(AND(U62&gt;=13,U62&lt;=16),5,IF(AND(U62&gt;=9,U62&lt;=12),4,IF(AND(U62&gt;=5,U62&lt;=8),3,IF(AND(U62&gt;=1,U62&lt;=4),2,IF(AND(U62&gt;=-3,U62&lt;=0),1,IF(AND(U62&gt;=-5,U62&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I62" s="4">
@@ -11235,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="10">
-        <f>J62+K62-100+L62+ SUM(N62:T62)*5+IF(ISNUMBER(Y62),Y62,0)+X62</f>
+        <f t="shared" si="3"/>
         <v>-74</v>
       </c>
       <c r="V62" s="8">
@@ -11260,20 +11398,21 @@
       <c r="AB62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC62" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD62" s="5">
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE62" s="5">
         <v>59</v>
       </c>
-      <c r="AE62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="25">
+      <c r="AF62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32">
+    <row r="63" spans="1:33">
       <c r="A63">
         <v>52000060</v>
       </c>
@@ -11296,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <f>IF(AND(U63&gt;=13,U63&lt;=16),5,IF(AND(U63&gt;=9,U63&lt;=12),4,IF(AND(U63&gt;=5,U63&lt;=8),3,IF(AND(U63&gt;=1,U63&lt;=4),2,IF(AND(U63&gt;=-3,U63&lt;=0),1,IF(AND(U63&gt;=-5,U63&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I63" s="4">
@@ -11336,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="10">
-        <f>J63+K63-100+L63+ SUM(N63:T63)*5+IF(ISNUMBER(Y63),Y63,0)+X63</f>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="V63" s="8">
@@ -11361,20 +11500,21 @@
       <c r="AB63" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC63" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD63" s="5">
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE63" s="5">
         <v>60</v>
       </c>
-      <c r="AE63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="25">
+      <c r="AF63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:33">
       <c r="A64">
         <v>52000061</v>
       </c>
@@ -11397,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <f>IF(AND(U64&gt;=13,U64&lt;=16),5,IF(AND(U64&gt;=9,U64&lt;=12),4,IF(AND(U64&gt;=5,U64&lt;=8),3,IF(AND(U64&gt;=1,U64&lt;=4),2,IF(AND(U64&gt;=-3,U64&lt;=0),1,IF(AND(U64&gt;=-5,U64&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I64" s="4">
@@ -11437,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="10">
-        <f>J64+K64-100+L64+ SUM(N64:T64)*5+IF(ISNUMBER(Y64),Y64,0)+X64</f>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="V64" s="8">
@@ -11462,20 +11602,21 @@
       <c r="AB64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC64" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD64" s="5">
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE64" s="5">
         <v>61</v>
       </c>
-      <c r="AE64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="25">
+      <c r="AF64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32">
+    <row r="65" spans="1:33">
       <c r="A65">
         <v>52000062</v>
       </c>
@@ -11498,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <f>IF(AND(U65&gt;=13,U65&lt;=16),5,IF(AND(U65&gt;=9,U65&lt;=12),4,IF(AND(U65&gt;=5,U65&lt;=8),3,IF(AND(U65&gt;=1,U65&lt;=4),2,IF(AND(U65&gt;=-3,U65&lt;=0),1,IF(AND(U65&gt;=-5,U65&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I65" s="4">
@@ -11538,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="10">
-        <f>J65+K65-100+L65+ SUM(N65:T65)*5+IF(ISNUMBER(Y65),Y65,0)+X65</f>
+        <f t="shared" si="3"/>
         <v>-98</v>
       </c>
       <c r="V65" s="8">
@@ -11563,20 +11704,21 @@
       <c r="AB65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC65" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD65" s="5">
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE65" s="5">
         <v>62</v>
       </c>
-      <c r="AE65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="25">
+      <c r="AF65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32">
+    <row r="66" spans="1:33">
       <c r="A66">
         <v>52000063</v>
       </c>
@@ -11599,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <f>IF(AND(U66&gt;=13,U66&lt;=16),5,IF(AND(U66&gt;=9,U66&lt;=12),4,IF(AND(U66&gt;=5,U66&lt;=8),3,IF(AND(U66&gt;=1,U66&lt;=4),2,IF(AND(U66&gt;=-3,U66&lt;=0),1,IF(AND(U66&gt;=-5,U66&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I66" s="4">
@@ -11639,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="10">
-        <f>J66+K66-100+L66+ SUM(N66:T66)*5+IF(ISNUMBER(Y66),Y66,0)+X66</f>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="V66" s="8">
@@ -11659,20 +11801,21 @@
       <c r="AB66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC66" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD66" s="5">
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE66" s="5">
         <v>63</v>
       </c>
-      <c r="AE66" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="25">
+      <c r="AF66" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:33">
       <c r="A67">
         <v>52000064</v>
       </c>
@@ -11695,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <f>IF(AND(U67&gt;=13,U67&lt;=16),5,IF(AND(U67&gt;=9,U67&lt;=12),4,IF(AND(U67&gt;=5,U67&lt;=8),3,IF(AND(U67&gt;=1,U67&lt;=4),2,IF(AND(U67&gt;=-3,U67&lt;=0),1,IF(AND(U67&gt;=-5,U67&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I67" s="4">
@@ -11735,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="10">
-        <f>J67+K67-100+L67+ SUM(N67:T67)*5+IF(ISNUMBER(Y67),Y67,0)+X67</f>
+        <f t="shared" si="3"/>
         <v>-23</v>
       </c>
       <c r="V67" s="8">
@@ -11760,20 +11903,21 @@
       <c r="AB67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC67" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD67" s="5">
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE67" s="5">
         <v>64</v>
       </c>
-      <c r="AE67" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="25">
+      <c r="AF67" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:33">
       <c r="A68">
         <v>52000065</v>
       </c>
@@ -11796,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f>IF(AND(U68&gt;=13,U68&lt;=16),5,IF(AND(U68&gt;=9,U68&lt;=12),4,IF(AND(U68&gt;=5,U68&lt;=8),3,IF(AND(U68&gt;=1,U68&lt;=4),2,IF(AND(U68&gt;=-3,U68&lt;=0),1,IF(AND(U68&gt;=-5,U68&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H68:H99" si="4">IF(AND(U68&gt;=13,U68&lt;=16),5,IF(AND(U68&gt;=9,U68&lt;=12),4,IF(AND(U68&gt;=5,U68&lt;=8),3,IF(AND(U68&gt;=1,U68&lt;=4),2,IF(AND(U68&gt;=-3,U68&lt;=0),1,IF(AND(U68&gt;=-5,U68&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I68" s="4">
@@ -11836,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="10">
-        <f>J68+K68-100+L68+ SUM(N68:T68)*5+IF(ISNUMBER(Y68),Y68,0)+X68</f>
+        <f t="shared" ref="U68:U99" si="5">J68+K68-100+L68+ SUM(N68:T68)*5+IF(ISNUMBER(Y68),Y68,0)+X68</f>
         <v>-34</v>
       </c>
       <c r="V68" s="8">
@@ -11861,20 +12005,21 @@
       <c r="AB68" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AC68" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD68" s="5">
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE68" s="5">
         <v>65</v>
       </c>
-      <c r="AE68" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="25">
+      <c r="AF68" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32">
+    <row r="69" spans="1:33">
       <c r="A69">
         <v>52000066</v>
       </c>
@@ -11897,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f>IF(AND(U69&gt;=13,U69&lt;=16),5,IF(AND(U69&gt;=9,U69&lt;=12),4,IF(AND(U69&gt;=5,U69&lt;=8),3,IF(AND(U69&gt;=1,U69&lt;=4),2,IF(AND(U69&gt;=-3,U69&lt;=0),1,IF(AND(U69&gt;=-5,U69&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I69" s="4">
@@ -11937,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="10">
-        <f>J69+K69-100+L69+ SUM(N69:T69)*5+IF(ISNUMBER(Y69),Y69,0)+X69</f>
+        <f t="shared" si="5"/>
         <v>-11</v>
       </c>
       <c r="V69" s="8">
@@ -11958,20 +12103,21 @@
       <c r="AB69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AC69" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD69" s="5">
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE69" s="5">
         <v>66</v>
       </c>
-      <c r="AE69" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="25">
+      <c r="AF69" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:33">
       <c r="A70">
         <v>52000067</v>
       </c>
@@ -11994,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <f>IF(AND(U70&gt;=13,U70&lt;=16),5,IF(AND(U70&gt;=9,U70&lt;=12),4,IF(AND(U70&gt;=5,U70&lt;=8),3,IF(AND(U70&gt;=1,U70&lt;=4),2,IF(AND(U70&gt;=-3,U70&lt;=0),1,IF(AND(U70&gt;=-5,U70&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I70" s="4">
@@ -12034,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="10">
-        <f>J70+K70-100+L70+ SUM(N70:T70)*5+IF(ISNUMBER(Y70),Y70,0)+X70</f>
+        <f t="shared" si="5"/>
         <v>-11</v>
       </c>
       <c r="V70" s="8">
@@ -12055,20 +12201,21 @@
       <c r="AB70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC70" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD70" s="5">
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE70" s="5">
         <v>67</v>
       </c>
-      <c r="AE70" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="25">
+      <c r="AF70" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:33">
       <c r="A71">
         <v>52000068</v>
       </c>
@@ -12091,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f>IF(AND(U71&gt;=13,U71&lt;=16),5,IF(AND(U71&gt;=9,U71&lt;=12),4,IF(AND(U71&gt;=5,U71&lt;=8),3,IF(AND(U71&gt;=1,U71&lt;=4),2,IF(AND(U71&gt;=-3,U71&lt;=0),1,IF(AND(U71&gt;=-5,U71&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I71" s="4">
@@ -12131,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="10">
-        <f>J71+K71-100+L71+ SUM(N71:T71)*5+IF(ISNUMBER(Y71),Y71,0)+X71</f>
+        <f t="shared" si="5"/>
         <v>-16</v>
       </c>
       <c r="V71" s="8">
@@ -12152,20 +12299,21 @@
       <c r="AB71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC71" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD71" s="5">
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE71" s="5">
         <v>68</v>
       </c>
-      <c r="AE71" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF71" s="25">
+      <c r="AF71" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:33">
       <c r="A72">
         <v>52000069</v>
       </c>
@@ -12188,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <f>IF(AND(U72&gt;=13,U72&lt;=16),5,IF(AND(U72&gt;=9,U72&lt;=12),4,IF(AND(U72&gt;=5,U72&lt;=8),3,IF(AND(U72&gt;=1,U72&lt;=4),2,IF(AND(U72&gt;=-3,U72&lt;=0),1,IF(AND(U72&gt;=-5,U72&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I72" s="4">
@@ -12228,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="10">
-        <f>J72+K72-100+L72+ SUM(N72:T72)*5+IF(ISNUMBER(Y72),Y72,0)+X72</f>
+        <f t="shared" si="5"/>
         <v>-97</v>
       </c>
       <c r="V72" s="8">
@@ -12253,20 +12401,21 @@
       <c r="AB72" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC72" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD72" s="5">
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE72" s="5">
         <v>69</v>
       </c>
-      <c r="AE72" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="25">
+      <c r="AF72" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:33">
       <c r="A73">
         <v>52000070</v>
       </c>
@@ -12289,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <f>IF(AND(U73&gt;=13,U73&lt;=16),5,IF(AND(U73&gt;=9,U73&lt;=12),4,IF(AND(U73&gt;=5,U73&lt;=8),3,IF(AND(U73&gt;=1,U73&lt;=4),2,IF(AND(U73&gt;=-3,U73&lt;=0),1,IF(AND(U73&gt;=-5,U73&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I73" s="4">
@@ -12329,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="10">
-        <f>J73+K73-100+L73+ SUM(N73:T73)*5+IF(ISNUMBER(Y73),Y73,0)+X73</f>
+        <f t="shared" si="5"/>
         <v>-32</v>
       </c>
       <c r="V73" s="8">
@@ -12354,20 +12503,21 @@
       <c r="AB73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC73" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD73" s="5">
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE73" s="5">
         <v>70</v>
       </c>
-      <c r="AE73" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="25">
+      <c r="AF73" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:33">
       <c r="A74">
         <v>52000071</v>
       </c>
@@ -12390,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <f>IF(AND(U74&gt;=13,U74&lt;=16),5,IF(AND(U74&gt;=9,U74&lt;=12),4,IF(AND(U74&gt;=5,U74&lt;=8),3,IF(AND(U74&gt;=1,U74&lt;=4),2,IF(AND(U74&gt;=-3,U74&lt;=0),1,IF(AND(U74&gt;=-5,U74&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I74" s="4">
@@ -12430,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="10">
-        <f>J74+K74-100+L74+ SUM(N74:T74)*5+IF(ISNUMBER(Y74),Y74,0)+X74</f>
+        <f t="shared" si="5"/>
         <v>-63</v>
       </c>
       <c r="V74" s="8">
@@ -12455,20 +12605,21 @@
       <c r="AB74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC74" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD74" s="5">
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE74" s="5">
         <v>71</v>
       </c>
-      <c r="AE74" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF74" s="25">
+      <c r="AF74" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:33">
       <c r="A75">
         <v>52000072</v>
       </c>
@@ -12491,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <f>IF(AND(U75&gt;=13,U75&lt;=16),5,IF(AND(U75&gt;=9,U75&lt;=12),4,IF(AND(U75&gt;=5,U75&lt;=8),3,IF(AND(U75&gt;=1,U75&lt;=4),2,IF(AND(U75&gt;=-3,U75&lt;=0),1,IF(AND(U75&gt;=-5,U75&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I75" s="4">
@@ -12531,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="10">
-        <f>J75+K75-100+L75+ SUM(N75:T75)*5+IF(ISNUMBER(Y75),Y75,0)+X75</f>
+        <f t="shared" si="5"/>
         <v>-54</v>
       </c>
       <c r="V75" s="8">
@@ -12556,20 +12707,21 @@
       <c r="AB75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC75" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD75" s="5">
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE75" s="5">
         <v>72</v>
       </c>
-      <c r="AE75" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF75" s="25">
+      <c r="AF75" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:33">
       <c r="A76">
         <v>52000073</v>
       </c>
@@ -12592,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <f>IF(AND(U76&gt;=13,U76&lt;=16),5,IF(AND(U76&gt;=9,U76&lt;=12),4,IF(AND(U76&gt;=5,U76&lt;=8),3,IF(AND(U76&gt;=1,U76&lt;=4),2,IF(AND(U76&gt;=-3,U76&lt;=0),1,IF(AND(U76&gt;=-5,U76&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I76" s="4">
@@ -12632,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="10">
-        <f>J76+K76-100+L76+ SUM(N76:T76)*5+IF(ISNUMBER(Y76),Y76,0)+X76</f>
+        <f t="shared" si="5"/>
         <v>-13</v>
       </c>
       <c r="V76" s="8">
@@ -12657,20 +12809,21 @@
       <c r="AB76" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC76" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD76" s="5">
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE76" s="5">
         <v>73</v>
       </c>
-      <c r="AE76" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF76" s="25">
+      <c r="AF76" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:33">
       <c r="A77">
         <v>52000074</v>
       </c>
@@ -12693,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <f>IF(AND(U77&gt;=13,U77&lt;=16),5,IF(AND(U77&gt;=9,U77&lt;=12),4,IF(AND(U77&gt;=5,U77&lt;=8),3,IF(AND(U77&gt;=1,U77&lt;=4),2,IF(AND(U77&gt;=-3,U77&lt;=0),1,IF(AND(U77&gt;=-5,U77&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I77" s="4">
@@ -12733,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="10">
-        <f>J77+K77-100+L77+ SUM(N77:T77)*5+IF(ISNUMBER(Y77),Y77,0)+X77</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="V77" s="8">
@@ -12758,20 +12911,21 @@
       <c r="AB77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC77" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD77" s="5">
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE77" s="5">
         <v>74</v>
       </c>
-      <c r="AE77" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF77" s="25">
+      <c r="AF77" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:33">
       <c r="A78">
         <v>52000075</v>
       </c>
@@ -12794,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <f>IF(AND(U78&gt;=13,U78&lt;=16),5,IF(AND(U78&gt;=9,U78&lt;=12),4,IF(AND(U78&gt;=5,U78&lt;=8),3,IF(AND(U78&gt;=1,U78&lt;=4),2,IF(AND(U78&gt;=-3,U78&lt;=0),1,IF(AND(U78&gt;=-5,U78&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I78" s="4">
@@ -12834,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="10">
-        <f>J78+K78-100+L78+ SUM(N78:T78)*5+IF(ISNUMBER(Y78),Y78,0)+X78</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="V78" s="8">
@@ -12859,20 +13013,21 @@
       <c r="AB78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC78" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD78" s="5">
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE78" s="5">
         <v>75</v>
       </c>
-      <c r="AE78" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF78" s="25">
+      <c r="AF78" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:32">
+    <row r="79" spans="1:33">
       <c r="A79">
         <v>52000076</v>
       </c>
@@ -12895,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <f>IF(AND(U79&gt;=13,U79&lt;=16),5,IF(AND(U79&gt;=9,U79&lt;=12),4,IF(AND(U79&gt;=5,U79&lt;=8),3,IF(AND(U79&gt;=1,U79&lt;=4),2,IF(AND(U79&gt;=-3,U79&lt;=0),1,IF(AND(U79&gt;=-5,U79&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I79" s="4">
@@ -12935,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="10">
-        <f>J79+K79-100+L79+ SUM(N79:T79)*5+IF(ISNUMBER(Y79),Y79,0)+X79</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="V79" s="8">
@@ -12960,20 +13115,21 @@
       <c r="AB79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC79" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD79" s="5">
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE79" s="5">
         <v>76</v>
       </c>
-      <c r="AE79" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF79" s="25">
+      <c r="AF79" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:33">
       <c r="A80">
         <v>52000077</v>
       </c>
@@ -12996,7 +13152,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <f>IF(AND(U80&gt;=13,U80&lt;=16),5,IF(AND(U80&gt;=9,U80&lt;=12),4,IF(AND(U80&gt;=5,U80&lt;=8),3,IF(AND(U80&gt;=1,U80&lt;=4),2,IF(AND(U80&gt;=-3,U80&lt;=0),1,IF(AND(U80&gt;=-5,U80&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I80" s="4">
@@ -13036,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="10">
-        <f>J80+K80-100+L80+ SUM(N80:T80)*5+IF(ISNUMBER(Y80),Y80,0)+X80</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="V80" s="8">
@@ -13061,20 +13217,21 @@
       <c r="AB80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC80" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD80" s="5">
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE80" s="5">
         <v>77</v>
       </c>
-      <c r="AE80" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF80" s="25">
+      <c r="AF80" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32">
+    <row r="81" spans="1:33">
       <c r="A81">
         <v>52000078</v>
       </c>
@@ -13097,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <f>IF(AND(U81&gt;=13,U81&lt;=16),5,IF(AND(U81&gt;=9,U81&lt;=12),4,IF(AND(U81&gt;=5,U81&lt;=8),3,IF(AND(U81&gt;=1,U81&lt;=4),2,IF(AND(U81&gt;=-3,U81&lt;=0),1,IF(AND(U81&gt;=-5,U81&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I81" s="4">
@@ -13137,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="10">
-        <f>J81+K81-100+L81+ SUM(N81:T81)*5+IF(ISNUMBER(Y81),Y81,0)+X81</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="V81" s="8">
@@ -13162,20 +13319,21 @@
       <c r="AB81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC81" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD81" s="5">
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE81" s="5">
         <v>78</v>
       </c>
-      <c r="AE81" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF81" s="25">
+      <c r="AF81" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32">
+    <row r="82" spans="1:33">
       <c r="A82">
         <v>52000079</v>
       </c>
@@ -13198,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <f>IF(AND(U82&gt;=13,U82&lt;=16),5,IF(AND(U82&gt;=9,U82&lt;=12),4,IF(AND(U82&gt;=5,U82&lt;=8),3,IF(AND(U82&gt;=1,U82&lt;=4),2,IF(AND(U82&gt;=-3,U82&lt;=0),1,IF(AND(U82&gt;=-5,U82&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I82" s="4">
@@ -13238,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="U82" s="10">
-        <f>J82+K82-100+L82+ SUM(N82:T82)*5+IF(ISNUMBER(Y82),Y82,0)+X82</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="V82" s="8">
@@ -13263,20 +13421,21 @@
       <c r="AB82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC82" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD82" s="5">
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE82" s="5">
         <v>79</v>
       </c>
-      <c r="AE82" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF82" s="25">
+      <c r="AF82" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32">
+    <row r="83" spans="1:33">
       <c r="A83">
         <v>52000080</v>
       </c>
@@ -13299,7 +13458,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <f>IF(AND(U83&gt;=13,U83&lt;=16),5,IF(AND(U83&gt;=9,U83&lt;=12),4,IF(AND(U83&gt;=5,U83&lt;=8),3,IF(AND(U83&gt;=1,U83&lt;=4),2,IF(AND(U83&gt;=-3,U83&lt;=0),1,IF(AND(U83&gt;=-5,U83&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I83" s="4">
@@ -13339,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="10">
-        <f>J83+K83-100+L83+ SUM(N83:T83)*5+IF(ISNUMBER(Y83),Y83,0)+X83</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="V83" s="8">
@@ -13364,20 +13523,21 @@
       <c r="AB83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC83" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD83" s="5">
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="5">
         <v>80</v>
       </c>
-      <c r="AE83" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF83" s="25">
+      <c r="AF83" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32">
+    <row r="84" spans="1:33">
       <c r="A84">
         <v>52000081</v>
       </c>
@@ -13400,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <f>IF(AND(U84&gt;=13,U84&lt;=16),5,IF(AND(U84&gt;=9,U84&lt;=12),4,IF(AND(U84&gt;=5,U84&lt;=8),3,IF(AND(U84&gt;=1,U84&lt;=4),2,IF(AND(U84&gt;=-3,U84&lt;=0),1,IF(AND(U84&gt;=-5,U84&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I84" s="4">
@@ -13440,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="10">
-        <f>J84+K84-100+L84+ SUM(N84:T84)*5+IF(ISNUMBER(Y84),Y84,0)+X84</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="V84" s="8">
@@ -13465,20 +13625,21 @@
       <c r="AB84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC84" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD84" s="5">
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE84" s="5">
         <v>81</v>
       </c>
-      <c r="AE84" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF84" s="25">
+      <c r="AF84" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32">
+    <row r="85" spans="1:33">
       <c r="A85">
         <v>52000082</v>
       </c>
@@ -13501,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="4">
-        <f>IF(AND(U85&gt;=13,U85&lt;=16),5,IF(AND(U85&gt;=9,U85&lt;=12),4,IF(AND(U85&gt;=5,U85&lt;=8),3,IF(AND(U85&gt;=1,U85&lt;=4),2,IF(AND(U85&gt;=-3,U85&lt;=0),1,IF(AND(U85&gt;=-5,U85&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I85" s="4">
@@ -13541,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="10">
-        <f>J85+K85-100+L85+ SUM(N85:T85)*5+IF(ISNUMBER(Y85),Y85,0)+X85</f>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V85" s="8">
@@ -13562,20 +13723,21 @@
       <c r="AB85" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="AC85" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD85" s="5">
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE85" s="5">
         <v>82</v>
       </c>
-      <c r="AE85" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF85" s="25">
+      <c r="AF85" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32">
+    <row r="86" spans="1:33">
       <c r="A86">
         <v>52000083</v>
       </c>
@@ -13598,7 +13760,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="4">
-        <f>IF(AND(U86&gt;=13,U86&lt;=16),5,IF(AND(U86&gt;=9,U86&lt;=12),4,IF(AND(U86&gt;=5,U86&lt;=8),3,IF(AND(U86&gt;=1,U86&lt;=4),2,IF(AND(U86&gt;=-3,U86&lt;=0),1,IF(AND(U86&gt;=-5,U86&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I86" s="4">
@@ -13638,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="10">
-        <f>J86+K86-100+L86+ SUM(N86:T86)*5+IF(ISNUMBER(Y86),Y86,0)+X86</f>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V86" s="8">
@@ -13659,20 +13821,21 @@
       <c r="AB86" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC86" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD86" s="5">
+      <c r="AC86" s="4"/>
+      <c r="AD86" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE86" s="5">
         <v>83</v>
       </c>
-      <c r="AE86" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF86" s="25">
+      <c r="AF86" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:32">
+    <row r="87" spans="1:33">
       <c r="A87">
         <v>52000084</v>
       </c>
@@ -13695,7 +13858,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="4">
-        <f>IF(AND(U87&gt;=13,U87&lt;=16),5,IF(AND(U87&gt;=9,U87&lt;=12),4,IF(AND(U87&gt;=5,U87&lt;=8),3,IF(AND(U87&gt;=1,U87&lt;=4),2,IF(AND(U87&gt;=-3,U87&lt;=0),1,IF(AND(U87&gt;=-5,U87&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I87" s="4">
@@ -13735,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="10">
-        <f>J87+K87-100+L87+ SUM(N87:T87)*5+IF(ISNUMBER(Y87),Y87,0)+X87</f>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V87" s="8">
@@ -13756,20 +13919,21 @@
       <c r="AB87" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AC87" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD87" s="5">
+      <c r="AC87" s="4"/>
+      <c r="AD87" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE87" s="5">
         <v>84</v>
       </c>
-      <c r="AE87" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF87" s="25">
+      <c r="AF87" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:32">
+    <row r="88" spans="1:33">
       <c r="A88">
         <v>52000085</v>
       </c>
@@ -13792,7 +13956,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="4">
-        <f>IF(AND(U88&gt;=13,U88&lt;=16),5,IF(AND(U88&gt;=9,U88&lt;=12),4,IF(AND(U88&gt;=5,U88&lt;=8),3,IF(AND(U88&gt;=1,U88&lt;=4),2,IF(AND(U88&gt;=-3,U88&lt;=0),1,IF(AND(U88&gt;=-5,U88&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I88" s="4">
@@ -13832,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="10">
-        <f>J88+K88-100+L88+ SUM(N88:T88)*5+IF(ISNUMBER(Y88),Y88,0)+X88</f>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V88" s="8">
@@ -13853,20 +14017,21 @@
       <c r="AB88" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AC88" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD88" s="5">
+      <c r="AC88" s="4"/>
+      <c r="AD88" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE88" s="5">
         <v>85</v>
       </c>
-      <c r="AE88" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF88" s="25">
+      <c r="AF88" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:32">
+    <row r="89" spans="1:33">
       <c r="A89">
         <v>52000086</v>
       </c>
@@ -13889,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="4">
-        <f>IF(AND(U89&gt;=13,U89&lt;=16),5,IF(AND(U89&gt;=9,U89&lt;=12),4,IF(AND(U89&gt;=5,U89&lt;=8),3,IF(AND(U89&gt;=1,U89&lt;=4),2,IF(AND(U89&gt;=-3,U89&lt;=0),1,IF(AND(U89&gt;=-5,U89&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I89" s="4">
@@ -13929,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="10">
-        <f>J89+K89-100+L89+ SUM(N89:T89)*5+IF(ISNUMBER(Y89),Y89,0)+X89</f>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V89" s="8">
@@ -13950,20 +14115,21 @@
       <c r="AB89" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="AC89" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD89" s="5">
+      <c r="AC89" s="4"/>
+      <c r="AD89" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE89" s="5">
         <v>86</v>
       </c>
-      <c r="AE89" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF89" s="25">
+      <c r="AF89" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32">
+    <row r="90" spans="1:33">
       <c r="A90">
         <v>52000087</v>
       </c>
@@ -13986,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="4">
-        <f>IF(AND(U90&gt;=13,U90&lt;=16),5,IF(AND(U90&gt;=9,U90&lt;=12),4,IF(AND(U90&gt;=5,U90&lt;=8),3,IF(AND(U90&gt;=1,U90&lt;=4),2,IF(AND(U90&gt;=-3,U90&lt;=0),1,IF(AND(U90&gt;=-5,U90&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I90" s="4">
@@ -14026,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="10">
-        <f>J90+K90-100+L90+ SUM(N90:T90)*5+IF(ISNUMBER(Y90),Y90,0)+X90</f>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V90" s="8">
@@ -14047,20 +14213,21 @@
       <c r="AB90" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC90" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD90" s="5">
+      <c r="AC90" s="4"/>
+      <c r="AD90" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE90" s="5">
         <v>87</v>
       </c>
-      <c r="AE90" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF90" s="25">
+      <c r="AF90" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:32">
+    <row r="91" spans="1:33">
       <c r="A91">
         <v>52000088</v>
       </c>
@@ -14083,7 +14250,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="4">
-        <f>IF(AND(U91&gt;=13,U91&lt;=16),5,IF(AND(U91&gt;=9,U91&lt;=12),4,IF(AND(U91&gt;=5,U91&lt;=8),3,IF(AND(U91&gt;=1,U91&lt;=4),2,IF(AND(U91&gt;=-3,U91&lt;=0),1,IF(AND(U91&gt;=-5,U91&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I91" s="4">
@@ -14123,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="10">
-        <f>J91+K91-100+L91+ SUM(N91:T91)*5+IF(ISNUMBER(Y91),Y91,0)+X91</f>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V91" s="8">
@@ -14144,20 +14311,21 @@
       <c r="AB91" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="AC91" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD91" s="5">
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="5">
         <v>88</v>
       </c>
-      <c r="AE91" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF91" s="25">
+      <c r="AF91" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:32">
+    <row r="92" spans="1:33">
       <c r="A92">
         <v>52000089</v>
       </c>
@@ -14180,7 +14348,7 @@
         <v>6</v>
       </c>
       <c r="H92" s="4">
-        <f>IF(AND(U92&gt;=13,U92&lt;=16),5,IF(AND(U92&gt;=9,U92&lt;=12),4,IF(AND(U92&gt;=5,U92&lt;=8),3,IF(AND(U92&gt;=1,U92&lt;=4),2,IF(AND(U92&gt;=-3,U92&lt;=0),1,IF(AND(U92&gt;=-5,U92&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I92" s="4">
@@ -14220,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="10">
-        <f>J92+K92-100+L92+ SUM(N92:T92)*5+IF(ISNUMBER(Y92),Y92,0)+X92</f>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V92" s="8">
@@ -14241,20 +14409,21 @@
       <c r="AB92" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="AC92" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD92" s="5">
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE92" s="5">
         <v>89</v>
       </c>
-      <c r="AE92" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF92" s="25">
+      <c r="AF92" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:32">
+    <row r="93" spans="1:33">
       <c r="A93">
         <v>52000090</v>
       </c>
@@ -14277,7 +14446,7 @@
         <v>3</v>
       </c>
       <c r="H93" s="4">
-        <f>IF(AND(U93&gt;=13,U93&lt;=16),5,IF(AND(U93&gt;=9,U93&lt;=12),4,IF(AND(U93&gt;=5,U93&lt;=8),3,IF(AND(U93&gt;=1,U93&lt;=4),2,IF(AND(U93&gt;=-3,U93&lt;=0),1,IF(AND(U93&gt;=-5,U93&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I93" s="4">
@@ -14317,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="U93" s="10">
-        <f>J93+K93-100+L93+ SUM(N93:T93)*5+IF(ISNUMBER(Y93),Y93,0)+X93</f>
+        <f t="shared" si="5"/>
         <v>-97</v>
       </c>
       <c r="V93" s="8">
@@ -14338,20 +14507,21 @@
       <c r="AB93" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AC93" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD93" s="5">
+      <c r="AC93" s="4"/>
+      <c r="AD93" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE93" s="5">
         <v>90</v>
       </c>
-      <c r="AE93" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF93" s="25">
+      <c r="AF93" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:32">
+    <row r="94" spans="1:33">
       <c r="A94">
         <v>52000091</v>
       </c>
@@ -14374,7 +14544,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <f>IF(AND(U94&gt;=13,U94&lt;=16),5,IF(AND(U94&gt;=9,U94&lt;=12),4,IF(AND(U94&gt;=5,U94&lt;=8),3,IF(AND(U94&gt;=1,U94&lt;=4),2,IF(AND(U94&gt;=-3,U94&lt;=0),1,IF(AND(U94&gt;=-5,U94&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I94" s="4">
@@ -14414,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="10">
-        <f>J94+K94-100+L94+ SUM(N94:T94)*5+IF(ISNUMBER(Y94),Y94,0)+X94</f>
+        <f t="shared" si="5"/>
         <v>-101</v>
       </c>
       <c r="V94" s="8">
@@ -14439,20 +14609,21 @@
       <c r="AB94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC94" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD94" s="5">
+      <c r="AC94" s="4"/>
+      <c r="AD94" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE94" s="5">
         <v>91</v>
       </c>
-      <c r="AE94" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF94" s="25">
+      <c r="AF94" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:32">
+    <row r="95" spans="1:33">
       <c r="A95">
         <v>52000092</v>
       </c>
@@ -14475,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <f>IF(AND(U95&gt;=13,U95&lt;=16),5,IF(AND(U95&gt;=9,U95&lt;=12),4,IF(AND(U95&gt;=5,U95&lt;=8),3,IF(AND(U95&gt;=1,U95&lt;=4),2,IF(AND(U95&gt;=-3,U95&lt;=0),1,IF(AND(U95&gt;=-5,U95&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I95" s="4">
@@ -14515,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="U95" s="10">
-        <f>J95+K95-100+L95+ SUM(N95:T95)*5+IF(ISNUMBER(Y95),Y95,0)+X95</f>
+        <f t="shared" si="5"/>
         <v>-99</v>
       </c>
       <c r="V95" s="8">
@@ -14540,20 +14711,21 @@
       <c r="AB95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC95" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD95" s="5">
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE95" s="5">
         <v>92</v>
       </c>
-      <c r="AE95" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF95" s="25">
+      <c r="AF95" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:32">
+    <row r="96" spans="1:33">
       <c r="A96">
         <v>52000093</v>
       </c>
@@ -14576,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <f>IF(AND(U96&gt;=13,U96&lt;=16),5,IF(AND(U96&gt;=9,U96&lt;=12),4,IF(AND(U96&gt;=5,U96&lt;=8),3,IF(AND(U96&gt;=1,U96&lt;=4),2,IF(AND(U96&gt;=-3,U96&lt;=0),1,IF(AND(U96&gt;=-5,U96&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I96" s="4">
@@ -14616,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="10">
-        <f>J96+K96-100+L96+ SUM(N96:T96)*5+IF(ISNUMBER(Y96),Y96,0)+X96</f>
+        <f t="shared" si="5"/>
         <v>-12</v>
       </c>
       <c r="V96" s="8">
@@ -14637,20 +14809,21 @@
       <c r="AB96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC96" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD96" s="5">
+      <c r="AC96" s="4"/>
+      <c r="AD96" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE96" s="5">
         <v>93</v>
       </c>
-      <c r="AE96" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF96" s="25">
+      <c r="AF96" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:32">
+    <row r="97" spans="1:33">
       <c r="A97">
         <v>52000094</v>
       </c>
@@ -14673,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <f>IF(AND(U97&gt;=13,U97&lt;=16),5,IF(AND(U97&gt;=9,U97&lt;=12),4,IF(AND(U97&gt;=5,U97&lt;=8),3,IF(AND(U97&gt;=1,U97&lt;=4),2,IF(AND(U97&gt;=-3,U97&lt;=0),1,IF(AND(U97&gt;=-5,U97&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I97" s="4">
@@ -14713,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="U97" s="10">
-        <f>J97+K97-100+L97+ SUM(N97:T97)*5+IF(ISNUMBER(Y97),Y97,0)+X97</f>
+        <f t="shared" si="5"/>
         <v>-100</v>
       </c>
       <c r="V97" s="8">
@@ -14738,20 +14911,21 @@
       <c r="AB97" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC97" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD97" s="5">
+      <c r="AC97" s="4"/>
+      <c r="AD97" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE97" s="5">
         <v>94</v>
       </c>
-      <c r="AE97" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF97" s="25">
+      <c r="AF97" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:32">
+    <row r="98" spans="1:33">
       <c r="A98">
         <v>52000095</v>
       </c>
@@ -14774,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <f>IF(AND(U98&gt;=13,U98&lt;=16),5,IF(AND(U98&gt;=9,U98&lt;=12),4,IF(AND(U98&gt;=5,U98&lt;=8),3,IF(AND(U98&gt;=1,U98&lt;=4),2,IF(AND(U98&gt;=-3,U98&lt;=0),1,IF(AND(U98&gt;=-5,U98&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I98" s="4">
@@ -14814,7 +14988,7 @@
         <v>0</v>
       </c>
       <c r="U98" s="10">
-        <f>J98+K98-100+L98+ SUM(N98:T98)*5+IF(ISNUMBER(Y98),Y98,0)+X98</f>
+        <f t="shared" si="5"/>
         <v>-100</v>
       </c>
       <c r="V98" s="8">
@@ -14839,20 +15013,21 @@
       <c r="AB98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC98" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD98" s="5">
+      <c r="AC98" s="4"/>
+      <c r="AD98" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE98" s="5">
         <v>95</v>
       </c>
-      <c r="AE98" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF98" s="25">
+      <c r="AF98" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:32">
+    <row r="99" spans="1:33">
       <c r="A99">
         <v>52000096</v>
       </c>
@@ -14875,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f>IF(AND(U99&gt;=13,U99&lt;=16),5,IF(AND(U99&gt;=9,U99&lt;=12),4,IF(AND(U99&gt;=5,U99&lt;=8),3,IF(AND(U99&gt;=1,U99&lt;=4),2,IF(AND(U99&gt;=-3,U99&lt;=0),1,IF(AND(U99&gt;=-5,U99&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I99" s="4">
@@ -14915,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="10">
-        <f>J99+K99-100+L99+ SUM(N99:T99)*5+IF(ISNUMBER(Y99),Y99,0)+X99</f>
+        <f t="shared" si="5"/>
         <v>-62</v>
       </c>
       <c r="V99" s="8">
@@ -14940,20 +15115,21 @@
       <c r="AB99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC99" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD99" s="5">
+      <c r="AC99" s="4"/>
+      <c r="AD99" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE99" s="5">
         <v>96</v>
       </c>
-      <c r="AE99" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="25">
+      <c r="AF99" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:32">
+    <row r="100" spans="1:33">
       <c r="A100">
         <v>52000097</v>
       </c>
@@ -14976,7 +15152,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f>IF(AND(U100&gt;=13,U100&lt;=16),5,IF(AND(U100&gt;=9,U100&lt;=12),4,IF(AND(U100&gt;=5,U100&lt;=8),3,IF(AND(U100&gt;=1,U100&lt;=4),2,IF(AND(U100&gt;=-3,U100&lt;=0),1,IF(AND(U100&gt;=-5,U100&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H100:H126" si="6">IF(AND(U100&gt;=13,U100&lt;=16),5,IF(AND(U100&gt;=9,U100&lt;=12),4,IF(AND(U100&gt;=5,U100&lt;=8),3,IF(AND(U100&gt;=1,U100&lt;=4),2,IF(AND(U100&gt;=-3,U100&lt;=0),1,IF(AND(U100&gt;=-5,U100&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I100" s="4">
@@ -15016,7 +15192,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="10">
-        <f>J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
+        <f t="shared" ref="U100:U131" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
         <v>-73</v>
       </c>
       <c r="V100" s="8">
@@ -15041,20 +15217,21 @@
       <c r="AB100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC100" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD100" s="5">
+      <c r="AC100" s="4"/>
+      <c r="AD100" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE100" s="5">
         <v>97</v>
       </c>
-      <c r="AE100" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF100" s="25">
+      <c r="AF100" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:32">
+    <row r="101" spans="1:33">
       <c r="A101">
         <v>52000098</v>
       </c>
@@ -15077,7 +15254,7 @@
         <v>6</v>
       </c>
       <c r="H101" s="4">
-        <f>IF(AND(U101&gt;=13,U101&lt;=16),5,IF(AND(U101&gt;=9,U101&lt;=12),4,IF(AND(U101&gt;=5,U101&lt;=8),3,IF(AND(U101&gt;=1,U101&lt;=4),2,IF(AND(U101&gt;=-3,U101&lt;=0),1,IF(AND(U101&gt;=-5,U101&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I101" s="4">
@@ -15117,7 +15294,7 @@
         <v>0</v>
       </c>
       <c r="U101" s="10">
-        <f>J101+K101-100+L101+ SUM(N101:T101)*5+IF(ISNUMBER(Y101),Y101,0)+X101</f>
+        <f t="shared" si="7"/>
         <v>-100</v>
       </c>
       <c r="V101" s="8">
@@ -15142,20 +15319,21 @@
       <c r="AB101" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="AC101" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD101" s="5">
+      <c r="AC101" s="4"/>
+      <c r="AD101" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE101" s="5">
         <v>98</v>
       </c>
-      <c r="AE101" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="25">
+      <c r="AF101" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:32">
+    <row r="102" spans="1:33">
       <c r="A102">
         <v>52000099</v>
       </c>
@@ -15178,7 +15356,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f>IF(AND(U102&gt;=13,U102&lt;=16),5,IF(AND(U102&gt;=9,U102&lt;=12),4,IF(AND(U102&gt;=5,U102&lt;=8),3,IF(AND(U102&gt;=1,U102&lt;=4),2,IF(AND(U102&gt;=-3,U102&lt;=0),1,IF(AND(U102&gt;=-5,U102&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I102" s="4">
@@ -15218,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="U102" s="10">
-        <f>J102+K102-100+L102+ SUM(N102:T102)*5+IF(ISNUMBER(Y102),Y102,0)+X102</f>
+        <f t="shared" si="7"/>
         <v>-60</v>
       </c>
       <c r="V102" s="8">
@@ -15243,20 +15421,21 @@
       <c r="AB102" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC102" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD102" s="5">
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE102" s="5">
         <v>99</v>
       </c>
-      <c r="AE102" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF102" s="25">
+      <c r="AF102" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:32">
+    <row r="103" spans="1:33">
       <c r="A103">
         <v>52000100</v>
       </c>
@@ -15279,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f>IF(AND(U103&gt;=13,U103&lt;=16),5,IF(AND(U103&gt;=9,U103&lt;=12),4,IF(AND(U103&gt;=5,U103&lt;=8),3,IF(AND(U103&gt;=1,U103&lt;=4),2,IF(AND(U103&gt;=-3,U103&lt;=0),1,IF(AND(U103&gt;=-5,U103&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I103" s="4">
@@ -15319,7 +15498,7 @@
         <v>0</v>
       </c>
       <c r="U103" s="10">
-        <f>J103+K103-100+L103+ SUM(N103:T103)*5+IF(ISNUMBER(Y103),Y103,0)+X103</f>
+        <f t="shared" si="7"/>
         <v>-99</v>
       </c>
       <c r="V103" s="8">
@@ -15344,20 +15523,21 @@
       <c r="AB103" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AC103" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD103" s="5">
+      <c r="AC103" s="4"/>
+      <c r="AD103" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE103" s="5">
         <v>100</v>
       </c>
-      <c r="AE103" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF103" s="25">
+      <c r="AF103" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:32">
+    <row r="104" spans="1:33">
       <c r="A104">
         <v>52000101</v>
       </c>
@@ -15380,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f>IF(AND(U104&gt;=13,U104&lt;=16),5,IF(AND(U104&gt;=9,U104&lt;=12),4,IF(AND(U104&gt;=5,U104&lt;=8),3,IF(AND(U104&gt;=1,U104&lt;=4),2,IF(AND(U104&gt;=-3,U104&lt;=0),1,IF(AND(U104&gt;=-5,U104&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I104" s="4">
@@ -15420,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="10">
-        <f>J104+K104-100+L104+ SUM(N104:T104)*5+IF(ISNUMBER(Y104),Y104,0)+X104</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="V104" s="8">
@@ -15445,20 +15625,21 @@
       <c r="AB104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC104" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD104" s="5">
+      <c r="AC104" s="4"/>
+      <c r="AD104" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE104" s="5">
         <v>101</v>
       </c>
-      <c r="AE104" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF104" s="25">
+      <c r="AF104" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:32">
+    <row r="105" spans="1:33">
       <c r="A105">
         <v>52000102</v>
       </c>
@@ -15481,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f>IF(AND(U105&gt;=13,U105&lt;=16),5,IF(AND(U105&gt;=9,U105&lt;=12),4,IF(AND(U105&gt;=5,U105&lt;=8),3,IF(AND(U105&gt;=1,U105&lt;=4),2,IF(AND(U105&gt;=-3,U105&lt;=0),1,IF(AND(U105&gt;=-5,U105&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I105" s="4">
@@ -15521,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="U105" s="10">
-        <f>J105+K105-100+L105+ SUM(N105:T105)*5+IF(ISNUMBER(Y105),Y105,0)+X105</f>
+        <f t="shared" si="7"/>
         <v>-99</v>
       </c>
       <c r="V105" s="8">
@@ -15546,20 +15727,21 @@
       <c r="AB105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC105" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD105" s="5">
+      <c r="AC105" s="4"/>
+      <c r="AD105" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE105" s="5">
         <v>102</v>
       </c>
-      <c r="AE105" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF105" s="25">
+      <c r="AF105" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:32">
+    <row r="106" spans="1:33">
       <c r="A106">
         <v>52000103</v>
       </c>
@@ -15582,7 +15764,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f>IF(AND(U106&gt;=13,U106&lt;=16),5,IF(AND(U106&gt;=9,U106&lt;=12),4,IF(AND(U106&gt;=5,U106&lt;=8),3,IF(AND(U106&gt;=1,U106&lt;=4),2,IF(AND(U106&gt;=-3,U106&lt;=0),1,IF(AND(U106&gt;=-5,U106&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I106" s="4">
@@ -15622,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="10">
-        <f>J106+K106-100+L106+ SUM(N106:T106)*5+IF(ISNUMBER(Y106),Y106,0)+X106</f>
+        <f t="shared" si="7"/>
         <v>-98</v>
       </c>
       <c r="V106" s="8">
@@ -15643,20 +15825,21 @@
       <c r="AB106" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC106" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD106" s="5">
+      <c r="AC106" s="4"/>
+      <c r="AD106" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE106" s="5">
         <v>103</v>
       </c>
-      <c r="AE106" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF106" s="25">
+      <c r="AF106" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:32">
+    <row r="107" spans="1:33">
       <c r="A107">
         <v>52000104</v>
       </c>
@@ -15679,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f>IF(AND(U107&gt;=13,U107&lt;=16),5,IF(AND(U107&gt;=9,U107&lt;=12),4,IF(AND(U107&gt;=5,U107&lt;=8),3,IF(AND(U107&gt;=1,U107&lt;=4),2,IF(AND(U107&gt;=-3,U107&lt;=0),1,IF(AND(U107&gt;=-5,U107&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I107" s="4">
@@ -15719,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="U107" s="10">
-        <f>J107+K107-100+L107+ SUM(N107:T107)*5+IF(ISNUMBER(Y107),Y107,0)+X107</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="V107" s="8">
@@ -15744,20 +15927,21 @@
       <c r="AB107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC107" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD107" s="5">
+      <c r="AC107" s="4"/>
+      <c r="AD107" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE107" s="5">
         <v>104</v>
       </c>
-      <c r="AE107" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF107" s="25">
+      <c r="AF107" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:32">
+    <row r="108" spans="1:33">
       <c r="A108">
         <v>52000105</v>
       </c>
@@ -15780,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f>IF(AND(U108&gt;=13,U108&lt;=16),5,IF(AND(U108&gt;=9,U108&lt;=12),4,IF(AND(U108&gt;=5,U108&lt;=8),3,IF(AND(U108&gt;=1,U108&lt;=4),2,IF(AND(U108&gt;=-3,U108&lt;=0),1,IF(AND(U108&gt;=-5,U108&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I108" s="4">
@@ -15820,7 +16004,7 @@
         <v>0</v>
       </c>
       <c r="U108" s="10">
-        <f>J108+K108-100+L108+ SUM(N108:T108)*5+IF(ISNUMBER(Y108),Y108,0)+X108</f>
+        <f t="shared" si="7"/>
         <v>-67</v>
       </c>
       <c r="V108" s="8">
@@ -15845,20 +16029,21 @@
       <c r="AB108" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC108" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD108" s="5">
+      <c r="AC108" s="4"/>
+      <c r="AD108" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE108" s="5">
         <v>105</v>
       </c>
-      <c r="AE108" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF108" s="25">
+      <c r="AF108" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:32">
+    <row r="109" spans="1:33">
       <c r="A109">
         <v>52000106</v>
       </c>
@@ -15881,7 +16066,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f>IF(AND(U109&gt;=13,U109&lt;=16),5,IF(AND(U109&gt;=9,U109&lt;=12),4,IF(AND(U109&gt;=5,U109&lt;=8),3,IF(AND(U109&gt;=1,U109&lt;=4),2,IF(AND(U109&gt;=-3,U109&lt;=0),1,IF(AND(U109&gt;=-5,U109&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I109" s="4">
@@ -15921,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="U109" s="10">
-        <f>J109+K109-100+L109+ SUM(N109:T109)*5+IF(ISNUMBER(Y109),Y109,0)+X109</f>
+        <f t="shared" si="7"/>
         <v>-98</v>
       </c>
       <c r="V109" s="8">
@@ -15946,20 +16131,21 @@
       <c r="AB109" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC109" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD109" s="5">
+      <c r="AC109" s="4"/>
+      <c r="AD109" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE109" s="5">
         <v>106</v>
       </c>
-      <c r="AE109" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF109" s="25">
+      <c r="AF109" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:32">
+    <row r="110" spans="1:33">
       <c r="A110">
         <v>52000107</v>
       </c>
@@ -15982,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f>IF(AND(U110&gt;=13,U110&lt;=16),5,IF(AND(U110&gt;=9,U110&lt;=12),4,IF(AND(U110&gt;=5,U110&lt;=8),3,IF(AND(U110&gt;=1,U110&lt;=4),2,IF(AND(U110&gt;=-3,U110&lt;=0),1,IF(AND(U110&gt;=-5,U110&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I110" s="4">
@@ -16022,7 +16208,7 @@
         <v>0</v>
       </c>
       <c r="U110" s="10">
-        <f>J110+K110-100+L110+ SUM(N110:T110)*5+IF(ISNUMBER(Y110),Y110,0)+X110</f>
+        <f t="shared" si="7"/>
         <v>-47</v>
       </c>
       <c r="V110" s="8">
@@ -16047,20 +16233,21 @@
       <c r="AB110" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC110" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD110" s="5">
+      <c r="AC110" s="4"/>
+      <c r="AD110" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE110" s="5">
         <v>107</v>
       </c>
-      <c r="AE110" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF110" s="25">
+      <c r="AF110" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:32">
+    <row r="111" spans="1:33">
       <c r="A111">
         <v>52000108</v>
       </c>
@@ -16083,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f>IF(AND(U111&gt;=13,U111&lt;=16),5,IF(AND(U111&gt;=9,U111&lt;=12),4,IF(AND(U111&gt;=5,U111&lt;=8),3,IF(AND(U111&gt;=1,U111&lt;=4),2,IF(AND(U111&gt;=-3,U111&lt;=0),1,IF(AND(U111&gt;=-5,U111&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I111" s="4">
@@ -16123,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="10">
-        <f>J111+K111-100+L111+ SUM(N111:T111)*5+IF(ISNUMBER(Y111),Y111,0)+X111</f>
+        <f t="shared" si="7"/>
         <v>-27</v>
       </c>
       <c r="V111" s="8">
@@ -16148,20 +16335,21 @@
       <c r="AB111" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC111" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD111" s="5">
+      <c r="AC111" s="4"/>
+      <c r="AD111" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE111" s="5">
         <v>108</v>
       </c>
-      <c r="AE111" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF111" s="25">
+      <c r="AF111" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:32">
+    <row r="112" spans="1:33">
       <c r="A112">
         <v>52000109</v>
       </c>
@@ -16184,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f>IF(AND(U112&gt;=13,U112&lt;=16),5,IF(AND(U112&gt;=9,U112&lt;=12),4,IF(AND(U112&gt;=5,U112&lt;=8),3,IF(AND(U112&gt;=1,U112&lt;=4),2,IF(AND(U112&gt;=-3,U112&lt;=0),1,IF(AND(U112&gt;=-5,U112&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I112" s="4">
@@ -16224,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="10">
-        <f>J112+K112-100+L112+ SUM(N112:T112)*5+IF(ISNUMBER(Y112),Y112,0)+X112</f>
+        <f t="shared" si="7"/>
         <v>-99</v>
       </c>
       <c r="V112" s="8">
@@ -16249,20 +16437,21 @@
       <c r="AB112" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC112" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD112" s="5">
+      <c r="AC112" s="4"/>
+      <c r="AD112" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE112" s="5">
         <v>109</v>
       </c>
-      <c r="AE112" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF112" s="25">
+      <c r="AF112" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:32">
+    <row r="113" spans="1:33">
       <c r="A113">
         <v>52000110</v>
       </c>
@@ -16285,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f>IF(AND(U113&gt;=13,U113&lt;=16),5,IF(AND(U113&gt;=9,U113&lt;=12),4,IF(AND(U113&gt;=5,U113&lt;=8),3,IF(AND(U113&gt;=1,U113&lt;=4),2,IF(AND(U113&gt;=-3,U113&lt;=0),1,IF(AND(U113&gt;=-5,U113&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I113" s="4">
@@ -16325,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="U113" s="10">
-        <f>J113+K113-100+L113+ SUM(N113:T113)*5+IF(ISNUMBER(Y113),Y113,0)+X113</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="V113" s="8">
@@ -16350,20 +16539,21 @@
       <c r="AB113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC113" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD113" s="5">
+      <c r="AC113" s="4"/>
+      <c r="AD113" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE113" s="5">
         <v>110</v>
       </c>
-      <c r="AE113" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF113" s="25">
+      <c r="AF113" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:32">
+    <row r="114" spans="1:33">
       <c r="A114">
         <v>52000111</v>
       </c>
@@ -16386,7 +16576,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f>IF(AND(U114&gt;=13,U114&lt;=16),5,IF(AND(U114&gt;=9,U114&lt;=12),4,IF(AND(U114&gt;=5,U114&lt;=8),3,IF(AND(U114&gt;=1,U114&lt;=4),2,IF(AND(U114&gt;=-3,U114&lt;=0),1,IF(AND(U114&gt;=-5,U114&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I114" s="4">
@@ -16426,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="10">
-        <f>J114+K114-100+L114+ SUM(N114:T114)*5+IF(ISNUMBER(Y114),Y114,0)+X114</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V114" s="8">
@@ -16451,20 +16641,21 @@
       <c r="AB114" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC114" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD114" s="5">
+      <c r="AC114" s="4"/>
+      <c r="AD114" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE114" s="5">
         <v>111</v>
       </c>
-      <c r="AE114" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF114" s="25">
+      <c r="AF114" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG114" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:32">
+    <row r="115" spans="1:33">
       <c r="A115">
         <v>52000112</v>
       </c>
@@ -16487,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <f>IF(AND(U115&gt;=13,U115&lt;=16),5,IF(AND(U115&gt;=9,U115&lt;=12),4,IF(AND(U115&gt;=5,U115&lt;=8),3,IF(AND(U115&gt;=1,U115&lt;=4),2,IF(AND(U115&gt;=-3,U115&lt;=0),1,IF(AND(U115&gt;=-5,U115&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I115" s="4">
@@ -16527,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="U115" s="18">
-        <f>J115+K115-100+L115+ SUM(N115:T115)*5+IF(ISNUMBER(Y115),Y115,0)+X115</f>
+        <f t="shared" si="7"/>
         <v>-59</v>
       </c>
       <c r="V115" s="8">
@@ -16552,20 +16743,21 @@
       <c r="AB115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC115" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD115" s="5">
+      <c r="AC115" s="4"/>
+      <c r="AD115" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE115" s="5">
         <v>112</v>
       </c>
-      <c r="AE115" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF115" s="25">
+      <c r="AF115" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG115" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:32">
+    <row r="116" spans="1:33">
       <c r="A116">
         <v>52000113</v>
       </c>
@@ -16588,7 +16780,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="4">
-        <f>IF(AND(U116&gt;=13,U116&lt;=16),5,IF(AND(U116&gt;=9,U116&lt;=12),4,IF(AND(U116&gt;=5,U116&lt;=8),3,IF(AND(U116&gt;=1,U116&lt;=4),2,IF(AND(U116&gt;=-3,U116&lt;=0),1,IF(AND(U116&gt;=-5,U116&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I116" s="4">
@@ -16628,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="10">
-        <f>J116+K116-100+L116+ SUM(N116:T116)*5+IF(ISNUMBER(Y116),Y116,0)+X116</f>
+        <f t="shared" si="7"/>
         <v>-71</v>
       </c>
       <c r="V116" s="8">
@@ -16653,20 +16845,21 @@
       <c r="AB116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC116" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD116" s="5">
+      <c r="AC116" s="4"/>
+      <c r="AD116" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE116" s="5">
         <v>113</v>
       </c>
-      <c r="AE116" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF116" s="25">
+      <c r="AF116" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG116" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:32">
+    <row r="117" spans="1:33">
       <c r="A117">
         <v>52000114</v>
       </c>
@@ -16689,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <f>IF(AND(U117&gt;=13,U117&lt;=16),5,IF(AND(U117&gt;=9,U117&lt;=12),4,IF(AND(U117&gt;=5,U117&lt;=8),3,IF(AND(U117&gt;=1,U117&lt;=4),2,IF(AND(U117&gt;=-3,U117&lt;=0),1,IF(AND(U117&gt;=-5,U117&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I117" s="4">
@@ -16729,7 +16922,7 @@
         <v>0</v>
       </c>
       <c r="U117" s="10">
-        <f>J117+K117-100+L117+ SUM(N117:T117)*5+IF(ISNUMBER(Y117),Y117,0)+X117</f>
+        <f t="shared" si="7"/>
         <v>-99</v>
       </c>
       <c r="V117" s="8">
@@ -16754,20 +16947,21 @@
       <c r="AB117" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC117" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD117" s="5">
+      <c r="AC117" s="4"/>
+      <c r="AD117" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE117" s="5">
         <v>114</v>
       </c>
-      <c r="AE117" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF117" s="25">
+      <c r="AF117" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG117" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:32">
+    <row r="118" spans="1:33">
       <c r="A118">
         <v>52000115</v>
       </c>
@@ -16790,7 +16984,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <f>IF(AND(U118&gt;=13,U118&lt;=16),5,IF(AND(U118&gt;=9,U118&lt;=12),4,IF(AND(U118&gt;=5,U118&lt;=8),3,IF(AND(U118&gt;=1,U118&lt;=4),2,IF(AND(U118&gt;=-3,U118&lt;=0),1,IF(AND(U118&gt;=-5,U118&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I118" s="4">
@@ -16830,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="37">
-        <f>J118+K118-100+L118+ SUM(N118:T118)*5+IF(ISNUMBER(Y118),Y118,0)+X118</f>
+        <f t="shared" si="7"/>
         <v>-50</v>
       </c>
       <c r="V118" s="8">
@@ -16855,20 +17049,21 @@
       <c r="AB118" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC118" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD118" s="5">
+      <c r="AC118" s="4"/>
+      <c r="AD118" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE118" s="5">
         <v>115</v>
       </c>
-      <c r="AE118" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF118" s="25">
+      <c r="AF118" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG118" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:32">
+    <row r="119" spans="1:33">
       <c r="A119">
         <v>52000116</v>
       </c>
@@ -16891,7 +17086,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <f>IF(AND(U119&gt;=13,U119&lt;=16),5,IF(AND(U119&gt;=9,U119&lt;=12),4,IF(AND(U119&gt;=5,U119&lt;=8),3,IF(AND(U119&gt;=1,U119&lt;=4),2,IF(AND(U119&gt;=-3,U119&lt;=0),1,IF(AND(U119&gt;=-5,U119&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I119" s="4">
@@ -16931,7 +17126,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="37">
-        <f>J119+K119-100+L119+ SUM(N119:T119)*5+IF(ISNUMBER(Y119),Y119,0)+X119</f>
+        <f t="shared" si="7"/>
         <v>-97</v>
       </c>
       <c r="V119" s="8">
@@ -16956,20 +17151,21 @@
       <c r="AB119" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC119" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD119" s="5">
+      <c r="AC119" s="4"/>
+      <c r="AD119" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE119" s="5">
         <v>116</v>
       </c>
-      <c r="AE119" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF119" s="25">
+      <c r="AF119" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG119" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:32">
+    <row r="120" spans="1:33">
       <c r="A120">
         <v>52000117</v>
       </c>
@@ -16992,7 +17188,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <f>IF(AND(U120&gt;=13,U120&lt;=16),5,IF(AND(U120&gt;=9,U120&lt;=12),4,IF(AND(U120&gt;=5,U120&lt;=8),3,IF(AND(U120&gt;=1,U120&lt;=4),2,IF(AND(U120&gt;=-3,U120&lt;=0),1,IF(AND(U120&gt;=-5,U120&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I120" s="4">
@@ -17032,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="18">
-        <f>J120+K120-100+L120+ SUM(N120:T120)*5+IF(ISNUMBER(Y120),Y120,0)+X120</f>
+        <f t="shared" si="7"/>
         <v>-74</v>
       </c>
       <c r="V120" s="8">
@@ -17057,20 +17253,21 @@
       <c r="AB120" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC120" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD120" s="5">
+      <c r="AC120" s="4"/>
+      <c r="AD120" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE120" s="5">
         <v>117</v>
       </c>
-      <c r="AE120" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF120" s="25">
+      <c r="AF120" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG120" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:32">
+    <row r="121" spans="1:33">
       <c r="A121">
         <v>52000118</v>
       </c>
@@ -17093,7 +17290,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <f>IF(AND(U121&gt;=13,U121&lt;=16),5,IF(AND(U121&gt;=9,U121&lt;=12),4,IF(AND(U121&gt;=5,U121&lt;=8),3,IF(AND(U121&gt;=1,U121&lt;=4),2,IF(AND(U121&gt;=-3,U121&lt;=0),1,IF(AND(U121&gt;=-5,U121&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I121" s="15">
@@ -17133,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="U121" s="18">
-        <f>J121+K121-100+L121+ SUM(N121:T121)*5+IF(ISNUMBER(Y121),Y121,0)+X121</f>
+        <f t="shared" si="7"/>
         <v>-36</v>
       </c>
       <c r="V121" s="8">
@@ -17154,20 +17351,21 @@
       <c r="AB121" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC121" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD121" s="17">
+      <c r="AC121" s="15"/>
+      <c r="AD121" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE121" s="17">
         <v>118</v>
       </c>
-      <c r="AE121" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF121" s="25">
+      <c r="AF121" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG121" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:32">
+    <row r="122" spans="1:33">
       <c r="A122">
         <v>52000119</v>
       </c>
@@ -17190,7 +17388,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="4">
-        <f>IF(AND(U122&gt;=13,U122&lt;=16),5,IF(AND(U122&gt;=9,U122&lt;=12),4,IF(AND(U122&gt;=5,U122&lt;=8),3,IF(AND(U122&gt;=1,U122&lt;=4),2,IF(AND(U122&gt;=-3,U122&lt;=0),1,IF(AND(U122&gt;=-5,U122&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I122" s="15">
@@ -17230,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="36">
-        <f>J122+K122-100+L122+ SUM(N122:T122)*5+IF(ISNUMBER(Y122),Y122,0)+X122</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V122" s="8">
@@ -17251,20 +17449,21 @@
       <c r="AB122" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC122" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD122" s="17">
+      <c r="AC122" s="15"/>
+      <c r="AD122" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE122" s="17">
         <v>119</v>
       </c>
-      <c r="AE122" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF122" s="25">
+      <c r="AF122" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG122" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:32">
+    <row r="123" spans="1:33">
       <c r="A123">
         <v>52000120</v>
       </c>
@@ -17287,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="4">
-        <f>IF(AND(U123&gt;=13,U123&lt;=16),5,IF(AND(U123&gt;=9,U123&lt;=12),4,IF(AND(U123&gt;=5,U123&lt;=8),3,IF(AND(U123&gt;=1,U123&lt;=4),2,IF(AND(U123&gt;=-3,U123&lt;=0),1,IF(AND(U123&gt;=-5,U123&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I123" s="15">
@@ -17327,7 +17526,7 @@
         <v>0</v>
       </c>
       <c r="U123" s="36">
-        <f>J123+K123-100+L123+ SUM(N123:T123)*5+IF(ISNUMBER(Y123),Y123,0)+X123</f>
+        <f t="shared" si="7"/>
         <v>-31</v>
       </c>
       <c r="V123" s="8">
@@ -17348,20 +17547,21 @@
       <c r="AB123" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC123" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD123" s="17">
+      <c r="AC123" s="15"/>
+      <c r="AD123" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE123" s="17">
         <v>120</v>
       </c>
-      <c r="AE123" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF123" s="25">
+      <c r="AF123" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG123" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:32">
+    <row r="124" spans="1:33">
       <c r="A124">
         <v>52000121</v>
       </c>
@@ -17384,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <f>IF(AND(U124&gt;=13,U124&lt;=16),5,IF(AND(U124&gt;=9,U124&lt;=12),4,IF(AND(U124&gt;=5,U124&lt;=8),3,IF(AND(U124&gt;=1,U124&lt;=4),2,IF(AND(U124&gt;=-3,U124&lt;=0),1,IF(AND(U124&gt;=-5,U124&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I124" s="15">
@@ -17424,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="U124" s="18">
-        <f>J124+K124-100+L124+ SUM(N124:T124)*5+IF(ISNUMBER(Y124),Y124,0)+X124</f>
+        <f t="shared" si="7"/>
         <v>-23</v>
       </c>
       <c r="V124" s="8">
@@ -17445,20 +17645,21 @@
       <c r="AB124" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC124" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD124" s="17">
+      <c r="AC124" s="15"/>
+      <c r="AD124" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE124" s="17">
         <v>121</v>
       </c>
-      <c r="AE124" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF124" s="25">
+      <c r="AF124" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG124" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:32">
+    <row r="125" spans="1:33">
       <c r="A125">
         <v>52000122</v>
       </c>
@@ -17481,7 +17682,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="4">
-        <f>IF(AND(U125&gt;=13,U125&lt;=16),5,IF(AND(U125&gt;=9,U125&lt;=12),4,IF(AND(U125&gt;=5,U125&lt;=8),3,IF(AND(U125&gt;=1,U125&lt;=4),2,IF(AND(U125&gt;=-3,U125&lt;=0),1,IF(AND(U125&gt;=-5,U125&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I125" s="4">
@@ -17521,7 +17722,7 @@
         <v>0</v>
       </c>
       <c r="U125" s="10">
-        <f>J125+K125-100+L125+ SUM(N125:T125)*5+IF(ISNUMBER(Y125),Y125,0)+X125</f>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="V125" s="8">
@@ -17542,20 +17743,21 @@
       <c r="AB125" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC125" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD125" s="5">
+      <c r="AC125" s="4"/>
+      <c r="AD125" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE125" s="5">
         <v>122</v>
       </c>
-      <c r="AE125" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF125" s="25">
+      <c r="AF125" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG125" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:32">
+    <row r="126" spans="1:33">
       <c r="A126">
         <v>52000123</v>
       </c>
@@ -17578,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f>IF(AND(U126&gt;=13,U126&lt;=16),5,IF(AND(U126&gt;=9,U126&lt;=12),4,IF(AND(U126&gt;=5,U126&lt;=8),3,IF(AND(U126&gt;=1,U126&lt;=4),2,IF(AND(U126&gt;=-3,U126&lt;=0),1,IF(AND(U126&gt;=-5,U126&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I126" s="4">
@@ -17618,7 +17820,7 @@
         <v>0</v>
       </c>
       <c r="U126" s="18">
-        <f>J126+K126-100+L126+ SUM(N126:T126)*5+IF(ISNUMBER(Y126),Y126,0)+X126</f>
+        <f t="shared" si="7"/>
         <v>-31</v>
       </c>
       <c r="V126" s="8">
@@ -17639,16 +17841,17 @@
       <c r="AB126" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="AC126" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD126" s="17">
+      <c r="AC126" s="15"/>
+      <c r="AD126" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE126" s="17">
         <v>123</v>
       </c>
-      <c r="AE126" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF126" s="25">
+      <c r="AF126" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG126" s="25">
         <v>1</v>
       </c>
     </row>
@@ -17899,32 +18102,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="11" width="3.77734375" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="9" width="4.125" customWidth="1"/>
+    <col min="10" max="11" width="3.75" customWidth="1"/>
+    <col min="12" max="12" width="4.375" customWidth="1"/>
     <col min="13" max="20" width="4" customWidth="1"/>
-    <col min="21" max="21" width="3.77734375" customWidth="1"/>
+    <col min="21" max="21" width="3.75" customWidth="1"/>
     <col min="22" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="3.77734375" customWidth="1"/>
-    <col min="26" max="27" width="7.109375" customWidth="1"/>
-    <col min="28" max="28" width="9" customWidth="1"/>
-    <col min="29" max="30" width="7.33203125" customWidth="1"/>
-    <col min="31" max="32" width="4.33203125" customWidth="1"/>
+    <col min="25" max="25" width="3.75" customWidth="1"/>
+    <col min="26" max="27" width="7.125" customWidth="1"/>
+    <col min="28" max="29" width="9" customWidth="1"/>
+    <col min="30" max="31" width="7.375" customWidth="1"/>
+    <col min="32" max="33" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="73.2">
+    <row r="1" spans="1:33" ht="69">
       <c r="A1" s="19" t="s">
         <v>246</v>
       </c>
@@ -18009,20 +18212,23 @@
       <c r="AB1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD1" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AE1" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
@@ -18107,20 +18313,23 @@
       <c r="AB2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AG2" s="28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -18205,20 +18414,23 @@
       <c r="AB3" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD3" t="s">
         <v>122</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>123</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AF3" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AG3" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>52100000</v>
       </c>
@@ -18300,20 +18512,21 @@
       <c r="AB4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD4" s="17">
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="17">
         <v>1000</v>
       </c>
-      <c r="AE4" s="26">
+      <c r="AF4" s="26">
         <v>1</v>
       </c>
-      <c r="AF4" s="25">
+      <c r="AG4" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>52100001</v>
       </c>
@@ -18395,16 +18608,17 @@
       <c r="AB5" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="AC5" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="17">
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="17">
         <v>1001</v>
       </c>
-      <c r="AE5" s="26">
+      <c r="AF5" s="26">
         <v>1</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AG5" s="15">
         <v>0</v>
       </c>
     </row>
@@ -18556,7 +18770,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="364">
   <si>
     <t>铁杖</t>
   </si>
@@ -1212,6 +1212,21 @@
   </si>
   <si>
     <t>JobId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本，射程</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2147,175 +2162,6 @@
   <dxfs count="88">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2924,6 +2770,82 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2988,6 +2910,33 @@
         <right style="thin">
           <color theme="4"/>
         </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
@@ -3530,6 +3479,72 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4832,102 +4847,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG126" totalsRowShown="0" dataDxfId="87" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG126" totalsRowShown="0" dataDxfId="78" tableBorderDxfId="77">
   <autoFilter ref="A3:AG126"/>
   <sortState ref="A4:AF126">
     <sortCondition ref="A3:A126"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="85"/>
-    <tableColumn id="2" name="Name" dataDxfId="84"/>
-    <tableColumn id="3" name="Ename" dataDxfId="83"/>
-    <tableColumn id="4" name="Remark" dataDxfId="82"/>
-    <tableColumn id="5" name="Star" dataDxfId="81"/>
-    <tableColumn id="6" name="Type" dataDxfId="80"/>
-    <tableColumn id="7" name="Attr" dataDxfId="79"/>
-    <tableColumn id="34" name="Quality" dataDxfId="78">
+    <tableColumn id="1" name="Id" dataDxfId="76"/>
+    <tableColumn id="2" name="Name" dataDxfId="75"/>
+    <tableColumn id="3" name="Ename" dataDxfId="74"/>
+    <tableColumn id="4" name="Remark" dataDxfId="73"/>
+    <tableColumn id="5" name="Star" dataDxfId="72"/>
+    <tableColumn id="6" name="Type" dataDxfId="71"/>
+    <tableColumn id="7" name="Attr" dataDxfId="70"/>
+    <tableColumn id="34" name="Quality" dataDxfId="69">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="77"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="76"/>
-    <tableColumn id="9" name="VitP" dataDxfId="75"/>
-    <tableColumn id="25" name="Modify" dataDxfId="74"/>
-    <tableColumn id="27" name="Dura" dataDxfId="73"/>
-    <tableColumn id="20" name="Def" dataDxfId="72"/>
-    <tableColumn id="21" name="Mag" dataDxfId="71"/>
-    <tableColumn id="29" name="Spd" dataDxfId="70"/>
-    <tableColumn id="30" name="Hit" dataDxfId="69"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="68"/>
-    <tableColumn id="12" name="Crt" dataDxfId="67"/>
-    <tableColumn id="11" name="Luk" dataDxfId="66"/>
-    <tableColumn id="32" name="Sum" dataDxfId="65">
+    <tableColumn id="15" name="Cost" dataDxfId="68"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="67"/>
+    <tableColumn id="9" name="VitP" dataDxfId="66"/>
+    <tableColumn id="25" name="Modify" dataDxfId="65"/>
+    <tableColumn id="27" name="Dura" dataDxfId="64"/>
+    <tableColumn id="20" name="Def" dataDxfId="63"/>
+    <tableColumn id="21" name="Mag" dataDxfId="62"/>
+    <tableColumn id="29" name="Spd" dataDxfId="61"/>
+    <tableColumn id="30" name="Hit" dataDxfId="60"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="59"/>
+    <tableColumn id="12" name="Crt" dataDxfId="58"/>
+    <tableColumn id="11" name="Luk" dataDxfId="57"/>
+    <tableColumn id="32" name="Sum" dataDxfId="56">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="64"/>
-    <tableColumn id="31" name="Mov" dataDxfId="63"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="62"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="61">
+    <tableColumn id="10" name="Range" dataDxfId="55"/>
+    <tableColumn id="31" name="Mov" dataDxfId="54"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="53"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="52">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="60"/>
-    <tableColumn id="14" name="Percent" dataDxfId="59"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="58"/>
-    <tableColumn id="26" name="JobId" dataDxfId="19"/>
-    <tableColumn id="17" name="Res" dataDxfId="57"/>
-    <tableColumn id="18" name="Icon" dataDxfId="56"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="55"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="54"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="51"/>
+    <tableColumn id="14" name="Percent" dataDxfId="50"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="49"/>
+    <tableColumn id="26" name="JobId" dataDxfId="48"/>
+    <tableColumn id="17" name="Res" dataDxfId="47"/>
+    <tableColumn id="18" name="Icon" dataDxfId="46"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="45"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG5" totalsRowShown="0" dataDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG5" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A3:AG5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="51"/>
-    <tableColumn id="2" name="Name" dataDxfId="50"/>
-    <tableColumn id="3" name="Ename" dataDxfId="49"/>
-    <tableColumn id="4" name="Remark" dataDxfId="48"/>
-    <tableColumn id="5" name="Star" dataDxfId="47"/>
-    <tableColumn id="6" name="Type" dataDxfId="46"/>
-    <tableColumn id="7" name="Attr" dataDxfId="45"/>
-    <tableColumn id="34" name="Quality" dataDxfId="44">
+    <tableColumn id="1" name="Id" dataDxfId="31"/>
+    <tableColumn id="2" name="Name" dataDxfId="30"/>
+    <tableColumn id="3" name="Ename" dataDxfId="29"/>
+    <tableColumn id="4" name="Remark" dataDxfId="28"/>
+    <tableColumn id="5" name="Star" dataDxfId="27"/>
+    <tableColumn id="6" name="Type" dataDxfId="26"/>
+    <tableColumn id="7" name="Attr" dataDxfId="25"/>
+    <tableColumn id="34" name="Quality" dataDxfId="24">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="43"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="42"/>
-    <tableColumn id="9" name="VitP" dataDxfId="41"/>
-    <tableColumn id="25" name="Modify" dataDxfId="40"/>
-    <tableColumn id="31" name="Dura" dataDxfId="39"/>
-    <tableColumn id="11" name="Def" dataDxfId="38"/>
-    <tableColumn id="21" name="Mag" dataDxfId="37"/>
-    <tableColumn id="29" name="Spd" dataDxfId="36"/>
-    <tableColumn id="30" name="Hit" dataDxfId="35"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="34"/>
-    <tableColumn id="19" name="Crt" dataDxfId="33"/>
-    <tableColumn id="12" name="Luk" dataDxfId="32"/>
-    <tableColumn id="32" name="Sum" dataDxfId="31">
+    <tableColumn id="15" name="Cost" dataDxfId="23"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
+    <tableColumn id="9" name="VitP" dataDxfId="21"/>
+    <tableColumn id="25" name="Modify" dataDxfId="20"/>
+    <tableColumn id="31" name="Dura" dataDxfId="19"/>
+    <tableColumn id="11" name="Def" dataDxfId="18"/>
+    <tableColumn id="21" name="Mag" dataDxfId="17"/>
+    <tableColumn id="29" name="Spd" dataDxfId="16"/>
+    <tableColumn id="30" name="Hit" dataDxfId="15"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="14"/>
+    <tableColumn id="19" name="Crt" dataDxfId="13"/>
+    <tableColumn id="12" name="Luk" dataDxfId="12"/>
+    <tableColumn id="32" name="Sum" dataDxfId="11">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="30"/>
-    <tableColumn id="27" name="Mov" dataDxfId="29"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="28"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="27">
+    <tableColumn id="10" name="Range" dataDxfId="10"/>
+    <tableColumn id="27" name="Mov" dataDxfId="9"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="8"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="7">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="26"/>
-    <tableColumn id="14" name="Percent" dataDxfId="25"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="24"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="6"/>
+    <tableColumn id="14" name="Percent" dataDxfId="5"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="4"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="17" name="Res" dataDxfId="23"/>
-    <tableColumn id="18" name="Icon" dataDxfId="22"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="21"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="20"/>
+    <tableColumn id="17" name="Res" dataDxfId="3"/>
+    <tableColumn id="18" name="Icon" dataDxfId="2"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5222,11 +5237,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC3"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5779,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L6" s="8">
         <v>-5</v>
@@ -5788,7 +5803,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O6" s="8">
         <v>0</v>
@@ -5877,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L7" s="8">
         <v>-5</v>
@@ -5886,7 +5901,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O7" s="8">
         <v>0</v>
@@ -6171,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L10" s="8">
         <v>-5</v>
@@ -6180,7 +6195,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O10" s="8">
         <v>0</v>
@@ -6247,7 +6262,7 @@
         <v>156</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="E11" s="4">
         <v>4</v>
@@ -6269,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L11" s="8">
         <v>-5</v>
@@ -6278,7 +6293,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O11" s="8">
         <v>0</v>
@@ -6344,9 +6359,7 @@
       <c r="C12" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>351</v>
-      </c>
+      <c r="D12" s="25"/>
       <c r="E12" s="4">
         <v>2</v>
       </c>
@@ -6358,7 +6371,7 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
         <v>2</v>
@@ -6370,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M12" s="8">
         <v>3</v>
@@ -6398,7 +6411,7 @@
       </c>
       <c r="U12" s="18">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="V12" s="8">
         <v>0</v>
@@ -7255,7 +7268,7 @@
         <v>285</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -7268,7 +7281,7 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I21" s="15">
         <v>1</v>
@@ -7280,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="14">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="M21" s="8">
         <v>4</v>
@@ -7289,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P21" s="8">
         <v>0</v>
@@ -7308,7 +7321,7 @@
       </c>
       <c r="U21" s="18">
         <f t="shared" si="1"/>
-        <v>-22</v>
+        <v>-4</v>
       </c>
       <c r="V21" s="8">
         <v>10</v>
@@ -7325,8 +7338,8 @@
       </c>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="15" t="s">
-        <v>3</v>
+      <c r="AB21" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15">
@@ -7375,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L22" s="8">
         <v>3</v>
@@ -7384,7 +7397,7 @@
         <v>4</v>
       </c>
       <c r="N22" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O22" s="8">
         <v>0</v>
@@ -7455,10 +7468,10 @@
         <v>166</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>103</v>
@@ -7468,19 +7481,19 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K23" s="6">
         <v>0</v>
       </c>
       <c r="L23" s="8">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="M23" s="8">
         <v>4</v>
@@ -7508,7 +7521,7 @@
       </c>
       <c r="U23" s="10">
         <f t="shared" si="1"/>
-        <v>-32</v>
+        <v>-5</v>
       </c>
       <c r="V23" s="8">
         <v>20</v>
@@ -7517,18 +7530,14 @@
         <v>0</v>
       </c>
       <c r="X23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="8" t="e">
+        <v>25</v>
+      </c>
+      <c r="Y23" s="8">
         <f>IF(ISBLANK(Z23),0, LOOKUP(Z23,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA23/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z23" s="13">
-        <v>55000060</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="4"/>
       <c r="AB23" s="4" t="s">
         <v>310</v>
       </c>
@@ -7557,10 +7566,10 @@
         <v>167</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="E24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>103</v>
@@ -7570,16 +7579,16 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="6">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K24" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L24" s="8">
         <v>1</v>
@@ -7610,27 +7619,23 @@
       </c>
       <c r="U24" s="10">
         <f t="shared" si="1"/>
-        <v>-14</v>
+        <v>1</v>
       </c>
       <c r="V24" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W24" s="8">
         <v>0</v>
       </c>
       <c r="X24" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="8" t="e">
+        <v>32</v>
+      </c>
+      <c r="Y24" s="8">
         <f>IF(ISBLANK(Z24),0, LOOKUP(Z24,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA24/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z24" s="13">
-        <v>55000060</v>
-      </c>
-      <c r="AA24" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="4"/>
       <c r="AB24" s="4" t="s">
         <v>310</v>
       </c>
@@ -7659,7 +7664,7 @@
         <v>168</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -7672,7 +7677,7 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -7681,10 +7686,10 @@
         <v>70</v>
       </c>
       <c r="K25" s="6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L25" s="8">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="M25" s="8">
         <v>6</v>
@@ -7712,7 +7717,7 @@
       </c>
       <c r="U25" s="10">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="V25" s="8">
         <v>10</v>
@@ -10038,9 +10043,7 @@
       <c r="C49" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D49" s="25"/>
       <c r="E49" s="4">
         <v>1</v>
       </c>
@@ -10052,7 +10055,7 @@
       </c>
       <c r="H49" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I49" s="4">
         <v>1</v>
@@ -10061,10 +10064,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L49" s="8">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M49" s="8">
         <v>4</v>
@@ -10092,7 +10095,7 @@
       </c>
       <c r="U49" s="10">
         <f t="shared" si="3"/>
-        <v>-40</v>
+        <v>-4</v>
       </c>
       <c r="V49" s="8">
         <v>0</v>
@@ -10136,9 +10139,7 @@
       <c r="C50" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D50" s="25"/>
       <c r="E50" s="4">
         <v>2</v>
       </c>
@@ -10150,7 +10151,7 @@
       </c>
       <c r="H50" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4">
         <v>2</v>
@@ -10159,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L50" s="8">
         <v>-1</v>
@@ -10190,7 +10191,7 @@
       </c>
       <c r="U50" s="10">
         <f t="shared" si="3"/>
-        <v>-41</v>
+        <v>-1</v>
       </c>
       <c r="V50" s="8">
         <v>0</v>
@@ -10631,7 +10632,7 @@
         <v>191</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -10644,7 +10645,7 @@
       </c>
       <c r="H55" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I55" s="4">
         <v>1</v>
@@ -10653,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="6">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="L55" s="8">
         <v>-3</v>
@@ -10674,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S55" s="8">
         <v>0</v>
@@ -10684,16 +10685,16 @@
       </c>
       <c r="U55" s="10">
         <f t="shared" si="3"/>
-        <v>-28</v>
+        <v>-5</v>
       </c>
       <c r="V55" s="8">
         <v>0</v>
       </c>
       <c r="W55" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X55" s="8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y55" s="8">
         <f>IF(ISBLANK(Z55),0, LOOKUP(Z55,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA55/100)</f>
@@ -10728,9 +10729,7 @@
       <c r="C56" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D56" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D56" s="25"/>
       <c r="E56" s="4">
         <v>2</v>
       </c>
@@ -10742,7 +10741,7 @@
       </c>
       <c r="H56" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I56" s="4">
         <v>2</v>
@@ -10751,16 +10750,16 @@
         <v>0</v>
       </c>
       <c r="K56" s="6">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L56" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M56" s="8">
         <v>4</v>
       </c>
       <c r="N56" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O56" s="8">
         <v>0</v>
@@ -10782,7 +10781,7 @@
       </c>
       <c r="U56" s="10">
         <f t="shared" si="3"/>
-        <v>-46</v>
+        <v>1</v>
       </c>
       <c r="V56" s="8">
         <v>0</v>
@@ -10826,9 +10825,7 @@
       <c r="C57" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D57" s="25"/>
       <c r="E57" s="4">
         <v>2</v>
       </c>
@@ -10840,7 +10837,7 @@
       </c>
       <c r="H57" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I57" s="4">
         <v>2</v>
@@ -10849,7 +10846,7 @@
         <v>40</v>
       </c>
       <c r="K57" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L57" s="8">
         <v>-2</v>
@@ -10880,7 +10877,7 @@
       </c>
       <c r="U57" s="10">
         <f t="shared" si="3"/>
-        <v>-32</v>
+        <v>-2</v>
       </c>
       <c r="V57" s="8">
         <v>0</v>
@@ -12029,9 +12026,7 @@
       <c r="C69" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D69" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D69" s="25"/>
       <c r="E69" s="4">
         <v>2</v>
       </c>
@@ -12043,13 +12038,13 @@
       </c>
       <c r="H69" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I69" s="4">
         <v>2</v>
       </c>
       <c r="J69" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K69" s="6">
         <v>0</v>
@@ -12083,7 +12078,7 @@
       </c>
       <c r="U69" s="10">
         <f t="shared" si="5"/>
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="V69" s="8">
         <v>10</v>
@@ -12127,9 +12122,7 @@
       <c r="C70" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D70" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D70" s="25"/>
       <c r="E70" s="4">
         <v>3</v>
       </c>
@@ -12141,13 +12134,13 @@
       </c>
       <c r="H70" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I70" s="4">
         <v>3</v>
       </c>
       <c r="J70" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K70" s="6">
         <v>0</v>
@@ -12181,7 +12174,7 @@
       </c>
       <c r="U70" s="10">
         <f t="shared" si="5"/>
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="V70" s="8">
         <v>10</v>
@@ -12225,9 +12218,7 @@
       <c r="C71" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D71" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D71" s="25"/>
       <c r="E71" s="4">
         <v>2</v>
       </c>
@@ -12239,7 +12230,7 @@
       </c>
       <c r="H71" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I71" s="4">
         <v>2</v>
@@ -12248,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="6">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L71" s="8">
         <v>-1</v>
@@ -12279,7 +12270,7 @@
       </c>
       <c r="U71" s="10">
         <f t="shared" si="5"/>
-        <v>-16</v>
+        <v>-1</v>
       </c>
       <c r="V71" s="8">
         <v>0</v>
@@ -15192,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="10">
-        <f t="shared" ref="U100:U131" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
+        <f t="shared" ref="U100:U126" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
         <v>-73</v>
       </c>
       <c r="V100" s="8">
@@ -18050,33 +18041,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H126">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="9" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18104,7 +18095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -18709,36 +18700,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="366">
   <si>
     <t>铁杖</t>
   </si>
@@ -1227,6 +1227,14 @@
   </si>
   <si>
     <t>基本，射程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3564,7 +3572,6 @@
     <sheetNames>
       <sheetName val="Skill"/>
       <sheetName val="~标准"/>
-      <sheetName val="道具"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -4724,7 +4731,6 @@
           <cell r="A145">
             <v>55900028</v>
           </cell>
-          <cell r="X145"/>
         </row>
         <row r="146">
           <cell r="A146">
@@ -4840,7 +4846,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5238,10 +5243,10 @@
   <dimension ref="A1:AG126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7365,9 +7370,7 @@
       <c r="C22" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D22" s="25"/>
       <c r="E22" s="4">
         <v>3</v>
       </c>
@@ -7379,19 +7382,19 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4">
         <v>3</v>
       </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>45</v>
       </c>
       <c r="L22" s="8">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="M22" s="8">
         <v>4</v>
@@ -7419,7 +7422,7 @@
       </c>
       <c r="U22" s="10">
         <f t="shared" si="1"/>
-        <v>-37</v>
+        <v>1</v>
       </c>
       <c r="V22" s="8">
         <v>0</v>
@@ -7430,20 +7433,18 @@
       <c r="X22" s="8">
         <v>0</v>
       </c>
-      <c r="Y22" s="8" t="e">
+      <c r="Y22" s="8">
         <f>IF(ISBLANK(Z22),0, LOOKUP(Z22,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA22/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" s="13">
-        <v>55000119</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="4"/>
       <c r="AB22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC22" s="4"/>
+      <c r="AC22" s="4">
+        <v>11000002</v>
+      </c>
       <c r="AD22" s="4">
         <v>5</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>279</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="E26" s="15">
         <v>4</v>
@@ -7775,13 +7776,13 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I26" s="15">
         <v>4</v>
       </c>
       <c r="J26" s="16">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K26" s="16">
         <v>0</v>
@@ -7799,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="8">
         <v>0</v>
@@ -7815,7 +7816,7 @@
       </c>
       <c r="U26" s="10">
         <f t="shared" si="1"/>
-        <v>-24</v>
+        <v>3</v>
       </c>
       <c r="V26" s="8">
         <v>30</v>
@@ -7824,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="8">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y26" s="8">
         <f>IF(ISBLANK(Z26),0, LOOKUP(Z26,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA26/100)</f>
@@ -7835,7 +7836,9 @@
       <c r="AB26" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="AC26" s="4"/>
+      <c r="AC26" s="4">
+        <v>11000004</v>
+      </c>
       <c r="AD26" s="4">
         <v>5</v>
       </c>
@@ -7957,9 +7960,7 @@
       <c r="C28" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D28" s="25"/>
       <c r="E28" s="15">
         <v>3</v>
       </c>
@@ -7971,7 +7972,7 @@
       </c>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="15">
         <v>3</v>
@@ -7980,7 +7981,7 @@
         <v>90</v>
       </c>
       <c r="K28" s="16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L28" s="14">
         <v>1</v>
@@ -7995,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="8">
         <v>0</v>
@@ -8011,7 +8012,7 @@
       </c>
       <c r="U28" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V28" s="8">
         <v>10</v>
@@ -8031,7 +8032,9 @@
       <c r="AB28" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC28" s="15"/>
+      <c r="AC28" s="4">
+        <v>11000001</v>
+      </c>
       <c r="AD28" s="15">
         <v>5</v>
       </c>
@@ -8668,7 +8671,7 @@
         <v>282</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="E35" s="15">
         <v>3</v>
@@ -8681,19 +8684,19 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I35" s="15">
         <v>3</v>
       </c>
       <c r="J35" s="16">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K35" s="16">
         <v>0</v>
       </c>
       <c r="L35" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" s="8">
         <v>4</v>
@@ -8705,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="8">
         <v>0</v>
@@ -8721,7 +8724,7 @@
       </c>
       <c r="U35" s="18">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>2</v>
       </c>
       <c r="V35" s="8">
         <v>10</v>
@@ -8734,14 +8737,20 @@
       </c>
       <c r="Y35" s="8">
         <f>IF(ISBLANK(Z35),0, LOOKUP(Z35,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA35/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="Z35" s="15">
+        <v>55510004</v>
+      </c>
+      <c r="AA35" s="15">
+        <v>100</v>
+      </c>
       <c r="AB35" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC35" s="15"/>
+      <c r="AC35" s="15">
+        <v>11000005</v>
+      </c>
       <c r="AD35" s="15">
         <v>5</v>
       </c>
@@ -8779,19 +8788,19 @@
       </c>
       <c r="H36" s="4">
         <f t="shared" ref="H36:H67" si="2">IF(AND(U36&gt;=13,U36&lt;=16),5,IF(AND(U36&gt;=9,U36&lt;=12),4,IF(AND(U36&gt;=5,U36&lt;=8),3,IF(AND(U36&gt;=1,U36&lt;=4),2,IF(AND(U36&gt;=-3,U36&lt;=0),1,IF(AND(U36&gt;=-5,U36&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I36" s="4">
         <v>2</v>
       </c>
       <c r="J36" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
       </c>
-      <c r="L36" s="8">
-        <v>-3</v>
+      <c r="L36" s="14">
+        <v>0</v>
       </c>
       <c r="M36" s="8">
         <v>5</v>
@@ -8819,7 +8828,7 @@
       </c>
       <c r="U36" s="10">
         <f t="shared" ref="U36:U67" si="3">J36+K36-100+L36+ SUM(N36:T36)*5+IF(ISNUMBER(Y36),Y36,0)+X36</f>
-        <v>-103</v>
+        <v>0</v>
       </c>
       <c r="V36" s="8">
         <v>20</v>
@@ -8877,19 +8886,19 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4">
         <v>2</v>
       </c>
       <c r="J37" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K37" s="6">
         <v>0</v>
       </c>
-      <c r="L37" s="8">
-        <v>-3</v>
+      <c r="L37" s="14">
+        <v>0</v>
       </c>
       <c r="M37" s="8">
         <v>5</v>
@@ -8917,7 +8926,7 @@
       </c>
       <c r="U37" s="10">
         <f t="shared" si="3"/>
-        <v>-103</v>
+        <v>0</v>
       </c>
       <c r="V37" s="8">
         <v>20</v>
@@ -8937,7 +8946,9 @@
       <c r="AB37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC37" s="4"/>
+      <c r="AC37" s="4">
+        <v>11000008</v>
+      </c>
       <c r="AD37" s="4">
         <v>5</v>
       </c>
@@ -8961,9 +8972,7 @@
       <c r="C38" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D38" s="25"/>
       <c r="E38" s="4">
         <v>2</v>
       </c>
@@ -8975,19 +8984,19 @@
       </c>
       <c r="H38" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4">
         <v>2</v>
       </c>
       <c r="J38" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K38" s="6">
         <v>0</v>
       </c>
-      <c r="L38" s="8">
-        <v>-3</v>
+      <c r="L38" s="14">
+        <v>0</v>
       </c>
       <c r="M38" s="8">
         <v>5</v>
@@ -9015,7 +9024,7 @@
       </c>
       <c r="U38" s="10">
         <f t="shared" si="3"/>
-        <v>-103</v>
+        <v>0</v>
       </c>
       <c r="V38" s="8">
         <v>20</v>
@@ -9035,7 +9044,9 @@
       <c r="AB38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AC38" s="4"/>
+      <c r="AC38" s="4">
+        <v>11000006</v>
+      </c>
       <c r="AD38" s="4">
         <v>5</v>
       </c>
@@ -9073,19 +9084,19 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4">
         <v>2</v>
       </c>
       <c r="J39" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K39" s="6">
         <v>0</v>
       </c>
-      <c r="L39" s="8">
-        <v>-3</v>
+      <c r="L39" s="14">
+        <v>0</v>
       </c>
       <c r="M39" s="8">
         <v>5</v>
@@ -9113,7 +9124,7 @@
       </c>
       <c r="U39" s="10">
         <f t="shared" si="3"/>
-        <v>-103</v>
+        <v>0</v>
       </c>
       <c r="V39" s="8">
         <v>20</v>
@@ -9157,9 +9168,7 @@
       <c r="C40" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D40" s="25"/>
       <c r="E40" s="4">
         <v>2</v>
       </c>
@@ -9167,23 +9176,23 @@
         <v>101</v>
       </c>
       <c r="G40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I40" s="4">
         <v>2</v>
       </c>
       <c r="J40" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K40" s="6">
         <v>0</v>
       </c>
-      <c r="L40" s="8">
-        <v>-3</v>
+      <c r="L40" s="14">
+        <v>0</v>
       </c>
       <c r="M40" s="8">
         <v>5</v>
@@ -9198,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R40" s="8">
         <v>0</v>
@@ -9211,7 +9220,7 @@
       </c>
       <c r="U40" s="10">
         <f t="shared" si="3"/>
-        <v>-103</v>
+        <v>2</v>
       </c>
       <c r="V40" s="8">
         <v>20</v>
@@ -9224,14 +9233,20 @@
       </c>
       <c r="Y40" s="8">
         <f>IF(ISBLANK(Z40),0, LOOKUP(Z40,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA40/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>55510009</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>30</v>
+      </c>
       <c r="AB40" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="AC40" s="4"/>
+      <c r="AC40" s="4">
+        <v>11000006</v>
+      </c>
       <c r="AD40" s="4">
         <v>5</v>
       </c>
@@ -9269,19 +9284,19 @@
       </c>
       <c r="H41" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4">
         <v>2</v>
       </c>
-      <c r="J41" s="7">
-        <v>0</v>
+      <c r="J41" s="6">
+        <v>100</v>
       </c>
       <c r="K41" s="7">
         <v>0</v>
       </c>
-      <c r="L41" s="8">
-        <v>-3</v>
+      <c r="L41" s="14">
+        <v>0</v>
       </c>
       <c r="M41" s="8">
         <v>5</v>
@@ -9309,7 +9324,7 @@
       </c>
       <c r="U41" s="10">
         <f t="shared" si="3"/>
-        <v>-103</v>
+        <v>0</v>
       </c>
       <c r="V41" s="8">
         <v>20</v>
@@ -9353,9 +9368,7 @@
       <c r="C42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D42" s="25"/>
       <c r="E42" s="4">
         <v>2</v>
       </c>
@@ -9367,19 +9380,19 @@
       </c>
       <c r="H42" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4">
         <v>2</v>
       </c>
       <c r="J42" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K42" s="6">
         <v>0</v>
       </c>
-      <c r="L42" s="8">
-        <v>-3</v>
+      <c r="L42" s="14">
+        <v>0</v>
       </c>
       <c r="M42" s="8">
         <v>5</v>
@@ -9407,7 +9420,7 @@
       </c>
       <c r="U42" s="10">
         <f t="shared" si="3"/>
-        <v>-103</v>
+        <v>0</v>
       </c>
       <c r="V42" s="8">
         <v>20</v>
@@ -9427,7 +9440,9 @@
       <c r="AB42" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="AC42" s="4"/>
+      <c r="AC42" s="4">
+        <v>11000007</v>
+      </c>
       <c r="AD42" s="4">
         <v>5</v>
       </c>
@@ -9465,19 +9480,19 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4">
         <v>2</v>
       </c>
       <c r="J43" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="6">
         <v>0</v>
       </c>
-      <c r="L43" s="8">
-        <v>-3</v>
+      <c r="L43" s="14">
+        <v>0</v>
       </c>
       <c r="M43" s="8">
         <v>5</v>
@@ -9505,7 +9520,7 @@
       </c>
       <c r="U43" s="10">
         <f t="shared" si="3"/>
-        <v>-103</v>
+        <v>0</v>
       </c>
       <c r="V43" s="8">
         <v>20</v>
@@ -9574,8 +9589,8 @@
       <c r="K44" s="6">
         <v>25</v>
       </c>
-      <c r="L44" s="8">
-        <v>1</v>
+      <c r="L44" s="14">
+        <v>0</v>
       </c>
       <c r="M44" s="8">
         <v>4</v>
@@ -9603,7 +9618,7 @@
       </c>
       <c r="U44" s="10">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V44" s="8">
         <v>20</v>
@@ -9672,8 +9687,8 @@
       <c r="K45" s="6">
         <v>0</v>
       </c>
-      <c r="L45" s="8">
-        <v>1</v>
+      <c r="L45" s="14">
+        <v>0</v>
       </c>
       <c r="M45" s="8">
         <v>4</v>
@@ -9701,7 +9716,7 @@
       </c>
       <c r="U45" s="10">
         <f t="shared" si="3"/>
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="V45" s="8">
         <v>10</v>
@@ -9770,8 +9785,8 @@
       <c r="K46" s="7">
         <v>0</v>
       </c>
-      <c r="L46" s="8">
-        <v>-3</v>
+      <c r="L46" s="14">
+        <v>0</v>
       </c>
       <c r="M46" s="8">
         <v>4</v>
@@ -9799,7 +9814,7 @@
       </c>
       <c r="U46" s="10">
         <f t="shared" si="3"/>
-        <v>-48</v>
+        <v>-45</v>
       </c>
       <c r="V46" s="8">
         <v>10</v>
@@ -9843,11 +9858,9 @@
       <c r="C47" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D47" s="25"/>
       <c r="E47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>100</v>
@@ -9857,22 +9870,22 @@
       </c>
       <c r="H47" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K47" s="6">
         <v>0</v>
       </c>
-      <c r="L47" s="8">
-        <v>2</v>
+      <c r="L47" s="14">
+        <v>5</v>
       </c>
       <c r="M47" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N47" s="8">
         <v>0</v>
@@ -9897,7 +9910,7 @@
       </c>
       <c r="U47" s="10">
         <f t="shared" si="3"/>
-        <v>-28</v>
+        <v>5</v>
       </c>
       <c r="V47" s="8">
         <v>10</v>
@@ -9917,7 +9930,9 @@
       <c r="AB47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC47" s="4"/>
+      <c r="AC47" s="15">
+        <v>11000005</v>
+      </c>
       <c r="AD47" s="4">
         <v>5</v>
       </c>
@@ -9941,11 +9956,9 @@
       <c r="C48" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D48" s="25"/>
       <c r="E48" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>103</v>
@@ -9955,19 +9968,19 @@
       </c>
       <c r="H48" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I48" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" s="6">
         <v>0</v>
       </c>
       <c r="K48" s="6">
-        <v>0</v>
-      </c>
-      <c r="L48" s="8">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="L48" s="14">
+        <v>0</v>
       </c>
       <c r="M48" s="8">
         <v>4</v>
@@ -9985,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S48" s="8">
         <v>0</v>
@@ -9995,7 +10008,7 @@
       </c>
       <c r="U48" s="10">
         <f t="shared" si="3"/>
-        <v>-98</v>
+        <v>3</v>
       </c>
       <c r="V48" s="8">
         <v>0</v>
@@ -10006,12 +10019,12 @@
       <c r="X48" s="8">
         <v>0</v>
       </c>
-      <c r="Y48" s="8" t="e">
+      <c r="Y48" s="8">
         <f>IF(ISBLANK(Z48),0, LOOKUP(Z48,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA48/100)</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="Z48" s="13">
-        <v>55000051</v>
+        <v>55900007</v>
       </c>
       <c r="AA48" s="4">
         <v>100</v>
@@ -10055,7 +10068,7 @@
       </c>
       <c r="H49" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4">
         <v>1</v>
@@ -10066,8 +10079,8 @@
       <c r="K49" s="6">
         <v>100</v>
       </c>
-      <c r="L49" s="8">
-        <v>-4</v>
+      <c r="L49" s="14">
+        <v>0</v>
       </c>
       <c r="M49" s="8">
         <v>4</v>
@@ -10095,7 +10108,7 @@
       </c>
       <c r="U49" s="10">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V49" s="8">
         <v>0</v>
@@ -10162,8 +10175,8 @@
       <c r="K50" s="6">
         <v>100</v>
       </c>
-      <c r="L50" s="8">
-        <v>-1</v>
+      <c r="L50" s="14">
+        <v>0</v>
       </c>
       <c r="M50" s="8">
         <v>4</v>
@@ -10191,7 +10204,7 @@
       </c>
       <c r="U50" s="10">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="8">
         <v>0</v>
@@ -10235,9 +10248,7 @@
       <c r="C51" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D51" s="25"/>
       <c r="E51" s="4">
         <v>2</v>
       </c>
@@ -10249,19 +10260,19 @@
       </c>
       <c r="H51" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I51" s="4">
         <v>2</v>
       </c>
       <c r="J51" s="6">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K51" s="6">
         <v>0</v>
       </c>
-      <c r="L51" s="8">
-        <v>-1</v>
+      <c r="L51" s="14">
+        <v>0</v>
       </c>
       <c r="M51" s="8">
         <v>4</v>
@@ -10276,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R51" s="8">
         <v>0</v>
@@ -10289,7 +10300,7 @@
       </c>
       <c r="U51" s="10">
         <f t="shared" si="3"/>
-        <v>-101</v>
+        <v>2</v>
       </c>
       <c r="V51" s="8">
         <v>10</v>
@@ -10300,12 +10311,12 @@
       <c r="X51" s="8">
         <v>0</v>
       </c>
-      <c r="Y51" s="8" t="e">
+      <c r="Y51" s="8">
         <f>IF(ISBLANK(Z51),0, LOOKUP(Z51,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA51/100)</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="Z51" s="13">
-        <v>55000158</v>
+        <v>55900006</v>
       </c>
       <c r="AA51" s="4">
         <v>100</v>
@@ -10313,7 +10324,9 @@
       <c r="AB51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AC51" s="4"/>
+      <c r="AC51" s="4">
+        <v>11000003</v>
+      </c>
       <c r="AD51" s="4">
         <v>5</v>
       </c>
@@ -10337,9 +10350,7 @@
       <c r="C52" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D52" s="25"/>
       <c r="E52" s="4">
         <v>1</v>
       </c>
@@ -10351,19 +10362,19 @@
       </c>
       <c r="H52" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4">
         <v>1</v>
       </c>
       <c r="J52" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K52" s="6">
         <v>0</v>
       </c>
-      <c r="L52" s="8">
-        <v>-2</v>
+      <c r="L52" s="14">
+        <v>0</v>
       </c>
       <c r="M52" s="8">
         <v>6</v>
@@ -10372,13 +10383,13 @@
         <v>0</v>
       </c>
       <c r="O52" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P52" s="8">
         <v>0</v>
       </c>
       <c r="Q52" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R52" s="8">
         <v>0</v>
@@ -10391,7 +10402,7 @@
       </c>
       <c r="U52" s="10">
         <f t="shared" si="3"/>
-        <v>-102</v>
+        <v>0</v>
       </c>
       <c r="V52" s="8">
         <v>0</v>
@@ -10435,9 +10446,7 @@
       <c r="C53" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D53" s="25"/>
       <c r="E53" s="4">
         <v>1</v>
       </c>
@@ -10449,7 +10458,7 @@
       </c>
       <c r="H53" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4">
         <v>1</v>
@@ -10458,9 +10467,9 @@
         <v>0</v>
       </c>
       <c r="K53" s="6">
-        <v>0</v>
-      </c>
-      <c r="L53" s="8">
+        <v>60</v>
+      </c>
+      <c r="L53" s="14">
         <v>0</v>
       </c>
       <c r="M53" s="8">
@@ -10470,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P53" s="8">
         <v>0</v>
@@ -10479,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S53" s="8">
         <v>0</v>
@@ -10489,7 +10498,7 @@
       </c>
       <c r="U53" s="10">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V53" s="8">
         <v>0</v>
@@ -10533,9 +10542,7 @@
       <c r="C54" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D54" s="25"/>
       <c r="E54" s="4">
         <v>1</v>
       </c>
@@ -10547,18 +10554,18 @@
       </c>
       <c r="H54" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I54" s="4">
         <v>1</v>
       </c>
       <c r="J54" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K54" s="6">
-        <v>0</v>
-      </c>
-      <c r="L54" s="8">
+        <v>40</v>
+      </c>
+      <c r="L54" s="14">
         <v>0</v>
       </c>
       <c r="M54" s="8">
@@ -10568,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P54" s="8">
         <v>0</v>
@@ -10587,7 +10594,7 @@
       </c>
       <c r="U54" s="10">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V54" s="8">
         <v>0</v>
@@ -10607,7 +10614,9 @@
       <c r="AB54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC54" s="4"/>
+      <c r="AC54" s="4">
+        <v>11000008</v>
+      </c>
       <c r="AD54" s="4">
         <v>5</v>
       </c>
@@ -10645,7 +10654,7 @@
       </c>
       <c r="H55" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4">
         <v>1</v>
@@ -10656,8 +10665,8 @@
       <c r="K55" s="6">
         <v>40</v>
       </c>
-      <c r="L55" s="8">
-        <v>-3</v>
+      <c r="L55" s="14">
+        <v>0</v>
       </c>
       <c r="M55" s="8">
         <v>4</v>
@@ -10685,7 +10694,7 @@
       </c>
       <c r="U55" s="10">
         <f t="shared" si="3"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="V55" s="8">
         <v>0</v>
@@ -10750,10 +10759,10 @@
         <v>0</v>
       </c>
       <c r="K56" s="6">
-        <v>65</v>
-      </c>
-      <c r="L56" s="8">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="L56" s="14">
+        <v>0</v>
       </c>
       <c r="M56" s="8">
         <v>4</v>
@@ -10787,10 +10796,10 @@
         <v>0</v>
       </c>
       <c r="W56" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X56" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y56" s="8">
         <f>IF(ISBLANK(Z56),0, LOOKUP(Z56,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA56/100)</f>
@@ -10801,7 +10810,9 @@
       <c r="AB56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC56" s="4"/>
+      <c r="AC56" s="4">
+        <v>11000002</v>
+      </c>
       <c r="AD56" s="4">
         <v>5</v>
       </c>
@@ -10848,8 +10859,8 @@
       <c r="K57" s="6">
         <v>60</v>
       </c>
-      <c r="L57" s="8">
-        <v>-2</v>
+      <c r="L57" s="14">
+        <v>0</v>
       </c>
       <c r="M57" s="8">
         <v>4</v>
@@ -10877,7 +10888,7 @@
       </c>
       <c r="U57" s="10">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V57" s="8">
         <v>0</v>
@@ -10921,9 +10932,7 @@
       <c r="C58" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D58" s="25"/>
       <c r="E58" s="4">
         <v>3</v>
       </c>
@@ -10935,7 +10944,7 @@
       </c>
       <c r="H58" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I58" s="4">
         <v>3</v>
@@ -10946,8 +10955,8 @@
       <c r="K58" s="6">
         <v>50</v>
       </c>
-      <c r="L58" s="8">
-        <v>1</v>
+      <c r="L58" s="14">
+        <v>0</v>
       </c>
       <c r="M58" s="8">
         <v>4</v>
@@ -10965,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S58" s="8">
         <v>0</v>
@@ -10975,16 +10984,16 @@
       </c>
       <c r="U58" s="10">
         <f t="shared" si="3"/>
-        <v>-49</v>
+        <v>1</v>
       </c>
       <c r="V58" s="8">
         <v>0</v>
       </c>
       <c r="W58" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X58" s="8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y58" s="8">
         <f>IF(ISBLANK(Z58),0, LOOKUP(Z58,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA58/100)</f>
@@ -10995,7 +11004,9 @@
       <c r="AB58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC58" s="4"/>
+      <c r="AC58" s="4">
+        <v>11000005</v>
+      </c>
       <c r="AD58" s="4">
         <v>5</v>
       </c>
@@ -11019,9 +11030,7 @@
       <c r="C59" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D59" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D59" s="25"/>
       <c r="E59" s="4">
         <v>3</v>
       </c>
@@ -11033,7 +11042,7 @@
       </c>
       <c r="H59" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I59" s="4">
         <v>3</v>
@@ -11042,10 +11051,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="6">
-        <v>25</v>
-      </c>
-      <c r="L59" s="8">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="L59" s="14">
+        <v>0</v>
       </c>
       <c r="M59" s="8">
         <v>4</v>
@@ -11054,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P59" s="8">
         <v>0</v>
@@ -11073,16 +11082,16 @@
       </c>
       <c r="U59" s="10">
         <f t="shared" si="3"/>
-        <v>-74</v>
+        <v>4</v>
       </c>
       <c r="V59" s="8">
         <v>0</v>
       </c>
       <c r="W59" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X59" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y59" s="8">
         <f>IF(ISBLANK(Z59),0, LOOKUP(Z59,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA59/100)</f>
@@ -11093,7 +11102,9 @@
       <c r="AB59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC59" s="4"/>
+      <c r="AC59" s="4">
+        <v>11000007</v>
+      </c>
       <c r="AD59" s="4">
         <v>5</v>
       </c>
@@ -11117,9 +11128,7 @@
       <c r="C60" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D60" s="25"/>
       <c r="E60" s="4">
         <v>3</v>
       </c>
@@ -11131,19 +11140,19 @@
       </c>
       <c r="H60" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I60" s="4">
         <v>3</v>
       </c>
       <c r="J60" s="6">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K60" s="6">
-        <v>65</v>
-      </c>
-      <c r="L60" s="8">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="L60" s="14">
+        <v>0</v>
       </c>
       <c r="M60" s="8">
         <v>4</v>
@@ -11171,16 +11180,16 @@
       </c>
       <c r="U60" s="10">
         <f t="shared" si="3"/>
-        <v>-33</v>
+        <v>3</v>
       </c>
       <c r="V60" s="8">
         <v>0</v>
       </c>
       <c r="W60" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X60" s="8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y60" s="8">
         <f>IF(ISBLANK(Z60),0, LOOKUP(Z60,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA60/100)</f>
@@ -11240,8 +11249,8 @@
       <c r="K61" s="6">
         <v>0</v>
       </c>
-      <c r="L61" s="8">
-        <v>2</v>
+      <c r="L61" s="14">
+        <v>0</v>
       </c>
       <c r="M61" s="8">
         <v>4</v>
@@ -11269,7 +11278,7 @@
       </c>
       <c r="U61" s="10">
         <f t="shared" si="3"/>
-        <v>-98</v>
+        <v>-100</v>
       </c>
       <c r="V61" s="8">
         <v>0</v>
@@ -11342,8 +11351,8 @@
       <c r="K62" s="6">
         <v>0</v>
       </c>
-      <c r="L62" s="8">
-        <v>1</v>
+      <c r="L62" s="14">
+        <v>0</v>
       </c>
       <c r="M62" s="8">
         <v>4</v>
@@ -11371,7 +11380,7 @@
       </c>
       <c r="U62" s="10">
         <f t="shared" si="3"/>
-        <v>-74</v>
+        <v>-75</v>
       </c>
       <c r="V62" s="8">
         <v>0</v>
@@ -11419,9 +11428,7 @@
       <c r="C63" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D63" s="25"/>
       <c r="E63" s="4">
         <v>1</v>
       </c>
@@ -11433,7 +11440,7 @@
       </c>
       <c r="H63" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I63" s="4">
         <v>1</v>
@@ -11442,9 +11449,9 @@
         <v>0</v>
       </c>
       <c r="K63" s="6">
-        <v>0</v>
-      </c>
-      <c r="L63" s="8">
+        <v>50</v>
+      </c>
+      <c r="L63" s="14">
         <v>0</v>
       </c>
       <c r="M63" s="8">
@@ -11460,10 +11467,10 @@
         <v>0</v>
       </c>
       <c r="Q63" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R63" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S63" s="8">
         <v>0</v>
@@ -11473,7 +11480,7 @@
       </c>
       <c r="U63" s="10">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V63" s="8">
         <v>0</v>
@@ -11484,12 +11491,12 @@
       <c r="X63" s="8">
         <v>0</v>
       </c>
-      <c r="Y63" s="8" t="e">
+      <c r="Y63" s="8">
         <f>IF(ISBLANK(Z63),0, LOOKUP(Z63,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA63/100)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="Z63">
-        <v>55000101</v>
+        <v>55100001</v>
       </c>
       <c r="AA63" s="4">
         <v>100</v>
@@ -11521,9 +11528,7 @@
       <c r="C64" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D64" s="25"/>
       <c r="E64" s="4">
         <v>3</v>
       </c>
@@ -11535,7 +11540,7 @@
       </c>
       <c r="H64" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I64" s="4">
         <v>3</v>
@@ -11544,9 +11549,9 @@
         <v>0</v>
       </c>
       <c r="K64" s="6">
-        <v>0</v>
-      </c>
-      <c r="L64" s="8">
+        <v>54</v>
+      </c>
+      <c r="L64" s="14">
         <v>0</v>
       </c>
       <c r="M64" s="8">
@@ -11562,10 +11567,10 @@
         <v>0</v>
       </c>
       <c r="Q64" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R64" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S64" s="8">
         <v>0</v>
@@ -11575,7 +11580,7 @@
       </c>
       <c r="U64" s="10">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>4</v>
       </c>
       <c r="V64" s="8">
         <v>0</v>
@@ -11586,12 +11591,12 @@
       <c r="X64" s="8">
         <v>0</v>
       </c>
-      <c r="Y64" s="8" t="e">
+      <c r="Y64" s="8">
         <f>IF(ISBLANK(Z64),0, LOOKUP(Z64,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA64/100)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="Z64">
-        <v>55000102</v>
+        <v>55100001</v>
       </c>
       <c r="AA64" s="4">
         <v>100</v>
@@ -11648,8 +11653,8 @@
       <c r="K65" s="6">
         <v>0</v>
       </c>
-      <c r="L65" s="8">
-        <v>2</v>
+      <c r="L65" s="14">
+        <v>0</v>
       </c>
       <c r="M65" s="8">
         <v>4</v>
@@ -11677,7 +11682,7 @@
       </c>
       <c r="U65" s="10">
         <f t="shared" si="3"/>
-        <v>-98</v>
+        <v>-100</v>
       </c>
       <c r="V65" s="8">
         <v>0</v>
@@ -11739,7 +11744,7 @@
       </c>
       <c r="H66" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="4">
         <v>1</v>
@@ -11750,8 +11755,8 @@
       <c r="K66" s="6">
         <v>47</v>
       </c>
-      <c r="L66" s="8">
-        <v>-2</v>
+      <c r="L66" s="14">
+        <v>0</v>
       </c>
       <c r="M66" s="8">
         <v>3</v>
@@ -11779,7 +11784,7 @@
       </c>
       <c r="U66" s="10">
         <f t="shared" si="3"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="V66" s="8">
         <v>0</v>
@@ -11847,8 +11852,8 @@
       <c r="K67" s="6">
         <v>80</v>
       </c>
-      <c r="L67" s="8">
-        <v>-3</v>
+      <c r="L67" s="14">
+        <v>0</v>
       </c>
       <c r="M67" s="8">
         <v>4</v>
@@ -11876,7 +11881,7 @@
       </c>
       <c r="U67" s="10">
         <f t="shared" si="3"/>
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="V67" s="8">
         <v>0</v>
@@ -11949,8 +11954,8 @@
       <c r="K68" s="6">
         <v>0</v>
       </c>
-      <c r="L68" s="8">
-        <v>-1</v>
+      <c r="L68" s="14">
+        <v>0</v>
       </c>
       <c r="M68" s="8">
         <v>4</v>
@@ -11978,7 +11983,7 @@
       </c>
       <c r="U68" s="10">
         <f t="shared" ref="U68:U99" si="5">J68+K68-100+L68+ SUM(N68:T68)*5+IF(ISNUMBER(Y68),Y68,0)+X68</f>
-        <v>-34</v>
+        <v>-33</v>
       </c>
       <c r="V68" s="8">
         <v>10</v>
@@ -12049,8 +12054,8 @@
       <c r="K69" s="6">
         <v>0</v>
       </c>
-      <c r="L69" s="8">
-        <v>-1</v>
+      <c r="L69" s="14">
+        <v>0</v>
       </c>
       <c r="M69" s="8">
         <v>5</v>
@@ -12078,7 +12083,7 @@
       </c>
       <c r="U69" s="10">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V69" s="8">
         <v>10</v>
@@ -12145,8 +12150,8 @@
       <c r="K70" s="6">
         <v>0</v>
       </c>
-      <c r="L70" s="8">
-        <v>-1</v>
+      <c r="L70" s="14">
+        <v>0</v>
       </c>
       <c r="M70" s="8">
         <v>5</v>
@@ -12174,7 +12179,7 @@
       </c>
       <c r="U70" s="10">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V70" s="8">
         <v>10</v>
@@ -12241,8 +12246,8 @@
       <c r="K71" s="6">
         <v>100</v>
       </c>
-      <c r="L71" s="8">
-        <v>-1</v>
+      <c r="L71" s="14">
+        <v>0</v>
       </c>
       <c r="M71" s="8">
         <v>4</v>
@@ -12270,7 +12275,7 @@
       </c>
       <c r="U71" s="10">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V71" s="8">
         <v>0</v>
@@ -12339,8 +12344,8 @@
       <c r="K72" s="6">
         <v>0</v>
       </c>
-      <c r="L72" s="8">
-        <v>3</v>
+      <c r="L72" s="14">
+        <v>0</v>
       </c>
       <c r="M72" s="8">
         <v>4</v>
@@ -12368,7 +12373,7 @@
       </c>
       <c r="U72" s="10">
         <f t="shared" si="5"/>
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="V72" s="8">
         <v>0</v>
@@ -12441,8 +12446,8 @@
       <c r="K73" s="6">
         <v>70</v>
       </c>
-      <c r="L73" s="8">
-        <v>-2</v>
+      <c r="L73" s="14">
+        <v>0</v>
       </c>
       <c r="M73" s="8">
         <v>4</v>
@@ -12470,7 +12475,7 @@
       </c>
       <c r="U73" s="10">
         <f t="shared" si="5"/>
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="V73" s="8">
         <v>0</v>
@@ -12543,8 +12548,8 @@
       <c r="K74" s="6">
         <v>35</v>
       </c>
-      <c r="L74" s="8">
-        <v>2</v>
+      <c r="L74" s="14">
+        <v>0</v>
       </c>
       <c r="M74" s="8">
         <v>4</v>
@@ -12572,7 +12577,7 @@
       </c>
       <c r="U74" s="10">
         <f t="shared" si="5"/>
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="V74" s="8">
         <v>0</v>
@@ -12645,8 +12650,8 @@
       <c r="K75" s="6">
         <v>0</v>
       </c>
-      <c r="L75" s="8">
-        <v>1</v>
+      <c r="L75" s="14">
+        <v>0</v>
       </c>
       <c r="M75" s="8">
         <v>4</v>
@@ -12674,7 +12679,7 @@
       </c>
       <c r="U75" s="10">
         <f t="shared" si="5"/>
-        <v>-54</v>
+        <v>-55</v>
       </c>
       <c r="V75" s="8">
         <v>0</v>
@@ -12747,8 +12752,8 @@
       <c r="K76" s="7">
         <v>50</v>
       </c>
-      <c r="L76" s="8">
-        <v>-3</v>
+      <c r="L76" s="14">
+        <v>0</v>
       </c>
       <c r="M76" s="8">
         <v>4</v>
@@ -12776,7 +12781,7 @@
       </c>
       <c r="U76" s="10">
         <f t="shared" si="5"/>
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="V76" s="8">
         <v>10</v>
@@ -12849,8 +12854,8 @@
       <c r="K77" s="6">
         <v>0</v>
       </c>
-      <c r="L77" s="8">
-        <v>1</v>
+      <c r="L77" s="14">
+        <v>0</v>
       </c>
       <c r="M77" s="8">
         <v>4</v>
@@ -12878,7 +12883,7 @@
       </c>
       <c r="U77" s="10">
         <f t="shared" si="5"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="V77" s="8">
         <v>10</v>
@@ -12951,8 +12956,8 @@
       <c r="K78" s="6">
         <v>0</v>
       </c>
-      <c r="L78" s="8">
-        <v>1</v>
+      <c r="L78" s="14">
+        <v>0</v>
       </c>
       <c r="M78" s="8">
         <v>4</v>
@@ -12980,7 +12985,7 @@
       </c>
       <c r="U78" s="10">
         <f t="shared" si="5"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="V78" s="8">
         <v>10</v>
@@ -13053,8 +13058,8 @@
       <c r="K79" s="6">
         <v>0</v>
       </c>
-      <c r="L79" s="8">
-        <v>1</v>
+      <c r="L79" s="14">
+        <v>0</v>
       </c>
       <c r="M79" s="8">
         <v>4</v>
@@ -13082,7 +13087,7 @@
       </c>
       <c r="U79" s="10">
         <f t="shared" si="5"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="V79" s="8">
         <v>10</v>
@@ -13155,8 +13160,8 @@
       <c r="K80" s="6">
         <v>0</v>
       </c>
-      <c r="L80" s="8">
-        <v>1</v>
+      <c r="L80" s="14">
+        <v>0</v>
       </c>
       <c r="M80" s="8">
         <v>4</v>
@@ -13184,7 +13189,7 @@
       </c>
       <c r="U80" s="10">
         <f t="shared" si="5"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="V80" s="8">
         <v>10</v>
@@ -13257,8 +13262,8 @@
       <c r="K81" s="6">
         <v>0</v>
       </c>
-      <c r="L81" s="8">
-        <v>1</v>
+      <c r="L81" s="14">
+        <v>0</v>
       </c>
       <c r="M81" s="8">
         <v>4</v>
@@ -13286,7 +13291,7 @@
       </c>
       <c r="U81" s="10">
         <f t="shared" si="5"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="V81" s="8">
         <v>10</v>
@@ -13359,8 +13364,8 @@
       <c r="K82" s="6">
         <v>0</v>
       </c>
-      <c r="L82" s="8">
-        <v>1</v>
+      <c r="L82" s="14">
+        <v>0</v>
       </c>
       <c r="M82" s="8">
         <v>4</v>
@@ -13388,7 +13393,7 @@
       </c>
       <c r="U82" s="10">
         <f t="shared" si="5"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="V82" s="8">
         <v>10</v>
@@ -13461,8 +13466,8 @@
       <c r="K83" s="6">
         <v>0</v>
       </c>
-      <c r="L83" s="8">
-        <v>1</v>
+      <c r="L83" s="14">
+        <v>0</v>
       </c>
       <c r="M83" s="8">
         <v>4</v>
@@ -13490,7 +13495,7 @@
       </c>
       <c r="U83" s="10">
         <f t="shared" si="5"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="V83" s="8">
         <v>10</v>
@@ -13563,8 +13568,8 @@
       <c r="K84" s="6">
         <v>0</v>
       </c>
-      <c r="L84" s="8">
-        <v>1</v>
+      <c r="L84" s="14">
+        <v>0</v>
       </c>
       <c r="M84" s="8">
         <v>4</v>
@@ -13592,7 +13597,7 @@
       </c>
       <c r="U84" s="10">
         <f t="shared" si="5"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="V84" s="8">
         <v>10</v>
@@ -13665,8 +13670,8 @@
       <c r="K85" s="6">
         <v>0</v>
       </c>
-      <c r="L85" s="8">
-        <v>1</v>
+      <c r="L85" s="14">
+        <v>0</v>
       </c>
       <c r="M85" s="8">
         <v>6</v>
@@ -13694,7 +13699,7 @@
       </c>
       <c r="U85" s="10">
         <f t="shared" si="5"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V85" s="8">
         <v>20</v>
@@ -13763,8 +13768,8 @@
       <c r="K86" s="6">
         <v>0</v>
       </c>
-      <c r="L86" s="8">
-        <v>1</v>
+      <c r="L86" s="14">
+        <v>0</v>
       </c>
       <c r="M86" s="8">
         <v>6</v>
@@ -13792,7 +13797,7 @@
       </c>
       <c r="U86" s="10">
         <f t="shared" si="5"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V86" s="8">
         <v>20</v>
@@ -13861,8 +13866,8 @@
       <c r="K87" s="6">
         <v>0</v>
       </c>
-      <c r="L87" s="8">
-        <v>1</v>
+      <c r="L87" s="14">
+        <v>0</v>
       </c>
       <c r="M87" s="8">
         <v>6</v>
@@ -13890,7 +13895,7 @@
       </c>
       <c r="U87" s="10">
         <f t="shared" si="5"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V87" s="8">
         <v>20</v>
@@ -13959,8 +13964,8 @@
       <c r="K88" s="6">
         <v>0</v>
       </c>
-      <c r="L88" s="8">
-        <v>1</v>
+      <c r="L88" s="14">
+        <v>0</v>
       </c>
       <c r="M88" s="8">
         <v>6</v>
@@ -13988,7 +13993,7 @@
       </c>
       <c r="U88" s="10">
         <f t="shared" si="5"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V88" s="8">
         <v>20</v>
@@ -14057,8 +14062,8 @@
       <c r="K89" s="6">
         <v>0</v>
       </c>
-      <c r="L89" s="8">
-        <v>1</v>
+      <c r="L89" s="14">
+        <v>0</v>
       </c>
       <c r="M89" s="8">
         <v>6</v>
@@ -14086,7 +14091,7 @@
       </c>
       <c r="U89" s="10">
         <f t="shared" si="5"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="8">
         <v>20</v>
@@ -14155,8 +14160,8 @@
       <c r="K90" s="6">
         <v>0</v>
       </c>
-      <c r="L90" s="8">
-        <v>1</v>
+      <c r="L90" s="14">
+        <v>0</v>
       </c>
       <c r="M90" s="8">
         <v>6</v>
@@ -14184,7 +14189,7 @@
       </c>
       <c r="U90" s="10">
         <f t="shared" si="5"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V90" s="8">
         <v>20</v>
@@ -14253,8 +14258,8 @@
       <c r="K91" s="6">
         <v>0</v>
       </c>
-      <c r="L91" s="8">
-        <v>1</v>
+      <c r="L91" s="14">
+        <v>0</v>
       </c>
       <c r="M91" s="8">
         <v>6</v>
@@ -14282,7 +14287,7 @@
       </c>
       <c r="U91" s="10">
         <f t="shared" si="5"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="8">
         <v>20</v>
@@ -14351,8 +14356,8 @@
       <c r="K92" s="6">
         <v>0</v>
       </c>
-      <c r="L92" s="8">
-        <v>1</v>
+      <c r="L92" s="14">
+        <v>0</v>
       </c>
       <c r="M92" s="8">
         <v>6</v>
@@ -14380,7 +14385,7 @@
       </c>
       <c r="U92" s="10">
         <f t="shared" si="5"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V92" s="8">
         <v>20</v>
@@ -14449,8 +14454,8 @@
       <c r="K93" s="6">
         <v>0</v>
       </c>
-      <c r="L93" s="8">
-        <v>3</v>
+      <c r="L93" s="14">
+        <v>0</v>
       </c>
       <c r="M93" s="8">
         <v>3</v>
@@ -14478,7 +14483,7 @@
       </c>
       <c r="U93" s="10">
         <f t="shared" si="5"/>
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="V93" s="8">
         <v>20</v>
@@ -14547,8 +14552,8 @@
       <c r="K94" s="6">
         <v>0</v>
       </c>
-      <c r="L94" s="8">
-        <v>-1</v>
+      <c r="L94" s="14">
+        <v>0</v>
       </c>
       <c r="M94" s="8">
         <v>3</v>
@@ -14576,7 +14581,7 @@
       </c>
       <c r="U94" s="10">
         <f t="shared" si="5"/>
-        <v>-101</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="8">
         <v>0</v>
@@ -14649,8 +14654,8 @@
       <c r="K95" s="6">
         <v>0</v>
       </c>
-      <c r="L95" s="8">
-        <v>1</v>
+      <c r="L95" s="14">
+        <v>0</v>
       </c>
       <c r="M95" s="8">
         <v>4</v>
@@ -14678,7 +14683,7 @@
       </c>
       <c r="U95" s="10">
         <f t="shared" si="5"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V95" s="8">
         <v>0</v>
@@ -14751,8 +14756,8 @@
       <c r="K96" s="6">
         <v>0</v>
       </c>
-      <c r="L96" s="8">
-        <v>3</v>
+      <c r="L96" s="14">
+        <v>0</v>
       </c>
       <c r="M96" s="8">
         <v>5</v>
@@ -14780,7 +14785,7 @@
       </c>
       <c r="U96" s="10">
         <f t="shared" si="5"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="V96" s="8">
         <v>10</v>
@@ -14849,7 +14854,7 @@
       <c r="K97" s="6">
         <v>0</v>
       </c>
-      <c r="L97" s="8">
+      <c r="L97" s="14">
         <v>0</v>
       </c>
       <c r="M97" s="8">
@@ -14951,7 +14956,7 @@
       <c r="K98" s="6">
         <v>0</v>
       </c>
-      <c r="L98" s="8">
+      <c r="L98" s="14">
         <v>0</v>
       </c>
       <c r="M98" s="8">
@@ -15053,8 +15058,8 @@
       <c r="K99" s="6">
         <v>35</v>
       </c>
-      <c r="L99" s="8">
-        <v>3</v>
+      <c r="L99" s="14">
+        <v>0</v>
       </c>
       <c r="M99" s="8">
         <v>7</v>
@@ -15082,7 +15087,7 @@
       </c>
       <c r="U99" s="10">
         <f t="shared" si="5"/>
-        <v>-62</v>
+        <v>-65</v>
       </c>
       <c r="V99" s="8">
         <v>0</v>
@@ -15155,8 +15160,8 @@
       <c r="K100" s="6">
         <v>25</v>
       </c>
-      <c r="L100" s="8">
-        <v>2</v>
+      <c r="L100" s="14">
+        <v>0</v>
       </c>
       <c r="M100" s="8">
         <v>4</v>
@@ -15184,7 +15189,7 @@
       </c>
       <c r="U100" s="10">
         <f t="shared" ref="U100:U126" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
-        <v>-73</v>
+        <v>-75</v>
       </c>
       <c r="V100" s="8">
         <v>0</v>
@@ -15257,7 +15262,7 @@
       <c r="K101" s="6">
         <v>0</v>
       </c>
-      <c r="L101" s="8">
+      <c r="L101" s="14">
         <v>0</v>
       </c>
       <c r="M101" s="8">
@@ -15359,7 +15364,7 @@
       <c r="K102" s="6">
         <v>40</v>
       </c>
-      <c r="L102" s="8">
+      <c r="L102" s="14">
         <v>0</v>
       </c>
       <c r="M102" s="8">
@@ -15461,8 +15466,8 @@
       <c r="K103" s="6">
         <v>0</v>
       </c>
-      <c r="L103" s="8">
-        <v>1</v>
+      <c r="L103" s="14">
+        <v>0</v>
       </c>
       <c r="M103" s="8">
         <v>3</v>
@@ -15490,7 +15495,7 @@
       </c>
       <c r="U103" s="10">
         <f t="shared" si="7"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V103" s="8">
         <v>10</v>
@@ -15552,7 +15557,7 @@
       </c>
       <c r="H104" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" s="4">
         <v>3</v>
@@ -15563,8 +15568,8 @@
       <c r="K104" s="6">
         <v>0</v>
       </c>
-      <c r="L104" s="8">
-        <v>3</v>
+      <c r="L104" s="14">
+        <v>0</v>
       </c>
       <c r="M104" s="8">
         <v>4</v>
@@ -15592,7 +15597,7 @@
       </c>
       <c r="U104" s="10">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V104" s="8">
         <v>0</v>
@@ -15665,8 +15670,8 @@
       <c r="K105" s="6">
         <v>0</v>
       </c>
-      <c r="L105" s="8">
-        <v>1</v>
+      <c r="L105" s="14">
+        <v>0</v>
       </c>
       <c r="M105" s="8">
         <v>4</v>
@@ -15694,7 +15699,7 @@
       </c>
       <c r="U105" s="10">
         <f t="shared" si="7"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V105" s="8">
         <v>0</v>
@@ -15767,8 +15772,8 @@
       <c r="K106" s="6">
         <v>0</v>
       </c>
-      <c r="L106" s="8">
-        <v>2</v>
+      <c r="L106" s="14">
+        <v>0</v>
       </c>
       <c r="M106" s="8">
         <v>4</v>
@@ -15796,7 +15801,7 @@
       </c>
       <c r="U106" s="10">
         <f t="shared" si="7"/>
-        <v>-98</v>
+        <v>-100</v>
       </c>
       <c r="V106" s="8">
         <v>0</v>
@@ -15854,7 +15859,7 @@
       </c>
       <c r="H107" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" s="4">
         <v>2</v>
@@ -15865,8 +15870,8 @@
       <c r="K107" s="7">
         <v>0</v>
       </c>
-      <c r="L107" s="8">
-        <v>2</v>
+      <c r="L107" s="14">
+        <v>0</v>
       </c>
       <c r="M107" s="8">
         <v>4</v>
@@ -15894,7 +15899,7 @@
       </c>
       <c r="U107" s="10">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V107" s="8">
         <v>10</v>
@@ -15967,8 +15972,8 @@
       <c r="K108" s="6">
         <v>35</v>
       </c>
-      <c r="L108" s="8">
-        <v>-2</v>
+      <c r="L108" s="14">
+        <v>0</v>
       </c>
       <c r="M108" s="8">
         <v>4</v>
@@ -15996,7 +16001,7 @@
       </c>
       <c r="U108" s="10">
         <f t="shared" si="7"/>
-        <v>-67</v>
+        <v>-65</v>
       </c>
       <c r="V108" s="8">
         <v>0</v>
@@ -16069,8 +16074,8 @@
       <c r="K109" s="6">
         <v>0</v>
       </c>
-      <c r="L109" s="8">
-        <v>2</v>
+      <c r="L109" s="14">
+        <v>0</v>
       </c>
       <c r="M109" s="8">
         <v>4</v>
@@ -16098,7 +16103,7 @@
       </c>
       <c r="U109" s="10">
         <f t="shared" si="7"/>
-        <v>-98</v>
+        <v>-100</v>
       </c>
       <c r="V109" s="8">
         <v>0</v>
@@ -16171,8 +16176,8 @@
       <c r="K110" s="6">
         <v>25</v>
       </c>
-      <c r="L110" s="8">
-        <v>3</v>
+      <c r="L110" s="14">
+        <v>0</v>
       </c>
       <c r="M110" s="8">
         <v>4</v>
@@ -16200,7 +16205,7 @@
       </c>
       <c r="U110" s="10">
         <f t="shared" si="7"/>
-        <v>-47</v>
+        <v>-50</v>
       </c>
       <c r="V110" s="8">
         <v>0</v>
@@ -16273,8 +16278,8 @@
       <c r="K111" s="6">
         <v>0</v>
       </c>
-      <c r="L111" s="8">
-        <v>3</v>
+      <c r="L111" s="14">
+        <v>0</v>
       </c>
       <c r="M111" s="8">
         <v>4</v>
@@ -16302,7 +16307,7 @@
       </c>
       <c r="U111" s="10">
         <f t="shared" si="7"/>
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="V111" s="8">
         <v>10</v>
@@ -16375,8 +16380,8 @@
       <c r="K112" s="6">
         <v>0</v>
       </c>
-      <c r="L112" s="8">
-        <v>1</v>
+      <c r="L112" s="14">
+        <v>0</v>
       </c>
       <c r="M112" s="8">
         <v>4</v>
@@ -16404,7 +16409,7 @@
       </c>
       <c r="U112" s="10">
         <f t="shared" si="7"/>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="V112" s="8">
         <v>0</v>
@@ -16466,7 +16471,7 @@
       </c>
       <c r="H113" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" s="4">
         <v>6</v>
@@ -16477,8 +16482,8 @@
       <c r="K113" s="6">
         <v>100</v>
       </c>
-      <c r="L113" s="8">
-        <v>2</v>
+      <c r="L113" s="14">
+        <v>0</v>
       </c>
       <c r="M113" s="8">
         <v>6</v>
@@ -16506,7 +16511,7 @@
       </c>
       <c r="U113" s="10">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V113" s="8">
         <v>0</v>
@@ -16579,7 +16584,7 @@
       <c r="K114" s="6">
         <v>0</v>
       </c>
-      <c r="L114" s="8">
+      <c r="L114" s="14">
         <v>0</v>
       </c>
       <c r="M114" s="8">
@@ -16681,8 +16686,8 @@
       <c r="K115" s="6">
         <v>40</v>
       </c>
-      <c r="L115" s="8">
-        <v>1</v>
+      <c r="L115" s="14">
+        <v>0</v>
       </c>
       <c r="M115" s="8">
         <v>4</v>
@@ -16710,7 +16715,7 @@
       </c>
       <c r="U115" s="18">
         <f t="shared" si="7"/>
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="V115" s="8">
         <v>0</v>
@@ -16783,8 +16788,8 @@
       <c r="K116" s="6">
         <v>0</v>
       </c>
-      <c r="L116" s="8">
-        <v>-1</v>
+      <c r="L116" s="14">
+        <v>0</v>
       </c>
       <c r="M116" s="8">
         <v>4</v>
@@ -16812,7 +16817,7 @@
       </c>
       <c r="U116" s="10">
         <f t="shared" si="7"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="V116" s="8">
         <v>0</v>
@@ -16861,7 +16866,7 @@
         <v>147</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="E117" s="4">
         <v>2</v>
@@ -16874,7 +16879,7 @@
       </c>
       <c r="H117" s="4">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I117" s="4">
         <v>2</v>
@@ -16883,10 +16888,10 @@
         <v>0</v>
       </c>
       <c r="K117" s="6">
-        <v>0</v>
-      </c>
-      <c r="L117" s="8">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="L117" s="14">
+        <v>0</v>
       </c>
       <c r="M117" s="8">
         <v>4</v>
@@ -16901,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="Q117" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R117" s="8">
         <v>0</v>
@@ -16914,7 +16919,7 @@
       </c>
       <c r="U117" s="10">
         <f t="shared" si="7"/>
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="V117" s="8">
         <v>0</v>
@@ -16925,12 +16930,12 @@
       <c r="X117" s="8">
         <v>0</v>
       </c>
-      <c r="Y117" s="8" t="e">
+      <c r="Y117" s="8">
         <f>IF(ISBLANK(Z117),0, LOOKUP(Z117,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA117/100)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="Z117" s="38">
-        <v>55000093</v>
+        <v>55510007</v>
       </c>
       <c r="AA117" s="4">
         <v>100</v>
@@ -16987,7 +16992,7 @@
       <c r="K118" s="6">
         <v>0</v>
       </c>
-      <c r="L118" s="8">
+      <c r="L118" s="14">
         <v>0</v>
       </c>
       <c r="M118" s="8">
@@ -17089,8 +17094,8 @@
       <c r="K119" s="6">
         <v>0</v>
       </c>
-      <c r="L119" s="8">
-        <v>3</v>
+      <c r="L119" s="14">
+        <v>0</v>
       </c>
       <c r="M119" s="8">
         <v>4</v>
@@ -17118,7 +17123,7 @@
       </c>
       <c r="U119" s="37">
         <f t="shared" si="7"/>
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="V119" s="8">
         <v>0</v>
@@ -17191,8 +17196,8 @@
       <c r="K120" s="6">
         <v>0</v>
       </c>
-      <c r="L120" s="8">
-        <v>1</v>
+      <c r="L120" s="14">
+        <v>0</v>
       </c>
       <c r="M120" s="8">
         <v>2</v>
@@ -17220,7 +17225,7 @@
       </c>
       <c r="U120" s="18">
         <f t="shared" si="7"/>
-        <v>-74</v>
+        <v>-75</v>
       </c>
       <c r="V120" s="8">
         <v>0</v>
@@ -17294,7 +17299,7 @@
         <v>65</v>
       </c>
       <c r="L121" s="14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M121" s="8">
         <v>4</v>
@@ -17322,7 +17327,7 @@
       </c>
       <c r="U121" s="18">
         <f t="shared" si="7"/>
-        <v>-36</v>
+        <v>-35</v>
       </c>
       <c r="V121" s="8">
         <v>0</v>
@@ -17380,7 +17385,7 @@
       </c>
       <c r="H122" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" s="15">
         <v>5</v>
@@ -17392,7 +17397,7 @@
         <v>100</v>
       </c>
       <c r="L122" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" s="8">
         <v>4</v>
@@ -17420,7 +17425,7 @@
       </c>
       <c r="U122" s="36">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V122" s="8">
         <v>0</v>
@@ -17490,7 +17495,7 @@
         <v>70</v>
       </c>
       <c r="L123" s="14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M123" s="8">
         <v>4</v>
@@ -17518,7 +17523,7 @@
       </c>
       <c r="U123" s="36">
         <f t="shared" si="7"/>
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="V123" s="8">
         <v>0</v>
@@ -17588,7 +17593,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M124" s="8">
         <v>3</v>
@@ -17616,7 +17621,7 @@
       </c>
       <c r="U124" s="18">
         <f t="shared" si="7"/>
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="V124" s="8">
         <v>10</v>
@@ -17685,8 +17690,8 @@
       <c r="K125" s="6">
         <v>0</v>
       </c>
-      <c r="L125" s="8">
-        <v>-3</v>
+      <c r="L125" s="14">
+        <v>0</v>
       </c>
       <c r="M125" s="8">
         <v>4</v>
@@ -17714,7 +17719,7 @@
       </c>
       <c r="U125" s="10">
         <f t="shared" si="7"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="V125" s="8">
         <v>10</v>
@@ -17784,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M126" s="8">
         <v>4</v>
@@ -17812,7 +17817,7 @@
       </c>
       <c r="U126" s="18">
         <f t="shared" si="7"/>
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="V126" s="8">
         <v>25</v>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="368">
   <si>
     <t>铁杖</t>
   </si>
@@ -1231,6 +1231,14 @@
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -5243,10 +5251,10 @@
   <dimension ref="A1:AG126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8774,9 +8782,7 @@
       <c r="C36" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D36" s="25"/>
       <c r="E36" s="4">
         <v>2</v>
       </c>
@@ -8872,9 +8878,7 @@
       <c r="C37" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D37" s="25"/>
       <c r="E37" s="4">
         <v>2</v>
       </c>
@@ -9070,9 +9074,7 @@
       <c r="C39" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D39" s="25"/>
       <c r="E39" s="4">
         <v>2</v>
       </c>
@@ -9466,9 +9468,7 @@
       <c r="C43" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D43" s="25"/>
       <c r="E43" s="4">
         <v>2</v>
       </c>
@@ -11327,10 +11327,10 @@
         <v>197</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="E62" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62">
         <v>103</v>
@@ -11340,13 +11340,13 @@
       </c>
       <c r="H62" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I62" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62" s="6">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K62" s="6">
         <v>0</v>
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R62" s="8">
         <v>0</v>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="U62" s="10">
         <f t="shared" si="3"/>
-        <v>-75</v>
+        <v>5</v>
       </c>
       <c r="V62" s="8">
         <v>0</v>
@@ -11391,12 +11391,12 @@
       <c r="X62" s="8">
         <v>0</v>
       </c>
-      <c r="Y62" s="8" t="e">
+      <c r="Y62" s="8">
         <f>IF(ISBLANK(Z62),0, LOOKUP(Z62,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA62/100)</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="Z62" s="38">
-        <v>55000089</v>
+        <v>55110003</v>
       </c>
       <c r="AA62" s="4">
         <v>100</v>
@@ -11404,7 +11404,9 @@
       <c r="AB62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC62" s="4"/>
+      <c r="AC62" s="4">
+        <v>11000005</v>
+      </c>
       <c r="AD62" s="4">
         <v>5</v>
       </c>
@@ -11628,9 +11630,7 @@
       <c r="C65" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D65" s="25"/>
       <c r="E65" s="4">
         <v>3</v>
       </c>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="H65" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I65" s="4">
         <v>3</v>
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L65" s="14">
         <v>0</v>
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S65" s="8">
         <v>0</v>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="U65" s="10">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>7</v>
       </c>
       <c r="V65" s="8">
         <v>0</v>
@@ -11693,20 +11693,22 @@
       <c r="X65" s="8">
         <v>0</v>
       </c>
-      <c r="Y65" s="8" t="e">
+      <c r="Y65" s="8">
         <f>IF(ISBLANK(Z65),0, LOOKUP(Z65,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA65/100)</f>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="Z65">
-        <v>55000143</v>
+        <v>55900016</v>
       </c>
       <c r="AA65" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AB65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC65" s="4"/>
+      <c r="AC65" s="4">
+        <v>11000001</v>
+      </c>
       <c r="AD65" s="4">
         <v>5</v>
       </c>
@@ -11929,9 +11931,7 @@
       <c r="C68" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D68" s="25"/>
       <c r="E68" s="4">
         <v>1</v>
       </c>
@@ -11943,13 +11943,13 @@
       </c>
       <c r="H68" s="4">
         <f t="shared" ref="H68:H99" si="4">IF(AND(U68&gt;=13,U68&lt;=16),5,IF(AND(U68&gt;=9,U68&lt;=12),4,IF(AND(U68&gt;=5,U68&lt;=8),3,IF(AND(U68&gt;=1,U68&lt;=4),2,IF(AND(U68&gt;=-3,U68&lt;=0),1,IF(AND(U68&gt;=-5,U68&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I68" s="4">
         <v>1</v>
       </c>
       <c r="J68" s="6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K68" s="6">
         <v>0</v>
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q68" s="8">
         <v>0</v>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="U68" s="10">
         <f t="shared" ref="U68:U99" si="5">J68+K68-100+L68+ SUM(N68:T68)*5+IF(ISNUMBER(Y68),Y68,0)+X68</f>
-        <v>-33</v>
+        <v>-1</v>
       </c>
       <c r="V68" s="8">
         <v>10</v>
@@ -11994,20 +11994,17 @@
       <c r="X68" s="8">
         <v>0</v>
       </c>
-      <c r="Y68" s="8" t="e">
+      <c r="Y68" s="8">
         <f>IF(ISBLANK(Z68),0, LOOKUP(Z68,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA68/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z68">
-        <v>55000222</v>
-      </c>
-      <c r="AA68" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="4"/>
       <c r="AB68" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AC68" s="4"/>
+      <c r="AC68" s="4">
+        <v>11000005</v>
+      </c>
       <c r="AD68" s="4">
         <v>5</v>
       </c>
@@ -12523,11 +12520,9 @@
       <c r="C74" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D74" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D74" s="25"/>
       <c r="E74" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74">
         <v>102</v>
@@ -12537,19 +12532,19 @@
       </c>
       <c r="H74" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I74" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74" s="6">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K74" s="6">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L74" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M74" s="8">
         <v>4</v>
@@ -12577,7 +12572,7 @@
       </c>
       <c r="U74" s="10">
         <f t="shared" si="5"/>
-        <v>-65</v>
+        <v>3</v>
       </c>
       <c r="V74" s="8">
         <v>0</v>
@@ -12588,12 +12583,12 @@
       <c r="X74" s="8">
         <v>0</v>
       </c>
-      <c r="Y74" s="8" t="e">
+      <c r="Y74" s="8">
         <f>IF(ISBLANK(Z74),0, LOOKUP(Z74,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA74/100)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="Z74">
-        <v>55000168</v>
+        <v>55900013</v>
       </c>
       <c r="AA74" s="4">
         <v>100</v>
@@ -13645,9 +13640,7 @@
       <c r="C85" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D85" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D85" s="25"/>
       <c r="E85" s="4">
         <v>4</v>
       </c>
@@ -13659,19 +13652,19 @@
       </c>
       <c r="H85" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I85" s="4">
         <v>4</v>
       </c>
       <c r="J85" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K85" s="6">
         <v>0</v>
       </c>
       <c r="L85" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M85" s="8">
         <v>6</v>
@@ -13699,7 +13692,7 @@
       </c>
       <c r="U85" s="10">
         <f t="shared" si="5"/>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V85" s="8">
         <v>20</v>
@@ -13743,9 +13736,7 @@
       <c r="C86" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D86" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D86" s="25"/>
       <c r="E86" s="4">
         <v>4</v>
       </c>
@@ -13757,19 +13748,19 @@
       </c>
       <c r="H86" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I86" s="4">
         <v>4</v>
       </c>
       <c r="J86" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K86" s="6">
         <v>0</v>
       </c>
       <c r="L86" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M86" s="8">
         <v>6</v>
@@ -13797,7 +13788,7 @@
       </c>
       <c r="U86" s="10">
         <f t="shared" si="5"/>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V86" s="8">
         <v>20</v>
@@ -13817,7 +13808,9 @@
       <c r="AB86" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC86" s="4"/>
+      <c r="AC86" s="4">
+        <v>11000008</v>
+      </c>
       <c r="AD86" s="4">
         <v>5</v>
       </c>
@@ -13841,9 +13834,7 @@
       <c r="C87" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D87" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D87" s="25"/>
       <c r="E87" s="4">
         <v>4</v>
       </c>
@@ -13855,19 +13846,19 @@
       </c>
       <c r="H87" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I87" s="4">
         <v>4</v>
       </c>
       <c r="J87" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K87" s="6">
         <v>0</v>
       </c>
       <c r="L87" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M87" s="8">
         <v>6</v>
@@ -13895,7 +13886,7 @@
       </c>
       <c r="U87" s="10">
         <f t="shared" si="5"/>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V87" s="8">
         <v>20</v>
@@ -13915,7 +13906,9 @@
       <c r="AB87" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AC87" s="4"/>
+      <c r="AC87" s="4">
+        <v>11000006</v>
+      </c>
       <c r="AD87" s="4">
         <v>5</v>
       </c>
@@ -13939,9 +13932,7 @@
       <c r="C88" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D88" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D88" s="25"/>
       <c r="E88" s="4">
         <v>4</v>
       </c>
@@ -13953,19 +13944,19 @@
       </c>
       <c r="H88" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I88" s="4">
         <v>4</v>
       </c>
       <c r="J88" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K88" s="6">
         <v>0</v>
       </c>
       <c r="L88" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M88" s="8">
         <v>6</v>
@@ -13993,7 +13984,7 @@
       </c>
       <c r="U88" s="10">
         <f t="shared" si="5"/>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V88" s="8">
         <v>20</v>
@@ -14111,7 +14102,9 @@
       <c r="AB89" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="AC89" s="4"/>
+      <c r="AC89" s="4">
+        <v>11000006</v>
+      </c>
       <c r="AD89" s="4">
         <v>5</v>
       </c>
@@ -14233,9 +14226,7 @@
       <c r="C91" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D91" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D91" s="25"/>
       <c r="E91" s="4">
         <v>4</v>
       </c>
@@ -14247,19 +14238,19 @@
       </c>
       <c r="H91" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I91" s="4">
         <v>4</v>
       </c>
       <c r="J91" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K91" s="6">
         <v>0</v>
       </c>
       <c r="L91" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M91" s="8">
         <v>6</v>
@@ -14287,7 +14278,7 @@
       </c>
       <c r="U91" s="10">
         <f t="shared" si="5"/>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V91" s="8">
         <v>20</v>
@@ -14307,7 +14298,9 @@
       <c r="AB91" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="AC91" s="4"/>
+      <c r="AC91" s="4">
+        <v>11000007</v>
+      </c>
       <c r="AD91" s="4">
         <v>5</v>
       </c>
@@ -14331,9 +14324,7 @@
       <c r="C92" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D92" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D92" s="25"/>
       <c r="E92" s="4">
         <v>4</v>
       </c>
@@ -14345,19 +14336,19 @@
       </c>
       <c r="H92" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I92" s="4">
         <v>4</v>
       </c>
       <c r="J92" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K92" s="6">
         <v>0</v>
       </c>
       <c r="L92" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M92" s="8">
         <v>6</v>
@@ -14385,7 +14376,7 @@
       </c>
       <c r="U92" s="10">
         <f t="shared" si="5"/>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V92" s="8">
         <v>20</v>
@@ -14527,11 +14518,9 @@
       <c r="C94" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D94" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D94" s="25"/>
       <c r="E94" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <v>103</v>
@@ -14541,16 +14530,16 @@
       </c>
       <c r="H94" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I94" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J94" s="6">
         <v>0</v>
       </c>
       <c r="K94" s="6">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L94" s="14">
         <v>0</v>
@@ -14559,7 +14548,7 @@
         <v>3</v>
       </c>
       <c r="N94" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O94" s="8">
         <v>0</v>
@@ -14581,7 +14570,7 @@
       </c>
       <c r="U94" s="10">
         <f t="shared" si="5"/>
-        <v>-100</v>
+        <v>2</v>
       </c>
       <c r="V94" s="8">
         <v>0</v>
@@ -14592,12 +14581,12 @@
       <c r="X94" s="8">
         <v>0</v>
       </c>
-      <c r="Y94" s="8" t="e">
+      <c r="Y94" s="8">
         <f>IF(ISBLANK(Z94),0, LOOKUP(Z94,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA94/100)</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="Z94" s="38">
-        <v>55000077</v>
+        <v>55110014</v>
       </c>
       <c r="AA94" s="4">
         <v>70</v>
@@ -14605,7 +14594,9 @@
       <c r="AB94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC94" s="4"/>
+      <c r="AC94" s="4">
+        <v>11000002</v>
+      </c>
       <c r="AD94" s="4">
         <v>5</v>
       </c>
@@ -15238,7 +15229,7 @@
         <v>140</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -15251,19 +15242,19 @@
       </c>
       <c r="H101" s="4">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I101" s="4">
         <v>3</v>
       </c>
       <c r="J101" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K101" s="6">
         <v>0</v>
       </c>
       <c r="L101" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M101" s="8">
         <v>4</v>
@@ -15278,7 +15269,7 @@
         <v>0</v>
       </c>
       <c r="Q101" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R101" s="8">
         <v>0</v>
@@ -15291,7 +15282,7 @@
       </c>
       <c r="U101" s="10">
         <f t="shared" si="7"/>
-        <v>-100</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="V101" s="8">
         <v>20</v>
@@ -15302,15 +15293,15 @@
       <c r="X101" s="8">
         <v>0</v>
       </c>
-      <c r="Y101" s="8" t="e">
+      <c r="Y101" s="8">
         <f>IF(ISBLANK(Z101),0, LOOKUP(Z101,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA101/100)</f>
-        <v>#N/A</v>
+        <v>14.8</v>
       </c>
       <c r="Z101" s="38">
-        <v>55000214</v>
+        <v>55510019</v>
       </c>
       <c r="AA101" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB101" s="4" t="s">
         <v>317</v>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="369">
   <si>
     <t>铁杖</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>奥丁神枪</t>
-  </si>
-  <si>
-    <t>姆吉拉面具</t>
   </si>
   <si>
     <t>邪恶之眼</t>
@@ -1177,9 +1174,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-  </si>
-  <si>
     <t>基本</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1243,6 +1237,18 @@
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>姆吉拉面具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1250,7 +1256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1440,14 +1446,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF666666"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2003,7 +2001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2073,10 +2071,10 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -2085,31 +2083,28 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2121,7 +2116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3684,7 +3679,7 @@
             <v>55100010</v>
           </cell>
           <cell r="X13">
-            <v>5</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="14">
@@ -4850,6 +4845,14 @@
           </cell>
           <cell r="X159">
             <v>15</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>55990101</v>
+          </cell>
+          <cell r="X160">
+            <v>8</v>
           </cell>
         </row>
       </sheetData>
@@ -4862,7 +4865,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG126" totalsRowShown="0" dataDxfId="78" tableBorderDxfId="77">
   <autoFilter ref="A3:AG126"/>
-  <sortState ref="A4:AF126">
+  <sortState ref="A4:AG126">
     <sortCondition ref="A3:A126"/>
   </sortState>
   <tableColumns count="33">
@@ -5251,10 +5254,10 @@
   <dimension ref="A1:AG126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5277,305 +5280,305 @@
   <sheetData>
     <row r="1" spans="1:33" ht="69">
       <c r="A1" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="AA1" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC1" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="Y1" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AC1" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AE1" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="AE1" s="22" t="s">
-        <v>256</v>
-      </c>
       <c r="AF1" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="AC2" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC2" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="AF2" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG2" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>117</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="I3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z3" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="I3" t="s">
-        <v>291</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>119</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>120</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD3" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>122</v>
       </c>
-      <c r="AE3" t="s">
-        <v>123</v>
-      </c>
       <c r="AF3" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG3" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -5586,10 +5589,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -5601,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H35" si="0">IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</f>
+        <f>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -5641,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="10">
-        <f t="shared" ref="U4:U35" si="1">J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</f>
+        <f>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</f>
         <v>-5</v>
       </c>
       <c r="V4" s="8">
@@ -5684,10 +5687,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -5699,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U5&gt;=13,U5&lt;=16),5,IF(AND(U5&gt;=9,U5&lt;=12),4,IF(AND(U5&gt;=5,U5&lt;=8),3,IF(AND(U5&gt;=1,U5&lt;=4),2,IF(AND(U5&gt;=-3,U5&lt;=0),1,IF(AND(U5&gt;=-5,U5&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I5" s="4">
@@ -5739,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="10">
-        <f t="shared" si="1"/>
+        <f>J5+K5-100+L5+ SUM(N5:T5)*5+IF(ISNUMBER(Y5),Y5,0)+X5</f>
         <v>-5</v>
       </c>
       <c r="V5" s="8">
@@ -5782,10 +5785,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -5797,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U6&gt;=13,U6&lt;=16),5,IF(AND(U6&gt;=9,U6&lt;=12),4,IF(AND(U6&gt;=5,U6&lt;=8),3,IF(AND(U6&gt;=1,U6&lt;=4),2,IF(AND(U6&gt;=-3,U6&lt;=0),1,IF(AND(U6&gt;=-5,U6&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I6" s="4">
@@ -5837,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="10">
-        <f t="shared" si="1"/>
+        <f>J6+K6-100+L6+ SUM(N6:T6)*5+IF(ISNUMBER(Y6),Y6,0)+X6</f>
         <v>-5</v>
       </c>
       <c r="V6" s="8">
@@ -5880,10 +5883,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -5895,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U7&gt;=13,U7&lt;=16),5,IF(AND(U7&gt;=9,U7&lt;=12),4,IF(AND(U7&gt;=5,U7&lt;=8),3,IF(AND(U7&gt;=1,U7&lt;=4),2,IF(AND(U7&gt;=-3,U7&lt;=0),1,IF(AND(U7&gt;=-5,U7&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I7" s="4">
@@ -5935,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="10">
-        <f t="shared" si="1"/>
+        <f>J7+K7-100+L7+ SUM(N7:T7)*5+IF(ISNUMBER(Y7),Y7,0)+X7</f>
         <v>-5</v>
       </c>
       <c r="V7" s="8">
@@ -5975,13 +5978,13 @@
         <v>52000005</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>276</v>
-      </c>
       <c r="D8" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -5993,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U8&gt;=13,U8&lt;=16),5,IF(AND(U8&gt;=9,U8&lt;=12),4,IF(AND(U8&gt;=5,U8&lt;=8),3,IF(AND(U8&gt;=1,U8&lt;=4),2,IF(AND(U8&gt;=-3,U8&lt;=0),1,IF(AND(U8&gt;=-5,U8&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I8" s="15">
@@ -6033,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="18">
-        <f t="shared" si="1"/>
+        <f>J8+K8-100+L8+ SUM(N8:T8)*5+IF(ISNUMBER(Y8),Y8,0)+X8</f>
         <v>-5</v>
       </c>
       <c r="V8" s="8">
@@ -6076,10 +6079,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -6091,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U9&gt;=13,U9&lt;=16),5,IF(AND(U9&gt;=9,U9&lt;=12),4,IF(AND(U9&gt;=5,U9&lt;=8),3,IF(AND(U9&gt;=1,U9&lt;=4),2,IF(AND(U9&gt;=-3,U9&lt;=0),1,IF(AND(U9&gt;=-5,U9&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I9" s="4">
@@ -6131,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="10">
-        <f t="shared" si="1"/>
+        <f>J9+K9-100+L9+ SUM(N9:T9)*5+IF(ISNUMBER(Y9),Y9,0)+X9</f>
         <v>-4</v>
       </c>
       <c r="V9" s="8">
@@ -6174,10 +6177,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -6189,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U10&gt;=13,U10&lt;=16),5,IF(AND(U10&gt;=9,U10&lt;=12),4,IF(AND(U10&gt;=5,U10&lt;=8),3,IF(AND(U10&gt;=1,U10&lt;=4),2,IF(AND(U10&gt;=-3,U10&lt;=0),1,IF(AND(U10&gt;=-5,U10&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I10" s="4">
@@ -6229,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="10">
-        <f t="shared" si="1"/>
+        <f>J10+K10-100+L10+ SUM(N10:T10)*5+IF(ISNUMBER(Y10),Y10,0)+X10</f>
         <v>-5</v>
       </c>
       <c r="V10" s="8">
@@ -6272,10 +6275,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E11" s="4">
         <v>4</v>
@@ -6287,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U11&gt;=13,U11&lt;=16),5,IF(AND(U11&gt;=9,U11&lt;=12),4,IF(AND(U11&gt;=5,U11&lt;=8),3,IF(AND(U11&gt;=1,U11&lt;=4),2,IF(AND(U11&gt;=-3,U11&lt;=0),1,IF(AND(U11&gt;=-5,U11&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I11" s="4">
@@ -6327,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="18">
-        <f t="shared" si="1"/>
+        <f>J11+K11-100+L11+ SUM(N11:T11)*5+IF(ISNUMBER(Y11),Y11,0)+X11</f>
         <v>-5</v>
       </c>
       <c r="V11" s="8">
@@ -6370,7 +6373,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="4">
@@ -6383,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U12&gt;=13,U12&lt;=16),5,IF(AND(U12&gt;=9,U12&lt;=12),4,IF(AND(U12&gt;=5,U12&lt;=8),3,IF(AND(U12&gt;=1,U12&lt;=4),2,IF(AND(U12&gt;=-3,U12&lt;=0),1,IF(AND(U12&gt;=-5,U12&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I12" s="4">
@@ -6423,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="18">
-        <f t="shared" si="1"/>
+        <f>J12+K12-100+L12+ SUM(N12:T12)*5+IF(ISNUMBER(Y12),Y12,0)+X12</f>
         <v>-2</v>
       </c>
       <c r="V12" s="8">
@@ -6470,10 +6473,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -6485,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U13&gt;=13,U13&lt;=16),5,IF(AND(U13&gt;=9,U13&lt;=12),4,IF(AND(U13&gt;=5,U13&lt;=8),3,IF(AND(U13&gt;=1,U13&lt;=4),2,IF(AND(U13&gt;=-3,U13&lt;=0),1,IF(AND(U13&gt;=-5,U13&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I13" s="4">
@@ -6525,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="10">
-        <f t="shared" si="1"/>
+        <f>J13+K13-100+L13+ SUM(N13:T13)*5+IF(ISNUMBER(Y13),Y13,0)+X13</f>
         <v>-2</v>
       </c>
       <c r="V13" s="8">
@@ -6569,13 +6572,13 @@
         <v>52000011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -6587,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U14&gt;=13,U14&lt;=16),5,IF(AND(U14&gt;=9,U14&lt;=12),4,IF(AND(U14&gt;=5,U14&lt;=8),3,IF(AND(U14&gt;=1,U14&lt;=4),2,IF(AND(U14&gt;=-3,U14&lt;=0),1,IF(AND(U14&gt;=-5,U14&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I14" s="4">
@@ -6627,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="18">
-        <f t="shared" si="1"/>
+        <f>J14+K14-100+L14+ SUM(N14:T14)*5+IF(ISNUMBER(Y14),Y14,0)+X14</f>
         <v>-2</v>
       </c>
       <c r="V14" s="8">
@@ -6674,10 +6677,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -6689,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U15&gt;=13,U15&lt;=16),5,IF(AND(U15&gt;=9,U15&lt;=12),4,IF(AND(U15&gt;=5,U15&lt;=8),3,IF(AND(U15&gt;=1,U15&lt;=4),2,IF(AND(U15&gt;=-3,U15&lt;=0),1,IF(AND(U15&gt;=-5,U15&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I15" s="4">
@@ -6729,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="10">
-        <f t="shared" si="1"/>
+        <f>J15+K15-100+L15+ SUM(N15:T15)*5+IF(ISNUMBER(Y15),Y15,0)+X15</f>
         <v>-2</v>
       </c>
       <c r="V15" s="8">
@@ -6752,7 +6755,7 @@
         <v>100</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4">
@@ -6773,13 +6776,13 @@
         <v>52000013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -6791,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U16&gt;=13,U16&lt;=16),5,IF(AND(U16&gt;=9,U16&lt;=12),4,IF(AND(U16&gt;=5,U16&lt;=8),3,IF(AND(U16&gt;=1,U16&lt;=4),2,IF(AND(U16&gt;=-3,U16&lt;=0),1,IF(AND(U16&gt;=-5,U16&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I16" s="4">
@@ -6831,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="1"/>
+        <f>J16+K16-100+L16+ SUM(N16:T16)*5+IF(ISNUMBER(Y16),Y16,0)+X16</f>
         <v>-2</v>
       </c>
       <c r="V16" s="8">
@@ -6875,13 +6878,13 @@
         <v>52000014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -6893,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U17&gt;=13,U17&lt;=16),5,IF(AND(U17&gt;=9,U17&lt;=12),4,IF(AND(U17&gt;=5,U17&lt;=8),3,IF(AND(U17&gt;=1,U17&lt;=4),2,IF(AND(U17&gt;=-3,U17&lt;=0),1,IF(AND(U17&gt;=-5,U17&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I17" s="4">
@@ -6933,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="18">
-        <f t="shared" si="1"/>
+        <f>J17+K17-100+L17+ SUM(N17:T17)*5+IF(ISNUMBER(Y17),Y17,0)+X17</f>
         <v>-2</v>
       </c>
       <c r="V17" s="8">
@@ -6980,10 +6983,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -6995,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U18&gt;=13,U18&lt;=16),5,IF(AND(U18&gt;=9,U18&lt;=12),4,IF(AND(U18&gt;=5,U18&lt;=8),3,IF(AND(U18&gt;=1,U18&lt;=4),2,IF(AND(U18&gt;=-3,U18&lt;=0),1,IF(AND(U18&gt;=-5,U18&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I18" s="4">
@@ -7035,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="10">
-        <f t="shared" si="1"/>
+        <f>J18+K18-100+L18+ SUM(N18:T18)*5+IF(ISNUMBER(Y18),Y18,0)+X18</f>
         <v>-2</v>
       </c>
       <c r="V18" s="8">
@@ -7079,13 +7082,13 @@
         <v>52000016</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="D19" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E19" s="15">
         <v>5</v>
@@ -7097,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U19&gt;=13,U19&lt;=16),5,IF(AND(U19&gt;=9,U19&lt;=12),4,IF(AND(U19&gt;=5,U19&lt;=8),3,IF(AND(U19&gt;=1,U19&lt;=4),2,IF(AND(U19&gt;=-3,U19&lt;=0),1,IF(AND(U19&gt;=-5,U19&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I19" s="15">
@@ -7137,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="18">
-        <f t="shared" si="1"/>
+        <f>J19+K19-100+L19+ SUM(N19:T19)*5+IF(ISNUMBER(Y19),Y19,0)+X19</f>
         <v>-10</v>
       </c>
       <c r="V19" s="8">
@@ -7180,10 +7183,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -7195,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U20&gt;=13,U20&lt;=16),5,IF(AND(U20&gt;=9,U20&lt;=12),4,IF(AND(U20&gt;=5,U20&lt;=8),3,IF(AND(U20&gt;=1,U20&lt;=4),2,IF(AND(U20&gt;=-3,U20&lt;=0),1,IF(AND(U20&gt;=-5,U20&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I20" s="4">
@@ -7235,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="10">
-        <f t="shared" si="1"/>
+        <f>J20+K20-100+L20+ SUM(N20:T20)*5+IF(ISNUMBER(Y20),Y20,0)+X20</f>
         <v>-30</v>
       </c>
       <c r="V20" s="8">
@@ -7275,13 +7278,13 @@
         <v>52000018</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -7293,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U21&gt;=13,U21&lt;=16),5,IF(AND(U21&gt;=9,U21&lt;=12),4,IF(AND(U21&gt;=5,U21&lt;=8),3,IF(AND(U21&gt;=1,U21&lt;=4),2,IF(AND(U21&gt;=-3,U21&lt;=0),1,IF(AND(U21&gt;=-5,U21&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I21" s="15">
@@ -7333,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="1"/>
+        <f>J21+K21-100+L21+ SUM(N21:T21)*5+IF(ISNUMBER(Y21),Y21,0)+X21</f>
         <v>-4</v>
       </c>
       <c r="V21" s="8">
@@ -7376,7 +7379,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="4">
@@ -7389,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U22&gt;=13,U22&lt;=16),5,IF(AND(U22&gt;=9,U22&lt;=12),4,IF(AND(U22&gt;=5,U22&lt;=8),3,IF(AND(U22&gt;=1,U22&lt;=4),2,IF(AND(U22&gt;=-3,U22&lt;=0),1,IF(AND(U22&gt;=-5,U22&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I22" s="4">
@@ -7429,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="10">
-        <f t="shared" si="1"/>
+        <f>J22+K22-100+L22+ SUM(N22:T22)*5+IF(ISNUMBER(Y22),Y22,0)+X22</f>
         <v>1</v>
       </c>
       <c r="V22" s="8">
@@ -7474,10 +7477,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -7489,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U23&gt;=13,U23&lt;=16),5,IF(AND(U23&gt;=9,U23&lt;=12),4,IF(AND(U23&gt;=5,U23&lt;=8),3,IF(AND(U23&gt;=1,U23&lt;=4),2,IF(AND(U23&gt;=-3,U23&lt;=0),1,IF(AND(U23&gt;=-5,U23&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I23" s="4">
@@ -7529,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" si="1"/>
+        <f>J23+K23-100+L23+ SUM(N23:T23)*5+IF(ISNUMBER(Y23),Y23,0)+X23</f>
         <v>-5</v>
       </c>
       <c r="V23" s="8">
@@ -7548,7 +7551,7 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4">
@@ -7572,10 +7575,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E24" s="4">
         <v>3</v>
@@ -7587,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U24&gt;=13,U24&lt;=16),5,IF(AND(U24&gt;=9,U24&lt;=12),4,IF(AND(U24&gt;=5,U24&lt;=8),3,IF(AND(U24&gt;=1,U24&lt;=4),2,IF(AND(U24&gt;=-3,U24&lt;=0),1,IF(AND(U24&gt;=-5,U24&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I24" s="4">
@@ -7627,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="10">
-        <f t="shared" si="1"/>
+        <f>J24+K24-100+L24+ SUM(N24:T24)*5+IF(ISNUMBER(Y24),Y24,0)+X24</f>
         <v>1</v>
       </c>
       <c r="V24" s="8">
@@ -7646,7 +7649,7 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4">
@@ -7670,10 +7673,10 @@
         <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -7685,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U25&gt;=13,U25&lt;=16),5,IF(AND(U25&gt;=9,U25&lt;=12),4,IF(AND(U25&gt;=5,U25&lt;=8),3,IF(AND(U25&gt;=1,U25&lt;=4),2,IF(AND(U25&gt;=-3,U25&lt;=0),1,IF(AND(U25&gt;=-5,U25&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I25" s="4">
@@ -7725,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="10">
-        <f t="shared" si="1"/>
+        <f>J25+K25-100+L25+ SUM(N25:T25)*5+IF(ISNUMBER(Y25),Y25,0)+X25</f>
         <v>-4</v>
       </c>
       <c r="V25" s="8">
@@ -7765,13 +7768,13 @@
         <v>52000023</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E26" s="15">
         <v>4</v>
@@ -7783,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U26&gt;=13,U26&lt;=16),5,IF(AND(U26&gt;=9,U26&lt;=12),4,IF(AND(U26&gt;=5,U26&lt;=8),3,IF(AND(U26&gt;=1,U26&lt;=4),2,IF(AND(U26&gt;=-3,U26&lt;=0),1,IF(AND(U26&gt;=-5,U26&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I26" s="15">
@@ -7808,10 +7811,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R26" s="8">
         <v>0</v>
@@ -7823,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="10">
-        <f t="shared" si="1"/>
+        <f>J26+K26-100+L26+ SUM(N26:T26)*5+IF(ISNUMBER(Y26),Y26,0)+X26</f>
         <v>3</v>
       </c>
       <c r="V26" s="8">
@@ -7842,7 +7845,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AC26" s="4">
         <v>11000004</v>
@@ -7868,10 +7871,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -7883,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U27&gt;=13,U27&lt;=16),5,IF(AND(U27&gt;=9,U27&lt;=12),4,IF(AND(U27&gt;=5,U27&lt;=8),3,IF(AND(U27&gt;=1,U27&lt;=4),2,IF(AND(U27&gt;=-3,U27&lt;=0),1,IF(AND(U27&gt;=-5,U27&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I27" s="4">
@@ -7923,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="1"/>
+        <f>J27+K27-100+L27+ SUM(N27:T27)*5+IF(ISNUMBER(Y27),Y27,0)+X27</f>
         <v>4</v>
       </c>
       <c r="V27" s="8">
@@ -7942,7 +7945,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4">
@@ -7963,10 +7966,10 @@
         <v>52000025</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="15">
@@ -7979,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U28&gt;=13,U28&lt;=16),5,IF(AND(U28&gt;=9,U28&lt;=12),4,IF(AND(U28&gt;=5,U28&lt;=8),3,IF(AND(U28&gt;=1,U28&lt;=4),2,IF(AND(U28&gt;=-3,U28&lt;=0),1,IF(AND(U28&gt;=-5,U28&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I28" s="15">
@@ -8019,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="18">
-        <f t="shared" si="1"/>
+        <f>J28+K28-100+L28+ SUM(N28:T28)*5+IF(ISNUMBER(Y28),Y28,0)+X28</f>
         <v>6</v>
       </c>
       <c r="V28" s="8">
@@ -8064,10 +8067,10 @@
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -8079,7 +8082,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U29&gt;=13,U29&lt;=16),5,IF(AND(U29&gt;=9,U29&lt;=12),4,IF(AND(U29&gt;=5,U29&lt;=8),3,IF(AND(U29&gt;=1,U29&lt;=4),2,IF(AND(U29&gt;=-3,U29&lt;=0),1,IF(AND(U29&gt;=-5,U29&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I29" s="4">
@@ -8119,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="10">
-        <f t="shared" si="1"/>
+        <f>J29+K29-100+L29+ SUM(N29:T29)*5+IF(ISNUMBER(Y29),Y29,0)+X29</f>
         <v>-2</v>
       </c>
       <c r="V29" s="8">
@@ -8166,10 +8169,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -8181,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U30&gt;=13,U30&lt;=16),5,IF(AND(U30&gt;=9,U30&lt;=12),4,IF(AND(U30&gt;=5,U30&lt;=8),3,IF(AND(U30&gt;=1,U30&lt;=4),2,IF(AND(U30&gt;=-3,U30&lt;=0),1,IF(AND(U30&gt;=-5,U30&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I30" s="4">
@@ -8221,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="18">
-        <f t="shared" si="1"/>
+        <f>J30+K30-100+L30+ SUM(N30:T30)*5+IF(ISNUMBER(Y30),Y30,0)+X30</f>
         <v>-2</v>
       </c>
       <c r="V30" s="8">
@@ -8268,10 +8271,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -8283,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U31&gt;=13,U31&lt;=16),5,IF(AND(U31&gt;=9,U31&lt;=12),4,IF(AND(U31&gt;=5,U31&lt;=8),3,IF(AND(U31&gt;=1,U31&lt;=4),2,IF(AND(U31&gt;=-3,U31&lt;=0),1,IF(AND(U31&gt;=-5,U31&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I31" s="4">
@@ -8323,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="10">
-        <f t="shared" si="1"/>
+        <f>J31+K31-100+L31+ SUM(N31:T31)*5+IF(ISNUMBER(Y31),Y31,0)+X31</f>
         <v>-2</v>
       </c>
       <c r="V31" s="8">
@@ -8370,10 +8373,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -8385,7 +8388,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U32&gt;=13,U32&lt;=16),5,IF(AND(U32&gt;=9,U32&lt;=12),4,IF(AND(U32&gt;=5,U32&lt;=8),3,IF(AND(U32&gt;=1,U32&lt;=4),2,IF(AND(U32&gt;=-3,U32&lt;=0),1,IF(AND(U32&gt;=-5,U32&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I32" s="4">
@@ -8425,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="10">
-        <f t="shared" si="1"/>
+        <f>J32+K32-100+L32+ SUM(N32:T32)*5+IF(ISNUMBER(Y32),Y32,0)+X32</f>
         <v>-2</v>
       </c>
       <c r="V32" s="8">
@@ -8472,10 +8475,10 @@
         <v>25</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -8487,7 +8490,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U33&gt;=13,U33&lt;=16),5,IF(AND(U33&gt;=9,U33&lt;=12),4,IF(AND(U33&gt;=5,U33&lt;=8),3,IF(AND(U33&gt;=1,U33&lt;=4),2,IF(AND(U33&gt;=-3,U33&lt;=0),1,IF(AND(U33&gt;=-5,U33&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I33" s="4">
@@ -8527,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="10">
-        <f t="shared" si="1"/>
+        <f>J33+K33-100+L33+ SUM(N33:T33)*5+IF(ISNUMBER(Y33),Y33,0)+X33</f>
         <v>-2</v>
       </c>
       <c r="V33" s="8">
@@ -8574,10 +8577,10 @@
         <v>24</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -8589,7 +8592,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U34&gt;=13,U34&lt;=16),5,IF(AND(U34&gt;=9,U34&lt;=12),4,IF(AND(U34&gt;=5,U34&lt;=8),3,IF(AND(U34&gt;=1,U34&lt;=4),2,IF(AND(U34&gt;=-3,U34&lt;=0),1,IF(AND(U34&gt;=-5,U34&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I34" s="4">
@@ -8629,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="10">
-        <f t="shared" si="1"/>
+        <f>J34+K34-100+L34+ SUM(N34:T34)*5+IF(ISNUMBER(Y34),Y34,0)+X34</f>
         <v>-2</v>
       </c>
       <c r="V34" s="8">
@@ -8673,13 +8676,13 @@
         <v>52000032</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="D35" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E35" s="15">
         <v>3</v>
@@ -8691,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(U35&gt;=13,U35&lt;=16),5,IF(AND(U35&gt;=9,U35&lt;=12),4,IF(AND(U35&gt;=5,U35&lt;=8),3,IF(AND(U35&gt;=1,U35&lt;=4),2,IF(AND(U35&gt;=-3,U35&lt;=0),1,IF(AND(U35&gt;=-5,U35&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I35" s="15">
@@ -8731,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="18">
-        <f t="shared" si="1"/>
+        <f>J35+K35-100+L35+ SUM(N35:T35)*5+IF(ISNUMBER(Y35),Y35,0)+X35</f>
         <v>2</v>
       </c>
       <c r="V35" s="8">
@@ -8777,10 +8780,10 @@
         <v>52000033</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="4">
@@ -8793,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" ref="H36:H67" si="2">IF(AND(U36&gt;=13,U36&lt;=16),5,IF(AND(U36&gt;=9,U36&lt;=12),4,IF(AND(U36&gt;=5,U36&lt;=8),3,IF(AND(U36&gt;=1,U36&lt;=4),2,IF(AND(U36&gt;=-3,U36&lt;=0),1,IF(AND(U36&gt;=-5,U36&lt;=-4),0,6))))))</f>
+        <f>IF(AND(U36&gt;=13,U36&lt;=16),5,IF(AND(U36&gt;=9,U36&lt;=12),4,IF(AND(U36&gt;=5,U36&lt;=8),3,IF(AND(U36&gt;=1,U36&lt;=4),2,IF(AND(U36&gt;=-3,U36&lt;=0),1,IF(AND(U36&gt;=-5,U36&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I36" s="4">
@@ -8833,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="10">
-        <f t="shared" ref="U36:U67" si="3">J36+K36-100+L36+ SUM(N36:T36)*5+IF(ISNUMBER(Y36),Y36,0)+X36</f>
+        <f>J36+K36-100+L36+ SUM(N36:T36)*5+IF(ISNUMBER(Y36),Y36,0)+X36</f>
         <v>0</v>
       </c>
       <c r="V36" s="8">
@@ -8852,7 +8855,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4">
@@ -8876,7 +8879,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="4">
@@ -8889,7 +8892,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U37&gt;=13,U37&lt;=16),5,IF(AND(U37&gt;=9,U37&lt;=12),4,IF(AND(U37&gt;=5,U37&lt;=8),3,IF(AND(U37&gt;=1,U37&lt;=4),2,IF(AND(U37&gt;=-3,U37&lt;=0),1,IF(AND(U37&gt;=-5,U37&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I37" s="4">
@@ -8929,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="10">
-        <f t="shared" si="3"/>
+        <f>J37+K37-100+L37+ SUM(N37:T37)*5+IF(ISNUMBER(Y37),Y37,0)+X37</f>
         <v>0</v>
       </c>
       <c r="V37" s="8">
@@ -8974,7 +8977,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="4">
@@ -8987,7 +8990,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U38&gt;=13,U38&lt;=16),5,IF(AND(U38&gt;=9,U38&lt;=12),4,IF(AND(U38&gt;=5,U38&lt;=8),3,IF(AND(U38&gt;=1,U38&lt;=4),2,IF(AND(U38&gt;=-3,U38&lt;=0),1,IF(AND(U38&gt;=-5,U38&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I38" s="4">
@@ -9027,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="10">
-        <f t="shared" si="3"/>
+        <f>J38+K38-100+L38+ SUM(N38:T38)*5+IF(ISNUMBER(Y38),Y38,0)+X38</f>
         <v>0</v>
       </c>
       <c r="V38" s="8">
@@ -9069,10 +9072,10 @@
         <v>52000036</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="4">
@@ -9085,7 +9088,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U39&gt;=13,U39&lt;=16),5,IF(AND(U39&gt;=9,U39&lt;=12),4,IF(AND(U39&gt;=5,U39&lt;=8),3,IF(AND(U39&gt;=1,U39&lt;=4),2,IF(AND(U39&gt;=-3,U39&lt;=0),1,IF(AND(U39&gt;=-5,U39&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I39" s="4">
@@ -9125,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" si="3"/>
+        <f>J39+K39-100+L39+ SUM(N39:T39)*5+IF(ISNUMBER(Y39),Y39,0)+X39</f>
         <v>0</v>
       </c>
       <c r="V39" s="8">
@@ -9144,7 +9147,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4">
@@ -9168,7 +9171,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="4">
@@ -9181,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U40&gt;=13,U40&lt;=16),5,IF(AND(U40&gt;=9,U40&lt;=12),4,IF(AND(U40&gt;=5,U40&lt;=8),3,IF(AND(U40&gt;=1,U40&lt;=4),2,IF(AND(U40&gt;=-3,U40&lt;=0),1,IF(AND(U40&gt;=-5,U40&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I40" s="4">
@@ -9221,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" si="3"/>
+        <f>J40+K40-100+L40+ SUM(N40:T40)*5+IF(ISNUMBER(Y40),Y40,0)+X40</f>
         <v>2</v>
       </c>
       <c r="V40" s="8">
@@ -9244,7 +9247,7 @@
         <v>30</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC40" s="4">
         <v>11000006</v>
@@ -9267,13 +9270,13 @@
         <v>52000038</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D41" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -9285,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U41&gt;=13,U41&lt;=16),5,IF(AND(U41&gt;=9,U41&lt;=12),4,IF(AND(U41&gt;=5,U41&lt;=8),3,IF(AND(U41&gt;=1,U41&lt;=4),2,IF(AND(U41&gt;=-3,U41&lt;=0),1,IF(AND(U41&gt;=-5,U41&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I41" s="4">
@@ -9325,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="10">
-        <f t="shared" si="3"/>
+        <f>J41+K41-100+L41+ SUM(N41:T41)*5+IF(ISNUMBER(Y41),Y41,0)+X41</f>
         <v>0</v>
       </c>
       <c r="V41" s="8">
@@ -9368,7 +9371,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="4">
@@ -9381,7 +9384,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U42&gt;=13,U42&lt;=16),5,IF(AND(U42&gt;=9,U42&lt;=12),4,IF(AND(U42&gt;=5,U42&lt;=8),3,IF(AND(U42&gt;=1,U42&lt;=4),2,IF(AND(U42&gt;=-3,U42&lt;=0),1,IF(AND(U42&gt;=-5,U42&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I42" s="4">
@@ -9421,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="10">
-        <f t="shared" si="3"/>
+        <f>J42+K42-100+L42+ SUM(N42:T42)*5+IF(ISNUMBER(Y42),Y42,0)+X42</f>
         <v>0</v>
       </c>
       <c r="V42" s="8">
@@ -9440,7 +9443,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AC42" s="4">
         <v>11000007</v>
@@ -9466,7 +9469,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="4">
@@ -9479,7 +9482,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U43&gt;=13,U43&lt;=16),5,IF(AND(U43&gt;=9,U43&lt;=12),4,IF(AND(U43&gt;=5,U43&lt;=8),3,IF(AND(U43&gt;=1,U43&lt;=4),2,IF(AND(U43&gt;=-3,U43&lt;=0),1,IF(AND(U43&gt;=-5,U43&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I43" s="4">
@@ -9519,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="10">
-        <f t="shared" si="3"/>
+        <f>J43+K43-100+L43+ SUM(N43:T43)*5+IF(ISNUMBER(Y43),Y43,0)+X43</f>
         <v>0</v>
       </c>
       <c r="V43" s="8">
@@ -9538,7 +9541,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4">
@@ -9562,10 +9565,10 @@
         <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
@@ -9577,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U44&gt;=13,U44&lt;=16),5,IF(AND(U44&gt;=9,U44&lt;=12),4,IF(AND(U44&gt;=5,U44&lt;=8),3,IF(AND(U44&gt;=1,U44&lt;=4),2,IF(AND(U44&gt;=-3,U44&lt;=0),1,IF(AND(U44&gt;=-5,U44&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I44" s="4">
@@ -9617,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="10">
-        <f t="shared" si="3"/>
+        <f>J44+K44-100+L44+ SUM(N44:T44)*5+IF(ISNUMBER(Y44),Y44,0)+X44</f>
         <v>5</v>
       </c>
       <c r="V44" s="8">
@@ -9660,10 +9663,10 @@
         <v>36</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -9675,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U45&gt;=13,U45&lt;=16),5,IF(AND(U45&gt;=9,U45&lt;=12),4,IF(AND(U45&gt;=5,U45&lt;=8),3,IF(AND(U45&gt;=1,U45&lt;=4),2,IF(AND(U45&gt;=-3,U45&lt;=0),1,IF(AND(U45&gt;=-5,U45&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I45" s="4">
@@ -9715,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="10">
-        <f t="shared" si="3"/>
+        <f>J45+K45-100+L45+ SUM(N45:T45)*5+IF(ISNUMBER(Y45),Y45,0)+X45</f>
         <v>-30</v>
       </c>
       <c r="V45" s="8">
@@ -9758,10 +9761,10 @@
         <v>38</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E46" s="4">
         <v>3</v>
@@ -9773,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U46&gt;=13,U46&lt;=16),5,IF(AND(U46&gt;=9,U46&lt;=12),4,IF(AND(U46&gt;=5,U46&lt;=8),3,IF(AND(U46&gt;=1,U46&lt;=4),2,IF(AND(U46&gt;=-3,U46&lt;=0),1,IF(AND(U46&gt;=-5,U46&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I46" s="4">
@@ -9813,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="10">
-        <f t="shared" si="3"/>
+        <f>J46+K46-100+L46+ SUM(N46:T46)*5+IF(ISNUMBER(Y46),Y46,0)+X46</f>
         <v>-45</v>
       </c>
       <c r="V46" s="8">
@@ -9856,7 +9859,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="4">
@@ -9869,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U47&gt;=13,U47&lt;=16),5,IF(AND(U47&gt;=9,U47&lt;=12),4,IF(AND(U47&gt;=5,U47&lt;=8),3,IF(AND(U47&gt;=1,U47&lt;=4),2,IF(AND(U47&gt;=-3,U47&lt;=0),1,IF(AND(U47&gt;=-5,U47&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I47" s="4">
@@ -9909,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="10">
-        <f t="shared" si="3"/>
+        <f>J47+K47-100+L47+ SUM(N47:T47)*5+IF(ISNUMBER(Y47),Y47,0)+X47</f>
         <v>5</v>
       </c>
       <c r="V47" s="8">
@@ -9954,7 +9957,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="4">
@@ -9967,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U48&gt;=13,U48&lt;=16),5,IF(AND(U48&gt;=9,U48&lt;=12),4,IF(AND(U48&gt;=5,U48&lt;=8),3,IF(AND(U48&gt;=1,U48&lt;=4),2,IF(AND(U48&gt;=-3,U48&lt;=0),1,IF(AND(U48&gt;=-5,U48&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I48" s="4">
@@ -10007,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" si="3"/>
+        <f>J48+K48-100+L48+ SUM(N48:T48)*5+IF(ISNUMBER(Y48),Y48,0)+X48</f>
         <v>3</v>
       </c>
       <c r="V48" s="8">
@@ -10054,7 +10057,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="4">
@@ -10067,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U49&gt;=13,U49&lt;=16),5,IF(AND(U49&gt;=9,U49&lt;=12),4,IF(AND(U49&gt;=5,U49&lt;=8),3,IF(AND(U49&gt;=1,U49&lt;=4),2,IF(AND(U49&gt;=-3,U49&lt;=0),1,IF(AND(U49&gt;=-5,U49&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I49" s="4">
@@ -10107,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="10">
-        <f t="shared" si="3"/>
+        <f>J49+K49-100+L49+ SUM(N49:T49)*5+IF(ISNUMBER(Y49),Y49,0)+X49</f>
         <v>0</v>
       </c>
       <c r="V49" s="8">
@@ -10150,7 +10153,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="4">
@@ -10163,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U50&gt;=13,U50&lt;=16),5,IF(AND(U50&gt;=9,U50&lt;=12),4,IF(AND(U50&gt;=5,U50&lt;=8),3,IF(AND(U50&gt;=1,U50&lt;=4),2,IF(AND(U50&gt;=-3,U50&lt;=0),1,IF(AND(U50&gt;=-5,U50&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I50" s="4">
@@ -10203,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="10">
-        <f t="shared" si="3"/>
+        <f>J50+K50-100+L50+ SUM(N50:T50)*5+IF(ISNUMBER(Y50),Y50,0)+X50</f>
         <v>0</v>
       </c>
       <c r="V50" s="8">
@@ -10246,7 +10249,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="4">
@@ -10259,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U51&gt;=13,U51&lt;=16),5,IF(AND(U51&gt;=9,U51&lt;=12),4,IF(AND(U51&gt;=5,U51&lt;=8),3,IF(AND(U51&gt;=1,U51&lt;=4),2,IF(AND(U51&gt;=-3,U51&lt;=0),1,IF(AND(U51&gt;=-5,U51&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I51" s="4">
@@ -10299,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="10">
-        <f t="shared" si="3"/>
+        <f>J51+K51-100+L51+ SUM(N51:T51)*5+IF(ISNUMBER(Y51),Y51,0)+X51</f>
         <v>2</v>
       </c>
       <c r="V51" s="8">
@@ -10348,7 +10351,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="4">
@@ -10361,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U52&gt;=13,U52&lt;=16),5,IF(AND(U52&gt;=9,U52&lt;=12),4,IF(AND(U52&gt;=5,U52&lt;=8),3,IF(AND(U52&gt;=1,U52&lt;=4),2,IF(AND(U52&gt;=-3,U52&lt;=0),1,IF(AND(U52&gt;=-5,U52&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I52" s="4">
@@ -10401,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="10">
-        <f t="shared" si="3"/>
+        <f>J52+K52-100+L52+ SUM(N52:T52)*5+IF(ISNUMBER(Y52),Y52,0)+X52</f>
         <v>0</v>
       </c>
       <c r="V52" s="8">
@@ -10444,7 +10447,7 @@
         <v>46</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="4">
@@ -10457,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U53&gt;=13,U53&lt;=16),5,IF(AND(U53&gt;=9,U53&lt;=12),4,IF(AND(U53&gt;=5,U53&lt;=8),3,IF(AND(U53&gt;=1,U53&lt;=4),2,IF(AND(U53&gt;=-3,U53&lt;=0),1,IF(AND(U53&gt;=-5,U53&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I53" s="4">
@@ -10497,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="10">
-        <f t="shared" si="3"/>
+        <f>J53+K53-100+L53+ SUM(N53:T53)*5+IF(ISNUMBER(Y53),Y53,0)+X53</f>
         <v>0</v>
       </c>
       <c r="V53" s="8">
@@ -10540,7 +10543,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="4">
@@ -10553,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U54&gt;=13,U54&lt;=16),5,IF(AND(U54&gt;=9,U54&lt;=12),4,IF(AND(U54&gt;=5,U54&lt;=8),3,IF(AND(U54&gt;=1,U54&lt;=4),2,IF(AND(U54&gt;=-3,U54&lt;=0),1,IF(AND(U54&gt;=-5,U54&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I54" s="4">
@@ -10593,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="10">
-        <f t="shared" si="3"/>
+        <f>J54+K54-100+L54+ SUM(N54:T54)*5+IF(ISNUMBER(Y54),Y54,0)+X54</f>
         <v>5</v>
       </c>
       <c r="V54" s="8">
@@ -10638,10 +10641,10 @@
         <v>48</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -10653,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U55&gt;=13,U55&lt;=16),5,IF(AND(U55&gt;=9,U55&lt;=12),4,IF(AND(U55&gt;=5,U55&lt;=8),3,IF(AND(U55&gt;=1,U55&lt;=4),2,IF(AND(U55&gt;=-3,U55&lt;=0),1,IF(AND(U55&gt;=-5,U55&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I55" s="4">
@@ -10693,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="10">
-        <f t="shared" si="3"/>
+        <f>J55+K55-100+L55+ SUM(N55:T55)*5+IF(ISNUMBER(Y55),Y55,0)+X55</f>
         <v>-2</v>
       </c>
       <c r="V55" s="8">
@@ -10736,7 +10739,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="4">
@@ -10749,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U56&gt;=13,U56&lt;=16),5,IF(AND(U56&gt;=9,U56&lt;=12),4,IF(AND(U56&gt;=5,U56&lt;=8),3,IF(AND(U56&gt;=1,U56&lt;=4),2,IF(AND(U56&gt;=-3,U56&lt;=0),1,IF(AND(U56&gt;=-5,U56&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I56" s="4">
@@ -10789,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="10">
-        <f t="shared" si="3"/>
+        <f>J56+K56-100+L56+ SUM(N56:T56)*5+IF(ISNUMBER(Y56),Y56,0)+X56</f>
         <v>1</v>
       </c>
       <c r="V56" s="8">
@@ -10834,7 +10837,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="4">
@@ -10847,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U57&gt;=13,U57&lt;=16),5,IF(AND(U57&gt;=9,U57&lt;=12),4,IF(AND(U57&gt;=5,U57&lt;=8),3,IF(AND(U57&gt;=1,U57&lt;=4),2,IF(AND(U57&gt;=-3,U57&lt;=0),1,IF(AND(U57&gt;=-5,U57&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I57" s="4">
@@ -10887,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="10">
-        <f t="shared" si="3"/>
+        <f>J57+K57-100+L57+ SUM(N57:T57)*5+IF(ISNUMBER(Y57),Y57,0)+X57</f>
         <v>0</v>
       </c>
       <c r="V57" s="8">
@@ -10930,7 +10933,7 @@
         <v>51</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="4">
@@ -10943,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U58&gt;=13,U58&lt;=16),5,IF(AND(U58&gt;=9,U58&lt;=12),4,IF(AND(U58&gt;=5,U58&lt;=8),3,IF(AND(U58&gt;=1,U58&lt;=4),2,IF(AND(U58&gt;=-3,U58&lt;=0),1,IF(AND(U58&gt;=-5,U58&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I58" s="4">
@@ -10983,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="10">
-        <f t="shared" si="3"/>
+        <f>J58+K58-100+L58+ SUM(N58:T58)*5+IF(ISNUMBER(Y58),Y58,0)+X58</f>
         <v>1</v>
       </c>
       <c r="V58" s="8">
@@ -11028,7 +11031,7 @@
         <v>52</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="4">
@@ -11041,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U59&gt;=13,U59&lt;=16),5,IF(AND(U59&gt;=9,U59&lt;=12),4,IF(AND(U59&gt;=5,U59&lt;=8),3,IF(AND(U59&gt;=1,U59&lt;=4),2,IF(AND(U59&gt;=-3,U59&lt;=0),1,IF(AND(U59&gt;=-5,U59&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I59" s="4">
@@ -11081,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="10">
-        <f t="shared" si="3"/>
+        <f>J59+K59-100+L59+ SUM(N59:T59)*5+IF(ISNUMBER(Y59),Y59,0)+X59</f>
         <v>4</v>
       </c>
       <c r="V59" s="8">
@@ -11126,7 +11129,7 @@
         <v>53</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="4">
@@ -11139,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U60&gt;=13,U60&lt;=16),5,IF(AND(U60&gt;=9,U60&lt;=12),4,IF(AND(U60&gt;=5,U60&lt;=8),3,IF(AND(U60&gt;=1,U60&lt;=4),2,IF(AND(U60&gt;=-3,U60&lt;=0),1,IF(AND(U60&gt;=-5,U60&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I60" s="4">
@@ -11179,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="10">
-        <f t="shared" si="3"/>
+        <f>J60+K60-100+L60+ SUM(N60:T60)*5+IF(ISNUMBER(Y60),Y60,0)+X60</f>
         <v>3</v>
       </c>
       <c r="V60" s="8">
@@ -11219,13 +11222,13 @@
         <v>52000058</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D61" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -11237,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U61&gt;=13,U61&lt;=16),5,IF(AND(U61&gt;=9,U61&lt;=12),4,IF(AND(U61&gt;=5,U61&lt;=8),3,IF(AND(U61&gt;=1,U61&lt;=4),2,IF(AND(U61&gt;=-3,U61&lt;=0),1,IF(AND(U61&gt;=-5,U61&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I61" s="4">
@@ -11277,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="10">
-        <f t="shared" si="3"/>
+        <f>J61+K61-100+L61+ SUM(N61:T61)*5+IF(ISNUMBER(Y61),Y61,0)+X61</f>
         <v>-100</v>
       </c>
       <c r="V61" s="8">
@@ -11293,7 +11296,7 @@
         <f>IF(ISBLANK(Z61),0, LOOKUP(Z61,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA61/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z61" s="38">
+      <c r="Z61" s="37">
         <v>55000092</v>
       </c>
       <c r="AA61" s="4">
@@ -11324,10 +11327,10 @@
         <v>54</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E62" s="4">
         <v>3</v>
@@ -11339,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U62&gt;=13,U62&lt;=16),5,IF(AND(U62&gt;=9,U62&lt;=12),4,IF(AND(U62&gt;=5,U62&lt;=8),3,IF(AND(U62&gt;=1,U62&lt;=4),2,IF(AND(U62&gt;=-3,U62&lt;=0),1,IF(AND(U62&gt;=-5,U62&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I62" s="4">
@@ -11379,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="10">
-        <f t="shared" si="3"/>
+        <f>J62+K62-100+L62+ SUM(N62:T62)*5+IF(ISNUMBER(Y62),Y62,0)+X62</f>
         <v>5</v>
       </c>
       <c r="V62" s="8">
@@ -11395,7 +11398,7 @@
         <f>IF(ISBLANK(Z62),0, LOOKUP(Z62,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA62/100)</f>
         <v>25</v>
       </c>
-      <c r="Z62" s="38">
+      <c r="Z62" s="37">
         <v>55110003</v>
       </c>
       <c r="AA62" s="4">
@@ -11428,7 +11431,7 @@
         <v>55</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="4">
@@ -11441,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U63&gt;=13,U63&lt;=16),5,IF(AND(U63&gt;=9,U63&lt;=12),4,IF(AND(U63&gt;=5,U63&lt;=8),3,IF(AND(U63&gt;=1,U63&lt;=4),2,IF(AND(U63&gt;=-3,U63&lt;=0),1,IF(AND(U63&gt;=-5,U63&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I63" s="4">
@@ -11481,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="10">
-        <f t="shared" si="3"/>
+        <f>J63+K63-100+L63+ SUM(N63:T63)*5+IF(ISNUMBER(Y63),Y63,0)+X63</f>
         <v>0</v>
       </c>
       <c r="V63" s="8">
@@ -11528,7 +11531,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="4">
@@ -11541,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U64&gt;=13,U64&lt;=16),5,IF(AND(U64&gt;=9,U64&lt;=12),4,IF(AND(U64&gt;=5,U64&lt;=8),3,IF(AND(U64&gt;=1,U64&lt;=4),2,IF(AND(U64&gt;=-3,U64&lt;=0),1,IF(AND(U64&gt;=-5,U64&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I64" s="4">
@@ -11581,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="10">
-        <f t="shared" si="3"/>
+        <f>J64+K64-100+L64+ SUM(N64:T64)*5+IF(ISNUMBER(Y64),Y64,0)+X64</f>
         <v>4</v>
       </c>
       <c r="V64" s="8">
@@ -11628,7 +11631,7 @@
         <v>57</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="4">
@@ -11641,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U65&gt;=13,U65&lt;=16),5,IF(AND(U65&gt;=9,U65&lt;=12),4,IF(AND(U65&gt;=5,U65&lt;=8),3,IF(AND(U65&gt;=1,U65&lt;=4),2,IF(AND(U65&gt;=-3,U65&lt;=0),1,IF(AND(U65&gt;=-5,U65&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I65" s="4">
@@ -11681,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="10">
-        <f t="shared" si="3"/>
+        <f>J65+K65-100+L65+ SUM(N65:T65)*5+IF(ISNUMBER(Y65),Y65,0)+X65</f>
         <v>7</v>
       </c>
       <c r="V65" s="8">
@@ -11730,10 +11733,10 @@
         <v>58</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -11745,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U66&gt;=13,U66&lt;=16),5,IF(AND(U66&gt;=9,U66&lt;=12),4,IF(AND(U66&gt;=5,U66&lt;=8),3,IF(AND(U66&gt;=1,U66&lt;=4),2,IF(AND(U66&gt;=-3,U66&lt;=0),1,IF(AND(U66&gt;=-5,U66&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I66" s="4">
@@ -11785,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="10">
-        <f t="shared" si="3"/>
+        <f>J66+K66-100+L66+ SUM(N66:T66)*5+IF(ISNUMBER(Y66),Y66,0)+X66</f>
         <v>-3</v>
       </c>
       <c r="V66" s="8">
@@ -11827,10 +11830,10 @@
         <v>59</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E67" s="4">
         <v>4</v>
@@ -11842,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(AND(U67&gt;=13,U67&lt;=16),5,IF(AND(U67&gt;=9,U67&lt;=12),4,IF(AND(U67&gt;=5,U67&lt;=8),3,IF(AND(U67&gt;=1,U67&lt;=4),2,IF(AND(U67&gt;=-3,U67&lt;=0),1,IF(AND(U67&gt;=-5,U67&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I67" s="4">
@@ -11882,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="10">
-        <f t="shared" si="3"/>
+        <f>J67+K67-100+L67+ SUM(N67:T67)*5+IF(ISNUMBER(Y67),Y67,0)+X67</f>
         <v>-20</v>
       </c>
       <c r="V67" s="8">
@@ -11929,7 +11932,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="4">
@@ -11942,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H99" si="4">IF(AND(U68&gt;=13,U68&lt;=16),5,IF(AND(U68&gt;=9,U68&lt;=12),4,IF(AND(U68&gt;=5,U68&lt;=8),3,IF(AND(U68&gt;=1,U68&lt;=4),2,IF(AND(U68&gt;=-3,U68&lt;=0),1,IF(AND(U68&gt;=-5,U68&lt;=-4),0,6))))))</f>
+        <f>IF(AND(U68&gt;=13,U68&lt;=16),5,IF(AND(U68&gt;=9,U68&lt;=12),4,IF(AND(U68&gt;=5,U68&lt;=8),3,IF(AND(U68&gt;=1,U68&lt;=4),2,IF(AND(U68&gt;=-3,U68&lt;=0),1,IF(AND(U68&gt;=-5,U68&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I68" s="4">
@@ -11982,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="10">
-        <f t="shared" ref="U68:U99" si="5">J68+K68-100+L68+ SUM(N68:T68)*5+IF(ISNUMBER(Y68),Y68,0)+X68</f>
+        <f>J68+K68-100+L68+ SUM(N68:T68)*5+IF(ISNUMBER(Y68),Y68,0)+X68</f>
         <v>-1</v>
       </c>
       <c r="V68" s="8">
@@ -12026,7 +12029,7 @@
         <v>61</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="4">
@@ -12039,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U69&gt;=13,U69&lt;=16),5,IF(AND(U69&gt;=9,U69&lt;=12),4,IF(AND(U69&gt;=5,U69&lt;=8),3,IF(AND(U69&gt;=1,U69&lt;=4),2,IF(AND(U69&gt;=-3,U69&lt;=0),1,IF(AND(U69&gt;=-5,U69&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I69" s="4">
@@ -12079,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="10">
-        <f t="shared" si="5"/>
+        <f>J69+K69-100+L69+ SUM(N69:T69)*5+IF(ISNUMBER(Y69),Y69,0)+X69</f>
         <v>0</v>
       </c>
       <c r="V69" s="8">
@@ -12122,7 +12125,7 @@
         <v>62</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="4">
@@ -12135,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U70&gt;=13,U70&lt;=16),5,IF(AND(U70&gt;=9,U70&lt;=12),4,IF(AND(U70&gt;=5,U70&lt;=8),3,IF(AND(U70&gt;=1,U70&lt;=4),2,IF(AND(U70&gt;=-3,U70&lt;=0),1,IF(AND(U70&gt;=-5,U70&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I70" s="4">
@@ -12175,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="10">
-        <f t="shared" si="5"/>
+        <f>J70+K70-100+L70+ SUM(N70:T70)*5+IF(ISNUMBER(Y70),Y70,0)+X70</f>
         <v>0</v>
       </c>
       <c r="V70" s="8">
@@ -12215,10 +12218,10 @@
         <v>52000068</v>
       </c>
       <c r="B71" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>270</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="4">
@@ -12231,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U71&gt;=13,U71&lt;=16),5,IF(AND(U71&gt;=9,U71&lt;=12),4,IF(AND(U71&gt;=5,U71&lt;=8),3,IF(AND(U71&gt;=1,U71&lt;=4),2,IF(AND(U71&gt;=-3,U71&lt;=0),1,IF(AND(U71&gt;=-5,U71&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I71" s="4">
@@ -12271,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="10">
-        <f t="shared" si="5"/>
+        <f>J71+K71-100+L71+ SUM(N71:T71)*5+IF(ISNUMBER(Y71),Y71,0)+X71</f>
         <v>0</v>
       </c>
       <c r="V71" s="8">
@@ -12314,10 +12317,10 @@
         <v>63</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E72" s="4">
         <v>5</v>
@@ -12329,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U72&gt;=13,U72&lt;=16),5,IF(AND(U72&gt;=9,U72&lt;=12),4,IF(AND(U72&gt;=5,U72&lt;=8),3,IF(AND(U72&gt;=1,U72&lt;=4),2,IF(AND(U72&gt;=-3,U72&lt;=0),1,IF(AND(U72&gt;=-5,U72&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I72" s="4">
@@ -12369,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="10">
-        <f t="shared" si="5"/>
+        <f>J72+K72-100+L72+ SUM(N72:T72)*5+IF(ISNUMBER(Y72),Y72,0)+X72</f>
         <v>-100</v>
       </c>
       <c r="V72" s="8">
@@ -12416,10 +12419,10 @@
         <v>64</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E73" s="4">
         <v>2</v>
@@ -12431,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U73&gt;=13,U73&lt;=16),5,IF(AND(U73&gt;=9,U73&lt;=12),4,IF(AND(U73&gt;=5,U73&lt;=8),3,IF(AND(U73&gt;=1,U73&lt;=4),2,IF(AND(U73&gt;=-3,U73&lt;=0),1,IF(AND(U73&gt;=-5,U73&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I73" s="4">
@@ -12471,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="10">
-        <f t="shared" si="5"/>
+        <f>J73+K73-100+L73+ SUM(N73:T73)*5+IF(ISNUMBER(Y73),Y73,0)+X73</f>
         <v>-30</v>
       </c>
       <c r="V73" s="8">
@@ -12515,36 +12518,38 @@
         <v>52000071</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="25"/>
+        <v>238</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>342</v>
+      </c>
       <c r="E74" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>IF(AND(U74&gt;=13,U74&lt;=16),5,IF(AND(U74&gt;=9,U74&lt;=12),4,IF(AND(U74&gt;=5,U74&lt;=8),3,IF(AND(U74&gt;=1,U74&lt;=4),2,IF(AND(U74&gt;=-3,U74&lt;=0),1,IF(AND(U74&gt;=-5,U74&lt;=-4),0,6))))))</f>
+        <v>6</v>
       </c>
       <c r="I74" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" s="6">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K74" s="6">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L74" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M74" s="8">
         <v>4</v>
@@ -12571,8 +12576,8 @@
         <v>0</v>
       </c>
       <c r="U74" s="10">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>J74+K74-100+L74+ SUM(N74:T74)*5+IF(ISNUMBER(Y74),Y74,0)+X74</f>
+        <v>-50</v>
       </c>
       <c r="V74" s="8">
         <v>0</v>
@@ -12583,12 +12588,12 @@
       <c r="X74" s="8">
         <v>0</v>
       </c>
-      <c r="Y74" s="8">
+      <c r="Y74" s="8" t="e">
         <f>IF(ISBLANK(Z74),0, LOOKUP(Z74,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA74/100)</f>
-        <v>10</v>
-      </c>
-      <c r="Z74">
-        <v>55900013</v>
+        <v>#N/A</v>
+      </c>
+      <c r="Z74" s="37">
+        <v>55000156</v>
       </c>
       <c r="AA74" s="4">
         <v>100</v>
@@ -12618,10 +12623,10 @@
         <v>66</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
@@ -12633,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U75&gt;=13,U75&lt;=16),5,IF(AND(U75&gt;=9,U75&lt;=12),4,IF(AND(U75&gt;=5,U75&lt;=8),3,IF(AND(U75&gt;=1,U75&lt;=4),2,IF(AND(U75&gt;=-3,U75&lt;=0),1,IF(AND(U75&gt;=-5,U75&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I75" s="4">
@@ -12673,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="10">
-        <f t="shared" si="5"/>
+        <f>J75+K75-100+L75+ SUM(N75:T75)*5+IF(ISNUMBER(Y75),Y75,0)+X75</f>
         <v>-55</v>
       </c>
       <c r="V75" s="8">
@@ -12720,10 +12725,10 @@
         <v>67</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E76" s="4">
         <v>4</v>
@@ -12735,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U76&gt;=13,U76&lt;=16),5,IF(AND(U76&gt;=9,U76&lt;=12),4,IF(AND(U76&gt;=5,U76&lt;=8),3,IF(AND(U76&gt;=1,U76&lt;=4),2,IF(AND(U76&gt;=-3,U76&lt;=0),1,IF(AND(U76&gt;=-5,U76&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I76" s="4">
@@ -12775,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="10">
-        <f t="shared" si="5"/>
+        <f>J76+K76-100+L76+ SUM(N76:T76)*5+IF(ISNUMBER(Y76),Y76,0)+X76</f>
         <v>-10</v>
       </c>
       <c r="V76" s="8">
@@ -12791,7 +12796,7 @@
         <f>IF(ISBLANK(Z76),0, LOOKUP(Z76,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA76/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z76" s="38">
+      <c r="Z76" s="37">
         <v>55000169</v>
       </c>
       <c r="AA76" s="4">
@@ -12822,10 +12827,10 @@
         <v>69</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E77" s="4">
         <v>3</v>
@@ -12837,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U77&gt;=13,U77&lt;=16),5,IF(AND(U77&gt;=9,U77&lt;=12),4,IF(AND(U77&gt;=5,U77&lt;=8),3,IF(AND(U77&gt;=1,U77&lt;=4),2,IF(AND(U77&gt;=-3,U77&lt;=0),1,IF(AND(U77&gt;=-5,U77&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I77" s="4">
@@ -12877,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="10">
-        <f t="shared" si="5"/>
+        <f>J77+K77-100+L77+ SUM(N77:T77)*5+IF(ISNUMBER(Y77),Y77,0)+X77</f>
         <v>-10</v>
       </c>
       <c r="V77" s="8">
@@ -12893,7 +12898,7 @@
         <f>IF(ISBLANK(Z77),0, LOOKUP(Z77,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA77/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z77" s="38">
+      <c r="Z77" s="37">
         <v>55000086</v>
       </c>
       <c r="AA77" s="4">
@@ -12924,10 +12929,10 @@
         <v>70</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E78" s="4">
         <v>3</v>
@@ -12939,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U78&gt;=13,U78&lt;=16),5,IF(AND(U78&gt;=9,U78&lt;=12),4,IF(AND(U78&gt;=5,U78&lt;=8),3,IF(AND(U78&gt;=1,U78&lt;=4),2,IF(AND(U78&gt;=-3,U78&lt;=0),1,IF(AND(U78&gt;=-5,U78&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I78" s="4">
@@ -12979,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="10">
-        <f t="shared" si="5"/>
+        <f>J78+K78-100+L78+ SUM(N78:T78)*5+IF(ISNUMBER(Y78),Y78,0)+X78</f>
         <v>-10</v>
       </c>
       <c r="V78" s="8">
@@ -12995,7 +13000,7 @@
         <f>IF(ISBLANK(Z78),0, LOOKUP(Z78,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA78/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z78" s="38">
+      <c r="Z78" s="37">
         <v>55000005</v>
       </c>
       <c r="AA78" s="4">
@@ -13026,10 +13031,10 @@
         <v>71</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E79" s="4">
         <v>3</v>
@@ -13041,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U79&gt;=13,U79&lt;=16),5,IF(AND(U79&gt;=9,U79&lt;=12),4,IF(AND(U79&gt;=5,U79&lt;=8),3,IF(AND(U79&gt;=1,U79&lt;=4),2,IF(AND(U79&gt;=-3,U79&lt;=0),1,IF(AND(U79&gt;=-5,U79&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I79" s="4">
@@ -13081,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="10">
-        <f t="shared" si="5"/>
+        <f>J79+K79-100+L79+ SUM(N79:T79)*5+IF(ISNUMBER(Y79),Y79,0)+X79</f>
         <v>-10</v>
       </c>
       <c r="V79" s="8">
@@ -13097,7 +13102,7 @@
         <f>IF(ISBLANK(Z79),0, LOOKUP(Z79,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA79/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z79" s="38">
+      <c r="Z79" s="37">
         <v>55000017</v>
       </c>
       <c r="AA79" s="4">
@@ -13128,10 +13133,10 @@
         <v>72</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E80" s="4">
         <v>3</v>
@@ -13143,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U80&gt;=13,U80&lt;=16),5,IF(AND(U80&gt;=9,U80&lt;=12),4,IF(AND(U80&gt;=5,U80&lt;=8),3,IF(AND(U80&gt;=1,U80&lt;=4),2,IF(AND(U80&gt;=-3,U80&lt;=0),1,IF(AND(U80&gt;=-5,U80&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I80" s="4">
@@ -13183,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="10">
-        <f t="shared" si="5"/>
+        <f>J80+K80-100+L80+ SUM(N80:T80)*5+IF(ISNUMBER(Y80),Y80,0)+X80</f>
         <v>-10</v>
       </c>
       <c r="V80" s="8">
@@ -13199,7 +13204,7 @@
         <f>IF(ISBLANK(Z80),0, LOOKUP(Z80,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA80/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z80" s="38">
+      <c r="Z80" s="37">
         <v>55000015</v>
       </c>
       <c r="AA80" s="4">
@@ -13230,10 +13235,10 @@
         <v>73</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E81" s="4">
         <v>3</v>
@@ -13245,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U81&gt;=13,U81&lt;=16),5,IF(AND(U81&gt;=9,U81&lt;=12),4,IF(AND(U81&gt;=5,U81&lt;=8),3,IF(AND(U81&gt;=1,U81&lt;=4),2,IF(AND(U81&gt;=-3,U81&lt;=0),1,IF(AND(U81&gt;=-5,U81&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I81" s="4">
@@ -13285,7 +13290,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="10">
-        <f t="shared" si="5"/>
+        <f>J81+K81-100+L81+ SUM(N81:T81)*5+IF(ISNUMBER(Y81),Y81,0)+X81</f>
         <v>-10</v>
       </c>
       <c r="V81" s="8">
@@ -13301,7 +13306,7 @@
         <f>IF(ISBLANK(Z81),0, LOOKUP(Z81,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA81/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z81" s="38">
+      <c r="Z81" s="37">
         <v>55000009</v>
       </c>
       <c r="AA81" s="4">
@@ -13332,10 +13337,10 @@
         <v>74</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E82" s="4">
         <v>3</v>
@@ -13347,7 +13352,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U82&gt;=13,U82&lt;=16),5,IF(AND(U82&gt;=9,U82&lt;=12),4,IF(AND(U82&gt;=5,U82&lt;=8),3,IF(AND(U82&gt;=1,U82&lt;=4),2,IF(AND(U82&gt;=-3,U82&lt;=0),1,IF(AND(U82&gt;=-5,U82&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I82" s="4">
@@ -13387,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="U82" s="10">
-        <f t="shared" si="5"/>
+        <f>J82+K82-100+L82+ SUM(N82:T82)*5+IF(ISNUMBER(Y82),Y82,0)+X82</f>
         <v>-10</v>
       </c>
       <c r="V82" s="8">
@@ -13403,7 +13408,7 @@
         <f>IF(ISBLANK(Z82),0, LOOKUP(Z82,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA82/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z82" s="38">
+      <c r="Z82" s="37">
         <v>55000007</v>
       </c>
       <c r="AA82" s="4">
@@ -13434,10 +13439,10 @@
         <v>75</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E83" s="4">
         <v>3</v>
@@ -13449,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U83&gt;=13,U83&lt;=16),5,IF(AND(U83&gt;=9,U83&lt;=12),4,IF(AND(U83&gt;=5,U83&lt;=8),3,IF(AND(U83&gt;=1,U83&lt;=4),2,IF(AND(U83&gt;=-3,U83&lt;=0),1,IF(AND(U83&gt;=-5,U83&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I83" s="4">
@@ -13489,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="10">
-        <f t="shared" si="5"/>
+        <f>J83+K83-100+L83+ SUM(N83:T83)*5+IF(ISNUMBER(Y83),Y83,0)+X83</f>
         <v>-10</v>
       </c>
       <c r="V83" s="8">
@@ -13505,7 +13510,7 @@
         <f>IF(ISBLANK(Z83),0, LOOKUP(Z83,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA83/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z83" s="38">
+      <c r="Z83" s="37">
         <v>55000016</v>
       </c>
       <c r="AA83" s="4">
@@ -13536,10 +13541,10 @@
         <v>76</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E84" s="4">
         <v>3</v>
@@ -13551,7 +13556,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U84&gt;=13,U84&lt;=16),5,IF(AND(U84&gt;=9,U84&lt;=12),4,IF(AND(U84&gt;=5,U84&lt;=8),3,IF(AND(U84&gt;=1,U84&lt;=4),2,IF(AND(U84&gt;=-3,U84&lt;=0),1,IF(AND(U84&gt;=-5,U84&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I84" s="4">
@@ -13591,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="10">
-        <f t="shared" si="5"/>
+        <f>J84+K84-100+L84+ SUM(N84:T84)*5+IF(ISNUMBER(Y84),Y84,0)+X84</f>
         <v>-10</v>
       </c>
       <c r="V84" s="8">
@@ -13607,7 +13612,7 @@
         <f>IF(ISBLANK(Z84),0, LOOKUP(Z84,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA84/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z84" s="38">
+      <c r="Z84" s="37">
         <v>55000104</v>
       </c>
       <c r="AA84" s="4">
@@ -13638,7 +13643,7 @@
         <v>77</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="4">
@@ -13651,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U85&gt;=13,U85&lt;=16),5,IF(AND(U85&gt;=9,U85&lt;=12),4,IF(AND(U85&gt;=5,U85&lt;=8),3,IF(AND(U85&gt;=1,U85&lt;=4),2,IF(AND(U85&gt;=-3,U85&lt;=0),1,IF(AND(U85&gt;=-5,U85&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I85" s="4">
@@ -13691,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="10">
-        <f t="shared" si="5"/>
+        <f>J85+K85-100+L85+ SUM(N85:T85)*5+IF(ISNUMBER(Y85),Y85,0)+X85</f>
         <v>5</v>
       </c>
       <c r="V85" s="8">
@@ -13710,7 +13715,7 @@
       <c r="Z85" s="32"/>
       <c r="AA85" s="4"/>
       <c r="AB85" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4">
@@ -13731,10 +13736,10 @@
         <v>52000083</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D86" s="25"/>
       <c r="E86" s="4">
@@ -13747,7 +13752,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U86&gt;=13,U86&lt;=16),5,IF(AND(U86&gt;=9,U86&lt;=12),4,IF(AND(U86&gt;=5,U86&lt;=8),3,IF(AND(U86&gt;=1,U86&lt;=4),2,IF(AND(U86&gt;=-3,U86&lt;=0),1,IF(AND(U86&gt;=-5,U86&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I86" s="4">
@@ -13787,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="10">
-        <f t="shared" si="5"/>
+        <f>J86+K86-100+L86+ SUM(N86:T86)*5+IF(ISNUMBER(Y86),Y86,0)+X86</f>
         <v>5</v>
       </c>
       <c r="V86" s="8">
@@ -13832,7 +13837,7 @@
         <v>78</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="4">
@@ -13845,7 +13850,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U87&gt;=13,U87&lt;=16),5,IF(AND(U87&gt;=9,U87&lt;=12),4,IF(AND(U87&gt;=5,U87&lt;=8),3,IF(AND(U87&gt;=1,U87&lt;=4),2,IF(AND(U87&gt;=-3,U87&lt;=0),1,IF(AND(U87&gt;=-5,U87&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I87" s="4">
@@ -13885,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="10">
-        <f t="shared" si="5"/>
+        <f>J87+K87-100+L87+ SUM(N87:T87)*5+IF(ISNUMBER(Y87),Y87,0)+X87</f>
         <v>5</v>
       </c>
       <c r="V87" s="8">
@@ -13930,7 +13935,7 @@
         <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="4">
@@ -13943,7 +13948,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U88&gt;=13,U88&lt;=16),5,IF(AND(U88&gt;=9,U88&lt;=12),4,IF(AND(U88&gt;=5,U88&lt;=8),3,IF(AND(U88&gt;=1,U88&lt;=4),2,IF(AND(U88&gt;=-3,U88&lt;=0),1,IF(AND(U88&gt;=-5,U88&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I88" s="4">
@@ -13983,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="10">
-        <f t="shared" si="5"/>
+        <f>J88+K88-100+L88+ SUM(N88:T88)*5+IF(ISNUMBER(Y88),Y88,0)+X88</f>
         <v>5</v>
       </c>
       <c r="V88" s="8">
@@ -14002,7 +14007,7 @@
       <c r="Z88" s="32"/>
       <c r="AA88" s="4"/>
       <c r="AB88" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC88" s="4"/>
       <c r="AD88" s="4">
@@ -14026,10 +14031,10 @@
         <v>80</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E89" s="4">
         <v>4</v>
@@ -14041,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U89&gt;=13,U89&lt;=16),5,IF(AND(U89&gt;=9,U89&lt;=12),4,IF(AND(U89&gt;=5,U89&lt;=8),3,IF(AND(U89&gt;=1,U89&lt;=4),2,IF(AND(U89&gt;=-3,U89&lt;=0),1,IF(AND(U89&gt;=-5,U89&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I89" s="4">
@@ -14081,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="10">
-        <f t="shared" si="5"/>
+        <f>J89+K89-100+L89+ SUM(N89:T89)*5+IF(ISNUMBER(Y89),Y89,0)+X89</f>
         <v>-100</v>
       </c>
       <c r="V89" s="8">
@@ -14100,7 +14105,7 @@
       <c r="Z89" s="32"/>
       <c r="AA89" s="4"/>
       <c r="AB89" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC89" s="4">
         <v>11000006</v>
@@ -14126,10 +14131,10 @@
         <v>81</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E90" s="4">
         <v>4</v>
@@ -14141,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U90&gt;=13,U90&lt;=16),5,IF(AND(U90&gt;=9,U90&lt;=12),4,IF(AND(U90&gt;=5,U90&lt;=8),3,IF(AND(U90&gt;=1,U90&lt;=4),2,IF(AND(U90&gt;=-3,U90&lt;=0),1,IF(AND(U90&gt;=-5,U90&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I90" s="4">
@@ -14181,7 +14186,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="10">
-        <f t="shared" si="5"/>
+        <f>J90+K90-100+L90+ SUM(N90:T90)*5+IF(ISNUMBER(Y90),Y90,0)+X90</f>
         <v>-100</v>
       </c>
       <c r="V90" s="8">
@@ -14224,7 +14229,7 @@
         <v>82</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="25"/>
       <c r="E91" s="4">
@@ -14237,7 +14242,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U91&gt;=13,U91&lt;=16),5,IF(AND(U91&gt;=9,U91&lt;=12),4,IF(AND(U91&gt;=5,U91&lt;=8),3,IF(AND(U91&gt;=1,U91&lt;=4),2,IF(AND(U91&gt;=-3,U91&lt;=0),1,IF(AND(U91&gt;=-5,U91&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I91" s="4">
@@ -14277,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="10">
-        <f t="shared" si="5"/>
+        <f>J91+K91-100+L91+ SUM(N91:T91)*5+IF(ISNUMBER(Y91),Y91,0)+X91</f>
         <v>5</v>
       </c>
       <c r="V91" s="8">
@@ -14296,7 +14301,7 @@
       <c r="Z91" s="32"/>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AC91" s="4">
         <v>11000007</v>
@@ -14322,7 +14327,7 @@
         <v>83</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D92" s="25"/>
       <c r="E92" s="4">
@@ -14335,7 +14340,7 @@
         <v>6</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U92&gt;=13,U92&lt;=16),5,IF(AND(U92&gt;=9,U92&lt;=12),4,IF(AND(U92&gt;=5,U92&lt;=8),3,IF(AND(U92&gt;=1,U92&lt;=4),2,IF(AND(U92&gt;=-3,U92&lt;=0),1,IF(AND(U92&gt;=-5,U92&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I92" s="4">
@@ -14375,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="10">
-        <f t="shared" si="5"/>
+        <f>J92+K92-100+L92+ SUM(N92:T92)*5+IF(ISNUMBER(Y92),Y92,0)+X92</f>
         <v>5</v>
       </c>
       <c r="V92" s="8">
@@ -14394,7 +14399,7 @@
       <c r="Z92" s="32"/>
       <c r="AA92" s="4"/>
       <c r="AB92" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC92" s="4"/>
       <c r="AD92" s="4">
@@ -14418,10 +14423,10 @@
         <v>84</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E93" s="4">
         <v>6</v>
@@ -14433,7 +14438,7 @@
         <v>3</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U93&gt;=13,U93&lt;=16),5,IF(AND(U93&gt;=9,U93&lt;=12),4,IF(AND(U93&gt;=5,U93&lt;=8),3,IF(AND(U93&gt;=1,U93&lt;=4),2,IF(AND(U93&gt;=-3,U93&lt;=0),1,IF(AND(U93&gt;=-5,U93&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I93" s="4">
@@ -14473,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="U93" s="10">
-        <f t="shared" si="5"/>
+        <f>J93+K93-100+L93+ SUM(N93:T93)*5+IF(ISNUMBER(Y93),Y93,0)+X93</f>
         <v>-100</v>
       </c>
       <c r="V93" s="8">
@@ -14516,7 +14521,7 @@
         <v>86</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="4">
@@ -14529,7 +14534,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U94&gt;=13,U94&lt;=16),5,IF(AND(U94&gt;=9,U94&lt;=12),4,IF(AND(U94&gt;=5,U94&lt;=8),3,IF(AND(U94&gt;=1,U94&lt;=4),2,IF(AND(U94&gt;=-3,U94&lt;=0),1,IF(AND(U94&gt;=-5,U94&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I94" s="4">
@@ -14569,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="10">
-        <f t="shared" si="5"/>
+        <f>J94+K94-100+L94+ SUM(N94:T94)*5+IF(ISNUMBER(Y94),Y94,0)+X94</f>
         <v>2</v>
       </c>
       <c r="V94" s="8">
@@ -14585,7 +14590,7 @@
         <f>IF(ISBLANK(Z94),0, LOOKUP(Z94,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA94/100)</f>
         <v>35</v>
       </c>
-      <c r="Z94" s="38">
+      <c r="Z94" s="37">
         <v>55110014</v>
       </c>
       <c r="AA94" s="4">
@@ -14618,10 +14623,10 @@
         <v>87</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="E95" s="4">
         <v>2</v>
@@ -14633,20 +14638,20 @@
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f>IF(AND(U95&gt;=13,U95&lt;=16),5,IF(AND(U95&gt;=9,U95&lt;=12),4,IF(AND(U95&gt;=5,U95&lt;=8),3,IF(AND(U95&gt;=1,U95&lt;=4),2,IF(AND(U95&gt;=-3,U95&lt;=0),1,IF(AND(U95&gt;=-5,U95&lt;=-4),0,6))))))</f>
+        <v>1</v>
       </c>
       <c r="I95" s="4">
         <v>2</v>
       </c>
       <c r="J95" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K95" s="6">
         <v>0</v>
       </c>
       <c r="L95" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" s="8">
         <v>4</v>
@@ -14658,10 +14663,10 @@
         <v>0</v>
       </c>
       <c r="P95" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q95" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R95" s="8">
         <v>0</v>
@@ -14673,8 +14678,8 @@
         <v>0</v>
       </c>
       <c r="U95" s="10">
-        <f t="shared" si="5"/>
-        <v>-100</v>
+        <f>J95+K95-100+L95+ SUM(N95:T95)*5+IF(ISNUMBER(Y95),Y95,0)+X95</f>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="V95" s="8">
         <v>0</v>
@@ -14685,12 +14690,12 @@
       <c r="X95" s="8">
         <v>0</v>
       </c>
-      <c r="Y95" s="8" t="e">
+      <c r="Y95" s="8">
         <f>IF(ISBLANK(Z95),0, LOOKUP(Z95,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA95/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z95" s="38">
-        <v>55000087</v>
+        <v>8.4</v>
+      </c>
+      <c r="Z95" s="37">
+        <v>55510004</v>
       </c>
       <c r="AA95" s="4">
         <v>70</v>
@@ -14698,7 +14703,9 @@
       <c r="AB95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC95" s="4"/>
+      <c r="AC95" s="4">
+        <v>11000004</v>
+      </c>
       <c r="AD95" s="4">
         <v>5</v>
       </c>
@@ -14720,10 +14727,10 @@
         <v>88</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E96" s="4">
         <v>6</v>
@@ -14735,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U96&gt;=13,U96&lt;=16),5,IF(AND(U96&gt;=9,U96&lt;=12),4,IF(AND(U96&gt;=5,U96&lt;=8),3,IF(AND(U96&gt;=1,U96&lt;=4),2,IF(AND(U96&gt;=-3,U96&lt;=0),1,IF(AND(U96&gt;=-5,U96&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I96" s="4">
@@ -14775,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="10">
-        <f t="shared" si="5"/>
+        <f>J96+K96-100+L96+ SUM(N96:T96)*5+IF(ISNUMBER(Y96),Y96,0)+X96</f>
         <v>-15</v>
       </c>
       <c r="V96" s="8">
@@ -14815,13 +14822,13 @@
         <v>52000094</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>89</v>
+        <v>367</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E97" s="4">
         <v>2</v>
@@ -14833,7 +14840,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U97&gt;=13,U97&lt;=16),5,IF(AND(U97&gt;=9,U97&lt;=12),4,IF(AND(U97&gt;=5,U97&lt;=8),3,IF(AND(U97&gt;=1,U97&lt;=4),2,IF(AND(U97&gt;=-3,U97&lt;=0),1,IF(AND(U97&gt;=-5,U97&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I97" s="4">
@@ -14873,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="U97" s="10">
-        <f t="shared" si="5"/>
+        <f>J97+K97-100+L97+ SUM(N97:T97)*5+IF(ISNUMBER(Y97),Y97,0)+X97</f>
         <v>-100</v>
       </c>
       <c r="V97" s="8">
@@ -14889,7 +14896,7 @@
         <f>IF(ISBLANK(Z97),0, LOOKUP(Z97,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA97/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z97" s="38">
+      <c r="Z97" s="37">
         <v>55000206</v>
       </c>
       <c r="AA97" s="4">
@@ -14917,13 +14924,13 @@
         <v>52000095</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E98" s="4">
         <v>5</v>
@@ -14935,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U98&gt;=13,U98&lt;=16),5,IF(AND(U98&gt;=9,U98&lt;=12),4,IF(AND(U98&gt;=5,U98&lt;=8),3,IF(AND(U98&gt;=1,U98&lt;=4),2,IF(AND(U98&gt;=-3,U98&lt;=0),1,IF(AND(U98&gt;=-5,U98&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I98" s="4">
@@ -14975,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="U98" s="10">
-        <f t="shared" si="5"/>
+        <f>J98+K98-100+L98+ SUM(N98:T98)*5+IF(ISNUMBER(Y98),Y98,0)+X98</f>
         <v>-100</v>
       </c>
       <c r="V98" s="8">
@@ -14991,7 +14998,7 @@
         <f>IF(ISBLANK(Z98),0, LOOKUP(Z98,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA98/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z98" s="38">
+      <c r="Z98" s="37">
         <v>55000100</v>
       </c>
       <c r="AA98" s="4">
@@ -15019,13 +15026,13 @@
         <v>52000096</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E99" s="4">
         <v>6</v>
@@ -15037,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="4"/>
+        <f>IF(AND(U99&gt;=13,U99&lt;=16),5,IF(AND(U99&gt;=9,U99&lt;=12),4,IF(AND(U99&gt;=5,U99&lt;=8),3,IF(AND(U99&gt;=1,U99&lt;=4),2,IF(AND(U99&gt;=-3,U99&lt;=0),1,IF(AND(U99&gt;=-5,U99&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I99" s="4">
@@ -15077,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="10">
-        <f t="shared" si="5"/>
+        <f>J99+K99-100+L99+ SUM(N99:T99)*5+IF(ISNUMBER(Y99),Y99,0)+X99</f>
         <v>-65</v>
       </c>
       <c r="V99" s="8">
@@ -15093,7 +15100,7 @@
         <f>IF(ISBLANK(Z99),0, LOOKUP(Z99,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA99/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z99" s="38">
+      <c r="Z99" s="37">
         <v>55000076</v>
       </c>
       <c r="AA99" s="4">
@@ -15121,13 +15128,13 @@
         <v>52000097</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E100" s="4">
         <v>2</v>
@@ -15139,7 +15146,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" ref="H100:H126" si="6">IF(AND(U100&gt;=13,U100&lt;=16),5,IF(AND(U100&gt;=9,U100&lt;=12),4,IF(AND(U100&gt;=5,U100&lt;=8),3,IF(AND(U100&gt;=1,U100&lt;=4),2,IF(AND(U100&gt;=-3,U100&lt;=0),1,IF(AND(U100&gt;=-5,U100&lt;=-4),0,6))))))</f>
+        <f>IF(AND(U100&gt;=13,U100&lt;=16),5,IF(AND(U100&gt;=9,U100&lt;=12),4,IF(AND(U100&gt;=5,U100&lt;=8),3,IF(AND(U100&gt;=1,U100&lt;=4),2,IF(AND(U100&gt;=-3,U100&lt;=0),1,IF(AND(U100&gt;=-5,U100&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I100" s="4">
@@ -15179,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="10">
-        <f t="shared" ref="U100:U126" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
+        <f>J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
         <v>-75</v>
       </c>
       <c r="V100" s="8">
@@ -15195,7 +15202,7 @@
         <f>IF(ISBLANK(Z100),0, LOOKUP(Z100,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA100/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z100" s="38">
+      <c r="Z100" s="37">
         <v>55000172</v>
       </c>
       <c r="AA100" s="4">
@@ -15223,13 +15230,13 @@
         <v>52000098</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -15241,7 +15248,7 @@
         <v>6</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U101&gt;=13,U101&lt;=16),5,IF(AND(U101&gt;=9,U101&lt;=12),4,IF(AND(U101&gt;=5,U101&lt;=8),3,IF(AND(U101&gt;=1,U101&lt;=4),2,IF(AND(U101&gt;=-3,U101&lt;=0),1,IF(AND(U101&gt;=-5,U101&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I101" s="4">
@@ -15281,7 +15288,7 @@
         <v>0</v>
       </c>
       <c r="U101" s="10">
-        <f t="shared" si="7"/>
+        <f>J101+K101-100+L101+ SUM(N101:T101)*5+IF(ISNUMBER(Y101),Y101,0)+X101</f>
         <v>6.8000000000000007</v>
       </c>
       <c r="V101" s="8">
@@ -15297,14 +15304,14 @@
         <f>IF(ISBLANK(Z101),0, LOOKUP(Z101,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA101/100)</f>
         <v>14.8</v>
       </c>
-      <c r="Z101" s="38">
+      <c r="Z101" s="37">
         <v>55510019</v>
       </c>
       <c r="AA101" s="4">
         <v>40</v>
       </c>
       <c r="AB101" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC101" s="4"/>
       <c r="AD101" s="4">
@@ -15325,13 +15332,13 @@
         <v>52000099</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E102" s="4">
         <v>2</v>
@@ -15343,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U102&gt;=13,U102&lt;=16),5,IF(AND(U102&gt;=9,U102&lt;=12),4,IF(AND(U102&gt;=5,U102&lt;=8),3,IF(AND(U102&gt;=1,U102&lt;=4),2,IF(AND(U102&gt;=-3,U102&lt;=0),1,IF(AND(U102&gt;=-5,U102&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I102" s="4">
@@ -15383,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="U102" s="10">
-        <f t="shared" si="7"/>
+        <f>J102+K102-100+L102+ SUM(N102:T102)*5+IF(ISNUMBER(Y102),Y102,0)+X102</f>
         <v>-60</v>
       </c>
       <c r="V102" s="8">
@@ -15399,7 +15406,7 @@
         <f>IF(ISBLANK(Z102),0, LOOKUP(Z102,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA102/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z102" s="38">
+      <c r="Z102" s="37">
         <v>55000228</v>
       </c>
       <c r="AA102" s="4">
@@ -15427,13 +15434,13 @@
         <v>52000100</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D103" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E103" s="4">
         <v>4</v>
@@ -15445,7 +15452,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U103&gt;=13,U103&lt;=16),5,IF(AND(U103&gt;=9,U103&lt;=12),4,IF(AND(U103&gt;=5,U103&lt;=8),3,IF(AND(U103&gt;=1,U103&lt;=4),2,IF(AND(U103&gt;=-3,U103&lt;=0),1,IF(AND(U103&gt;=-5,U103&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I103" s="4">
@@ -15485,7 +15492,7 @@
         <v>0</v>
       </c>
       <c r="U103" s="10">
-        <f t="shared" si="7"/>
+        <f>J103+K103-100+L103+ SUM(N103:T103)*5+IF(ISNUMBER(Y103),Y103,0)+X103</f>
         <v>-100</v>
       </c>
       <c r="V103" s="8">
@@ -15501,14 +15508,14 @@
         <f>IF(ISBLANK(Z103),0, LOOKUP(Z103,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA103/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z103" s="38">
+      <c r="Z103" s="37">
         <v>55000229</v>
       </c>
       <c r="AA103" s="4">
         <v>25</v>
       </c>
       <c r="AB103" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC103" s="4"/>
       <c r="AD103" s="4">
@@ -15529,13 +15536,13 @@
         <v>52000101</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E104" s="4">
         <v>3</v>
@@ -15547,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U104&gt;=13,U104&lt;=16),5,IF(AND(U104&gt;=9,U104&lt;=12),4,IF(AND(U104&gt;=5,U104&lt;=8),3,IF(AND(U104&gt;=1,U104&lt;=4),2,IF(AND(U104&gt;=-3,U104&lt;=0),1,IF(AND(U104&gt;=-5,U104&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I104" s="4">
@@ -15587,7 +15594,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="10">
-        <f t="shared" si="7"/>
+        <f>J104+K104-100+L104+ SUM(N104:T104)*5+IF(ISNUMBER(Y104),Y104,0)+X104</f>
         <v>0</v>
       </c>
       <c r="V104" s="8">
@@ -15603,7 +15610,7 @@
         <f>IF(ISBLANK(Z104),0, LOOKUP(Z104,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA104/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z104" s="38">
+      <c r="Z104" s="37">
         <v>55000078</v>
       </c>
       <c r="AA104" s="4">
@@ -15631,13 +15638,13 @@
         <v>52000102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -15649,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U105&gt;=13,U105&lt;=16),5,IF(AND(U105&gt;=9,U105&lt;=12),4,IF(AND(U105&gt;=5,U105&lt;=8),3,IF(AND(U105&gt;=1,U105&lt;=4),2,IF(AND(U105&gt;=-3,U105&lt;=0),1,IF(AND(U105&gt;=-5,U105&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I105" s="4">
@@ -15689,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="U105" s="10">
-        <f t="shared" si="7"/>
+        <f>J105+K105-100+L105+ SUM(N105:T105)*5+IF(ISNUMBER(Y105),Y105,0)+X105</f>
         <v>-100</v>
       </c>
       <c r="V105" s="8">
@@ -15705,7 +15712,7 @@
         <f>IF(ISBLANK(Z105),0, LOOKUP(Z105,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA105/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z105" s="38">
+      <c r="Z105" s="37">
         <v>55000035</v>
       </c>
       <c r="AA105" s="4">
@@ -15733,13 +15740,13 @@
         <v>52000103</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E106" s="4">
         <v>4</v>
@@ -15751,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U106&gt;=13,U106&lt;=16),5,IF(AND(U106&gt;=9,U106&lt;=12),4,IF(AND(U106&gt;=5,U106&lt;=8),3,IF(AND(U106&gt;=1,U106&lt;=4),2,IF(AND(U106&gt;=-3,U106&lt;=0),1,IF(AND(U106&gt;=-5,U106&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I106" s="4">
@@ -15791,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="10">
-        <f t="shared" si="7"/>
+        <f>J106+K106-100+L106+ SUM(N106:T106)*5+IF(ISNUMBER(Y106),Y106,0)+X106</f>
         <v>-100</v>
       </c>
       <c r="V106" s="8">
@@ -15831,16 +15838,16 @@
         <v>52000104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="E107" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107">
         <v>100</v>
@@ -15849,20 +15856,20 @@
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(AND(U107&gt;=13,U107&lt;=16),5,IF(AND(U107&gt;=9,U107&lt;=12),4,IF(AND(U107&gt;=5,U107&lt;=8),3,IF(AND(U107&gt;=1,U107&lt;=4),2,IF(AND(U107&gt;=-3,U107&lt;=0),1,IF(AND(U107&gt;=-5,U107&lt;=-4),0,6))))))</f>
+        <v>2</v>
       </c>
       <c r="I107" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" s="7">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K107" s="7">
         <v>0</v>
       </c>
       <c r="L107" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M107" s="8">
         <v>4</v>
@@ -15889,8 +15896,8 @@
         <v>0</v>
       </c>
       <c r="U107" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>J107+K107-100+L107+ SUM(N107:T107)*5+IF(ISNUMBER(Y107),Y107,0)+X107</f>
+        <v>1</v>
       </c>
       <c r="V107" s="8">
         <v>10</v>
@@ -15901,12 +15908,12 @@
       <c r="X107" s="8">
         <v>0</v>
       </c>
-      <c r="Y107" s="8" t="e">
+      <c r="Y107" s="8">
         <f>IF(ISBLANK(Z107),0, LOOKUP(Z107,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA107/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z107" s="38">
-        <v>55000230</v>
+        <v>12</v>
+      </c>
+      <c r="Z107" s="37">
+        <v>55510013</v>
       </c>
       <c r="AA107" s="4">
         <v>100</v>
@@ -15914,7 +15921,9 @@
       <c r="AB107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC107" s="4"/>
+      <c r="AC107" s="4">
+        <v>11000003</v>
+      </c>
       <c r="AD107" s="4">
         <v>5</v>
       </c>
@@ -15933,14 +15942,12 @@
         <v>52000105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>343</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D108" s="25"/>
       <c r="E108" s="4">
         <v>2</v>
       </c>
@@ -15951,8 +15958,8 @@
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>IF(AND(U108&gt;=13,U108&lt;=16),5,IF(AND(U108&gt;=9,U108&lt;=12),4,IF(AND(U108&gt;=5,U108&lt;=8),3,IF(AND(U108&gt;=1,U108&lt;=4),2,IF(AND(U108&gt;=-3,U108&lt;=0),1,IF(AND(U108&gt;=-5,U108&lt;=-4),0,6))))))</f>
+        <v>1</v>
       </c>
       <c r="I108" s="4">
         <v>2</v>
@@ -15961,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="6">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L108" s="14">
         <v>0</v>
@@ -15970,7 +15977,7 @@
         <v>4</v>
       </c>
       <c r="N108" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O108" s="8">
         <v>0</v>
@@ -15991,8 +15998,8 @@
         <v>0</v>
       </c>
       <c r="U108" s="10">
-        <f t="shared" si="7"/>
-        <v>-65</v>
+        <f>J108+K108-100+L108+ SUM(N108:T108)*5+IF(ISNUMBER(Y108),Y108,0)+X108</f>
+        <v>-2</v>
       </c>
       <c r="V108" s="8">
         <v>0</v>
@@ -16003,12 +16010,12 @@
       <c r="X108" s="8">
         <v>0</v>
       </c>
-      <c r="Y108" s="8" t="e">
+      <c r="Y108" s="8">
         <f>IF(ISBLANK(Z108),0, LOOKUP(Z108,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA108/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z108" s="38">
-        <v>55000216</v>
+        <v>8</v>
+      </c>
+      <c r="Z108" s="37">
+        <v>55990101</v>
       </c>
       <c r="AA108" s="4">
         <v>100</v>
@@ -16016,7 +16023,9 @@
       <c r="AB108" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC108" s="4"/>
+      <c r="AC108" s="4">
+        <v>11000003</v>
+      </c>
       <c r="AD108" s="4">
         <v>5</v>
       </c>
@@ -16035,14 +16044,12 @@
         <v>52000106</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>343</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D109" s="25"/>
       <c r="E109" s="4">
         <v>2</v>
       </c>
@@ -16053,8 +16060,8 @@
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>IF(AND(U109&gt;=13,U109&lt;=16),5,IF(AND(U109&gt;=9,U109&lt;=12),4,IF(AND(U109&gt;=5,U109&lt;=8),3,IF(AND(U109&gt;=1,U109&lt;=4),2,IF(AND(U109&gt;=-3,U109&lt;=0),1,IF(AND(U109&gt;=-5,U109&lt;=-4),0,6))))))</f>
+        <v>2</v>
       </c>
       <c r="I109" s="4">
         <v>2</v>
@@ -16063,10 +16070,10 @@
         <v>0</v>
       </c>
       <c r="K109" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L109" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" s="8">
         <v>4</v>
@@ -16075,7 +16082,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P109" s="8">
         <v>0</v>
@@ -16093,8 +16100,8 @@
         <v>0</v>
       </c>
       <c r="U109" s="10">
-        <f t="shared" si="7"/>
-        <v>-100</v>
+        <f>J109+K109-100+L109+ SUM(N109:T109)*5+IF(ISNUMBER(Y109),Y109,0)+X109</f>
+        <v>1</v>
       </c>
       <c r="V109" s="8">
         <v>0</v>
@@ -16105,20 +16112,18 @@
       <c r="X109" s="8">
         <v>0</v>
       </c>
-      <c r="Y109" s="8" t="e">
+      <c r="Y109" s="8">
         <f>IF(ISBLANK(Z109),0, LOOKUP(Z109,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA109/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z109" s="38">
-        <v>55000231</v>
-      </c>
-      <c r="AA109" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z109" s="37"/>
+      <c r="AA109" s="4"/>
       <c r="AB109" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC109" s="4"/>
+      <c r="AC109" s="4">
+        <v>11000007</v>
+      </c>
       <c r="AD109" s="4">
         <v>5</v>
       </c>
@@ -16137,38 +16142,36 @@
         <v>52000107</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>343</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D110" s="25"/>
       <c r="E110" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F110">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G110" s="4">
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>IF(AND(U110&gt;=13,U110&lt;=16),5,IF(AND(U110&gt;=9,U110&lt;=12),4,IF(AND(U110&gt;=5,U110&lt;=8),3,IF(AND(U110&gt;=1,U110&lt;=4),2,IF(AND(U110&gt;=-3,U110&lt;=0),1,IF(AND(U110&gt;=-5,U110&lt;=-4),0,6))))))</f>
+        <v>2</v>
       </c>
       <c r="I110" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J110" s="6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K110" s="6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L110" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M110" s="8">
         <v>4</v>
@@ -16195,8 +16198,8 @@
         <v>0</v>
       </c>
       <c r="U110" s="10">
-        <f t="shared" si="7"/>
-        <v>-50</v>
+        <f>J110+K110-100+L110+ SUM(N110:T110)*5+IF(ISNUMBER(Y110),Y110,0)+X110</f>
+        <v>3</v>
       </c>
       <c r="V110" s="8">
         <v>0</v>
@@ -16207,12 +16210,12 @@
       <c r="X110" s="8">
         <v>0</v>
       </c>
-      <c r="Y110" s="8" t="e">
+      <c r="Y110" s="8">
         <f>IF(ISBLANK(Z110),0, LOOKUP(Z110,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA110/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z110" s="38">
-        <v>55000156</v>
+        <v>10</v>
+      </c>
+      <c r="Z110">
+        <v>55900013</v>
       </c>
       <c r="AA110" s="4">
         <v>100</v>
@@ -16239,13 +16242,13 @@
         <v>52000108</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E111" s="4">
         <v>4</v>
@@ -16257,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U111&gt;=13,U111&lt;=16),5,IF(AND(U111&gt;=9,U111&lt;=12),4,IF(AND(U111&gt;=5,U111&lt;=8),3,IF(AND(U111&gt;=1,U111&lt;=4),2,IF(AND(U111&gt;=-3,U111&lt;=0),1,IF(AND(U111&gt;=-5,U111&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I111" s="4">
@@ -16297,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="10">
-        <f t="shared" si="7"/>
+        <f>J111+K111-100+L111+ SUM(N111:T111)*5+IF(ISNUMBER(Y111),Y111,0)+X111</f>
         <v>-30</v>
       </c>
       <c r="V111" s="8">
@@ -16313,7 +16316,7 @@
         <f>IF(ISBLANK(Z111),0, LOOKUP(Z111,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA111/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z111" s="38">
+      <c r="Z111" s="37">
         <v>55000232</v>
       </c>
       <c r="AA111" s="4">
@@ -16341,13 +16344,13 @@
         <v>52000109</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E112" s="4">
         <v>2</v>
@@ -16359,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U112&gt;=13,U112&lt;=16),5,IF(AND(U112&gt;=9,U112&lt;=12),4,IF(AND(U112&gt;=5,U112&lt;=8),3,IF(AND(U112&gt;=1,U112&lt;=4),2,IF(AND(U112&gt;=-3,U112&lt;=0),1,IF(AND(U112&gt;=-5,U112&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I112" s="4">
@@ -16399,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="10">
-        <f t="shared" si="7"/>
+        <f>J112+K112-100+L112+ SUM(N112:T112)*5+IF(ISNUMBER(Y112),Y112,0)+X112</f>
         <v>-100</v>
       </c>
       <c r="V112" s="8">
@@ -16415,7 +16418,7 @@
         <f>IF(ISBLANK(Z112),0, LOOKUP(Z112,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA112/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z112" s="38">
+      <c r="Z112" s="37">
         <v>55000088</v>
       </c>
       <c r="AA112" s="4">
@@ -16443,13 +16446,13 @@
         <v>52000110</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E113" s="4">
         <v>6</v>
@@ -16461,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U113&gt;=13,U113&lt;=16),5,IF(AND(U113&gt;=9,U113&lt;=12),4,IF(AND(U113&gt;=5,U113&lt;=8),3,IF(AND(U113&gt;=1,U113&lt;=4),2,IF(AND(U113&gt;=-3,U113&lt;=0),1,IF(AND(U113&gt;=-5,U113&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I113" s="4">
@@ -16501,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="U113" s="10">
-        <f t="shared" si="7"/>
+        <f>J113+K113-100+L113+ SUM(N113:T113)*5+IF(ISNUMBER(Y113),Y113,0)+X113</f>
         <v>0</v>
       </c>
       <c r="V113" s="8">
@@ -16517,7 +16520,7 @@
         <f>IF(ISBLANK(Z113),0, LOOKUP(Z113,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA113/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z113" s="38">
+      <c r="Z113" s="37">
         <v>55000233</v>
       </c>
       <c r="AA113" s="4">
@@ -16545,13 +16548,13 @@
         <v>52000111</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E114" s="4">
         <v>5</v>
@@ -16563,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U114&gt;=13,U114&lt;=16),5,IF(AND(U114&gt;=9,U114&lt;=12),4,IF(AND(U114&gt;=5,U114&lt;=8),3,IF(AND(U114&gt;=1,U114&lt;=4),2,IF(AND(U114&gt;=-3,U114&lt;=0),1,IF(AND(U114&gt;=-5,U114&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I114" s="4">
@@ -16603,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="10">
-        <f t="shared" si="7"/>
+        <f>J114+K114-100+L114+ SUM(N114:T114)*5+IF(ISNUMBER(Y114),Y114,0)+X114</f>
         <v>0</v>
       </c>
       <c r="V114" s="8">
@@ -16619,7 +16622,7 @@
         <f>IF(ISBLANK(Z114),0, LOOKUP(Z114,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA114/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z114" s="38">
+      <c r="Z114" s="37">
         <v>55000233</v>
       </c>
       <c r="AA114" s="4">
@@ -16647,14 +16650,12 @@
         <v>52000112</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>343</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D115" s="25"/>
       <c r="E115" s="4">
         <v>5</v>
       </c>
@@ -16665,26 +16666,26 @@
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>IF(AND(U115&gt;=13,U115&lt;=16),5,IF(AND(U115&gt;=9,U115&lt;=12),4,IF(AND(U115&gt;=5,U115&lt;=8),3,IF(AND(U115&gt;=1,U115&lt;=4),2,IF(AND(U115&gt;=-3,U115&lt;=0),1,IF(AND(U115&gt;=-5,U115&lt;=-4),0,6))))))</f>
+        <v>3</v>
       </c>
       <c r="I115" s="4">
         <v>5</v>
       </c>
       <c r="J115" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K115" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L115" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M115" s="8">
         <v>4</v>
       </c>
       <c r="N115" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O115" s="8">
         <v>0</v>
@@ -16699,14 +16700,14 @@
         <v>0</v>
       </c>
       <c r="S115" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T115" s="8">
         <v>0</v>
       </c>
       <c r="U115" s="18">
-        <f t="shared" si="7"/>
-        <v>-60</v>
+        <f>J115+K115-100+L115+ SUM(N115:T115)*5+IF(ISNUMBER(Y115),Y115,0)+X115</f>
+        <v>5</v>
       </c>
       <c r="V115" s="8">
         <v>0</v>
@@ -16717,20 +16718,18 @@
       <c r="X115" s="8">
         <v>0</v>
       </c>
-      <c r="Y115" s="8" t="e">
+      <c r="Y115" s="8">
         <f>IF(ISBLANK(Z115),0, LOOKUP(Z115,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA115/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z115" s="38">
-        <v>55000037</v>
-      </c>
-      <c r="AA115" s="4">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z115" s="37"/>
+      <c r="AA115" s="4"/>
       <c r="AB115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC115" s="4"/>
+      <c r="AC115" s="4">
+        <v>11000002</v>
+      </c>
       <c r="AD115" s="4">
         <v>5</v>
       </c>
@@ -16749,13 +16748,13 @@
         <v>52000113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E116" s="4">
         <v>1</v>
@@ -16767,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U116&gt;=13,U116&lt;=16),5,IF(AND(U116&gt;=9,U116&lt;=12),4,IF(AND(U116&gt;=5,U116&lt;=8),3,IF(AND(U116&gt;=1,U116&lt;=4),2,IF(AND(U116&gt;=-3,U116&lt;=0),1,IF(AND(U116&gt;=-5,U116&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I116" s="4">
@@ -16807,7 +16806,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="10">
-        <f t="shared" si="7"/>
+        <f>J116+K116-100+L116+ SUM(N116:T116)*5+IF(ISNUMBER(Y116),Y116,0)+X116</f>
         <v>-70</v>
       </c>
       <c r="V116" s="8">
@@ -16823,7 +16822,7 @@
         <f>IF(ISBLANK(Z116),0, LOOKUP(Z116,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA116/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z116" s="38">
+      <c r="Z116" s="37">
         <v>55000132</v>
       </c>
       <c r="AA116" s="4">
@@ -16851,13 +16850,13 @@
         <v>52000114</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C117" s="32" t="s">
-        <v>147</v>
+        <v>107</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E117" s="4">
         <v>2</v>
@@ -16869,7 +16868,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U117&gt;=13,U117&lt;=16),5,IF(AND(U117&gt;=9,U117&lt;=12),4,IF(AND(U117&gt;=5,U117&lt;=8),3,IF(AND(U117&gt;=1,U117&lt;=4),2,IF(AND(U117&gt;=-3,U117&lt;=0),1,IF(AND(U117&gt;=-5,U117&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I117" s="4">
@@ -16909,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="U117" s="10">
-        <f t="shared" si="7"/>
+        <f>J117+K117-100+L117+ SUM(N117:T117)*5+IF(ISNUMBER(Y117),Y117,0)+X117</f>
         <v>0</v>
       </c>
       <c r="V117" s="8">
@@ -16925,7 +16924,7 @@
         <f>IF(ISBLANK(Z117),0, LOOKUP(Z117,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA117/100)</f>
         <v>10</v>
       </c>
-      <c r="Z117" s="38">
+      <c r="Z117" s="37">
         <v>55510007</v>
       </c>
       <c r="AA117" s="4">
@@ -16953,13 +16952,13 @@
         <v>52000115</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E118" s="4">
         <v>4</v>
@@ -16971,7 +16970,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U118&gt;=13,U118&lt;=16),5,IF(AND(U118&gt;=9,U118&lt;=12),4,IF(AND(U118&gt;=5,U118&lt;=8),3,IF(AND(U118&gt;=1,U118&lt;=4),2,IF(AND(U118&gt;=-3,U118&lt;=0),1,IF(AND(U118&gt;=-5,U118&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I118" s="4">
@@ -17010,8 +17009,8 @@
       <c r="T118" s="8">
         <v>0</v>
       </c>
-      <c r="U118" s="37">
-        <f t="shared" si="7"/>
+      <c r="U118" s="36">
+        <f>J118+K118-100+L118+ SUM(N118:T118)*5+IF(ISNUMBER(Y118),Y118,0)+X118</f>
         <v>-50</v>
       </c>
       <c r="V118" s="8">
@@ -17027,7 +17026,7 @@
         <f>IF(ISBLANK(Z118),0, LOOKUP(Z118,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA118/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z118" s="38">
+      <c r="Z118" s="37">
         <v>55000234</v>
       </c>
       <c r="AA118" s="4">
@@ -17055,13 +17054,13 @@
         <v>52000116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>148</v>
+        <v>109</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E119" s="4">
         <v>3</v>
@@ -17073,7 +17072,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U119&gt;=13,U119&lt;=16),5,IF(AND(U119&gt;=9,U119&lt;=12),4,IF(AND(U119&gt;=5,U119&lt;=8),3,IF(AND(U119&gt;=1,U119&lt;=4),2,IF(AND(U119&gt;=-3,U119&lt;=0),1,IF(AND(U119&gt;=-5,U119&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I119" s="4">
@@ -17112,8 +17111,8 @@
       <c r="T119" s="8">
         <v>0</v>
       </c>
-      <c r="U119" s="37">
-        <f t="shared" si="7"/>
+      <c r="U119" s="36">
+        <f>J119+K119-100+L119+ SUM(N119:T119)*5+IF(ISNUMBER(Y119),Y119,0)+X119</f>
         <v>-100</v>
       </c>
       <c r="V119" s="8">
@@ -17129,7 +17128,7 @@
         <f>IF(ISBLANK(Z119),0, LOOKUP(Z119,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA119/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z119" s="38">
+      <c r="Z119" s="37">
         <v>55000180</v>
       </c>
       <c r="AA119" s="4">
@@ -17157,13 +17156,13 @@
         <v>52000117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E120" s="4">
         <v>5</v>
@@ -17175,7 +17174,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U120&gt;=13,U120&lt;=16),5,IF(AND(U120&gt;=9,U120&lt;=12),4,IF(AND(U120&gt;=5,U120&lt;=8),3,IF(AND(U120&gt;=1,U120&lt;=4),2,IF(AND(U120&gt;=-3,U120&lt;=0),1,IF(AND(U120&gt;=-5,U120&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I120" s="4">
@@ -17215,7 +17214,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="18">
-        <f t="shared" si="7"/>
+        <f>J120+K120-100+L120+ SUM(N120:T120)*5+IF(ISNUMBER(Y120),Y120,0)+X120</f>
         <v>-75</v>
       </c>
       <c r="V120" s="8">
@@ -17231,7 +17230,7 @@
         <f>IF(ISBLANK(Z120),0, LOOKUP(Z120,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA120/100)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z120" s="38">
+      <c r="Z120" s="37">
         <v>55000212</v>
       </c>
       <c r="AA120" s="4">
@@ -17259,16 +17258,14 @@
         <v>52000118</v>
       </c>
       <c r="B121" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C121" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D121" s="25"/>
       <c r="E121" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F121">
         <v>102</v>
@@ -17277,11 +17274,11 @@
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>IF(AND(U121&gt;=13,U121&lt;=16),5,IF(AND(U121&gt;=9,U121&lt;=12),4,IF(AND(U121&gt;=5,U121&lt;=8),3,IF(AND(U121&gt;=1,U121&lt;=4),2,IF(AND(U121&gt;=-3,U121&lt;=0),1,IF(AND(U121&gt;=-5,U121&lt;=-4),0,6))))))</f>
+        <v>3</v>
       </c>
       <c r="I121" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J121" s="16">
         <v>0</v>
@@ -17290,7 +17287,7 @@
         <v>65</v>
       </c>
       <c r="L121" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M121" s="8">
         <v>4</v>
@@ -17308,7 +17305,7 @@
         <v>0</v>
       </c>
       <c r="R121" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S121" s="8">
         <v>0</v>
@@ -17317,8 +17314,8 @@
         <v>0</v>
       </c>
       <c r="U121" s="18">
-        <f t="shared" si="7"/>
-        <v>-35</v>
+        <f>J121+K121-100+L121+ SUM(N121:T121)*5+IF(ISNUMBER(Y121),Y121,0)+X121</f>
+        <v>5</v>
       </c>
       <c r="V121" s="8">
         <v>0</v>
@@ -17338,7 +17335,9 @@
       <c r="AB121" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC121" s="15"/>
+      <c r="AC121" s="15">
+        <v>11000003</v>
+      </c>
       <c r="AD121" s="15">
         <v>5</v>
       </c>
@@ -17357,14 +17356,12 @@
         <v>52000119</v>
       </c>
       <c r="B122" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C122" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D122" s="25"/>
       <c r="E122" s="15">
         <v>5</v>
       </c>
@@ -17375,8 +17372,8 @@
         <v>0</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(AND(U122&gt;=13,U122&lt;=16),5,IF(AND(U122&gt;=9,U122&lt;=12),4,IF(AND(U122&gt;=5,U122&lt;=8),3,IF(AND(U122&gt;=1,U122&lt;=4),2,IF(AND(U122&gt;=-3,U122&lt;=0),1,IF(AND(U122&gt;=-5,U122&lt;=-4),0,6))))))</f>
+        <v>2</v>
       </c>
       <c r="I122" s="15">
         <v>5</v>
@@ -17385,16 +17382,16 @@
         <v>0</v>
       </c>
       <c r="K122" s="16">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L122" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M122" s="8">
         <v>4</v>
       </c>
       <c r="N122" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O122" s="8">
         <v>0</v>
@@ -17414,9 +17411,9 @@
       <c r="T122" s="8">
         <v>0</v>
       </c>
-      <c r="U122" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="U122" s="35">
+        <f>J122+K122-100+L122+ SUM(N122:T122)*5+IF(ISNUMBER(Y122),Y122,0)+X122</f>
+        <v>3</v>
       </c>
       <c r="V122" s="8">
         <v>0</v>
@@ -17436,7 +17433,9 @@
       <c r="AB122" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC122" s="15"/>
+      <c r="AC122" s="15">
+        <v>11000002</v>
+      </c>
       <c r="AD122" s="15">
         <v>5</v>
       </c>
@@ -17455,14 +17454,12 @@
         <v>52000120</v>
       </c>
       <c r="B123" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C123" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>343</v>
-      </c>
+      <c r="D123" s="25"/>
       <c r="E123" s="15">
         <v>4</v>
       </c>
@@ -17473,8 +17470,8 @@
         <v>0</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>IF(AND(U123&gt;=13,U123&lt;=16),5,IF(AND(U123&gt;=9,U123&lt;=12),4,IF(AND(U123&gt;=5,U123&lt;=8),3,IF(AND(U123&gt;=1,U123&lt;=4),2,IF(AND(U123&gt;=-3,U123&lt;=0),1,IF(AND(U123&gt;=-5,U123&lt;=-4),0,6))))))</f>
+        <v>3</v>
       </c>
       <c r="I123" s="15">
         <v>4</v>
@@ -17483,10 +17480,10 @@
         <v>0</v>
       </c>
       <c r="K123" s="16">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="L123" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M123" s="8">
         <v>4</v>
@@ -17495,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P123" s="8">
         <v>0</v>
@@ -17507,14 +17504,14 @@
         <v>0</v>
       </c>
       <c r="S123" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T123" s="8">
         <v>0</v>
       </c>
-      <c r="U123" s="36">
-        <f t="shared" si="7"/>
-        <v>-30</v>
+      <c r="U123" s="35">
+        <f>J123+K123-100+L123+ SUM(N123:T123)*5+IF(ISNUMBER(Y123),Y123,0)+X123</f>
+        <v>5</v>
       </c>
       <c r="V123" s="8">
         <v>0</v>
@@ -17534,7 +17531,9 @@
       <c r="AB123" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC123" s="15"/>
+      <c r="AC123" s="15">
+        <v>11000007</v>
+      </c>
       <c r="AD123" s="15">
         <v>5</v>
       </c>
@@ -17553,13 +17552,13 @@
         <v>52000121</v>
       </c>
       <c r="B124" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C124" s="15" t="s">
-        <v>274</v>
-      </c>
       <c r="D124" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E124" s="15">
         <v>5</v>
@@ -17571,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="6"/>
+        <f>IF(AND(U124&gt;=13,U124&lt;=16),5,IF(AND(U124&gt;=9,U124&lt;=12),4,IF(AND(U124&gt;=5,U124&lt;=8),3,IF(AND(U124&gt;=1,U124&lt;=4),2,IF(AND(U124&gt;=-3,U124&lt;=0),1,IF(AND(U124&gt;=-5,U124&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I124" s="15">
@@ -17611,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="U124" s="18">
-        <f t="shared" si="7"/>
+        <f>J124+K124-100+L124+ SUM(N124:T124)*5+IF(ISNUMBER(Y124),Y124,0)+X124</f>
         <v>-25</v>
       </c>
       <c r="V124" s="8">
@@ -17654,11 +17653,9 @@
         <v>7</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>343</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D125" s="25"/>
       <c r="E125" s="4">
         <v>3</v>
       </c>
@@ -17669,8 +17666,8 @@
         <v>0</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(AND(U125&gt;=13,U125&lt;=16),5,IF(AND(U125&gt;=9,U125&lt;=12),4,IF(AND(U125&gt;=5,U125&lt;=8),3,IF(AND(U125&gt;=1,U125&lt;=4),2,IF(AND(U125&gt;=-3,U125&lt;=0),1,IF(AND(U125&gt;=-5,U125&lt;=-4),0,6))))))</f>
+        <v>2</v>
       </c>
       <c r="I125" s="4">
         <v>3</v>
@@ -17682,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M125" s="8">
         <v>4</v>
@@ -17709,8 +17706,8 @@
         <v>0</v>
       </c>
       <c r="U125" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>J125+K125-100+L125+ SUM(N125:T125)*5+IF(ISNUMBER(Y125),Y125,0)+X125</f>
+        <v>2</v>
       </c>
       <c r="V125" s="8">
         <v>10</v>
@@ -17730,7 +17727,9 @@
       <c r="AB125" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC125" s="4"/>
+      <c r="AC125" s="4">
+        <v>11000001</v>
+      </c>
       <c r="AD125" s="4">
         <v>5</v>
       </c>
@@ -17749,13 +17748,13 @@
         <v>52000123</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="E126" s="4">
         <v>3</v>
@@ -17767,8 +17766,8 @@
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>IF(AND(U126&gt;=13,U126&lt;=16),5,IF(AND(U126&gt;=9,U126&lt;=12),4,IF(AND(U126&gt;=5,U126&lt;=8),3,IF(AND(U126&gt;=1,U126&lt;=4),2,IF(AND(U126&gt;=-3,U126&lt;=0),1,IF(AND(U126&gt;=-5,U126&lt;=-4),0,6))))))</f>
+        <v>3</v>
       </c>
       <c r="I126" s="4">
         <v>3</v>
@@ -17780,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M126" s="8">
         <v>4</v>
@@ -17792,7 +17791,7 @@
         <v>0</v>
       </c>
       <c r="P126" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q126" s="8">
         <v>0</v>
@@ -17807,11 +17806,11 @@
         <v>0</v>
       </c>
       <c r="U126" s="18">
-        <f t="shared" si="7"/>
-        <v>-30</v>
+        <f>J126+K126-100+L126+ SUM(N126:T126)*5+IF(ISNUMBER(Y126),Y126,0)+X126</f>
+        <v>5</v>
       </c>
       <c r="V126" s="8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="W126" s="8">
         <v>0</v>
@@ -17826,9 +17825,11 @@
       <c r="Z126" s="25"/>
       <c r="AA126" s="15"/>
       <c r="AB126" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC126" s="15"/>
+        <v>317</v>
+      </c>
+      <c r="AC126" s="15">
+        <v>11000004</v>
+      </c>
       <c r="AD126" s="15">
         <v>5</v>
       </c>
@@ -18116,305 +18117,305 @@
   <sheetData>
     <row r="1" spans="1:33" ht="69">
       <c r="A1" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="AA1" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC1" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="Y1" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AC1" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AE1" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="AE1" s="22" t="s">
-        <v>256</v>
-      </c>
       <c r="AF1" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="AC2" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC2" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="AF2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG2" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>117</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="I3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z3" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="I3" t="s">
-        <v>291</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>119</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>120</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD3" t="s">
         <v>121</v>
       </c>
-      <c r="AC3" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>122</v>
       </c>
-      <c r="AE3" t="s">
-        <v>123</v>
-      </c>
       <c r="AF3" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG3" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -18422,10 +18423,10 @@
         <v>52100000</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="15">
@@ -18518,10 +18519,10 @@
         <v>52100001</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="15">
@@ -18593,7 +18594,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC5" s="15"/>
       <c r="AD5" s="15">
@@ -18761,10 +18762,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="373">
   <si>
     <t>铁杖</t>
   </si>
@@ -1249,6 +1249,22 @@
   </si>
   <si>
     <t>攻速</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4855,6 +4871,14 @@
             <v>8</v>
           </cell>
         </row>
+        <row r="161">
+          <cell r="A161">
+            <v>55990102</v>
+          </cell>
+          <cell r="X161">
+            <v>25</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
     </sheetDataSet>
@@ -5254,10 +5278,10 @@
   <dimension ref="A1:AG126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6966,7 +6990,7 @@
         <v>5</v>
       </c>
       <c r="AE17" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF17" s="26">
         <v>0</v>
@@ -7088,10 +7112,10 @@
         <v>287</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="E19" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -7101,10 +7125,10 @@
       </c>
       <c r="H19" s="4">
         <f>IF(AND(U19&gt;=13,U19&lt;=16),5,IF(AND(U19&gt;=9,U19&lt;=12),4,IF(AND(U19&gt;=5,U19&lt;=8),3,IF(AND(U19&gt;=1,U19&lt;=4),2,IF(AND(U19&gt;=-3,U19&lt;=0),1,IF(AND(U19&gt;=-5,U19&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I19" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="16">
         <v>90</v>
@@ -7116,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
@@ -7134,14 +7158,14 @@
         <v>0</v>
       </c>
       <c r="S19" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="8">
         <v>0</v>
       </c>
       <c r="U19" s="18">
         <f>J19+K19-100+L19+ SUM(N19:T19)*5+IF(ISNUMBER(Y19),Y19,0)+X19</f>
-        <v>-10</v>
+        <v>2.5</v>
       </c>
       <c r="V19" s="8">
         <v>10</v>
@@ -7154,10 +7178,14 @@
       </c>
       <c r="Y19" s="8">
         <f>IF(ISBLANK(Z19),0, LOOKUP(Z19,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA19/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>55510010</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>50</v>
+      </c>
       <c r="AB19" s="15" t="s">
         <v>3</v>
       </c>
@@ -7186,7 +7214,7 @@
         <v>161</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -7199,19 +7227,19 @@
       </c>
       <c r="H20" s="4">
         <f>IF(AND(U20&gt;=13,U20&lt;=16),5,IF(AND(U20&gt;=9,U20&lt;=12),4,IF(AND(U20&gt;=5,U20&lt;=8),3,IF(AND(U20&gt;=1,U20&lt;=4),2,IF(AND(U20&gt;=-3,U20&lt;=0),1,IF(AND(U20&gt;=-5,U20&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I20" s="4">
         <v>2</v>
       </c>
       <c r="J20" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K20" s="6">
         <v>0</v>
       </c>
       <c r="L20" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M20" s="8">
         <v>4</v>
@@ -7226,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R20" s="8">
         <v>0</v>
@@ -7239,7 +7267,7 @@
       </c>
       <c r="U20" s="10">
         <f>J20+K20-100+L20+ SUM(N20:T20)*5+IF(ISNUMBER(Y20),Y20,0)+X20</f>
-        <v>-30</v>
+        <v>6</v>
       </c>
       <c r="V20" s="8">
         <v>10</v>
@@ -7252,19 +7280,25 @@
       </c>
       <c r="Y20" s="8">
         <f>IF(ISBLANK(Z20),0, LOOKUP(Z20,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA20/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>55700001</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>100</v>
+      </c>
       <c r="AB20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC20" s="4"/>
+      <c r="AC20" s="4">
+        <v>11000008</v>
+      </c>
       <c r="AD20" s="4">
         <v>5</v>
       </c>
       <c r="AE20" s="5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF20" s="26">
         <v>0</v>
@@ -7874,7 +7908,7 @@
         <v>168</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -7887,19 +7921,19 @@
       </c>
       <c r="H27" s="4">
         <f>IF(AND(U27&gt;=13,U27&lt;=16),5,IF(AND(U27&gt;=9,U27&lt;=12),4,IF(AND(U27&gt;=5,U27&lt;=8),3,IF(AND(U27&gt;=1,U27&lt;=4),2,IF(AND(U27&gt;=-3,U27&lt;=0),1,IF(AND(U27&gt;=-5,U27&lt;=-4),0,6))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="4">
         <v>4</v>
       </c>
       <c r="J27" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K27" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L27" s="8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="8">
         <v>6</v>
@@ -7927,7 +7961,7 @@
       </c>
       <c r="U27" s="10">
         <f>J27+K27-100+L27+ SUM(N27:T27)*5+IF(ISNUMBER(Y27),Y27,0)+X27</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V27" s="8">
         <v>30</v>
@@ -7936,18 +7970,24 @@
         <v>0</v>
       </c>
       <c r="X27" s="8">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y27" s="8">
         <f>IF(ISBLANK(Z27),0, LOOKUP(Z27,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA27/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>55990102</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>100</v>
+      </c>
       <c r="AB27" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="AC27" s="4"/>
+      <c r="AC27" s="4">
+        <v>11000001</v>
+      </c>
       <c r="AD27" s="4">
         <v>5</v>
       </c>
@@ -8803,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
@@ -8846,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y36" s="8">
         <f>IF(ISBLANK(Z36),0, LOOKUP(Z36,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA36/100)</f>
@@ -8899,7 +8939,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K37" s="6">
         <v>0</v>
@@ -8942,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y37" s="8">
         <f>IF(ISBLANK(Z37),0, LOOKUP(Z37,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA37/100)</f>
@@ -8997,7 +9037,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K38" s="6">
         <v>0</v>
@@ -9040,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y38" s="8">
         <f>IF(ISBLANK(Z38),0, LOOKUP(Z38,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA38/100)</f>
@@ -9095,7 +9135,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K39" s="6">
         <v>0</v>
@@ -9138,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y39" s="8">
         <f>IF(ISBLANK(Z39),0, LOOKUP(Z39,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA39/100)</f>
@@ -9173,7 +9213,9 @@
       <c r="C40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="25"/>
+      <c r="D40" s="25" t="s">
+        <v>362</v>
+      </c>
       <c r="E40" s="4">
         <v>2</v>
       </c>
@@ -9191,7 +9233,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="6">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="K40" s="6">
         <v>0</v>
@@ -9234,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y40" s="8">
         <f>IF(ISBLANK(Z40),0, LOOKUP(Z40,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA40/100)</f>
@@ -9276,7 +9318,7 @@
         <v>131</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -9285,23 +9327,23 @@
         <v>101</v>
       </c>
       <c r="G41" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41" s="4">
         <f>IF(AND(U41&gt;=13,U41&lt;=16),5,IF(AND(U41&gt;=9,U41&lt;=12),4,IF(AND(U41&gt;=5,U41&lt;=8),3,IF(AND(U41&gt;=1,U41&lt;=4),2,IF(AND(U41&gt;=-3,U41&lt;=0),1,IF(AND(U41&gt;=-5,U41&lt;=-4),0,6))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="4">
         <v>2</v>
       </c>
       <c r="J41" s="6">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K41" s="7">
         <v>0</v>
       </c>
       <c r="L41" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="8">
         <v>5</v>
@@ -9329,7 +9371,7 @@
       </c>
       <c r="U41" s="10">
         <f>J41+K41-100+L41+ SUM(N41:T41)*5+IF(ISNUMBER(Y41),Y41,0)+X41</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V41" s="8">
         <v>20</v>
@@ -9338,14 +9380,18 @@
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y41" s="8">
         <f>IF(ISBLANK(Z41),0, LOOKUP(Z41,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA41/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
+        <v>10.5</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>55510002</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>70</v>
+      </c>
       <c r="AB41" s="4" t="s">
         <v>32</v>
       </c>
@@ -9391,7 +9437,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K42" s="6">
         <v>0</v>
@@ -9434,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y42" s="8">
         <f>IF(ISBLANK(Z42),0, LOOKUP(Z42,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA42/100)</f>
@@ -9489,7 +9535,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K43" s="6">
         <v>0</v>
@@ -9532,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y43" s="8">
         <f>IF(ISBLANK(Z43),0, LOOKUP(Z43,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA43/100)</f>
@@ -9567,9 +9613,7 @@
       <c r="C44" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D44" s="25"/>
       <c r="E44" s="4">
         <v>2</v>
       </c>
@@ -9581,25 +9625,25 @@
       </c>
       <c r="H44" s="4">
         <f>IF(AND(U44&gt;=13,U44&lt;=16),5,IF(AND(U44&gt;=9,U44&lt;=12),4,IF(AND(U44&gt;=5,U44&lt;=8),3,IF(AND(U44&gt;=1,U44&lt;=4),2,IF(AND(U44&gt;=-3,U44&lt;=0),1,IF(AND(U44&gt;=-5,U44&lt;=-4),0,6))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4">
         <v>2</v>
       </c>
       <c r="J44" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K44" s="6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L44" s="14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M44" s="8">
         <v>4</v>
       </c>
       <c r="N44" s="8">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="O44" s="8">
         <v>0</v>
@@ -9621,10 +9665,10 @@
       </c>
       <c r="U44" s="10">
         <f>J44+K44-100+L44+ SUM(N44:T44)*5+IF(ISNUMBER(Y44),Y44,0)+X44</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V44" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="W44" s="8">
         <v>0</v>
@@ -9665,9 +9709,7 @@
       <c r="C45" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D45" s="25"/>
       <c r="E45" s="4">
         <v>1</v>
       </c>
@@ -9679,7 +9721,7 @@
       </c>
       <c r="H45" s="4">
         <f>IF(AND(U45&gt;=13,U45&lt;=16),5,IF(AND(U45&gt;=9,U45&lt;=12),4,IF(AND(U45&gt;=5,U45&lt;=8),3,IF(AND(U45&gt;=1,U45&lt;=4),2,IF(AND(U45&gt;=-3,U45&lt;=0),1,IF(AND(U45&gt;=-5,U45&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4">
         <v>1</v>
@@ -9703,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q45" s="8">
         <v>0</v>
@@ -9719,7 +9761,7 @@
       </c>
       <c r="U45" s="10">
         <f>J45+K45-100+L45+ SUM(N45:T45)*5+IF(ISNUMBER(Y45),Y45,0)+X45</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="V45" s="8">
         <v>10</v>
@@ -9732,10 +9774,14 @@
       </c>
       <c r="Y45" s="8">
         <f>IF(ISBLANK(Z45),0, LOOKUP(Z45,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA45/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>55110001</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>100</v>
+      </c>
       <c r="AB45" s="4" t="s">
         <v>37</v>
       </c>
@@ -9763,9 +9809,7 @@
       <c r="C46" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D46" s="25"/>
       <c r="E46" s="4">
         <v>3</v>
       </c>
@@ -9777,19 +9821,19 @@
       </c>
       <c r="H46" s="4">
         <f>IF(AND(U46&gt;=13,U46&lt;=16),5,IF(AND(U46&gt;=9,U46&lt;=12),4,IF(AND(U46&gt;=5,U46&lt;=8),3,IF(AND(U46&gt;=1,U46&lt;=4),2,IF(AND(U46&gt;=-3,U46&lt;=0),1,IF(AND(U46&gt;=-5,U46&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I46" s="4">
         <v>3</v>
       </c>
       <c r="J46" s="7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K46" s="7">
         <v>0</v>
       </c>
       <c r="L46" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M46" s="8">
         <v>4</v>
@@ -9804,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R46" s="8">
         <v>0</v>
@@ -9817,7 +9861,7 @@
       </c>
       <c r="U46" s="10">
         <f>J46+K46-100+L46+ SUM(N46:T46)*5+IF(ISNUMBER(Y46),Y46,0)+X46</f>
-        <v>-45</v>
+        <v>5</v>
       </c>
       <c r="V46" s="8">
         <v>10</v>
@@ -9830,14 +9874,20 @@
       </c>
       <c r="Y46" s="8">
         <f>IF(ISBLANK(Z46),0, LOOKUP(Z46,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA46/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>55100007</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>100</v>
+      </c>
       <c r="AB46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC46" s="4"/>
+      <c r="AC46" s="4">
+        <v>11000008</v>
+      </c>
       <c r="AD46" s="4">
         <v>5</v>
       </c>
@@ -11228,7 +11278,7 @@
         <v>135</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -11241,19 +11291,19 @@
       </c>
       <c r="H61" s="4">
         <f>IF(AND(U61&gt;=13,U61&lt;=16),5,IF(AND(U61&gt;=9,U61&lt;=12),4,IF(AND(U61&gt;=5,U61&lt;=8),3,IF(AND(U61&gt;=1,U61&lt;=4),2,IF(AND(U61&gt;=-3,U61&lt;=0),1,IF(AND(U61&gt;=-5,U61&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I61" s="4">
         <v>3</v>
       </c>
       <c r="J61" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K61" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L61" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61" s="8">
         <v>4</v>
@@ -11268,10 +11318,10 @@
         <v>0</v>
       </c>
       <c r="Q61" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R61" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S61" s="8">
         <v>0</v>
@@ -11281,7 +11331,7 @@
       </c>
       <c r="U61" s="10">
         <f>J61+K61-100+L61+ SUM(N61:T61)*5+IF(ISNUMBER(Y61),Y61,0)+X61</f>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V61" s="8">
         <v>0</v>
@@ -11292,15 +11342,15 @@
       <c r="X61" s="8">
         <v>0</v>
       </c>
-      <c r="Y61" s="8" t="e">
+      <c r="Y61" s="8">
         <f>IF(ISBLANK(Z61),0, LOOKUP(Z61,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA61/100)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="Z61" s="37">
-        <v>55000092</v>
+        <v>55900018</v>
       </c>
       <c r="AA61" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB61" s="4" t="s">
         <v>5</v>
@@ -12319,9 +12369,7 @@
       <c r="C72" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D72" s="25"/>
       <c r="E72" s="4">
         <v>5</v>
       </c>
@@ -12333,19 +12381,19 @@
       </c>
       <c r="H72" s="4">
         <f>IF(AND(U72&gt;=13,U72&lt;=16),5,IF(AND(U72&gt;=9,U72&lt;=12),4,IF(AND(U72&gt;=5,U72&lt;=8),3,IF(AND(U72&gt;=1,U72&lt;=4),2,IF(AND(U72&gt;=-3,U72&lt;=0),1,IF(AND(U72&gt;=-5,U72&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I72" s="4">
         <v>5</v>
       </c>
       <c r="J72" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K72" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L72" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M72" s="8">
         <v>4</v>
@@ -12357,23 +12405,23 @@
         <v>0</v>
       </c>
       <c r="P72" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q72" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R72" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S72" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T72" s="8">
         <v>0</v>
       </c>
       <c r="U72" s="10">
         <f>J72+K72-100+L72+ SUM(N72:T72)*5+IF(ISNUMBER(Y72),Y72,0)+X72</f>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V72" s="8">
         <v>0</v>
@@ -12384,16 +12432,11 @@
       <c r="X72" s="8">
         <v>0</v>
       </c>
-      <c r="Y72" s="8" t="e">
+      <c r="Y72" s="8">
         <f>IF(ISBLANK(Z72),0, LOOKUP(Z72,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA72/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z72">
-        <v>55000159</v>
-      </c>
-      <c r="AA72" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="4"/>
       <c r="AB72" s="4" t="s">
         <v>5</v>
       </c>
@@ -12421,9 +12464,7 @@
       <c r="C73" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D73" s="25"/>
       <c r="E73" s="4">
         <v>2</v>
       </c>
@@ -12435,7 +12476,7 @@
       </c>
       <c r="H73" s="4">
         <f>IF(AND(U73&gt;=13,U73&lt;=16),5,IF(AND(U73&gt;=9,U73&lt;=12),4,IF(AND(U73&gt;=5,U73&lt;=8),3,IF(AND(U73&gt;=1,U73&lt;=4),2,IF(AND(U73&gt;=-3,U73&lt;=0),1,IF(AND(U73&gt;=-5,U73&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I73" s="4">
         <v>2</v>
@@ -12444,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="6">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L73" s="14">
         <v>0</v>
@@ -12475,7 +12516,7 @@
       </c>
       <c r="U73" s="10">
         <f>J73+K73-100+L73+ SUM(N73:T73)*5+IF(ISNUMBER(Y73),Y73,0)+X73</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="V73" s="8">
         <v>0</v>
@@ -12486,15 +12527,15 @@
       <c r="X73" s="8">
         <v>0</v>
       </c>
-      <c r="Y73" s="8" t="e">
+      <c r="Y73" s="8">
         <f>IF(ISBLANK(Z73),0, LOOKUP(Z73,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA73/100)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
       <c r="Z73">
-        <v>55000167</v>
+        <v>55110013</v>
       </c>
       <c r="AA73" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AB73" s="4" t="s">
         <v>5</v>
@@ -12727,9 +12768,7 @@
       <c r="C76" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D76" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D76" s="25"/>
       <c r="E76" s="4">
         <v>4</v>
       </c>
@@ -12741,25 +12780,25 @@
       </c>
       <c r="H76" s="4">
         <f>IF(AND(U76&gt;=13,U76&lt;=16),5,IF(AND(U76&gt;=9,U76&lt;=12),4,IF(AND(U76&gt;=5,U76&lt;=8),3,IF(AND(U76&gt;=1,U76&lt;=4),2,IF(AND(U76&gt;=-3,U76&lt;=0),1,IF(AND(U76&gt;=-5,U76&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I76" s="4">
         <v>4</v>
       </c>
       <c r="J76" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K76" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L76" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M76" s="8">
         <v>4</v>
       </c>
       <c r="N76" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O76" s="8">
         <v>0</v>
@@ -12781,7 +12820,7 @@
       </c>
       <c r="U76" s="10">
         <f>J76+K76-100+L76+ SUM(N76:T76)*5+IF(ISNUMBER(Y76),Y76,0)+X76</f>
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="V76" s="8">
         <v>10</v>
@@ -12792,15 +12831,15 @@
       <c r="X76" s="8">
         <v>0</v>
       </c>
-      <c r="Y76" s="8" t="e">
+      <c r="Y76" s="8">
         <f>IF(ISBLANK(Z76),0, LOOKUP(Z76,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA76/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z76" s="37">
-        <v>55000169</v>
+        <v>25</v>
+      </c>
+      <c r="Z76" s="4">
+        <v>55990102</v>
       </c>
       <c r="AA76" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AB76" s="4" t="s">
         <v>68</v>
@@ -13663,7 +13702,7 @@
         <v>4</v>
       </c>
       <c r="J85" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K85" s="6">
         <v>0</v>
@@ -13706,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y85" s="8">
         <f>IF(ISBLANK(Z85),0, LOOKUP(Z85,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA85/100)</f>
@@ -13759,7 +13798,7 @@
         <v>4</v>
       </c>
       <c r="J86" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K86" s="6">
         <v>0</v>
@@ -13802,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y86" s="8">
         <f>IF(ISBLANK(Z86),0, LOOKUP(Z86,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA86/100)</f>
@@ -13857,7 +13896,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K87" s="6">
         <v>0</v>
@@ -13900,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y87" s="8">
         <f>IF(ISBLANK(Z87),0, LOOKUP(Z87,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA87/100)</f>
@@ -13955,7 +13994,7 @@
         <v>4</v>
       </c>
       <c r="J88" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K88" s="6">
         <v>0</v>
@@ -13998,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y88" s="8">
         <f>IF(ISBLANK(Z88),0, LOOKUP(Z88,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA88/100)</f>
@@ -14034,7 +14073,7 @@
         <v>221</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="E89" s="4">
         <v>4</v>
@@ -14043,23 +14082,23 @@
         <v>101</v>
       </c>
       <c r="G89" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="4">
         <f>IF(AND(U89&gt;=13,U89&lt;=16),5,IF(AND(U89&gt;=9,U89&lt;=12),4,IF(AND(U89&gt;=5,U89&lt;=8),3,IF(AND(U89&gt;=1,U89&lt;=4),2,IF(AND(U89&gt;=-3,U89&lt;=0),1,IF(AND(U89&gt;=-5,U89&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I89" s="4">
         <v>4</v>
       </c>
       <c r="J89" s="6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K89" s="6">
         <v>0</v>
       </c>
       <c r="L89" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M89" s="8">
         <v>6</v>
@@ -14087,7 +14126,7 @@
       </c>
       <c r="U89" s="10">
         <f>J89+K89-100+L89+ SUM(N89:T89)*5+IF(ISNUMBER(Y89),Y89,0)+X89</f>
-        <v>-100</v>
+        <v>9</v>
       </c>
       <c r="V89" s="8">
         <v>20</v>
@@ -14096,14 +14135,18 @@
         <v>0</v>
       </c>
       <c r="X89" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y89" s="8">
         <f>IF(ISBLANK(Z89),0, LOOKUP(Z89,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA89/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="32"/>
-      <c r="AA89" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="Z89" s="32">
+        <v>55510009</v>
+      </c>
+      <c r="AA89" s="4">
+        <v>40</v>
+      </c>
       <c r="AB89" s="4" t="s">
         <v>312</v>
       </c>
@@ -14134,7 +14177,7 @@
         <v>222</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="E90" s="4">
         <v>4</v>
@@ -14143,23 +14186,23 @@
         <v>101</v>
       </c>
       <c r="G90" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H90" s="4">
         <f>IF(AND(U90&gt;=13,U90&lt;=16),5,IF(AND(U90&gt;=9,U90&lt;=12),4,IF(AND(U90&gt;=5,U90&lt;=8),3,IF(AND(U90&gt;=1,U90&lt;=4),2,IF(AND(U90&gt;=-3,U90&lt;=0),1,IF(AND(U90&gt;=-5,U90&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I90" s="4">
         <v>4</v>
       </c>
       <c r="J90" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K90" s="6">
         <v>0</v>
       </c>
       <c r="L90" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M90" s="8">
         <v>6</v>
@@ -14187,7 +14230,7 @@
       </c>
       <c r="U90" s="10">
         <f>J90+K90-100+L90+ SUM(N90:T90)*5+IF(ISNUMBER(Y90),Y90,0)+X90</f>
-        <v>-100</v>
+        <v>4</v>
       </c>
       <c r="V90" s="8">
         <v>20</v>
@@ -14196,14 +14239,18 @@
         <v>0</v>
       </c>
       <c r="X90" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y90" s="8">
         <f>IF(ISBLANK(Z90),0, LOOKUP(Z90,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA90/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z90" s="32"/>
-      <c r="AA90" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="Z90" s="32">
+        <v>55510002</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>100</v>
+      </c>
       <c r="AB90" s="4" t="s">
         <v>32</v>
       </c>
@@ -14249,7 +14296,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K91" s="6">
         <v>0</v>
@@ -14292,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y91" s="8">
         <f>IF(ISBLANK(Z91),0, LOOKUP(Z91,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA91/100)</f>
@@ -14347,7 +14394,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K92" s="6">
         <v>0</v>
@@ -14390,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y92" s="8">
         <f>IF(ISBLANK(Z92),0, LOOKUP(Z92,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA92/100)</f>
@@ -14425,9 +14472,7 @@
       <c r="C93" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D93" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D93" s="25"/>
       <c r="E93" s="4">
         <v>6</v>
       </c>
@@ -14445,13 +14490,13 @@
         <v>6</v>
       </c>
       <c r="J93" s="6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K93" s="6">
         <v>0</v>
       </c>
       <c r="L93" s="14">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M93" s="8">
         <v>3</v>
@@ -14466,7 +14511,7 @@
         <v>0</v>
       </c>
       <c r="Q93" s="8">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R93" s="8">
         <v>0</v>
@@ -14479,10 +14524,10 @@
       </c>
       <c r="U93" s="10">
         <f>J93+K93-100+L93+ SUM(N93:T93)*5+IF(ISNUMBER(Y93),Y93,0)+X93</f>
-        <v>-100</v>
+        <v>-16</v>
       </c>
       <c r="V93" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="W93" s="8">
         <v>0</v>
@@ -14499,7 +14544,9 @@
       <c r="AB93" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AC93" s="4"/>
+      <c r="AC93" s="4">
+        <v>11000006</v>
+      </c>
       <c r="AD93" s="4">
         <v>5</v>
       </c>
@@ -14729,9 +14776,7 @@
       <c r="C96" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D96" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D96" s="25"/>
       <c r="E96" s="4">
         <v>6</v>
       </c>
@@ -14743,7 +14788,7 @@
       </c>
       <c r="H96" s="4">
         <f>IF(AND(U96&gt;=13,U96&lt;=16),5,IF(AND(U96&gt;=9,U96&lt;=12),4,IF(AND(U96&gt;=5,U96&lt;=8),3,IF(AND(U96&gt;=1,U96&lt;=4),2,IF(AND(U96&gt;=-3,U96&lt;=0),1,IF(AND(U96&gt;=-5,U96&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I96" s="4">
         <v>6</v>
@@ -14752,10 +14797,10 @@
         <v>85</v>
       </c>
       <c r="K96" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L96" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M96" s="8">
         <v>5</v>
@@ -14783,7 +14828,7 @@
       </c>
       <c r="U96" s="10">
         <f>J96+K96-100+L96+ SUM(N96:T96)*5+IF(ISNUMBER(Y96),Y96,0)+X96</f>
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="V96" s="8">
         <v>10</v>
@@ -14803,7 +14848,9 @@
       <c r="AB96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC96" s="4"/>
+      <c r="AC96" s="4">
+        <v>11000001</v>
+      </c>
       <c r="AD96" s="4">
         <v>5</v>
       </c>
@@ -15255,7 +15302,7 @@
         <v>3</v>
       </c>
       <c r="J101" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K101" s="6">
         <v>0</v>
@@ -15276,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="Q101" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R101" s="8">
         <v>0</v>
@@ -15298,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y101" s="8">
         <f>IF(ISBLANK(Z101),0, LOOKUP(Z101,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA101/100)</f>
@@ -15644,7 +15691,7 @@
         <v>234</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -15657,19 +15704,19 @@
       </c>
       <c r="H105" s="4">
         <f>IF(AND(U105&gt;=13,U105&lt;=16),5,IF(AND(U105&gt;=9,U105&lt;=12),4,IF(AND(U105&gt;=5,U105&lt;=8),3,IF(AND(U105&gt;=1,U105&lt;=4),2,IF(AND(U105&gt;=-3,U105&lt;=0),1,IF(AND(U105&gt;=-5,U105&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I105" s="4">
         <v>3</v>
       </c>
       <c r="J105" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K105" s="6">
         <v>0</v>
       </c>
       <c r="L105" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M105" s="8">
         <v>4</v>
@@ -15681,10 +15728,10 @@
         <v>0</v>
       </c>
       <c r="P105" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q105" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R105" s="8">
         <v>0</v>
@@ -15697,7 +15744,7 @@
       </c>
       <c r="U105" s="10">
         <f>J105+K105-100+L105+ SUM(N105:T105)*5+IF(ISNUMBER(Y105),Y105,0)+X105</f>
-        <v>-100</v>
+        <v>2</v>
       </c>
       <c r="V105" s="8">
         <v>0</v>
@@ -15708,15 +15755,15 @@
       <c r="X105" s="8">
         <v>0</v>
       </c>
-      <c r="Y105" s="8" t="e">
+      <c r="Y105" s="8">
         <f>IF(ISBLANK(Z105),0, LOOKUP(Z105,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA105/100)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="Z105" s="37">
-        <v>55000035</v>
+        <v>55700004</v>
       </c>
       <c r="AA105" s="4">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AB105" s="4" t="s">
         <v>5</v>
@@ -15745,9 +15792,7 @@
       <c r="C106" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D106" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D106" s="25"/>
       <c r="E106" s="4">
         <v>4</v>
       </c>
@@ -15759,7 +15804,7 @@
       </c>
       <c r="H106" s="4">
         <f>IF(AND(U106&gt;=13,U106&lt;=16),5,IF(AND(U106&gt;=9,U106&lt;=12),4,IF(AND(U106&gt;=5,U106&lt;=8),3,IF(AND(U106&gt;=1,U106&lt;=4),2,IF(AND(U106&gt;=-3,U106&lt;=0),1,IF(AND(U106&gt;=-5,U106&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I106" s="4">
         <v>4</v>
@@ -15768,10 +15813,10 @@
         <v>0</v>
       </c>
       <c r="K106" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L106" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M106" s="8">
         <v>4</v>
@@ -15789,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="R106" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S106" s="8">
         <v>0</v>
@@ -15799,7 +15844,7 @@
       </c>
       <c r="U106" s="10">
         <f>J106+K106-100+L106+ SUM(N106:T106)*5+IF(ISNUMBER(Y106),Y106,0)+X106</f>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V106" s="8">
         <v>0</v>
@@ -15819,7 +15864,9 @@
       <c r="AB106" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC106" s="4"/>
+      <c r="AC106" s="4">
+        <v>11000006</v>
+      </c>
       <c r="AD106" s="4">
         <v>5</v>
       </c>
@@ -16553,9 +16600,7 @@
       <c r="C114" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D114" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D114" s="25"/>
       <c r="E114" s="4">
         <v>5</v>
       </c>
@@ -16567,7 +16612,7 @@
       </c>
       <c r="H114" s="4">
         <f>IF(AND(U114&gt;=13,U114&lt;=16),5,IF(AND(U114&gt;=9,U114&lt;=12),4,IF(AND(U114&gt;=5,U114&lt;=8),3,IF(AND(U114&gt;=1,U114&lt;=4),2,IF(AND(U114&gt;=-3,U114&lt;=0),1,IF(AND(U114&gt;=-5,U114&lt;=-4),0,6))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I114" s="4">
         <v>5</v>
@@ -16579,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M114" s="8">
         <v>4</v>
@@ -16591,7 +16636,7 @@
         <v>0</v>
       </c>
       <c r="P114" s="8">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Q114" s="8">
         <v>0</v>
@@ -16607,7 +16652,7 @@
       </c>
       <c r="U114" s="10">
         <f>J114+K114-100+L114+ SUM(N114:T114)*5+IF(ISNUMBER(Y114),Y114,0)+X114</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V114" s="8">
         <v>10</v>
@@ -16618,20 +16663,18 @@
       <c r="X114" s="8">
         <v>0</v>
       </c>
-      <c r="Y114" s="8" t="e">
+      <c r="Y114" s="8">
         <f>IF(ISBLANK(Z114),0, LOOKUP(Z114,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA114/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z114" s="37">
-        <v>55000233</v>
-      </c>
-      <c r="AA114" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z114" s="37"/>
+      <c r="AA114" s="4"/>
       <c r="AB114" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC114" s="4"/>
+      <c r="AC114" s="4">
+        <v>11000002</v>
+      </c>
       <c r="AD114" s="4">
         <v>5</v>
       </c>
@@ -16957,9 +17000,7 @@
       <c r="C118" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D118" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D118" s="25"/>
       <c r="E118" s="4">
         <v>4</v>
       </c>
@@ -16971,19 +17012,19 @@
       </c>
       <c r="H118" s="4">
         <f>IF(AND(U118&gt;=13,U118&lt;=16),5,IF(AND(U118&gt;=9,U118&lt;=12),4,IF(AND(U118&gt;=5,U118&lt;=8),3,IF(AND(U118&gt;=1,U118&lt;=4),2,IF(AND(U118&gt;=-3,U118&lt;=0),1,IF(AND(U118&gt;=-5,U118&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I118" s="4">
         <v>4</v>
       </c>
       <c r="J118" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K118" s="6">
         <v>0</v>
       </c>
       <c r="L118" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M118" s="8">
         <v>3</v>
@@ -17011,7 +17052,7 @@
       </c>
       <c r="U118" s="36">
         <f>J118+K118-100+L118+ SUM(N118:T118)*5+IF(ISNUMBER(Y118),Y118,0)+X118</f>
-        <v>-50</v>
+        <v>2</v>
       </c>
       <c r="V118" s="8">
         <v>10</v>
@@ -17022,12 +17063,12 @@
       <c r="X118" s="8">
         <v>0</v>
       </c>
-      <c r="Y118" s="8" t="e">
+      <c r="Y118" s="8">
         <f>IF(ISBLANK(Z118),0, LOOKUP(Z118,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA118/100)</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="Z118" s="37">
-        <v>55000234</v>
+        <v>55110012</v>
       </c>
       <c r="AA118" s="4">
         <v>100</v>
@@ -17035,7 +17076,9 @@
       <c r="AB118" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC118" s="4"/>
+      <c r="AC118" s="15">
+        <v>11000001</v>
+      </c>
       <c r="AD118" s="4">
         <v>5</v>
       </c>
@@ -17059,9 +17102,7 @@
       <c r="C119" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D119" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D119" s="25"/>
       <c r="E119" s="4">
         <v>3</v>
       </c>
@@ -17073,19 +17114,19 @@
       </c>
       <c r="H119" s="4">
         <f>IF(AND(U119&gt;=13,U119&lt;=16),5,IF(AND(U119&gt;=9,U119&lt;=12),4,IF(AND(U119&gt;=5,U119&lt;=8),3,IF(AND(U119&gt;=1,U119&lt;=4),2,IF(AND(U119&gt;=-3,U119&lt;=0),1,IF(AND(U119&gt;=-5,U119&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I119" s="4">
         <v>3</v>
       </c>
       <c r="J119" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K119" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L119" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" s="8">
         <v>4</v>
@@ -17113,7 +17154,7 @@
       </c>
       <c r="U119" s="36">
         <f>J119+K119-100+L119+ SUM(N119:T119)*5+IF(ISNUMBER(Y119),Y119,0)+X119</f>
-        <v>-100</v>
+        <v>1</v>
       </c>
       <c r="V119" s="8">
         <v>0</v>
@@ -17124,12 +17165,12 @@
       <c r="X119" s="8">
         <v>0</v>
       </c>
-      <c r="Y119" s="8" t="e">
+      <c r="Y119" s="8">
         <f>IF(ISBLANK(Z119),0, LOOKUP(Z119,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA119/100)</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="Z119" s="37">
-        <v>55000180</v>
+        <v>55610001</v>
       </c>
       <c r="AA119" s="4">
         <v>100</v>
@@ -17137,7 +17178,7 @@
       <c r="AB119" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC119" s="4"/>
+      <c r="AC119" s="15"/>
       <c r="AD119" s="4">
         <v>5</v>
       </c>
@@ -17557,9 +17598,7 @@
       <c r="C124" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D124" s="25" t="s">
-        <v>342</v>
-      </c>
+      <c r="D124" s="25"/>
       <c r="E124" s="15">
         <v>5</v>
       </c>
@@ -17571,7 +17610,7 @@
       </c>
       <c r="H124" s="4">
         <f>IF(AND(U124&gt;=13,U124&lt;=16),5,IF(AND(U124&gt;=9,U124&lt;=12),4,IF(AND(U124&gt;=5,U124&lt;=8),3,IF(AND(U124&gt;=1,U124&lt;=4),2,IF(AND(U124&gt;=-3,U124&lt;=0),1,IF(AND(U124&gt;=-5,U124&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I124" s="15">
         <v>5</v>
@@ -17583,7 +17622,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M124" s="8">
         <v>3</v>
@@ -17595,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="P124" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q124" s="8">
         <v>0</v>
@@ -17611,7 +17650,7 @@
       </c>
       <c r="U124" s="18">
         <f>J124+K124-100+L124+ SUM(N124:T124)*5+IF(ISNUMBER(Y124),Y124,0)+X124</f>
-        <v>-25</v>
+        <v>9</v>
       </c>
       <c r="V124" s="8">
         <v>10</v>
@@ -17631,7 +17670,9 @@
       <c r="AB124" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC124" s="15"/>
+      <c r="AC124" s="15">
+        <v>11000005</v>
+      </c>
       <c r="AD124" s="15">
         <v>5</v>
       </c>
@@ -17773,7 +17814,7 @@
         <v>3</v>
       </c>
       <c r="J126" s="6">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K126" s="6">
         <v>0</v>
@@ -17816,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="X126" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y126" s="8">
         <f>IF(ISBLANK(Z126),0, LOOKUP(Z126,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA126/100)</f>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="372">
   <si>
     <t>铁杖</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>力量护腕</t>
-  </si>
-  <si>
-    <t>强盗手套</t>
   </si>
   <si>
     <t>毒液之壶</t>
@@ -722,9 +719,6 @@
     <t>Odin Lance</t>
   </si>
   <si>
-    <t>Mujina Mask</t>
-  </si>
-  <si>
     <t>Evil Eye Ball</t>
   </si>
   <si>
@@ -759,9 +753,6 @@
   </si>
   <si>
     <t>Heavy Axe Gun</t>
-  </si>
-  <si>
-    <t>Robber Gloves</t>
   </si>
   <si>
     <t>Knight Dagger</t>
@@ -1244,10 +1235,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>姆吉拉面具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>攻速</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1265,6 +1252,18 @@
   </si>
   <si>
     <t>射程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>克制</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2189,6 +2188,148 @@
   <dxfs count="88">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2794,82 +2935,6 @@
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3506,72 +3571,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4356,23 +4355,23 @@
         </row>
         <row r="96">
           <cell r="A96">
-            <v>55600001</v>
+            <v>55520004</v>
           </cell>
           <cell r="X96">
-            <v>8</v>
+            <v>150</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>55600002</v>
+            <v>55600001</v>
           </cell>
           <cell r="X97">
-            <v>10</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>55600003</v>
+            <v>55600002</v>
           </cell>
           <cell r="X98">
             <v>10</v>
@@ -4380,23 +4379,23 @@
         </row>
         <row r="99">
           <cell r="A99">
-            <v>55600004</v>
+            <v>55600003</v>
           </cell>
           <cell r="X99">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>55600005</v>
+            <v>55600004</v>
           </cell>
           <cell r="X100">
-            <v>15</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>55600006</v>
+            <v>55600005</v>
           </cell>
           <cell r="X101">
             <v>15</v>
@@ -4404,79 +4403,79 @@
         </row>
         <row r="102">
           <cell r="A102">
-            <v>55600007</v>
+            <v>55600006</v>
           </cell>
           <cell r="X102">
-            <v>20</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>55600008</v>
+            <v>55600007</v>
           </cell>
           <cell r="X103">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>55600009</v>
+            <v>55600008</v>
           </cell>
           <cell r="X104">
-            <v>13</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>55600010</v>
+            <v>55600009</v>
           </cell>
           <cell r="X105">
-            <v>30</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>55600011</v>
+            <v>55600010</v>
           </cell>
           <cell r="X106">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>55600012</v>
+            <v>55600011</v>
           </cell>
           <cell r="X107">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>55600013</v>
+            <v>55600012</v>
           </cell>
           <cell r="X108">
-            <v>15</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>55610001</v>
+            <v>55600013</v>
           </cell>
           <cell r="X109">
-            <v>30</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>55610002</v>
+            <v>55610001</v>
           </cell>
           <cell r="X110">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>55610003</v>
+            <v>55610002</v>
           </cell>
           <cell r="X111">
             <v>5</v>
@@ -4484,23 +4483,23 @@
         </row>
         <row r="112">
           <cell r="A112">
-            <v>55610004</v>
+            <v>55610003</v>
           </cell>
           <cell r="X112">
-            <v>10</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>55700001</v>
+            <v>55610004</v>
           </cell>
           <cell r="X113">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>55700002</v>
+            <v>55700001</v>
           </cell>
           <cell r="X114">
             <v>20</v>
@@ -4508,7 +4507,7 @@
         </row>
         <row r="115">
           <cell r="A115">
-            <v>55700003</v>
+            <v>55700002</v>
           </cell>
           <cell r="X115">
             <v>20</v>
@@ -4516,215 +4515,215 @@
         </row>
         <row r="116">
           <cell r="A116">
-            <v>55700004</v>
+            <v>55700003</v>
           </cell>
           <cell r="X116">
-            <v>9</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>55700005</v>
+            <v>55700004</v>
           </cell>
           <cell r="X117">
-            <v>40</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>55900001</v>
+            <v>55700005</v>
           </cell>
           <cell r="X118">
-            <v>35</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>55900002</v>
+            <v>55900001</v>
           </cell>
           <cell r="X119">
-            <v>30</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>55900003</v>
+            <v>55900002</v>
           </cell>
           <cell r="X120">
-            <v>80</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>55900004</v>
+            <v>55900003</v>
           </cell>
           <cell r="X121">
-            <v>-30</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>55900005</v>
+            <v>55900004</v>
           </cell>
           <cell r="X122">
-            <v>20</v>
+            <v>-30</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>55900006</v>
+            <v>55900005</v>
           </cell>
           <cell r="X123">
-            <v>35</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>55900007</v>
+            <v>55900006</v>
           </cell>
           <cell r="X124">
-            <v>25</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>55900008</v>
+            <v>55900007</v>
           </cell>
           <cell r="X125">
-            <v>40</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>55900009</v>
+            <v>55900008</v>
           </cell>
           <cell r="X126">
-            <v>30</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>55900010</v>
+            <v>55900009</v>
           </cell>
           <cell r="X127">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>55900011</v>
+            <v>55900010</v>
           </cell>
           <cell r="X128">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>55900012</v>
+            <v>55900011</v>
           </cell>
           <cell r="X129">
-            <v>25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>55900013</v>
+            <v>55900012</v>
           </cell>
           <cell r="X130">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>55900014</v>
+            <v>55900013</v>
           </cell>
           <cell r="X131">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>55900015</v>
+            <v>55900014</v>
           </cell>
           <cell r="X132">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>55900016</v>
+            <v>55900015</v>
           </cell>
           <cell r="X133">
-            <v>45</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>55900017</v>
+            <v>55900016</v>
           </cell>
           <cell r="X134">
-            <v>10</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>55900018</v>
+            <v>55900017</v>
           </cell>
           <cell r="X135">
-            <v>30</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>55900019</v>
+            <v>55900018</v>
           </cell>
           <cell r="X136">
-            <v>80</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>55900020</v>
+            <v>55900019</v>
           </cell>
           <cell r="X137">
-            <v>20</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>55900021</v>
+            <v>55900020</v>
           </cell>
           <cell r="X138">
-            <v>10</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>55900022</v>
+            <v>55900021</v>
           </cell>
           <cell r="X139">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>55900023</v>
+            <v>55900022</v>
           </cell>
           <cell r="X140">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>55900024</v>
+            <v>55900023</v>
           </cell>
           <cell r="X141">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>55900025</v>
+            <v>55900024</v>
           </cell>
           <cell r="X142">
             <v>10</v>
@@ -4732,52 +4731,52 @@
         </row>
         <row r="143">
           <cell r="A143">
-            <v>55900026</v>
+            <v>55900025</v>
           </cell>
           <cell r="X143">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>55900027</v>
+            <v>55900026</v>
           </cell>
           <cell r="X144">
-            <v>35</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>55900028</v>
+            <v>55900027</v>
+          </cell>
+          <cell r="X145">
+            <v>35</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>55900029</v>
-          </cell>
-          <cell r="X146">
-            <v>15</v>
+            <v>55900028</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>55900030</v>
+            <v>55900029</v>
           </cell>
           <cell r="X147">
-            <v>25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>55990001</v>
+            <v>55900030</v>
           </cell>
           <cell r="X148">
-            <v>15</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>55990002</v>
+            <v>55990001</v>
           </cell>
           <cell r="X149">
             <v>15</v>
@@ -4785,7 +4784,7 @@
         </row>
         <row r="150">
           <cell r="A150">
-            <v>55990003</v>
+            <v>55990002</v>
           </cell>
           <cell r="X150">
             <v>15</v>
@@ -4793,7 +4792,7 @@
         </row>
         <row r="151">
           <cell r="A151">
-            <v>55990004</v>
+            <v>55990003</v>
           </cell>
           <cell r="X151">
             <v>15</v>
@@ -4801,7 +4800,7 @@
         </row>
         <row r="152">
           <cell r="A152">
-            <v>55990005</v>
+            <v>55990004</v>
           </cell>
           <cell r="X152">
             <v>15</v>
@@ -4809,7 +4808,7 @@
         </row>
         <row r="153">
           <cell r="A153">
-            <v>55990006</v>
+            <v>55990005</v>
           </cell>
           <cell r="X153">
             <v>15</v>
@@ -4817,7 +4816,7 @@
         </row>
         <row r="154">
           <cell r="A154">
-            <v>55990011</v>
+            <v>55990006</v>
           </cell>
           <cell r="X154">
             <v>15</v>
@@ -4825,7 +4824,7 @@
         </row>
         <row r="155">
           <cell r="A155">
-            <v>55990012</v>
+            <v>55990011</v>
           </cell>
           <cell r="X155">
             <v>15</v>
@@ -4833,7 +4832,7 @@
         </row>
         <row r="156">
           <cell r="A156">
-            <v>55990013</v>
+            <v>55990012</v>
           </cell>
           <cell r="X156">
             <v>15</v>
@@ -4841,7 +4840,7 @@
         </row>
         <row r="157">
           <cell r="A157">
-            <v>55990014</v>
+            <v>55990013</v>
           </cell>
           <cell r="X157">
             <v>15</v>
@@ -4849,7 +4848,7 @@
         </row>
         <row r="158">
           <cell r="A158">
-            <v>55990015</v>
+            <v>55990014</v>
           </cell>
           <cell r="X158">
             <v>15</v>
@@ -4857,7 +4856,7 @@
         </row>
         <row r="159">
           <cell r="A159">
-            <v>55990016</v>
+            <v>55990015</v>
           </cell>
           <cell r="X159">
             <v>15</v>
@@ -4865,17 +4864,25 @@
         </row>
         <row r="160">
           <cell r="A160">
-            <v>55990101</v>
+            <v>55990016</v>
           </cell>
           <cell r="X160">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161">
+            <v>55990101</v>
+          </cell>
+          <cell r="X161">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
             <v>55990102</v>
           </cell>
-          <cell r="X161">
+          <cell r="X162">
             <v>25</v>
           </cell>
         </row>
@@ -4887,102 +4894,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG126" totalsRowShown="0" dataDxfId="78" tableBorderDxfId="77">
-  <autoFilter ref="A3:AG126"/>
-  <sortState ref="A4:AG126">
-    <sortCondition ref="A3:A126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG124" totalsRowShown="0" dataDxfId="87" tableBorderDxfId="86">
+  <autoFilter ref="A3:AG124"/>
+  <sortState ref="A4:AG124">
+    <sortCondition ref="A3:A124"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="76"/>
-    <tableColumn id="2" name="Name" dataDxfId="75"/>
-    <tableColumn id="3" name="Ename" dataDxfId="74"/>
-    <tableColumn id="4" name="Remark" dataDxfId="73"/>
-    <tableColumn id="5" name="Star" dataDxfId="72"/>
-    <tableColumn id="6" name="Type" dataDxfId="71"/>
-    <tableColumn id="7" name="Attr" dataDxfId="70"/>
-    <tableColumn id="34" name="Quality" dataDxfId="69">
+    <tableColumn id="1" name="Id" dataDxfId="85"/>
+    <tableColumn id="2" name="Name" dataDxfId="84"/>
+    <tableColumn id="3" name="Ename" dataDxfId="83"/>
+    <tableColumn id="4" name="Remark" dataDxfId="82"/>
+    <tableColumn id="5" name="Star" dataDxfId="81"/>
+    <tableColumn id="6" name="Type" dataDxfId="80"/>
+    <tableColumn id="7" name="Attr" dataDxfId="79"/>
+    <tableColumn id="34" name="Quality" dataDxfId="78">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="68"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="67"/>
-    <tableColumn id="9" name="VitP" dataDxfId="66"/>
-    <tableColumn id="25" name="Modify" dataDxfId="65"/>
-    <tableColumn id="27" name="Dura" dataDxfId="64"/>
-    <tableColumn id="20" name="Def" dataDxfId="63"/>
-    <tableColumn id="21" name="Mag" dataDxfId="62"/>
-    <tableColumn id="29" name="Spd" dataDxfId="61"/>
-    <tableColumn id="30" name="Hit" dataDxfId="60"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="59"/>
-    <tableColumn id="12" name="Crt" dataDxfId="58"/>
-    <tableColumn id="11" name="Luk" dataDxfId="57"/>
-    <tableColumn id="32" name="Sum" dataDxfId="56">
+    <tableColumn id="15" name="Cost" dataDxfId="77"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="76"/>
+    <tableColumn id="9" name="VitP" dataDxfId="75"/>
+    <tableColumn id="25" name="Modify" dataDxfId="74"/>
+    <tableColumn id="27" name="Dura" dataDxfId="73"/>
+    <tableColumn id="20" name="Def" dataDxfId="72"/>
+    <tableColumn id="21" name="Mag" dataDxfId="71"/>
+    <tableColumn id="29" name="Spd" dataDxfId="70"/>
+    <tableColumn id="30" name="Hit" dataDxfId="69"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="68"/>
+    <tableColumn id="12" name="Crt" dataDxfId="67"/>
+    <tableColumn id="11" name="Luk" dataDxfId="66"/>
+    <tableColumn id="32" name="Sum" dataDxfId="65">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="55"/>
-    <tableColumn id="31" name="Mov" dataDxfId="54"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="53"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="52">
+    <tableColumn id="10" name="Range" dataDxfId="64"/>
+    <tableColumn id="31" name="Mov" dataDxfId="63"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="62"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="61">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="51"/>
-    <tableColumn id="14" name="Percent" dataDxfId="50"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="49"/>
-    <tableColumn id="26" name="JobId" dataDxfId="48"/>
-    <tableColumn id="17" name="Res" dataDxfId="47"/>
-    <tableColumn id="18" name="Icon" dataDxfId="46"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="45"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="44"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="60"/>
+    <tableColumn id="14" name="Percent" dataDxfId="59"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="58"/>
+    <tableColumn id="26" name="JobId" dataDxfId="57"/>
+    <tableColumn id="17" name="Res" dataDxfId="56"/>
+    <tableColumn id="18" name="Icon" dataDxfId="55"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="54"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG5" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG5" totalsRowShown="0" dataDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="A3:AG5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" name="Name" dataDxfId="30"/>
-    <tableColumn id="3" name="Ename" dataDxfId="29"/>
-    <tableColumn id="4" name="Remark" dataDxfId="28"/>
-    <tableColumn id="5" name="Star" dataDxfId="27"/>
-    <tableColumn id="6" name="Type" dataDxfId="26"/>
-    <tableColumn id="7" name="Attr" dataDxfId="25"/>
-    <tableColumn id="34" name="Quality" dataDxfId="24">
+    <tableColumn id="1" name="Id" dataDxfId="50"/>
+    <tableColumn id="2" name="Name" dataDxfId="49"/>
+    <tableColumn id="3" name="Ename" dataDxfId="48"/>
+    <tableColumn id="4" name="Remark" dataDxfId="47"/>
+    <tableColumn id="5" name="Star" dataDxfId="46"/>
+    <tableColumn id="6" name="Type" dataDxfId="45"/>
+    <tableColumn id="7" name="Attr" dataDxfId="44"/>
+    <tableColumn id="34" name="Quality" dataDxfId="43">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="23"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
-    <tableColumn id="9" name="VitP" dataDxfId="21"/>
-    <tableColumn id="25" name="Modify" dataDxfId="20"/>
-    <tableColumn id="31" name="Dura" dataDxfId="19"/>
-    <tableColumn id="11" name="Def" dataDxfId="18"/>
-    <tableColumn id="21" name="Mag" dataDxfId="17"/>
-    <tableColumn id="29" name="Spd" dataDxfId="16"/>
-    <tableColumn id="30" name="Hit" dataDxfId="15"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="14"/>
-    <tableColumn id="19" name="Crt" dataDxfId="13"/>
-    <tableColumn id="12" name="Luk" dataDxfId="12"/>
-    <tableColumn id="32" name="Sum" dataDxfId="11">
+    <tableColumn id="15" name="Cost" dataDxfId="42"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="41"/>
+    <tableColumn id="9" name="VitP" dataDxfId="40"/>
+    <tableColumn id="25" name="Modify" dataDxfId="39"/>
+    <tableColumn id="31" name="Dura" dataDxfId="38"/>
+    <tableColumn id="11" name="Def" dataDxfId="37"/>
+    <tableColumn id="21" name="Mag" dataDxfId="36"/>
+    <tableColumn id="29" name="Spd" dataDxfId="35"/>
+    <tableColumn id="30" name="Hit" dataDxfId="34"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="33"/>
+    <tableColumn id="19" name="Crt" dataDxfId="32"/>
+    <tableColumn id="12" name="Luk" dataDxfId="31"/>
+    <tableColumn id="32" name="Sum" dataDxfId="30">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="10"/>
-    <tableColumn id="27" name="Mov" dataDxfId="9"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="8"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="7">
+    <tableColumn id="10" name="Range" dataDxfId="29"/>
+    <tableColumn id="27" name="Mov" dataDxfId="28"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="27"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="26">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="6"/>
-    <tableColumn id="14" name="Percent" dataDxfId="5"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="4"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="25"/>
+    <tableColumn id="14" name="Percent" dataDxfId="24"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="23"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="17" name="Res" dataDxfId="3"/>
-    <tableColumn id="18" name="Icon" dataDxfId="2"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
+    <tableColumn id="17" name="Res" dataDxfId="22"/>
+    <tableColumn id="18" name="Icon" dataDxfId="21"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="20"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5275,13 +5282,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG126"/>
+  <dimension ref="A1:AG124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE20" sqref="AE20"/>
+      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5304,305 +5311,305 @@
   <sheetData>
     <row r="1" spans="1:33" ht="69">
       <c r="A1" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="H1" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="AC1" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF1" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC1" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>291</v>
-      </c>
       <c r="AG1" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="AC2" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC2" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="AF2" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG2" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="W3" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z3" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="I3" t="s">
-        <v>290</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>118</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>119</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD3" t="s">
         <v>120</v>
       </c>
-      <c r="AC3" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>121</v>
       </c>
-      <c r="AE3" t="s">
-        <v>122</v>
-      </c>
       <c r="AF3" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG3" s="24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -5613,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -5711,10 +5718,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -5809,10 +5816,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -5907,10 +5914,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -6002,13 +6009,13 @@
         <v>52000005</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -6103,10 +6110,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -6201,10 +6208,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -6299,10 +6306,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E11" s="4">
         <v>4</v>
@@ -6397,7 +6404,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="4">
@@ -6497,10 +6504,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -6596,13 +6603,13 @@
         <v>52000011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -6701,10 +6708,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -6779,7 +6786,7 @@
         <v>100</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4">
@@ -6800,13 +6807,13 @@
         <v>52000013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -6902,13 +6909,13 @@
         <v>52000014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -7007,10 +7014,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -7106,13 +7113,13 @@
         <v>52000016</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E19" s="15">
         <v>3</v>
@@ -7211,10 +7218,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -7312,13 +7319,13 @@
         <v>52000018</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -7413,7 +7420,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="4">
@@ -7511,10 +7518,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -7585,7 +7592,7 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4">
@@ -7609,10 +7616,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E24" s="4">
         <v>3</v>
@@ -7683,7 +7690,7 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4">
@@ -7707,10 +7714,10 @@
         <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -7802,13 +7809,13 @@
         <v>52000023</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E26" s="15">
         <v>4</v>
@@ -7879,7 +7886,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AC26" s="4">
         <v>11000004</v>
@@ -7905,10 +7912,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -7983,7 +7990,7 @@
         <v>100</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AC27" s="4">
         <v>11000001</v>
@@ -8006,10 +8013,10 @@
         <v>52000025</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="15">
@@ -8107,10 +8114,10 @@
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -8209,10 +8216,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -8311,10 +8318,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -8413,10 +8420,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -8515,10 +8522,10 @@
         <v>25</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -8617,10 +8624,10 @@
         <v>24</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -8716,13 +8723,13 @@
         <v>52000032</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E35" s="15">
         <v>3</v>
@@ -8820,10 +8827,10 @@
         <v>52000033</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="4">
@@ -8895,7 +8902,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4">
@@ -8919,7 +8926,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="4">
@@ -9017,7 +9024,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="4">
@@ -9112,10 +9119,10 @@
         <v>52000036</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="4">
@@ -9187,7 +9194,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4">
@@ -9211,10 +9218,10 @@
         <v>31</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -9289,7 +9296,7 @@
         <v>30</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AC40" s="4">
         <v>11000006</v>
@@ -9312,13 +9319,13 @@
         <v>52000038</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D41" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -9417,7 +9424,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="4">
@@ -9489,7 +9496,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AC42" s="4">
         <v>11000007</v>
@@ -9515,7 +9522,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="4">
@@ -9587,7 +9594,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4">
@@ -9611,7 +9618,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="4">
@@ -9707,7 +9714,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="4">
@@ -9807,7 +9814,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="4">
@@ -9909,7 +9916,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="4">
@@ -10007,7 +10014,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="4">
@@ -10107,7 +10114,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="4">
@@ -10203,7 +10210,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="4">
@@ -10299,7 +10306,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="4">
@@ -10401,7 +10408,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="4">
@@ -10497,7 +10504,7 @@
         <v>46</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="4">
@@ -10593,7 +10600,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="4">
@@ -10691,10 +10698,10 @@
         <v>48</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -10789,7 +10796,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="4">
@@ -10887,7 +10894,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="4">
@@ -10983,7 +10990,7 @@
         <v>51</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="4">
@@ -11081,7 +11088,7 @@
         <v>52</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="4">
@@ -11179,7 +11186,7 @@
         <v>53</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="4">
@@ -11272,13 +11279,13 @@
         <v>52000058</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D61" s="25" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -11377,10 +11384,10 @@
         <v>54</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E62" s="4">
         <v>3</v>
@@ -11481,7 +11488,7 @@
         <v>55</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="4">
@@ -11581,7 +11588,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="4">
@@ -11681,7 +11688,7 @@
         <v>57</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="4">
@@ -11783,10 +11790,10 @@
         <v>58</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -11880,13 +11887,11 @@
         <v>59</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>342</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D67" s="25"/>
       <c r="E67" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <v>102</v>
@@ -11896,19 +11901,19 @@
       </c>
       <c r="H67" s="4">
         <f>IF(AND(U67&gt;=13,U67&lt;=16),5,IF(AND(U67&gt;=9,U67&lt;=12),4,IF(AND(U67&gt;=5,U67&lt;=8),3,IF(AND(U67&gt;=1,U67&lt;=4),2,IF(AND(U67&gt;=-3,U67&lt;=0),1,IF(AND(U67&gt;=-5,U67&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I67" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
       </c>
       <c r="K67" s="6">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L67" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M67" s="8">
         <v>4</v>
@@ -11926,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S67" s="8">
         <v>0</v>
@@ -11936,7 +11941,7 @@
       </c>
       <c r="U67" s="10">
         <f>J67+K67-100+L67+ SUM(N67:T67)*5+IF(ISNUMBER(Y67),Y67,0)+X67</f>
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="V67" s="8">
         <v>0</v>
@@ -11947,16 +11952,11 @@
       <c r="X67" s="8">
         <v>0</v>
       </c>
-      <c r="Y67" s="8" t="e">
+      <c r="Y67" s="8">
         <f>IF(ISBLANK(Z67),0, LOOKUP(Z67,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA67/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z67">
-        <v>55000166</v>
-      </c>
-      <c r="AA67" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="4"/>
       <c r="AB67" s="4" t="s">
         <v>5</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="4">
@@ -12079,7 +12079,7 @@
         <v>61</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="4">
@@ -12175,7 +12175,7 @@
         <v>62</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="4">
@@ -12268,10 +12268,10 @@
         <v>52000068</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="4">
@@ -12367,7 +12367,7 @@
         <v>63</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="4">
@@ -12462,7 +12462,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="4">
@@ -12562,35 +12562,35 @@
         <v>100</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E74" s="4">
         <v>4</v>
       </c>
       <c r="F74">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
       </c>
       <c r="H74" s="4">
         <f>IF(AND(U74&gt;=13,U74&lt;=16),5,IF(AND(U74&gt;=9,U74&lt;=12),4,IF(AND(U74&gt;=5,U74&lt;=8),3,IF(AND(U74&gt;=1,U74&lt;=4),2,IF(AND(U74&gt;=-3,U74&lt;=0),1,IF(AND(U74&gt;=-5,U74&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I74" s="4">
         <v>4</v>
       </c>
       <c r="J74" s="6">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K74" s="6">
         <v>25</v>
       </c>
       <c r="L74" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M74" s="8">
         <v>4</v>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S74" s="8">
         <v>0</v>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="U74" s="10">
         <f>J74+K74-100+L74+ SUM(N74:T74)*5+IF(ISNUMBER(Y74),Y74,0)+X74</f>
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="V74" s="8">
         <v>0</v>
@@ -12629,18 +12629,18 @@
       <c r="X74" s="8">
         <v>0</v>
       </c>
-      <c r="Y74" s="8" t="e">
+      <c r="Y74" s="8">
         <f>IF(ISBLANK(Z74),0, LOOKUP(Z74,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA74/100)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z74" s="37">
-        <v>55000156</v>
+        <v>55500001</v>
       </c>
       <c r="AA74" s="4">
         <v>100</v>
       </c>
       <c r="AB74" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4">
@@ -12664,29 +12664,29 @@
         <v>66</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
       </c>
       <c r="H75" s="4">
         <f>IF(AND(U75&gt;=13,U75&lt;=16),5,IF(AND(U75&gt;=9,U75&lt;=12),4,IF(AND(U75&gt;=5,U75&lt;=8),3,IF(AND(U75&gt;=1,U75&lt;=4),2,IF(AND(U75&gt;=-3,U75&lt;=0),1,IF(AND(U75&gt;=-5,U75&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" s="6">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K75" s="6">
         <v>0</v>
@@ -12704,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q75" s="8">
         <v>0</v>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="U75" s="10">
         <f>J75+K75-100+L75+ SUM(N75:T75)*5+IF(ISNUMBER(Y75),Y75,0)+X75</f>
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="V75" s="8">
         <v>0</v>
@@ -12731,18 +12731,18 @@
       <c r="X75" s="8">
         <v>0</v>
       </c>
-      <c r="Y75" s="8" t="e">
+      <c r="Y75" s="8">
         <f>IF(ISBLANK(Z75),0, LOOKUP(Z75,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA75/100)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z75">
-        <v>55000062</v>
+        <v>55500003</v>
       </c>
       <c r="AA75" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AB75" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4">
@@ -12766,7 +12766,7 @@
         <v>67</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="4">
@@ -12866,13 +12866,13 @@
         <v>69</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E77" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77">
         <v>100</v>
@@ -12882,13 +12882,13 @@
       </c>
       <c r="H77" s="4">
         <f>IF(AND(U77&gt;=13,U77&lt;=16),5,IF(AND(U77&gt;=9,U77&lt;=12),4,IF(AND(U77&gt;=5,U77&lt;=8),3,IF(AND(U77&gt;=1,U77&lt;=4),2,IF(AND(U77&gt;=-3,U77&lt;=0),1,IF(AND(U77&gt;=-5,U77&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I77" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K77" s="6">
         <v>0</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R77" s="8">
         <v>0</v>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="U77" s="10">
         <f>J77+K77-100+L77+ SUM(N77:T77)*5+IF(ISNUMBER(Y77),Y77,0)+X77</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="V77" s="8">
         <v>10</v>
@@ -12933,12 +12933,12 @@
       <c r="X77" s="8">
         <v>0</v>
       </c>
-      <c r="Y77" s="8" t="e">
+      <c r="Y77" s="8">
         <f>IF(ISBLANK(Z77),0, LOOKUP(Z77,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA77/100)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z77" s="37">
-        <v>55000086</v>
+        <v>55500014</v>
       </c>
       <c r="AA77" s="4">
         <v>100</v>
@@ -12968,10 +12968,10 @@
         <v>70</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E78" s="4">
         <v>3</v>
@@ -12984,19 +12984,19 @@
       </c>
       <c r="H78" s="4">
         <f>IF(AND(U78&gt;=13,U78&lt;=16),5,IF(AND(U78&gt;=9,U78&lt;=12),4,IF(AND(U78&gt;=5,U78&lt;=8),3,IF(AND(U78&gt;=1,U78&lt;=4),2,IF(AND(U78&gt;=-3,U78&lt;=0),1,IF(AND(U78&gt;=-5,U78&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I78" s="4">
         <v>3</v>
       </c>
       <c r="J78" s="6">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K78" s="6">
         <v>0</v>
       </c>
       <c r="L78" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M78" s="8">
         <v>4</v>
@@ -13017,14 +13017,14 @@
         <v>0</v>
       </c>
       <c r="S78" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T78" s="8">
         <v>0</v>
       </c>
       <c r="U78" s="10">
         <f>J78+K78-100+L78+ SUM(N78:T78)*5+IF(ISNUMBER(Y78),Y78,0)+X78</f>
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="V78" s="8">
         <v>10</v>
@@ -13035,12 +13035,12 @@
       <c r="X78" s="8">
         <v>0</v>
       </c>
-      <c r="Y78" s="8" t="e">
+      <c r="Y78" s="8">
         <f>IF(ISBLANK(Z78),0, LOOKUP(Z78,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA78/100)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z78" s="37">
-        <v>55000005</v>
+        <v>55500008</v>
       </c>
       <c r="AA78" s="4">
         <v>100</v>
@@ -13070,10 +13070,10 @@
         <v>71</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E79" s="4">
         <v>3</v>
@@ -13086,19 +13086,19 @@
       </c>
       <c r="H79" s="4">
         <f>IF(AND(U79&gt;=13,U79&lt;=16),5,IF(AND(U79&gt;=9,U79&lt;=12),4,IF(AND(U79&gt;=5,U79&lt;=8),3,IF(AND(U79&gt;=1,U79&lt;=4),2,IF(AND(U79&gt;=-3,U79&lt;=0),1,IF(AND(U79&gt;=-5,U79&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I79" s="4">
         <v>3</v>
       </c>
       <c r="J79" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K79" s="6">
         <v>0</v>
       </c>
       <c r="L79" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M79" s="8">
         <v>4</v>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="U79" s="10">
         <f>J79+K79-100+L79+ SUM(N79:T79)*5+IF(ISNUMBER(Y79),Y79,0)+X79</f>
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="V79" s="8">
         <v>10</v>
@@ -13137,12 +13137,12 @@
       <c r="X79" s="8">
         <v>0</v>
       </c>
-      <c r="Y79" s="8" t="e">
+      <c r="Y79" s="8">
         <f>IF(ISBLANK(Z79),0, LOOKUP(Z79,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA79/100)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z79" s="37">
-        <v>55000017</v>
+        <v>55500005</v>
       </c>
       <c r="AA79" s="4">
         <v>100</v>
@@ -13172,10 +13172,10 @@
         <v>72</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E80" s="4">
         <v>3</v>
@@ -13188,19 +13188,19 @@
       </c>
       <c r="H80" s="4">
         <f>IF(AND(U80&gt;=13,U80&lt;=16),5,IF(AND(U80&gt;=9,U80&lt;=12),4,IF(AND(U80&gt;=5,U80&lt;=8),3,IF(AND(U80&gt;=1,U80&lt;=4),2,IF(AND(U80&gt;=-3,U80&lt;=0),1,IF(AND(U80&gt;=-5,U80&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I80" s="4">
         <v>3</v>
       </c>
       <c r="J80" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K80" s="6">
         <v>0</v>
       </c>
       <c r="L80" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M80" s="8">
         <v>4</v>
@@ -13215,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R80" s="8">
         <v>0</v>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="U80" s="10">
         <f>J80+K80-100+L80+ SUM(N80:T80)*5+IF(ISNUMBER(Y80),Y80,0)+X80</f>
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="V80" s="8">
         <v>10</v>
@@ -13239,12 +13239,12 @@
       <c r="X80" s="8">
         <v>0</v>
       </c>
-      <c r="Y80" s="8" t="e">
+      <c r="Y80" s="8">
         <f>IF(ISBLANK(Z80),0, LOOKUP(Z80,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA80/100)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z80" s="37">
-        <v>55000015</v>
+        <v>55500010</v>
       </c>
       <c r="AA80" s="4">
         <v>100</v>
@@ -13274,10 +13274,10 @@
         <v>73</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E81" s="4">
         <v>3</v>
@@ -13290,19 +13290,19 @@
       </c>
       <c r="H81" s="4">
         <f>IF(AND(U81&gt;=13,U81&lt;=16),5,IF(AND(U81&gt;=9,U81&lt;=12),4,IF(AND(U81&gt;=5,U81&lt;=8),3,IF(AND(U81&gt;=1,U81&lt;=4),2,IF(AND(U81&gt;=-3,U81&lt;=0),1,IF(AND(U81&gt;=-5,U81&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I81" s="4">
         <v>3</v>
       </c>
       <c r="J81" s="6">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K81" s="6">
         <v>0</v>
       </c>
       <c r="L81" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81" s="8">
         <v>4</v>
@@ -13323,14 +13323,14 @@
         <v>0</v>
       </c>
       <c r="S81" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T81" s="8">
         <v>0</v>
       </c>
       <c r="U81" s="10">
         <f>J81+K81-100+L81+ SUM(N81:T81)*5+IF(ISNUMBER(Y81),Y81,0)+X81</f>
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="V81" s="8">
         <v>10</v>
@@ -13341,12 +13341,12 @@
       <c r="X81" s="8">
         <v>0</v>
       </c>
-      <c r="Y81" s="8" t="e">
+      <c r="Y81" s="8">
         <f>IF(ISBLANK(Z81),0, LOOKUP(Z81,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA81/100)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z81" s="37">
-        <v>55000009</v>
+        <v>55500009</v>
       </c>
       <c r="AA81" s="4">
         <v>100</v>
@@ -13376,13 +13376,13 @@
         <v>74</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E82" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82">
         <v>100</v>
@@ -13392,13 +13392,13 @@
       </c>
       <c r="H82" s="4">
         <f>IF(AND(U82&gt;=13,U82&lt;=16),5,IF(AND(U82&gt;=9,U82&lt;=12),4,IF(AND(U82&gt;=5,U82&lt;=8),3,IF(AND(U82&gt;=1,U82&lt;=4),2,IF(AND(U82&gt;=-3,U82&lt;=0),1,IF(AND(U82&gt;=-5,U82&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I82" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K82" s="6">
         <v>0</v>
@@ -13432,7 +13432,7 @@
       </c>
       <c r="U82" s="10">
         <f>J82+K82-100+L82+ SUM(N82:T82)*5+IF(ISNUMBER(Y82),Y82,0)+X82</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="V82" s="8">
         <v>10</v>
@@ -13443,12 +13443,12 @@
       <c r="X82" s="8">
         <v>0</v>
       </c>
-      <c r="Y82" s="8" t="e">
+      <c r="Y82" s="8">
         <f>IF(ISBLANK(Z82),0, LOOKUP(Z82,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA82/100)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z82" s="37">
-        <v>55000007</v>
+        <v>55500011</v>
       </c>
       <c r="AA82" s="4">
         <v>100</v>
@@ -13478,10 +13478,10 @@
         <v>75</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E83" s="4">
         <v>3</v>
@@ -13494,19 +13494,19 @@
       </c>
       <c r="H83" s="4">
         <f>IF(AND(U83&gt;=13,U83&lt;=16),5,IF(AND(U83&gt;=9,U83&lt;=12),4,IF(AND(U83&gt;=5,U83&lt;=8),3,IF(AND(U83&gt;=1,U83&lt;=4),2,IF(AND(U83&gt;=-3,U83&lt;=0),1,IF(AND(U83&gt;=-5,U83&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I83" s="4">
         <v>3</v>
       </c>
       <c r="J83" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K83" s="6">
         <v>0</v>
       </c>
       <c r="L83" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M83" s="8">
         <v>4</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R83" s="8">
         <v>0</v>
@@ -13534,7 +13534,7 @@
       </c>
       <c r="U83" s="10">
         <f>J83+K83-100+L83+ SUM(N83:T83)*5+IF(ISNUMBER(Y83),Y83,0)+X83</f>
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="V83" s="8">
         <v>10</v>
@@ -13545,12 +13545,12 @@
       <c r="X83" s="8">
         <v>0</v>
       </c>
-      <c r="Y83" s="8" t="e">
+      <c r="Y83" s="8">
         <f>IF(ISBLANK(Z83),0, LOOKUP(Z83,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA83/100)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z83" s="37">
-        <v>55000016</v>
+        <v>55500001</v>
       </c>
       <c r="AA83" s="4">
         <v>100</v>
@@ -13580,13 +13580,13 @@
         <v>76</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E84" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84">
         <v>100</v>
@@ -13596,13 +13596,13 @@
       </c>
       <c r="H84" s="4">
         <f>IF(AND(U84&gt;=13,U84&lt;=16),5,IF(AND(U84&gt;=9,U84&lt;=12),4,IF(AND(U84&gt;=5,U84&lt;=8),3,IF(AND(U84&gt;=1,U84&lt;=4),2,IF(AND(U84&gt;=-3,U84&lt;=0),1,IF(AND(U84&gt;=-5,U84&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I84" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K84" s="6">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q84" s="8">
         <v>0</v>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="U84" s="10">
         <f>J84+K84-100+L84+ SUM(N84:T84)*5+IF(ISNUMBER(Y84),Y84,0)+X84</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="V84" s="8">
         <v>10</v>
@@ -13647,12 +13647,12 @@
       <c r="X84" s="8">
         <v>0</v>
       </c>
-      <c r="Y84" s="8" t="e">
+      <c r="Y84" s="8">
         <f>IF(ISBLANK(Z84),0, LOOKUP(Z84,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA84/100)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Z84" s="37">
-        <v>55000104</v>
+        <v>55500012</v>
       </c>
       <c r="AA84" s="4">
         <v>100</v>
@@ -13682,7 +13682,7 @@
         <v>77</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="4">
@@ -13754,7 +13754,7 @@
       <c r="Z85" s="32"/>
       <c r="AA85" s="4"/>
       <c r="AB85" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4">
@@ -13775,10 +13775,10 @@
         <v>52000083</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D86" s="25"/>
       <c r="E86" s="4">
@@ -13876,7 +13876,7 @@
         <v>78</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="4">
@@ -13974,7 +13974,7 @@
         <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="4">
@@ -14046,7 +14046,7 @@
       <c r="Z88" s="32"/>
       <c r="AA88" s="4"/>
       <c r="AB88" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AC88" s="4"/>
       <c r="AD88" s="4">
@@ -14070,10 +14070,10 @@
         <v>80</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E89" s="4">
         <v>4</v>
@@ -14148,7 +14148,7 @@
         <v>40</v>
       </c>
       <c r="AB89" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AC89" s="4">
         <v>11000006</v>
@@ -14174,10 +14174,10 @@
         <v>81</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E90" s="4">
         <v>4</v>
@@ -14276,7 +14276,7 @@
         <v>82</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D91" s="25"/>
       <c r="E91" s="4">
@@ -14348,7 +14348,7 @@
       <c r="Z91" s="32"/>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AC91" s="4">
         <v>11000007</v>
@@ -14374,7 +14374,7 @@
         <v>83</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D92" s="25"/>
       <c r="E92" s="4">
@@ -14446,7 +14446,7 @@
       <c r="Z92" s="32"/>
       <c r="AA92" s="4"/>
       <c r="AB92" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AC92" s="4"/>
       <c r="AD92" s="4">
@@ -14470,7 +14470,7 @@
         <v>84</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D93" s="25"/>
       <c r="E93" s="4">
@@ -14568,7 +14568,7 @@
         <v>86</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="4">
@@ -14670,10 +14670,10 @@
         <v>87</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E95" s="4">
         <v>2</v>
@@ -14774,7 +14774,7 @@
         <v>88</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D96" s="25"/>
       <c r="E96" s="4">
@@ -14869,38 +14869,36 @@
         <v>52000094</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>367</v>
+        <v>7</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>342</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D97" s="25"/>
       <c r="E97" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G97" s="4">
         <v>0</v>
       </c>
       <c r="H97" s="4">
         <f>IF(AND(U97&gt;=13,U97&lt;=16),5,IF(AND(U97&gt;=9,U97&lt;=12),4,IF(AND(U97&gt;=5,U97&lt;=8),3,IF(AND(U97&gt;=1,U97&lt;=4),2,IF(AND(U97&gt;=-3,U97&lt;=0),1,IF(AND(U97&gt;=-5,U97&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I97" s="4">
+        <v>3</v>
+      </c>
+      <c r="J97" s="6">
+        <v>100</v>
+      </c>
+      <c r="K97" s="6">
+        <v>0</v>
+      </c>
+      <c r="L97" s="14">
         <v>2</v>
-      </c>
-      <c r="J97" s="6">
-        <v>0</v>
-      </c>
-      <c r="K97" s="6">
-        <v>0</v>
-      </c>
-      <c r="L97" s="14">
-        <v>0</v>
       </c>
       <c r="M97" s="8">
         <v>4</v>
@@ -14928,10 +14926,10 @@
       </c>
       <c r="U97" s="10">
         <f>J97+K97-100+L97+ SUM(N97:T97)*5+IF(ISNUMBER(Y97),Y97,0)+X97</f>
-        <v>-100</v>
+        <v>2</v>
       </c>
       <c r="V97" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W97" s="8">
         <v>0</v>
@@ -14939,20 +14937,18 @@
       <c r="X97" s="8">
         <v>0</v>
       </c>
-      <c r="Y97" s="8" t="e">
+      <c r="Y97" s="8">
         <f>IF(ISBLANK(Z97),0, LOOKUP(Z97,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA97/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z97" s="37">
-        <v>55000206</v>
-      </c>
-      <c r="AA97" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z97" s="32"/>
+      <c r="AA97" s="4"/>
       <c r="AB97" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC97" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="AC97" s="4">
+        <v>11000001</v>
+      </c>
       <c r="AD97" s="4">
         <v>5</v>
       </c>
@@ -14974,10 +14970,10 @@
         <v>89</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E98" s="4">
         <v>5</v>
@@ -15076,10 +15072,10 @@
         <v>90</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E99" s="4">
         <v>6</v>
@@ -15178,11 +15174,9 @@
         <v>91</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>342</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D100" s="25"/>
       <c r="E100" s="4">
         <v>2</v>
       </c>
@@ -15194,7 +15188,7 @@
       </c>
       <c r="H100" s="4">
         <f>IF(AND(U100&gt;=13,U100&lt;=16),5,IF(AND(U100&gt;=9,U100&lt;=12),4,IF(AND(U100&gt;=5,U100&lt;=8),3,IF(AND(U100&gt;=1,U100&lt;=4),2,IF(AND(U100&gt;=-3,U100&lt;=0),1,IF(AND(U100&gt;=-5,U100&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I100" s="4">
         <v>2</v>
@@ -15203,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L100" s="14">
         <v>0</v>
@@ -15221,10 +15215,10 @@
         <v>0</v>
       </c>
       <c r="Q100" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R100" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S100" s="8">
         <v>0</v>
@@ -15234,7 +15228,7 @@
       </c>
       <c r="U100" s="10">
         <f>J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="V100" s="8">
         <v>0</v>
@@ -15245,12 +15239,12 @@
       <c r="X100" s="8">
         <v>0</v>
       </c>
-      <c r="Y100" s="8" t="e">
+      <c r="Y100" s="8">
         <f>IF(ISBLANK(Z100),0, LOOKUP(Z100,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA100/100)</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="Z100" s="37">
-        <v>55000172</v>
+        <v>55110010</v>
       </c>
       <c r="AA100" s="4">
         <v>100</v>
@@ -15258,7 +15252,9 @@
       <c r="AB100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC100" s="4"/>
+      <c r="AC100" s="4">
+        <v>11000007</v>
+      </c>
       <c r="AD100" s="4">
         <v>5</v>
       </c>
@@ -15280,10 +15276,10 @@
         <v>92</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -15358,7 +15354,7 @@
         <v>40</v>
       </c>
       <c r="AB101" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AC101" s="4"/>
       <c r="AD101" s="4">
@@ -15382,11 +15378,9 @@
         <v>93</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>342</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D102" s="25"/>
       <c r="E102" s="4">
         <v>2</v>
       </c>
@@ -15398,7 +15392,7 @@
       </c>
       <c r="H102" s="4">
         <f>IF(AND(U102&gt;=13,U102&lt;=16),5,IF(AND(U102&gt;=9,U102&lt;=12),4,IF(AND(U102&gt;=5,U102&lt;=8),3,IF(AND(U102&gt;=1,U102&lt;=4),2,IF(AND(U102&gt;=-3,U102&lt;=0),1,IF(AND(U102&gt;=-5,U102&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I102" s="4">
         <v>2</v>
@@ -15425,10 +15419,10 @@
         <v>0</v>
       </c>
       <c r="Q102" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R102" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S102" s="8">
         <v>0</v>
@@ -15438,7 +15432,7 @@
       </c>
       <c r="U102" s="10">
         <f>J102+K102-100+L102+ SUM(N102:T102)*5+IF(ISNUMBER(Y102),Y102,0)+X102</f>
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="V102" s="8">
         <v>0</v>
@@ -15449,16 +15443,12 @@
       <c r="X102" s="8">
         <v>0</v>
       </c>
-      <c r="Y102" s="8" t="e">
+      <c r="Y102" s="8">
         <f>IF(ISBLANK(Z102),0, LOOKUP(Z102,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA102/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z102" s="37">
-        <v>55000228</v>
-      </c>
-      <c r="AA102" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z102" s="37"/>
+      <c r="AA102" s="4"/>
       <c r="AB102" s="4" t="s">
         <v>5</v>
       </c>
@@ -15481,13 +15471,13 @@
         <v>52000100</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D103" s="25" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="E103" s="4">
         <v>4</v>
@@ -15500,19 +15490,19 @@
       </c>
       <c r="H103" s="4">
         <f>IF(AND(U103&gt;=13,U103&lt;=16),5,IF(AND(U103&gt;=9,U103&lt;=12),4,IF(AND(U103&gt;=5,U103&lt;=8),3,IF(AND(U103&gt;=1,U103&lt;=4),2,IF(AND(U103&gt;=-3,U103&lt;=0),1,IF(AND(U103&gt;=-5,U103&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I103" s="4">
         <v>4</v>
       </c>
       <c r="J103" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K103" s="6">
         <v>0</v>
       </c>
       <c r="L103" s="14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M103" s="8">
         <v>3</v>
@@ -15527,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="Q103" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R103" s="8">
         <v>0</v>
@@ -15540,7 +15530,7 @@
       </c>
       <c r="U103" s="10">
         <f>J103+K103-100+L103+ SUM(N103:T103)*5+IF(ISNUMBER(Y103),Y103,0)+X103</f>
-        <v>-100</v>
+        <v>10.5</v>
       </c>
       <c r="V103" s="8">
         <v>10</v>
@@ -15551,20 +15541,22 @@
       <c r="X103" s="8">
         <v>0</v>
       </c>
-      <c r="Y103" s="8" t="e">
+      <c r="Y103" s="8">
         <f>IF(ISBLANK(Z103),0, LOOKUP(Z103,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA103/100)</f>
-        <v>#N/A</v>
+        <v>49.5</v>
       </c>
       <c r="Z103" s="37">
-        <v>55000229</v>
+        <v>55520004</v>
       </c>
       <c r="AA103" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AB103" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AC103" s="4"/>
+      <c r="AC103" s="4">
+        <v>11000007</v>
+      </c>
       <c r="AD103" s="4">
         <v>5</v>
       </c>
@@ -15586,10 +15578,10 @@
         <v>95</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E104" s="4">
         <v>3</v>
@@ -15685,13 +15677,13 @@
         <v>52000102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -15790,7 +15782,7 @@
         <v>96</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="4">
@@ -15809,10 +15801,10 @@
       <c r="I106" s="4">
         <v>4</v>
       </c>
-      <c r="J106" s="6">
-        <v>0</v>
-      </c>
-      <c r="K106" s="6">
+      <c r="J106" s="7">
+        <v>0</v>
+      </c>
+      <c r="K106" s="7">
         <v>50</v>
       </c>
       <c r="L106" s="14">
@@ -15888,10 +15880,10 @@
         <v>97</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E107" s="4">
         <v>3</v>
@@ -15909,10 +15901,10 @@
       <c r="I107" s="4">
         <v>3</v>
       </c>
-      <c r="J107" s="7">
+      <c r="J107" s="6">
         <v>85</v>
       </c>
-      <c r="K107" s="7">
+      <c r="K107" s="6">
         <v>0</v>
       </c>
       <c r="L107" s="14">
@@ -15992,7 +15984,7 @@
         <v>98</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D108" s="25"/>
       <c r="E108" s="4">
@@ -16094,7 +16086,7 @@
         <v>99</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D109" s="25"/>
       <c r="E109" s="4">
@@ -16192,7 +16184,7 @@
         <v>65</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="4">
@@ -16292,10 +16284,10 @@
         <v>101</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E111" s="4">
         <v>4</v>
@@ -16394,10 +16386,10 @@
         <v>102</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="E112" s="4">
         <v>2</v>
@@ -16410,7 +16402,7 @@
       </c>
       <c r="H112" s="4">
         <f>IF(AND(U112&gt;=13,U112&lt;=16),5,IF(AND(U112&gt;=9,U112&lt;=12),4,IF(AND(U112&gt;=5,U112&lt;=8),3,IF(AND(U112&gt;=1,U112&lt;=4),2,IF(AND(U112&gt;=-3,U112&lt;=0),1,IF(AND(U112&gt;=-5,U112&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I112" s="4">
         <v>2</v>
@@ -16419,10 +16411,10 @@
         <v>0</v>
       </c>
       <c r="K112" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L112" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M112" s="8">
         <v>4</v>
@@ -16437,20 +16429,20 @@
         <v>0</v>
       </c>
       <c r="Q112" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R112" s="8">
         <v>0</v>
       </c>
       <c r="S112" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T112" s="8">
         <v>0</v>
       </c>
       <c r="U112" s="10">
         <f>J112+K112-100+L112+ SUM(N112:T112)*5+IF(ISNUMBER(Y112),Y112,0)+X112</f>
-        <v>-100</v>
+        <v>2</v>
       </c>
       <c r="V112" s="8">
         <v>0</v>
@@ -16461,12 +16453,12 @@
       <c r="X112" s="8">
         <v>0</v>
       </c>
-      <c r="Y112" s="8" t="e">
+      <c r="Y112" s="8">
         <f>IF(ISBLANK(Z112),0, LOOKUP(Z112,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA112/100)</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="Z112" s="37">
-        <v>55000088</v>
+        <v>55510006</v>
       </c>
       <c r="AA112" s="4">
         <v>100</v>
@@ -16496,10 +16488,10 @@
         <v>103</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E113" s="4">
         <v>6</v>
@@ -16521,7 +16513,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L113" s="14">
         <v>0</v>
@@ -16530,7 +16522,7 @@
         <v>6</v>
       </c>
       <c r="N113" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8">
         <v>0</v>
@@ -16598,7 +16590,7 @@
         <v>104</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D114" s="25"/>
       <c r="E114" s="4">
@@ -16696,7 +16688,7 @@
         <v>105</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="4">
@@ -16791,38 +16783,38 @@
         <v>52000113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="E116" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G116" s="4">
         <v>0</v>
       </c>
       <c r="H116" s="4">
         <f>IF(AND(U116&gt;=13,U116&lt;=16),5,IF(AND(U116&gt;=9,U116&lt;=12),4,IF(AND(U116&gt;=5,U116&lt;=8),3,IF(AND(U116&gt;=1,U116&lt;=4),2,IF(AND(U116&gt;=-3,U116&lt;=0),1,IF(AND(U116&gt;=-5,U116&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I116" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J116" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K116" s="6">
         <v>0</v>
       </c>
       <c r="L116" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M116" s="8">
         <v>4</v>
@@ -16834,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q116" s="8">
         <v>0</v>
@@ -16848,44 +16840,42 @@
       <c r="T116" s="8">
         <v>0</v>
       </c>
-      <c r="U116" s="10">
+      <c r="U116" s="36">
         <f>J116+K116-100+L116+ SUM(N116:T116)*5+IF(ISNUMBER(Y116),Y116,0)+X116</f>
-        <v>-70</v>
+        <v>5</v>
       </c>
       <c r="V116" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W116" s="8">
         <v>0</v>
       </c>
       <c r="X116" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y116" s="8" t="e">
+        <v>25</v>
+      </c>
+      <c r="Y116" s="8">
         <f>IF(ISBLANK(Z116),0, LOOKUP(Z116,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA116/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z116" s="37">
-        <v>55000132</v>
-      </c>
-      <c r="AA116" s="4">
-        <v>100</v>
-      </c>
-      <c r="AB116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC116" s="4"/>
-      <c r="AD116" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE116" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="25"/>
+      <c r="AA116" s="15"/>
+      <c r="AB116" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC116" s="15">
+        <v>11000004</v>
+      </c>
+      <c r="AD116" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE116" s="17">
         <v>113</v>
       </c>
       <c r="AF116" s="26">
         <v>0</v>
       </c>
       <c r="AG116" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:33">
@@ -16893,13 +16883,13 @@
         <v>52000114</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E117" s="4">
         <v>2</v>
@@ -16950,7 +16940,7 @@
       <c r="T117" s="8">
         <v>0</v>
       </c>
-      <c r="U117" s="10">
+      <c r="U117" s="36">
         <f>J117+K117-100+L117+ SUM(N117:T117)*5+IF(ISNUMBER(Y117),Y117,0)+X117</f>
         <v>0</v>
       </c>
@@ -16995,10 +16985,10 @@
         <v>52000115</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D118" s="25"/>
       <c r="E118" s="4">
@@ -17050,7 +17040,7 @@
       <c r="T118" s="8">
         <v>0</v>
       </c>
-      <c r="U118" s="36">
+      <c r="U118" s="18">
         <f>J118+K118-100+L118+ SUM(N118:T118)*5+IF(ISNUMBER(Y118),Y118,0)+X118</f>
         <v>2</v>
       </c>
@@ -17097,10 +17087,10 @@
         <v>52000116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D119" s="25"/>
       <c r="E119" s="4">
@@ -17152,7 +17142,7 @@
       <c r="T119" s="8">
         <v>0</v>
       </c>
-      <c r="U119" s="36">
+      <c r="U119" s="18">
         <f>J119+K119-100+L119+ SUM(N119:T119)*5+IF(ISNUMBER(Y119),Y119,0)+X119</f>
         <v>1</v>
       </c>
@@ -17197,13 +17187,13 @@
         <v>52000117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E120" s="4">
         <v>5</v>
@@ -17299,10 +17289,10 @@
         <v>52000118</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D121" s="25"/>
       <c r="E121" s="15">
@@ -17397,10 +17387,10 @@
         <v>52000119</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D122" s="25"/>
       <c r="E122" s="15">
@@ -17495,10 +17485,10 @@
         <v>52000120</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="15">
@@ -17593,10 +17583,10 @@
         <v>52000121</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D124" s="25"/>
       <c r="E124" s="15">
@@ -17686,207 +17676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:33">
-      <c r="A125">
-        <v>52000122</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D125" s="25"/>
-      <c r="E125" s="4">
-        <v>3</v>
-      </c>
-      <c r="F125">
-        <v>100</v>
-      </c>
-      <c r="G125" s="4">
-        <v>0</v>
-      </c>
-      <c r="H125" s="4">
-        <f>IF(AND(U125&gt;=13,U125&lt;=16),5,IF(AND(U125&gt;=9,U125&lt;=12),4,IF(AND(U125&gt;=5,U125&lt;=8),3,IF(AND(U125&gt;=1,U125&lt;=4),2,IF(AND(U125&gt;=-3,U125&lt;=0),1,IF(AND(U125&gt;=-5,U125&lt;=-4),0,6))))))</f>
-        <v>2</v>
-      </c>
-      <c r="I125" s="4">
-        <v>3</v>
-      </c>
-      <c r="J125" s="6">
-        <v>100</v>
-      </c>
-      <c r="K125" s="6">
-        <v>0</v>
-      </c>
-      <c r="L125" s="14">
-        <v>2</v>
-      </c>
-      <c r="M125" s="8">
-        <v>4</v>
-      </c>
-      <c r="N125" s="8">
-        <v>0</v>
-      </c>
-      <c r="O125" s="8">
-        <v>0</v>
-      </c>
-      <c r="P125" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="8">
-        <v>0</v>
-      </c>
-      <c r="R125" s="8">
-        <v>0</v>
-      </c>
-      <c r="S125" s="8">
-        <v>0</v>
-      </c>
-      <c r="T125" s="8">
-        <v>0</v>
-      </c>
-      <c r="U125" s="10">
-        <f>J125+K125-100+L125+ SUM(N125:T125)*5+IF(ISNUMBER(Y125),Y125,0)+X125</f>
-        <v>2</v>
-      </c>
-      <c r="V125" s="8">
-        <v>10</v>
-      </c>
-      <c r="W125" s="8">
-        <v>0</v>
-      </c>
-      <c r="X125" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y125" s="8">
-        <f>IF(ISBLANK(Z125),0, LOOKUP(Z125,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA125/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z125" s="32"/>
-      <c r="AA125" s="4"/>
-      <c r="AB125" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC125" s="4">
-        <v>11000001</v>
-      </c>
-      <c r="AD125" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE125" s="5">
-        <v>122</v>
-      </c>
-      <c r="AF125" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG125" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:33">
-      <c r="A126">
-        <v>52000123</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="E126" s="4">
-        <v>3</v>
-      </c>
-      <c r="F126">
-        <v>100</v>
-      </c>
-      <c r="G126" s="4">
-        <v>0</v>
-      </c>
-      <c r="H126" s="4">
-        <f>IF(AND(U126&gt;=13,U126&lt;=16),5,IF(AND(U126&gt;=9,U126&lt;=12),4,IF(AND(U126&gt;=5,U126&lt;=8),3,IF(AND(U126&gt;=1,U126&lt;=4),2,IF(AND(U126&gt;=-3,U126&lt;=0),1,IF(AND(U126&gt;=-5,U126&lt;=-4),0,6))))))</f>
-        <v>3</v>
-      </c>
-      <c r="I126" s="4">
-        <v>3</v>
-      </c>
-      <c r="J126" s="6">
-        <v>45</v>
-      </c>
-      <c r="K126" s="6">
-        <v>0</v>
-      </c>
-      <c r="L126" s="14">
-        <v>5</v>
-      </c>
-      <c r="M126" s="8">
-        <v>4</v>
-      </c>
-      <c r="N126" s="8">
-        <v>0</v>
-      </c>
-      <c r="O126" s="8">
-        <v>0</v>
-      </c>
-      <c r="P126" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q126" s="8">
-        <v>0</v>
-      </c>
-      <c r="R126" s="8">
-        <v>0</v>
-      </c>
-      <c r="S126" s="8">
-        <v>0</v>
-      </c>
-      <c r="T126" s="8">
-        <v>0</v>
-      </c>
-      <c r="U126" s="18">
-        <f>J126+K126-100+L126+ SUM(N126:T126)*5+IF(ISNUMBER(Y126),Y126,0)+X126</f>
-        <v>5</v>
-      </c>
-      <c r="V126" s="8">
-        <v>20</v>
-      </c>
-      <c r="W126" s="8">
-        <v>0</v>
-      </c>
-      <c r="X126" s="8">
-        <v>25</v>
-      </c>
-      <c r="Y126" s="8">
-        <f>IF(ISBLANK(Z126),0, LOOKUP(Z126,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA126/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z126" s="25"/>
-      <c r="AA126" s="15"/>
-      <c r="AB126" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC126" s="15">
-        <v>11000004</v>
-      </c>
-      <c r="AD126" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE126" s="17">
-        <v>123</v>
-      </c>
-      <c r="AF126" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG126" s="25">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="U117">
+  <conditionalFormatting sqref="U115">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -17898,7 +17690,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U118:U119">
+  <conditionalFormatting sqref="U116:U117">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -17910,7 +17702,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U120">
+  <conditionalFormatting sqref="U118">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -17922,7 +17714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U121">
+  <conditionalFormatting sqref="U119">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -17934,7 +17726,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U122">
+  <conditionalFormatting sqref="U120">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -17946,7 +17738,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U123">
+  <conditionalFormatting sqref="U121">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -17958,7 +17750,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U123">
+  <conditionalFormatting sqref="U121">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -17970,7 +17762,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U124">
+  <conditionalFormatting sqref="U122">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -17982,7 +17774,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U124">
+  <conditionalFormatting sqref="U122">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -17994,7 +17786,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U125">
+  <conditionalFormatting sqref="U123">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -18006,7 +17798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U125">
+  <conditionalFormatting sqref="U123">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -18018,7 +17810,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U125">
+  <conditionalFormatting sqref="U123">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -18030,7 +17822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U126">
+  <conditionalFormatting sqref="U124">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -18042,7 +17834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U126">
+  <conditionalFormatting sqref="U124">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -18054,7 +17846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U126">
+  <conditionalFormatting sqref="U124">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -18066,7 +17858,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U126">
+  <conditionalFormatting sqref="U124">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -18078,39 +17870,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H126">
-    <cfRule type="cellIs" dxfId="87" priority="6" operator="equal">
+  <conditionalFormatting sqref="H5:H124">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U126">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="U4:U124">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18158,305 +17950,305 @@
   <sheetData>
     <row r="1" spans="1:33" ht="69">
       <c r="A1" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="H1" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="AC1" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF1" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC1" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>291</v>
-      </c>
       <c r="AG1" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="AC2" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC2" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="AF2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG2" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="W3" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z3" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="I3" t="s">
-        <v>290</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>118</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>119</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD3" t="s">
         <v>120</v>
       </c>
-      <c r="AC3" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>121</v>
       </c>
-      <c r="AE3" t="s">
-        <v>122</v>
-      </c>
       <c r="AF3" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG3" s="24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -18464,10 +18256,10 @@
         <v>52100000</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="15">
@@ -18560,10 +18352,10 @@
         <v>52100001</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="15">
@@ -18635,7 +18427,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AC5" s="15"/>
       <c r="AD5" s="15">
@@ -18738,36 +18530,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18803,10 +18595,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="373">
   <si>
     <t>铁杖</t>
   </si>
@@ -1137,10 +1137,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>品质</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1264,6 +1260,14 @@
   </si>
   <si>
     <t>克制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2188,148 +2192,6 @@
   <dxfs count="88">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2935,6 +2797,82 @@
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3571,6 +3509,72 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4886,6 +4890,22 @@
             <v>25</v>
           </cell>
         </row>
+        <row r="163">
+          <cell r="A163">
+            <v>55990103</v>
+          </cell>
+          <cell r="X163">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>55990104</v>
+          </cell>
+          <cell r="X164">
+            <v>50</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
     </sheetDataSet>
@@ -4894,102 +4914,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG124" totalsRowShown="0" dataDxfId="87" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG124" totalsRowShown="0" dataDxfId="78" tableBorderDxfId="77">
   <autoFilter ref="A3:AG124"/>
   <sortState ref="A4:AG124">
     <sortCondition ref="A3:A124"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="85"/>
-    <tableColumn id="2" name="Name" dataDxfId="84"/>
-    <tableColumn id="3" name="Ename" dataDxfId="83"/>
-    <tableColumn id="4" name="Remark" dataDxfId="82"/>
-    <tableColumn id="5" name="Star" dataDxfId="81"/>
-    <tableColumn id="6" name="Type" dataDxfId="80"/>
-    <tableColumn id="7" name="Attr" dataDxfId="79"/>
-    <tableColumn id="34" name="Quality" dataDxfId="78">
+    <tableColumn id="1" name="Id" dataDxfId="76"/>
+    <tableColumn id="2" name="Name" dataDxfId="75"/>
+    <tableColumn id="3" name="Ename" dataDxfId="74"/>
+    <tableColumn id="4" name="Remark" dataDxfId="73"/>
+    <tableColumn id="5" name="Star" dataDxfId="72"/>
+    <tableColumn id="6" name="Type" dataDxfId="71"/>
+    <tableColumn id="7" name="Attr" dataDxfId="70"/>
+    <tableColumn id="34" name="Quality" dataDxfId="69">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="77"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="76"/>
-    <tableColumn id="9" name="VitP" dataDxfId="75"/>
-    <tableColumn id="25" name="Modify" dataDxfId="74"/>
-    <tableColumn id="27" name="Dura" dataDxfId="73"/>
-    <tableColumn id="20" name="Def" dataDxfId="72"/>
-    <tableColumn id="21" name="Mag" dataDxfId="71"/>
-    <tableColumn id="29" name="Spd" dataDxfId="70"/>
-    <tableColumn id="30" name="Hit" dataDxfId="69"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="68"/>
-    <tableColumn id="12" name="Crt" dataDxfId="67"/>
-    <tableColumn id="11" name="Luk" dataDxfId="66"/>
-    <tableColumn id="32" name="Sum" dataDxfId="65">
+    <tableColumn id="15" name="Cost" dataDxfId="68"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="67"/>
+    <tableColumn id="9" name="VitP" dataDxfId="66"/>
+    <tableColumn id="25" name="Modify" dataDxfId="65"/>
+    <tableColumn id="27" name="Dura" dataDxfId="64"/>
+    <tableColumn id="20" name="Def" dataDxfId="63"/>
+    <tableColumn id="21" name="Mag" dataDxfId="62"/>
+    <tableColumn id="29" name="Spd" dataDxfId="61"/>
+    <tableColumn id="30" name="Hit" dataDxfId="60"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="59"/>
+    <tableColumn id="12" name="Crt" dataDxfId="58"/>
+    <tableColumn id="11" name="Luk" dataDxfId="57"/>
+    <tableColumn id="32" name="Sum" dataDxfId="56">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="64"/>
-    <tableColumn id="31" name="Mov" dataDxfId="63"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="62"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="61">
+    <tableColumn id="10" name="Range" dataDxfId="55"/>
+    <tableColumn id="31" name="Mov" dataDxfId="54"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="53"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="52">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="60"/>
-    <tableColumn id="14" name="Percent" dataDxfId="59"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="58"/>
-    <tableColumn id="26" name="JobId" dataDxfId="57"/>
-    <tableColumn id="17" name="Res" dataDxfId="56"/>
-    <tableColumn id="18" name="Icon" dataDxfId="55"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="54"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="53"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="51"/>
+    <tableColumn id="14" name="Percent" dataDxfId="50"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="49"/>
+    <tableColumn id="26" name="JobId" dataDxfId="48"/>
+    <tableColumn id="17" name="Res" dataDxfId="47"/>
+    <tableColumn id="18" name="Icon" dataDxfId="46"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="45"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG5" totalsRowShown="0" dataDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG5" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A3:AG5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="50"/>
-    <tableColumn id="2" name="Name" dataDxfId="49"/>
-    <tableColumn id="3" name="Ename" dataDxfId="48"/>
-    <tableColumn id="4" name="Remark" dataDxfId="47"/>
-    <tableColumn id="5" name="Star" dataDxfId="46"/>
-    <tableColumn id="6" name="Type" dataDxfId="45"/>
-    <tableColumn id="7" name="Attr" dataDxfId="44"/>
-    <tableColumn id="34" name="Quality" dataDxfId="43">
+    <tableColumn id="1" name="Id" dataDxfId="31"/>
+    <tableColumn id="2" name="Name" dataDxfId="30"/>
+    <tableColumn id="3" name="Ename" dataDxfId="29"/>
+    <tableColumn id="4" name="Remark" dataDxfId="28"/>
+    <tableColumn id="5" name="Star" dataDxfId="27"/>
+    <tableColumn id="6" name="Type" dataDxfId="26"/>
+    <tableColumn id="7" name="Attr" dataDxfId="25"/>
+    <tableColumn id="34" name="Quality" dataDxfId="24">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="42"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="41"/>
-    <tableColumn id="9" name="VitP" dataDxfId="40"/>
-    <tableColumn id="25" name="Modify" dataDxfId="39"/>
-    <tableColumn id="31" name="Dura" dataDxfId="38"/>
-    <tableColumn id="11" name="Def" dataDxfId="37"/>
-    <tableColumn id="21" name="Mag" dataDxfId="36"/>
-    <tableColumn id="29" name="Spd" dataDxfId="35"/>
-    <tableColumn id="30" name="Hit" dataDxfId="34"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="33"/>
-    <tableColumn id="19" name="Crt" dataDxfId="32"/>
-    <tableColumn id="12" name="Luk" dataDxfId="31"/>
-    <tableColumn id="32" name="Sum" dataDxfId="30">
+    <tableColumn id="15" name="Cost" dataDxfId="23"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
+    <tableColumn id="9" name="VitP" dataDxfId="21"/>
+    <tableColumn id="25" name="Modify" dataDxfId="20"/>
+    <tableColumn id="31" name="Dura" dataDxfId="19"/>
+    <tableColumn id="11" name="Def" dataDxfId="18"/>
+    <tableColumn id="21" name="Mag" dataDxfId="17"/>
+    <tableColumn id="29" name="Spd" dataDxfId="16"/>
+    <tableColumn id="30" name="Hit" dataDxfId="15"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="14"/>
+    <tableColumn id="19" name="Crt" dataDxfId="13"/>
+    <tableColumn id="12" name="Luk" dataDxfId="12"/>
+    <tableColumn id="32" name="Sum" dataDxfId="11">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="29"/>
-    <tableColumn id="27" name="Mov" dataDxfId="28"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="27"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="26">
+    <tableColumn id="10" name="Range" dataDxfId="10"/>
+    <tableColumn id="27" name="Mov" dataDxfId="9"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="8"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="7">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="25"/>
-    <tableColumn id="14" name="Percent" dataDxfId="24"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="23"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="6"/>
+    <tableColumn id="14" name="Percent" dataDxfId="5"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="4"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="17" name="Res" dataDxfId="22"/>
-    <tableColumn id="18" name="Icon" dataDxfId="21"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="20"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="19"/>
+    <tableColumn id="17" name="Res" dataDxfId="3"/>
+    <tableColumn id="18" name="Icon" dataDxfId="2"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5285,10 +5305,10 @@
   <dimension ref="A1:AG124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
+      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5332,7 +5352,7 @@
         <v>247</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>285</v>
@@ -5380,7 +5400,7 @@
         <v>336</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>260</v>
@@ -5395,7 +5415,7 @@
         <v>250</v>
       </c>
       <c r="AC1" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AD1" s="20" t="s">
         <v>251</v>
@@ -5472,7 +5492,7 @@
         <v>254</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>303</v>
@@ -5481,10 +5501,10 @@
         <v>337</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>110</v>
@@ -5496,7 +5516,7 @@
         <v>111</v>
       </c>
       <c r="AC2" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>110</v>
@@ -5534,7 +5554,7 @@
         <v>116</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I3" t="s">
         <v>287</v>
@@ -5582,10 +5602,10 @@
         <v>338</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z3" t="s">
         <v>117</v>
@@ -5597,7 +5617,7 @@
         <v>119</v>
       </c>
       <c r="AC3" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AD3" t="s">
         <v>120</v>
@@ -5623,7 +5643,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -5635,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H4:H35" si="0">IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -5675,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="10">
-        <f>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</f>
+        <f t="shared" ref="U4:U35" si="1">J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</f>
         <v>-5</v>
       </c>
       <c r="V4" s="8">
@@ -5721,7 +5741,7 @@
         <v>148</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -5733,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>IF(AND(U5&gt;=13,U5&lt;=16),5,IF(AND(U5&gt;=9,U5&lt;=12),4,IF(AND(U5&gt;=5,U5&lt;=8),3,IF(AND(U5&gt;=1,U5&lt;=4),2,IF(AND(U5&gt;=-3,U5&lt;=0),1,IF(AND(U5&gt;=-5,U5&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
@@ -5773,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="10">
-        <f>J5+K5-100+L5+ SUM(N5:T5)*5+IF(ISNUMBER(Y5),Y5,0)+X5</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V5" s="8">
@@ -5819,7 +5839,7 @@
         <v>149</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -5831,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>IF(AND(U6&gt;=13,U6&lt;=16),5,IF(AND(U6&gt;=9,U6&lt;=12),4,IF(AND(U6&gt;=5,U6&lt;=8),3,IF(AND(U6&gt;=1,U6&lt;=4),2,IF(AND(U6&gt;=-3,U6&lt;=0),1,IF(AND(U6&gt;=-5,U6&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
@@ -5871,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="10">
-        <f>J6+K6-100+L6+ SUM(N6:T6)*5+IF(ISNUMBER(Y6),Y6,0)+X6</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V6" s="8">
@@ -5917,7 +5937,7 @@
         <v>150</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -5929,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>IF(AND(U7&gt;=13,U7&lt;=16),5,IF(AND(U7&gt;=9,U7&lt;=12),4,IF(AND(U7&gt;=5,U7&lt;=8),3,IF(AND(U7&gt;=1,U7&lt;=4),2,IF(AND(U7&gt;=-3,U7&lt;=0),1,IF(AND(U7&gt;=-5,U7&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
@@ -5969,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="10">
-        <f>J7+K7-100+L7+ SUM(N7:T7)*5+IF(ISNUMBER(Y7),Y7,0)+X7</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V7" s="8">
@@ -6015,7 +6035,7 @@
         <v>272</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -6027,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>IF(AND(U8&gt;=13,U8&lt;=16),5,IF(AND(U8&gt;=9,U8&lt;=12),4,IF(AND(U8&gt;=5,U8&lt;=8),3,IF(AND(U8&gt;=1,U8&lt;=4),2,IF(AND(U8&gt;=-3,U8&lt;=0),1,IF(AND(U8&gt;=-5,U8&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="15">
@@ -6067,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="18">
-        <f>J8+K8-100+L8+ SUM(N8:T8)*5+IF(ISNUMBER(Y8),Y8,0)+X8</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V8" s="8">
@@ -6113,7 +6133,7 @@
         <v>152</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -6125,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>IF(AND(U9&gt;=13,U9&lt;=16),5,IF(AND(U9&gt;=9,U9&lt;=12),4,IF(AND(U9&gt;=5,U9&lt;=8),3,IF(AND(U9&gt;=1,U9&lt;=4),2,IF(AND(U9&gt;=-3,U9&lt;=0),1,IF(AND(U9&gt;=-5,U9&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
@@ -6165,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="10">
-        <f>J9+K9-100+L9+ SUM(N9:T9)*5+IF(ISNUMBER(Y9),Y9,0)+X9</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="V9" s="8">
@@ -6211,7 +6231,7 @@
         <v>153</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -6223,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>IF(AND(U10&gt;=13,U10&lt;=16),5,IF(AND(U10&gt;=9,U10&lt;=12),4,IF(AND(U10&gt;=5,U10&lt;=8),3,IF(AND(U10&gt;=1,U10&lt;=4),2,IF(AND(U10&gt;=-3,U10&lt;=0),1,IF(AND(U10&gt;=-5,U10&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
@@ -6263,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="10">
-        <f>J10+K10-100+L10+ SUM(N10:T10)*5+IF(ISNUMBER(Y10),Y10,0)+X10</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V10" s="8">
@@ -6309,7 +6329,7 @@
         <v>154</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E11" s="4">
         <v>4</v>
@@ -6321,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>IF(AND(U11&gt;=13,U11&lt;=16),5,IF(AND(U11&gt;=9,U11&lt;=12),4,IF(AND(U11&gt;=5,U11&lt;=8),3,IF(AND(U11&gt;=1,U11&lt;=4),2,IF(AND(U11&gt;=-3,U11&lt;=0),1,IF(AND(U11&gt;=-5,U11&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
@@ -6361,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="18">
-        <f>J11+K11-100+L11+ SUM(N11:T11)*5+IF(ISNUMBER(Y11),Y11,0)+X11</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V11" s="8">
@@ -6417,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>IF(AND(U12&gt;=13,U12&lt;=16),5,IF(AND(U12&gt;=9,U12&lt;=12),4,IF(AND(U12&gt;=5,U12&lt;=8),3,IF(AND(U12&gt;=1,U12&lt;=4),2,IF(AND(U12&gt;=-3,U12&lt;=0),1,IF(AND(U12&gt;=-5,U12&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
@@ -6457,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="18">
-        <f>J12+K12-100+L12+ SUM(N12:T12)*5+IF(ISNUMBER(Y12),Y12,0)+X12</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V12" s="8">
@@ -6507,7 +6527,7 @@
         <v>156</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -6519,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>IF(AND(U13&gt;=13,U13&lt;=16),5,IF(AND(U13&gt;=9,U13&lt;=12),4,IF(AND(U13&gt;=5,U13&lt;=8),3,IF(AND(U13&gt;=1,U13&lt;=4),2,IF(AND(U13&gt;=-3,U13&lt;=0),1,IF(AND(U13&gt;=-5,U13&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I13" s="4">
@@ -6559,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="10">
-        <f>J13+K13-100+L13+ SUM(N13:T13)*5+IF(ISNUMBER(Y13),Y13,0)+X13</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V13" s="8">
@@ -6609,7 +6629,7 @@
         <v>157</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -6621,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>IF(AND(U14&gt;=13,U14&lt;=16),5,IF(AND(U14&gt;=9,U14&lt;=12),4,IF(AND(U14&gt;=5,U14&lt;=8),3,IF(AND(U14&gt;=1,U14&lt;=4),2,IF(AND(U14&gt;=-3,U14&lt;=0),1,IF(AND(U14&gt;=-5,U14&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I14" s="4">
@@ -6661,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="18">
-        <f>J14+K14-100+L14+ SUM(N14:T14)*5+IF(ISNUMBER(Y14),Y14,0)+X14</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V14" s="8">
@@ -6711,7 +6731,7 @@
         <v>158</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -6723,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>IF(AND(U15&gt;=13,U15&lt;=16),5,IF(AND(U15&gt;=9,U15&lt;=12),4,IF(AND(U15&gt;=5,U15&lt;=8),3,IF(AND(U15&gt;=1,U15&lt;=4),2,IF(AND(U15&gt;=-3,U15&lt;=0),1,IF(AND(U15&gt;=-5,U15&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I15" s="4">
@@ -6763,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="10">
-        <f>J15+K15-100+L15+ SUM(N15:T15)*5+IF(ISNUMBER(Y15),Y15,0)+X15</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V15" s="8">
@@ -6813,7 +6833,7 @@
         <v>159</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -6825,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>IF(AND(U16&gt;=13,U16&lt;=16),5,IF(AND(U16&gt;=9,U16&lt;=12),4,IF(AND(U16&gt;=5,U16&lt;=8),3,IF(AND(U16&gt;=1,U16&lt;=4),2,IF(AND(U16&gt;=-3,U16&lt;=0),1,IF(AND(U16&gt;=-5,U16&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I16" s="4">
@@ -6865,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="10">
-        <f>J16+K16-100+L16+ SUM(N16:T16)*5+IF(ISNUMBER(Y16),Y16,0)+X16</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V16" s="8">
@@ -6915,7 +6935,7 @@
         <v>162</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -6927,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>IF(AND(U17&gt;=13,U17&lt;=16),5,IF(AND(U17&gt;=9,U17&lt;=12),4,IF(AND(U17&gt;=5,U17&lt;=8),3,IF(AND(U17&gt;=1,U17&lt;=4),2,IF(AND(U17&gt;=-3,U17&lt;=0),1,IF(AND(U17&gt;=-5,U17&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I17" s="4">
@@ -6967,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="18">
-        <f>J17+K17-100+L17+ SUM(N17:T17)*5+IF(ISNUMBER(Y17),Y17,0)+X17</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V17" s="8">
@@ -7017,7 +7037,7 @@
         <v>161</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -7029,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>IF(AND(U18&gt;=13,U18&lt;=16),5,IF(AND(U18&gt;=9,U18&lt;=12),4,IF(AND(U18&gt;=5,U18&lt;=8),3,IF(AND(U18&gt;=1,U18&lt;=4),2,IF(AND(U18&gt;=-3,U18&lt;=0),1,IF(AND(U18&gt;=-5,U18&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I18" s="4">
@@ -7069,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="10">
-        <f>J18+K18-100+L18+ SUM(N18:T18)*5+IF(ISNUMBER(Y18),Y18,0)+X18</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V18" s="8">
@@ -7119,7 +7139,7 @@
         <v>284</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E19" s="15">
         <v>3</v>
@@ -7131,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f>IF(AND(U19&gt;=13,U19&lt;=16),5,IF(AND(U19&gt;=9,U19&lt;=12),4,IF(AND(U19&gt;=5,U19&lt;=8),3,IF(AND(U19&gt;=1,U19&lt;=4),2,IF(AND(U19&gt;=-3,U19&lt;=0),1,IF(AND(U19&gt;=-5,U19&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I19" s="15">
@@ -7171,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="18">
-        <f>J19+K19-100+L19+ SUM(N19:T19)*5+IF(ISNUMBER(Y19),Y19,0)+X19</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="V19" s="8">
@@ -7221,7 +7241,7 @@
         <v>160</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -7233,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>IF(AND(U20&gt;=13,U20&lt;=16),5,IF(AND(U20&gt;=9,U20&lt;=12),4,IF(AND(U20&gt;=5,U20&lt;=8),3,IF(AND(U20&gt;=1,U20&lt;=4),2,IF(AND(U20&gt;=-3,U20&lt;=0),1,IF(AND(U20&gt;=-5,U20&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I20" s="4">
@@ -7273,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="10">
-        <f>J20+K20-100+L20+ SUM(N20:T20)*5+IF(ISNUMBER(Y20),Y20,0)+X20</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V20" s="8">
@@ -7325,7 +7345,7 @@
         <v>281</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -7337,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>IF(AND(U21&gt;=13,U21&lt;=16),5,IF(AND(U21&gt;=9,U21&lt;=12),4,IF(AND(U21&gt;=5,U21&lt;=8),3,IF(AND(U21&gt;=1,U21&lt;=4),2,IF(AND(U21&gt;=-3,U21&lt;=0),1,IF(AND(U21&gt;=-5,U21&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="15">
@@ -7377,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="18">
-        <f>J21+K21-100+L21+ SUM(N21:T21)*5+IF(ISNUMBER(Y21),Y21,0)+X21</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="V21" s="8">
@@ -7433,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>IF(AND(U22&gt;=13,U22&lt;=16),5,IF(AND(U22&gt;=9,U22&lt;=12),4,IF(AND(U22&gt;=5,U22&lt;=8),3,IF(AND(U22&gt;=1,U22&lt;=4),2,IF(AND(U22&gt;=-3,U22&lt;=0),1,IF(AND(U22&gt;=-5,U22&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I22" s="4">
@@ -7473,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="10">
-        <f>J22+K22-100+L22+ SUM(N22:T22)*5+IF(ISNUMBER(Y22),Y22,0)+X22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V22" s="8">
@@ -7521,7 +7541,7 @@
         <v>164</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -7533,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>IF(AND(U23&gt;=13,U23&lt;=16),5,IF(AND(U23&gt;=9,U23&lt;=12),4,IF(AND(U23&gt;=5,U23&lt;=8),3,IF(AND(U23&gt;=1,U23&lt;=4),2,IF(AND(U23&gt;=-3,U23&lt;=0),1,IF(AND(U23&gt;=-5,U23&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="4">
@@ -7573,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="10">
-        <f>J23+K23-100+L23+ SUM(N23:T23)*5+IF(ISNUMBER(Y23),Y23,0)+X23</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V23" s="8">
@@ -7619,7 +7639,7 @@
         <v>165</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E24" s="4">
         <v>3</v>
@@ -7631,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>IF(AND(U24&gt;=13,U24&lt;=16),5,IF(AND(U24&gt;=9,U24&lt;=12),4,IF(AND(U24&gt;=5,U24&lt;=8),3,IF(AND(U24&gt;=1,U24&lt;=4),2,IF(AND(U24&gt;=-3,U24&lt;=0),1,IF(AND(U24&gt;=-5,U24&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I24" s="4">
@@ -7671,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="10">
-        <f>J24+K24-100+L24+ SUM(N24:T24)*5+IF(ISNUMBER(Y24),Y24,0)+X24</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V24" s="8">
@@ -7717,7 +7737,7 @@
         <v>166</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -7729,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>IF(AND(U25&gt;=13,U25&lt;=16),5,IF(AND(U25&gt;=9,U25&lt;=12),4,IF(AND(U25&gt;=5,U25&lt;=8),3,IF(AND(U25&gt;=1,U25&lt;=4),2,IF(AND(U25&gt;=-3,U25&lt;=0),1,IF(AND(U25&gt;=-5,U25&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="4">
@@ -7769,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="10">
-        <f>J25+K25-100+L25+ SUM(N25:T25)*5+IF(ISNUMBER(Y25),Y25,0)+X25</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="V25" s="8">
@@ -7827,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>IF(AND(U26&gt;=13,U26&lt;=16),5,IF(AND(U26&gt;=9,U26&lt;=12),4,IF(AND(U26&gt;=5,U26&lt;=8),3,IF(AND(U26&gt;=1,U26&lt;=4),2,IF(AND(U26&gt;=-3,U26&lt;=0),1,IF(AND(U26&gt;=-5,U26&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I26" s="15">
@@ -7867,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="10">
-        <f>J26+K26-100+L26+ SUM(N26:T26)*5+IF(ISNUMBER(Y26),Y26,0)+X26</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="V26" s="8">
@@ -7915,7 +7935,7 @@
         <v>167</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -7927,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>IF(AND(U27&gt;=13,U27&lt;=16),5,IF(AND(U27&gt;=9,U27&lt;=12),4,IF(AND(U27&gt;=5,U27&lt;=8),3,IF(AND(U27&gt;=1,U27&lt;=4),2,IF(AND(U27&gt;=-3,U27&lt;=0),1,IF(AND(U27&gt;=-5,U27&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I27" s="4">
@@ -7967,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="10">
-        <f>J27+K27-100+L27+ SUM(N27:T27)*5+IF(ISNUMBER(Y27),Y27,0)+X27</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="V27" s="8">
@@ -8029,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>IF(AND(U28&gt;=13,U28&lt;=16),5,IF(AND(U28&gt;=9,U28&lt;=12),4,IF(AND(U28&gt;=5,U28&lt;=8),3,IF(AND(U28&gt;=1,U28&lt;=4),2,IF(AND(U28&gt;=-3,U28&lt;=0),1,IF(AND(U28&gt;=-5,U28&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I28" s="15">
@@ -8069,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="18">
-        <f>J28+K28-100+L28+ SUM(N28:T28)*5+IF(ISNUMBER(Y28),Y28,0)+X28</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V28" s="8">
@@ -8117,7 +8137,7 @@
         <v>168</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -8129,7 +8149,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="4">
-        <f>IF(AND(U29&gt;=13,U29&lt;=16),5,IF(AND(U29&gt;=9,U29&lt;=12),4,IF(AND(U29&gt;=5,U29&lt;=8),3,IF(AND(U29&gt;=1,U29&lt;=4),2,IF(AND(U29&gt;=-3,U29&lt;=0),1,IF(AND(U29&gt;=-5,U29&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I29" s="4">
@@ -8169,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="10">
-        <f>J29+K29-100+L29+ SUM(N29:T29)*5+IF(ISNUMBER(Y29),Y29,0)+X29</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V29" s="8">
@@ -8219,7 +8239,7 @@
         <v>169</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -8231,7 +8251,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="4">
-        <f>IF(AND(U30&gt;=13,U30&lt;=16),5,IF(AND(U30&gt;=9,U30&lt;=12),4,IF(AND(U30&gt;=5,U30&lt;=8),3,IF(AND(U30&gt;=1,U30&lt;=4),2,IF(AND(U30&gt;=-3,U30&lt;=0),1,IF(AND(U30&gt;=-5,U30&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I30" s="4">
@@ -8271,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="18">
-        <f>J30+K30-100+L30+ SUM(N30:T30)*5+IF(ISNUMBER(Y30),Y30,0)+X30</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V30" s="8">
@@ -8321,7 +8341,7 @@
         <v>170</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -8333,7 +8353,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="4">
-        <f>IF(AND(U31&gt;=13,U31&lt;=16),5,IF(AND(U31&gt;=9,U31&lt;=12),4,IF(AND(U31&gt;=5,U31&lt;=8),3,IF(AND(U31&gt;=1,U31&lt;=4),2,IF(AND(U31&gt;=-3,U31&lt;=0),1,IF(AND(U31&gt;=-5,U31&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I31" s="4">
@@ -8373,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="10">
-        <f>J31+K31-100+L31+ SUM(N31:T31)*5+IF(ISNUMBER(Y31),Y31,0)+X31</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V31" s="8">
@@ -8423,7 +8443,7 @@
         <v>173</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -8435,7 +8455,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="4">
-        <f>IF(AND(U32&gt;=13,U32&lt;=16),5,IF(AND(U32&gt;=9,U32&lt;=12),4,IF(AND(U32&gt;=5,U32&lt;=8),3,IF(AND(U32&gt;=1,U32&lt;=4),2,IF(AND(U32&gt;=-3,U32&lt;=0),1,IF(AND(U32&gt;=-5,U32&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I32" s="4">
@@ -8475,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="10">
-        <f>J32+K32-100+L32+ SUM(N32:T32)*5+IF(ISNUMBER(Y32),Y32,0)+X32</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V32" s="8">
@@ -8525,7 +8545,7 @@
         <v>172</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -8537,7 +8557,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="4">
-        <f>IF(AND(U33&gt;=13,U33&lt;=16),5,IF(AND(U33&gt;=9,U33&lt;=12),4,IF(AND(U33&gt;=5,U33&lt;=8),3,IF(AND(U33&gt;=1,U33&lt;=4),2,IF(AND(U33&gt;=-3,U33&lt;=0),1,IF(AND(U33&gt;=-5,U33&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I33" s="4">
@@ -8577,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="10">
-        <f>J33+K33-100+L33+ SUM(N33:T33)*5+IF(ISNUMBER(Y33),Y33,0)+X33</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V33" s="8">
@@ -8627,7 +8647,7 @@
         <v>171</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -8639,7 +8659,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="4">
-        <f>IF(AND(U34&gt;=13,U34&lt;=16),5,IF(AND(U34&gt;=9,U34&lt;=12),4,IF(AND(U34&gt;=5,U34&lt;=8),3,IF(AND(U34&gt;=1,U34&lt;=4),2,IF(AND(U34&gt;=-3,U34&lt;=0),1,IF(AND(U34&gt;=-5,U34&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I34" s="4">
@@ -8679,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="10">
-        <f>J34+K34-100+L34+ SUM(N34:T34)*5+IF(ISNUMBER(Y34),Y34,0)+X34</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="V34" s="8">
@@ -8729,7 +8749,7 @@
         <v>278</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E35" s="15">
         <v>3</v>
@@ -8741,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <f>IF(AND(U35&gt;=13,U35&lt;=16),5,IF(AND(U35&gt;=9,U35&lt;=12),4,IF(AND(U35&gt;=5,U35&lt;=8),3,IF(AND(U35&gt;=1,U35&lt;=4),2,IF(AND(U35&gt;=-3,U35&lt;=0),1,IF(AND(U35&gt;=-5,U35&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I35" s="15">
@@ -8781,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="18">
-        <f>J35+K35-100+L35+ SUM(N35:T35)*5+IF(ISNUMBER(Y35),Y35,0)+X35</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V35" s="8">
@@ -8843,7 +8863,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="4">
-        <f>IF(AND(U36&gt;=13,U36&lt;=16),5,IF(AND(U36&gt;=9,U36&lt;=12),4,IF(AND(U36&gt;=5,U36&lt;=8),3,IF(AND(U36&gt;=1,U36&lt;=4),2,IF(AND(U36&gt;=-3,U36&lt;=0),1,IF(AND(U36&gt;=-5,U36&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H36:H67" si="2">IF(AND(U36&gt;=13,U36&lt;=16),5,IF(AND(U36&gt;=9,U36&lt;=12),4,IF(AND(U36&gt;=5,U36&lt;=8),3,IF(AND(U36&gt;=1,U36&lt;=4),2,IF(AND(U36&gt;=-3,U36&lt;=0),1,IF(AND(U36&gt;=-5,U36&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I36" s="4">
@@ -8883,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="10">
-        <f>J36+K36-100+L36+ SUM(N36:T36)*5+IF(ISNUMBER(Y36),Y36,0)+X36</f>
+        <f t="shared" ref="U36:U67" si="3">J36+K36-100+L36+ SUM(N36:T36)*5+IF(ISNUMBER(Y36),Y36,0)+X36</f>
         <v>0</v>
       </c>
       <c r="V36" s="8">
@@ -8939,7 +8959,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="4">
-        <f>IF(AND(U37&gt;=13,U37&lt;=16),5,IF(AND(U37&gt;=9,U37&lt;=12),4,IF(AND(U37&gt;=5,U37&lt;=8),3,IF(AND(U37&gt;=1,U37&lt;=4),2,IF(AND(U37&gt;=-3,U37&lt;=0),1,IF(AND(U37&gt;=-5,U37&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I37" s="4">
@@ -8979,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="10">
-        <f>J37+K37-100+L37+ SUM(N37:T37)*5+IF(ISNUMBER(Y37),Y37,0)+X37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V37" s="8">
@@ -9037,7 +9057,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="4">
-        <f>IF(AND(U38&gt;=13,U38&lt;=16),5,IF(AND(U38&gt;=9,U38&lt;=12),4,IF(AND(U38&gt;=5,U38&lt;=8),3,IF(AND(U38&gt;=1,U38&lt;=4),2,IF(AND(U38&gt;=-3,U38&lt;=0),1,IF(AND(U38&gt;=-5,U38&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I38" s="4">
@@ -9077,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="10">
-        <f>J38+K38-100+L38+ SUM(N38:T38)*5+IF(ISNUMBER(Y38),Y38,0)+X38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V38" s="8">
@@ -9135,7 +9155,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="4">
-        <f>IF(AND(U39&gt;=13,U39&lt;=16),5,IF(AND(U39&gt;=9,U39&lt;=12),4,IF(AND(U39&gt;=5,U39&lt;=8),3,IF(AND(U39&gt;=1,U39&lt;=4),2,IF(AND(U39&gt;=-3,U39&lt;=0),1,IF(AND(U39&gt;=-5,U39&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I39" s="4">
@@ -9175,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="10">
-        <f>J39+K39-100+L39+ SUM(N39:T39)*5+IF(ISNUMBER(Y39),Y39,0)+X39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V39" s="8">
@@ -9221,7 +9241,7 @@
         <v>128</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -9233,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="4">
-        <f>IF(AND(U40&gt;=13,U40&lt;=16),5,IF(AND(U40&gt;=9,U40&lt;=12),4,IF(AND(U40&gt;=5,U40&lt;=8),3,IF(AND(U40&gt;=1,U40&lt;=4),2,IF(AND(U40&gt;=-3,U40&lt;=0),1,IF(AND(U40&gt;=-5,U40&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I40" s="4">
@@ -9273,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="10">
-        <f>J40+K40-100+L40+ SUM(N40:T40)*5+IF(ISNUMBER(Y40),Y40,0)+X40</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V40" s="8">
@@ -9325,7 +9345,7 @@
         <v>130</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -9337,7 +9357,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="4">
-        <f>IF(AND(U41&gt;=13,U41&lt;=16),5,IF(AND(U41&gt;=9,U41&lt;=12),4,IF(AND(U41&gt;=5,U41&lt;=8),3,IF(AND(U41&gt;=1,U41&lt;=4),2,IF(AND(U41&gt;=-3,U41&lt;=0),1,IF(AND(U41&gt;=-5,U41&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I41" s="4">
@@ -9377,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="10">
-        <f>J41+K41-100+L41+ SUM(N41:T41)*5+IF(ISNUMBER(Y41),Y41,0)+X41</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="V41" s="8">
@@ -9437,7 +9457,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="4">
-        <f>IF(AND(U42&gt;=13,U42&lt;=16),5,IF(AND(U42&gt;=9,U42&lt;=12),4,IF(AND(U42&gt;=5,U42&lt;=8),3,IF(AND(U42&gt;=1,U42&lt;=4),2,IF(AND(U42&gt;=-3,U42&lt;=0),1,IF(AND(U42&gt;=-5,U42&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I42" s="4">
@@ -9477,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="10">
-        <f>J42+K42-100+L42+ SUM(N42:T42)*5+IF(ISNUMBER(Y42),Y42,0)+X42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V42" s="8">
@@ -9535,7 +9555,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="4">
-        <f>IF(AND(U43&gt;=13,U43&lt;=16),5,IF(AND(U43&gt;=9,U43&lt;=12),4,IF(AND(U43&gt;=5,U43&lt;=8),3,IF(AND(U43&gt;=1,U43&lt;=4),2,IF(AND(U43&gt;=-3,U43&lt;=0),1,IF(AND(U43&gt;=-5,U43&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I43" s="4">
@@ -9575,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="10">
-        <f>J43+K43-100+L43+ SUM(N43:T43)*5+IF(ISNUMBER(Y43),Y43,0)+X43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V43" s="8">
@@ -9631,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f>IF(AND(U44&gt;=13,U44&lt;=16),5,IF(AND(U44&gt;=9,U44&lt;=12),4,IF(AND(U44&gt;=5,U44&lt;=8),3,IF(AND(U44&gt;=1,U44&lt;=4),2,IF(AND(U44&gt;=-3,U44&lt;=0),1,IF(AND(U44&gt;=-5,U44&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I44" s="4">
@@ -9671,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="10">
-        <f>J44+K44-100+L44+ SUM(N44:T44)*5+IF(ISNUMBER(Y44),Y44,0)+X44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V44" s="8">
@@ -9727,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f>IF(AND(U45&gt;=13,U45&lt;=16),5,IF(AND(U45&gt;=9,U45&lt;=12),4,IF(AND(U45&gt;=5,U45&lt;=8),3,IF(AND(U45&gt;=1,U45&lt;=4),2,IF(AND(U45&gt;=-3,U45&lt;=0),1,IF(AND(U45&gt;=-5,U45&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I45" s="4">
@@ -9767,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="10">
-        <f>J45+K45-100+L45+ SUM(N45:T45)*5+IF(ISNUMBER(Y45),Y45,0)+X45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V45" s="8">
@@ -9827,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f>IF(AND(U46&gt;=13,U46&lt;=16),5,IF(AND(U46&gt;=9,U46&lt;=12),4,IF(AND(U46&gt;=5,U46&lt;=8),3,IF(AND(U46&gt;=1,U46&lt;=4),2,IF(AND(U46&gt;=-3,U46&lt;=0),1,IF(AND(U46&gt;=-5,U46&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I46" s="4">
@@ -9867,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="10">
-        <f>J46+K46-100+L46+ SUM(N46:T46)*5+IF(ISNUMBER(Y46),Y46,0)+X46</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="V46" s="8">
@@ -9929,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f>IF(AND(U47&gt;=13,U47&lt;=16),5,IF(AND(U47&gt;=9,U47&lt;=12),4,IF(AND(U47&gt;=5,U47&lt;=8),3,IF(AND(U47&gt;=1,U47&lt;=4),2,IF(AND(U47&gt;=-3,U47&lt;=0),1,IF(AND(U47&gt;=-5,U47&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I47" s="4">
@@ -9969,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="10">
-        <f>J47+K47-100+L47+ SUM(N47:T47)*5+IF(ISNUMBER(Y47),Y47,0)+X47</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="V47" s="8">
@@ -10027,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f>IF(AND(U48&gt;=13,U48&lt;=16),5,IF(AND(U48&gt;=9,U48&lt;=12),4,IF(AND(U48&gt;=5,U48&lt;=8),3,IF(AND(U48&gt;=1,U48&lt;=4),2,IF(AND(U48&gt;=-3,U48&lt;=0),1,IF(AND(U48&gt;=-5,U48&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I48" s="4">
@@ -10067,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="10">
-        <f>J48+K48-100+L48+ SUM(N48:T48)*5+IF(ISNUMBER(Y48),Y48,0)+X48</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="V48" s="8">
@@ -10127,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f>IF(AND(U49&gt;=13,U49&lt;=16),5,IF(AND(U49&gt;=9,U49&lt;=12),4,IF(AND(U49&gt;=5,U49&lt;=8),3,IF(AND(U49&gt;=1,U49&lt;=4),2,IF(AND(U49&gt;=-3,U49&lt;=0),1,IF(AND(U49&gt;=-5,U49&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I49" s="4">
@@ -10167,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="10">
-        <f>J49+K49-100+L49+ SUM(N49:T49)*5+IF(ISNUMBER(Y49),Y49,0)+X49</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V49" s="8">
@@ -10223,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f>IF(AND(U50&gt;=13,U50&lt;=16),5,IF(AND(U50&gt;=9,U50&lt;=12),4,IF(AND(U50&gt;=5,U50&lt;=8),3,IF(AND(U50&gt;=1,U50&lt;=4),2,IF(AND(U50&gt;=-3,U50&lt;=0),1,IF(AND(U50&gt;=-5,U50&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I50" s="4">
@@ -10263,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="10">
-        <f>J50+K50-100+L50+ SUM(N50:T50)*5+IF(ISNUMBER(Y50),Y50,0)+X50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V50" s="8">
@@ -10319,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f>IF(AND(U51&gt;=13,U51&lt;=16),5,IF(AND(U51&gt;=9,U51&lt;=12),4,IF(AND(U51&gt;=5,U51&lt;=8),3,IF(AND(U51&gt;=1,U51&lt;=4),2,IF(AND(U51&gt;=-3,U51&lt;=0),1,IF(AND(U51&gt;=-5,U51&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I51" s="4">
@@ -10359,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="10">
-        <f>J51+K51-100+L51+ SUM(N51:T51)*5+IF(ISNUMBER(Y51),Y51,0)+X51</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V51" s="8">
@@ -10421,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f>IF(AND(U52&gt;=13,U52&lt;=16),5,IF(AND(U52&gt;=9,U52&lt;=12),4,IF(AND(U52&gt;=5,U52&lt;=8),3,IF(AND(U52&gt;=1,U52&lt;=4),2,IF(AND(U52&gt;=-3,U52&lt;=0),1,IF(AND(U52&gt;=-5,U52&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I52" s="4">
@@ -10461,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="10">
-        <f>J52+K52-100+L52+ SUM(N52:T52)*5+IF(ISNUMBER(Y52),Y52,0)+X52</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V52" s="8">
@@ -10517,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f>IF(AND(U53&gt;=13,U53&lt;=16),5,IF(AND(U53&gt;=9,U53&lt;=12),4,IF(AND(U53&gt;=5,U53&lt;=8),3,IF(AND(U53&gt;=1,U53&lt;=4),2,IF(AND(U53&gt;=-3,U53&lt;=0),1,IF(AND(U53&gt;=-5,U53&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I53" s="4">
@@ -10557,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="10">
-        <f>J53+K53-100+L53+ SUM(N53:T53)*5+IF(ISNUMBER(Y53),Y53,0)+X53</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V53" s="8">
@@ -10613,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f>IF(AND(U54&gt;=13,U54&lt;=16),5,IF(AND(U54&gt;=9,U54&lt;=12),4,IF(AND(U54&gt;=5,U54&lt;=8),3,IF(AND(U54&gt;=1,U54&lt;=4),2,IF(AND(U54&gt;=-3,U54&lt;=0),1,IF(AND(U54&gt;=-5,U54&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I54" s="4">
@@ -10653,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="10">
-        <f>J54+K54-100+L54+ SUM(N54:T54)*5+IF(ISNUMBER(Y54),Y54,0)+X54</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="V54" s="8">
@@ -10701,7 +10721,7 @@
         <v>189</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -10713,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f>IF(AND(U55&gt;=13,U55&lt;=16),5,IF(AND(U55&gt;=9,U55&lt;=12),4,IF(AND(U55&gt;=5,U55&lt;=8),3,IF(AND(U55&gt;=1,U55&lt;=4),2,IF(AND(U55&gt;=-3,U55&lt;=0),1,IF(AND(U55&gt;=-5,U55&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I55" s="4">
@@ -10753,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="10">
-        <f>J55+K55-100+L55+ SUM(N55:T55)*5+IF(ISNUMBER(Y55),Y55,0)+X55</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="V55" s="8">
@@ -10809,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f>IF(AND(U56&gt;=13,U56&lt;=16),5,IF(AND(U56&gt;=9,U56&lt;=12),4,IF(AND(U56&gt;=5,U56&lt;=8),3,IF(AND(U56&gt;=1,U56&lt;=4),2,IF(AND(U56&gt;=-3,U56&lt;=0),1,IF(AND(U56&gt;=-5,U56&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I56" s="4">
@@ -10849,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="10">
-        <f>J56+K56-100+L56+ SUM(N56:T56)*5+IF(ISNUMBER(Y56),Y56,0)+X56</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V56" s="8">
@@ -10907,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <f>IF(AND(U57&gt;=13,U57&lt;=16),5,IF(AND(U57&gt;=9,U57&lt;=12),4,IF(AND(U57&gt;=5,U57&lt;=8),3,IF(AND(U57&gt;=1,U57&lt;=4),2,IF(AND(U57&gt;=-3,U57&lt;=0),1,IF(AND(U57&gt;=-5,U57&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I57" s="4">
@@ -10947,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="10">
-        <f>J57+K57-100+L57+ SUM(N57:T57)*5+IF(ISNUMBER(Y57),Y57,0)+X57</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V57" s="8">
@@ -11003,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f>IF(AND(U58&gt;=13,U58&lt;=16),5,IF(AND(U58&gt;=9,U58&lt;=12),4,IF(AND(U58&gt;=5,U58&lt;=8),3,IF(AND(U58&gt;=1,U58&lt;=4),2,IF(AND(U58&gt;=-3,U58&lt;=0),1,IF(AND(U58&gt;=-5,U58&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I58" s="4">
@@ -11043,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="10">
-        <f>J58+K58-100+L58+ SUM(N58:T58)*5+IF(ISNUMBER(Y58),Y58,0)+X58</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V58" s="8">
@@ -11101,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f>IF(AND(U59&gt;=13,U59&lt;=16),5,IF(AND(U59&gt;=9,U59&lt;=12),4,IF(AND(U59&gt;=5,U59&lt;=8),3,IF(AND(U59&gt;=1,U59&lt;=4),2,IF(AND(U59&gt;=-3,U59&lt;=0),1,IF(AND(U59&gt;=-5,U59&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I59" s="4">
@@ -11141,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="10">
-        <f>J59+K59-100+L59+ SUM(N59:T59)*5+IF(ISNUMBER(Y59),Y59,0)+X59</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="V59" s="8">
@@ -11199,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <f>IF(AND(U60&gt;=13,U60&lt;=16),5,IF(AND(U60&gt;=9,U60&lt;=12),4,IF(AND(U60&gt;=5,U60&lt;=8),3,IF(AND(U60&gt;=1,U60&lt;=4),2,IF(AND(U60&gt;=-3,U60&lt;=0),1,IF(AND(U60&gt;=-5,U60&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I60" s="4">
@@ -11239,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="10">
-        <f>J60+K60-100+L60+ SUM(N60:T60)*5+IF(ISNUMBER(Y60),Y60,0)+X60</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="V60" s="8">
@@ -11285,7 +11305,7 @@
         <v>134</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -11297,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <f>IF(AND(U61&gt;=13,U61&lt;=16),5,IF(AND(U61&gt;=9,U61&lt;=12),4,IF(AND(U61&gt;=5,U61&lt;=8),3,IF(AND(U61&gt;=1,U61&lt;=4),2,IF(AND(U61&gt;=-3,U61&lt;=0),1,IF(AND(U61&gt;=-5,U61&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I61" s="4">
@@ -11337,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="10">
-        <f>J61+K61-100+L61+ SUM(N61:T61)*5+IF(ISNUMBER(Y61),Y61,0)+X61</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="V61" s="8">
@@ -11387,7 +11407,7 @@
         <v>195</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E62" s="4">
         <v>3</v>
@@ -11399,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f>IF(AND(U62&gt;=13,U62&lt;=16),5,IF(AND(U62&gt;=9,U62&lt;=12),4,IF(AND(U62&gt;=5,U62&lt;=8),3,IF(AND(U62&gt;=1,U62&lt;=4),2,IF(AND(U62&gt;=-3,U62&lt;=0),1,IF(AND(U62&gt;=-5,U62&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I62" s="4">
@@ -11439,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="10">
-        <f>J62+K62-100+L62+ SUM(N62:T62)*5+IF(ISNUMBER(Y62),Y62,0)+X62</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="V62" s="8">
@@ -11501,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <f>IF(AND(U63&gt;=13,U63&lt;=16),5,IF(AND(U63&gt;=9,U63&lt;=12),4,IF(AND(U63&gt;=5,U63&lt;=8),3,IF(AND(U63&gt;=1,U63&lt;=4),2,IF(AND(U63&gt;=-3,U63&lt;=0),1,IF(AND(U63&gt;=-5,U63&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I63" s="4">
@@ -11541,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="10">
-        <f>J63+K63-100+L63+ SUM(N63:T63)*5+IF(ISNUMBER(Y63),Y63,0)+X63</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V63" s="8">
@@ -11601,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <f>IF(AND(U64&gt;=13,U64&lt;=16),5,IF(AND(U64&gt;=9,U64&lt;=12),4,IF(AND(U64&gt;=5,U64&lt;=8),3,IF(AND(U64&gt;=1,U64&lt;=4),2,IF(AND(U64&gt;=-3,U64&lt;=0),1,IF(AND(U64&gt;=-5,U64&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I64" s="4">
@@ -11641,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="10">
-        <f>J64+K64-100+L64+ SUM(N64:T64)*5+IF(ISNUMBER(Y64),Y64,0)+X64</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="V64" s="8">
@@ -11701,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <f>IF(AND(U65&gt;=13,U65&lt;=16),5,IF(AND(U65&gt;=9,U65&lt;=12),4,IF(AND(U65&gt;=5,U65&lt;=8),3,IF(AND(U65&gt;=1,U65&lt;=4),2,IF(AND(U65&gt;=-3,U65&lt;=0),1,IF(AND(U65&gt;=-5,U65&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I65" s="4">
@@ -11741,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="10">
-        <f>J65+K65-100+L65+ SUM(N65:T65)*5+IF(ISNUMBER(Y65),Y65,0)+X65</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="V65" s="8">
@@ -11793,7 +11813,7 @@
         <v>199</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -11805,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <f>IF(AND(U66&gt;=13,U66&lt;=16),5,IF(AND(U66&gt;=9,U66&lt;=12),4,IF(AND(U66&gt;=5,U66&lt;=8),3,IF(AND(U66&gt;=1,U66&lt;=4),2,IF(AND(U66&gt;=-3,U66&lt;=0),1,IF(AND(U66&gt;=-5,U66&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I66" s="4">
@@ -11845,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="10">
-        <f>J66+K66-100+L66+ SUM(N66:T66)*5+IF(ISNUMBER(Y66),Y66,0)+X66</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="V66" s="8">
@@ -11900,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <f>IF(AND(U67&gt;=13,U67&lt;=16),5,IF(AND(U67&gt;=9,U67&lt;=12),4,IF(AND(U67&gt;=5,U67&lt;=8),3,IF(AND(U67&gt;=1,U67&lt;=4),2,IF(AND(U67&gt;=-3,U67&lt;=0),1,IF(AND(U67&gt;=-5,U67&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I67" s="4">
@@ -11940,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="10">
-        <f>J67+K67-100+L67+ SUM(N67:T67)*5+IF(ISNUMBER(Y67),Y67,0)+X67</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V67" s="8">
@@ -11995,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f>IF(AND(U68&gt;=13,U68&lt;=16),5,IF(AND(U68&gt;=9,U68&lt;=12),4,IF(AND(U68&gt;=5,U68&lt;=8),3,IF(AND(U68&gt;=1,U68&lt;=4),2,IF(AND(U68&gt;=-3,U68&lt;=0),1,IF(AND(U68&gt;=-5,U68&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H68:H99" si="4">IF(AND(U68&gt;=13,U68&lt;=16),5,IF(AND(U68&gt;=9,U68&lt;=12),4,IF(AND(U68&gt;=5,U68&lt;=8),3,IF(AND(U68&gt;=1,U68&lt;=4),2,IF(AND(U68&gt;=-3,U68&lt;=0),1,IF(AND(U68&gt;=-5,U68&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I68" s="4">
@@ -12035,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="10">
-        <f>J68+K68-100+L68+ SUM(N68:T68)*5+IF(ISNUMBER(Y68),Y68,0)+X68</f>
+        <f t="shared" ref="U68:U99" si="5">J68+K68-100+L68+ SUM(N68:T68)*5+IF(ISNUMBER(Y68),Y68,0)+X68</f>
         <v>-1</v>
       </c>
       <c r="V68" s="8">
@@ -12092,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f>IF(AND(U69&gt;=13,U69&lt;=16),5,IF(AND(U69&gt;=9,U69&lt;=12),4,IF(AND(U69&gt;=5,U69&lt;=8),3,IF(AND(U69&gt;=1,U69&lt;=4),2,IF(AND(U69&gt;=-3,U69&lt;=0),1,IF(AND(U69&gt;=-5,U69&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I69" s="4">
@@ -12132,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="10">
-        <f>J69+K69-100+L69+ SUM(N69:T69)*5+IF(ISNUMBER(Y69),Y69,0)+X69</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V69" s="8">
@@ -12188,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <f>IF(AND(U70&gt;=13,U70&lt;=16),5,IF(AND(U70&gt;=9,U70&lt;=12),4,IF(AND(U70&gt;=5,U70&lt;=8),3,IF(AND(U70&gt;=1,U70&lt;=4),2,IF(AND(U70&gt;=-3,U70&lt;=0),1,IF(AND(U70&gt;=-5,U70&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I70" s="4">
@@ -12228,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="10">
-        <f>J70+K70-100+L70+ SUM(N70:T70)*5+IF(ISNUMBER(Y70),Y70,0)+X70</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V70" s="8">
@@ -12284,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f>IF(AND(U71&gt;=13,U71&lt;=16),5,IF(AND(U71&gt;=9,U71&lt;=12),4,IF(AND(U71&gt;=5,U71&lt;=8),3,IF(AND(U71&gt;=1,U71&lt;=4),2,IF(AND(U71&gt;=-3,U71&lt;=0),1,IF(AND(U71&gt;=-5,U71&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I71" s="4">
@@ -12324,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="10">
-        <f>J71+K71-100+L71+ SUM(N71:T71)*5+IF(ISNUMBER(Y71),Y71,0)+X71</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V71" s="8">
@@ -12380,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <f>IF(AND(U72&gt;=13,U72&lt;=16),5,IF(AND(U72&gt;=9,U72&lt;=12),4,IF(AND(U72&gt;=5,U72&lt;=8),3,IF(AND(U72&gt;=1,U72&lt;=4),2,IF(AND(U72&gt;=-3,U72&lt;=0),1,IF(AND(U72&gt;=-5,U72&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I72" s="4">
@@ -12420,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="10">
-        <f>J72+K72-100+L72+ SUM(N72:T72)*5+IF(ISNUMBER(Y72),Y72,0)+X72</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V72" s="8">
@@ -12475,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <f>IF(AND(U73&gt;=13,U73&lt;=16),5,IF(AND(U73&gt;=9,U73&lt;=12),4,IF(AND(U73&gt;=5,U73&lt;=8),3,IF(AND(U73&gt;=1,U73&lt;=4),2,IF(AND(U73&gt;=-3,U73&lt;=0),1,IF(AND(U73&gt;=-5,U73&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I73" s="4">
@@ -12515,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="10">
-        <f>J73+K73-100+L73+ SUM(N73:T73)*5+IF(ISNUMBER(Y73),Y73,0)+X73</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V73" s="8">
@@ -12565,7 +12585,7 @@
         <v>236</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E74" s="4">
         <v>4</v>
@@ -12577,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <f>IF(AND(U74&gt;=13,U74&lt;=16),5,IF(AND(U74&gt;=9,U74&lt;=12),4,IF(AND(U74&gt;=5,U74&lt;=8),3,IF(AND(U74&gt;=1,U74&lt;=4),2,IF(AND(U74&gt;=-3,U74&lt;=0),1,IF(AND(U74&gt;=-5,U74&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I74" s="4">
@@ -12617,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="10">
-        <f>J74+K74-100+L74+ SUM(N74:T74)*5+IF(ISNUMBER(Y74),Y74,0)+X74</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V74" s="8">
@@ -12667,7 +12687,7 @@
         <v>207</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E75" s="4">
         <v>2</v>
@@ -12679,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <f>IF(AND(U75&gt;=13,U75&lt;=16),5,IF(AND(U75&gt;=9,U75&lt;=12),4,IF(AND(U75&gt;=5,U75&lt;=8),3,IF(AND(U75&gt;=1,U75&lt;=4),2,IF(AND(U75&gt;=-3,U75&lt;=0),1,IF(AND(U75&gt;=-5,U75&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I75" s="4">
@@ -12719,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="10">
-        <f>J75+K75-100+L75+ SUM(N75:T75)*5+IF(ISNUMBER(Y75),Y75,0)+X75</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V75" s="8">
@@ -12779,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <f>IF(AND(U76&gt;=13,U76&lt;=16),5,IF(AND(U76&gt;=9,U76&lt;=12),4,IF(AND(U76&gt;=5,U76&lt;=8),3,IF(AND(U76&gt;=1,U76&lt;=4),2,IF(AND(U76&gt;=-3,U76&lt;=0),1,IF(AND(U76&gt;=-5,U76&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I76" s="4">
@@ -12819,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="10">
-        <f>J76+K76-100+L76+ SUM(N76:T76)*5+IF(ISNUMBER(Y76),Y76,0)+X76</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="V76" s="8">
@@ -12869,7 +12889,7 @@
         <v>208</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E77" s="4">
         <v>2</v>
@@ -12881,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <f>IF(AND(U77&gt;=13,U77&lt;=16),5,IF(AND(U77&gt;=9,U77&lt;=12),4,IF(AND(U77&gt;=5,U77&lt;=8),3,IF(AND(U77&gt;=1,U77&lt;=4),2,IF(AND(U77&gt;=-3,U77&lt;=0),1,IF(AND(U77&gt;=-5,U77&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I77" s="4">
@@ -12921,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="10">
-        <f>J77+K77-100+L77+ SUM(N77:T77)*5+IF(ISNUMBER(Y77),Y77,0)+X77</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V77" s="8">
@@ -12971,7 +12991,7 @@
         <v>209</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E78" s="4">
         <v>3</v>
@@ -12983,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <f>IF(AND(U78&gt;=13,U78&lt;=16),5,IF(AND(U78&gt;=9,U78&lt;=12),4,IF(AND(U78&gt;=5,U78&lt;=8),3,IF(AND(U78&gt;=1,U78&lt;=4),2,IF(AND(U78&gt;=-3,U78&lt;=0),1,IF(AND(U78&gt;=-5,U78&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I78" s="4">
@@ -13023,7 +13043,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="10">
-        <f>J78+K78-100+L78+ SUM(N78:T78)*5+IF(ISNUMBER(Y78),Y78,0)+X78</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="V78" s="8">
@@ -13073,7 +13093,7 @@
         <v>210</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E79" s="4">
         <v>3</v>
@@ -13085,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <f>IF(AND(U79&gt;=13,U79&lt;=16),5,IF(AND(U79&gt;=9,U79&lt;=12),4,IF(AND(U79&gt;=5,U79&lt;=8),3,IF(AND(U79&gt;=1,U79&lt;=4),2,IF(AND(U79&gt;=-3,U79&lt;=0),1,IF(AND(U79&gt;=-5,U79&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I79" s="4">
@@ -13125,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="10">
-        <f>J79+K79-100+L79+ SUM(N79:T79)*5+IF(ISNUMBER(Y79),Y79,0)+X79</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V79" s="8">
@@ -13175,7 +13195,7 @@
         <v>211</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E80" s="4">
         <v>3</v>
@@ -13187,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <f>IF(AND(U80&gt;=13,U80&lt;=16),5,IF(AND(U80&gt;=9,U80&lt;=12),4,IF(AND(U80&gt;=5,U80&lt;=8),3,IF(AND(U80&gt;=1,U80&lt;=4),2,IF(AND(U80&gt;=-3,U80&lt;=0),1,IF(AND(U80&gt;=-5,U80&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I80" s="4">
@@ -13227,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="10">
-        <f>J80+K80-100+L80+ SUM(N80:T80)*5+IF(ISNUMBER(Y80),Y80,0)+X80</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="V80" s="8">
@@ -13277,7 +13297,7 @@
         <v>212</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E81" s="4">
         <v>3</v>
@@ -13289,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <f>IF(AND(U81&gt;=13,U81&lt;=16),5,IF(AND(U81&gt;=9,U81&lt;=12),4,IF(AND(U81&gt;=5,U81&lt;=8),3,IF(AND(U81&gt;=1,U81&lt;=4),2,IF(AND(U81&gt;=-3,U81&lt;=0),1,IF(AND(U81&gt;=-5,U81&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I81" s="4">
@@ -13329,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="10">
-        <f>J81+K81-100+L81+ SUM(N81:T81)*5+IF(ISNUMBER(Y81),Y81,0)+X81</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="V81" s="8">
@@ -13379,7 +13399,7 @@
         <v>213</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E82" s="4">
         <v>2</v>
@@ -13391,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <f>IF(AND(U82&gt;=13,U82&lt;=16),5,IF(AND(U82&gt;=9,U82&lt;=12),4,IF(AND(U82&gt;=5,U82&lt;=8),3,IF(AND(U82&gt;=1,U82&lt;=4),2,IF(AND(U82&gt;=-3,U82&lt;=0),1,IF(AND(U82&gt;=-5,U82&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I82" s="4">
@@ -13431,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="U82" s="10">
-        <f>J82+K82-100+L82+ SUM(N82:T82)*5+IF(ISNUMBER(Y82),Y82,0)+X82</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V82" s="8">
@@ -13481,7 +13501,7 @@
         <v>214</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E83" s="4">
         <v>3</v>
@@ -13493,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <f>IF(AND(U83&gt;=13,U83&lt;=16),5,IF(AND(U83&gt;=9,U83&lt;=12),4,IF(AND(U83&gt;=5,U83&lt;=8),3,IF(AND(U83&gt;=1,U83&lt;=4),2,IF(AND(U83&gt;=-3,U83&lt;=0),1,IF(AND(U83&gt;=-5,U83&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I83" s="4">
@@ -13533,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="10">
-        <f>J83+K83-100+L83+ SUM(N83:T83)*5+IF(ISNUMBER(Y83),Y83,0)+X83</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="V83" s="8">
@@ -13583,7 +13603,7 @@
         <v>215</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E84" s="4">
         <v>2</v>
@@ -13595,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <f>IF(AND(U84&gt;=13,U84&lt;=16),5,IF(AND(U84&gt;=9,U84&lt;=12),4,IF(AND(U84&gt;=5,U84&lt;=8),3,IF(AND(U84&gt;=1,U84&lt;=4),2,IF(AND(U84&gt;=-3,U84&lt;=0),1,IF(AND(U84&gt;=-5,U84&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I84" s="4">
@@ -13635,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="10">
-        <f>J84+K84-100+L84+ SUM(N84:T84)*5+IF(ISNUMBER(Y84),Y84,0)+X84</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V84" s="8">
@@ -13695,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="4">
-        <f>IF(AND(U85&gt;=13,U85&lt;=16),5,IF(AND(U85&gt;=9,U85&lt;=12),4,IF(AND(U85&gt;=5,U85&lt;=8),3,IF(AND(U85&gt;=1,U85&lt;=4),2,IF(AND(U85&gt;=-3,U85&lt;=0),1,IF(AND(U85&gt;=-5,U85&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I85" s="4">
@@ -13735,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="10">
-        <f>J85+K85-100+L85+ SUM(N85:T85)*5+IF(ISNUMBER(Y85),Y85,0)+X85</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V85" s="8">
@@ -13791,7 +13811,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="4">
-        <f>IF(AND(U86&gt;=13,U86&lt;=16),5,IF(AND(U86&gt;=9,U86&lt;=12),4,IF(AND(U86&gt;=5,U86&lt;=8),3,IF(AND(U86&gt;=1,U86&lt;=4),2,IF(AND(U86&gt;=-3,U86&lt;=0),1,IF(AND(U86&gt;=-5,U86&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I86" s="4">
@@ -13831,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="10">
-        <f>J86+K86-100+L86+ SUM(N86:T86)*5+IF(ISNUMBER(Y86),Y86,0)+X86</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V86" s="8">
@@ -13889,7 +13909,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="4">
-        <f>IF(AND(U87&gt;=13,U87&lt;=16),5,IF(AND(U87&gt;=9,U87&lt;=12),4,IF(AND(U87&gt;=5,U87&lt;=8),3,IF(AND(U87&gt;=1,U87&lt;=4),2,IF(AND(U87&gt;=-3,U87&lt;=0),1,IF(AND(U87&gt;=-5,U87&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I87" s="4">
@@ -13929,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="10">
-        <f>J87+K87-100+L87+ SUM(N87:T87)*5+IF(ISNUMBER(Y87),Y87,0)+X87</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V87" s="8">
@@ -13987,7 +14007,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="4">
-        <f>IF(AND(U88&gt;=13,U88&lt;=16),5,IF(AND(U88&gt;=9,U88&lt;=12),4,IF(AND(U88&gt;=5,U88&lt;=8),3,IF(AND(U88&gt;=1,U88&lt;=4),2,IF(AND(U88&gt;=-3,U88&lt;=0),1,IF(AND(U88&gt;=-5,U88&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I88" s="4">
@@ -14027,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="10">
-        <f>J88+K88-100+L88+ SUM(N88:T88)*5+IF(ISNUMBER(Y88),Y88,0)+X88</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V88" s="8">
@@ -14073,7 +14093,7 @@
         <v>220</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E89" s="4">
         <v>4</v>
@@ -14085,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="4">
-        <f>IF(AND(U89&gt;=13,U89&lt;=16),5,IF(AND(U89&gt;=9,U89&lt;=12),4,IF(AND(U89&gt;=5,U89&lt;=8),3,IF(AND(U89&gt;=1,U89&lt;=4),2,IF(AND(U89&gt;=-3,U89&lt;=0),1,IF(AND(U89&gt;=-5,U89&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I89" s="4">
@@ -14125,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="10">
-        <f>J89+K89-100+L89+ SUM(N89:T89)*5+IF(ISNUMBER(Y89),Y89,0)+X89</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="V89" s="8">
@@ -14177,7 +14197,7 @@
         <v>221</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E90" s="4">
         <v>4</v>
@@ -14189,7 +14209,7 @@
         <v>5</v>
       </c>
       <c r="H90" s="4">
-        <f>IF(AND(U90&gt;=13,U90&lt;=16),5,IF(AND(U90&gt;=9,U90&lt;=12),4,IF(AND(U90&gt;=5,U90&lt;=8),3,IF(AND(U90&gt;=1,U90&lt;=4),2,IF(AND(U90&gt;=-3,U90&lt;=0),1,IF(AND(U90&gt;=-5,U90&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I90" s="4">
@@ -14229,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="10">
-        <f>J90+K90-100+L90+ SUM(N90:T90)*5+IF(ISNUMBER(Y90),Y90,0)+X90</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="V90" s="8">
@@ -14289,7 +14309,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="4">
-        <f>IF(AND(U91&gt;=13,U91&lt;=16),5,IF(AND(U91&gt;=9,U91&lt;=12),4,IF(AND(U91&gt;=5,U91&lt;=8),3,IF(AND(U91&gt;=1,U91&lt;=4),2,IF(AND(U91&gt;=-3,U91&lt;=0),1,IF(AND(U91&gt;=-5,U91&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I91" s="4">
@@ -14329,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="10">
-        <f>J91+K91-100+L91+ SUM(N91:T91)*5+IF(ISNUMBER(Y91),Y91,0)+X91</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V91" s="8">
@@ -14387,7 +14407,7 @@
         <v>6</v>
       </c>
       <c r="H92" s="4">
-        <f>IF(AND(U92&gt;=13,U92&lt;=16),5,IF(AND(U92&gt;=9,U92&lt;=12),4,IF(AND(U92&gt;=5,U92&lt;=8),3,IF(AND(U92&gt;=1,U92&lt;=4),2,IF(AND(U92&gt;=-3,U92&lt;=0),1,IF(AND(U92&gt;=-5,U92&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I92" s="4">
@@ -14427,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="10">
-        <f>J92+K92-100+L92+ SUM(N92:T92)*5+IF(ISNUMBER(Y92),Y92,0)+X92</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="V92" s="8">
@@ -14483,7 +14503,7 @@
         <v>3</v>
       </c>
       <c r="H93" s="4">
-        <f>IF(AND(U93&gt;=13,U93&lt;=16),5,IF(AND(U93&gt;=9,U93&lt;=12),4,IF(AND(U93&gt;=5,U93&lt;=8),3,IF(AND(U93&gt;=1,U93&lt;=4),2,IF(AND(U93&gt;=-3,U93&lt;=0),1,IF(AND(U93&gt;=-5,U93&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I93" s="4">
@@ -14523,7 +14543,7 @@
         <v>0</v>
       </c>
       <c r="U93" s="10">
-        <f>J93+K93-100+L93+ SUM(N93:T93)*5+IF(ISNUMBER(Y93),Y93,0)+X93</f>
+        <f t="shared" si="5"/>
         <v>-16</v>
       </c>
       <c r="V93" s="8">
@@ -14581,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <f>IF(AND(U94&gt;=13,U94&lt;=16),5,IF(AND(U94&gt;=9,U94&lt;=12),4,IF(AND(U94&gt;=5,U94&lt;=8),3,IF(AND(U94&gt;=1,U94&lt;=4),2,IF(AND(U94&gt;=-3,U94&lt;=0),1,IF(AND(U94&gt;=-5,U94&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I94" s="4">
@@ -14621,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="10">
-        <f>J94+K94-100+L94+ SUM(N94:T94)*5+IF(ISNUMBER(Y94),Y94,0)+X94</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="V94" s="8">
@@ -14673,7 +14693,7 @@
         <v>225</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E95" s="4">
         <v>2</v>
@@ -14685,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <f>IF(AND(U95&gt;=13,U95&lt;=16),5,IF(AND(U95&gt;=9,U95&lt;=12),4,IF(AND(U95&gt;=5,U95&lt;=8),3,IF(AND(U95&gt;=1,U95&lt;=4),2,IF(AND(U95&gt;=-3,U95&lt;=0),1,IF(AND(U95&gt;=-5,U95&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I95" s="4">
@@ -14725,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="U95" s="10">
-        <f>J95+K95-100+L95+ SUM(N95:T95)*5+IF(ISNUMBER(Y95),Y95,0)+X95</f>
+        <f t="shared" si="5"/>
         <v>-0.59999999999999964</v>
       </c>
       <c r="V95" s="8">
@@ -14787,7 +14807,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <f>IF(AND(U96&gt;=13,U96&lt;=16),5,IF(AND(U96&gt;=9,U96&lt;=12),4,IF(AND(U96&gt;=5,U96&lt;=8),3,IF(AND(U96&gt;=1,U96&lt;=4),2,IF(AND(U96&gt;=-3,U96&lt;=0),1,IF(AND(U96&gt;=-5,U96&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I96" s="4">
@@ -14827,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="10">
-        <f>J96+K96-100+L96+ SUM(N96:T96)*5+IF(ISNUMBER(Y96),Y96,0)+X96</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="V96" s="8">
@@ -14885,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <f>IF(AND(U97&gt;=13,U97&lt;=16),5,IF(AND(U97&gt;=9,U97&lt;=12),4,IF(AND(U97&gt;=5,U97&lt;=8),3,IF(AND(U97&gt;=1,U97&lt;=4),2,IF(AND(U97&gt;=-3,U97&lt;=0),1,IF(AND(U97&gt;=-5,U97&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I97" s="4">
@@ -14925,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="U97" s="10">
-        <f>J97+K97-100+L97+ SUM(N97:T97)*5+IF(ISNUMBER(Y97),Y97,0)+X97</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="V97" s="8">
@@ -14972,9 +14992,7 @@
       <c r="C98" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D98" s="25" t="s">
-        <v>339</v>
-      </c>
+      <c r="D98" s="25"/>
       <c r="E98" s="4">
         <v>5</v>
       </c>
@@ -14985,20 +15003,20 @@
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <f>IF(AND(U98&gt;=13,U98&lt;=16),5,IF(AND(U98&gt;=9,U98&lt;=12),4,IF(AND(U98&gt;=5,U98&lt;=8),3,IF(AND(U98&gt;=1,U98&lt;=4),2,IF(AND(U98&gt;=-3,U98&lt;=0),1,IF(AND(U98&gt;=-5,U98&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="I98" s="4">
         <v>5</v>
       </c>
       <c r="J98" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K98" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L98" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M98" s="8">
         <v>4</v>
@@ -15013,7 +15031,7 @@
         <v>0</v>
       </c>
       <c r="Q98" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R98" s="8">
         <v>0</v>
@@ -15025,8 +15043,8 @@
         <v>0</v>
       </c>
       <c r="U98" s="10">
-        <f>J98+K98-100+L98+ SUM(N98:T98)*5+IF(ISNUMBER(Y98),Y98,0)+X98</f>
-        <v>-100</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="V98" s="8">
         <v>0</v>
@@ -15037,20 +15055,22 @@
       <c r="X98" s="8">
         <v>0</v>
       </c>
-      <c r="Y98" s="8" t="e">
+      <c r="Y98" s="8">
         <f>IF(ISBLANK(Z98),0, LOOKUP(Z98,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA98/100)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="Z98" s="37">
-        <v>55000100</v>
+        <v>55110009</v>
       </c>
       <c r="AA98" s="4">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AB98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC98" s="4"/>
+      <c r="AC98" s="4">
+        <v>11000004</v>
+      </c>
       <c r="AD98" s="4">
         <v>5</v>
       </c>
@@ -15075,7 +15095,7 @@
         <v>228</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="E99" s="4">
         <v>6</v>
@@ -15087,8 +15107,8 @@
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f>IF(AND(U99&gt;=13,U99&lt;=16),5,IF(AND(U99&gt;=9,U99&lt;=12),4,IF(AND(U99&gt;=5,U99&lt;=8),3,IF(AND(U99&gt;=1,U99&lt;=4),2,IF(AND(U99&gt;=-3,U99&lt;=0),1,IF(AND(U99&gt;=-5,U99&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="I99" s="4">
         <v>6</v>
@@ -15097,13 +15117,13 @@
         <v>0</v>
       </c>
       <c r="K99" s="6">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L99" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M99" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N99" s="8">
         <v>0</v>
@@ -15127,8 +15147,8 @@
         <v>0</v>
       </c>
       <c r="U99" s="10">
-        <f>J99+K99-100+L99+ SUM(N99:T99)*5+IF(ISNUMBER(Y99),Y99,0)+X99</f>
-        <v>-65</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="V99" s="8">
         <v>0</v>
@@ -15139,12 +15159,12 @@
       <c r="X99" s="8">
         <v>0</v>
       </c>
-      <c r="Y99" s="8" t="e">
+      <c r="Y99" s="8">
         <f>IF(ISBLANK(Z99),0, LOOKUP(Z99,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA99/100)</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
       <c r="Z99" s="37">
-        <v>55000076</v>
+        <v>55200004</v>
       </c>
       <c r="AA99" s="4">
         <v>100</v>
@@ -15152,7 +15172,9 @@
       <c r="AB99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC99" s="4"/>
+      <c r="AC99" s="4">
+        <v>11000007</v>
+      </c>
       <c r="AD99" s="4">
         <v>5</v>
       </c>
@@ -15187,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f>IF(AND(U100&gt;=13,U100&lt;=16),5,IF(AND(U100&gt;=9,U100&lt;=12),4,IF(AND(U100&gt;=5,U100&lt;=8),3,IF(AND(U100&gt;=1,U100&lt;=4),2,IF(AND(U100&gt;=-3,U100&lt;=0),1,IF(AND(U100&gt;=-5,U100&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H100:H124" si="6">IF(AND(U100&gt;=13,U100&lt;=16),5,IF(AND(U100&gt;=9,U100&lt;=12),4,IF(AND(U100&gt;=5,U100&lt;=8),3,IF(AND(U100&gt;=1,U100&lt;=4),2,IF(AND(U100&gt;=-3,U100&lt;=0),1,IF(AND(U100&gt;=-5,U100&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I100" s="4">
@@ -15227,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="10">
-        <f>J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
+        <f t="shared" ref="U100:U131" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
         <v>0</v>
       </c>
       <c r="V100" s="8">
@@ -15279,7 +15301,7 @@
         <v>138</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -15291,7 +15313,7 @@
         <v>6</v>
       </c>
       <c r="H101" s="4">
-        <f>IF(AND(U101&gt;=13,U101&lt;=16),5,IF(AND(U101&gt;=9,U101&lt;=12),4,IF(AND(U101&gt;=5,U101&lt;=8),3,IF(AND(U101&gt;=1,U101&lt;=4),2,IF(AND(U101&gt;=-3,U101&lt;=0),1,IF(AND(U101&gt;=-5,U101&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I101" s="4">
@@ -15331,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="U101" s="10">
-        <f>J101+K101-100+L101+ SUM(N101:T101)*5+IF(ISNUMBER(Y101),Y101,0)+X101</f>
+        <f t="shared" si="7"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="V101" s="8">
@@ -15391,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f>IF(AND(U102&gt;=13,U102&lt;=16),5,IF(AND(U102&gt;=9,U102&lt;=12),4,IF(AND(U102&gt;=5,U102&lt;=8),3,IF(AND(U102&gt;=1,U102&lt;=4),2,IF(AND(U102&gt;=-3,U102&lt;=0),1,IF(AND(U102&gt;=-5,U102&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I102" s="4">
@@ -15431,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="U102" s="10">
-        <f>J102+K102-100+L102+ SUM(N102:T102)*5+IF(ISNUMBER(Y102),Y102,0)+X102</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V102" s="8">
@@ -15477,7 +15499,7 @@
         <v>140</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E103" s="4">
         <v>4</v>
@@ -15489,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f>IF(AND(U103&gt;=13,U103&lt;=16),5,IF(AND(U103&gt;=9,U103&lt;=12),4,IF(AND(U103&gt;=5,U103&lt;=8),3,IF(AND(U103&gt;=1,U103&lt;=4),2,IF(AND(U103&gt;=-3,U103&lt;=0),1,IF(AND(U103&gt;=-5,U103&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I103" s="4">
@@ -15529,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="U103" s="10">
-        <f>J103+K103-100+L103+ SUM(N103:T103)*5+IF(ISNUMBER(Y103),Y103,0)+X103</f>
+        <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
       <c r="V103" s="8">
@@ -15581,36 +15603,36 @@
         <v>231</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="E104" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F104">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G104" s="4">
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f>IF(AND(U104&gt;=13,U104&lt;=16),5,IF(AND(U104&gt;=9,U104&lt;=12),4,IF(AND(U104&gt;=5,U104&lt;=8),3,IF(AND(U104&gt;=1,U104&lt;=4),2,IF(AND(U104&gt;=-3,U104&lt;=0),1,IF(AND(U104&gt;=-5,U104&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I104" s="4">
+        <v>2</v>
+      </c>
+      <c r="J104" s="6">
+        <v>40</v>
+      </c>
+      <c r="K104" s="6">
+        <v>0</v>
+      </c>
+      <c r="L104" s="14">
+        <v>2</v>
+      </c>
+      <c r="M104" s="8">
         <v>1</v>
       </c>
-      <c r="I104" s="4">
-        <v>3</v>
-      </c>
-      <c r="J104" s="6">
-        <v>100</v>
-      </c>
-      <c r="K104" s="6">
-        <v>0</v>
-      </c>
-      <c r="L104" s="14">
-        <v>0</v>
-      </c>
-      <c r="M104" s="8">
-        <v>4</v>
-      </c>
       <c r="N104" s="8">
         <v>0</v>
       </c>
@@ -15621,7 +15643,7 @@
         <v>0</v>
       </c>
       <c r="Q104" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R104" s="8">
         <v>0</v>
@@ -15633,8 +15655,8 @@
         <v>0</v>
       </c>
       <c r="U104" s="10">
-        <f>J104+K104-100+L104+ SUM(N104:T104)*5+IF(ISNUMBER(Y104),Y104,0)+X104</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="V104" s="8">
         <v>0</v>
@@ -15645,12 +15667,12 @@
       <c r="X104" s="8">
         <v>0</v>
       </c>
-      <c r="Y104" s="8" t="e">
+      <c r="Y104" s="8">
         <f>IF(ISBLANK(Z104),0, LOOKUP(Z104,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA104/100)</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="Z104" s="37">
-        <v>55000078</v>
+        <v>55990103</v>
       </c>
       <c r="AA104" s="4">
         <v>100</v>
@@ -15683,7 +15705,7 @@
         <v>232</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -15695,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f>IF(AND(U105&gt;=13,U105&lt;=16),5,IF(AND(U105&gt;=9,U105&lt;=12),4,IF(AND(U105&gt;=5,U105&lt;=8),3,IF(AND(U105&gt;=1,U105&lt;=4),2,IF(AND(U105&gt;=-3,U105&lt;=0),1,IF(AND(U105&gt;=-5,U105&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I105" s="4">
@@ -15735,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="U105" s="10">
-        <f>J105+K105-100+L105+ SUM(N105:T105)*5+IF(ISNUMBER(Y105),Y105,0)+X105</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="V105" s="8">
@@ -15795,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f>IF(AND(U106&gt;=13,U106&lt;=16),5,IF(AND(U106&gt;=9,U106&lt;=12),4,IF(AND(U106&gt;=5,U106&lt;=8),3,IF(AND(U106&gt;=1,U106&lt;=4),2,IF(AND(U106&gt;=-3,U106&lt;=0),1,IF(AND(U106&gt;=-5,U106&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I106" s="4">
@@ -15835,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="10">
-        <f>J106+K106-100+L106+ SUM(N106:T106)*5+IF(ISNUMBER(Y106),Y106,0)+X106</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="V106" s="8">
@@ -15883,7 +15905,7 @@
         <v>233</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E107" s="4">
         <v>3</v>
@@ -15895,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f>IF(AND(U107&gt;=13,U107&lt;=16),5,IF(AND(U107&gt;=9,U107&lt;=12),4,IF(AND(U107&gt;=5,U107&lt;=8),3,IF(AND(U107&gt;=1,U107&lt;=4),2,IF(AND(U107&gt;=-3,U107&lt;=0),1,IF(AND(U107&gt;=-5,U107&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I107" s="4">
@@ -15935,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="U107" s="10">
-        <f>J107+K107-100+L107+ SUM(N107:T107)*5+IF(ISNUMBER(Y107),Y107,0)+X107</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V107" s="8">
@@ -15997,7 +16019,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f>IF(AND(U108&gt;=13,U108&lt;=16),5,IF(AND(U108&gt;=9,U108&lt;=12),4,IF(AND(U108&gt;=5,U108&lt;=8),3,IF(AND(U108&gt;=1,U108&lt;=4),2,IF(AND(U108&gt;=-3,U108&lt;=0),1,IF(AND(U108&gt;=-5,U108&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I108" s="4">
@@ -16037,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="U108" s="10">
-        <f>J108+K108-100+L108+ SUM(N108:T108)*5+IF(ISNUMBER(Y108),Y108,0)+X108</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="V108" s="8">
@@ -16099,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f>IF(AND(U109&gt;=13,U109&lt;=16),5,IF(AND(U109&gt;=9,U109&lt;=12),4,IF(AND(U109&gt;=5,U109&lt;=8),3,IF(AND(U109&gt;=1,U109&lt;=4),2,IF(AND(U109&gt;=-3,U109&lt;=0),1,IF(AND(U109&gt;=-5,U109&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I109" s="4">
@@ -16139,7 +16161,7 @@
         <v>0</v>
       </c>
       <c r="U109" s="10">
-        <f>J109+K109-100+L109+ SUM(N109:T109)*5+IF(ISNUMBER(Y109),Y109,0)+X109</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V109" s="8">
@@ -16197,7 +16219,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f>IF(AND(U110&gt;=13,U110&lt;=16),5,IF(AND(U110&gt;=9,U110&lt;=12),4,IF(AND(U110&gt;=5,U110&lt;=8),3,IF(AND(U110&gt;=1,U110&lt;=4),2,IF(AND(U110&gt;=-3,U110&lt;=0),1,IF(AND(U110&gt;=-5,U110&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I110" s="4">
@@ -16237,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="U110" s="10">
-        <f>J110+K110-100+L110+ SUM(N110:T110)*5+IF(ISNUMBER(Y110),Y110,0)+X110</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="V110" s="8">
@@ -16286,11 +16308,9 @@
       <c r="C111" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D111" s="25" t="s">
-        <v>339</v>
-      </c>
+      <c r="D111" s="25"/>
       <c r="E111" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F111">
         <v>100</v>
@@ -16299,11 +16319,11 @@
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f>IF(AND(U111&gt;=13,U111&lt;=16),5,IF(AND(U111&gt;=9,U111&lt;=12),4,IF(AND(U111&gt;=5,U111&lt;=8),3,IF(AND(U111&gt;=1,U111&lt;=4),2,IF(AND(U111&gt;=-3,U111&lt;=0),1,IF(AND(U111&gt;=-5,U111&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I111" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J111" s="6">
         <v>70</v>
@@ -16327,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="Q111" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R111" s="8">
         <v>0</v>
@@ -16339,8 +16359,8 @@
         <v>0</v>
       </c>
       <c r="U111" s="10">
-        <f>J111+K111-100+L111+ SUM(N111:T111)*5+IF(ISNUMBER(Y111),Y111,0)+X111</f>
-        <v>-30</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="V111" s="8">
         <v>10</v>
@@ -16351,16 +16371,12 @@
       <c r="X111" s="8">
         <v>0</v>
       </c>
-      <c r="Y111" s="8" t="e">
+      <c r="Y111" s="8">
         <f>IF(ISBLANK(Z111),0, LOOKUP(Z111,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA111/100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z111" s="37">
-        <v>55000232</v>
-      </c>
-      <c r="AA111" s="4">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z111" s="37"/>
+      <c r="AA111" s="4"/>
       <c r="AB111" s="4" t="s">
         <v>3</v>
       </c>
@@ -16389,7 +16405,7 @@
         <v>143</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E112" s="4">
         <v>2</v>
@@ -16401,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f>IF(AND(U112&gt;=13,U112&lt;=16),5,IF(AND(U112&gt;=9,U112&lt;=12),4,IF(AND(U112&gt;=5,U112&lt;=8),3,IF(AND(U112&gt;=1,U112&lt;=4),2,IF(AND(U112&gt;=-3,U112&lt;=0),1,IF(AND(U112&gt;=-5,U112&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I112" s="4">
@@ -16441,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="10">
-        <f>J112+K112-100+L112+ SUM(N112:T112)*5+IF(ISNUMBER(Y112),Y112,0)+X112</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="V112" s="8">
@@ -16490,9 +16506,7 @@
       <c r="C113" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D113" s="25" t="s">
-        <v>339</v>
-      </c>
+      <c r="D113" s="25"/>
       <c r="E113" s="4">
         <v>6</v>
       </c>
@@ -16503,8 +16517,8 @@
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f>IF(AND(U113&gt;=13,U113&lt;=16),5,IF(AND(U113&gt;=9,U113&lt;=12),4,IF(AND(U113&gt;=5,U113&lt;=8),3,IF(AND(U113&gt;=1,U113&lt;=4),2,IF(AND(U113&gt;=-3,U113&lt;=0),1,IF(AND(U113&gt;=-5,U113&lt;=-4),0,6))))))</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I113" s="4">
         <v>6</v>
@@ -16513,7 +16527,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L113" s="14">
         <v>0</v>
@@ -16522,7 +16536,7 @@
         <v>6</v>
       </c>
       <c r="N113" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O113" s="8">
         <v>0</v>
@@ -16543,8 +16557,8 @@
         <v>0</v>
       </c>
       <c r="U113" s="10">
-        <f>J113+K113-100+L113+ SUM(N113:T113)*5+IF(ISNUMBER(Y113),Y113,0)+X113</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="V113" s="8">
         <v>0</v>
@@ -16555,12 +16569,12 @@
       <c r="X113" s="8">
         <v>0</v>
       </c>
-      <c r="Y113" s="8" t="e">
+      <c r="Y113" s="8">
         <f>IF(ISBLANK(Z113),0, LOOKUP(Z113,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA113/100)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="Z113" s="37">
-        <v>55000233</v>
+        <v>55990101</v>
       </c>
       <c r="AA113" s="4">
         <v>100</v>
@@ -16568,7 +16582,9 @@
       <c r="AB113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AC113" s="4"/>
+      <c r="AC113" s="4">
+        <v>11000006</v>
+      </c>
       <c r="AD113" s="4">
         <v>5</v>
       </c>
@@ -16603,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f>IF(AND(U114&gt;=13,U114&lt;=16),5,IF(AND(U114&gt;=9,U114&lt;=12),4,IF(AND(U114&gt;=5,U114&lt;=8),3,IF(AND(U114&gt;=1,U114&lt;=4),2,IF(AND(U114&gt;=-3,U114&lt;=0),1,IF(AND(U114&gt;=-5,U114&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I114" s="4">
@@ -16643,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="10">
-        <f>J114+K114-100+L114+ SUM(N114:T114)*5+IF(ISNUMBER(Y114),Y114,0)+X114</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="V114" s="8">
@@ -16701,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <f>IF(AND(U115&gt;=13,U115&lt;=16),5,IF(AND(U115&gt;=9,U115&lt;=12),4,IF(AND(U115&gt;=5,U115&lt;=8),3,IF(AND(U115&gt;=1,U115&lt;=4),2,IF(AND(U115&gt;=-3,U115&lt;=0),1,IF(AND(U115&gt;=-5,U115&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I115" s="4">
@@ -16741,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="U115" s="18">
-        <f>J115+K115-100+L115+ SUM(N115:T115)*5+IF(ISNUMBER(Y115),Y115,0)+X115</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="V115" s="8">
@@ -16789,7 +16805,7 @@
         <v>273</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E116" s="4">
         <v>3</v>
@@ -16801,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="4">
-        <f>IF(AND(U116&gt;=13,U116&lt;=16),5,IF(AND(U116&gt;=9,U116&lt;=12),4,IF(AND(U116&gt;=5,U116&lt;=8),3,IF(AND(U116&gt;=1,U116&lt;=4),2,IF(AND(U116&gt;=-3,U116&lt;=0),1,IF(AND(U116&gt;=-5,U116&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I116" s="4">
@@ -16841,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="36">
-        <f>J116+K116-100+L116+ SUM(N116:T116)*5+IF(ISNUMBER(Y116),Y116,0)+X116</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="V116" s="8">
@@ -16889,7 +16905,7 @@
         <v>145</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E117" s="4">
         <v>2</v>
@@ -16901,7 +16917,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <f>IF(AND(U117&gt;=13,U117&lt;=16),5,IF(AND(U117&gt;=9,U117&lt;=12),4,IF(AND(U117&gt;=5,U117&lt;=8),3,IF(AND(U117&gt;=1,U117&lt;=4),2,IF(AND(U117&gt;=-3,U117&lt;=0),1,IF(AND(U117&gt;=-5,U117&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I117" s="4">
@@ -16941,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="U117" s="36">
-        <f>J117+K117-100+L117+ SUM(N117:T117)*5+IF(ISNUMBER(Y117),Y117,0)+X117</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V117" s="8">
@@ -17001,7 +17017,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <f>IF(AND(U118&gt;=13,U118&lt;=16),5,IF(AND(U118&gt;=9,U118&lt;=12),4,IF(AND(U118&gt;=5,U118&lt;=8),3,IF(AND(U118&gt;=1,U118&lt;=4),2,IF(AND(U118&gt;=-3,U118&lt;=0),1,IF(AND(U118&gt;=-5,U118&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I118" s="4">
@@ -17041,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="18">
-        <f>J118+K118-100+L118+ SUM(N118:T118)*5+IF(ISNUMBER(Y118),Y118,0)+X118</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="V118" s="8">
@@ -17103,7 +17119,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <f>IF(AND(U119&gt;=13,U119&lt;=16),5,IF(AND(U119&gt;=9,U119&lt;=12),4,IF(AND(U119&gt;=5,U119&lt;=8),3,IF(AND(U119&gt;=1,U119&lt;=4),2,IF(AND(U119&gt;=-3,U119&lt;=0),1,IF(AND(U119&gt;=-5,U119&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I119" s="4">
@@ -17143,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="18">
-        <f>J119+K119-100+L119+ SUM(N119:T119)*5+IF(ISNUMBER(Y119),Y119,0)+X119</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V119" s="8">
@@ -17193,35 +17209,35 @@
         <v>240</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="E120" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F120">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G120" s="4">
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <f>IF(AND(U120&gt;=13,U120&lt;=16),5,IF(AND(U120&gt;=9,U120&lt;=12),4,IF(AND(U120&gt;=5,U120&lt;=8),3,IF(AND(U120&gt;=1,U120&lt;=4),2,IF(AND(U120&gt;=-3,U120&lt;=0),1,IF(AND(U120&gt;=-5,U120&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I120" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J120" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K120" s="6">
         <v>0</v>
       </c>
       <c r="L120" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M120" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120" s="8">
         <v>0</v>
@@ -17233,7 +17249,7 @@
         <v>0</v>
       </c>
       <c r="Q120" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R120" s="8">
         <v>0</v>
@@ -17245,8 +17261,8 @@
         <v>0</v>
       </c>
       <c r="U120" s="18">
-        <f>J120+K120-100+L120+ SUM(N120:T120)*5+IF(ISNUMBER(Y120),Y120,0)+X120</f>
-        <v>-75</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="V120" s="8">
         <v>0</v>
@@ -17257,15 +17273,15 @@
       <c r="X120" s="8">
         <v>0</v>
       </c>
-      <c r="Y120" s="8" t="e">
+      <c r="Y120" s="8">
         <f>IF(ISBLANK(Z120),0, LOOKUP(Z120,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA120/100)</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
       <c r="Z120" s="37">
-        <v>55000212</v>
+        <v>55990104</v>
       </c>
       <c r="AA120" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AB120" s="4" t="s">
         <v>5</v>
@@ -17305,7 +17321,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <f>IF(AND(U121&gt;=13,U121&lt;=16),5,IF(AND(U121&gt;=9,U121&lt;=12),4,IF(AND(U121&gt;=5,U121&lt;=8),3,IF(AND(U121&gt;=1,U121&lt;=4),2,IF(AND(U121&gt;=-3,U121&lt;=0),1,IF(AND(U121&gt;=-5,U121&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I121" s="15">
@@ -17345,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="U121" s="18">
-        <f>J121+K121-100+L121+ SUM(N121:T121)*5+IF(ISNUMBER(Y121),Y121,0)+X121</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="V121" s="8">
@@ -17403,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="4">
-        <f>IF(AND(U122&gt;=13,U122&lt;=16),5,IF(AND(U122&gt;=9,U122&lt;=12),4,IF(AND(U122&gt;=5,U122&lt;=8),3,IF(AND(U122&gt;=1,U122&lt;=4),2,IF(AND(U122&gt;=-3,U122&lt;=0),1,IF(AND(U122&gt;=-5,U122&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I122" s="15">
@@ -17443,7 +17459,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="35">
-        <f>J122+K122-100+L122+ SUM(N122:T122)*5+IF(ISNUMBER(Y122),Y122,0)+X122</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="V122" s="8">
@@ -17501,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="4">
-        <f>IF(AND(U123&gt;=13,U123&lt;=16),5,IF(AND(U123&gt;=9,U123&lt;=12),4,IF(AND(U123&gt;=5,U123&lt;=8),3,IF(AND(U123&gt;=1,U123&lt;=4),2,IF(AND(U123&gt;=-3,U123&lt;=0),1,IF(AND(U123&gt;=-5,U123&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I123" s="15">
@@ -17541,7 +17557,7 @@
         <v>0</v>
       </c>
       <c r="U123" s="35">
-        <f>J123+K123-100+L123+ SUM(N123:T123)*5+IF(ISNUMBER(Y123),Y123,0)+X123</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="V123" s="8">
@@ -17599,7 +17615,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <f>IF(AND(U124&gt;=13,U124&lt;=16),5,IF(AND(U124&gt;=9,U124&lt;=12),4,IF(AND(U124&gt;=5,U124&lt;=8),3,IF(AND(U124&gt;=1,U124&lt;=4),2,IF(AND(U124&gt;=-3,U124&lt;=0),1,IF(AND(U124&gt;=-5,U124&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I124" s="15">
@@ -17639,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="U124" s="18">
-        <f>J124+K124-100+L124+ SUM(N124:T124)*5+IF(ISNUMBER(Y124),Y124,0)+X124</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="V124" s="8">
@@ -17871,33 +17887,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H124">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="9" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17971,7 +17987,7 @@
         <v>247</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>285</v>
@@ -18019,7 +18035,7 @@
         <v>336</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>260</v>
@@ -18034,7 +18050,7 @@
         <v>250</v>
       </c>
       <c r="AC1" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AD1" s="20" t="s">
         <v>251</v>
@@ -18111,7 +18127,7 @@
         <v>254</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>110</v>
@@ -18120,10 +18136,10 @@
         <v>337</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>110</v>
@@ -18135,7 +18151,7 @@
         <v>111</v>
       </c>
       <c r="AC2" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>110</v>
@@ -18173,7 +18189,7 @@
         <v>116</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I3" t="s">
         <v>287</v>
@@ -18221,10 +18237,10 @@
         <v>338</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z3" t="s">
         <v>117</v>
@@ -18236,7 +18252,7 @@
         <v>119</v>
       </c>
       <c r="AC3" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AD3" t="s">
         <v>120</v>
@@ -18530,36 +18546,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18595,10 +18611,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
         <v>347</v>
-      </c>
-      <c r="C1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -4761,6 +4761,7 @@
           <cell r="A146">
             <v>55900028</v>
           </cell>
+          <cell r="X146"/>
         </row>
         <row r="147">
           <cell r="A147">
@@ -5305,10 +5306,10 @@
   <dimension ref="A1:AG124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9616,7 +9617,9 @@
       <c r="AB43" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="AC43" s="4"/>
+      <c r="AC43" s="4">
+        <v>11000009</v>
+      </c>
       <c r="AD43" s="4">
         <v>5</v>
       </c>
@@ -14468,7 +14471,9 @@
       <c r="AB92" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="AC92" s="4"/>
+      <c r="AC92" s="4">
+        <v>11000009</v>
+      </c>
       <c r="AD92" s="4">
         <v>5</v>
       </c>
@@ -15249,7 +15254,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="10">
-        <f t="shared" ref="U100:U131" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
+        <f t="shared" ref="U100:U124" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
         <v>0</v>
       </c>
       <c r="V100" s="8">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -5306,31 +5306,31 @@
   <dimension ref="A1:AG124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomRight" activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="5" max="9" width="4.125" customWidth="1"/>
-    <col min="10" max="11" width="3.75" customWidth="1"/>
-    <col min="12" max="20" width="3.875" customWidth="1"/>
-    <col min="21" max="21" width="6.375" customWidth="1"/>
-    <col min="22" max="23" width="3.875" customWidth="1"/>
-    <col min="24" max="25" width="4.75" customWidth="1"/>
-    <col min="26" max="26" width="9.5" customWidth="1"/>
-    <col min="27" max="27" width="7.125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="5" max="9" width="4.109375" customWidth="1"/>
+    <col min="10" max="11" width="3.77734375" customWidth="1"/>
+    <col min="12" max="20" width="3.88671875" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="23" width="3.88671875" customWidth="1"/>
+    <col min="24" max="25" width="4.77734375" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" customWidth="1"/>
+    <col min="27" max="27" width="7.109375" customWidth="1"/>
     <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="7.375" customWidth="1"/>
-    <col min="32" max="33" width="4.375" customWidth="1"/>
-    <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.33203125" customWidth="1"/>
+    <col min="32" max="33" width="4.33203125" customWidth="1"/>
+    <col min="36" max="36" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="69">
+    <row r="1" spans="1:33" ht="73.2">
       <c r="A1" s="19" t="s">
         <v>242</v>
       </c>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F106">
         <v>103</v>
@@ -15823,10 +15823,10 @@
       </c>
       <c r="H106" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J106" s="7">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>50</v>
       </c>
       <c r="L106" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M106" s="8">
         <v>4</v>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="U106" s="10">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V106" s="8">
         <v>0</v>
@@ -15884,7 +15884,7 @@
         <v>5</v>
       </c>
       <c r="AC106" s="4">
-        <v>11000006</v>
+        <v>11000008</v>
       </c>
       <c r="AD106" s="4">
         <v>5</v>
@@ -17953,23 +17953,23 @@
       <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="5" max="9" width="4.125" customWidth="1"/>
-    <col min="10" max="11" width="3.75" customWidth="1"/>
-    <col min="12" max="12" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="5" max="9" width="4.109375" customWidth="1"/>
+    <col min="10" max="11" width="3.77734375" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" customWidth="1"/>
     <col min="13" max="20" width="4" customWidth="1"/>
-    <col min="21" max="21" width="3.75" customWidth="1"/>
+    <col min="21" max="21" width="3.77734375" customWidth="1"/>
     <col min="22" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="3.75" customWidth="1"/>
-    <col min="26" max="27" width="7.125" customWidth="1"/>
+    <col min="25" max="25" width="3.77734375" customWidth="1"/>
+    <col min="26" max="27" width="7.109375" customWidth="1"/>
     <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="7.375" customWidth="1"/>
-    <col min="32" max="33" width="4.375" customWidth="1"/>
+    <col min="30" max="31" width="7.33203125" customWidth="1"/>
+    <col min="32" max="33" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="69">
+    <row r="1" spans="1:33" ht="73.2">
       <c r="A1" s="19" t="s">
         <v>242</v>
       </c>
@@ -18612,7 +18612,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -5306,10 +5306,10 @@
   <dimension ref="A1:AG124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L106" sqref="L106"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9423,7 +9423,9 @@
       <c r="AB41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC41" s="4"/>
+      <c r="AC41" s="4">
+        <v>11000010</v>
+      </c>
       <c r="AD41" s="4">
         <v>5</v>
       </c>
@@ -14277,7 +14279,9 @@
       <c r="AB90" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC90" s="4"/>
+      <c r="AC90" s="4">
+        <v>11000010</v>
+      </c>
       <c r="AD90" s="4">
         <v>5</v>
       </c>
@@ -16188,7 +16192,7 @@
         <v>5</v>
       </c>
       <c r="AC109" s="4">
-        <v>11000007</v>
+        <v>11000010</v>
       </c>
       <c r="AD109" s="4">
         <v>5</v>
@@ -16588,7 +16592,7 @@
         <v>5</v>
       </c>
       <c r="AC113" s="4">
-        <v>11000006</v>
+        <v>11000010</v>
       </c>
       <c r="AD113" s="4">
         <v>5</v>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -5309,28 +5309,28 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="AB10" activeCellId="1" sqref="A41 AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="11" width="3.77734375" customWidth="1"/>
-    <col min="12" max="20" width="3.88671875" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" customWidth="1"/>
-    <col min="22" max="23" width="3.88671875" customWidth="1"/>
-    <col min="24" max="25" width="4.77734375" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" customWidth="1"/>
-    <col min="27" max="27" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="9" width="4.125" customWidth="1"/>
+    <col min="10" max="11" width="3.75" customWidth="1"/>
+    <col min="12" max="20" width="3.875" customWidth="1"/>
+    <col min="21" max="21" width="6.375" customWidth="1"/>
+    <col min="22" max="23" width="3.875" customWidth="1"/>
+    <col min="24" max="25" width="4.75" customWidth="1"/>
+    <col min="26" max="26" width="9.5" customWidth="1"/>
+    <col min="27" max="27" width="7.125" customWidth="1"/>
     <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="7.33203125" customWidth="1"/>
-    <col min="32" max="33" width="4.33203125" customWidth="1"/>
-    <col min="36" max="36" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.375" customWidth="1"/>
+    <col min="32" max="33" width="4.375" customWidth="1"/>
+    <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="73.2">
+    <row r="1" spans="1:33" ht="69">
       <c r="A1" s="19" t="s">
         <v>242</v>
       </c>
@@ -17957,23 +17957,23 @@
       <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="11" width="3.77734375" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="9" width="4.125" customWidth="1"/>
+    <col min="10" max="11" width="3.75" customWidth="1"/>
+    <col min="12" max="12" width="4.375" customWidth="1"/>
     <col min="13" max="20" width="4" customWidth="1"/>
-    <col min="21" max="21" width="3.77734375" customWidth="1"/>
+    <col min="21" max="21" width="3.75" customWidth="1"/>
     <col min="22" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="3.77734375" customWidth="1"/>
-    <col min="26" max="27" width="7.109375" customWidth="1"/>
+    <col min="25" max="25" width="3.75" customWidth="1"/>
+    <col min="26" max="27" width="7.125" customWidth="1"/>
     <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="7.33203125" customWidth="1"/>
-    <col min="32" max="33" width="4.33203125" customWidth="1"/>
+    <col min="30" max="31" width="7.375" customWidth="1"/>
+    <col min="32" max="33" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="73.2">
+    <row r="1" spans="1:33" ht="69">
       <c r="A1" s="19" t="s">
         <v>242</v>
       </c>
@@ -18616,7 +18616,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="372">
   <si>
     <t>铁杖</t>
   </si>
@@ -1154,10 +1154,6 @@
   </si>
   <si>
     <t>~SkillMark</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -5306,10 +5302,10 @@
   <dimension ref="A1:AG124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB10" activeCellId="1" sqref="A41 AB10"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5401,7 +5397,7 @@
         <v>336</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>260</v>
@@ -5416,7 +5412,7 @@
         <v>250</v>
       </c>
       <c r="AC1" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AD1" s="20" t="s">
         <v>251</v>
@@ -5517,7 +5513,7 @@
         <v>111</v>
       </c>
       <c r="AC2" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>110</v>
@@ -5606,7 +5602,7 @@
         <v>343</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z3" t="s">
         <v>117</v>
@@ -5618,7 +5614,7 @@
         <v>119</v>
       </c>
       <c r="AC3" s="40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AD3" t="s">
         <v>120</v>
@@ -5644,7 +5640,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -5742,7 +5738,7 @@
         <v>148</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -5840,7 +5836,7 @@
         <v>149</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -5938,7 +5934,7 @@
         <v>150</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -6036,7 +6032,7 @@
         <v>272</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -6134,7 +6130,7 @@
         <v>152</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -6232,7 +6228,7 @@
         <v>153</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -6330,7 +6326,7 @@
         <v>154</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E11" s="4">
         <v>4</v>
@@ -6528,7 +6524,7 @@
         <v>156</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -6630,7 +6626,7 @@
         <v>157</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -6732,7 +6728,7 @@
         <v>158</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -6834,7 +6830,7 @@
         <v>159</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -6936,7 +6932,7 @@
         <v>162</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -7038,7 +7034,7 @@
         <v>161</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -7140,7 +7136,7 @@
         <v>284</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E19" s="15">
         <v>3</v>
@@ -7242,7 +7238,7 @@
         <v>160</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -7346,7 +7342,7 @@
         <v>281</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -7542,7 +7538,7 @@
         <v>164</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -7640,7 +7636,7 @@
         <v>165</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E24" s="4">
         <v>3</v>
@@ -7738,7 +7734,7 @@
         <v>166</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -7936,7 +7932,7 @@
         <v>167</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -8138,7 +8134,7 @@
         <v>168</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -8240,7 +8236,7 @@
         <v>169</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -8342,7 +8338,7 @@
         <v>170</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -8444,7 +8440,7 @@
         <v>173</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -8546,7 +8542,7 @@
         <v>172</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -8648,7 +8644,7 @@
         <v>171</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -8750,7 +8746,7 @@
         <v>278</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E35" s="15">
         <v>3</v>
@@ -9242,7 +9238,7 @@
         <v>128</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -9346,7 +9342,7 @@
         <v>130</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -10726,7 +10722,7 @@
         <v>189</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -11310,7 +11306,7 @@
         <v>134</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -11412,7 +11408,7 @@
         <v>195</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E62" s="4">
         <v>3</v>
@@ -11818,7 +11814,7 @@
         <v>199</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -12590,7 +12586,7 @@
         <v>236</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E74" s="4">
         <v>4</v>
@@ -12692,7 +12688,7 @@
         <v>207</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E75" s="4">
         <v>2</v>
@@ -12894,7 +12890,7 @@
         <v>208</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E77" s="4">
         <v>2</v>
@@ -12996,7 +12992,7 @@
         <v>209</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E78" s="4">
         <v>3</v>
@@ -13098,7 +13094,7 @@
         <v>210</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E79" s="4">
         <v>3</v>
@@ -13200,7 +13196,7 @@
         <v>211</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E80" s="4">
         <v>3</v>
@@ -13302,7 +13298,7 @@
         <v>212</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E81" s="4">
         <v>3</v>
@@ -13404,7 +13400,7 @@
         <v>213</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E82" s="4">
         <v>2</v>
@@ -13506,7 +13502,7 @@
         <v>214</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E83" s="4">
         <v>3</v>
@@ -13608,7 +13604,7 @@
         <v>215</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E84" s="4">
         <v>2</v>
@@ -14098,7 +14094,7 @@
         <v>220</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E89" s="4">
         <v>4</v>
@@ -14202,7 +14198,7 @@
         <v>221</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E90" s="4">
         <v>4</v>
@@ -14702,7 +14698,7 @@
         <v>225</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E95" s="4">
         <v>2</v>
@@ -15104,7 +15100,7 @@
         <v>228</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E99" s="4">
         <v>6</v>
@@ -15310,7 +15306,7 @@
         <v>138</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -15508,7 +15504,7 @@
         <v>140</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E103" s="4">
         <v>4</v>
@@ -15612,7 +15608,7 @@
         <v>231</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E104" s="4">
         <v>2</v>
@@ -15714,7 +15710,7 @@
         <v>232</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -15914,7 +15910,7 @@
         <v>233</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E107" s="4">
         <v>3</v>
@@ -16414,7 +16410,7 @@
         <v>143</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E112" s="4">
         <v>2</v>
@@ -16814,7 +16810,7 @@
         <v>273</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E116" s="4">
         <v>3</v>
@@ -16914,7 +16910,7 @@
         <v>145</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E117" s="4">
         <v>2</v>
@@ -17218,7 +17214,7 @@
         <v>240</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E120" s="4">
         <v>4</v>
@@ -18044,7 +18040,7 @@
         <v>336</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>260</v>
@@ -18059,7 +18055,7 @@
         <v>250</v>
       </c>
       <c r="AC1" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AD1" s="20" t="s">
         <v>251</v>
@@ -18160,7 +18156,7 @@
         <v>111</v>
       </c>
       <c r="AC2" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>110</v>
@@ -18249,7 +18245,7 @@
         <v>343</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z3" t="s">
         <v>117</v>
@@ -18261,7 +18257,7 @@
         <v>119</v>
       </c>
       <c r="AC3" s="40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AD3" t="s">
         <v>120</v>
@@ -18620,10 +18616,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" t="s">
         <v>346</v>
-      </c>
-      <c r="C1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -3731,31 +3731,31 @@
         </row>
         <row r="18">
           <cell r="A18">
-            <v>55110001</v>
+            <v>55100015</v>
           </cell>
           <cell r="X18">
-            <v>5</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>55110002</v>
+            <v>55110001</v>
           </cell>
           <cell r="X19">
-            <v>8</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>55110003</v>
+            <v>55110002</v>
           </cell>
           <cell r="X20">
-            <v>25</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>55110004</v>
+            <v>55110003</v>
           </cell>
           <cell r="X21">
             <v>25</v>
@@ -3763,175 +3763,175 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>55110005</v>
+            <v>55110004</v>
           </cell>
           <cell r="X22">
-            <v>20</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>55110006</v>
+            <v>55110005</v>
           </cell>
           <cell r="X23">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>55110007</v>
+            <v>55110006</v>
           </cell>
           <cell r="X24">
-            <v>10</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>55110008</v>
+            <v>55110007</v>
           </cell>
           <cell r="X25">
-            <v>50</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>55110009</v>
+            <v>55110008</v>
           </cell>
           <cell r="X26">
-            <v>12</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>55110010</v>
+            <v>55110009</v>
           </cell>
           <cell r="X27">
-            <v>30</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>55110011</v>
+            <v>55110010</v>
           </cell>
           <cell r="X28">
-            <v>10</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>55110012</v>
+            <v>55110011</v>
           </cell>
           <cell r="X29">
-            <v>30</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>55110013</v>
+            <v>55110012</v>
           </cell>
           <cell r="X30">
-            <v>200</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>55110014</v>
+            <v>55110013</v>
           </cell>
           <cell r="X31">
-            <v>50</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>55110015</v>
+            <v>55110014</v>
           </cell>
           <cell r="X32">
-            <v>20</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>55110016</v>
+            <v>55110015</v>
           </cell>
           <cell r="X33">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>55110017</v>
+            <v>55110016</v>
           </cell>
           <cell r="X34">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>55110018</v>
+            <v>55110017</v>
           </cell>
           <cell r="X35">
-            <v>20</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>55110019</v>
+            <v>55110018</v>
           </cell>
           <cell r="X36">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>55200001</v>
+            <v>55110019</v>
           </cell>
           <cell r="X37">
-            <v>40</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>55200002</v>
+            <v>55110020</v>
           </cell>
           <cell r="X38">
-            <v>15</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>55200003</v>
+            <v>55200001</v>
           </cell>
           <cell r="X39">
-            <v>25</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>55200004</v>
+            <v>55200002</v>
           </cell>
           <cell r="X40">
-            <v>40</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>55200005</v>
+            <v>55200003</v>
           </cell>
           <cell r="X41">
-            <v>20</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>55200006</v>
+            <v>55200004</v>
           </cell>
           <cell r="X42">
-            <v>20</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>55200007</v>
+            <v>55200005</v>
           </cell>
           <cell r="X43">
             <v>20</v>
@@ -3939,23 +3939,23 @@
         </row>
         <row r="44">
           <cell r="A44">
-            <v>55200008</v>
+            <v>55200006</v>
           </cell>
           <cell r="X44">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>55200009</v>
+            <v>55200007</v>
           </cell>
           <cell r="X45">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>55200010</v>
+            <v>55200008</v>
           </cell>
           <cell r="X46">
             <v>25</v>
@@ -3963,31 +3963,31 @@
         </row>
         <row r="47">
           <cell r="A47">
-            <v>55300001</v>
+            <v>55200009</v>
           </cell>
           <cell r="X47">
-            <v>40</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>55300002</v>
+            <v>55200010</v>
           </cell>
           <cell r="X48">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>55300003</v>
+            <v>55200011</v>
           </cell>
           <cell r="X49">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>55300004</v>
+            <v>55200012</v>
           </cell>
           <cell r="X50">
             <v>30</v>
@@ -3995,15 +3995,15 @@
         </row>
         <row r="51">
           <cell r="A51">
-            <v>55300005</v>
+            <v>55200013</v>
           </cell>
           <cell r="X51">
-            <v>30</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>55300006</v>
+            <v>55200014</v>
           </cell>
           <cell r="X52">
             <v>25</v>
@@ -4011,175 +4011,175 @@
         </row>
         <row r="53">
           <cell r="A53">
-            <v>55300007</v>
+            <v>55300001</v>
           </cell>
           <cell r="X53">
-            <v>25</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>55310001</v>
+            <v>55300002</v>
           </cell>
           <cell r="X54">
-            <v>100</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>55310002</v>
+            <v>55300003</v>
           </cell>
           <cell r="X55">
-            <v>15</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>55310003</v>
+            <v>55300004</v>
           </cell>
           <cell r="X56">
-            <v>13</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>55400001</v>
+            <v>55300005</v>
           </cell>
           <cell r="X57">
-            <v>80</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>55400002</v>
+            <v>55300006</v>
           </cell>
           <cell r="X58">
-            <v>80</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>55400003</v>
+            <v>55300007</v>
           </cell>
           <cell r="X59">
-            <v>80</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>55400004</v>
+            <v>55300008</v>
           </cell>
           <cell r="X60">
-            <v>80</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>55400005</v>
+            <v>55300009</v>
           </cell>
           <cell r="X61">
-            <v>55</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>55400006</v>
+            <v>55300010</v>
           </cell>
           <cell r="X62">
-            <v>30</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>55500001</v>
+            <v>55310001</v>
           </cell>
           <cell r="X63">
-            <v>5</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>55500002</v>
+            <v>55310002</v>
           </cell>
           <cell r="X64">
-            <v>5</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>55500003</v>
+            <v>55310003</v>
           </cell>
           <cell r="X65">
-            <v>5</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>55500004</v>
+            <v>55400001</v>
           </cell>
           <cell r="X66">
-            <v>5</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>55500005</v>
+            <v>55400002</v>
           </cell>
           <cell r="X67">
-            <v>5</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>55500006</v>
+            <v>55400003</v>
           </cell>
           <cell r="X68">
-            <v>5</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>55500007</v>
+            <v>55400004</v>
           </cell>
           <cell r="X69">
-            <v>5</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>55500008</v>
+            <v>55400005</v>
           </cell>
           <cell r="X70">
-            <v>5</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>55500009</v>
+            <v>55400006</v>
           </cell>
           <cell r="X71">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>55500010</v>
+            <v>55400007</v>
           </cell>
           <cell r="X72">
-            <v>5</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>55500011</v>
+            <v>55410001</v>
           </cell>
           <cell r="X73">
-            <v>5</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>55500012</v>
+            <v>55500001</v>
           </cell>
           <cell r="X74">
             <v>5</v>
@@ -4187,7 +4187,7 @@
         </row>
         <row r="75">
           <cell r="A75">
-            <v>55500013</v>
+            <v>55500002</v>
           </cell>
           <cell r="X75">
             <v>5</v>
@@ -4195,7 +4195,7 @@
         </row>
         <row r="76">
           <cell r="A76">
-            <v>55500014</v>
+            <v>55500003</v>
           </cell>
           <cell r="X76">
             <v>5</v>
@@ -4203,7 +4203,7 @@
         </row>
         <row r="77">
           <cell r="A77">
-            <v>55500015</v>
+            <v>55500004</v>
           </cell>
           <cell r="X77">
             <v>5</v>
@@ -4211,7 +4211,7 @@
         </row>
         <row r="78">
           <cell r="A78">
-            <v>55500016</v>
+            <v>55500005</v>
           </cell>
           <cell r="X78">
             <v>5</v>
@@ -4219,63 +4219,63 @@
         </row>
         <row r="79">
           <cell r="A79">
-            <v>55510001</v>
+            <v>55500006</v>
           </cell>
           <cell r="X79">
-            <v>12</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>55510002</v>
+            <v>55500007</v>
           </cell>
           <cell r="X80">
-            <v>15</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>55510003</v>
+            <v>55500008</v>
           </cell>
           <cell r="X81">
-            <v>15</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>55510004</v>
+            <v>55500009</v>
           </cell>
           <cell r="X82">
-            <v>12</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>55510006</v>
+            <v>55500010</v>
           </cell>
           <cell r="X83">
-            <v>25</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>55510007</v>
+            <v>55500011</v>
           </cell>
           <cell r="X84">
-            <v>10</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>55510009</v>
+            <v>55500012</v>
           </cell>
           <cell r="X85">
-            <v>50</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>55510010</v>
+            <v>55500013</v>
           </cell>
           <cell r="X86">
             <v>5</v>
@@ -4283,271 +4283,271 @@
         </row>
         <row r="87">
           <cell r="A87">
-            <v>55510011</v>
+            <v>55500014</v>
           </cell>
           <cell r="X87">
-            <v>15</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>55510012</v>
+            <v>55500015</v>
           </cell>
           <cell r="X88">
-            <v>62</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>55510013</v>
+            <v>55500016</v>
           </cell>
           <cell r="X89">
-            <v>12</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>55510014</v>
+            <v>55510001</v>
           </cell>
           <cell r="X90">
-            <v>25</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>55510018</v>
+            <v>55510002</v>
           </cell>
           <cell r="X91">
-            <v>37</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>55510019</v>
+            <v>55510003</v>
           </cell>
           <cell r="X92">
-            <v>37</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>55520001</v>
+            <v>55510004</v>
           </cell>
           <cell r="X93">
-            <v>-25</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>55520002</v>
+            <v>55510006</v>
           </cell>
           <cell r="X94">
-            <v>62</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>55520003</v>
+            <v>55510007</v>
           </cell>
           <cell r="X95">
-            <v>27</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>55520004</v>
+            <v>55510009</v>
           </cell>
           <cell r="X96">
-            <v>150</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>55600001</v>
+            <v>55510010</v>
           </cell>
           <cell r="X97">
-            <v>8</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>55600002</v>
+            <v>55510011</v>
           </cell>
           <cell r="X98">
-            <v>10</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>55600003</v>
+            <v>55510012</v>
           </cell>
           <cell r="X99">
-            <v>10</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>55600004</v>
+            <v>55510013</v>
           </cell>
           <cell r="X100">
-            <v>8</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>55600005</v>
+            <v>55510014</v>
           </cell>
           <cell r="X101">
-            <v>15</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>55600006</v>
+            <v>55510018</v>
           </cell>
           <cell r="X102">
-            <v>15</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>55600007</v>
+            <v>55510019</v>
           </cell>
           <cell r="X103">
-            <v>20</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>55600008</v>
+            <v>55520001</v>
           </cell>
           <cell r="X104">
-            <v>30</v>
+            <v>-25</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>55600009</v>
+            <v>55520002</v>
           </cell>
           <cell r="X105">
-            <v>13</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>55600010</v>
+            <v>55520003</v>
           </cell>
           <cell r="X106">
-            <v>30</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>55600011</v>
+            <v>55600001</v>
           </cell>
           <cell r="X107">
-            <v>20</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>55600012</v>
+            <v>55600002</v>
           </cell>
           <cell r="X108">
-            <v>30</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>55600013</v>
+            <v>55600003</v>
           </cell>
           <cell r="X109">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>55610001</v>
+            <v>55600004</v>
           </cell>
           <cell r="X110">
-            <v>30</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>55610002</v>
+            <v>55600005</v>
           </cell>
           <cell r="X111">
-            <v>5</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>55610003</v>
+            <v>55600006</v>
           </cell>
           <cell r="X112">
-            <v>5</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>55610004</v>
+            <v>55600007</v>
           </cell>
           <cell r="X113">
-            <v>10</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>55700001</v>
+            <v>55600008</v>
           </cell>
           <cell r="X114">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>55700002</v>
+            <v>55600009</v>
           </cell>
           <cell r="X115">
-            <v>20</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>55700003</v>
+            <v>55600010</v>
           </cell>
           <cell r="X116">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>55700004</v>
+            <v>55600011</v>
           </cell>
           <cell r="X117">
-            <v>9</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>55700005</v>
+            <v>55600012</v>
           </cell>
           <cell r="X118">
-            <v>40</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>55900001</v>
+            <v>55600013</v>
           </cell>
           <cell r="X119">
-            <v>35</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>55900002</v>
+            <v>55600014</v>
           </cell>
           <cell r="X120">
             <v>30</v>
@@ -4555,63 +4555,63 @@
         </row>
         <row r="121">
           <cell r="A121">
-            <v>55900003</v>
+            <v>55600015</v>
           </cell>
           <cell r="X121">
-            <v>80</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>55900004</v>
+            <v>55600016</v>
           </cell>
           <cell r="X122">
-            <v>-30</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>55900005</v>
+            <v>55610001</v>
           </cell>
           <cell r="X123">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>55900006</v>
+            <v>55610002</v>
           </cell>
           <cell r="X124">
-            <v>35</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>55900007</v>
+            <v>55610003</v>
           </cell>
           <cell r="X125">
-            <v>25</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>55900008</v>
+            <v>55610004</v>
           </cell>
           <cell r="X126">
-            <v>40</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>55900009</v>
+            <v>55700001</v>
           </cell>
           <cell r="X127">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>55900010</v>
+            <v>55700002</v>
           </cell>
           <cell r="X128">
             <v>20</v>
@@ -4619,39 +4619,39 @@
         </row>
         <row r="129">
           <cell r="A129">
-            <v>55900011</v>
+            <v>55700003</v>
           </cell>
           <cell r="X129">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>55900012</v>
+            <v>55700004</v>
           </cell>
           <cell r="X130">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>55900013</v>
+            <v>55700005</v>
           </cell>
           <cell r="X131">
-            <v>10</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>55900014</v>
+            <v>55900001</v>
           </cell>
           <cell r="X132">
-            <v>20</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>55900015</v>
+            <v>55900002</v>
           </cell>
           <cell r="X133">
             <v>30</v>
@@ -4659,213 +4659,212 @@
         </row>
         <row r="134">
           <cell r="A134">
-            <v>55900016</v>
+            <v>55900003</v>
           </cell>
           <cell r="X134">
-            <v>45</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>55900017</v>
+            <v>55900004</v>
           </cell>
           <cell r="X135">
-            <v>10</v>
+            <v>-30</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>55900018</v>
+            <v>55900005</v>
           </cell>
           <cell r="X136">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>55900019</v>
+            <v>55900006</v>
           </cell>
           <cell r="X137">
-            <v>80</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>55900020</v>
+            <v>55900007</v>
           </cell>
           <cell r="X138">
-            <v>20</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>55900021</v>
+            <v>55900008</v>
           </cell>
           <cell r="X139">
-            <v>10</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>55900022</v>
+            <v>55900009</v>
           </cell>
           <cell r="X140">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>55900023</v>
+            <v>55900010</v>
           </cell>
           <cell r="X141">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>55900024</v>
+            <v>55900011</v>
           </cell>
           <cell r="X142">
-            <v>10</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>55900025</v>
+            <v>55900012</v>
           </cell>
           <cell r="X143">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>55900026</v>
+            <v>55900013</v>
           </cell>
           <cell r="X144">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>55900027</v>
+            <v>55900014</v>
           </cell>
           <cell r="X145">
-            <v>35</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>55900028</v>
-          </cell>
-          <cell r="X146"/>
+            <v>55900015</v>
+          </cell>
+          <cell r="X146">
+            <v>30</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>55900029</v>
+            <v>55900016</v>
           </cell>
           <cell r="X147">
-            <v>15</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>55900030</v>
+            <v>55900017</v>
           </cell>
           <cell r="X148">
-            <v>25</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>55990001</v>
+            <v>55900018</v>
           </cell>
           <cell r="X149">
-            <v>15</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>55990002</v>
+            <v>55900019</v>
           </cell>
           <cell r="X150">
-            <v>15</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>55990003</v>
+            <v>55900020</v>
           </cell>
           <cell r="X151">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>55990004</v>
+            <v>55900021</v>
           </cell>
           <cell r="X152">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>55990005</v>
+            <v>55900022</v>
           </cell>
           <cell r="X153">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>55990006</v>
+            <v>55900023</v>
           </cell>
           <cell r="X154">
-            <v>15</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>55990011</v>
+            <v>55900024</v>
           </cell>
           <cell r="X155">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>55990012</v>
+            <v>55900025</v>
           </cell>
           <cell r="X156">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>55990013</v>
+            <v>55900026</v>
           </cell>
           <cell r="X157">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>55990014</v>
+            <v>55900027</v>
           </cell>
           <cell r="X158">
-            <v>15</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>55990015</v>
-          </cell>
-          <cell r="X159">
-            <v>15</v>
+            <v>55900028</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>55990016</v>
+            <v>55900029</v>
           </cell>
           <cell r="X160">
             <v>15</v>
@@ -4873,34 +4872,274 @@
         </row>
         <row r="161">
           <cell r="A161">
-            <v>55990101</v>
+            <v>55900030</v>
           </cell>
           <cell r="X161">
-            <v>8</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>55990102</v>
+            <v>55900031</v>
           </cell>
           <cell r="X162">
-            <v>25</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>55990103</v>
+            <v>55900032</v>
           </cell>
           <cell r="X163">
-            <v>35</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
+            <v>55900033</v>
+          </cell>
+          <cell r="X164">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>55900034</v>
+          </cell>
+          <cell r="X165">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>55900035</v>
+          </cell>
+          <cell r="X166">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>55900036</v>
+          </cell>
+          <cell r="X167">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>55900037</v>
+          </cell>
+          <cell r="X168">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>55900038</v>
+          </cell>
+          <cell r="X169">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170">
+            <v>55900039</v>
+          </cell>
+          <cell r="X170">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>55900040</v>
+          </cell>
+          <cell r="X171">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>55900041</v>
+          </cell>
+          <cell r="X172">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>55900042</v>
+          </cell>
+          <cell r="X173">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174">
+            <v>55900043</v>
+          </cell>
+          <cell r="X174">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>55900044</v>
+          </cell>
+          <cell r="X175">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>55900045</v>
+          </cell>
+          <cell r="X176">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>55900046</v>
+          </cell>
+          <cell r="X177">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>55990001</v>
+          </cell>
+          <cell r="X178">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>55990002</v>
+          </cell>
+          <cell r="X179">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>55990003</v>
+          </cell>
+          <cell r="X180">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>55990004</v>
+          </cell>
+          <cell r="X181">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>55990005</v>
+          </cell>
+          <cell r="X182">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>55990006</v>
+          </cell>
+          <cell r="X183">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184">
+            <v>55990011</v>
+          </cell>
+          <cell r="X184">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185">
+            <v>55990012</v>
+          </cell>
+          <cell r="X185">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186">
+            <v>55990013</v>
+          </cell>
+          <cell r="X186">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187">
+            <v>55990014</v>
+          </cell>
+          <cell r="X187">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>55990015</v>
+          </cell>
+          <cell r="X188">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189">
+            <v>55990016</v>
+          </cell>
+          <cell r="X189">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190">
+            <v>55990101</v>
+          </cell>
+          <cell r="X190">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191">
+            <v>55990102</v>
+          </cell>
+          <cell r="X191">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192">
+            <v>55990103</v>
+          </cell>
+          <cell r="X192">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193">
             <v>55990104</v>
           </cell>
-          <cell r="X164">
+          <cell r="X193">
             <v>50</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194">
+            <v>55990105</v>
+          </cell>
+          <cell r="X194">
+            <v>150</v>
           </cell>
         </row>
       </sheetData>
@@ -5302,31 +5541,31 @@
   <dimension ref="A1:AG124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="Z103" sqref="Z103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="5" max="9" width="4.125" customWidth="1"/>
-    <col min="10" max="11" width="3.75" customWidth="1"/>
-    <col min="12" max="20" width="3.875" customWidth="1"/>
-    <col min="21" max="21" width="6.375" customWidth="1"/>
-    <col min="22" max="23" width="3.875" customWidth="1"/>
-    <col min="24" max="25" width="4.75" customWidth="1"/>
-    <col min="26" max="26" width="9.5" customWidth="1"/>
-    <col min="27" max="27" width="7.125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="5" max="9" width="4.109375" customWidth="1"/>
+    <col min="10" max="11" width="3.77734375" customWidth="1"/>
+    <col min="12" max="20" width="3.88671875" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="23" width="3.88671875" customWidth="1"/>
+    <col min="24" max="25" width="4.77734375" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" customWidth="1"/>
+    <col min="27" max="27" width="7.109375" customWidth="1"/>
     <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="7.375" customWidth="1"/>
-    <col min="32" max="33" width="4.375" customWidth="1"/>
-    <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.33203125" customWidth="1"/>
+    <col min="32" max="33" width="4.33203125" customWidth="1"/>
+    <col min="36" max="36" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="69">
+    <row r="1" spans="1:33" ht="73.2">
       <c r="A1" s="19" t="s">
         <v>242</v>
       </c>
@@ -15573,7 +15812,7 @@
         <v>49.5</v>
       </c>
       <c r="Z103" s="37">
-        <v>55520004</v>
+        <v>55990105</v>
       </c>
       <c r="AA103" s="4">
         <v>33</v>
@@ -15723,7 +15962,7 @@
       </c>
       <c r="H105" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105" s="4">
         <v>3</v>
@@ -15763,7 +16002,7 @@
       </c>
       <c r="U105" s="10">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="V105" s="8">
         <v>0</v>
@@ -15776,7 +16015,7 @@
       </c>
       <c r="Y105" s="8">
         <f>IF(ISBLANK(Z105),0, LOOKUP(Z105,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA105/100)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Z105" s="37">
         <v>55700004</v>
@@ -17953,23 +18192,23 @@
       <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="5" max="9" width="4.125" customWidth="1"/>
-    <col min="10" max="11" width="3.75" customWidth="1"/>
-    <col min="12" max="12" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="5" max="9" width="4.109375" customWidth="1"/>
+    <col min="10" max="11" width="3.77734375" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" customWidth="1"/>
     <col min="13" max="20" width="4" customWidth="1"/>
-    <col min="21" max="21" width="3.75" customWidth="1"/>
+    <col min="21" max="21" width="3.77734375" customWidth="1"/>
     <col min="22" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="3.75" customWidth="1"/>
-    <col min="26" max="27" width="7.125" customWidth="1"/>
+    <col min="25" max="25" width="3.77734375" customWidth="1"/>
+    <col min="26" max="27" width="7.109375" customWidth="1"/>
     <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="7.375" customWidth="1"/>
-    <col min="32" max="33" width="4.375" customWidth="1"/>
+    <col min="30" max="31" width="7.33203125" customWidth="1"/>
+    <col min="32" max="33" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="69">
+    <row r="1" spans="1:33" ht="73.2">
       <c r="A1" s="19" t="s">
         <v>242</v>
       </c>
@@ -18612,7 +18851,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="370">
   <si>
     <t>铁杖</t>
   </si>
@@ -388,9 +388,6 @@
     <t>Arrow</t>
   </si>
   <si>
-    <t>Res</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -789,9 +786,6 @@
   </si>
   <si>
     <t>箭矢</t>
-  </si>
-  <si>
-    <t>资源</t>
   </si>
   <si>
     <t>路径</t>
@@ -2185,7 +2179,149 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2252,33 +2388,6 @@
         <right style="thin">
           <color theme="4"/>
         </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
@@ -2796,82 +2905,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2936,33 +2969,6 @@
         <right style="thin">
           <color theme="4"/>
         </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
@@ -3505,72 +3511,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4861,6 +4801,7 @@
           <cell r="A159">
             <v>55900028</v>
           </cell>
+          <cell r="X159"/>
         </row>
         <row r="160">
           <cell r="A160">
@@ -5008,23 +4949,23 @@
         </row>
         <row r="178">
           <cell r="A178">
-            <v>55990001</v>
+            <v>55900047</v>
           </cell>
           <cell r="X178">
-            <v>15</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>55990002</v>
+            <v>55900048</v>
           </cell>
           <cell r="X179">
-            <v>15</v>
+            <v>70</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>55990003</v>
+            <v>55990001</v>
           </cell>
           <cell r="X180">
             <v>15</v>
@@ -5032,7 +4973,7 @@
         </row>
         <row r="181">
           <cell r="A181">
-            <v>55990004</v>
+            <v>55990002</v>
           </cell>
           <cell r="X181">
             <v>15</v>
@@ -5040,7 +4981,7 @@
         </row>
         <row r="182">
           <cell r="A182">
-            <v>55990005</v>
+            <v>55990003</v>
           </cell>
           <cell r="X182">
             <v>15</v>
@@ -5048,7 +4989,7 @@
         </row>
         <row r="183">
           <cell r="A183">
-            <v>55990006</v>
+            <v>55990004</v>
           </cell>
           <cell r="X183">
             <v>15</v>
@@ -5056,7 +4997,7 @@
         </row>
         <row r="184">
           <cell r="A184">
-            <v>55990011</v>
+            <v>55990005</v>
           </cell>
           <cell r="X184">
             <v>15</v>
@@ -5064,7 +5005,7 @@
         </row>
         <row r="185">
           <cell r="A185">
-            <v>55990012</v>
+            <v>55990006</v>
           </cell>
           <cell r="X185">
             <v>15</v>
@@ -5072,7 +5013,7 @@
         </row>
         <row r="186">
           <cell r="A186">
-            <v>55990013</v>
+            <v>55990011</v>
           </cell>
           <cell r="X186">
             <v>15</v>
@@ -5080,7 +5021,7 @@
         </row>
         <row r="187">
           <cell r="A187">
-            <v>55990014</v>
+            <v>55990012</v>
           </cell>
           <cell r="X187">
             <v>15</v>
@@ -5088,7 +5029,7 @@
         </row>
         <row r="188">
           <cell r="A188">
-            <v>55990015</v>
+            <v>55990013</v>
           </cell>
           <cell r="X188">
             <v>15</v>
@@ -5096,7 +5037,7 @@
         </row>
         <row r="189">
           <cell r="A189">
-            <v>55990016</v>
+            <v>55990014</v>
           </cell>
           <cell r="X189">
             <v>15</v>
@@ -5104,41 +5045,57 @@
         </row>
         <row r="190">
           <cell r="A190">
-            <v>55990101</v>
+            <v>55990015</v>
           </cell>
           <cell r="X190">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>55990102</v>
+            <v>55990016</v>
           </cell>
           <cell r="X191">
-            <v>25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>55990103</v>
+            <v>55990101</v>
           </cell>
           <cell r="X192">
-            <v>35</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>55990104</v>
+            <v>55990102</v>
           </cell>
           <cell r="X193">
-            <v>50</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
+            <v>55990103</v>
+          </cell>
+          <cell r="X194">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195">
+            <v>55990104</v>
+          </cell>
+          <cell r="X195">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196">
             <v>55990105</v>
           </cell>
-          <cell r="X194">
+          <cell r="X196">
             <v>150</v>
           </cell>
         </row>
@@ -5150,102 +5107,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG124" totalsRowShown="0" dataDxfId="78" tableBorderDxfId="77">
-  <autoFilter ref="A3:AG124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF124" totalsRowShown="0" dataDxfId="85" tableBorderDxfId="84">
+  <autoFilter ref="A3:AF124"/>
   <sortState ref="A4:AG124">
     <sortCondition ref="A3:A124"/>
   </sortState>
-  <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="76"/>
-    <tableColumn id="2" name="Name" dataDxfId="75"/>
-    <tableColumn id="3" name="Ename" dataDxfId="74"/>
-    <tableColumn id="4" name="Remark" dataDxfId="73"/>
-    <tableColumn id="5" name="Star" dataDxfId="72"/>
-    <tableColumn id="6" name="Type" dataDxfId="71"/>
-    <tableColumn id="7" name="Attr" dataDxfId="70"/>
-    <tableColumn id="34" name="Quality" dataDxfId="69">
+  <tableColumns count="32">
+    <tableColumn id="1" name="Id" dataDxfId="83"/>
+    <tableColumn id="2" name="Name" dataDxfId="82"/>
+    <tableColumn id="3" name="Ename" dataDxfId="81"/>
+    <tableColumn id="4" name="Remark" dataDxfId="80"/>
+    <tableColumn id="5" name="Star" dataDxfId="79"/>
+    <tableColumn id="6" name="Type" dataDxfId="78"/>
+    <tableColumn id="7" name="Attr" dataDxfId="77"/>
+    <tableColumn id="34" name="Quality" dataDxfId="76">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="68"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="67"/>
-    <tableColumn id="9" name="VitP" dataDxfId="66"/>
-    <tableColumn id="25" name="Modify" dataDxfId="65"/>
-    <tableColumn id="27" name="Dura" dataDxfId="64"/>
-    <tableColumn id="20" name="Def" dataDxfId="63"/>
-    <tableColumn id="21" name="Mag" dataDxfId="62"/>
-    <tableColumn id="29" name="Spd" dataDxfId="61"/>
-    <tableColumn id="30" name="Hit" dataDxfId="60"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="59"/>
-    <tableColumn id="12" name="Crt" dataDxfId="58"/>
-    <tableColumn id="11" name="Luk" dataDxfId="57"/>
-    <tableColumn id="32" name="Sum" dataDxfId="56">
+    <tableColumn id="15" name="Cost" dataDxfId="75"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="74"/>
+    <tableColumn id="9" name="VitP" dataDxfId="73"/>
+    <tableColumn id="25" name="Modify" dataDxfId="72"/>
+    <tableColumn id="27" name="Dura" dataDxfId="71"/>
+    <tableColumn id="20" name="Def" dataDxfId="70"/>
+    <tableColumn id="21" name="Mag" dataDxfId="69"/>
+    <tableColumn id="29" name="Spd" dataDxfId="68"/>
+    <tableColumn id="30" name="Hit" dataDxfId="67"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="66"/>
+    <tableColumn id="12" name="Crt" dataDxfId="65"/>
+    <tableColumn id="11" name="Luk" dataDxfId="64"/>
+    <tableColumn id="32" name="Sum" dataDxfId="63">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="55"/>
-    <tableColumn id="31" name="Mov" dataDxfId="54"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="53"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="52">
+    <tableColumn id="10" name="Range" dataDxfId="62"/>
+    <tableColumn id="31" name="Mov" dataDxfId="61"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="60"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="59">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="51"/>
-    <tableColumn id="14" name="Percent" dataDxfId="50"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="49"/>
-    <tableColumn id="26" name="JobId" dataDxfId="48"/>
-    <tableColumn id="17" name="Res" dataDxfId="47"/>
-    <tableColumn id="18" name="Icon" dataDxfId="46"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="45"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="44"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="58"/>
+    <tableColumn id="14" name="Percent" dataDxfId="57"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="56"/>
+    <tableColumn id="26" name="JobId" dataDxfId="55"/>
+    <tableColumn id="18" name="Icon" dataDxfId="54"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="53"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG5" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
-  <autoFilter ref="A3:AG5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="51" tableBorderDxfId="50">
+  <autoFilter ref="A3:AF5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
-  <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" name="Name" dataDxfId="30"/>
-    <tableColumn id="3" name="Ename" dataDxfId="29"/>
-    <tableColumn id="4" name="Remark" dataDxfId="28"/>
-    <tableColumn id="5" name="Star" dataDxfId="27"/>
-    <tableColumn id="6" name="Type" dataDxfId="26"/>
-    <tableColumn id="7" name="Attr" dataDxfId="25"/>
-    <tableColumn id="34" name="Quality" dataDxfId="24">
+  <tableColumns count="32">
+    <tableColumn id="1" name="Id" dataDxfId="49"/>
+    <tableColumn id="2" name="Name" dataDxfId="48"/>
+    <tableColumn id="3" name="Ename" dataDxfId="47"/>
+    <tableColumn id="4" name="Remark" dataDxfId="46"/>
+    <tableColumn id="5" name="Star" dataDxfId="45"/>
+    <tableColumn id="6" name="Type" dataDxfId="44"/>
+    <tableColumn id="7" name="Attr" dataDxfId="43"/>
+    <tableColumn id="34" name="Quality" dataDxfId="42">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="23"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
-    <tableColumn id="9" name="VitP" dataDxfId="21"/>
-    <tableColumn id="25" name="Modify" dataDxfId="20"/>
-    <tableColumn id="31" name="Dura" dataDxfId="19"/>
-    <tableColumn id="11" name="Def" dataDxfId="18"/>
-    <tableColumn id="21" name="Mag" dataDxfId="17"/>
-    <tableColumn id="29" name="Spd" dataDxfId="16"/>
-    <tableColumn id="30" name="Hit" dataDxfId="15"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="14"/>
-    <tableColumn id="19" name="Crt" dataDxfId="13"/>
-    <tableColumn id="12" name="Luk" dataDxfId="12"/>
-    <tableColumn id="32" name="Sum" dataDxfId="11">
+    <tableColumn id="15" name="Cost" dataDxfId="41"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="40"/>
+    <tableColumn id="9" name="VitP" dataDxfId="39"/>
+    <tableColumn id="25" name="Modify" dataDxfId="38"/>
+    <tableColumn id="31" name="Dura" dataDxfId="37"/>
+    <tableColumn id="11" name="Def" dataDxfId="36"/>
+    <tableColumn id="21" name="Mag" dataDxfId="35"/>
+    <tableColumn id="29" name="Spd" dataDxfId="34"/>
+    <tableColumn id="30" name="Hit" dataDxfId="33"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="32"/>
+    <tableColumn id="19" name="Crt" dataDxfId="31"/>
+    <tableColumn id="12" name="Luk" dataDxfId="30"/>
+    <tableColumn id="32" name="Sum" dataDxfId="29">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="10"/>
-    <tableColumn id="27" name="Mov" dataDxfId="9"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="8"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="7">
+    <tableColumn id="10" name="Range" dataDxfId="28"/>
+    <tableColumn id="27" name="Mov" dataDxfId="27"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="26"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="25">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="6"/>
-    <tableColumn id="14" name="Percent" dataDxfId="5"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="4"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="24"/>
+    <tableColumn id="14" name="Percent" dataDxfId="23"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="22"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="17" name="Res" dataDxfId="3"/>
-    <tableColumn id="18" name="Icon" dataDxfId="2"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
+    <tableColumn id="18" name="Icon" dataDxfId="21"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="20"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5538,13 +5493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG124"/>
+  <dimension ref="A1:AF124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z103" sqref="Z103"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5560,113 +5515,110 @@
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="7.109375" customWidth="1"/>
     <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="7.33203125" customWidth="1"/>
-    <col min="32" max="33" width="4.33203125" customWidth="1"/>
-    <col min="36" max="36" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.33203125" customWidth="1"/>
+    <col min="31" max="32" width="4.33203125" customWidth="1"/>
+    <col min="35" max="35" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="73.2">
+    <row r="1" spans="1:32" ht="73.2">
       <c r="A1" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="F1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="W1" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="AA1" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC1" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="Y1" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AD1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="AC1" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF1" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="AG1" s="27" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -5692,7 +5644,7 @@
         <v>110</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>110</v>
@@ -5701,46 +5653,46 @@
         <v>110</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>110</v>
@@ -5752,22 +5704,19 @@
         <v>111</v>
       </c>
       <c r="AC2" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>110</v>
+        <v>349</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="AF2" s="28" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -5775,10 +5724,10 @@
         <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
         <v>114</v>
@@ -5790,58 +5739,58 @@
         <v>116</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O3" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q3" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="R3" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="S3" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="T3" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="S3" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>329</v>
-      </c>
       <c r="U3" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Z3" t="s">
         <v>117</v>
@@ -5853,22 +5802,19 @@
         <v>119</v>
       </c>
       <c r="AC3" s="40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AD3" t="s">
         <v>120</v>
       </c>
-      <c r="AE3" t="s">
-        <v>121</v>
+      <c r="AE3" s="24" t="s">
+        <v>287</v>
       </c>
       <c r="AF3" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="AG3" s="24" t="s">
-        <v>291</v>
-      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>52000001</v>
       </c>
@@ -5876,10 +5822,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -5953,20 +5899,17 @@
         <v>1</v>
       </c>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="5">
+      <c r="AD4" s="5">
         <v>1</v>
       </c>
-      <c r="AF4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="25">
+      <c r="AE4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>52000002</v>
       </c>
@@ -5974,10 +5917,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -6051,20 +5994,17 @@
         <v>3</v>
       </c>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="5">
+      <c r="AD5" s="5">
         <v>2</v>
       </c>
-      <c r="AF5" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="25">
+      <c r="AE5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>52000003</v>
       </c>
@@ -6072,10 +6012,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -6149,20 +6089,17 @@
         <v>5</v>
       </c>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="5">
+      <c r="AD6" s="5">
         <v>3</v>
       </c>
-      <c r="AF6" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="25">
+      <c r="AE6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>52000004</v>
       </c>
@@ -6170,10 +6107,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -6247,31 +6184,28 @@
         <v>5</v>
       </c>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="5">
+      <c r="AD7" s="5">
         <v>4</v>
       </c>
-      <c r="AF7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="25">
+      <c r="AE7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>52000005</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -6345,20 +6279,17 @@
         <v>3</v>
       </c>
       <c r="AC8" s="15"/>
-      <c r="AD8" s="15">
+      <c r="AD8" s="17">
         <v>5</v>
       </c>
-      <c r="AE8" s="17">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="25">
+      <c r="AE8" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>52000006</v>
       </c>
@@ -6366,10 +6297,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -6443,20 +6374,17 @@
         <v>3</v>
       </c>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="5">
+      <c r="AD9" s="5">
         <v>6</v>
       </c>
-      <c r="AF9" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="25">
+      <c r="AE9" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>52000007</v>
       </c>
@@ -6464,10 +6392,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -6541,20 +6469,17 @@
         <v>5</v>
       </c>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="5">
+      <c r="AD10" s="5">
         <v>7</v>
       </c>
-      <c r="AF10" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="25">
+      <c r="AE10" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>52000008</v>
       </c>
@@ -6562,10 +6487,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E11" s="4">
         <v>4</v>
@@ -6639,20 +6564,17 @@
         <v>5</v>
       </c>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE11" s="5">
+      <c r="AD11" s="5">
         <v>8</v>
       </c>
-      <c r="AF11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="25">
+      <c r="AE11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>52000009</v>
       </c>
@@ -6660,7 +6582,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="4">
@@ -6739,20 +6661,17 @@
         <v>5</v>
       </c>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE12" s="5">
+      <c r="AD12" s="5">
         <v>9</v>
       </c>
-      <c r="AF12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="25">
+      <c r="AE12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>52000010</v>
       </c>
@@ -6760,10 +6679,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -6841,31 +6760,28 @@
         <v>3</v>
       </c>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="5">
+      <c r="AD13" s="5">
         <v>10</v>
       </c>
-      <c r="AF13" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="25">
+      <c r="AE13" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:32">
       <c r="A14">
         <v>52000011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -6943,20 +6859,17 @@
         <v>3</v>
       </c>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="5">
+      <c r="AD14" s="5">
         <v>11</v>
       </c>
-      <c r="AF14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="25">
+      <c r="AE14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:32">
       <c r="A15">
         <v>52000012</v>
       </c>
@@ -6964,10 +6877,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -7042,34 +6955,31 @@
         <v>100</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE15" s="5">
+      <c r="AD15" s="5">
         <v>12</v>
       </c>
-      <c r="AF15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="25">
+      <c r="AE15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:32">
       <c r="A16">
         <v>52000013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -7147,31 +7057,28 @@
         <v>3</v>
       </c>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="5">
+      <c r="AD16" s="5">
         <v>13</v>
       </c>
-      <c r="AF16" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="25">
+      <c r="AE16" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:32">
       <c r="A17">
         <v>52000014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -7249,20 +7156,17 @@
         <v>3</v>
       </c>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE17" s="5">
+      <c r="AD17" s="5">
         <v>14</v>
       </c>
-      <c r="AF17" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="25">
+      <c r="AE17" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:32">
       <c r="A18">
         <v>52000015</v>
       </c>
@@ -7270,10 +7174,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -7351,31 +7255,28 @@
         <v>3</v>
       </c>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="5">
+      <c r="AD18" s="5">
         <v>15</v>
       </c>
-      <c r="AF18" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="25">
+      <c r="AE18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:32">
       <c r="A19">
         <v>52000016</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E19" s="15">
         <v>3</v>
@@ -7453,20 +7354,17 @@
         <v>3</v>
       </c>
       <c r="AC19" s="15"/>
-      <c r="AD19" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE19" s="17">
+      <c r="AD19" s="17">
         <v>16</v>
       </c>
-      <c r="AF19" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="25">
+      <c r="AE19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:32">
       <c r="A20">
         <v>52000017</v>
       </c>
@@ -7474,10 +7372,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -7557,31 +7455,28 @@
       <c r="AC20" s="4">
         <v>11000008</v>
       </c>
-      <c r="AD20" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE20" s="5">
+      <c r="AD20" s="5">
         <v>17</v>
       </c>
-      <c r="AF20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="25">
+      <c r="AE20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:32">
       <c r="A21">
         <v>52000018</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -7655,20 +7550,17 @@
         <v>1</v>
       </c>
       <c r="AC21" s="15"/>
-      <c r="AD21" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE21" s="17">
+      <c r="AD21" s="17">
         <v>18</v>
       </c>
-      <c r="AF21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="25">
+      <c r="AE21" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:32">
       <c r="A22">
         <v>52000019</v>
       </c>
@@ -7676,7 +7568,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="4">
@@ -7753,20 +7645,17 @@
       <c r="AC22" s="4">
         <v>11000002</v>
       </c>
-      <c r="AD22" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE22" s="5">
+      <c r="AD22" s="5">
         <v>19</v>
       </c>
-      <c r="AF22" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="25">
+      <c r="AE22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:32">
       <c r="A23">
         <v>52000020</v>
       </c>
@@ -7774,10 +7663,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -7848,23 +7737,20 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE23" s="5">
+      <c r="AD23" s="5">
         <v>20</v>
       </c>
-      <c r="AF23" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="25">
+      <c r="AE23" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:32">
       <c r="A24">
         <v>52000021</v>
       </c>
@@ -7872,10 +7758,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E24" s="4">
         <v>3</v>
@@ -7946,23 +7832,20 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC24" s="4"/>
-      <c r="AD24" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="5">
+      <c r="AD24" s="5">
         <v>21</v>
       </c>
-      <c r="AF24" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="25">
+      <c r="AE24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:32">
       <c r="A25">
         <v>52000022</v>
       </c>
@@ -7970,10 +7853,10 @@
         <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -8047,31 +7930,28 @@
         <v>3</v>
       </c>
       <c r="AC25" s="4"/>
-      <c r="AD25" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE25" s="5">
+      <c r="AD25" s="5">
         <v>22</v>
       </c>
-      <c r="AF25" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="25">
+      <c r="AE25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:32">
       <c r="A26">
         <v>52000023</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E26" s="15">
         <v>4</v>
@@ -8142,25 +8022,22 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AC26" s="4">
         <v>11000004</v>
       </c>
-      <c r="AD26" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE26" s="5">
+      <c r="AD26" s="5">
         <v>23</v>
       </c>
-      <c r="AF26" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="25">
+      <c r="AE26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:32">
       <c r="A27">
         <v>52000024</v>
       </c>
@@ -8168,10 +8045,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -8246,33 +8123,30 @@
         <v>100</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC27" s="4">
         <v>11000001</v>
       </c>
-      <c r="AD27" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE27" s="5">
+      <c r="AD27" s="5">
         <v>24</v>
       </c>
-      <c r="AF27" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="25">
+      <c r="AE27" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:32">
       <c r="A28">
         <v>52000025</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="15">
@@ -8349,20 +8223,17 @@
       <c r="AC28" s="4">
         <v>11000001</v>
       </c>
-      <c r="AD28" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE28" s="17">
+      <c r="AD28" s="17">
         <v>25</v>
       </c>
-      <c r="AF28" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="25">
+      <c r="AE28" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:32">
       <c r="A29">
         <v>52000026</v>
       </c>
@@ -8370,10 +8241,10 @@
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -8451,20 +8322,17 @@
         <v>5</v>
       </c>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE29" s="5">
+      <c r="AD29" s="5">
         <v>26</v>
       </c>
-      <c r="AF29" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="25">
+      <c r="AE29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:32">
       <c r="A30">
         <v>52000027</v>
       </c>
@@ -8472,10 +8340,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -8553,20 +8421,17 @@
         <v>5</v>
       </c>
       <c r="AC30" s="4"/>
-      <c r="AD30" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE30" s="5">
+      <c r="AD30" s="5">
         <v>27</v>
       </c>
-      <c r="AF30" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="25">
+      <c r="AE30" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:32">
       <c r="A31">
         <v>52000028</v>
       </c>
@@ -8574,10 +8439,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -8655,20 +8520,17 @@
         <v>5</v>
       </c>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE31" s="5">
+      <c r="AD31" s="5">
         <v>28</v>
       </c>
-      <c r="AF31" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="25">
+      <c r="AE31" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:32">
       <c r="A32">
         <v>52000029</v>
       </c>
@@ -8676,10 +8538,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -8757,20 +8619,17 @@
         <v>5</v>
       </c>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE32" s="5">
+      <c r="AD32" s="5">
         <v>31</v>
       </c>
-      <c r="AF32" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="25">
+      <c r="AE32" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:32">
       <c r="A33">
         <v>52000030</v>
       </c>
@@ -8778,10 +8637,10 @@
         <v>25</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -8859,20 +8718,17 @@
         <v>5</v>
       </c>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE33" s="5">
+      <c r="AD33" s="5">
         <v>30</v>
       </c>
-      <c r="AF33" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="25">
+      <c r="AE33" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:32">
       <c r="A34">
         <v>52000031</v>
       </c>
@@ -8880,10 +8736,10 @@
         <v>24</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -8961,31 +8817,28 @@
         <v>5</v>
       </c>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE34" s="5">
+      <c r="AD34" s="5">
         <v>29</v>
       </c>
-      <c r="AF34" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="25">
+      <c r="AE34" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:32">
       <c r="A35">
         <v>52000032</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E35" s="15">
         <v>3</v>
@@ -9065,28 +8918,25 @@
       <c r="AC35" s="15">
         <v>11000005</v>
       </c>
-      <c r="AD35" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE35" s="17">
+      <c r="AD35" s="17">
         <v>32</v>
       </c>
-      <c r="AF35" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="25">
+      <c r="AE35" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:32">
       <c r="A36">
         <v>52000033</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="4">
@@ -9158,23 +9008,20 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE36" s="5">
+      <c r="AD36" s="5">
         <v>33</v>
       </c>
-      <c r="AF36" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="25">
+      <c r="AE36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:32">
       <c r="A37">
         <v>52000034</v>
       </c>
@@ -9182,7 +9029,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="4">
@@ -9259,20 +9106,17 @@
       <c r="AC37" s="4">
         <v>11000008</v>
       </c>
-      <c r="AD37" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE37" s="5">
+      <c r="AD37" s="5">
         <v>34</v>
       </c>
-      <c r="AF37" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="25">
+      <c r="AE37" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:32">
       <c r="A38">
         <v>52000035</v>
       </c>
@@ -9280,7 +9124,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="4">
@@ -9357,28 +9201,25 @@
       <c r="AC38" s="4">
         <v>11000006</v>
       </c>
-      <c r="AD38" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE38" s="5">
+      <c r="AD38" s="5">
         <v>35</v>
       </c>
-      <c r="AF38" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="25">
+      <c r="AE38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:32">
       <c r="A39">
         <v>52000036</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="4">
@@ -9450,23 +9291,20 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AC39" s="4"/>
-      <c r="AD39" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE39" s="5">
+      <c r="AD39" s="5">
         <v>36</v>
       </c>
-      <c r="AF39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="25">
+      <c r="AE39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:32">
       <c r="A40">
         <v>52000037</v>
       </c>
@@ -9474,10 +9312,10 @@
         <v>31</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -9552,36 +9390,33 @@
         <v>30</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AC40" s="4">
         <v>11000006</v>
       </c>
-      <c r="AD40" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE40" s="5">
+      <c r="AD40" s="5">
         <v>37</v>
       </c>
-      <c r="AF40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="25">
+      <c r="AE40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:32">
       <c r="A41">
         <v>52000038</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D41" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -9661,20 +9496,17 @@
       <c r="AC41" s="4">
         <v>11000010</v>
       </c>
-      <c r="AD41" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE41" s="5">
+      <c r="AD41" s="5">
         <v>38</v>
       </c>
-      <c r="AF41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="25">
+      <c r="AE41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:32">
       <c r="A42">
         <v>52000039</v>
       </c>
@@ -9682,7 +9514,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="4">
@@ -9754,25 +9586,22 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AC42" s="4">
         <v>11000007</v>
       </c>
-      <c r="AD42" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE42" s="5">
+      <c r="AD42" s="5">
         <v>39</v>
       </c>
-      <c r="AF42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="25">
+      <c r="AE42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:32">
       <c r="A43">
         <v>52000040</v>
       </c>
@@ -9780,7 +9609,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="4">
@@ -9852,25 +9681,22 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AC43" s="4">
         <v>11000009</v>
       </c>
-      <c r="AD43" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE43" s="5">
+      <c r="AD43" s="5">
         <v>40</v>
       </c>
-      <c r="AF43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="25">
+      <c r="AE43" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:32">
       <c r="A44">
         <v>52000041</v>
       </c>
@@ -9878,7 +9704,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="4">
@@ -9953,20 +9779,17 @@
         <v>3</v>
       </c>
       <c r="AC44" s="4"/>
-      <c r="AD44" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE44" s="5">
+      <c r="AD44" s="5">
         <v>41</v>
       </c>
-      <c r="AF44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="25">
+      <c r="AE44" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:32">
       <c r="A45">
         <v>52000042</v>
       </c>
@@ -9974,7 +9797,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="4">
@@ -10053,20 +9876,17 @@
         <v>37</v>
       </c>
       <c r="AC45" s="4"/>
-      <c r="AD45" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE45" s="5">
+      <c r="AD45" s="5">
         <v>42</v>
       </c>
-      <c r="AF45" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="25">
+      <c r="AE45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:32">
       <c r="A46">
         <v>52000043</v>
       </c>
@@ -10074,7 +9894,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="4">
@@ -10155,20 +9975,17 @@
       <c r="AC46" s="4">
         <v>11000008</v>
       </c>
-      <c r="AD46" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE46" s="5">
+      <c r="AD46" s="5">
         <v>43</v>
       </c>
-      <c r="AF46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="25">
+      <c r="AE46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:32">
       <c r="A47">
         <v>52000044</v>
       </c>
@@ -10176,7 +9993,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="4">
@@ -10253,20 +10070,17 @@
       <c r="AC47" s="15">
         <v>11000005</v>
       </c>
-      <c r="AD47" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE47" s="5">
+      <c r="AD47" s="5">
         <v>44</v>
       </c>
-      <c r="AF47" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="25">
+      <c r="AE47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:32">
       <c r="A48">
         <v>52000045</v>
       </c>
@@ -10274,7 +10088,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="4">
@@ -10353,20 +10167,17 @@
         <v>5</v>
       </c>
       <c r="AC48" s="4"/>
-      <c r="AD48" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE48" s="5">
+      <c r="AD48" s="5">
         <v>45</v>
       </c>
-      <c r="AF48" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="25">
+      <c r="AE48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:32">
       <c r="A49">
         <v>52000046</v>
       </c>
@@ -10374,7 +10185,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="4">
@@ -10449,20 +10260,17 @@
         <v>5</v>
       </c>
       <c r="AC49" s="4"/>
-      <c r="AD49" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE49" s="5">
+      <c r="AD49" s="5">
         <v>46</v>
       </c>
-      <c r="AF49" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="25">
+      <c r="AE49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:32">
       <c r="A50">
         <v>52000047</v>
       </c>
@@ -10470,7 +10278,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="4">
@@ -10545,20 +10353,17 @@
         <v>5</v>
       </c>
       <c r="AC50" s="4"/>
-      <c r="AD50" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE50" s="5">
+      <c r="AD50" s="5">
         <v>47</v>
       </c>
-      <c r="AF50" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="25">
+      <c r="AE50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:32">
       <c r="A51">
         <v>52000048</v>
       </c>
@@ -10566,7 +10371,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="4">
@@ -10647,20 +10452,17 @@
       <c r="AC51" s="4">
         <v>11000003</v>
       </c>
-      <c r="AD51" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE51" s="5">
+      <c r="AD51" s="5">
         <v>48</v>
       </c>
-      <c r="AF51" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="25">
+      <c r="AE51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:32">
       <c r="A52">
         <v>52000049</v>
       </c>
@@ -10668,7 +10470,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="4">
@@ -10743,20 +10545,17 @@
         <v>5</v>
       </c>
       <c r="AC52" s="4"/>
-      <c r="AD52" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE52" s="5">
+      <c r="AD52" s="5">
         <v>49</v>
       </c>
-      <c r="AF52" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="25">
+      <c r="AE52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:32">
       <c r="A53">
         <v>52000050</v>
       </c>
@@ -10764,7 +10563,7 @@
         <v>46</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="4">
@@ -10839,20 +10638,17 @@
         <v>5</v>
       </c>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE53" s="5">
+      <c r="AD53" s="5">
         <v>50</v>
       </c>
-      <c r="AF53" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="25">
+      <c r="AE53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:32">
       <c r="A54">
         <v>52000051</v>
       </c>
@@ -10860,7 +10656,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="4">
@@ -10937,20 +10733,17 @@
       <c r="AC54" s="4">
         <v>11000008</v>
       </c>
-      <c r="AD54" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE54" s="5">
+      <c r="AD54" s="5">
         <v>51</v>
       </c>
-      <c r="AF54" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="25">
+      <c r="AE54" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:32">
       <c r="A55">
         <v>52000052</v>
       </c>
@@ -10958,10 +10751,10 @@
         <v>48</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -11035,20 +10828,17 @@
         <v>5</v>
       </c>
       <c r="AC55" s="4"/>
-      <c r="AD55" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE55" s="5">
+      <c r="AD55" s="5">
         <v>52</v>
       </c>
-      <c r="AF55" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="25">
+      <c r="AE55" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:32">
       <c r="A56">
         <v>52000053</v>
       </c>
@@ -11056,7 +10846,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="4">
@@ -11133,20 +10923,17 @@
       <c r="AC56" s="4">
         <v>11000002</v>
       </c>
-      <c r="AD56" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE56" s="5">
+      <c r="AD56" s="5">
         <v>53</v>
       </c>
-      <c r="AF56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="25">
+      <c r="AE56" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:32">
       <c r="A57">
         <v>52000054</v>
       </c>
@@ -11154,7 +10941,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="4">
@@ -11229,20 +11016,17 @@
         <v>5</v>
       </c>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE57" s="5">
+      <c r="AD57" s="5">
         <v>54</v>
       </c>
-      <c r="AF57" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="25">
+      <c r="AE57" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:32">
       <c r="A58">
         <v>52000055</v>
       </c>
@@ -11250,7 +11034,7 @@
         <v>51</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="4">
@@ -11327,20 +11111,17 @@
       <c r="AC58" s="4">
         <v>11000005</v>
       </c>
-      <c r="AD58" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE58" s="5">
+      <c r="AD58" s="5">
         <v>55</v>
       </c>
-      <c r="AF58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="25">
+      <c r="AE58" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:32">
       <c r="A59">
         <v>52000056</v>
       </c>
@@ -11348,7 +11129,7 @@
         <v>52</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="4">
@@ -11425,20 +11206,17 @@
       <c r="AC59" s="4">
         <v>11000007</v>
       </c>
-      <c r="AD59" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE59" s="5">
+      <c r="AD59" s="5">
         <v>56</v>
       </c>
-      <c r="AF59" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="25">
+      <c r="AE59" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:32">
       <c r="A60">
         <v>52000057</v>
       </c>
@@ -11446,7 +11224,7 @@
         <v>53</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="4">
@@ -11521,31 +11299,28 @@
         <v>5</v>
       </c>
       <c r="AC60" s="4"/>
-      <c r="AD60" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE60" s="5">
+      <c r="AD60" s="5">
         <v>57</v>
       </c>
-      <c r="AF60" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="25">
+      <c r="AE60" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:32">
       <c r="A61">
         <v>52000058</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D61" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -11623,20 +11398,17 @@
         <v>5</v>
       </c>
       <c r="AC61" s="4"/>
-      <c r="AD61" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE61" s="5">
+      <c r="AD61" s="5">
         <v>58</v>
       </c>
-      <c r="AF61" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="25">
+      <c r="AE61" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:32">
       <c r="A62">
         <v>52000059</v>
       </c>
@@ -11644,10 +11416,10 @@
         <v>54</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E62" s="4">
         <v>3</v>
@@ -11727,20 +11499,17 @@
       <c r="AC62" s="4">
         <v>11000005</v>
       </c>
-      <c r="AD62" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE62" s="5">
+      <c r="AD62" s="5">
         <v>59</v>
       </c>
-      <c r="AF62" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="25">
+      <c r="AE62" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:32">
       <c r="A63">
         <v>52000060</v>
       </c>
@@ -11748,7 +11517,7 @@
         <v>55</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="4">
@@ -11827,20 +11596,17 @@
         <v>5</v>
       </c>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE63" s="5">
+      <c r="AD63" s="5">
         <v>60</v>
       </c>
-      <c r="AF63" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="25">
+      <c r="AE63" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:32">
       <c r="A64">
         <v>52000061</v>
       </c>
@@ -11848,7 +11614,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="4">
@@ -11927,20 +11693,17 @@
         <v>5</v>
       </c>
       <c r="AC64" s="4"/>
-      <c r="AD64" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE64" s="5">
+      <c r="AD64" s="5">
         <v>61</v>
       </c>
-      <c r="AF64" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="25">
+      <c r="AE64" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:32">
       <c r="A65">
         <v>52000062</v>
       </c>
@@ -11948,7 +11711,7 @@
         <v>57</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="4">
@@ -12029,20 +11792,17 @@
       <c r="AC65" s="4">
         <v>11000001</v>
       </c>
-      <c r="AD65" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE65" s="5">
+      <c r="AD65" s="5">
         <v>62</v>
       </c>
-      <c r="AF65" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="25">
+      <c r="AE65" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:32">
       <c r="A66">
         <v>52000063</v>
       </c>
@@ -12050,10 +11810,10 @@
         <v>58</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -12126,20 +11886,17 @@
         <v>5</v>
       </c>
       <c r="AC66" s="4"/>
-      <c r="AD66" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE66" s="5">
+      <c r="AD66" s="5">
         <v>63</v>
       </c>
-      <c r="AF66" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="25">
+      <c r="AE66" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:32">
       <c r="A67">
         <v>52000064</v>
       </c>
@@ -12147,7 +11904,7 @@
         <v>59</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="25"/>
       <c r="E67" s="4">
@@ -12221,20 +11978,17 @@
         <v>5</v>
       </c>
       <c r="AC67" s="4"/>
-      <c r="AD67" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE67" s="5">
+      <c r="AD67" s="5">
         <v>64</v>
       </c>
-      <c r="AF67" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="25">
+      <c r="AE67" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:32">
       <c r="A68">
         <v>52000065</v>
       </c>
@@ -12242,7 +11996,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="4">
@@ -12318,20 +12072,17 @@
       <c r="AC68" s="4">
         <v>11000005</v>
       </c>
-      <c r="AD68" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE68" s="5">
+      <c r="AD68" s="5">
         <v>65</v>
       </c>
-      <c r="AF68" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="25">
+      <c r="AE68" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:32">
       <c r="A69">
         <v>52000066</v>
       </c>
@@ -12339,7 +12090,7 @@
         <v>61</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="4">
@@ -12414,20 +12165,17 @@
         <v>1</v>
       </c>
       <c r="AC69" s="4"/>
-      <c r="AD69" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE69" s="5">
+      <c r="AD69" s="5">
         <v>66</v>
       </c>
-      <c r="AF69" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="25">
+      <c r="AE69" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:32">
       <c r="A70">
         <v>52000067</v>
       </c>
@@ -12435,7 +12183,7 @@
         <v>62</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="4">
@@ -12510,28 +12258,25 @@
         <v>3</v>
       </c>
       <c r="AC70" s="4"/>
-      <c r="AD70" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE70" s="5">
+      <c r="AD70" s="5">
         <v>67</v>
       </c>
-      <c r="AF70" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="25">
+      <c r="AE70" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:32">
       <c r="A71">
         <v>52000068</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="4">
@@ -12606,20 +12351,17 @@
         <v>5</v>
       </c>
       <c r="AC71" s="4"/>
-      <c r="AD71" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE71" s="5">
+      <c r="AD71" s="5">
         <v>68</v>
       </c>
-      <c r="AF71" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG71" s="25">
+      <c r="AE71" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:32">
       <c r="A72">
         <v>52000069</v>
       </c>
@@ -12627,7 +12369,7 @@
         <v>63</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="4">
@@ -12701,20 +12443,17 @@
         <v>5</v>
       </c>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE72" s="5">
+      <c r="AD72" s="5">
         <v>69</v>
       </c>
-      <c r="AF72" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="25">
+      <c r="AE72" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:32">
       <c r="A73">
         <v>52000070</v>
       </c>
@@ -12722,7 +12461,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="4">
@@ -12801,20 +12540,17 @@
         <v>5</v>
       </c>
       <c r="AC73" s="4"/>
-      <c r="AD73" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE73" s="5">
+      <c r="AD73" s="5">
         <v>70</v>
       </c>
-      <c r="AF73" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="25">
+      <c r="AE73" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:32">
       <c r="A74">
         <v>52000071</v>
       </c>
@@ -12822,10 +12558,10 @@
         <v>100</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E74" s="4">
         <v>4</v>
@@ -12903,20 +12639,17 @@
         <v>3</v>
       </c>
       <c r="AC74" s="4"/>
-      <c r="AD74" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE74" s="5">
+      <c r="AD74" s="5">
         <v>71</v>
       </c>
-      <c r="AF74" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG74" s="25">
+      <c r="AE74" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:32">
       <c r="A75">
         <v>52000072</v>
       </c>
@@ -12924,10 +12657,10 @@
         <v>66</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E75" s="4">
         <v>2</v>
@@ -13005,20 +12738,17 @@
         <v>3</v>
       </c>
       <c r="AC75" s="4"/>
-      <c r="AD75" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE75" s="5">
+      <c r="AD75" s="5">
         <v>72</v>
       </c>
-      <c r="AF75" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="25">
+      <c r="AE75" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:32">
       <c r="A76">
         <v>52000073</v>
       </c>
@@ -13026,7 +12756,7 @@
         <v>67</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="4">
@@ -13105,20 +12835,17 @@
         <v>68</v>
       </c>
       <c r="AC76" s="4"/>
-      <c r="AD76" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE76" s="5">
+      <c r="AD76" s="5">
         <v>73</v>
       </c>
-      <c r="AF76" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="25">
+      <c r="AE76" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:32">
       <c r="A77">
         <v>52000074</v>
       </c>
@@ -13126,10 +12853,10 @@
         <v>69</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E77" s="4">
         <v>2</v>
@@ -13207,20 +12934,17 @@
         <v>3</v>
       </c>
       <c r="AC77" s="4"/>
-      <c r="AD77" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE77" s="5">
+      <c r="AD77" s="5">
         <v>74</v>
       </c>
-      <c r="AF77" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG77" s="25">
+      <c r="AE77" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:32">
       <c r="A78">
         <v>52000075</v>
       </c>
@@ -13228,10 +12952,10 @@
         <v>70</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E78" s="4">
         <v>3</v>
@@ -13309,20 +13033,17 @@
         <v>3</v>
       </c>
       <c r="AC78" s="4"/>
-      <c r="AD78" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE78" s="5">
+      <c r="AD78" s="5">
         <v>75</v>
       </c>
-      <c r="AF78" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG78" s="25">
+      <c r="AE78" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:32">
       <c r="A79">
         <v>52000076</v>
       </c>
@@ -13330,10 +13051,10 @@
         <v>71</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E79" s="4">
         <v>3</v>
@@ -13411,20 +13132,17 @@
         <v>3</v>
       </c>
       <c r="AC79" s="4"/>
-      <c r="AD79" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE79" s="5">
+      <c r="AD79" s="5">
         <v>76</v>
       </c>
-      <c r="AF79" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG79" s="25">
+      <c r="AE79" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:32">
       <c r="A80">
         <v>52000077</v>
       </c>
@@ -13432,10 +13150,10 @@
         <v>72</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E80" s="4">
         <v>3</v>
@@ -13513,20 +13231,17 @@
         <v>3</v>
       </c>
       <c r="AC80" s="4"/>
-      <c r="AD80" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE80" s="5">
+      <c r="AD80" s="5">
         <v>77</v>
       </c>
-      <c r="AF80" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG80" s="25">
+      <c r="AE80" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:32">
       <c r="A81">
         <v>52000078</v>
       </c>
@@ -13534,10 +13249,10 @@
         <v>73</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E81" s="4">
         <v>3</v>
@@ -13615,20 +13330,17 @@
         <v>3</v>
       </c>
       <c r="AC81" s="4"/>
-      <c r="AD81" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE81" s="5">
+      <c r="AD81" s="5">
         <v>78</v>
       </c>
-      <c r="AF81" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG81" s="25">
+      <c r="AE81" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:32">
       <c r="A82">
         <v>52000079</v>
       </c>
@@ -13636,10 +13348,10 @@
         <v>74</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E82" s="4">
         <v>2</v>
@@ -13717,20 +13429,17 @@
         <v>3</v>
       </c>
       <c r="AC82" s="4"/>
-      <c r="AD82" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE82" s="5">
+      <c r="AD82" s="5">
         <v>79</v>
       </c>
-      <c r="AF82" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="25">
+      <c r="AE82" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:32">
       <c r="A83">
         <v>52000080</v>
       </c>
@@ -13738,10 +13447,10 @@
         <v>75</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E83" s="4">
         <v>3</v>
@@ -13819,20 +13528,17 @@
         <v>3</v>
       </c>
       <c r="AC83" s="4"/>
-      <c r="AD83" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE83" s="5">
+      <c r="AD83" s="5">
         <v>80</v>
       </c>
-      <c r="AF83" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="25">
+      <c r="AE83" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:32">
       <c r="A84">
         <v>52000081</v>
       </c>
@@ -13840,10 +13546,10 @@
         <v>76</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E84" s="4">
         <v>2</v>
@@ -13921,20 +13627,17 @@
         <v>3</v>
       </c>
       <c r="AC84" s="4"/>
-      <c r="AD84" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE84" s="5">
+      <c r="AD84" s="5">
         <v>81</v>
       </c>
-      <c r="AF84" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG84" s="25">
+      <c r="AE84" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:32">
       <c r="A85">
         <v>52000082</v>
       </c>
@@ -13942,7 +13645,7 @@
         <v>77</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="4">
@@ -14014,31 +13717,28 @@
       <c r="Z85" s="32"/>
       <c r="AA85" s="4"/>
       <c r="AB85" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AC85" s="4"/>
-      <c r="AD85" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE85" s="5">
+      <c r="AD85" s="5">
         <v>82</v>
       </c>
-      <c r="AF85" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="25">
+      <c r="AE85" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:32">
       <c r="A86">
         <v>52000083</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D86" s="25"/>
       <c r="E86" s="4">
@@ -14115,20 +13815,17 @@
       <c r="AC86" s="4">
         <v>11000008</v>
       </c>
-      <c r="AD86" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE86" s="5">
+      <c r="AD86" s="5">
         <v>83</v>
       </c>
-      <c r="AF86" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="25">
+      <c r="AE86" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:32">
       <c r="A87">
         <v>52000084</v>
       </c>
@@ -14136,7 +13833,7 @@
         <v>78</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="4">
@@ -14213,20 +13910,17 @@
       <c r="AC87" s="4">
         <v>11000006</v>
       </c>
-      <c r="AD87" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE87" s="5">
+      <c r="AD87" s="5">
         <v>84</v>
       </c>
-      <c r="AF87" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG87" s="25">
+      <c r="AE87" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:32">
       <c r="A88">
         <v>52000085</v>
       </c>
@@ -14234,7 +13928,7 @@
         <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="4">
@@ -14306,23 +14000,20 @@
       <c r="Z88" s="32"/>
       <c r="AA88" s="4"/>
       <c r="AB88" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AC88" s="4"/>
-      <c r="AD88" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE88" s="5">
+      <c r="AD88" s="5">
         <v>85</v>
       </c>
-      <c r="AF88" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG88" s="25">
+      <c r="AE88" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:32">
       <c r="A89">
         <v>52000086</v>
       </c>
@@ -14330,10 +14021,10 @@
         <v>80</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E89" s="4">
         <v>4</v>
@@ -14408,25 +14099,22 @@
         <v>40</v>
       </c>
       <c r="AB89" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AC89" s="4">
         <v>11000006</v>
       </c>
-      <c r="AD89" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE89" s="5">
+      <c r="AD89" s="5">
         <v>86</v>
       </c>
-      <c r="AF89" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG89" s="25">
+      <c r="AE89" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:32">
       <c r="A90">
         <v>52000087</v>
       </c>
@@ -14434,10 +14122,10 @@
         <v>81</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E90" s="4">
         <v>4</v>
@@ -14517,20 +14205,17 @@
       <c r="AC90" s="4">
         <v>11000010</v>
       </c>
-      <c r="AD90" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE90" s="5">
+      <c r="AD90" s="5">
         <v>87</v>
       </c>
-      <c r="AF90" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG90" s="25">
+      <c r="AE90" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:32">
       <c r="A91">
         <v>52000088</v>
       </c>
@@ -14538,7 +14223,7 @@
         <v>82</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D91" s="25"/>
       <c r="E91" s="4">
@@ -14610,25 +14295,22 @@
       <c r="Z91" s="32"/>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AC91" s="4">
         <v>11000007</v>
       </c>
-      <c r="AD91" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE91" s="5">
+      <c r="AD91" s="5">
         <v>88</v>
       </c>
-      <c r="AF91" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG91" s="25">
+      <c r="AE91" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:32">
       <c r="A92">
         <v>52000089</v>
       </c>
@@ -14636,7 +14318,7 @@
         <v>83</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D92" s="25"/>
       <c r="E92" s="4">
@@ -14708,25 +14390,22 @@
       <c r="Z92" s="32"/>
       <c r="AA92" s="4"/>
       <c r="AB92" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AC92" s="4">
         <v>11000009</v>
       </c>
-      <c r="AD92" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE92" s="5">
+      <c r="AD92" s="5">
         <v>89</v>
       </c>
-      <c r="AF92" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG92" s="25">
+      <c r="AE92" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:32">
       <c r="A93">
         <v>52000090</v>
       </c>
@@ -14734,7 +14413,7 @@
         <v>84</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" s="25"/>
       <c r="E93" s="4">
@@ -14811,20 +14490,17 @@
       <c r="AC93" s="4">
         <v>11000006</v>
       </c>
-      <c r="AD93" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE93" s="5">
+      <c r="AD93" s="5">
         <v>90</v>
       </c>
-      <c r="AF93" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG93" s="25">
+      <c r="AE93" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33">
+    <row r="94" spans="1:32">
       <c r="A94">
         <v>52000091</v>
       </c>
@@ -14832,7 +14508,7 @@
         <v>86</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="4">
@@ -14913,20 +14589,17 @@
       <c r="AC94" s="4">
         <v>11000002</v>
       </c>
-      <c r="AD94" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE94" s="5">
+      <c r="AD94" s="5">
         <v>91</v>
       </c>
-      <c r="AF94" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG94" s="25">
+      <c r="AE94" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" spans="1:32">
       <c r="A95">
         <v>52000092</v>
       </c>
@@ -14934,10 +14607,10 @@
         <v>87</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E95" s="4">
         <v>2</v>
@@ -15017,20 +14690,17 @@
       <c r="AC95" s="4">
         <v>11000004</v>
       </c>
-      <c r="AD95" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE95" s="5">
+      <c r="AD95" s="5">
         <v>92</v>
       </c>
-      <c r="AF95" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG95" s="25">
+      <c r="AE95" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:33">
+    <row r="96" spans="1:32">
       <c r="A96">
         <v>52000093</v>
       </c>
@@ -15038,7 +14708,7 @@
         <v>88</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D96" s="25"/>
       <c r="E96" s="4">
@@ -15115,20 +14785,17 @@
       <c r="AC96" s="4">
         <v>11000001</v>
       </c>
-      <c r="AD96" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE96" s="5">
+      <c r="AD96" s="5">
         <v>93</v>
       </c>
-      <c r="AF96" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG96" s="25">
+      <c r="AE96" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:32">
       <c r="A97">
         <v>52000094</v>
       </c>
@@ -15136,7 +14803,7 @@
         <v>7</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D97" s="25"/>
       <c r="E97" s="4">
@@ -15213,20 +14880,17 @@
       <c r="AC97" s="4">
         <v>11000001</v>
       </c>
-      <c r="AD97" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE97" s="5">
+      <c r="AD97" s="5">
         <v>94</v>
       </c>
-      <c r="AF97" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG97" s="25">
+      <c r="AE97" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:32">
       <c r="A98">
         <v>52000095</v>
       </c>
@@ -15234,7 +14898,7 @@
         <v>89</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D98" s="25"/>
       <c r="E98" s="4">
@@ -15315,20 +14979,17 @@
       <c r="AC98" s="4">
         <v>11000004</v>
       </c>
-      <c r="AD98" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE98" s="5">
+      <c r="AD98" s="5">
         <v>95</v>
       </c>
-      <c r="AF98" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG98" s="25">
+      <c r="AE98" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:32">
       <c r="A99">
         <v>52000096</v>
       </c>
@@ -15336,10 +14997,10 @@
         <v>90</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E99" s="4">
         <v>6</v>
@@ -15419,20 +15080,17 @@
       <c r="AC99" s="4">
         <v>11000007</v>
       </c>
-      <c r="AD99" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE99" s="5">
+      <c r="AD99" s="5">
         <v>96</v>
       </c>
-      <c r="AF99" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="25">
+      <c r="AE99" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:32">
       <c r="A100">
         <v>52000097</v>
       </c>
@@ -15440,7 +15098,7 @@
         <v>91</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D100" s="25"/>
       <c r="E100" s="4">
@@ -15521,20 +15179,17 @@
       <c r="AC100" s="4">
         <v>11000007</v>
       </c>
-      <c r="AD100" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE100" s="5">
+      <c r="AD100" s="5">
         <v>97</v>
       </c>
-      <c r="AF100" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG100" s="25">
+      <c r="AE100" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:32">
       <c r="A101">
         <v>52000098</v>
       </c>
@@ -15542,10 +15197,10 @@
         <v>92</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -15620,23 +15275,20 @@
         <v>40</v>
       </c>
       <c r="AB101" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AC101" s="4"/>
-      <c r="AD101" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE101" s="5">
+      <c r="AD101" s="5">
         <v>98</v>
       </c>
-      <c r="AF101" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="25">
+      <c r="AE101" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:32">
       <c r="A102">
         <v>52000099</v>
       </c>
@@ -15644,7 +15296,7 @@
         <v>93</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D102" s="25"/>
       <c r="E102" s="4">
@@ -15719,31 +15371,28 @@
         <v>5</v>
       </c>
       <c r="AC102" s="4"/>
-      <c r="AD102" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE102" s="5">
+      <c r="AD102" s="5">
         <v>99</v>
       </c>
-      <c r="AF102" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG102" s="25">
+      <c r="AE102" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:32">
       <c r="A103">
         <v>52000100</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D103" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E103" s="4">
         <v>4</v>
@@ -15823,20 +15472,17 @@
       <c r="AC103" s="4">
         <v>11000007</v>
       </c>
-      <c r="AD103" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE103" s="5">
+      <c r="AD103" s="5">
         <v>100</v>
       </c>
-      <c r="AF103" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG103" s="25">
+      <c r="AE103" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:32">
       <c r="A104">
         <v>52000101</v>
       </c>
@@ -15844,10 +15490,10 @@
         <v>95</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E104" s="4">
         <v>2</v>
@@ -15925,31 +15571,28 @@
         <v>5</v>
       </c>
       <c r="AC104" s="4"/>
-      <c r="AD104" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE104" s="5">
+      <c r="AD104" s="5">
         <v>101</v>
       </c>
-      <c r="AF104" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG104" s="25">
+      <c r="AE104" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:32">
       <c r="A105">
         <v>52000102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -16027,20 +15670,17 @@
         <v>5</v>
       </c>
       <c r="AC105" s="4"/>
-      <c r="AD105" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE105" s="5">
+      <c r="AD105" s="5">
         <v>102</v>
       </c>
-      <c r="AF105" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG105" s="25">
+      <c r="AE105" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:33">
+    <row r="106" spans="1:32">
       <c r="A106">
         <v>52000103</v>
       </c>
@@ -16048,7 +15688,7 @@
         <v>96</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="4">
@@ -16125,20 +15765,17 @@
       <c r="AC106" s="4">
         <v>11000008</v>
       </c>
-      <c r="AD106" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE106" s="5">
+      <c r="AD106" s="5">
         <v>103</v>
       </c>
-      <c r="AF106" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG106" s="25">
+      <c r="AE106" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:33">
+    <row r="107" spans="1:32">
       <c r="A107">
         <v>52000104</v>
       </c>
@@ -16146,10 +15783,10 @@
         <v>97</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E107" s="4">
         <v>3</v>
@@ -16229,20 +15866,17 @@
       <c r="AC107" s="4">
         <v>11000003</v>
       </c>
-      <c r="AD107" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE107" s="5">
+      <c r="AD107" s="5">
         <v>104</v>
       </c>
-      <c r="AF107" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG107" s="25">
+      <c r="AE107" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF107" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:33">
+    <row r="108" spans="1:32">
       <c r="A108">
         <v>52000105</v>
       </c>
@@ -16250,7 +15884,7 @@
         <v>98</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D108" s="25"/>
       <c r="E108" s="4">
@@ -16331,20 +15965,17 @@
       <c r="AC108" s="4">
         <v>11000003</v>
       </c>
-      <c r="AD108" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE108" s="5">
+      <c r="AD108" s="5">
         <v>105</v>
       </c>
-      <c r="AF108" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG108" s="25">
+      <c r="AE108" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:32">
       <c r="A109">
         <v>52000106</v>
       </c>
@@ -16352,7 +15983,7 @@
         <v>99</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D109" s="25"/>
       <c r="E109" s="4">
@@ -16429,20 +16060,17 @@
       <c r="AC109" s="4">
         <v>11000010</v>
       </c>
-      <c r="AD109" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE109" s="5">
+      <c r="AD109" s="5">
         <v>106</v>
       </c>
-      <c r="AF109" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG109" s="25">
+      <c r="AE109" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF109" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:32">
       <c r="A110">
         <v>52000107</v>
       </c>
@@ -16450,7 +16078,7 @@
         <v>65</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="4">
@@ -16529,20 +16157,17 @@
         <v>5</v>
       </c>
       <c r="AC110" s="4"/>
-      <c r="AD110" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE110" s="5">
+      <c r="AD110" s="5">
         <v>107</v>
       </c>
-      <c r="AF110" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG110" s="25">
+      <c r="AE110" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:33">
+    <row r="111" spans="1:32">
       <c r="A111">
         <v>52000108</v>
       </c>
@@ -16550,7 +16175,7 @@
         <v>101</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D111" s="25"/>
       <c r="E111" s="4">
@@ -16625,20 +16250,17 @@
         <v>3</v>
       </c>
       <c r="AC111" s="4"/>
-      <c r="AD111" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE111" s="5">
+      <c r="AD111" s="5">
         <v>108</v>
       </c>
-      <c r="AF111" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG111" s="25">
+      <c r="AE111" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:33">
+    <row r="112" spans="1:32">
       <c r="A112">
         <v>52000109</v>
       </c>
@@ -16646,10 +16268,10 @@
         <v>102</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E112" s="4">
         <v>2</v>
@@ -16727,20 +16349,17 @@
         <v>5</v>
       </c>
       <c r="AC112" s="4"/>
-      <c r="AD112" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE112" s="5">
+      <c r="AD112" s="5">
         <v>109</v>
       </c>
-      <c r="AF112" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG112" s="25">
+      <c r="AE112" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:33">
+    <row r="113" spans="1:32">
       <c r="A113">
         <v>52000110</v>
       </c>
@@ -16748,7 +16367,7 @@
         <v>103</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D113" s="25"/>
       <c r="E113" s="4">
@@ -16829,20 +16448,17 @@
       <c r="AC113" s="4">
         <v>11000010</v>
       </c>
-      <c r="AD113" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE113" s="5">
+      <c r="AD113" s="5">
         <v>110</v>
       </c>
-      <c r="AF113" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG113" s="25">
+      <c r="AE113" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF113" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:33">
+    <row r="114" spans="1:32">
       <c r="A114">
         <v>52000111</v>
       </c>
@@ -16850,7 +16466,7 @@
         <v>104</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D114" s="25"/>
       <c r="E114" s="4">
@@ -16927,20 +16543,17 @@
       <c r="AC114" s="4">
         <v>11000002</v>
       </c>
-      <c r="AD114" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE114" s="5">
+      <c r="AD114" s="5">
         <v>111</v>
       </c>
-      <c r="AF114" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG114" s="25">
+      <c r="AE114" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:33">
+    <row r="115" spans="1:32">
       <c r="A115">
         <v>52000112</v>
       </c>
@@ -16948,7 +16561,7 @@
         <v>105</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="4">
@@ -17025,31 +16638,28 @@
       <c r="AC115" s="4">
         <v>11000002</v>
       </c>
-      <c r="AD115" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE115" s="5">
+      <c r="AD115" s="5">
         <v>112</v>
       </c>
-      <c r="AF115" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG115" s="25">
+      <c r="AE115" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:33">
+    <row r="116" spans="1:32">
       <c r="A116">
         <v>52000113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E116" s="4">
         <v>3</v>
@@ -17120,25 +16730,22 @@
       <c r="Z116" s="25"/>
       <c r="AA116" s="15"/>
       <c r="AB116" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AC116" s="15">
         <v>11000004</v>
       </c>
-      <c r="AD116" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE116" s="17">
+      <c r="AD116" s="17">
         <v>113</v>
       </c>
-      <c r="AF116" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG116" s="25">
+      <c r="AE116" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:33">
+    <row r="117" spans="1:32">
       <c r="A117">
         <v>52000114</v>
       </c>
@@ -17146,10 +16753,10 @@
         <v>106</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E117" s="4">
         <v>2</v>
@@ -17227,20 +16834,17 @@
         <v>5</v>
       </c>
       <c r="AC117" s="4"/>
-      <c r="AD117" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE117" s="5">
+      <c r="AD117" s="5">
         <v>114</v>
       </c>
-      <c r="AF117" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG117" s="25">
+      <c r="AE117" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF117" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:33">
+    <row r="118" spans="1:32">
       <c r="A118">
         <v>52000115</v>
       </c>
@@ -17248,7 +16852,7 @@
         <v>107</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D118" s="25"/>
       <c r="E118" s="4">
@@ -17329,20 +16933,17 @@
       <c r="AC118" s="15">
         <v>11000001</v>
       </c>
-      <c r="AD118" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE118" s="5">
+      <c r="AD118" s="5">
         <v>115</v>
       </c>
-      <c r="AF118" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG118" s="25">
+      <c r="AE118" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF118" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:33">
+    <row r="119" spans="1:32">
       <c r="A119">
         <v>52000116</v>
       </c>
@@ -17350,7 +16951,7 @@
         <v>108</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D119" s="25"/>
       <c r="E119" s="4">
@@ -17429,20 +17030,17 @@
         <v>5</v>
       </c>
       <c r="AC119" s="15"/>
-      <c r="AD119" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE119" s="5">
+      <c r="AD119" s="5">
         <v>116</v>
       </c>
-      <c r="AF119" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG119" s="25">
+      <c r="AE119" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:33">
+    <row r="120" spans="1:32">
       <c r="A120">
         <v>52000117</v>
       </c>
@@ -17450,10 +17048,10 @@
         <v>109</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E120" s="4">
         <v>4</v>
@@ -17531,28 +17129,25 @@
         <v>5</v>
       </c>
       <c r="AC120" s="4"/>
-      <c r="AD120" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE120" s="5">
+      <c r="AD120" s="5">
         <v>117</v>
       </c>
-      <c r="AF120" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG120" s="25">
+      <c r="AE120" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:33">
+    <row r="121" spans="1:32">
       <c r="A121">
         <v>52000118</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D121" s="25"/>
       <c r="E121" s="15">
@@ -17629,28 +17224,25 @@
       <c r="AC121" s="15">
         <v>11000003</v>
       </c>
-      <c r="AD121" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE121" s="17">
+      <c r="AD121" s="17">
         <v>118</v>
       </c>
-      <c r="AF121" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG121" s="25">
+      <c r="AE121" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF121" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:33">
+    <row r="122" spans="1:32">
       <c r="A122">
         <v>52000119</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D122" s="25"/>
       <c r="E122" s="15">
@@ -17727,28 +17319,25 @@
       <c r="AC122" s="15">
         <v>11000002</v>
       </c>
-      <c r="AD122" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE122" s="17">
+      <c r="AD122" s="17">
         <v>119</v>
       </c>
-      <c r="AF122" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG122" s="25">
+      <c r="AE122" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF122" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:33">
+    <row r="123" spans="1:32">
       <c r="A123">
         <v>52000120</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="15">
@@ -17825,28 +17414,25 @@
       <c r="AC123" s="15">
         <v>11000007</v>
       </c>
-      <c r="AD123" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE123" s="17">
+      <c r="AD123" s="17">
         <v>120</v>
       </c>
-      <c r="AF123" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG123" s="25">
+      <c r="AE123" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF123" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:33">
+    <row r="124" spans="1:32">
       <c r="A124">
         <v>52000121</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D124" s="25"/>
       <c r="E124" s="15">
@@ -17923,16 +17509,13 @@
       <c r="AC124" s="15">
         <v>11000005</v>
       </c>
-      <c r="AD124" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE124" s="17">
+      <c r="AD124" s="17">
         <v>121</v>
       </c>
-      <c r="AF124" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG124" s="25">
+      <c r="AE124" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF124" s="25">
         <v>0</v>
       </c>
     </row>
@@ -18131,33 +17714,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H124">
-    <cfRule type="cellIs" dxfId="87" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18183,13 +17766,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC3"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18204,112 +17787,109 @@
     <col min="25" max="25" width="3.77734375" customWidth="1"/>
     <col min="26" max="27" width="7.109375" customWidth="1"/>
     <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="7.33203125" customWidth="1"/>
-    <col min="32" max="33" width="4.33203125" customWidth="1"/>
+    <col min="30" max="30" width="7.33203125" customWidth="1"/>
+    <col min="31" max="32" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="73.2">
+    <row r="1" spans="1:32" ht="73.2">
       <c r="A1" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="F1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="W1" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="AA1" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC1" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="Y1" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AD1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="AC1" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF1" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="AG1" s="27" t="s">
-        <v>290</v>
-      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -18335,7 +17915,7 @@
         <v>110</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>110</v>
@@ -18344,46 +17924,46 @@
         <v>110</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>110</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>110</v>
@@ -18395,22 +17975,19 @@
         <v>111</v>
       </c>
       <c r="AC2" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" s="28" t="s">
-        <v>110</v>
-      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -18418,10 +17995,10 @@
         <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
         <v>114</v>
@@ -18433,58 +18010,58 @@
         <v>116</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O3" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q3" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="R3" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="S3" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="T3" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="S3" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>329</v>
-      </c>
       <c r="U3" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Z3" t="s">
         <v>117</v>
@@ -18496,30 +18073,27 @@
         <v>119</v>
       </c>
       <c r="AC3" s="40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AD3" t="s">
         <v>120</v>
       </c>
-      <c r="AE3" t="s">
-        <v>121</v>
+      <c r="AE3" s="24" t="s">
+        <v>287</v>
       </c>
       <c r="AF3" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="AG3" s="24" t="s">
-        <v>291</v>
-      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>52100000</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="15">
@@ -18594,28 +18168,25 @@
         <v>1</v>
       </c>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="17">
+      <c r="AD4" s="17">
         <v>1000</v>
       </c>
-      <c r="AF4" s="26">
+      <c r="AE4" s="26">
         <v>1</v>
       </c>
-      <c r="AG4" s="25">
+      <c r="AF4" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>52100001</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="15">
@@ -18687,19 +18258,16 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AC5" s="15"/>
-      <c r="AD5" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="17">
+      <c r="AD5" s="17">
         <v>1001</v>
       </c>
-      <c r="AF5" s="26">
+      <c r="AE5" s="26">
         <v>1</v>
       </c>
-      <c r="AG5" s="15">
+      <c r="AF5" s="15">
         <v>0</v>
       </c>
     </row>
@@ -18790,36 +18358,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18855,10 +18423,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -3623,79 +3623,79 @@
         </row>
         <row r="12">
           <cell r="A12">
-            <v>55100009</v>
+            <v>55100010</v>
           </cell>
           <cell r="X12">
-            <v>15</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>55100010</v>
+            <v>55100011</v>
           </cell>
           <cell r="X13">
-            <v>12</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>55100011</v>
+            <v>55100012</v>
           </cell>
           <cell r="X14">
-            <v>6</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>55100012</v>
+            <v>55100013</v>
           </cell>
           <cell r="X15">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>55100013</v>
+            <v>55100014</v>
           </cell>
           <cell r="X16">
-            <v>10</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>55100014</v>
+            <v>55100015</v>
           </cell>
           <cell r="X17">
-            <v>24</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>55100015</v>
+            <v>55110001</v>
           </cell>
           <cell r="X18">
-            <v>16</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>55110001</v>
+            <v>55110002</v>
           </cell>
           <cell r="X19">
-            <v>5</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>55110002</v>
+            <v>55110003</v>
           </cell>
           <cell r="X20">
-            <v>8</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>55110003</v>
+            <v>55110004</v>
           </cell>
           <cell r="X21">
             <v>25</v>
@@ -3703,135 +3703,135 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>55110004</v>
+            <v>55110005</v>
           </cell>
           <cell r="X22">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>55110005</v>
+            <v>55110006</v>
           </cell>
           <cell r="X23">
-            <v>20</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>55110006</v>
+            <v>55110007</v>
           </cell>
           <cell r="X24">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>55110007</v>
+            <v>55110008</v>
           </cell>
           <cell r="X25">
-            <v>10</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>55110008</v>
+            <v>55110009</v>
           </cell>
           <cell r="X26">
-            <v>50</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>55110009</v>
+            <v>55110010</v>
           </cell>
           <cell r="X27">
-            <v>12</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>55110010</v>
+            <v>55110011</v>
           </cell>
           <cell r="X28">
-            <v>30</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>55110011</v>
+            <v>55110012</v>
           </cell>
           <cell r="X29">
-            <v>10</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>55110012</v>
+            <v>55110013</v>
           </cell>
           <cell r="X30">
-            <v>30</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>55110013</v>
+            <v>55110014</v>
           </cell>
           <cell r="X31">
-            <v>200</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>55110014</v>
+            <v>55110015</v>
           </cell>
           <cell r="X32">
-            <v>50</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>55110015</v>
+            <v>55110016</v>
           </cell>
           <cell r="X33">
-            <v>20</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>55110016</v>
+            <v>55110017</v>
           </cell>
           <cell r="X34">
-            <v>15</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>55110017</v>
+            <v>55110018</v>
           </cell>
           <cell r="X35">
-            <v>8</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>55110018</v>
+            <v>55110019</v>
           </cell>
           <cell r="X36">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>55110019</v>
+            <v>55110020</v>
           </cell>
           <cell r="X37">
-            <v>30</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>55110020</v>
+            <v>55200001</v>
           </cell>
           <cell r="X38">
             <v>40</v>
@@ -3839,39 +3839,39 @@
         </row>
         <row r="39">
           <cell r="A39">
-            <v>55200001</v>
+            <v>55200002</v>
           </cell>
           <cell r="X39">
-            <v>40</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>55200002</v>
+            <v>55200003</v>
           </cell>
           <cell r="X40">
-            <v>15</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>55200003</v>
+            <v>55200004</v>
           </cell>
           <cell r="X41">
-            <v>25</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>55200004</v>
+            <v>55200005</v>
           </cell>
           <cell r="X42">
-            <v>40</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>55200005</v>
+            <v>55200006</v>
           </cell>
           <cell r="X43">
             <v>20</v>
@@ -3879,7 +3879,7 @@
         </row>
         <row r="44">
           <cell r="A44">
-            <v>55200006</v>
+            <v>55200007</v>
           </cell>
           <cell r="X44">
             <v>20</v>
@@ -3887,15 +3887,15 @@
         </row>
         <row r="45">
           <cell r="A45">
-            <v>55200007</v>
+            <v>55200008</v>
           </cell>
           <cell r="X45">
-            <v>20</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>55200008</v>
+            <v>55200009</v>
           </cell>
           <cell r="X46">
             <v>25</v>
@@ -3903,7 +3903,7 @@
         </row>
         <row r="47">
           <cell r="A47">
-            <v>55200009</v>
+            <v>55200010</v>
           </cell>
           <cell r="X47">
             <v>25</v>
@@ -3911,55 +3911,55 @@
         </row>
         <row r="48">
           <cell r="A48">
-            <v>55200010</v>
+            <v>55200011</v>
           </cell>
           <cell r="X48">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>55200011</v>
+            <v>55200012</v>
           </cell>
           <cell r="X49">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>55200012</v>
+            <v>55200013</v>
           </cell>
           <cell r="X50">
-            <v>30</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>55200013</v>
+            <v>55200014</v>
           </cell>
           <cell r="X51">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>55200014</v>
+            <v>55300001</v>
           </cell>
           <cell r="X52">
-            <v>25</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>55300001</v>
+            <v>55300002</v>
           </cell>
           <cell r="X53">
-            <v>40</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>55300002</v>
+            <v>55300003</v>
           </cell>
           <cell r="X54">
             <v>30</v>
@@ -3967,7 +3967,7 @@
         </row>
         <row r="55">
           <cell r="A55">
-            <v>55300003</v>
+            <v>55300004</v>
           </cell>
           <cell r="X55">
             <v>30</v>
@@ -3975,7 +3975,7 @@
         </row>
         <row r="56">
           <cell r="A56">
-            <v>55300004</v>
+            <v>55300005</v>
           </cell>
           <cell r="X56">
             <v>30</v>
@@ -3983,15 +3983,15 @@
         </row>
         <row r="57">
           <cell r="A57">
-            <v>55300005</v>
+            <v>55300006</v>
           </cell>
           <cell r="X57">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>55300006</v>
+            <v>55300007</v>
           </cell>
           <cell r="X58">
             <v>25</v>
@@ -3999,15 +3999,15 @@
         </row>
         <row r="59">
           <cell r="A59">
-            <v>55300007</v>
+            <v>55300008</v>
           </cell>
           <cell r="X59">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>55300008</v>
+            <v>55300009</v>
           </cell>
           <cell r="X60">
             <v>30</v>
@@ -4015,71 +4015,71 @@
         </row>
         <row r="61">
           <cell r="A61">
-            <v>55300009</v>
+            <v>55300010</v>
           </cell>
           <cell r="X61">
-            <v>30</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>55300010</v>
+            <v>55300011</v>
           </cell>
           <cell r="X62">
-            <v>35</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>55300011</v>
+            <v>55300012</v>
           </cell>
           <cell r="X63">
-            <v>25</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>55300012</v>
+            <v>55300013</v>
           </cell>
           <cell r="X64">
-            <v>5</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>55300013</v>
+            <v>55310001</v>
           </cell>
           <cell r="X65">
-            <v>15</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>55310001</v>
+            <v>55310002</v>
           </cell>
           <cell r="X66">
-            <v>100</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>55310002</v>
+            <v>55310003</v>
           </cell>
           <cell r="X67">
-            <v>15</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>55310003</v>
+            <v>55400001</v>
           </cell>
           <cell r="X68">
-            <v>13</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>55400001</v>
+            <v>55400002</v>
           </cell>
           <cell r="X69">
             <v>80</v>
@@ -4087,7 +4087,7 @@
         </row>
         <row r="70">
           <cell r="A70">
-            <v>55400002</v>
+            <v>55400003</v>
           </cell>
           <cell r="X70">
             <v>80</v>
@@ -4095,47 +4095,47 @@
         </row>
         <row r="71">
           <cell r="A71">
-            <v>55400003</v>
+            <v>55400005</v>
           </cell>
           <cell r="X71">
-            <v>80</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>55400005</v>
+            <v>55400006</v>
           </cell>
           <cell r="X72">
-            <v>55</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>55400006</v>
+            <v>55400007</v>
           </cell>
           <cell r="X73">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>55400007</v>
+            <v>55410001</v>
           </cell>
           <cell r="X74">
-            <v>25</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>55410001</v>
+            <v>55500001</v>
           </cell>
           <cell r="X75">
-            <v>50</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>55500001</v>
+            <v>55500002</v>
           </cell>
           <cell r="X76">
             <v>5</v>
@@ -4143,7 +4143,7 @@
         </row>
         <row r="77">
           <cell r="A77">
-            <v>55500002</v>
+            <v>55500003</v>
           </cell>
           <cell r="X77">
             <v>5</v>
@@ -4151,7 +4151,7 @@
         </row>
         <row r="78">
           <cell r="A78">
-            <v>55500003</v>
+            <v>55500004</v>
           </cell>
           <cell r="X78">
             <v>5</v>
@@ -4159,7 +4159,7 @@
         </row>
         <row r="79">
           <cell r="A79">
-            <v>55500004</v>
+            <v>55500005</v>
           </cell>
           <cell r="X79">
             <v>5</v>
@@ -4167,7 +4167,7 @@
         </row>
         <row r="80">
           <cell r="A80">
-            <v>55500005</v>
+            <v>55500006</v>
           </cell>
           <cell r="X80">
             <v>5</v>
@@ -4175,7 +4175,7 @@
         </row>
         <row r="81">
           <cell r="A81">
-            <v>55500006</v>
+            <v>55500007</v>
           </cell>
           <cell r="X81">
             <v>5</v>
@@ -4183,7 +4183,7 @@
         </row>
         <row r="82">
           <cell r="A82">
-            <v>55500007</v>
+            <v>55500008</v>
           </cell>
           <cell r="X82">
             <v>5</v>
@@ -4191,7 +4191,7 @@
         </row>
         <row r="83">
           <cell r="A83">
-            <v>55500008</v>
+            <v>55500009</v>
           </cell>
           <cell r="X83">
             <v>5</v>
@@ -4199,7 +4199,7 @@
         </row>
         <row r="84">
           <cell r="A84">
-            <v>55500009</v>
+            <v>55500010</v>
           </cell>
           <cell r="X84">
             <v>5</v>
@@ -4207,7 +4207,7 @@
         </row>
         <row r="85">
           <cell r="A85">
-            <v>55500010</v>
+            <v>55500011</v>
           </cell>
           <cell r="X85">
             <v>5</v>
@@ -4215,7 +4215,7 @@
         </row>
         <row r="86">
           <cell r="A86">
-            <v>55500011</v>
+            <v>55500012</v>
           </cell>
           <cell r="X86">
             <v>5</v>
@@ -4223,7 +4223,7 @@
         </row>
         <row r="87">
           <cell r="A87">
-            <v>55500012</v>
+            <v>55500013</v>
           </cell>
           <cell r="X87">
             <v>5</v>
@@ -4231,7 +4231,7 @@
         </row>
         <row r="88">
           <cell r="A88">
-            <v>55500013</v>
+            <v>55500014</v>
           </cell>
           <cell r="X88">
             <v>5</v>
@@ -4239,7 +4239,7 @@
         </row>
         <row r="89">
           <cell r="A89">
-            <v>55500014</v>
+            <v>55500015</v>
           </cell>
           <cell r="X89">
             <v>5</v>
@@ -4247,7 +4247,7 @@
         </row>
         <row r="90">
           <cell r="A90">
-            <v>55500015</v>
+            <v>55500016</v>
           </cell>
           <cell r="X90">
             <v>5</v>
@@ -4255,23 +4255,23 @@
         </row>
         <row r="91">
           <cell r="A91">
-            <v>55500016</v>
+            <v>55510001</v>
           </cell>
           <cell r="X91">
-            <v>5</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>55510001</v>
+            <v>55510002</v>
           </cell>
           <cell r="X92">
-            <v>12</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>55510002</v>
+            <v>55510003</v>
           </cell>
           <cell r="X93">
             <v>15</v>
@@ -4279,87 +4279,87 @@
         </row>
         <row r="94">
           <cell r="A94">
-            <v>55510003</v>
+            <v>55510004</v>
           </cell>
           <cell r="X94">
-            <v>15</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>55510004</v>
+            <v>55510006</v>
           </cell>
           <cell r="X95">
-            <v>12</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>55510006</v>
+            <v>55510007</v>
           </cell>
           <cell r="X96">
-            <v>25</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>55510007</v>
+            <v>55510009</v>
           </cell>
           <cell r="X97">
-            <v>10</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>55510009</v>
+            <v>55510010</v>
           </cell>
           <cell r="X98">
-            <v>50</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>55510010</v>
+            <v>55510011</v>
           </cell>
           <cell r="X99">
-            <v>5</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>55510011</v>
+            <v>55510012</v>
           </cell>
           <cell r="X100">
-            <v>15</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>55510012</v>
+            <v>55510013</v>
           </cell>
           <cell r="X101">
-            <v>62</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>55510013</v>
+            <v>55510014</v>
           </cell>
           <cell r="X102">
-            <v>12</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>55510014</v>
+            <v>55510018</v>
           </cell>
           <cell r="X103">
-            <v>25</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>55510018</v>
+            <v>55510019</v>
           </cell>
           <cell r="X104">
             <v>37</v>
@@ -4367,63 +4367,63 @@
         </row>
         <row r="105">
           <cell r="A105">
-            <v>55510019</v>
+            <v>55520001</v>
           </cell>
           <cell r="X105">
-            <v>37</v>
+            <v>-25</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>55520001</v>
+            <v>55520002</v>
           </cell>
           <cell r="X106">
-            <v>-25</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>55520002</v>
+            <v>55520003</v>
           </cell>
           <cell r="X107">
-            <v>62</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>55520003</v>
+            <v>55600001</v>
           </cell>
           <cell r="X108">
-            <v>27</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>55600001</v>
+            <v>55600002</v>
           </cell>
           <cell r="X109">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>55600002</v>
+            <v>55600004</v>
           </cell>
           <cell r="X110">
-            <v>10</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>55600004</v>
+            <v>55600005</v>
           </cell>
           <cell r="X111">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>55600005</v>
+            <v>55600006</v>
           </cell>
           <cell r="X112">
             <v>15</v>
@@ -4431,103 +4431,103 @@
         </row>
         <row r="113">
           <cell r="A113">
-            <v>55600006</v>
+            <v>55600007</v>
           </cell>
           <cell r="X113">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>55600007</v>
+            <v>55600008</v>
           </cell>
           <cell r="X114">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>55600008</v>
+            <v>55600009</v>
           </cell>
           <cell r="X115">
-            <v>30</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>55600009</v>
+            <v>55600010</v>
           </cell>
           <cell r="X116">
-            <v>13</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>55600010</v>
+            <v>55600011</v>
           </cell>
           <cell r="X117">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>55600011</v>
+            <v>55600012</v>
           </cell>
           <cell r="X118">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>55600012</v>
+            <v>55600013</v>
           </cell>
           <cell r="X119">
-            <v>30</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>55600013</v>
+            <v>55600014</v>
           </cell>
           <cell r="X120">
-            <v>15</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>55600014</v>
+            <v>55600015</v>
           </cell>
           <cell r="X121">
-            <v>30</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>55600015</v>
+            <v>55600016</v>
           </cell>
           <cell r="X122">
-            <v>10</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>55600016</v>
+            <v>55610001</v>
           </cell>
           <cell r="X123">
-            <v>15</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>55610001</v>
+            <v>55610002</v>
           </cell>
           <cell r="X124">
-            <v>30</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>55610002</v>
+            <v>55610003</v>
           </cell>
           <cell r="X125">
             <v>5</v>
@@ -4535,23 +4535,23 @@
         </row>
         <row r="126">
           <cell r="A126">
-            <v>55610003</v>
+            <v>55610004</v>
           </cell>
           <cell r="X126">
-            <v>5</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>55610004</v>
+            <v>55700001</v>
           </cell>
           <cell r="X127">
-            <v>10</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>55700001</v>
+            <v>55700002</v>
           </cell>
           <cell r="X128">
             <v>20</v>
@@ -4559,7 +4559,7 @@
         </row>
         <row r="129">
           <cell r="A129">
-            <v>55700002</v>
+            <v>55700003</v>
           </cell>
           <cell r="X129">
             <v>20</v>
@@ -4567,7 +4567,7 @@
         </row>
         <row r="130">
           <cell r="A130">
-            <v>55700003</v>
+            <v>55700004</v>
           </cell>
           <cell r="X130">
             <v>20</v>
@@ -4575,207 +4575,207 @@
         </row>
         <row r="131">
           <cell r="A131">
-            <v>55700004</v>
+            <v>55700005</v>
           </cell>
           <cell r="X131">
-            <v>20</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>55700005</v>
+            <v>55900001</v>
           </cell>
           <cell r="X132">
-            <v>40</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>55900001</v>
+            <v>55900002</v>
           </cell>
           <cell r="X133">
-            <v>35</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>55900002</v>
+            <v>55900003</v>
           </cell>
           <cell r="X134">
-            <v>30</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>55900003</v>
+            <v>55900004</v>
           </cell>
           <cell r="X135">
-            <v>80</v>
+            <v>-30</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>55900004</v>
+            <v>55900005</v>
           </cell>
           <cell r="X136">
-            <v>-30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>55900005</v>
+            <v>55900006</v>
           </cell>
           <cell r="X137">
-            <v>20</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>55900006</v>
+            <v>55900007</v>
           </cell>
           <cell r="X138">
-            <v>35</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>55900007</v>
+            <v>55900008</v>
           </cell>
           <cell r="X139">
-            <v>25</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>55900008</v>
+            <v>55900009</v>
           </cell>
           <cell r="X140">
-            <v>40</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>55900009</v>
+            <v>55900010</v>
           </cell>
           <cell r="X141">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>55900010</v>
+            <v>55900011</v>
           </cell>
           <cell r="X142">
-            <v>20</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>55900011</v>
+            <v>55900012</v>
           </cell>
           <cell r="X143">
-            <v>15</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>55900012</v>
+            <v>55900013</v>
           </cell>
           <cell r="X144">
-            <v>25</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>55900013</v>
+            <v>55900014</v>
           </cell>
           <cell r="X145">
-            <v>10</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>55900014</v>
+            <v>55900015</v>
           </cell>
           <cell r="X146">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>55900015</v>
+            <v>55900016</v>
           </cell>
           <cell r="X147">
-            <v>30</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>55900016</v>
+            <v>55900017</v>
           </cell>
           <cell r="X148">
-            <v>45</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>55900017</v>
+            <v>55900018</v>
           </cell>
           <cell r="X149">
-            <v>10</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>55900018</v>
+            <v>55900019</v>
           </cell>
           <cell r="X150">
-            <v>30</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>55900019</v>
+            <v>55900020</v>
           </cell>
           <cell r="X151">
-            <v>80</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>55900020</v>
+            <v>55900021</v>
           </cell>
           <cell r="X152">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>55900021</v>
+            <v>55900022</v>
           </cell>
           <cell r="X153">
-            <v>10</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>55900022</v>
+            <v>55900023</v>
           </cell>
           <cell r="X154">
-            <v>20</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>55900023</v>
+            <v>55900024</v>
           </cell>
           <cell r="X155">
-            <v>25</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>55900024</v>
+            <v>55900025</v>
           </cell>
           <cell r="X156">
             <v>10</v>
@@ -4783,61 +4783,60 @@
         </row>
         <row r="157">
           <cell r="A157">
-            <v>55900025</v>
+            <v>55900026</v>
           </cell>
           <cell r="X157">
-            <v>10</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>55900026</v>
+            <v>55900027</v>
           </cell>
           <cell r="X158">
-            <v>20</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>55900027</v>
-          </cell>
-          <cell r="X159">
-            <v>35</v>
+            <v>55900028</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>55900028</v>
-          </cell>
-          <cell r="X160"/>
+            <v>55900029</v>
+          </cell>
+          <cell r="X160">
+            <v>15</v>
+          </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>55900029</v>
+            <v>55900030</v>
           </cell>
           <cell r="X161">
-            <v>15</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>55900030</v>
+            <v>55900031</v>
           </cell>
           <cell r="X162">
-            <v>25</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>55900031</v>
+            <v>55900032</v>
           </cell>
           <cell r="X163">
-            <v>5</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>55900032</v>
+            <v>55900033</v>
           </cell>
           <cell r="X164">
             <v>20</v>
@@ -4845,15 +4844,15 @@
         </row>
         <row r="165">
           <cell r="A165">
-            <v>55900033</v>
+            <v>55900034</v>
           </cell>
           <cell r="X165">
-            <v>20</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>55900034</v>
+            <v>55900035</v>
           </cell>
           <cell r="X166">
             <v>14</v>
@@ -4861,31 +4860,31 @@
         </row>
         <row r="167">
           <cell r="A167">
-            <v>55900035</v>
+            <v>55900036</v>
           </cell>
           <cell r="X167">
-            <v>14</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>55900036</v>
+            <v>55900037</v>
           </cell>
           <cell r="X168">
-            <v>50</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>55900037</v>
+            <v>55900038</v>
           </cell>
           <cell r="X169">
-            <v>35</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>55900038</v>
+            <v>55900039</v>
           </cell>
           <cell r="X170">
             <v>40</v>
@@ -4893,55 +4892,55 @@
         </row>
         <row r="171">
           <cell r="A171">
-            <v>55900039</v>
+            <v>55900040</v>
           </cell>
           <cell r="X171">
-            <v>40</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>55900040</v>
+            <v>55900041</v>
           </cell>
           <cell r="X172">
-            <v>30</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>55900041</v>
+            <v>55900042</v>
           </cell>
           <cell r="X173">
-            <v>0</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>55900042</v>
+            <v>55900043</v>
           </cell>
           <cell r="X174">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>55900043</v>
+            <v>55900044</v>
           </cell>
           <cell r="X175">
-            <v>30</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>55900044</v>
+            <v>55900045</v>
           </cell>
           <cell r="X176">
-            <v>40</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>55900045</v>
+            <v>55900046</v>
           </cell>
           <cell r="X177">
             <v>25</v>
@@ -4949,26 +4948,26 @@
         </row>
         <row r="178">
           <cell r="A178">
-            <v>55900046</v>
+            <v>55900047</v>
           </cell>
           <cell r="X178">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>55900047</v>
+            <v>55900048</v>
           </cell>
           <cell r="X179">
-            <v>30</v>
+            <v>70</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>55900048</v>
+            <v>55900049</v>
           </cell>
           <cell r="X180">
-            <v>70</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="181">
@@ -5504,10 +5503,10 @@
   <dimension ref="A1:AF124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L105" sqref="L105"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6631,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R12" s="8">
         <v>10</v>
@@ -6657,14 +6656,10 @@
       </c>
       <c r="Y12" s="8">
         <f>IF(ISBLANK(Z12),0, LOOKUP(Z12,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA12/100)</f>
-        <v>15</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>55100009</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="4"/>
       <c r="AB12" s="4" t="s">
         <v>5</v>
       </c>
@@ -7369,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -7565,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -8238,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -8933,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -15161,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="10">
-        <f t="shared" ref="U100:U131" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
+        <f t="shared" ref="U100:U124" si="7">J100+K100-100+L100+ SUM(N100:T100)*5+IF(ISNUMBER(Y100),Y100,0)+X100</f>
         <v>0</v>
       </c>
       <c r="V100" s="8">
@@ -16752,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="AF116" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:32">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="372">
   <si>
     <t>铁杖</t>
   </si>
@@ -1258,6 +1258,14 @@
   </si>
   <si>
     <t>范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客之刃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin Blade</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1265,7 +1273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1483,6 +1491,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="42">
@@ -2010,7 +2024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2134,6 +2148,12 @@
     <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2179,7 +2199,63 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="94">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3842,7 +3918,7 @@
             <v>55200002</v>
           </cell>
           <cell r="X39">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="40">
@@ -3943,23 +4019,23 @@
         </row>
         <row r="52">
           <cell r="A52">
-            <v>55300001</v>
+            <v>55200015</v>
           </cell>
           <cell r="X52">
-            <v>40</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>55300002</v>
+            <v>55300001</v>
           </cell>
           <cell r="X53">
-            <v>30</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>55300003</v>
+            <v>55300002</v>
           </cell>
           <cell r="X54">
             <v>30</v>
@@ -3967,7 +4043,7 @@
         </row>
         <row r="55">
           <cell r="A55">
-            <v>55300004</v>
+            <v>55300003</v>
           </cell>
           <cell r="X55">
             <v>30</v>
@@ -3975,7 +4051,7 @@
         </row>
         <row r="56">
           <cell r="A56">
-            <v>55300005</v>
+            <v>55300004</v>
           </cell>
           <cell r="X56">
             <v>30</v>
@@ -3983,15 +4059,15 @@
         </row>
         <row r="57">
           <cell r="A57">
-            <v>55300006</v>
+            <v>55300005</v>
           </cell>
           <cell r="X57">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>55300007</v>
+            <v>55300006</v>
           </cell>
           <cell r="X58">
             <v>25</v>
@@ -3999,15 +4075,15 @@
         </row>
         <row r="59">
           <cell r="A59">
-            <v>55300008</v>
+            <v>55300007</v>
           </cell>
           <cell r="X59">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>55300009</v>
+            <v>55300008</v>
           </cell>
           <cell r="X60">
             <v>30</v>
@@ -4015,71 +4091,71 @@
         </row>
         <row r="61">
           <cell r="A61">
-            <v>55300010</v>
+            <v>55300009</v>
           </cell>
           <cell r="X61">
-            <v>35</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>55300011</v>
+            <v>55300010</v>
           </cell>
           <cell r="X62">
-            <v>25</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>55300012</v>
+            <v>55300011</v>
           </cell>
           <cell r="X63">
-            <v>5</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>55300013</v>
+            <v>55300012</v>
           </cell>
           <cell r="X64">
-            <v>15</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>55310001</v>
+            <v>55300013</v>
           </cell>
           <cell r="X65">
-            <v>100</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>55310002</v>
+            <v>55310001</v>
           </cell>
           <cell r="X66">
-            <v>15</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>55310003</v>
+            <v>55310002</v>
           </cell>
           <cell r="X67">
-            <v>13</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>55400001</v>
+            <v>55310003</v>
           </cell>
           <cell r="X68">
-            <v>80</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>55400002</v>
+            <v>55400001</v>
           </cell>
           <cell r="X69">
             <v>80</v>
@@ -4087,7 +4163,7 @@
         </row>
         <row r="70">
           <cell r="A70">
-            <v>55400003</v>
+            <v>55400002</v>
           </cell>
           <cell r="X70">
             <v>80</v>
@@ -4095,47 +4171,47 @@
         </row>
         <row r="71">
           <cell r="A71">
-            <v>55400005</v>
+            <v>55400003</v>
           </cell>
           <cell r="X71">
-            <v>55</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>55400006</v>
+            <v>55400005</v>
           </cell>
           <cell r="X72">
-            <v>30</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>55400007</v>
+            <v>55400006</v>
           </cell>
           <cell r="X73">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>55410001</v>
+            <v>55400007</v>
           </cell>
           <cell r="X74">
-            <v>50</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>55500001</v>
+            <v>55410001</v>
           </cell>
           <cell r="X75">
-            <v>5</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>55500002</v>
+            <v>55500001</v>
           </cell>
           <cell r="X76">
             <v>5</v>
@@ -4143,7 +4219,7 @@
         </row>
         <row r="77">
           <cell r="A77">
-            <v>55500003</v>
+            <v>55500002</v>
           </cell>
           <cell r="X77">
             <v>5</v>
@@ -4151,7 +4227,7 @@
         </row>
         <row r="78">
           <cell r="A78">
-            <v>55500004</v>
+            <v>55500003</v>
           </cell>
           <cell r="X78">
             <v>5</v>
@@ -4159,7 +4235,7 @@
         </row>
         <row r="79">
           <cell r="A79">
-            <v>55500005</v>
+            <v>55500004</v>
           </cell>
           <cell r="X79">
             <v>5</v>
@@ -4167,7 +4243,7 @@
         </row>
         <row r="80">
           <cell r="A80">
-            <v>55500006</v>
+            <v>55500005</v>
           </cell>
           <cell r="X80">
             <v>5</v>
@@ -4175,7 +4251,7 @@
         </row>
         <row r="81">
           <cell r="A81">
-            <v>55500007</v>
+            <v>55500006</v>
           </cell>
           <cell r="X81">
             <v>5</v>
@@ -4183,7 +4259,7 @@
         </row>
         <row r="82">
           <cell r="A82">
-            <v>55500008</v>
+            <v>55500007</v>
           </cell>
           <cell r="X82">
             <v>5</v>
@@ -4191,7 +4267,7 @@
         </row>
         <row r="83">
           <cell r="A83">
-            <v>55500009</v>
+            <v>55500008</v>
           </cell>
           <cell r="X83">
             <v>5</v>
@@ -4199,7 +4275,7 @@
         </row>
         <row r="84">
           <cell r="A84">
-            <v>55500010</v>
+            <v>55500009</v>
           </cell>
           <cell r="X84">
             <v>5</v>
@@ -4207,7 +4283,7 @@
         </row>
         <row r="85">
           <cell r="A85">
-            <v>55500011</v>
+            <v>55500010</v>
           </cell>
           <cell r="X85">
             <v>5</v>
@@ -4215,7 +4291,7 @@
         </row>
         <row r="86">
           <cell r="A86">
-            <v>55500012</v>
+            <v>55500011</v>
           </cell>
           <cell r="X86">
             <v>5</v>
@@ -4223,7 +4299,7 @@
         </row>
         <row r="87">
           <cell r="A87">
-            <v>55500013</v>
+            <v>55500012</v>
           </cell>
           <cell r="X87">
             <v>5</v>
@@ -4231,7 +4307,7 @@
         </row>
         <row r="88">
           <cell r="A88">
-            <v>55500014</v>
+            <v>55500013</v>
           </cell>
           <cell r="X88">
             <v>5</v>
@@ -4239,7 +4315,7 @@
         </row>
         <row r="89">
           <cell r="A89">
-            <v>55500015</v>
+            <v>55500014</v>
           </cell>
           <cell r="X89">
             <v>5</v>
@@ -4247,7 +4323,7 @@
         </row>
         <row r="90">
           <cell r="A90">
-            <v>55500016</v>
+            <v>55500015</v>
           </cell>
           <cell r="X90">
             <v>5</v>
@@ -4255,23 +4331,23 @@
         </row>
         <row r="91">
           <cell r="A91">
-            <v>55510001</v>
+            <v>55500016</v>
           </cell>
           <cell r="X91">
-            <v>12</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>55510002</v>
+            <v>55510001</v>
           </cell>
           <cell r="X92">
-            <v>15</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>55510003</v>
+            <v>55510002</v>
           </cell>
           <cell r="X93">
             <v>15</v>
@@ -4279,87 +4355,87 @@
         </row>
         <row r="94">
           <cell r="A94">
-            <v>55510004</v>
+            <v>55510003</v>
           </cell>
           <cell r="X94">
-            <v>12</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>55510006</v>
+            <v>55510004</v>
           </cell>
           <cell r="X95">
-            <v>25</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>55510007</v>
+            <v>55510006</v>
           </cell>
           <cell r="X96">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>55510009</v>
+            <v>55510007</v>
           </cell>
           <cell r="X97">
-            <v>50</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>55510010</v>
+            <v>55510009</v>
           </cell>
           <cell r="X98">
-            <v>5</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>55510011</v>
+            <v>55510010</v>
           </cell>
           <cell r="X99">
-            <v>15</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>55510012</v>
+            <v>55510011</v>
           </cell>
           <cell r="X100">
-            <v>62</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>55510013</v>
+            <v>55510012</v>
           </cell>
           <cell r="X101">
-            <v>12</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>55510014</v>
+            <v>55510013</v>
           </cell>
           <cell r="X102">
-            <v>25</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>55510018</v>
+            <v>55510014</v>
           </cell>
           <cell r="X103">
-            <v>37</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>55510019</v>
+            <v>55510018</v>
           </cell>
           <cell r="X104">
             <v>37</v>
@@ -4367,63 +4443,63 @@
         </row>
         <row r="105">
           <cell r="A105">
-            <v>55520001</v>
+            <v>55510019</v>
           </cell>
           <cell r="X105">
-            <v>-25</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>55520002</v>
+            <v>55520001</v>
           </cell>
           <cell r="X106">
-            <v>62</v>
+            <v>-25</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>55520003</v>
+            <v>55520002</v>
           </cell>
           <cell r="X107">
-            <v>27</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>55600001</v>
+            <v>55520003</v>
           </cell>
           <cell r="X108">
-            <v>8</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>55600002</v>
+            <v>55600001</v>
           </cell>
           <cell r="X109">
-            <v>10</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>55600004</v>
+            <v>55600002</v>
           </cell>
           <cell r="X110">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>55600005</v>
+            <v>55600004</v>
           </cell>
           <cell r="X111">
-            <v>15</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>55600006</v>
+            <v>55600005</v>
           </cell>
           <cell r="X112">
             <v>15</v>
@@ -4431,103 +4507,103 @@
         </row>
         <row r="113">
           <cell r="A113">
-            <v>55600007</v>
+            <v>55600006</v>
           </cell>
           <cell r="X113">
-            <v>20</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>55600008</v>
+            <v>55600007</v>
           </cell>
           <cell r="X114">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>55600009</v>
+            <v>55600008</v>
           </cell>
           <cell r="X115">
-            <v>13</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>55600010</v>
+            <v>55600009</v>
           </cell>
           <cell r="X116">
-            <v>30</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>55600011</v>
+            <v>55600010</v>
           </cell>
           <cell r="X117">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>55600012</v>
+            <v>55600011</v>
           </cell>
           <cell r="X118">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>55600013</v>
+            <v>55600012</v>
           </cell>
           <cell r="X119">
-            <v>15</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>55600014</v>
+            <v>55600013</v>
           </cell>
           <cell r="X120">
-            <v>30</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>55600015</v>
+            <v>55600014</v>
           </cell>
           <cell r="X121">
-            <v>10</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>55600016</v>
+            <v>55600015</v>
           </cell>
           <cell r="X122">
-            <v>15</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>55610001</v>
+            <v>55600016</v>
           </cell>
           <cell r="X123">
-            <v>30</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>55610002</v>
+            <v>55610001</v>
           </cell>
           <cell r="X124">
-            <v>5</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>55610003</v>
+            <v>55610002</v>
           </cell>
           <cell r="X125">
             <v>5</v>
@@ -4535,23 +4611,23 @@
         </row>
         <row r="126">
           <cell r="A126">
-            <v>55610004</v>
+            <v>55610003</v>
           </cell>
           <cell r="X126">
-            <v>10</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>55700001</v>
+            <v>55610004</v>
           </cell>
           <cell r="X127">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>55700002</v>
+            <v>55700001</v>
           </cell>
           <cell r="X128">
             <v>20</v>
@@ -4559,7 +4635,7 @@
         </row>
         <row r="129">
           <cell r="A129">
-            <v>55700003</v>
+            <v>55700002</v>
           </cell>
           <cell r="X129">
             <v>20</v>
@@ -4567,7 +4643,7 @@
         </row>
         <row r="130">
           <cell r="A130">
-            <v>55700004</v>
+            <v>55700003</v>
           </cell>
           <cell r="X130">
             <v>20</v>
@@ -4575,207 +4651,207 @@
         </row>
         <row r="131">
           <cell r="A131">
-            <v>55700005</v>
+            <v>55700004</v>
           </cell>
           <cell r="X131">
-            <v>40</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>55900001</v>
+            <v>55700005</v>
           </cell>
           <cell r="X132">
-            <v>35</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>55900002</v>
+            <v>55900001</v>
           </cell>
           <cell r="X133">
-            <v>30</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>55900003</v>
+            <v>55900002</v>
           </cell>
           <cell r="X134">
-            <v>80</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>55900004</v>
+            <v>55900003</v>
           </cell>
           <cell r="X135">
-            <v>-30</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>55900005</v>
+            <v>55900004</v>
           </cell>
           <cell r="X136">
-            <v>20</v>
+            <v>-30</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>55900006</v>
+            <v>55900005</v>
           </cell>
           <cell r="X137">
-            <v>35</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>55900007</v>
+            <v>55900006</v>
           </cell>
           <cell r="X138">
-            <v>25</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>55900008</v>
+            <v>55900007</v>
           </cell>
           <cell r="X139">
-            <v>40</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>55900009</v>
+            <v>55900008</v>
           </cell>
           <cell r="X140">
-            <v>30</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>55900010</v>
+            <v>55900009</v>
           </cell>
           <cell r="X141">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>55900011</v>
+            <v>55900010</v>
           </cell>
           <cell r="X142">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>55900012</v>
+            <v>55900011</v>
           </cell>
           <cell r="X143">
-            <v>25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>55900013</v>
+            <v>55900012</v>
           </cell>
           <cell r="X144">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>55900014</v>
+            <v>55900013</v>
           </cell>
           <cell r="X145">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>55900015</v>
+            <v>55900014</v>
           </cell>
           <cell r="X146">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>55900016</v>
+            <v>55900015</v>
           </cell>
           <cell r="X147">
-            <v>45</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>55900017</v>
+            <v>55900016</v>
           </cell>
           <cell r="X148">
-            <v>10</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>55900018</v>
+            <v>55900017</v>
           </cell>
           <cell r="X149">
-            <v>30</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>55900019</v>
+            <v>55900018</v>
           </cell>
           <cell r="X150">
-            <v>80</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>55900020</v>
+            <v>55900019</v>
           </cell>
           <cell r="X151">
-            <v>20</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>55900021</v>
+            <v>55900020</v>
           </cell>
           <cell r="X152">
-            <v>10</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>55900022</v>
+            <v>55900021</v>
           </cell>
           <cell r="X153">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>55900023</v>
+            <v>55900022</v>
           </cell>
           <cell r="X154">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>55900024</v>
+            <v>55900023</v>
           </cell>
           <cell r="X155">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>55900025</v>
+            <v>55900024</v>
           </cell>
           <cell r="X156">
             <v>10</v>
@@ -4783,60 +4859,60 @@
         </row>
         <row r="157">
           <cell r="A157">
-            <v>55900026</v>
+            <v>55900025</v>
           </cell>
           <cell r="X157">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>55900027</v>
+            <v>55900026</v>
           </cell>
           <cell r="X158">
-            <v>35</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>55900028</v>
+            <v>55900027</v>
+          </cell>
+          <cell r="X159">
+            <v>35</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>55900029</v>
-          </cell>
-          <cell r="X160">
-            <v>15</v>
+            <v>55900028</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>55900030</v>
+            <v>55900029</v>
           </cell>
           <cell r="X161">
-            <v>25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>55900031</v>
+            <v>55900030</v>
           </cell>
           <cell r="X162">
-            <v>5</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>55900032</v>
+            <v>55900031</v>
           </cell>
           <cell r="X163">
-            <v>20</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>55900033</v>
+            <v>55900032</v>
           </cell>
           <cell r="X164">
             <v>20</v>
@@ -4844,15 +4920,15 @@
         </row>
         <row r="165">
           <cell r="A165">
-            <v>55900034</v>
+            <v>55900033</v>
           </cell>
           <cell r="X165">
-            <v>14</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>55900035</v>
+            <v>55900034</v>
           </cell>
           <cell r="X166">
             <v>14</v>
@@ -4860,31 +4936,31 @@
         </row>
         <row r="167">
           <cell r="A167">
-            <v>55900036</v>
+            <v>55900035</v>
           </cell>
           <cell r="X167">
-            <v>50</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>55900037</v>
+            <v>55900036</v>
           </cell>
           <cell r="X168">
-            <v>35</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>55900038</v>
+            <v>55900037</v>
           </cell>
           <cell r="X169">
-            <v>40</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>55900039</v>
+            <v>55900038</v>
           </cell>
           <cell r="X170">
             <v>40</v>
@@ -4892,55 +4968,55 @@
         </row>
         <row r="171">
           <cell r="A171">
-            <v>55900040</v>
+            <v>55900039</v>
           </cell>
           <cell r="X171">
-            <v>30</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>55900041</v>
+            <v>55900040</v>
           </cell>
           <cell r="X172">
-            <v>0</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>55900042</v>
+            <v>55900041</v>
           </cell>
           <cell r="X173">
-            <v>25</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>55900043</v>
+            <v>55900042</v>
           </cell>
           <cell r="X174">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>55900044</v>
+            <v>55900043</v>
           </cell>
           <cell r="X175">
-            <v>40</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>55900045</v>
+            <v>55900044</v>
           </cell>
           <cell r="X176">
-            <v>25</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>55900046</v>
+            <v>55900045</v>
           </cell>
           <cell r="X177">
             <v>25</v>
@@ -4948,31 +5024,31 @@
         </row>
         <row r="178">
           <cell r="A178">
-            <v>55900047</v>
+            <v>55900046</v>
           </cell>
           <cell r="X178">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>55900048</v>
+            <v>55900047</v>
           </cell>
           <cell r="X179">
-            <v>70</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>55900049</v>
+            <v>55900048</v>
           </cell>
           <cell r="X180">
-            <v>15</v>
+            <v>70</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>55990001</v>
+            <v>55900049</v>
           </cell>
           <cell r="X181">
             <v>15</v>
@@ -4980,7 +5056,7 @@
         </row>
         <row r="182">
           <cell r="A182">
-            <v>55990002</v>
+            <v>55990001</v>
           </cell>
           <cell r="X182">
             <v>15</v>
@@ -4988,7 +5064,7 @@
         </row>
         <row r="183">
           <cell r="A183">
-            <v>55990003</v>
+            <v>55990002</v>
           </cell>
           <cell r="X183">
             <v>15</v>
@@ -4996,7 +5072,7 @@
         </row>
         <row r="184">
           <cell r="A184">
-            <v>55990004</v>
+            <v>55990003</v>
           </cell>
           <cell r="X184">
             <v>15</v>
@@ -5004,7 +5080,7 @@
         </row>
         <row r="185">
           <cell r="A185">
-            <v>55990005</v>
+            <v>55990004</v>
           </cell>
           <cell r="X185">
             <v>15</v>
@@ -5012,7 +5088,7 @@
         </row>
         <row r="186">
           <cell r="A186">
-            <v>55990006</v>
+            <v>55990005</v>
           </cell>
           <cell r="X186">
             <v>15</v>
@@ -5020,7 +5096,7 @@
         </row>
         <row r="187">
           <cell r="A187">
-            <v>55990011</v>
+            <v>55990006</v>
           </cell>
           <cell r="X187">
             <v>15</v>
@@ -5028,7 +5104,7 @@
         </row>
         <row r="188">
           <cell r="A188">
-            <v>55990012</v>
+            <v>55990011</v>
           </cell>
           <cell r="X188">
             <v>15</v>
@@ -5036,7 +5112,7 @@
         </row>
         <row r="189">
           <cell r="A189">
-            <v>55990013</v>
+            <v>55990012</v>
           </cell>
           <cell r="X189">
             <v>15</v>
@@ -5044,7 +5120,7 @@
         </row>
         <row r="190">
           <cell r="A190">
-            <v>55990014</v>
+            <v>55990013</v>
           </cell>
           <cell r="X190">
             <v>15</v>
@@ -5052,7 +5128,7 @@
         </row>
         <row r="191">
           <cell r="A191">
-            <v>55990015</v>
+            <v>55990014</v>
           </cell>
           <cell r="X191">
             <v>15</v>
@@ -5060,7 +5136,7 @@
         </row>
         <row r="192">
           <cell r="A192">
-            <v>55990016</v>
+            <v>55990015</v>
           </cell>
           <cell r="X192">
             <v>15</v>
@@ -5068,41 +5144,49 @@
         </row>
         <row r="193">
           <cell r="A193">
-            <v>55990101</v>
+            <v>55990016</v>
           </cell>
           <cell r="X193">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>55990102</v>
+            <v>55990101</v>
           </cell>
           <cell r="X194">
-            <v>25</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>55990103</v>
+            <v>55990102</v>
           </cell>
           <cell r="X195">
-            <v>35</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>55990104</v>
+            <v>55990103</v>
           </cell>
           <cell r="X196">
-            <v>50</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
+            <v>55990104</v>
+          </cell>
+          <cell r="X197">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198">
             <v>55990105</v>
           </cell>
-          <cell r="X197">
+          <cell r="X198">
             <v>150</v>
           </cell>
         </row>
@@ -5114,100 +5198,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF124" totalsRowShown="0" dataDxfId="76" tableBorderDxfId="75">
-  <autoFilter ref="A3:AF124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF125" totalsRowShown="0" dataDxfId="84" tableBorderDxfId="83">
+  <autoFilter ref="A3:AF125"/>
   <sortState ref="A4:AF124">
     <sortCondition ref="A3:A124"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="74"/>
-    <tableColumn id="2" name="Name" dataDxfId="73"/>
-    <tableColumn id="3" name="Ename" dataDxfId="72"/>
-    <tableColumn id="4" name="Remark" dataDxfId="71"/>
-    <tableColumn id="5" name="Star" dataDxfId="70"/>
-    <tableColumn id="6" name="Type" dataDxfId="69"/>
-    <tableColumn id="7" name="Attr" dataDxfId="68"/>
-    <tableColumn id="34" name="Quality" dataDxfId="67">
+    <tableColumn id="1" name="Id" dataDxfId="82"/>
+    <tableColumn id="2" name="Name" dataDxfId="81"/>
+    <tableColumn id="3" name="Ename" dataDxfId="80"/>
+    <tableColumn id="4" name="Remark" dataDxfId="79"/>
+    <tableColumn id="5" name="Star" dataDxfId="78"/>
+    <tableColumn id="6" name="Type" dataDxfId="77"/>
+    <tableColumn id="7" name="Attr" dataDxfId="76"/>
+    <tableColumn id="34" name="Quality" dataDxfId="75">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="66"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="65"/>
-    <tableColumn id="9" name="VitP" dataDxfId="64"/>
-    <tableColumn id="25" name="Modify" dataDxfId="63"/>
-    <tableColumn id="27" name="Dura" dataDxfId="62"/>
-    <tableColumn id="20" name="Def" dataDxfId="61"/>
-    <tableColumn id="21" name="Mag" dataDxfId="60"/>
-    <tableColumn id="29" name="Spd" dataDxfId="59"/>
-    <tableColumn id="30" name="Hit" dataDxfId="58"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="57"/>
-    <tableColumn id="12" name="Crt" dataDxfId="56"/>
-    <tableColumn id="11" name="Luk" dataDxfId="55"/>
-    <tableColumn id="32" name="Sum" dataDxfId="54">
+    <tableColumn id="15" name="Cost" dataDxfId="74"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="73"/>
+    <tableColumn id="9" name="VitP" dataDxfId="72"/>
+    <tableColumn id="25" name="Modify" dataDxfId="71"/>
+    <tableColumn id="27" name="Dura" dataDxfId="70"/>
+    <tableColumn id="20" name="Def" dataDxfId="69"/>
+    <tableColumn id="21" name="Mag" dataDxfId="68"/>
+    <tableColumn id="29" name="Spd" dataDxfId="67"/>
+    <tableColumn id="30" name="Hit" dataDxfId="66"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="65"/>
+    <tableColumn id="12" name="Crt" dataDxfId="64"/>
+    <tableColumn id="11" name="Luk" dataDxfId="63"/>
+    <tableColumn id="32" name="Sum" dataDxfId="62">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="53"/>
-    <tableColumn id="31" name="Mov" dataDxfId="52"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="51"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="50">
+    <tableColumn id="10" name="Range" dataDxfId="61"/>
+    <tableColumn id="31" name="Mov" dataDxfId="60"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="59"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="58">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="49"/>
-    <tableColumn id="14" name="Percent" dataDxfId="48"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="47"/>
-    <tableColumn id="26" name="JobId" dataDxfId="46"/>
-    <tableColumn id="18" name="Icon" dataDxfId="45"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="44"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="43"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="57"/>
+    <tableColumn id="14" name="Percent" dataDxfId="56"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="55"/>
+    <tableColumn id="26" name="JobId" dataDxfId="54"/>
+    <tableColumn id="18" name="Icon" dataDxfId="53"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="52"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="40" tableBorderDxfId="39">
   <autoFilter ref="A3:AF5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="30"/>
-    <tableColumn id="2" name="Name" dataDxfId="29"/>
-    <tableColumn id="3" name="Ename" dataDxfId="28"/>
-    <tableColumn id="4" name="Remark" dataDxfId="27"/>
-    <tableColumn id="5" name="Star" dataDxfId="26"/>
-    <tableColumn id="6" name="Type" dataDxfId="25"/>
-    <tableColumn id="7" name="Attr" dataDxfId="24"/>
-    <tableColumn id="34" name="Quality" dataDxfId="23">
+    <tableColumn id="1" name="Id" dataDxfId="38"/>
+    <tableColumn id="2" name="Name" dataDxfId="37"/>
+    <tableColumn id="3" name="Ename" dataDxfId="36"/>
+    <tableColumn id="4" name="Remark" dataDxfId="35"/>
+    <tableColumn id="5" name="Star" dataDxfId="34"/>
+    <tableColumn id="6" name="Type" dataDxfId="33"/>
+    <tableColumn id="7" name="Attr" dataDxfId="32"/>
+    <tableColumn id="34" name="Quality" dataDxfId="31">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="22"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="21"/>
-    <tableColumn id="9" name="VitP" dataDxfId="20"/>
-    <tableColumn id="25" name="Modify" dataDxfId="19"/>
-    <tableColumn id="31" name="Dura" dataDxfId="18"/>
-    <tableColumn id="11" name="Def" dataDxfId="17"/>
-    <tableColumn id="21" name="Mag" dataDxfId="16"/>
-    <tableColumn id="29" name="Spd" dataDxfId="15"/>
-    <tableColumn id="30" name="Hit" dataDxfId="14"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="13"/>
-    <tableColumn id="19" name="Crt" dataDxfId="12"/>
-    <tableColumn id="12" name="Luk" dataDxfId="11"/>
-    <tableColumn id="32" name="Sum" dataDxfId="10">
+    <tableColumn id="15" name="Cost" dataDxfId="30"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="29"/>
+    <tableColumn id="9" name="VitP" dataDxfId="28"/>
+    <tableColumn id="25" name="Modify" dataDxfId="27"/>
+    <tableColumn id="31" name="Dura" dataDxfId="26"/>
+    <tableColumn id="11" name="Def" dataDxfId="25"/>
+    <tableColumn id="21" name="Mag" dataDxfId="24"/>
+    <tableColumn id="29" name="Spd" dataDxfId="23"/>
+    <tableColumn id="30" name="Hit" dataDxfId="22"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="21"/>
+    <tableColumn id="19" name="Crt" dataDxfId="20"/>
+    <tableColumn id="12" name="Luk" dataDxfId="19"/>
+    <tableColumn id="32" name="Sum" dataDxfId="18">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="9"/>
-    <tableColumn id="27" name="Mov" dataDxfId="8"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="7"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="6">
+    <tableColumn id="10" name="Range" dataDxfId="17"/>
+    <tableColumn id="27" name="Mov" dataDxfId="16"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="15"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="5"/>
-    <tableColumn id="14" name="Percent" dataDxfId="4"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="3"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="13"/>
+    <tableColumn id="14" name="Percent" dataDxfId="12"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="11"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="18" name="Icon" dataDxfId="2"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
+    <tableColumn id="18" name="Icon" dataDxfId="10"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="9"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5500,13 +5584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF124"/>
+  <dimension ref="A1:AF125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
+      <selection pane="bottomRight" activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17524,9 +17608,140 @@
         <v>0</v>
       </c>
     </row>
+    <row r="125" spans="1:32">
+      <c r="A125">
+        <v>52000122</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" s="42"/>
+      <c r="E125" s="15">
+        <v>4</v>
+      </c>
+      <c r="F125" s="15">
+        <v>100</v>
+      </c>
+      <c r="G125" s="15">
+        <v>0</v>
+      </c>
+      <c r="H125" s="41">
+        <f t="shared" ref="H125" si="8">IF(AND(U125&gt;=13,U125&lt;=16),5,IF(AND(U125&gt;=9,U125&lt;=12),4,IF(AND(U125&gt;=5,U125&lt;=8),3,IF(AND(U125&gt;=1,U125&lt;=4),2,IF(AND(U125&gt;=-3,U125&lt;=0),1,IF(AND(U125&gt;=-5,U125&lt;=-4),0,6))))))</f>
+        <v>3</v>
+      </c>
+      <c r="I125" s="15">
+        <v>4</v>
+      </c>
+      <c r="J125" s="16">
+        <v>100</v>
+      </c>
+      <c r="K125" s="16">
+        <v>0</v>
+      </c>
+      <c r="L125" s="14">
+        <v>8</v>
+      </c>
+      <c r="M125" s="8">
+        <v>5</v>
+      </c>
+      <c r="N125" s="8">
+        <v>0</v>
+      </c>
+      <c r="O125" s="8">
+        <v>0</v>
+      </c>
+      <c r="P125" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="8">
+        <v>0</v>
+      </c>
+      <c r="R125" s="8">
+        <v>0</v>
+      </c>
+      <c r="S125" s="8">
+        <v>0</v>
+      </c>
+      <c r="T125" s="8">
+        <v>0</v>
+      </c>
+      <c r="U125" s="10">
+        <f t="shared" ref="U125" si="9">J125+K125-100+L125+ SUM(N125:T125)*5+IF(ISNUMBER(Y125),Y125,0)+X125</f>
+        <v>8</v>
+      </c>
+      <c r="V125" s="8">
+        <v>10</v>
+      </c>
+      <c r="W125" s="8">
+        <v>0</v>
+      </c>
+      <c r="X125" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="10">
+        <f>IF(ISBLANK(Z125),0, LOOKUP(Z125,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA125/100)</f>
+        <v>0</v>
+      </c>
+      <c r="Z125" s="15"/>
+      <c r="AA125" s="15"/>
+      <c r="AB125" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC125" s="15">
+        <v>11000003</v>
+      </c>
+      <c r="AD125" s="17">
+        <v>122</v>
+      </c>
+      <c r="AE125" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF125" s="15">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="U115">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U116:U117">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U118">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U119">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -17538,8 +17753,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U116:U117">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="U120">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17550,7 +17765,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U118">
+  <conditionalFormatting sqref="U121">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U121">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -17562,7 +17789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U119">
+  <conditionalFormatting sqref="U122">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -17574,7 +17801,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U120">
+  <conditionalFormatting sqref="U122">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U123">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -17586,7 +17825,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U121">
+  <conditionalFormatting sqref="U123">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -17598,7 +17837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U121">
+  <conditionalFormatting sqref="U123">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -17610,7 +17849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U122">
+  <conditionalFormatting sqref="U124">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -17622,7 +17861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U122">
+  <conditionalFormatting sqref="U124">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -17634,7 +17873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U123">
+  <conditionalFormatting sqref="U124">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -17646,7 +17885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U123">
+  <conditionalFormatting sqref="U124">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -17658,8 +17897,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U123">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="H5:H124">
+    <cfRule type="cellIs" dxfId="93" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="12" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="13" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="14" operator="greaterThanOrEqual">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="10" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U125">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17670,87 +17940,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U124">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U124">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U124">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U124">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H124">
-    <cfRule type="cellIs" dxfId="85" priority="6" operator="equal">
+  <conditionalFormatting sqref="H125">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U124">
-    <cfRule type="colorScale" priority="90">
+  <conditionalFormatting sqref="U125">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18363,36 +18568,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -2199,63 +2199,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <font>
         <b val="0"/>
@@ -3551,6 +3495,34 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -3646,7 +3618,7 @@
             <v>55100002</v>
           </cell>
           <cell r="X5">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="6">
@@ -3654,7 +3626,7 @@
             <v>55100003</v>
           </cell>
           <cell r="X6">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="7">
@@ -5051,28 +5023,28 @@
             <v>55900049</v>
           </cell>
           <cell r="X181">
-            <v>15</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>55990001</v>
+            <v>55900050</v>
           </cell>
           <cell r="X182">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>55990002</v>
+            <v>55900051</v>
           </cell>
           <cell r="X183">
-            <v>15</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>55990003</v>
+            <v>55990001</v>
           </cell>
           <cell r="X184">
             <v>15</v>
@@ -5080,7 +5052,7 @@
         </row>
         <row r="185">
           <cell r="A185">
-            <v>55990004</v>
+            <v>55990002</v>
           </cell>
           <cell r="X185">
             <v>15</v>
@@ -5088,7 +5060,7 @@
         </row>
         <row r="186">
           <cell r="A186">
-            <v>55990005</v>
+            <v>55990003</v>
           </cell>
           <cell r="X186">
             <v>15</v>
@@ -5096,7 +5068,7 @@
         </row>
         <row r="187">
           <cell r="A187">
-            <v>55990006</v>
+            <v>55990004</v>
           </cell>
           <cell r="X187">
             <v>15</v>
@@ -5104,7 +5076,7 @@
         </row>
         <row r="188">
           <cell r="A188">
-            <v>55990011</v>
+            <v>55990005</v>
           </cell>
           <cell r="X188">
             <v>15</v>
@@ -5112,7 +5084,7 @@
         </row>
         <row r="189">
           <cell r="A189">
-            <v>55990012</v>
+            <v>55990006</v>
           </cell>
           <cell r="X189">
             <v>15</v>
@@ -5120,7 +5092,7 @@
         </row>
         <row r="190">
           <cell r="A190">
-            <v>55990013</v>
+            <v>55990011</v>
           </cell>
           <cell r="X190">
             <v>15</v>
@@ -5128,7 +5100,7 @@
         </row>
         <row r="191">
           <cell r="A191">
-            <v>55990014</v>
+            <v>55990012</v>
           </cell>
           <cell r="X191">
             <v>15</v>
@@ -5136,7 +5108,7 @@
         </row>
         <row r="192">
           <cell r="A192">
-            <v>55990015</v>
+            <v>55990013</v>
           </cell>
           <cell r="X192">
             <v>15</v>
@@ -5144,7 +5116,7 @@
         </row>
         <row r="193">
           <cell r="A193">
-            <v>55990016</v>
+            <v>55990014</v>
           </cell>
           <cell r="X193">
             <v>15</v>
@@ -5152,41 +5124,57 @@
         </row>
         <row r="194">
           <cell r="A194">
-            <v>55990101</v>
+            <v>55990015</v>
           </cell>
           <cell r="X194">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>55990102</v>
+            <v>55990016</v>
           </cell>
           <cell r="X195">
-            <v>25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>55990103</v>
+            <v>55990101</v>
           </cell>
           <cell r="X196">
-            <v>35</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>55990104</v>
+            <v>55990102</v>
           </cell>
           <cell r="X197">
-            <v>50</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
+            <v>55990103</v>
+          </cell>
+          <cell r="X198">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>55990104</v>
+          </cell>
+          <cell r="X199">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200">
             <v>55990105</v>
           </cell>
-          <cell r="X198">
+          <cell r="X200">
             <v>150</v>
           </cell>
         </row>
@@ -5198,100 +5186,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF125" totalsRowShown="0" dataDxfId="84" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AF125" totalsRowShown="0" dataDxfId="76" tableBorderDxfId="75">
   <autoFilter ref="A3:AF125"/>
   <sortState ref="A4:AF124">
     <sortCondition ref="A3:A124"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="82"/>
-    <tableColumn id="2" name="Name" dataDxfId="81"/>
-    <tableColumn id="3" name="Ename" dataDxfId="80"/>
-    <tableColumn id="4" name="Remark" dataDxfId="79"/>
-    <tableColumn id="5" name="Star" dataDxfId="78"/>
-    <tableColumn id="6" name="Type" dataDxfId="77"/>
-    <tableColumn id="7" name="Attr" dataDxfId="76"/>
-    <tableColumn id="34" name="Quality" dataDxfId="75">
+    <tableColumn id="1" name="Id" dataDxfId="74"/>
+    <tableColumn id="2" name="Name" dataDxfId="73"/>
+    <tableColumn id="3" name="Ename" dataDxfId="72"/>
+    <tableColumn id="4" name="Remark" dataDxfId="71"/>
+    <tableColumn id="5" name="Star" dataDxfId="70"/>
+    <tableColumn id="6" name="Type" dataDxfId="69"/>
+    <tableColumn id="7" name="Attr" dataDxfId="68"/>
+    <tableColumn id="34" name="Quality" dataDxfId="67">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="74"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="73"/>
-    <tableColumn id="9" name="VitP" dataDxfId="72"/>
-    <tableColumn id="25" name="Modify" dataDxfId="71"/>
-    <tableColumn id="27" name="Dura" dataDxfId="70"/>
-    <tableColumn id="20" name="Def" dataDxfId="69"/>
-    <tableColumn id="21" name="Mag" dataDxfId="68"/>
-    <tableColumn id="29" name="Spd" dataDxfId="67"/>
-    <tableColumn id="30" name="Hit" dataDxfId="66"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="65"/>
-    <tableColumn id="12" name="Crt" dataDxfId="64"/>
-    <tableColumn id="11" name="Luk" dataDxfId="63"/>
-    <tableColumn id="32" name="Sum" dataDxfId="62">
+    <tableColumn id="15" name="Cost" dataDxfId="66"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="65"/>
+    <tableColumn id="9" name="VitP" dataDxfId="64"/>
+    <tableColumn id="25" name="Modify" dataDxfId="63"/>
+    <tableColumn id="27" name="Dura" dataDxfId="62"/>
+    <tableColumn id="20" name="Def" dataDxfId="61"/>
+    <tableColumn id="21" name="Mag" dataDxfId="60"/>
+    <tableColumn id="29" name="Spd" dataDxfId="59"/>
+    <tableColumn id="30" name="Hit" dataDxfId="58"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="57"/>
+    <tableColumn id="12" name="Crt" dataDxfId="56"/>
+    <tableColumn id="11" name="Luk" dataDxfId="55"/>
+    <tableColumn id="32" name="Sum" dataDxfId="54">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="61"/>
-    <tableColumn id="31" name="Mov" dataDxfId="60"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="59"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="58">
+    <tableColumn id="10" name="Range" dataDxfId="53"/>
+    <tableColumn id="31" name="Mov" dataDxfId="52"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="51"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="50">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="57"/>
-    <tableColumn id="14" name="Percent" dataDxfId="56"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="55"/>
-    <tableColumn id="26" name="JobId" dataDxfId="54"/>
-    <tableColumn id="18" name="Icon" dataDxfId="53"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="52"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="51"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="49"/>
+    <tableColumn id="14" name="Percent" dataDxfId="48"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="47"/>
+    <tableColumn id="26" name="JobId" dataDxfId="46"/>
+    <tableColumn id="18" name="Icon" dataDxfId="45"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="44"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="40" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AF5" totalsRowShown="0" dataDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A3:AF5"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="Id" dataDxfId="38"/>
-    <tableColumn id="2" name="Name" dataDxfId="37"/>
-    <tableColumn id="3" name="Ename" dataDxfId="36"/>
-    <tableColumn id="4" name="Remark" dataDxfId="35"/>
-    <tableColumn id="5" name="Star" dataDxfId="34"/>
-    <tableColumn id="6" name="Type" dataDxfId="33"/>
-    <tableColumn id="7" name="Attr" dataDxfId="32"/>
-    <tableColumn id="34" name="Quality" dataDxfId="31">
+    <tableColumn id="1" name="Id" dataDxfId="30"/>
+    <tableColumn id="2" name="Name" dataDxfId="29"/>
+    <tableColumn id="3" name="Ename" dataDxfId="28"/>
+    <tableColumn id="4" name="Remark" dataDxfId="27"/>
+    <tableColumn id="5" name="Star" dataDxfId="26"/>
+    <tableColumn id="6" name="Type" dataDxfId="25"/>
+    <tableColumn id="7" name="Attr" dataDxfId="24"/>
+    <tableColumn id="34" name="Quality" dataDxfId="23">
       <calculatedColumnFormula>IF(AND(U4&gt;=13,U4&lt;=16),5,IF(AND(U4&gt;=9,U4&lt;=12),4,IF(AND(U4&gt;=5,U4&lt;=8),3,IF(AND(U4&gt;=1,U4&lt;=4),2,IF(AND(U4&gt;=-3,U4&lt;=0),1,IF(AND(U4&gt;=-5,U4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="30"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="29"/>
-    <tableColumn id="9" name="VitP" dataDxfId="28"/>
-    <tableColumn id="25" name="Modify" dataDxfId="27"/>
-    <tableColumn id="31" name="Dura" dataDxfId="26"/>
-    <tableColumn id="11" name="Def" dataDxfId="25"/>
-    <tableColumn id="21" name="Mag" dataDxfId="24"/>
-    <tableColumn id="29" name="Spd" dataDxfId="23"/>
-    <tableColumn id="30" name="Hit" dataDxfId="22"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="21"/>
-    <tableColumn id="19" name="Crt" dataDxfId="20"/>
-    <tableColumn id="12" name="Luk" dataDxfId="19"/>
-    <tableColumn id="32" name="Sum" dataDxfId="18">
+    <tableColumn id="15" name="Cost" dataDxfId="22"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="21"/>
+    <tableColumn id="9" name="VitP" dataDxfId="20"/>
+    <tableColumn id="25" name="Modify" dataDxfId="19"/>
+    <tableColumn id="31" name="Dura" dataDxfId="18"/>
+    <tableColumn id="11" name="Def" dataDxfId="17"/>
+    <tableColumn id="21" name="Mag" dataDxfId="16"/>
+    <tableColumn id="29" name="Spd" dataDxfId="15"/>
+    <tableColumn id="30" name="Hit" dataDxfId="14"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="13"/>
+    <tableColumn id="19" name="Crt" dataDxfId="12"/>
+    <tableColumn id="12" name="Luk" dataDxfId="11"/>
+    <tableColumn id="32" name="Sum" dataDxfId="10">
       <calculatedColumnFormula>J4+K4-100+L4+ SUM(N4:T4)*5+IF(ISNUMBER(Y4),Y4,0)+X4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="17"/>
-    <tableColumn id="27" name="Mov" dataDxfId="16"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="15"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="14">
+    <tableColumn id="10" name="Range" dataDxfId="9"/>
+    <tableColumn id="27" name="Mov" dataDxfId="8"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="7"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(Z4),0, LOOKUP(Z4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="13"/>
-    <tableColumn id="14" name="Percent" dataDxfId="12"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="11"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="5"/>
+    <tableColumn id="14" name="Percent" dataDxfId="4"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="3"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="18" name="Icon" dataDxfId="10"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="9"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="8"/>
+    <tableColumn id="18" name="Icon" dataDxfId="2"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5587,31 +5575,31 @@
   <dimension ref="A1:AF125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L125" sqref="L125"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="11" width="3.77734375" customWidth="1"/>
-    <col min="12" max="20" width="3.88671875" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" customWidth="1"/>
-    <col min="22" max="23" width="3.88671875" customWidth="1"/>
-    <col min="24" max="25" width="4.77734375" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" customWidth="1"/>
-    <col min="27" max="27" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="9" width="4.125" customWidth="1"/>
+    <col min="10" max="11" width="3.75" customWidth="1"/>
+    <col min="12" max="20" width="3.875" customWidth="1"/>
+    <col min="21" max="21" width="6.375" customWidth="1"/>
+    <col min="22" max="23" width="3.875" customWidth="1"/>
+    <col min="24" max="25" width="4.75" customWidth="1"/>
+    <col min="26" max="26" width="9.5" customWidth="1"/>
+    <col min="27" max="27" width="7.125" customWidth="1"/>
     <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="30" width="7.33203125" customWidth="1"/>
-    <col min="31" max="32" width="4.33203125" customWidth="1"/>
-    <col min="35" max="35" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.375" customWidth="1"/>
+    <col min="31" max="32" width="4.375" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="73.2">
+    <row r="1" spans="1:32" ht="69">
       <c r="A1" s="19" t="s">
         <v>241</v>
       </c>
@@ -8163,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N27" s="8">
         <v>0</v>
@@ -8247,7 +8235,7 @@
       </c>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" s="15">
         <v>3</v>
@@ -8259,10 +8247,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="14">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="M28" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" s="8">
         <v>0</v>
@@ -8287,7 +8275,7 @@
       </c>
       <c r="U28" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="V28" s="8">
         <v>10</v>
@@ -8300,10 +8288,14 @@
       </c>
       <c r="Y28" s="8">
         <f>IF(ISBLANK(Z28),0, LOOKUP(Z28,[1]Skill!$A:$A,[1]Skill!$X:$X)*AA28/100)</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>55110003</v>
+      </c>
+      <c r="AA28" s="15">
+        <v>50</v>
+      </c>
       <c r="AB28" s="15" t="s">
         <v>3</v>
       </c>
@@ -14826,7 +14818,7 @@
         <v>7</v>
       </c>
       <c r="M96" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N96" s="8">
         <v>0</v>
@@ -14906,7 +14898,7 @@
       </c>
       <c r="H97" s="4">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" s="4">
         <v>3</v>
@@ -14918,10 +14910,10 @@
         <v>0</v>
       </c>
       <c r="L97" s="14">
+        <v>0</v>
+      </c>
+      <c r="M97" s="8">
         <v>2</v>
-      </c>
-      <c r="M97" s="8">
-        <v>4</v>
       </c>
       <c r="N97" s="8">
         <v>0</v>
@@ -14946,7 +14938,7 @@
       </c>
       <c r="U97" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V97" s="8">
         <v>10</v>
@@ -16945,7 +16937,7 @@
       </c>
       <c r="D118" s="25"/>
       <c r="E118" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F118">
         <v>100</v>
@@ -16958,7 +16950,7 @@
         <v>2</v>
       </c>
       <c r="I118" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J118" s="6">
         <v>70</v>
@@ -16970,7 +16962,7 @@
         <v>2</v>
       </c>
       <c r="M118" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N118" s="8">
         <v>0</v>
@@ -17608,7 +17600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:32">
+    <row r="125" spans="1:32" ht="14.25">
       <c r="A125">
         <v>52000122</v>
       </c>
@@ -17898,33 +17890,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H124">
-    <cfRule type="cellIs" dxfId="93" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="14" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17941,16 +17933,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H125">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17985,23 +17977,23 @@
       <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="11" width="3.77734375" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="9" width="4.125" customWidth="1"/>
+    <col min="10" max="11" width="3.75" customWidth="1"/>
+    <col min="12" max="12" width="4.375" customWidth="1"/>
     <col min="13" max="20" width="4" customWidth="1"/>
-    <col min="21" max="21" width="3.77734375" customWidth="1"/>
+    <col min="21" max="21" width="3.75" customWidth="1"/>
     <col min="22" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="3.77734375" customWidth="1"/>
-    <col min="26" max="27" width="7.109375" customWidth="1"/>
+    <col min="25" max="25" width="3.75" customWidth="1"/>
+    <col min="26" max="27" width="7.125" customWidth="1"/>
     <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="30" width="7.33203125" customWidth="1"/>
-    <col min="31" max="32" width="4.33203125" customWidth="1"/>
+    <col min="30" max="30" width="7.375" customWidth="1"/>
+    <col min="31" max="32" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="73.2">
+    <row r="1" spans="1:32" ht="69">
       <c r="A1" s="19" t="s">
         <v>241</v>
       </c>
@@ -18568,36 +18560,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18629,7 +18621,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -5638,7 +5638,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -6194,7 +6194,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M6" s="8">
         <v>-5</v>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="V6" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>-5</v>
       </c>
       <c r="W6" s="8">
         <v>0</v>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="371">
   <si>
     <t>铁杖</t>
   </si>
@@ -950,18 +950,6 @@
   </si>
   <si>
     <t>Hammer</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁盾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2210,77 +2198,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="87">
     <dxf>
       <font>
         <b/>
@@ -2412,38 +2330,6 @@
         <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2632,6 +2518,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2696,6 +2583,37 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3231,6 +3149,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3295,6 +3214,37 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -5244,102 +5194,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG125" totalsRowShown="0" dataDxfId="91" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG125" totalsRowShown="0" dataDxfId="86" tableBorderDxfId="85">
   <autoFilter ref="A3:AG125"/>
   <sortState ref="A4:AF124">
     <sortCondition ref="A3:A124"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="89"/>
-    <tableColumn id="2" name="Name" dataDxfId="88"/>
-    <tableColumn id="3" name="Ename" dataDxfId="87"/>
-    <tableColumn id="4" name="Remark" dataDxfId="86"/>
-    <tableColumn id="5" name="Star" dataDxfId="85"/>
-    <tableColumn id="6" name="Type" dataDxfId="84"/>
-    <tableColumn id="7" name="Attr" dataDxfId="83"/>
-    <tableColumn id="34" name="Quality" dataDxfId="82">
+    <tableColumn id="1" name="Id" dataDxfId="84"/>
+    <tableColumn id="2" name="Name" dataDxfId="83"/>
+    <tableColumn id="3" name="Ename" dataDxfId="82"/>
+    <tableColumn id="4" name="Remark" dataDxfId="81"/>
+    <tableColumn id="5" name="Star" dataDxfId="80"/>
+    <tableColumn id="6" name="Type" dataDxfId="79"/>
+    <tableColumn id="7" name="Attr" dataDxfId="78"/>
+    <tableColumn id="34" name="Quality" dataDxfId="77">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="81"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="80"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="79"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="26"/>
-    <tableColumn id="25" name="Modify" dataDxfId="78"/>
-    <tableColumn id="27" name="Dura" dataDxfId="77"/>
-    <tableColumn id="20" name="Def" dataDxfId="76"/>
-    <tableColumn id="21" name="Mag" dataDxfId="75"/>
-    <tableColumn id="29" name="Spd" dataDxfId="74"/>
-    <tableColumn id="30" name="Hit" dataDxfId="73"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="72"/>
-    <tableColumn id="12" name="Crt" dataDxfId="71"/>
-    <tableColumn id="11" name="Luk" dataDxfId="70"/>
-    <tableColumn id="32" name="Sum" dataDxfId="25">
+    <tableColumn id="15" name="Cost" dataDxfId="76"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="75"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="74"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="73"/>
+    <tableColumn id="25" name="Modify" dataDxfId="72"/>
+    <tableColumn id="27" name="Dura" dataDxfId="71"/>
+    <tableColumn id="20" name="Def" dataDxfId="70"/>
+    <tableColumn id="21" name="Mag" dataDxfId="69"/>
+    <tableColumn id="29" name="Spd" dataDxfId="68"/>
+    <tableColumn id="30" name="Hit" dataDxfId="67"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="66"/>
+    <tableColumn id="12" name="Crt" dataDxfId="65"/>
+    <tableColumn id="11" name="Luk" dataDxfId="64"/>
+    <tableColumn id="32" name="Sum" dataDxfId="63">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="69"/>
-    <tableColumn id="31" name="Mov" dataDxfId="68"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="67"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="66">
+    <tableColumn id="10" name="Range" dataDxfId="62"/>
+    <tableColumn id="31" name="Mov" dataDxfId="61"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="60"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="59">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="65"/>
-    <tableColumn id="14" name="Percent" dataDxfId="64"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="63"/>
-    <tableColumn id="26" name="JobId" dataDxfId="62"/>
-    <tableColumn id="18" name="Icon" dataDxfId="61"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="60"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="59"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="58"/>
+    <tableColumn id="14" name="Percent" dataDxfId="57"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="56"/>
+    <tableColumn id="26" name="JobId" dataDxfId="55"/>
+    <tableColumn id="18" name="Icon" dataDxfId="54"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="53"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG5" totalsRowShown="0" dataDxfId="58" tableBorderDxfId="57">
-  <autoFilter ref="A3:AG5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="51" tableBorderDxfId="50">
+  <autoFilter ref="A3:AG4"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="56"/>
-    <tableColumn id="2" name="Name" dataDxfId="55"/>
-    <tableColumn id="3" name="Ename" dataDxfId="54"/>
-    <tableColumn id="4" name="Remark" dataDxfId="53"/>
-    <tableColumn id="5" name="Star" dataDxfId="52"/>
-    <tableColumn id="6" name="Type" dataDxfId="51"/>
-    <tableColumn id="7" name="Attr" dataDxfId="50"/>
-    <tableColumn id="34" name="Quality" dataDxfId="49">
+    <tableColumn id="1" name="Id" dataDxfId="49"/>
+    <tableColumn id="2" name="Name" dataDxfId="48"/>
+    <tableColumn id="3" name="Ename" dataDxfId="47"/>
+    <tableColumn id="4" name="Remark" dataDxfId="46"/>
+    <tableColumn id="5" name="Star" dataDxfId="45"/>
+    <tableColumn id="6" name="Type" dataDxfId="44"/>
+    <tableColumn id="7" name="Attr" dataDxfId="43"/>
+    <tableColumn id="34" name="Quality" dataDxfId="42">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="48"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="47"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="46"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="1"/>
-    <tableColumn id="25" name="Modify" dataDxfId="45"/>
-    <tableColumn id="31" name="Dura" dataDxfId="44"/>
-    <tableColumn id="11" name="Def" dataDxfId="43"/>
-    <tableColumn id="21" name="Mag" dataDxfId="42"/>
-    <tableColumn id="29" name="Spd" dataDxfId="41"/>
-    <tableColumn id="30" name="Hit" dataDxfId="40"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="39"/>
-    <tableColumn id="19" name="Crt" dataDxfId="38"/>
-    <tableColumn id="12" name="Luk" dataDxfId="37"/>
-    <tableColumn id="32" name="Sum" dataDxfId="0">
+    <tableColumn id="15" name="Cost" dataDxfId="41"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="40"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="39"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="38"/>
+    <tableColumn id="25" name="Modify" dataDxfId="37"/>
+    <tableColumn id="31" name="Dura" dataDxfId="36"/>
+    <tableColumn id="11" name="Def" dataDxfId="35"/>
+    <tableColumn id="21" name="Mag" dataDxfId="34"/>
+    <tableColumn id="29" name="Spd" dataDxfId="33"/>
+    <tableColumn id="30" name="Hit" dataDxfId="32"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="31"/>
+    <tableColumn id="19" name="Crt" dataDxfId="30"/>
+    <tableColumn id="12" name="Luk" dataDxfId="29"/>
+    <tableColumn id="32" name="Sum" dataDxfId="28">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="36"/>
-    <tableColumn id="27" name="Mov" dataDxfId="35"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="34"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="33">
+    <tableColumn id="10" name="Range" dataDxfId="27"/>
+    <tableColumn id="27" name="Mov" dataDxfId="26"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="25"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="24">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="32"/>
-    <tableColumn id="14" name="Percent" dataDxfId="31"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="30"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="23"/>
+    <tableColumn id="14" name="Percent" dataDxfId="22"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="21"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="18" name="Icon" dataDxfId="29"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="28"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="27"/>
+    <tableColumn id="18" name="Icon" dataDxfId="20"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="19"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5634,7 +5584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -5670,7 +5620,7 @@
         <v>243</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>244</v>
@@ -5682,7 +5632,7 @@
         <v>246</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>283</v>
@@ -5691,49 +5641,49 @@
         <v>251</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>254</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>316</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>319</v>
       </c>
       <c r="V1" s="21" t="s">
         <v>253</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z1" s="21" t="s">
         <v>258</v>
@@ -5748,7 +5698,7 @@
         <v>249</v>
       </c>
       <c r="AD1" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AE1" s="22" t="s">
         <v>250</v>
@@ -5801,43 +5751,43 @@
         <v>255</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>110</v>
@@ -5849,7 +5799,7 @@
         <v>111</v>
       </c>
       <c r="AD2" s="39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>111</v>
@@ -5872,7 +5822,7 @@
         <v>240</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
         <v>114</v>
@@ -5884,61 +5834,61 @@
         <v>116</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I3" t="s">
         <v>285</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>256</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P3" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="S3" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="T3" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="U3" s="34" t="s">
         <v>324</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>327</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>257</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AA3" t="s">
         <v>117</v>
@@ -5950,7 +5900,7 @@
         <v>119</v>
       </c>
       <c r="AD3" s="40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AE3" t="s">
         <v>120</v>
@@ -5973,7 +5923,7 @@
         <v>146</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -6071,7 +6021,7 @@
         <v>147</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -6169,7 +6119,7 @@
         <v>148</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -6267,7 +6217,7 @@
         <v>149</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -6365,7 +6315,7 @@
         <v>270</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -6463,7 +6413,7 @@
         <v>151</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -6561,7 +6511,7 @@
         <v>152</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -6659,7 +6609,7 @@
         <v>153</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="4">
         <v>4</v>
@@ -6853,7 +6803,7 @@
         <v>155</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -6955,7 +6905,7 @@
         <v>156</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -7057,7 +7007,7 @@
         <v>157</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -7135,7 +7085,7 @@
         <v>100</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="5">
@@ -7159,7 +7109,7 @@
         <v>158</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -7261,7 +7211,7 @@
         <v>161</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -7363,7 +7313,7 @@
         <v>160</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -7465,7 +7415,7 @@
         <v>282</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E19" s="15">
         <v>3</v>
@@ -7567,7 +7517,7 @@
         <v>159</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -7671,7 +7621,7 @@
         <v>279</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -7867,7 +7817,7 @@
         <v>163</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -7941,7 +7891,7 @@
       <c r="AA23" s="13"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AD23" s="4"/>
       <c r="AE23" s="5">
@@ -7965,7 +7915,7 @@
         <v>164</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E24" s="4">
         <v>3</v>
@@ -8039,7 +7989,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AD24" s="4"/>
       <c r="AE24" s="5">
@@ -8063,7 +8013,7 @@
         <v>165</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -8161,7 +8111,7 @@
         <v>273</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E26" s="15">
         <v>4</v>
@@ -8235,7 +8185,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AD26" s="4">
         <v>11000004</v>
@@ -8261,7 +8211,7 @@
         <v>166</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -8339,7 +8289,7 @@
         <v>100</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AD27" s="4">
         <v>11000001</v>
@@ -8467,7 +8417,7 @@
         <v>167</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -8569,7 +8519,7 @@
         <v>168</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -8671,7 +8621,7 @@
         <v>169</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -8773,7 +8723,7 @@
         <v>172</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -8875,7 +8825,7 @@
         <v>171</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -8977,7 +8927,7 @@
         <v>170</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -9079,7 +9029,7 @@
         <v>276</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E35" s="15">
         <v>3</v>
@@ -9255,7 +9205,7 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AD36" s="4"/>
       <c r="AE36" s="5">
@@ -9547,7 +9497,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AD39" s="4"/>
       <c r="AE39" s="5">
@@ -9571,7 +9521,7 @@
         <v>127</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -9649,7 +9599,7 @@
         <v>30</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AD40" s="4">
         <v>11000006</v>
@@ -9675,7 +9625,7 @@
         <v>129</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -9851,7 +9801,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AD42" s="4">
         <v>11000007</v>
@@ -9949,7 +9899,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AD43" s="4">
         <v>11000009</v>
@@ -11055,7 +11005,7 @@
         <v>188</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -11639,7 +11589,7 @@
         <v>133</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -11741,7 +11691,7 @@
         <v>194</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E62" s="4">
         <v>3</v>
@@ -12147,7 +12097,7 @@
         <v>198</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -12921,7 +12871,7 @@
         <v>235</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E74" s="4">
         <v>4</v>
@@ -13023,7 +12973,7 @@
         <v>206</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E75" s="4">
         <v>2</v>
@@ -13225,7 +13175,7 @@
         <v>207</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E77" s="4">
         <v>2</v>
@@ -13327,7 +13277,7 @@
         <v>208</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E78" s="4">
         <v>3</v>
@@ -13429,7 +13379,7 @@
         <v>209</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E79" s="4">
         <v>3</v>
@@ -13531,7 +13481,7 @@
         <v>210</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E80" s="4">
         <v>3</v>
@@ -13633,7 +13583,7 @@
         <v>211</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E81" s="4">
         <v>3</v>
@@ -13735,7 +13685,7 @@
         <v>212</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E82" s="4">
         <v>2</v>
@@ -13837,7 +13787,7 @@
         <v>213</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E83" s="4">
         <v>3</v>
@@ -13939,7 +13889,7 @@
         <v>214</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E84" s="4">
         <v>2</v>
@@ -14113,7 +14063,7 @@
       <c r="AA85" s="32"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AD85" s="4"/>
       <c r="AE85" s="5">
@@ -14405,7 +14355,7 @@
       <c r="AA88" s="32"/>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AD88" s="4"/>
       <c r="AE88" s="5">
@@ -14429,7 +14379,7 @@
         <v>219</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E89" s="4">
         <v>4</v>
@@ -14507,7 +14457,7 @@
         <v>40</v>
       </c>
       <c r="AC89" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AD89" s="4">
         <v>11000006</v>
@@ -14533,7 +14483,7 @@
         <v>220</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E90" s="4">
         <v>4</v>
@@ -14709,7 +14659,7 @@
       <c r="AA91" s="32"/>
       <c r="AB91" s="4"/>
       <c r="AC91" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AD91" s="4">
         <v>11000007</v>
@@ -14807,7 +14757,7 @@
       <c r="AA92" s="32"/>
       <c r="AB92" s="4"/>
       <c r="AC92" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AD92" s="4">
         <v>11000009</v>
@@ -15033,7 +14983,7 @@
         <v>224</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E95" s="4">
         <v>2</v>
@@ -15435,7 +15385,7 @@
         <v>227</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E99" s="4">
         <v>6</v>
@@ -15592,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="V100" s="10">
-        <f t="shared" ref="V100:V131" si="7">J100+K100+L100-100+M100+ SUM(O100:U100)*5+IF(ISNUMBER(Z100),Z100,0)+Y100</f>
+        <f t="shared" ref="V100:V125" si="7">J100+K100+L100-100+M100+ SUM(O100:U100)*5+IF(ISNUMBER(Z100),Z100,0)+Y100</f>
         <v>0</v>
       </c>
       <c r="W100" s="8">
@@ -15641,7 +15591,7 @@
         <v>137</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E101" s="4">
         <v>3</v>
@@ -15719,7 +15669,7 @@
         <v>40</v>
       </c>
       <c r="AC101" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AD101" s="4"/>
       <c r="AE101" s="5">
@@ -15839,7 +15789,7 @@
         <v>139</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E103" s="4">
         <v>4</v>
@@ -15943,7 +15893,7 @@
         <v>230</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E104" s="4">
         <v>2</v>
@@ -16045,7 +15995,7 @@
         <v>231</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E105" s="4">
         <v>3</v>
@@ -16245,7 +16195,7 @@
         <v>232</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E107" s="4">
         <v>3</v>
@@ -16745,7 +16695,7 @@
         <v>142</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E112" s="4">
         <v>2</v>
@@ -17145,7 +17095,7 @@
         <v>271</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E116" s="4">
         <v>3</v>
@@ -17219,7 +17169,7 @@
       <c r="AA116" s="25"/>
       <c r="AB116" s="15"/>
       <c r="AC116" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AD116" s="15">
         <v>11000004</v>
@@ -17245,7 +17195,7 @@
         <v>144</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E117" s="4">
         <v>2</v>
@@ -17549,7 +17499,7 @@
         <v>239</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E120" s="4">
         <v>4</v>
@@ -18037,10 +17987,10 @@
         <v>52000122</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D125" s="42"/>
       <c r="E125" s="15">
@@ -18325,33 +18275,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H124">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18368,16 +18318,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H125">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18403,13 +18353,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18439,7 +18389,7 @@
         <v>243</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>244</v>
@@ -18451,7 +18401,7 @@
         <v>246</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>283</v>
@@ -18460,49 +18410,49 @@
         <v>251</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>254</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>316</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>319</v>
       </c>
       <c r="V1" s="21" t="s">
         <v>253</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z1" s="21" t="s">
         <v>258</v>
@@ -18517,7 +18467,7 @@
         <v>249</v>
       </c>
       <c r="AD1" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AE1" s="22" t="s">
         <v>250</v>
@@ -18570,43 +18520,43 @@
         <v>255</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>110</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>110</v>
@@ -18618,7 +18568,7 @@
         <v>111</v>
       </c>
       <c r="AD2" s="39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>111</v>
@@ -18641,7 +18591,7 @@
         <v>240</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
         <v>114</v>
@@ -18653,61 +18603,61 @@
         <v>116</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I3" t="s">
         <v>285</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>256</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P3" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="S3" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="T3" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="U3" s="34" t="s">
         <v>324</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>327</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>257</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AA3" t="s">
         <v>117</v>
@@ -18719,7 +18669,7 @@
         <v>119</v>
       </c>
       <c r="AD3" s="40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AE3" t="s">
         <v>120</v>
@@ -18752,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H5" si="0">IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H4" si="0">IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="15">
@@ -18795,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="10">
-        <f t="shared" ref="V4:V5" si="1">J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</f>
+        <f t="shared" ref="V4" si="1">J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</f>
         <v>-53</v>
       </c>
       <c r="W4" s="14">
@@ -18827,219 +18777,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
-      <c r="A5">
-        <v>52100001</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15">
-        <v>100</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I5" s="15">
-        <v>2</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>50</v>
-      </c>
-      <c r="L5" s="43">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>-3</v>
-      </c>
-      <c r="N5" s="14">
-        <v>4</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>0</v>
-      </c>
-      <c r="R5" s="14">
-        <v>0</v>
-      </c>
-      <c r="S5" s="14">
-        <v>0</v>
-      </c>
-      <c r="T5" s="14">
-        <v>0</v>
-      </c>
-      <c r="U5" s="14">
-        <v>0</v>
-      </c>
-      <c r="V5" s="18">
-        <f t="shared" si="1"/>
-        <v>-53</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0</v>
-      </c>
-      <c r="X5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8">
-        <f>IF(ISBLANK(AA5),0, LOOKUP(AA5,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB5/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="17">
-        <v>1001</v>
-      </c>
-      <c r="AF5" s="26">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="15">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="V5">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19075,10 +18828,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="376">
   <si>
     <t>铁杖</t>
   </si>
@@ -1262,6 +1262,26 @@
   </si>
   <si>
     <t>PArmor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽篁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silent Bamboo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gladiator Longbow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>角斗士长弓</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2201,138 +2221,6 @@
   <dxfs count="87">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2934,6 +2822,44 @@
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3566,6 +3492,100 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4646,199 +4666,199 @@
         </row>
         <row r="133">
           <cell r="A133">
-            <v>55900001</v>
+            <v>55700006</v>
           </cell>
           <cell r="X133">
-            <v>35</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>55900002</v>
+            <v>55900001</v>
           </cell>
           <cell r="X134">
-            <v>30</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>55900003</v>
+            <v>55900002</v>
           </cell>
           <cell r="X135">
-            <v>80</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>55900004</v>
+            <v>55900003</v>
           </cell>
           <cell r="X136">
-            <v>-30</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>55900005</v>
+            <v>55900004</v>
           </cell>
           <cell r="X137">
-            <v>20</v>
+            <v>-30</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>55900006</v>
+            <v>55900005</v>
           </cell>
           <cell r="X138">
-            <v>35</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>55900007</v>
+            <v>55900006</v>
           </cell>
           <cell r="X139">
-            <v>25</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>55900008</v>
+            <v>55900007</v>
           </cell>
           <cell r="X140">
-            <v>40</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>55900009</v>
+            <v>55900008</v>
           </cell>
           <cell r="X141">
-            <v>30</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>55900010</v>
+            <v>55900009</v>
           </cell>
           <cell r="X142">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>55900011</v>
+            <v>55900010</v>
           </cell>
           <cell r="X143">
-            <v>15</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>55900012</v>
+            <v>55900011</v>
           </cell>
           <cell r="X144">
-            <v>25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>55900013</v>
+            <v>55900012</v>
           </cell>
           <cell r="X145">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>55900014</v>
+            <v>55900013</v>
           </cell>
           <cell r="X146">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>55900015</v>
+            <v>55900014</v>
           </cell>
           <cell r="X147">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>55900016</v>
+            <v>55900015</v>
           </cell>
           <cell r="X148">
-            <v>45</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>55900017</v>
+            <v>55900016</v>
           </cell>
           <cell r="X149">
-            <v>10</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>55900018</v>
+            <v>55900017</v>
           </cell>
           <cell r="X150">
-            <v>30</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>55900019</v>
+            <v>55900018</v>
           </cell>
           <cell r="X151">
-            <v>80</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>55900020</v>
+            <v>55900019</v>
           </cell>
           <cell r="X152">
-            <v>20</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>55900021</v>
+            <v>55900020</v>
           </cell>
           <cell r="X153">
-            <v>10</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>55900022</v>
+            <v>55900021</v>
           </cell>
           <cell r="X154">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>55900023</v>
+            <v>55900022</v>
           </cell>
           <cell r="X155">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>55900024</v>
+            <v>55900023</v>
           </cell>
           <cell r="X156">
-            <v>10</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>55900025</v>
+            <v>55900024</v>
           </cell>
           <cell r="X157">
             <v>10</v>
@@ -4846,61 +4866,61 @@
         </row>
         <row r="158">
           <cell r="A158">
-            <v>55900026</v>
+            <v>55900025</v>
           </cell>
           <cell r="X158">
-            <v>20</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>55900027</v>
+            <v>55900026</v>
           </cell>
           <cell r="X159">
-            <v>35</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>55900028</v>
-          </cell>
-          <cell r="X160"/>
+            <v>55900027</v>
+          </cell>
+          <cell r="X160">
+            <v>35</v>
+          </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>55900029</v>
-          </cell>
-          <cell r="X161">
-            <v>15</v>
-          </cell>
+            <v>55900028</v>
+          </cell>
+          <cell r="X161"/>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>55900030</v>
+            <v>55900029</v>
           </cell>
           <cell r="X162">
-            <v>25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>55900031</v>
+            <v>55900030</v>
           </cell>
           <cell r="X163">
-            <v>5</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>55900032</v>
+            <v>55900031</v>
           </cell>
           <cell r="X164">
-            <v>20</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>55900033</v>
+            <v>55900032</v>
           </cell>
           <cell r="X165">
             <v>20</v>
@@ -4908,15 +4928,15 @@
         </row>
         <row r="166">
           <cell r="A166">
-            <v>55900034</v>
+            <v>55900033</v>
           </cell>
           <cell r="X166">
-            <v>14</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>55900035</v>
+            <v>55900034</v>
           </cell>
           <cell r="X167">
             <v>14</v>
@@ -4924,31 +4944,31 @@
         </row>
         <row r="168">
           <cell r="A168">
-            <v>55900036</v>
+            <v>55900035</v>
           </cell>
           <cell r="X168">
-            <v>50</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>55900037</v>
+            <v>55900036</v>
           </cell>
           <cell r="X169">
-            <v>35</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>55900038</v>
+            <v>55900037</v>
           </cell>
           <cell r="X170">
-            <v>40</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>55900039</v>
+            <v>55900038</v>
           </cell>
           <cell r="X171">
             <v>40</v>
@@ -4956,55 +4976,55 @@
         </row>
         <row r="172">
           <cell r="A172">
-            <v>55900040</v>
+            <v>55900039</v>
           </cell>
           <cell r="X172">
-            <v>30</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>55900041</v>
+            <v>55900040</v>
           </cell>
           <cell r="X173">
-            <v>0</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>55900042</v>
+            <v>55900041</v>
           </cell>
           <cell r="X174">
-            <v>25</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>55900043</v>
+            <v>55900042</v>
           </cell>
           <cell r="X175">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>55900044</v>
+            <v>55900043</v>
           </cell>
           <cell r="X176">
-            <v>40</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>55900045</v>
+            <v>55900044</v>
           </cell>
           <cell r="X177">
-            <v>25</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>55900046</v>
+            <v>55900045</v>
           </cell>
           <cell r="X178">
             <v>25</v>
@@ -5012,71 +5032,71 @@
         </row>
         <row r="179">
           <cell r="A179">
-            <v>55900047</v>
+            <v>55900046</v>
           </cell>
           <cell r="X179">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>55900048</v>
+            <v>55900047</v>
           </cell>
           <cell r="X180">
-            <v>70</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>55900049</v>
+            <v>55900048</v>
           </cell>
           <cell r="X181">
-            <v>25</v>
+            <v>70</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>55900050</v>
+            <v>55900049</v>
           </cell>
           <cell r="X182">
-            <v>20</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>55900051</v>
+            <v>55900050</v>
           </cell>
           <cell r="X183">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>55990001</v>
+            <v>55900051</v>
           </cell>
           <cell r="X184">
-            <v>15</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>55990002</v>
+            <v>55900052</v>
           </cell>
           <cell r="X185">
-            <v>15</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>55990003</v>
+            <v>55900053</v>
           </cell>
           <cell r="X186">
-            <v>15</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>55990004</v>
+            <v>55900054</v>
           </cell>
           <cell r="X187">
             <v>15</v>
@@ -5084,7 +5104,7 @@
         </row>
         <row r="188">
           <cell r="A188">
-            <v>55990005</v>
+            <v>55990001</v>
           </cell>
           <cell r="X188">
             <v>15</v>
@@ -5092,7 +5112,7 @@
         </row>
         <row r="189">
           <cell r="A189">
-            <v>55990006</v>
+            <v>55990002</v>
           </cell>
           <cell r="X189">
             <v>15</v>
@@ -5100,7 +5120,7 @@
         </row>
         <row r="190">
           <cell r="A190">
-            <v>55990011</v>
+            <v>55990003</v>
           </cell>
           <cell r="X190">
             <v>15</v>
@@ -5108,7 +5128,7 @@
         </row>
         <row r="191">
           <cell r="A191">
-            <v>55990012</v>
+            <v>55990004</v>
           </cell>
           <cell r="X191">
             <v>15</v>
@@ -5116,7 +5136,7 @@
         </row>
         <row r="192">
           <cell r="A192">
-            <v>55990013</v>
+            <v>55990005</v>
           </cell>
           <cell r="X192">
             <v>15</v>
@@ -5124,7 +5144,7 @@
         </row>
         <row r="193">
           <cell r="A193">
-            <v>55990014</v>
+            <v>55990006</v>
           </cell>
           <cell r="X193">
             <v>15</v>
@@ -5132,7 +5152,7 @@
         </row>
         <row r="194">
           <cell r="A194">
-            <v>55990015</v>
+            <v>55990011</v>
           </cell>
           <cell r="X194">
             <v>15</v>
@@ -5140,7 +5160,7 @@
         </row>
         <row r="195">
           <cell r="A195">
-            <v>55990016</v>
+            <v>55990012</v>
           </cell>
           <cell r="X195">
             <v>15</v>
@@ -5148,41 +5168,73 @@
         </row>
         <row r="196">
           <cell r="A196">
-            <v>55990101</v>
+            <v>55990013</v>
           </cell>
           <cell r="X196">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>55990102</v>
+            <v>55990014</v>
           </cell>
           <cell r="X197">
-            <v>25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>55990103</v>
+            <v>55990015</v>
           </cell>
           <cell r="X198">
-            <v>35</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>55990104</v>
+            <v>55990016</v>
           </cell>
           <cell r="X199">
-            <v>50</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
+            <v>55990101</v>
+          </cell>
+          <cell r="X200">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201">
+            <v>55990102</v>
+          </cell>
+          <cell r="X201">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202">
+            <v>55990103</v>
+          </cell>
+          <cell r="X202">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203">
+            <v>55990104</v>
+          </cell>
+          <cell r="X203">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204">
             <v>55990105</v>
           </cell>
-          <cell r="X200">
+          <cell r="X204">
             <v>150</v>
           </cell>
         </row>
@@ -5194,102 +5246,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG125" totalsRowShown="0" dataDxfId="86" tableBorderDxfId="85">
-  <autoFilter ref="A3:AG125"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG127" totalsRowShown="0" dataDxfId="73" tableBorderDxfId="72">
+  <autoFilter ref="A3:AG127"/>
   <sortState ref="A4:AF124">
     <sortCondition ref="A3:A124"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="84"/>
-    <tableColumn id="2" name="Name" dataDxfId="83"/>
-    <tableColumn id="3" name="Ename" dataDxfId="82"/>
-    <tableColumn id="4" name="Remark" dataDxfId="81"/>
-    <tableColumn id="5" name="Star" dataDxfId="80"/>
-    <tableColumn id="6" name="Type" dataDxfId="79"/>
-    <tableColumn id="7" name="Attr" dataDxfId="78"/>
-    <tableColumn id="34" name="Quality" dataDxfId="77">
+    <tableColumn id="1" name="Id" dataDxfId="71"/>
+    <tableColumn id="2" name="Name" dataDxfId="70"/>
+    <tableColumn id="3" name="Ename" dataDxfId="69"/>
+    <tableColumn id="4" name="Remark" dataDxfId="68"/>
+    <tableColumn id="5" name="Star" dataDxfId="67"/>
+    <tableColumn id="6" name="Type" dataDxfId="66"/>
+    <tableColumn id="7" name="Attr" dataDxfId="65"/>
+    <tableColumn id="34" name="Quality" dataDxfId="64">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="76"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="75"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="74"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="73"/>
-    <tableColumn id="25" name="Modify" dataDxfId="72"/>
-    <tableColumn id="27" name="Dura" dataDxfId="71"/>
-    <tableColumn id="20" name="Def" dataDxfId="70"/>
-    <tableColumn id="21" name="Mag" dataDxfId="69"/>
-    <tableColumn id="29" name="Spd" dataDxfId="68"/>
-    <tableColumn id="30" name="Hit" dataDxfId="67"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="66"/>
-    <tableColumn id="12" name="Crt" dataDxfId="65"/>
-    <tableColumn id="11" name="Luk" dataDxfId="64"/>
-    <tableColumn id="32" name="Sum" dataDxfId="63">
+    <tableColumn id="15" name="Cost" dataDxfId="63"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="62"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="61"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="60"/>
+    <tableColumn id="25" name="Modify" dataDxfId="59"/>
+    <tableColumn id="27" name="Dura" dataDxfId="58"/>
+    <tableColumn id="20" name="Def" dataDxfId="57"/>
+    <tableColumn id="21" name="Mag" dataDxfId="56"/>
+    <tableColumn id="29" name="Spd" dataDxfId="55"/>
+    <tableColumn id="30" name="Hit" dataDxfId="54"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="53"/>
+    <tableColumn id="12" name="Crt" dataDxfId="52"/>
+    <tableColumn id="11" name="Luk" dataDxfId="51"/>
+    <tableColumn id="32" name="Sum" dataDxfId="50">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="62"/>
-    <tableColumn id="31" name="Mov" dataDxfId="61"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="60"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="59">
+    <tableColumn id="10" name="Range" dataDxfId="49"/>
+    <tableColumn id="31" name="Mov" dataDxfId="48"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="47"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="46">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="58"/>
-    <tableColumn id="14" name="Percent" dataDxfId="57"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="56"/>
-    <tableColumn id="26" name="JobId" dataDxfId="55"/>
-    <tableColumn id="18" name="Icon" dataDxfId="54"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="53"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="52"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="45"/>
+    <tableColumn id="14" name="Percent" dataDxfId="44"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="43"/>
+    <tableColumn id="26" name="JobId" dataDxfId="42"/>
+    <tableColumn id="18" name="Icon" dataDxfId="41"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="40"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A3:AG4"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="49"/>
-    <tableColumn id="2" name="Name" dataDxfId="48"/>
-    <tableColumn id="3" name="Ename" dataDxfId="47"/>
-    <tableColumn id="4" name="Remark" dataDxfId="46"/>
-    <tableColumn id="5" name="Star" dataDxfId="45"/>
-    <tableColumn id="6" name="Type" dataDxfId="44"/>
-    <tableColumn id="7" name="Attr" dataDxfId="43"/>
-    <tableColumn id="34" name="Quality" dataDxfId="42">
+    <tableColumn id="1" name="Id" dataDxfId="31"/>
+    <tableColumn id="2" name="Name" dataDxfId="30"/>
+    <tableColumn id="3" name="Ename" dataDxfId="29"/>
+    <tableColumn id="4" name="Remark" dataDxfId="28"/>
+    <tableColumn id="5" name="Star" dataDxfId="27"/>
+    <tableColumn id="6" name="Type" dataDxfId="26"/>
+    <tableColumn id="7" name="Attr" dataDxfId="25"/>
+    <tableColumn id="34" name="Quality" dataDxfId="24">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="41"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="40"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="39"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="38"/>
-    <tableColumn id="25" name="Modify" dataDxfId="37"/>
-    <tableColumn id="31" name="Dura" dataDxfId="36"/>
-    <tableColumn id="11" name="Def" dataDxfId="35"/>
-    <tableColumn id="21" name="Mag" dataDxfId="34"/>
-    <tableColumn id="29" name="Spd" dataDxfId="33"/>
-    <tableColumn id="30" name="Hit" dataDxfId="32"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="31"/>
-    <tableColumn id="19" name="Crt" dataDxfId="30"/>
-    <tableColumn id="12" name="Luk" dataDxfId="29"/>
-    <tableColumn id="32" name="Sum" dataDxfId="28">
+    <tableColumn id="15" name="Cost" dataDxfId="23"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="21"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="20"/>
+    <tableColumn id="25" name="Modify" dataDxfId="19"/>
+    <tableColumn id="31" name="Dura" dataDxfId="18"/>
+    <tableColumn id="11" name="Def" dataDxfId="17"/>
+    <tableColumn id="21" name="Mag" dataDxfId="16"/>
+    <tableColumn id="29" name="Spd" dataDxfId="15"/>
+    <tableColumn id="30" name="Hit" dataDxfId="14"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="13"/>
+    <tableColumn id="19" name="Crt" dataDxfId="12"/>
+    <tableColumn id="12" name="Luk" dataDxfId="11"/>
+    <tableColumn id="32" name="Sum" dataDxfId="10">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="27"/>
-    <tableColumn id="27" name="Mov" dataDxfId="26"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="25"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="24">
+    <tableColumn id="10" name="Range" dataDxfId="9"/>
+    <tableColumn id="27" name="Mov" dataDxfId="8"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="7"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="23"/>
-    <tableColumn id="14" name="Percent" dataDxfId="22"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="21"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="5"/>
+    <tableColumn id="14" name="Percent" dataDxfId="4"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="3"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="18" name="Icon" dataDxfId="20"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="19"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="18"/>
+    <tableColumn id="18" name="Icon" dataDxfId="2"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5582,13 +5634,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG125"/>
+  <dimension ref="A1:AG127"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8124,13 +8176,13 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="15">
         <v>4</v>
       </c>
       <c r="J26" s="16">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K26" s="16">
         <v>0</v>
@@ -8139,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="8">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="N26" s="8">
         <v>6</v>
@@ -8154,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S26" s="8">
         <v>0</v>
@@ -8167,7 +8219,7 @@
       </c>
       <c r="V26" s="10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W26" s="8">
         <v>30</v>
@@ -17098,7 +17150,7 @@
         <v>355</v>
       </c>
       <c r="E116" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F116">
         <v>100</v>
@@ -17108,10 +17160,10 @@
       </c>
       <c r="H116" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" s="6">
         <v>45</v>
@@ -17123,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N116" s="8">
         <v>4</v>
@@ -17151,7 +17203,7 @@
       </c>
       <c r="V116" s="36">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W116" s="8">
         <v>20</v>
@@ -18077,6 +18129,202 @@
         <v>0</v>
       </c>
       <c r="AG125" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
+      <c r="A126">
+        <v>52000123</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D126" s="42"/>
+      <c r="E126" s="15">
+        <v>3</v>
+      </c>
+      <c r="F126" s="15">
+        <v>100</v>
+      </c>
+      <c r="G126" s="15">
+        <v>0</v>
+      </c>
+      <c r="H126" s="41">
+        <f t="shared" ref="H126:H127" si="9">IF(AND(V126&gt;=13,V126&lt;=16),5,IF(AND(V126&gt;=9,V126&lt;=12),4,IF(AND(V126&gt;=5,V126&lt;=8),3,IF(AND(V126&gt;=1,V126&lt;=4),2,IF(AND(V126&gt;=-3,V126&lt;=0),1,IF(AND(V126&gt;=-5,V126&lt;=-4),0,6))))))</f>
+        <v>2</v>
+      </c>
+      <c r="I126" s="15">
+        <v>3</v>
+      </c>
+      <c r="J126" s="16">
+        <v>100</v>
+      </c>
+      <c r="K126" s="16">
+        <v>0</v>
+      </c>
+      <c r="L126" s="7">
+        <v>0</v>
+      </c>
+      <c r="M126" s="14">
+        <v>-44</v>
+      </c>
+      <c r="N126" s="8">
+        <v>4</v>
+      </c>
+      <c r="O126" s="8">
+        <v>0</v>
+      </c>
+      <c r="P126" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q126" s="8">
+        <v>2</v>
+      </c>
+      <c r="R126" s="8">
+        <v>0</v>
+      </c>
+      <c r="S126" s="8">
+        <v>0</v>
+      </c>
+      <c r="T126" s="8">
+        <v>0</v>
+      </c>
+      <c r="U126" s="8">
+        <v>0</v>
+      </c>
+      <c r="V126" s="10">
+        <f t="shared" ref="V126:V127" si="10">J126+K126+L126-100+M126+ SUM(O126:U126)*5+IF(ISNUMBER(Z126),Z126,0)+Y126</f>
+        <v>1</v>
+      </c>
+      <c r="W126" s="8">
+        <v>20</v>
+      </c>
+      <c r="X126" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="8">
+        <v>25</v>
+      </c>
+      <c r="Z126" s="10">
+        <f>IF(ISBLANK(AA126),0, LOOKUP(AA126,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB126/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA126" s="15"/>
+      <c r="AB126" s="15"/>
+      <c r="AC126" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD126" s="15">
+        <v>11000004</v>
+      </c>
+      <c r="AE126" s="17">
+        <v>123</v>
+      </c>
+      <c r="AF126" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG126" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
+      <c r="A127">
+        <v>52000124</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D127" s="42"/>
+      <c r="E127" s="15">
+        <v>6</v>
+      </c>
+      <c r="F127" s="15">
+        <v>100</v>
+      </c>
+      <c r="G127" s="15">
+        <v>0</v>
+      </c>
+      <c r="H127" s="41">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I127" s="15">
+        <v>6</v>
+      </c>
+      <c r="J127" s="16">
+        <v>100</v>
+      </c>
+      <c r="K127" s="16">
+        <v>0</v>
+      </c>
+      <c r="L127" s="7">
+        <v>0</v>
+      </c>
+      <c r="M127" s="14">
+        <v>-40</v>
+      </c>
+      <c r="N127" s="8">
+        <v>2</v>
+      </c>
+      <c r="O127" s="8">
+        <v>0</v>
+      </c>
+      <c r="P127" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="8">
+        <v>0</v>
+      </c>
+      <c r="R127" s="8">
+        <v>1</v>
+      </c>
+      <c r="S127" s="8">
+        <v>0</v>
+      </c>
+      <c r="T127" s="8">
+        <v>3</v>
+      </c>
+      <c r="U127" s="8">
+        <v>0</v>
+      </c>
+      <c r="V127" s="10">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="W127" s="8">
+        <v>20</v>
+      </c>
+      <c r="X127" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="8">
+        <v>25</v>
+      </c>
+      <c r="Z127" s="10">
+        <f>IF(ISBLANK(AA127),0, LOOKUP(AA127,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB127/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA127" s="15"/>
+      <c r="AB127" s="15"/>
+      <c r="AC127" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD127" s="15">
+        <v>11000004</v>
+      </c>
+      <c r="AE127" s="17">
+        <v>124</v>
+      </c>
+      <c r="AF127" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG127" s="15">
         <v>1</v>
       </c>
     </row>
@@ -18275,37 +18523,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H124">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="14" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4:V125">
+  <conditionalFormatting sqref="V4:V127">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -18317,21 +18565,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="H125:H127">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V125">
+  <conditionalFormatting sqref="V125:V127">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -18355,7 +18603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -18780,19 +19028,19 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="380">
   <si>
     <t>铁杖</t>
   </si>
@@ -1282,6 +1282,22 @@
   </si>
   <si>
     <t>角斗士长弓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glaive</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔剑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaksha</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2218,7 +2234,35 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="91">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5246,102 +5290,108 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG127" totalsRowShown="0" dataDxfId="73" tableBorderDxfId="72">
-  <autoFilter ref="A3:AG127"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG129" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
+  <autoFilter ref="A3:AG129">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A4:AF124">
     <sortCondition ref="A3:A124"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="71"/>
-    <tableColumn id="2" name="Name" dataDxfId="70"/>
-    <tableColumn id="3" name="Ename" dataDxfId="69"/>
-    <tableColumn id="4" name="Remark" dataDxfId="68"/>
-    <tableColumn id="5" name="Star" dataDxfId="67"/>
-    <tableColumn id="6" name="Type" dataDxfId="66"/>
-    <tableColumn id="7" name="Attr" dataDxfId="65"/>
-    <tableColumn id="34" name="Quality" dataDxfId="64">
+    <tableColumn id="1" name="Id" dataDxfId="75"/>
+    <tableColumn id="2" name="Name" dataDxfId="74"/>
+    <tableColumn id="3" name="Ename" dataDxfId="73"/>
+    <tableColumn id="4" name="Remark" dataDxfId="72"/>
+    <tableColumn id="5" name="Star" dataDxfId="71"/>
+    <tableColumn id="6" name="Type" dataDxfId="70"/>
+    <tableColumn id="7" name="Attr" dataDxfId="69"/>
+    <tableColumn id="34" name="Quality" dataDxfId="68">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="63"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="62"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="61"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="60"/>
-    <tableColumn id="25" name="Modify" dataDxfId="59"/>
-    <tableColumn id="27" name="Dura" dataDxfId="58"/>
-    <tableColumn id="20" name="Def" dataDxfId="57"/>
-    <tableColumn id="21" name="Mag" dataDxfId="56"/>
-    <tableColumn id="29" name="Spd" dataDxfId="55"/>
-    <tableColumn id="30" name="Hit" dataDxfId="54"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="53"/>
-    <tableColumn id="12" name="Crt" dataDxfId="52"/>
-    <tableColumn id="11" name="Luk" dataDxfId="51"/>
-    <tableColumn id="32" name="Sum" dataDxfId="50">
+    <tableColumn id="15" name="Cost" dataDxfId="67"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="66"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="65"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="64"/>
+    <tableColumn id="25" name="Modify" dataDxfId="63"/>
+    <tableColumn id="27" name="Dura" dataDxfId="62"/>
+    <tableColumn id="20" name="Def" dataDxfId="61"/>
+    <tableColumn id="21" name="Mag" dataDxfId="60"/>
+    <tableColumn id="29" name="Spd" dataDxfId="59"/>
+    <tableColumn id="30" name="Hit" dataDxfId="58"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="57"/>
+    <tableColumn id="12" name="Crt" dataDxfId="56"/>
+    <tableColumn id="11" name="Luk" dataDxfId="55"/>
+    <tableColumn id="32" name="Sum" dataDxfId="54">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="49"/>
-    <tableColumn id="31" name="Mov" dataDxfId="48"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="47"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="46">
+    <tableColumn id="10" name="Range" dataDxfId="53"/>
+    <tableColumn id="31" name="Mov" dataDxfId="52"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="51"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="50">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="45"/>
-    <tableColumn id="14" name="Percent" dataDxfId="44"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="43"/>
-    <tableColumn id="26" name="JobId" dataDxfId="42"/>
-    <tableColumn id="18" name="Icon" dataDxfId="41"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="40"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="39"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="49"/>
+    <tableColumn id="14" name="Percent" dataDxfId="48"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="47"/>
+    <tableColumn id="26" name="JobId" dataDxfId="46"/>
+    <tableColumn id="18" name="Icon" dataDxfId="45"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="44"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="A3:AG4"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" name="Name" dataDxfId="30"/>
-    <tableColumn id="3" name="Ename" dataDxfId="29"/>
-    <tableColumn id="4" name="Remark" dataDxfId="28"/>
-    <tableColumn id="5" name="Star" dataDxfId="27"/>
-    <tableColumn id="6" name="Type" dataDxfId="26"/>
-    <tableColumn id="7" name="Attr" dataDxfId="25"/>
-    <tableColumn id="34" name="Quality" dataDxfId="24">
+    <tableColumn id="1" name="Id" dataDxfId="35"/>
+    <tableColumn id="2" name="Name" dataDxfId="34"/>
+    <tableColumn id="3" name="Ename" dataDxfId="33"/>
+    <tableColumn id="4" name="Remark" dataDxfId="32"/>
+    <tableColumn id="5" name="Star" dataDxfId="31"/>
+    <tableColumn id="6" name="Type" dataDxfId="30"/>
+    <tableColumn id="7" name="Attr" dataDxfId="29"/>
+    <tableColumn id="34" name="Quality" dataDxfId="28">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="23"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="21"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="20"/>
-    <tableColumn id="25" name="Modify" dataDxfId="19"/>
-    <tableColumn id="31" name="Dura" dataDxfId="18"/>
-    <tableColumn id="11" name="Def" dataDxfId="17"/>
-    <tableColumn id="21" name="Mag" dataDxfId="16"/>
-    <tableColumn id="29" name="Spd" dataDxfId="15"/>
-    <tableColumn id="30" name="Hit" dataDxfId="14"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="13"/>
-    <tableColumn id="19" name="Crt" dataDxfId="12"/>
-    <tableColumn id="12" name="Luk" dataDxfId="11"/>
-    <tableColumn id="32" name="Sum" dataDxfId="10">
+    <tableColumn id="15" name="Cost" dataDxfId="27"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="26"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="25"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="24"/>
+    <tableColumn id="25" name="Modify" dataDxfId="23"/>
+    <tableColumn id="31" name="Dura" dataDxfId="22"/>
+    <tableColumn id="11" name="Def" dataDxfId="21"/>
+    <tableColumn id="21" name="Mag" dataDxfId="20"/>
+    <tableColumn id="29" name="Spd" dataDxfId="19"/>
+    <tableColumn id="30" name="Hit" dataDxfId="18"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="17"/>
+    <tableColumn id="19" name="Crt" dataDxfId="16"/>
+    <tableColumn id="12" name="Luk" dataDxfId="15"/>
+    <tableColumn id="32" name="Sum" dataDxfId="14">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="9"/>
-    <tableColumn id="27" name="Mov" dataDxfId="8"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="7"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="6">
+    <tableColumn id="10" name="Range" dataDxfId="13"/>
+    <tableColumn id="27" name="Mov" dataDxfId="12"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="11"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="5"/>
-    <tableColumn id="14" name="Percent" dataDxfId="4"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="3"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="9"/>
+    <tableColumn id="14" name="Percent" dataDxfId="8"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="7"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="18" name="Icon" dataDxfId="2"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
+    <tableColumn id="18" name="Icon" dataDxfId="6"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="5"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5634,13 +5684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG127"/>
+  <dimension ref="A1:AG129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC7" sqref="AC7"/>
+      <selection pane="bottomRight" activeCell="Q129" sqref="Q129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5964,7 +6014,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" hidden="1">
       <c r="A4">
         <v>52000001</v>
       </c>
@@ -6160,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" hidden="1">
       <c r="A6">
         <v>52000003</v>
       </c>
@@ -6356,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" hidden="1">
       <c r="A8">
         <v>52000005</v>
       </c>
@@ -6454,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" hidden="1">
       <c r="A9">
         <v>52000006</v>
       </c>
@@ -6552,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" hidden="1">
       <c r="A10">
         <v>52000007</v>
       </c>
@@ -6650,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" hidden="1">
       <c r="A11">
         <v>52000008</v>
       </c>
@@ -7456,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" hidden="1">
       <c r="A19">
         <v>52000016</v>
       </c>
@@ -7662,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" hidden="1">
       <c r="A21">
         <v>52000018</v>
       </c>
@@ -7760,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" hidden="1">
       <c r="A22">
         <v>52000019</v>
       </c>
@@ -7956,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" hidden="1">
       <c r="A24">
         <v>52000021</v>
       </c>
@@ -8054,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" hidden="1">
       <c r="A25">
         <v>52000022</v>
       </c>
@@ -8152,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" hidden="1">
       <c r="A26">
         <v>52000023</v>
       </c>
@@ -8252,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" hidden="1">
       <c r="A27">
         <v>52000024</v>
       </c>
@@ -8356,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" hidden="1">
       <c r="A28">
         <v>52000025</v>
       </c>
@@ -8458,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" hidden="1">
       <c r="A29">
         <v>52000026</v>
       </c>
@@ -8560,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" hidden="1">
       <c r="A30">
         <v>52000027</v>
       </c>
@@ -8662,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" hidden="1">
       <c r="A31">
         <v>52000028</v>
       </c>
@@ -8764,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" hidden="1">
       <c r="A32">
         <v>52000029</v>
       </c>
@@ -8866,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" hidden="1">
       <c r="A33">
         <v>52000030</v>
       </c>
@@ -8968,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" hidden="1">
       <c r="A34">
         <v>52000031</v>
       </c>
@@ -9070,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" hidden="1">
       <c r="A35">
         <v>52000032</v>
       </c>
@@ -10062,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" hidden="1">
       <c r="A45">
         <v>52000042</v>
       </c>
@@ -10162,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" hidden="1">
       <c r="A46">
         <v>52000043</v>
       </c>
@@ -10264,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" hidden="1">
       <c r="A47">
         <v>52000044</v>
       </c>
@@ -10462,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" hidden="1">
       <c r="A49">
         <v>52000046</v>
       </c>
@@ -10756,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" hidden="1">
       <c r="A52">
         <v>52000049</v>
       </c>
@@ -10852,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" hidden="1">
       <c r="A53">
         <v>52000050</v>
       </c>
@@ -10948,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" hidden="1">
       <c r="A54">
         <v>52000051</v>
       </c>
@@ -11046,7 +11096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" hidden="1">
       <c r="A55">
         <v>52000052</v>
       </c>
@@ -11338,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" hidden="1">
       <c r="A58">
         <v>52000055</v>
       </c>
@@ -11436,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" hidden="1">
       <c r="A59">
         <v>52000056</v>
       </c>
@@ -11534,7 +11584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" hidden="1">
       <c r="A60">
         <v>52000057</v>
       </c>
@@ -11630,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" hidden="1">
       <c r="A61">
         <v>52000058</v>
       </c>
@@ -11732,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" hidden="1">
       <c r="A62">
         <v>52000059</v>
       </c>
@@ -11836,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" hidden="1">
       <c r="A63">
         <v>52000060</v>
       </c>
@@ -11936,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" hidden="1">
       <c r="A64">
         <v>52000061</v>
       </c>
@@ -12036,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" hidden="1">
       <c r="A65">
         <v>52000062</v>
       </c>
@@ -12138,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" hidden="1">
       <c r="A66">
         <v>52000063</v>
       </c>
@@ -12236,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" hidden="1">
       <c r="A67">
         <v>52000064</v>
       </c>
@@ -12331,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" hidden="1">
       <c r="A68">
         <v>52000065</v>
       </c>
@@ -12525,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" hidden="1">
       <c r="A70">
         <v>52000067</v>
       </c>
@@ -12717,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" hidden="1">
       <c r="A72">
         <v>52000069</v>
       </c>
@@ -12912,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" hidden="1">
       <c r="A74">
         <v>52000071</v>
       </c>
@@ -13116,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" hidden="1">
       <c r="A76">
         <v>52000073</v>
       </c>
@@ -13318,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" hidden="1">
       <c r="A78">
         <v>52000075</v>
       </c>
@@ -13420,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" hidden="1">
       <c r="A79">
         <v>52000076</v>
       </c>
@@ -13522,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" hidden="1">
       <c r="A80">
         <v>52000077</v>
       </c>
@@ -13624,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:33" hidden="1">
       <c r="A81">
         <v>52000078</v>
       </c>
@@ -13828,7 +13878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:33" hidden="1">
       <c r="A83">
         <v>52000080</v>
       </c>
@@ -14032,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:33" hidden="1">
       <c r="A85">
         <v>52000082</v>
       </c>
@@ -14128,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" hidden="1">
       <c r="A86">
         <v>52000083</v>
       </c>
@@ -14226,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:33" hidden="1">
       <c r="A87">
         <v>52000084</v>
       </c>
@@ -14324,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:33" hidden="1">
       <c r="A88">
         <v>52000085</v>
       </c>
@@ -14420,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:33" hidden="1">
       <c r="A89">
         <v>52000086</v>
       </c>
@@ -14524,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:33" hidden="1">
       <c r="A90">
         <v>52000087</v>
       </c>
@@ -14628,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:33" hidden="1">
       <c r="A91">
         <v>52000088</v>
       </c>
@@ -14726,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:33" hidden="1">
       <c r="A92">
         <v>52000089</v>
       </c>
@@ -14824,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:33" hidden="1">
       <c r="A93">
         <v>52000090</v>
       </c>
@@ -14922,7 +14972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33">
+    <row r="94" spans="1:33" hidden="1">
       <c r="A94">
         <v>52000091</v>
       </c>
@@ -15128,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:33">
+    <row r="96" spans="1:33" hidden="1">
       <c r="A96">
         <v>52000093</v>
       </c>
@@ -15226,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:33" hidden="1">
       <c r="A97">
         <v>52000094</v>
       </c>
@@ -15324,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:33" hidden="1">
       <c r="A98">
         <v>52000095</v>
       </c>
@@ -15426,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:33" hidden="1">
       <c r="A99">
         <v>52000096</v>
       </c>
@@ -15632,7 +15682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:33" hidden="1">
       <c r="A101">
         <v>52000098</v>
       </c>
@@ -15830,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:33" hidden="1">
       <c r="A103">
         <v>52000100</v>
       </c>
@@ -16036,7 +16086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:33" hidden="1">
       <c r="A105">
         <v>52000102</v>
       </c>
@@ -16236,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:33">
+    <row r="107" spans="1:33" hidden="1">
       <c r="A107">
         <v>52000104</v>
       </c>
@@ -16640,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:33">
+    <row r="111" spans="1:33" hidden="1">
       <c r="A111">
         <v>52000108</v>
       </c>
@@ -16838,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:33">
+    <row r="113" spans="1:33" hidden="1">
       <c r="A113">
         <v>52000110</v>
       </c>
@@ -16940,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:33">
+    <row r="114" spans="1:33" hidden="1">
       <c r="A114">
         <v>52000111</v>
       </c>
@@ -17038,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:33">
+    <row r="115" spans="1:33" hidden="1">
       <c r="A115">
         <v>52000112</v>
       </c>
@@ -17440,7 +17490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:33">
+    <row r="119" spans="1:33" hidden="1">
       <c r="A119">
         <v>52000116</v>
       </c>
@@ -17540,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:33">
+    <row r="120" spans="1:33" hidden="1">
       <c r="A120">
         <v>52000117</v>
       </c>
@@ -17642,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:33">
+    <row r="121" spans="1:33" hidden="1">
       <c r="A121">
         <v>52000118</v>
       </c>
@@ -17740,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:33">
+    <row r="122" spans="1:33" hidden="1">
       <c r="A122">
         <v>52000119</v>
       </c>
@@ -17838,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:33">
+    <row r="123" spans="1:33" hidden="1">
       <c r="A123">
         <v>52000120</v>
       </c>
@@ -17936,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:33">
+    <row r="124" spans="1:33" hidden="1">
       <c r="A124">
         <v>52000121</v>
       </c>
@@ -18034,7 +18084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:33">
+    <row r="125" spans="1:33" hidden="1">
       <c r="A125">
         <v>52000122</v>
       </c>
@@ -18132,7 +18182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:33">
+    <row r="126" spans="1:33" hidden="1">
       <c r="A126">
         <v>52000123</v>
       </c>
@@ -18230,7 +18280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:33">
+    <row r="127" spans="1:33" hidden="1">
       <c r="A127">
         <v>52000124</v>
       </c>
@@ -18325,6 +18375,202 @@
         <v>0</v>
       </c>
       <c r="AG127" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33">
+      <c r="A128">
+        <v>52000125</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D128" s="42"/>
+      <c r="E128" s="15">
+        <v>2</v>
+      </c>
+      <c r="F128" s="15">
+        <v>100</v>
+      </c>
+      <c r="G128" s="15">
+        <v>0</v>
+      </c>
+      <c r="H128" s="41">
+        <f t="shared" ref="H128" si="11">IF(AND(V128&gt;=13,V128&lt;=16),5,IF(AND(V128&gt;=9,V128&lt;=12),4,IF(AND(V128&gt;=5,V128&lt;=8),3,IF(AND(V128&gt;=1,V128&lt;=4),2,IF(AND(V128&gt;=-3,V128&lt;=0),1,IF(AND(V128&gt;=-5,V128&lt;=-4),0,6))))))</f>
+        <v>1</v>
+      </c>
+      <c r="I128" s="15">
+        <v>2</v>
+      </c>
+      <c r="J128" s="16">
+        <v>90</v>
+      </c>
+      <c r="K128" s="16">
+        <v>0</v>
+      </c>
+      <c r="L128" s="7">
+        <v>0</v>
+      </c>
+      <c r="M128" s="14">
+        <v>5</v>
+      </c>
+      <c r="N128" s="8">
+        <v>3</v>
+      </c>
+      <c r="O128" s="8">
+        <v>0</v>
+      </c>
+      <c r="P128" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="8">
+        <v>0</v>
+      </c>
+      <c r="R128" s="8">
+        <v>0</v>
+      </c>
+      <c r="S128" s="8">
+        <v>0</v>
+      </c>
+      <c r="T128" s="8">
+        <v>1</v>
+      </c>
+      <c r="U128" s="8">
+        <v>0</v>
+      </c>
+      <c r="V128" s="10">
+        <f t="shared" ref="V128" si="12">J128+K128+L128-100+M128+ SUM(O128:U128)*5+IF(ISNUMBER(Z128),Z128,0)+Y128</f>
+        <v>0</v>
+      </c>
+      <c r="W128" s="8">
+        <v>10</v>
+      </c>
+      <c r="X128" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="10">
+        <f>IF(ISBLANK(AA128),0, LOOKUP(AA128,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB128/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA128" s="15"/>
+      <c r="AB128" s="15"/>
+      <c r="AC128" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD128" s="15">
+        <v>11000005</v>
+      </c>
+      <c r="AE128" s="17">
+        <v>125</v>
+      </c>
+      <c r="AF128" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG128" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33">
+      <c r="A129">
+        <v>52000126</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D129" s="42"/>
+      <c r="E129" s="15">
+        <v>3</v>
+      </c>
+      <c r="F129" s="15">
+        <v>100</v>
+      </c>
+      <c r="G129" s="15">
+        <v>0</v>
+      </c>
+      <c r="H129" s="41">
+        <f t="shared" ref="H129" si="13">IF(AND(V129&gt;=13,V129&lt;=16),5,IF(AND(V129&gt;=9,V129&lt;=12),4,IF(AND(V129&gt;=5,V129&lt;=8),3,IF(AND(V129&gt;=1,V129&lt;=4),2,IF(AND(V129&gt;=-3,V129&lt;=0),1,IF(AND(V129&gt;=-5,V129&lt;=-4),0,6))))))</f>
+        <v>2</v>
+      </c>
+      <c r="I129" s="15">
+        <v>3</v>
+      </c>
+      <c r="J129" s="16">
+        <v>90</v>
+      </c>
+      <c r="K129" s="16">
+        <v>0</v>
+      </c>
+      <c r="L129" s="43">
+        <v>0</v>
+      </c>
+      <c r="M129" s="14">
+        <v>2</v>
+      </c>
+      <c r="N129" s="8">
+        <v>4</v>
+      </c>
+      <c r="O129" s="8">
+        <v>0</v>
+      </c>
+      <c r="P129" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="8">
+        <v>1</v>
+      </c>
+      <c r="R129" s="8">
+        <v>1</v>
+      </c>
+      <c r="S129" s="8">
+        <v>0</v>
+      </c>
+      <c r="T129" s="8">
+        <v>0</v>
+      </c>
+      <c r="U129" s="8">
+        <v>0</v>
+      </c>
+      <c r="V129" s="10">
+        <f t="shared" ref="V129" si="14">J129+K129+L129-100+M129+ SUM(O129:U129)*5+IF(ISNUMBER(Z129),Z129,0)+Y129</f>
+        <v>2</v>
+      </c>
+      <c r="W129" s="8">
+        <v>10</v>
+      </c>
+      <c r="X129" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="10">
+        <f>IF(ISBLANK(AA129),0, LOOKUP(AA129,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB129/100)</f>
+        <v>0</v>
+      </c>
+      <c r="AA129" s="15"/>
+      <c r="AB129" s="15"/>
+      <c r="AC129" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD129" s="15">
+        <v>11000005</v>
+      </c>
+      <c r="AE129" s="17">
+        <v>126</v>
+      </c>
+      <c r="AF129" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG129" s="15">
         <v>1</v>
       </c>
     </row>
@@ -18523,37 +18769,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H124">
-    <cfRule type="cellIs" dxfId="86" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="14" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4:V127">
+  <conditionalFormatting sqref="V4:V129">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -18565,21 +18811,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125:H127">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+  <conditionalFormatting sqref="H125:H129">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V125:V127">
+  <conditionalFormatting sqref="V125:V129">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -19028,19 +19274,19 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -2234,35 +2234,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="87">
     <dxf>
       <font>
         <b val="0"/>
@@ -5290,108 +5262,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG129" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
-  <autoFilter ref="A3:AG129">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG129" totalsRowShown="0" dataDxfId="73" tableBorderDxfId="72">
+  <autoFilter ref="A3:AG129"/>
   <sortState ref="A4:AF124">
     <sortCondition ref="A3:A124"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="75"/>
-    <tableColumn id="2" name="Name" dataDxfId="74"/>
-    <tableColumn id="3" name="Ename" dataDxfId="73"/>
-    <tableColumn id="4" name="Remark" dataDxfId="72"/>
-    <tableColumn id="5" name="Star" dataDxfId="71"/>
-    <tableColumn id="6" name="Type" dataDxfId="70"/>
-    <tableColumn id="7" name="Attr" dataDxfId="69"/>
-    <tableColumn id="34" name="Quality" dataDxfId="68">
+    <tableColumn id="1" name="Id" dataDxfId="71"/>
+    <tableColumn id="2" name="Name" dataDxfId="70"/>
+    <tableColumn id="3" name="Ename" dataDxfId="69"/>
+    <tableColumn id="4" name="Remark" dataDxfId="68"/>
+    <tableColumn id="5" name="Star" dataDxfId="67"/>
+    <tableColumn id="6" name="Type" dataDxfId="66"/>
+    <tableColumn id="7" name="Attr" dataDxfId="65"/>
+    <tableColumn id="34" name="Quality" dataDxfId="64">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="67"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="66"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="65"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="64"/>
-    <tableColumn id="25" name="Modify" dataDxfId="63"/>
-    <tableColumn id="27" name="Dura" dataDxfId="62"/>
-    <tableColumn id="20" name="Def" dataDxfId="61"/>
-    <tableColumn id="21" name="Mag" dataDxfId="60"/>
-    <tableColumn id="29" name="Spd" dataDxfId="59"/>
-    <tableColumn id="30" name="Hit" dataDxfId="58"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="57"/>
-    <tableColumn id="12" name="Crt" dataDxfId="56"/>
-    <tableColumn id="11" name="Luk" dataDxfId="55"/>
-    <tableColumn id="32" name="Sum" dataDxfId="54">
+    <tableColumn id="15" name="Cost" dataDxfId="63"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="62"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="61"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="60"/>
+    <tableColumn id="25" name="Modify" dataDxfId="59"/>
+    <tableColumn id="27" name="Dura" dataDxfId="58"/>
+    <tableColumn id="20" name="Def" dataDxfId="57"/>
+    <tableColumn id="21" name="Mag" dataDxfId="56"/>
+    <tableColumn id="29" name="Spd" dataDxfId="55"/>
+    <tableColumn id="30" name="Hit" dataDxfId="54"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="53"/>
+    <tableColumn id="12" name="Crt" dataDxfId="52"/>
+    <tableColumn id="11" name="Luk" dataDxfId="51"/>
+    <tableColumn id="32" name="Sum" dataDxfId="50">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="53"/>
-    <tableColumn id="31" name="Mov" dataDxfId="52"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="51"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="50">
+    <tableColumn id="10" name="Range" dataDxfId="49"/>
+    <tableColumn id="31" name="Mov" dataDxfId="48"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="47"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="46">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="49"/>
-    <tableColumn id="14" name="Percent" dataDxfId="48"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="47"/>
-    <tableColumn id="26" name="JobId" dataDxfId="46"/>
-    <tableColumn id="18" name="Icon" dataDxfId="45"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="44"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="43"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="45"/>
+    <tableColumn id="14" name="Percent" dataDxfId="44"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="43"/>
+    <tableColumn id="26" name="JobId" dataDxfId="42"/>
+    <tableColumn id="18" name="Icon" dataDxfId="41"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="40"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A3:AG4"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="35"/>
-    <tableColumn id="2" name="Name" dataDxfId="34"/>
-    <tableColumn id="3" name="Ename" dataDxfId="33"/>
-    <tableColumn id="4" name="Remark" dataDxfId="32"/>
-    <tableColumn id="5" name="Star" dataDxfId="31"/>
-    <tableColumn id="6" name="Type" dataDxfId="30"/>
-    <tableColumn id="7" name="Attr" dataDxfId="29"/>
-    <tableColumn id="34" name="Quality" dataDxfId="28">
+    <tableColumn id="1" name="Id" dataDxfId="31"/>
+    <tableColumn id="2" name="Name" dataDxfId="30"/>
+    <tableColumn id="3" name="Ename" dataDxfId="29"/>
+    <tableColumn id="4" name="Remark" dataDxfId="28"/>
+    <tableColumn id="5" name="Star" dataDxfId="27"/>
+    <tableColumn id="6" name="Type" dataDxfId="26"/>
+    <tableColumn id="7" name="Attr" dataDxfId="25"/>
+    <tableColumn id="34" name="Quality" dataDxfId="24">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="27"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="26"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="25"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="24"/>
-    <tableColumn id="25" name="Modify" dataDxfId="23"/>
-    <tableColumn id="31" name="Dura" dataDxfId="22"/>
-    <tableColumn id="11" name="Def" dataDxfId="21"/>
-    <tableColumn id="21" name="Mag" dataDxfId="20"/>
-    <tableColumn id="29" name="Spd" dataDxfId="19"/>
-    <tableColumn id="30" name="Hit" dataDxfId="18"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="17"/>
-    <tableColumn id="19" name="Crt" dataDxfId="16"/>
-    <tableColumn id="12" name="Luk" dataDxfId="15"/>
-    <tableColumn id="32" name="Sum" dataDxfId="14">
+    <tableColumn id="15" name="Cost" dataDxfId="23"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="21"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="20"/>
+    <tableColumn id="25" name="Modify" dataDxfId="19"/>
+    <tableColumn id="31" name="Dura" dataDxfId="18"/>
+    <tableColumn id="11" name="Def" dataDxfId="17"/>
+    <tableColumn id="21" name="Mag" dataDxfId="16"/>
+    <tableColumn id="29" name="Spd" dataDxfId="15"/>
+    <tableColumn id="30" name="Hit" dataDxfId="14"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="13"/>
+    <tableColumn id="19" name="Crt" dataDxfId="12"/>
+    <tableColumn id="12" name="Luk" dataDxfId="11"/>
+    <tableColumn id="32" name="Sum" dataDxfId="10">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="13"/>
-    <tableColumn id="27" name="Mov" dataDxfId="12"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="11"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="10">
+    <tableColumn id="10" name="Range" dataDxfId="9"/>
+    <tableColumn id="27" name="Mov" dataDxfId="8"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="7"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="9"/>
-    <tableColumn id="14" name="Percent" dataDxfId="8"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="7"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="5"/>
+    <tableColumn id="14" name="Percent" dataDxfId="4"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="3"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="18" name="Icon" dataDxfId="6"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="5"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="4"/>
+    <tableColumn id="18" name="Icon" dataDxfId="2"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5687,10 +5653,10 @@
   <dimension ref="A1:AG129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q129" sqref="Q129"/>
+      <selection pane="bottomRight" activeCell="AD100" sqref="AD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6014,7 +5980,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:33" hidden="1">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>52000001</v>
       </c>
@@ -6210,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" hidden="1">
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>52000003</v>
       </c>
@@ -6406,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" hidden="1">
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>52000005</v>
       </c>
@@ -6504,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" hidden="1">
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>52000006</v>
       </c>
@@ -6602,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" hidden="1">
+    <row r="10" spans="1:33">
       <c r="A10">
         <v>52000007</v>
       </c>
@@ -6700,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" hidden="1">
+    <row r="11" spans="1:33">
       <c r="A11">
         <v>52000008</v>
       </c>
@@ -7506,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" hidden="1">
+    <row r="19" spans="1:33">
       <c r="A19">
         <v>52000016</v>
       </c>
@@ -7712,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" hidden="1">
+    <row r="21" spans="1:33">
       <c r="A21">
         <v>52000018</v>
       </c>
@@ -7810,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" hidden="1">
+    <row r="22" spans="1:33">
       <c r="A22">
         <v>52000019</v>
       </c>
@@ -8006,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" hidden="1">
+    <row r="24" spans="1:33">
       <c r="A24">
         <v>52000021</v>
       </c>
@@ -8104,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" hidden="1">
+    <row r="25" spans="1:33">
       <c r="A25">
         <v>52000022</v>
       </c>
@@ -8202,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" hidden="1">
+    <row r="26" spans="1:33">
       <c r="A26">
         <v>52000023</v>
       </c>
@@ -8302,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" hidden="1">
+    <row r="27" spans="1:33">
       <c r="A27">
         <v>52000024</v>
       </c>
@@ -8406,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" hidden="1">
+    <row r="28" spans="1:33">
       <c r="A28">
         <v>52000025</v>
       </c>
@@ -8508,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" hidden="1">
+    <row r="29" spans="1:33">
       <c r="A29">
         <v>52000026</v>
       </c>
@@ -8610,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" hidden="1">
+    <row r="30" spans="1:33">
       <c r="A30">
         <v>52000027</v>
       </c>
@@ -8712,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" hidden="1">
+    <row r="31" spans="1:33">
       <c r="A31">
         <v>52000028</v>
       </c>
@@ -8814,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" hidden="1">
+    <row r="32" spans="1:33">
       <c r="A32">
         <v>52000029</v>
       </c>
@@ -8916,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" hidden="1">
+    <row r="33" spans="1:33">
       <c r="A33">
         <v>52000030</v>
       </c>
@@ -9018,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" hidden="1">
+    <row r="34" spans="1:33">
       <c r="A34">
         <v>52000031</v>
       </c>
@@ -9120,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" hidden="1">
+    <row r="35" spans="1:33">
       <c r="A35">
         <v>52000032</v>
       </c>
@@ -10112,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33" hidden="1">
+    <row r="45" spans="1:33">
       <c r="A45">
         <v>52000042</v>
       </c>
@@ -10212,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33" hidden="1">
+    <row r="46" spans="1:33">
       <c r="A46">
         <v>52000043</v>
       </c>
@@ -10314,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33" hidden="1">
+    <row r="47" spans="1:33">
       <c r="A47">
         <v>52000044</v>
       </c>
@@ -10512,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" hidden="1">
+    <row r="49" spans="1:33">
       <c r="A49">
         <v>52000046</v>
       </c>
@@ -10806,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" hidden="1">
+    <row r="52" spans="1:33">
       <c r="A52">
         <v>52000049</v>
       </c>
@@ -10902,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" hidden="1">
+    <row r="53" spans="1:33">
       <c r="A53">
         <v>52000050</v>
       </c>
@@ -10998,7 +10964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" hidden="1">
+    <row r="54" spans="1:33">
       <c r="A54">
         <v>52000051</v>
       </c>
@@ -11096,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33" hidden="1">
+    <row r="55" spans="1:33">
       <c r="A55">
         <v>52000052</v>
       </c>
@@ -11388,7 +11354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" hidden="1">
+    <row r="58" spans="1:33">
       <c r="A58">
         <v>52000055</v>
       </c>
@@ -11486,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" hidden="1">
+    <row r="59" spans="1:33">
       <c r="A59">
         <v>52000056</v>
       </c>
@@ -11572,7 +11538,7 @@
         <v>5</v>
       </c>
       <c r="AD59" s="4">
-        <v>11000007</v>
+        <v>11000006</v>
       </c>
       <c r="AE59" s="5">
         <v>56</v>
@@ -11584,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" hidden="1">
+    <row r="60" spans="1:33">
       <c r="A60">
         <v>52000057</v>
       </c>
@@ -11680,7 +11646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" hidden="1">
+    <row r="61" spans="1:33">
       <c r="A61">
         <v>52000058</v>
       </c>
@@ -11782,7 +11748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" hidden="1">
+    <row r="62" spans="1:33">
       <c r="A62">
         <v>52000059</v>
       </c>
@@ -11886,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" hidden="1">
+    <row r="63" spans="1:33">
       <c r="A63">
         <v>52000060</v>
       </c>
@@ -11986,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" hidden="1">
+    <row r="64" spans="1:33">
       <c r="A64">
         <v>52000061</v>
       </c>
@@ -12086,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33" hidden="1">
+    <row r="65" spans="1:33">
       <c r="A65">
         <v>52000062</v>
       </c>
@@ -12188,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" hidden="1">
+    <row r="66" spans="1:33">
       <c r="A66">
         <v>52000063</v>
       </c>
@@ -12286,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" hidden="1">
+    <row r="67" spans="1:33">
       <c r="A67">
         <v>52000064</v>
       </c>
@@ -12381,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" hidden="1">
+    <row r="68" spans="1:33">
       <c r="A68">
         <v>52000065</v>
       </c>
@@ -12575,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" hidden="1">
+    <row r="70" spans="1:33">
       <c r="A70">
         <v>52000067</v>
       </c>
@@ -12767,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" hidden="1">
+    <row r="72" spans="1:33">
       <c r="A72">
         <v>52000069</v>
       </c>
@@ -12962,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" hidden="1">
+    <row r="74" spans="1:33">
       <c r="A74">
         <v>52000071</v>
       </c>
@@ -13166,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" hidden="1">
+    <row r="76" spans="1:33">
       <c r="A76">
         <v>52000073</v>
       </c>
@@ -13368,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:33" hidden="1">
+    <row r="78" spans="1:33">
       <c r="A78">
         <v>52000075</v>
       </c>
@@ -13470,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33" hidden="1">
+    <row r="79" spans="1:33">
       <c r="A79">
         <v>52000076</v>
       </c>
@@ -13572,7 +13538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33" hidden="1">
+    <row r="80" spans="1:33">
       <c r="A80">
         <v>52000077</v>
       </c>
@@ -13674,7 +13640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:33" hidden="1">
+    <row r="81" spans="1:33">
       <c r="A81">
         <v>52000078</v>
       </c>
@@ -13878,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33" hidden="1">
+    <row r="83" spans="1:33">
       <c r="A83">
         <v>52000080</v>
       </c>
@@ -14082,7 +14048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33" hidden="1">
+    <row r="85" spans="1:33">
       <c r="A85">
         <v>52000082</v>
       </c>
@@ -14178,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33" hidden="1">
+    <row r="86" spans="1:33">
       <c r="A86">
         <v>52000083</v>
       </c>
@@ -14276,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33" hidden="1">
+    <row r="87" spans="1:33">
       <c r="A87">
         <v>52000084</v>
       </c>
@@ -14374,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:33" hidden="1">
+    <row r="88" spans="1:33">
       <c r="A88">
         <v>52000085</v>
       </c>
@@ -14470,7 +14436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33" hidden="1">
+    <row r="89" spans="1:33">
       <c r="A89">
         <v>52000086</v>
       </c>
@@ -14574,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:33" hidden="1">
+    <row r="90" spans="1:33">
       <c r="A90">
         <v>52000087</v>
       </c>
@@ -14678,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33" hidden="1">
+    <row r="91" spans="1:33">
       <c r="A91">
         <v>52000088</v>
       </c>
@@ -14776,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:33" hidden="1">
+    <row r="92" spans="1:33">
       <c r="A92">
         <v>52000089</v>
       </c>
@@ -14874,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33" hidden="1">
+    <row r="93" spans="1:33">
       <c r="A93">
         <v>52000090</v>
       </c>
@@ -14972,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33" hidden="1">
+    <row r="94" spans="1:33">
       <c r="A94">
         <v>52000091</v>
       </c>
@@ -15178,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:33" hidden="1">
+    <row r="96" spans="1:33">
       <c r="A96">
         <v>52000093</v>
       </c>
@@ -15276,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33" hidden="1">
+    <row r="97" spans="1:33">
       <c r="A97">
         <v>52000094</v>
       </c>
@@ -15374,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:33" hidden="1">
+    <row r="98" spans="1:33">
       <c r="A98">
         <v>52000095</v>
       </c>
@@ -15476,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" hidden="1">
+    <row r="99" spans="1:33">
       <c r="A99">
         <v>52000096</v>
       </c>
@@ -15670,7 +15636,7 @@
         <v>5</v>
       </c>
       <c r="AD100" s="4">
-        <v>11000007</v>
+        <v>11000008</v>
       </c>
       <c r="AE100" s="5">
         <v>97</v>
@@ -15682,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:33" hidden="1">
+    <row r="101" spans="1:33">
       <c r="A101">
         <v>52000098</v>
       </c>
@@ -15880,7 +15846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:33" hidden="1">
+    <row r="103" spans="1:33">
       <c r="A103">
         <v>52000100</v>
       </c>
@@ -16086,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33" hidden="1">
+    <row r="105" spans="1:33">
       <c r="A105">
         <v>52000102</v>
       </c>
@@ -16286,7 +16252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:33" hidden="1">
+    <row r="107" spans="1:33">
       <c r="A107">
         <v>52000104</v>
       </c>
@@ -16690,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:33" hidden="1">
+    <row r="111" spans="1:33">
       <c r="A111">
         <v>52000108</v>
       </c>
@@ -16888,7 +16854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:33" hidden="1">
+    <row r="113" spans="1:33">
       <c r="A113">
         <v>52000110</v>
       </c>
@@ -16990,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:33" hidden="1">
+    <row r="114" spans="1:33">
       <c r="A114">
         <v>52000111</v>
       </c>
@@ -17088,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:33" hidden="1">
+    <row r="115" spans="1:33">
       <c r="A115">
         <v>52000112</v>
       </c>
@@ -17490,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:33" hidden="1">
+    <row r="119" spans="1:33">
       <c r="A119">
         <v>52000116</v>
       </c>
@@ -17590,7 +17556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:33" hidden="1">
+    <row r="120" spans="1:33">
       <c r="A120">
         <v>52000117</v>
       </c>
@@ -17692,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:33" hidden="1">
+    <row r="121" spans="1:33">
       <c r="A121">
         <v>52000118</v>
       </c>
@@ -17790,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:33" hidden="1">
+    <row r="122" spans="1:33">
       <c r="A122">
         <v>52000119</v>
       </c>
@@ -17888,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:33" hidden="1">
+    <row r="123" spans="1:33">
       <c r="A123">
         <v>52000120</v>
       </c>
@@ -17986,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:33" hidden="1">
+    <row r="124" spans="1:33">
       <c r="A124">
         <v>52000121</v>
       </c>
@@ -18084,7 +18050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:33" hidden="1">
+    <row r="125" spans="1:33">
       <c r="A125">
         <v>52000122</v>
       </c>
@@ -18182,7 +18148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:33" hidden="1">
+    <row r="126" spans="1:33">
       <c r="A126">
         <v>52000123</v>
       </c>
@@ -18280,7 +18246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:33" hidden="1">
+    <row r="127" spans="1:33">
       <c r="A127">
         <v>52000124</v>
       </c>
@@ -18769,33 +18735,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H124">
-    <cfRule type="cellIs" dxfId="90" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="14" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18812,16 +18778,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H125:H129">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19274,19 +19240,19 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="386">
   <si>
     <t>铁杖</t>
   </si>
@@ -1298,14 +1298,37 @@
   </si>
   <si>
     <t>yaksha</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skulls Staff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅法杖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkwheel</t>
+  </si>
+  <si>
+    <t>darkwheel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dura</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1529,6 +1552,13 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="42">
@@ -2056,7 +2086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2189,6 +2219,9 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2235,6 +2268,138 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="87">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2838,44 +3003,6 @@
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3508,100 +3635,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4908,7 +4941,6 @@
           <cell r="A161">
             <v>55900028</v>
           </cell>
-          <cell r="X161"/>
         </row>
         <row r="162">
           <cell r="A162">
@@ -5067,7 +5099,7 @@
             <v>55900048</v>
           </cell>
           <cell r="X181">
-            <v>70</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="182">
@@ -5120,7 +5152,7 @@
         </row>
         <row r="188">
           <cell r="A188">
-            <v>55990001</v>
+            <v>55900055</v>
           </cell>
           <cell r="X188">
             <v>15</v>
@@ -5128,7 +5160,7 @@
         </row>
         <row r="189">
           <cell r="A189">
-            <v>55990002</v>
+            <v>55990001</v>
           </cell>
           <cell r="X189">
             <v>15</v>
@@ -5136,7 +5168,7 @@
         </row>
         <row r="190">
           <cell r="A190">
-            <v>55990003</v>
+            <v>55990002</v>
           </cell>
           <cell r="X190">
             <v>15</v>
@@ -5144,7 +5176,7 @@
         </row>
         <row r="191">
           <cell r="A191">
-            <v>55990004</v>
+            <v>55990003</v>
           </cell>
           <cell r="X191">
             <v>15</v>
@@ -5152,7 +5184,7 @@
         </row>
         <row r="192">
           <cell r="A192">
-            <v>55990005</v>
+            <v>55990004</v>
           </cell>
           <cell r="X192">
             <v>15</v>
@@ -5160,7 +5192,7 @@
         </row>
         <row r="193">
           <cell r="A193">
-            <v>55990006</v>
+            <v>55990005</v>
           </cell>
           <cell r="X193">
             <v>15</v>
@@ -5168,7 +5200,7 @@
         </row>
         <row r="194">
           <cell r="A194">
-            <v>55990011</v>
+            <v>55990006</v>
           </cell>
           <cell r="X194">
             <v>15</v>
@@ -5176,7 +5208,7 @@
         </row>
         <row r="195">
           <cell r="A195">
-            <v>55990012</v>
+            <v>55990011</v>
           </cell>
           <cell r="X195">
             <v>15</v>
@@ -5184,7 +5216,7 @@
         </row>
         <row r="196">
           <cell r="A196">
-            <v>55990013</v>
+            <v>55990012</v>
           </cell>
           <cell r="X196">
             <v>15</v>
@@ -5192,7 +5224,7 @@
         </row>
         <row r="197">
           <cell r="A197">
-            <v>55990014</v>
+            <v>55990013</v>
           </cell>
           <cell r="X197">
             <v>15</v>
@@ -5200,7 +5232,7 @@
         </row>
         <row r="198">
           <cell r="A198">
-            <v>55990015</v>
+            <v>55990014</v>
           </cell>
           <cell r="X198">
             <v>15</v>
@@ -5208,7 +5240,7 @@
         </row>
         <row r="199">
           <cell r="A199">
-            <v>55990016</v>
+            <v>55990015</v>
           </cell>
           <cell r="X199">
             <v>15</v>
@@ -5216,42 +5248,58 @@
         </row>
         <row r="200">
           <cell r="A200">
-            <v>55990101</v>
+            <v>55990016</v>
           </cell>
           <cell r="X200">
-            <v>8</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>55990102</v>
+            <v>55990101</v>
           </cell>
           <cell r="X201">
-            <v>25</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>55990103</v>
+            <v>55990102</v>
           </cell>
           <cell r="X202">
-            <v>35</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>55990104</v>
+            <v>55990103</v>
           </cell>
           <cell r="X203">
-            <v>50</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
+            <v>55990104</v>
+          </cell>
+          <cell r="X204">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205">
             <v>55990105</v>
           </cell>
-          <cell r="X204">
+          <cell r="X205">
             <v>150</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206">
+            <v>55990106</v>
+          </cell>
+          <cell r="X206">
+            <v>40</v>
           </cell>
         </row>
       </sheetData>
@@ -5262,109 +5310,109 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG129" totalsRowShown="0" dataDxfId="73" tableBorderDxfId="72">
-  <autoFilter ref="A3:AG129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG130" totalsRowShown="0" dataDxfId="86" tableBorderDxfId="85">
+  <autoFilter ref="A3:AG130"/>
   <sortState ref="A4:AF124">
     <sortCondition ref="A3:A124"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="71"/>
-    <tableColumn id="2" name="Name" dataDxfId="70"/>
-    <tableColumn id="3" name="Ename" dataDxfId="69"/>
-    <tableColumn id="4" name="Remark" dataDxfId="68"/>
-    <tableColumn id="5" name="Star" dataDxfId="67"/>
-    <tableColumn id="6" name="Type" dataDxfId="66"/>
-    <tableColumn id="7" name="Attr" dataDxfId="65"/>
-    <tableColumn id="34" name="Quality" dataDxfId="64">
+    <tableColumn id="1" name="Id" dataDxfId="84"/>
+    <tableColumn id="2" name="Name" dataDxfId="83"/>
+    <tableColumn id="3" name="Ename" dataDxfId="82"/>
+    <tableColumn id="4" name="Remark" dataDxfId="81"/>
+    <tableColumn id="5" name="Star" dataDxfId="80"/>
+    <tableColumn id="6" name="Type" dataDxfId="79"/>
+    <tableColumn id="7" name="Attr" dataDxfId="78"/>
+    <tableColumn id="34" name="Quality" dataDxfId="77">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="63"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="62"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="61"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="60"/>
-    <tableColumn id="25" name="Modify" dataDxfId="59"/>
-    <tableColumn id="27" name="Dura" dataDxfId="58"/>
-    <tableColumn id="20" name="Def" dataDxfId="57"/>
-    <tableColumn id="21" name="Mag" dataDxfId="56"/>
-    <tableColumn id="29" name="Spd" dataDxfId="55"/>
-    <tableColumn id="30" name="Hit" dataDxfId="54"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="53"/>
-    <tableColumn id="12" name="Crt" dataDxfId="52"/>
-    <tableColumn id="11" name="Luk" dataDxfId="51"/>
-    <tableColumn id="32" name="Sum" dataDxfId="50">
+    <tableColumn id="15" name="Cost" dataDxfId="76"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="75"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="74"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="73"/>
+    <tableColumn id="25" name="Modify" dataDxfId="72"/>
+    <tableColumn id="27" name="Dura" dataDxfId="71"/>
+    <tableColumn id="20" name="Def" dataDxfId="70"/>
+    <tableColumn id="21" name="Mag" dataDxfId="69"/>
+    <tableColumn id="29" name="Spd" dataDxfId="68"/>
+    <tableColumn id="30" name="Hit" dataDxfId="67"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="66"/>
+    <tableColumn id="12" name="Crt" dataDxfId="65"/>
+    <tableColumn id="11" name="Luk" dataDxfId="64"/>
+    <tableColumn id="32" name="Sum" dataDxfId="63">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="49"/>
-    <tableColumn id="31" name="Mov" dataDxfId="48"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="47"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="46">
+    <tableColumn id="10" name="Range" dataDxfId="62"/>
+    <tableColumn id="31" name="Mov" dataDxfId="61"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="60"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="59">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="45"/>
-    <tableColumn id="14" name="Percent" dataDxfId="44"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="43"/>
-    <tableColumn id="26" name="JobId" dataDxfId="42"/>
-    <tableColumn id="18" name="Icon" dataDxfId="41"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="40"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="39"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="58"/>
+    <tableColumn id="14" name="Percent" dataDxfId="57"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="56"/>
+    <tableColumn id="26" name="JobId" dataDxfId="55"/>
+    <tableColumn id="18" name="Icon" dataDxfId="54"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="53"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="51" tableBorderDxfId="50">
   <autoFilter ref="A3:AG4"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" name="Name" dataDxfId="30"/>
-    <tableColumn id="3" name="Ename" dataDxfId="29"/>
-    <tableColumn id="4" name="Remark" dataDxfId="28"/>
-    <tableColumn id="5" name="Star" dataDxfId="27"/>
-    <tableColumn id="6" name="Type" dataDxfId="26"/>
-    <tableColumn id="7" name="Attr" dataDxfId="25"/>
-    <tableColumn id="34" name="Quality" dataDxfId="24">
+    <tableColumn id="1" name="Id" dataDxfId="49"/>
+    <tableColumn id="2" name="Name" dataDxfId="48"/>
+    <tableColumn id="3" name="Ename" dataDxfId="47"/>
+    <tableColumn id="4" name="Remark" dataDxfId="46"/>
+    <tableColumn id="5" name="Star" dataDxfId="45"/>
+    <tableColumn id="6" name="Type" dataDxfId="44"/>
+    <tableColumn id="7" name="Attr" dataDxfId="43"/>
+    <tableColumn id="34" name="Quality" dataDxfId="42">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="23"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="21"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="20"/>
-    <tableColumn id="25" name="Modify" dataDxfId="19"/>
-    <tableColumn id="31" name="Dura" dataDxfId="18"/>
-    <tableColumn id="11" name="Def" dataDxfId="17"/>
-    <tableColumn id="21" name="Mag" dataDxfId="16"/>
-    <tableColumn id="29" name="Spd" dataDxfId="15"/>
-    <tableColumn id="30" name="Hit" dataDxfId="14"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="13"/>
-    <tableColumn id="19" name="Crt" dataDxfId="12"/>
-    <tableColumn id="12" name="Luk" dataDxfId="11"/>
-    <tableColumn id="32" name="Sum" dataDxfId="10">
+    <tableColumn id="15" name="Cost" dataDxfId="41"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="40"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="39"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="38"/>
+    <tableColumn id="25" name="Modify" dataDxfId="37"/>
+    <tableColumn id="31" name="Dura" dataDxfId="36"/>
+    <tableColumn id="11" name="Def" dataDxfId="35"/>
+    <tableColumn id="21" name="Mag" dataDxfId="34"/>
+    <tableColumn id="29" name="Spd" dataDxfId="33"/>
+    <tableColumn id="30" name="Hit" dataDxfId="32"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="31"/>
+    <tableColumn id="19" name="Crt" dataDxfId="30"/>
+    <tableColumn id="12" name="Luk" dataDxfId="29"/>
+    <tableColumn id="32" name="Sum" dataDxfId="28">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="9"/>
-    <tableColumn id="27" name="Mov" dataDxfId="8"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="7"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="6">
+    <tableColumn id="10" name="Range" dataDxfId="27"/>
+    <tableColumn id="27" name="Mov" dataDxfId="26"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="25"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="24">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="5"/>
-    <tableColumn id="14" name="Percent" dataDxfId="4"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="3"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="23"/>
+    <tableColumn id="14" name="Percent" dataDxfId="22"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="21"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="18" name="Icon" dataDxfId="2"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
+    <tableColumn id="18" name="Icon" dataDxfId="20"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="19"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5439,6 +5487,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5474,6 +5539,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5650,34 +5732,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG129"/>
+  <dimension ref="A1:AG130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD100" sqref="AD100"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="12" width="3.77734375" customWidth="1"/>
-    <col min="13" max="21" width="3.88671875" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" customWidth="1"/>
-    <col min="23" max="24" width="3.88671875" customWidth="1"/>
-    <col min="25" max="26" width="4.77734375" customWidth="1"/>
-    <col min="27" max="27" width="9.44140625" customWidth="1"/>
-    <col min="28" max="28" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="9" width="4.125" customWidth="1"/>
+    <col min="10" max="12" width="3.75" customWidth="1"/>
+    <col min="13" max="21" width="3.875" customWidth="1"/>
+    <col min="22" max="22" width="6.375" customWidth="1"/>
+    <col min="23" max="24" width="3.875" customWidth="1"/>
+    <col min="25" max="26" width="4.75" customWidth="1"/>
+    <col min="27" max="27" width="9.5" customWidth="1"/>
+    <col min="28" max="28" width="7.125" customWidth="1"/>
     <col min="29" max="30" width="9" customWidth="1"/>
-    <col min="31" max="31" width="7.33203125" customWidth="1"/>
-    <col min="32" max="33" width="4.33203125" customWidth="1"/>
-    <col min="36" max="36" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.375" customWidth="1"/>
+    <col min="32" max="33" width="4.375" customWidth="1"/>
+    <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="73.2">
+    <row r="1" spans="1:33" ht="69" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>241</v>
       </c>
@@ -5778,7 +5860,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -5879,7 +5961,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -5920,7 +6002,7 @@
         <v>256</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>294</v>
+        <v>385</v>
       </c>
       <c r="O3" s="34" t="s">
         <v>326</v>
@@ -5980,7 +6062,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>52000001</v>
       </c>
@@ -6046,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="10">
-        <f t="shared" ref="V4:V35" si="1">J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</f>
+        <f>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</f>
         <v>-5</v>
       </c>
       <c r="W4" s="8">
@@ -6078,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>52000002</v>
       </c>
@@ -6144,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="10">
-        <f t="shared" si="1"/>
+        <f>J5+K5+L5-100+M5+ SUM(O5:U5)*5+IF(ISNUMBER(Z5),Z5,0)+Y5</f>
         <v>-5</v>
       </c>
       <c r="W5" s="8">
@@ -6176,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>52000003</v>
       </c>
@@ -6242,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="10">
-        <f t="shared" si="1"/>
+        <f>J6+K6+L6-100+M6+ SUM(O6:U6)*5+IF(ISNUMBER(Z6),Z6,0)+Y6</f>
         <v>-5</v>
       </c>
       <c r="W6" s="8">
@@ -6274,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>52000004</v>
       </c>
@@ -6340,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="10">
-        <f t="shared" si="1"/>
+        <f>J7+K7+L7-100+M7+ SUM(O7:U7)*5+IF(ISNUMBER(Z7),Z7,0)+Y7</f>
         <v>-5</v>
       </c>
       <c r="W7" s="8">
@@ -6372,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>52000005</v>
       </c>
@@ -6438,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="18">
-        <f t="shared" si="1"/>
+        <f>J8+K8+L8-100+M8+ SUM(O8:U8)*5+IF(ISNUMBER(Z8),Z8,0)+Y8</f>
         <v>-5</v>
       </c>
       <c r="W8" s="8">
@@ -6470,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>52000006</v>
       </c>
@@ -6536,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="10">
-        <f t="shared" si="1"/>
+        <f>J9+K9+L9-100+M9+ SUM(O9:U9)*5+IF(ISNUMBER(Z9),Z9,0)+Y9</f>
         <v>-4</v>
       </c>
       <c r="W9" s="8">
@@ -6568,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>52000007</v>
       </c>
@@ -6634,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="10">
-        <f t="shared" si="1"/>
+        <f>J10+K10+L10-100+M10+ SUM(O10:U10)*5+IF(ISNUMBER(Z10),Z10,0)+Y10</f>
         <v>-5</v>
       </c>
       <c r="W10" s="8">
@@ -6666,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>52000008</v>
       </c>
@@ -6732,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="18">
-        <f t="shared" si="1"/>
+        <f>J11+K11+L11-100+M11+ SUM(O11:U11)*5+IF(ISNUMBER(Z11),Z11,0)+Y11</f>
         <v>-5</v>
       </c>
       <c r="W11" s="8">
@@ -6764,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>52000009</v>
       </c>
@@ -6795,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -6819,7 +6901,7 @@
         <v>3</v>
       </c>
       <c r="S12" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T12" s="8">
         <v>0</v>
@@ -6828,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="18">
-        <f t="shared" si="1"/>
+        <f>J12+K12+L12-100+M12+ SUM(O12:U12)*5+IF(ISNUMBER(Z12),Z12,0)+Y12</f>
         <v>-2</v>
       </c>
       <c r="W12" s="8">
@@ -6860,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>52000010</v>
       </c>
@@ -6926,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="10">
-        <f t="shared" si="1"/>
+        <f>J13+K13+L13-100+M13+ SUM(O13:U13)*5+IF(ISNUMBER(Z13),Z13,0)+Y13</f>
         <v>-2</v>
       </c>
       <c r="W13" s="8">
@@ -6962,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>52000011</v>
       </c>
@@ -7028,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="18">
-        <f t="shared" si="1"/>
+        <f>J14+K14+L14-100+M14+ SUM(O14:U14)*5+IF(ISNUMBER(Z14),Z14,0)+Y14</f>
         <v>-2</v>
       </c>
       <c r="W14" s="8">
@@ -7064,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>52000012</v>
       </c>
@@ -7130,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="10">
-        <f t="shared" si="1"/>
+        <f>J15+K15+L15-100+M15+ SUM(O15:U15)*5+IF(ISNUMBER(Z15),Z15,0)+Y15</f>
         <v>-2</v>
       </c>
       <c r="W15" s="8">
@@ -7166,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>52000013</v>
       </c>
@@ -7232,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="10">
-        <f t="shared" si="1"/>
+        <f>J16+K16+L16-100+M16+ SUM(O16:U16)*5+IF(ISNUMBER(Z16),Z16,0)+Y16</f>
         <v>-2</v>
       </c>
       <c r="W16" s="8">
@@ -7268,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>52000014</v>
       </c>
@@ -7334,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="18">
-        <f t="shared" si="1"/>
+        <f>J17+K17+L17-100+M17+ SUM(O17:U17)*5+IF(ISNUMBER(Z17),Z17,0)+Y17</f>
         <v>-2</v>
       </c>
       <c r="W17" s="8">
@@ -7370,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>52000015</v>
       </c>
@@ -7436,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="10">
-        <f t="shared" si="1"/>
+        <f>J18+K18+L18-100+M18+ SUM(O18:U18)*5+IF(ISNUMBER(Z18),Z18,0)+Y18</f>
         <v>-2</v>
       </c>
       <c r="W18" s="8">
@@ -7472,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>52000016</v>
       </c>
@@ -7538,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="18">
-        <f t="shared" si="1"/>
+        <f>J19+K19+L19-100+M19+ SUM(O19:U19)*5+IF(ISNUMBER(Z19),Z19,0)+Y19</f>
         <v>2.5</v>
       </c>
       <c r="W19" s="8">
@@ -7574,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>52000017</v>
       </c>
@@ -7640,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="10">
-        <f t="shared" si="1"/>
+        <f>J20+K20+L20-100+M20+ SUM(O20:U20)*5+IF(ISNUMBER(Z20),Z20,0)+Y20</f>
         <v>6</v>
       </c>
       <c r="W20" s="8">
@@ -7678,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>52000018</v>
       </c>
@@ -7744,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="1"/>
+        <f>J21+K21+L21-100+M21+ SUM(O21:U21)*5+IF(ISNUMBER(Z21),Z21,0)+Y21</f>
         <v>-4</v>
       </c>
       <c r="W21" s="8">
@@ -7776,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>52000019</v>
       </c>
@@ -7840,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="10">
-        <f t="shared" si="1"/>
+        <f>J22+K22+L22-100+M22+ SUM(O22:U22)*5+IF(ISNUMBER(Z22),Z22,0)+Y22</f>
         <v>1</v>
       </c>
       <c r="W22" s="8">
@@ -7874,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>52000020</v>
       </c>
@@ -7891,7 +7973,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
@@ -7940,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="10">
-        <f t="shared" si="1"/>
+        <f>J23+K23+L23-100+M23+ SUM(O23:U23)*5+IF(ISNUMBER(Z23),Z23,0)+Y23</f>
         <v>-5</v>
       </c>
       <c r="W23" s="8">
@@ -7972,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>52000021</v>
       </c>
@@ -7989,7 +8071,7 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -8038,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="10">
-        <f t="shared" si="1"/>
+        <f>J24+K24+L24-100+M24+ SUM(O24:U24)*5+IF(ISNUMBER(Z24),Z24,0)+Y24</f>
         <v>1</v>
       </c>
       <c r="W24" s="8">
@@ -8070,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>52000022</v>
       </c>
@@ -8136,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="10">
-        <f t="shared" si="1"/>
+        <f>J25+K25+L25-100+M25+ SUM(O25:U25)*5+IF(ISNUMBER(Z25),Z25,0)+Y25</f>
         <v>-4</v>
       </c>
       <c r="W25" s="8">
@@ -8168,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>52000023</v>
       </c>
@@ -8234,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="10">
-        <f t="shared" si="1"/>
+        <f>J26+K26+L26-100+M26+ SUM(O26:U26)*5+IF(ISNUMBER(Z26),Z26,0)+Y26</f>
         <v>-1</v>
       </c>
       <c r="W26" s="8">
@@ -8268,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>52000024</v>
       </c>
@@ -8334,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="1"/>
+        <f>J27+K27+L27-100+M27+ SUM(O27:U27)*5+IF(ISNUMBER(Z27),Z27,0)+Y27</f>
         <v>7</v>
       </c>
       <c r="W27" s="8">
@@ -8372,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>52000025</v>
       </c>
@@ -8436,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="18">
-        <f t="shared" si="1"/>
+        <f>J28+K28+L28-100+M28+ SUM(O28:U28)*5+IF(ISNUMBER(Z28),Z28,0)+Y28</f>
         <v>3.5</v>
       </c>
       <c r="W28" s="8">
@@ -8474,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>52000026</v>
       </c>
@@ -8540,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="10">
-        <f t="shared" si="1"/>
+        <f>J29+K29+L29-100+M29+ SUM(O29:U29)*5+IF(ISNUMBER(Z29),Z29,0)+Y29</f>
         <v>-2</v>
       </c>
       <c r="W29" s="8">
@@ -8576,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>52000027</v>
       </c>
@@ -8642,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="18">
-        <f t="shared" si="1"/>
+        <f>J30+K30+L30-100+M30+ SUM(O30:U30)*5+IF(ISNUMBER(Z30),Z30,0)+Y30</f>
         <v>-2</v>
       </c>
       <c r="W30" s="8">
@@ -8678,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>52000028</v>
       </c>
@@ -8744,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="10">
-        <f t="shared" si="1"/>
+        <f>J31+K31+L31-100+M31+ SUM(O31:U31)*5+IF(ISNUMBER(Z31),Z31,0)+Y31</f>
         <v>-2</v>
       </c>
       <c r="W31" s="8">
@@ -8780,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>52000029</v>
       </c>
@@ -8846,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="10">
-        <f t="shared" si="1"/>
+        <f>J32+K32+L32-100+M32+ SUM(O32:U32)*5+IF(ISNUMBER(Z32),Z32,0)+Y32</f>
         <v>-2</v>
       </c>
       <c r="W32" s="8">
@@ -8882,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>52000030</v>
       </c>
@@ -8948,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="10">
-        <f t="shared" si="1"/>
+        <f>J33+K33+L33-100+M33+ SUM(O33:U33)*5+IF(ISNUMBER(Z33),Z33,0)+Y33</f>
         <v>-2</v>
       </c>
       <c r="W33" s="8">
@@ -8984,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>52000031</v>
       </c>
@@ -9050,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="10">
-        <f t="shared" si="1"/>
+        <f>J34+K34+L34-100+M34+ SUM(O34:U34)*5+IF(ISNUMBER(Z34),Z34,0)+Y34</f>
         <v>-2</v>
       </c>
       <c r="W34" s="8">
@@ -9086,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>52000032</v>
       </c>
@@ -9152,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="18">
-        <f t="shared" si="1"/>
+        <f>J35+K35+L35-100+M35+ SUM(O35:U35)*5+IF(ISNUMBER(Z35),Z35,0)+Y35</f>
         <v>2</v>
       </c>
       <c r="W35" s="8">
@@ -9190,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>52000033</v>
       </c>
@@ -9211,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" ref="H36:H67" si="2">IF(AND(V36&gt;=13,V36&lt;=16),5,IF(AND(V36&gt;=9,V36&lt;=12),4,IF(AND(V36&gt;=5,V36&lt;=8),3,IF(AND(V36&gt;=1,V36&lt;=4),2,IF(AND(V36&gt;=-3,V36&lt;=0),1,IF(AND(V36&gt;=-5,V36&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H36:H67" si="1">IF(AND(V36&gt;=13,V36&lt;=16),5,IF(AND(V36&gt;=9,V36&lt;=12),4,IF(AND(V36&gt;=5,V36&lt;=8),3,IF(AND(V36&gt;=1,V36&lt;=4),2,IF(AND(V36&gt;=-3,V36&lt;=0),1,IF(AND(V36&gt;=-5,V36&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I36" s="4">
@@ -9254,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="10">
-        <f t="shared" ref="V36:V67" si="3">J36+K36+L36-100+M36+ SUM(O36:U36)*5+IF(ISNUMBER(Z36),Z36,0)+Y36</f>
+        <f>J36+K36+L36-100+M36+ SUM(O36:U36)*5+IF(ISNUMBER(Z36),Z36,0)+Y36</f>
         <v>0</v>
       </c>
       <c r="W36" s="8">
@@ -9286,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>52000034</v>
       </c>
@@ -9307,7 +9389,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I37" s="4">
@@ -9350,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="10">
-        <f t="shared" si="3"/>
+        <f>J37+K37+L37-100+M37+ SUM(O37:U37)*5+IF(ISNUMBER(Z37),Z37,0)+Y37</f>
         <v>0</v>
       </c>
       <c r="W37" s="8">
@@ -9384,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>52000035</v>
       </c>
@@ -9405,7 +9487,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I38" s="4">
@@ -9448,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" si="3"/>
+        <f>J38+K38+L38-100+M38+ SUM(O38:U38)*5+IF(ISNUMBER(Z38),Z38,0)+Y38</f>
         <v>0</v>
       </c>
       <c r="W38" s="8">
@@ -9482,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>52000036</v>
       </c>
@@ -9503,7 +9585,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I39" s="4">
@@ -9546,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="3"/>
+        <f>J39+K39+L39-100+M39+ SUM(O39:U39)*5+IF(ISNUMBER(Z39),Z39,0)+Y39</f>
         <v>0</v>
       </c>
       <c r="W39" s="8">
@@ -9578,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>52000037</v>
       </c>
@@ -9601,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I40" s="4">
@@ -9644,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" si="3"/>
+        <f>J40+K40+L40-100+M40+ SUM(O40:U40)*5+IF(ISNUMBER(Z40),Z40,0)+Y40</f>
         <v>2</v>
       </c>
       <c r="W40" s="8">
@@ -9682,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>52000038</v>
       </c>
@@ -9705,7 +9787,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I41" s="4">
@@ -9748,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="10">
-        <f t="shared" si="3"/>
+        <f>J41+K41+L41-100+M41+ SUM(O41:U41)*5+IF(ISNUMBER(Z41),Z41,0)+Y41</f>
         <v>1.5</v>
       </c>
       <c r="W41" s="8">
@@ -9786,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>52000039</v>
       </c>
@@ -9807,7 +9889,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I42" s="4">
@@ -9850,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="10">
-        <f t="shared" si="3"/>
+        <f>J42+K42+L42-100+M42+ SUM(O42:U42)*5+IF(ISNUMBER(Z42),Z42,0)+Y42</f>
         <v>0</v>
       </c>
       <c r="W42" s="8">
@@ -9884,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>52000040</v>
       </c>
@@ -9905,7 +9987,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I43" s="4">
@@ -9948,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="10">
-        <f t="shared" si="3"/>
+        <f>J43+K43+L43-100+M43+ SUM(O43:U43)*5+IF(ISNUMBER(Z43),Z43,0)+Y43</f>
         <v>0</v>
       </c>
       <c r="W43" s="8">
@@ -9967,7 +10049,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="AD43" s="4">
         <v>11000009</v>
@@ -9982,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>52000041</v>
       </c>
@@ -10003,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I44" s="4">
@@ -10046,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="10">
-        <f t="shared" si="3"/>
+        <f>J44+K44+L44-100+M44+ SUM(O44:U44)*5+IF(ISNUMBER(Z44),Z44,0)+Y44</f>
         <v>0</v>
       </c>
       <c r="W44" s="8">
@@ -10078,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>52000042</v>
       </c>
@@ -10099,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I45" s="4">
@@ -10142,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="10">
-        <f t="shared" si="3"/>
+        <f>J45+K45+L45-100+M45+ SUM(O45:U45)*5+IF(ISNUMBER(Z45),Z45,0)+Y45</f>
         <v>0</v>
       </c>
       <c r="W45" s="8">
@@ -10178,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>52000043</v>
       </c>
@@ -10199,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I46" s="4">
@@ -10242,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="10">
-        <f t="shared" si="3"/>
+        <f>J46+K46+L46-100+M46+ SUM(O46:U46)*5+IF(ISNUMBER(Z46),Z46,0)+Y46</f>
         <v>5</v>
       </c>
       <c r="W46" s="8">
@@ -10280,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>52000044</v>
       </c>
@@ -10301,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I47" s="4">
@@ -10344,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" si="3"/>
+        <f>J47+K47+L47-100+M47+ SUM(O47:U47)*5+IF(ISNUMBER(Z47),Z47,0)+Y47</f>
         <v>5</v>
       </c>
       <c r="W47" s="8">
@@ -10378,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>52000045</v>
       </c>
@@ -10399,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I48" s="4">
@@ -10442,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" si="3"/>
+        <f>J48+K48+L48-100+M48+ SUM(O48:U48)*5+IF(ISNUMBER(Z48),Z48,0)+Y48</f>
         <v>3</v>
       </c>
       <c r="W48" s="8">
@@ -10478,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>52000046</v>
       </c>
@@ -10493,13 +10575,13 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I49" s="4">
@@ -10509,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L49" s="7">
         <v>0</v>
@@ -10521,7 +10603,7 @@
         <v>4</v>
       </c>
       <c r="O49" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P49" s="8">
         <v>0</v>
@@ -10542,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="10">
-        <f t="shared" si="3"/>
+        <f>J49+K49+L49-100+M49+ SUM(O49:U49)*5+IF(ISNUMBER(Z49),Z49,0)+Y49</f>
         <v>0</v>
       </c>
       <c r="W49" s="8">
@@ -10574,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>52000047</v>
       </c>
@@ -10589,13 +10671,13 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I50" s="4">
@@ -10605,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L50" s="7">
         <v>0</v>
@@ -10617,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="O50" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P50" s="8">
         <v>0</v>
@@ -10638,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="10">
-        <f t="shared" si="3"/>
+        <f>J50+K50+L50-100+M50+ SUM(O50:U50)*5+IF(ISNUMBER(Z50),Z50,0)+Y50</f>
         <v>0</v>
       </c>
       <c r="W50" s="8">
@@ -10670,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>52000048</v>
       </c>
@@ -10691,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I51" s="4">
@@ -10734,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="10">
-        <f t="shared" si="3"/>
+        <f>J51+K51+L51-100+M51+ SUM(O51:U51)*5+IF(ISNUMBER(Z51),Z51,0)+Y51</f>
         <v>2</v>
       </c>
       <c r="W51" s="8">
@@ -10772,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>52000049</v>
       </c>
@@ -10793,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I52" s="4">
@@ -10836,7 +10918,7 @@
         <v>2</v>
       </c>
       <c r="V52" s="10">
-        <f t="shared" si="3"/>
+        <f>J52+K52+L52-100+M52+ SUM(O52:U52)*5+IF(ISNUMBER(Z52),Z52,0)+Y52</f>
         <v>0</v>
       </c>
       <c r="W52" s="8">
@@ -10868,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52000050</v>
       </c>
@@ -10889,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I53" s="4">
@@ -10932,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="10">
-        <f t="shared" si="3"/>
+        <f>J53+K53+L53-100+M53+ SUM(O53:U53)*5+IF(ISNUMBER(Z53),Z53,0)+Y53</f>
         <v>0</v>
       </c>
       <c r="W53" s="8">
@@ -10964,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>52000051</v>
       </c>
@@ -10985,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I54" s="4">
@@ -11028,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="10">
-        <f t="shared" si="3"/>
+        <f>J54+K54+L54-100+M54+ SUM(O54:U54)*5+IF(ISNUMBER(Z54),Z54,0)+Y54</f>
         <v>5</v>
       </c>
       <c r="W54" s="8">
@@ -11062,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52000052</v>
       </c>
@@ -11079,13 +11161,13 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I55" s="4">
@@ -11095,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L55" s="7">
         <v>0</v>
@@ -11119,16 +11201,16 @@
         <v>0</v>
       </c>
       <c r="S55" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T55" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U55" s="8">
         <v>0</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" si="3"/>
+        <f>J55+K55+L55-100+M55+ SUM(O55:U55)*5+IF(ISNUMBER(Z55),Z55,0)+Y55</f>
         <v>-2</v>
       </c>
       <c r="W55" s="8">
@@ -11160,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>52000053</v>
       </c>
@@ -11175,13 +11257,13 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I56" s="4">
@@ -11191,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="6">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="L56" s="7">
         <v>0</v>
@@ -11203,7 +11285,7 @@
         <v>4</v>
       </c>
       <c r="O56" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P56" s="8">
         <v>0</v>
@@ -11224,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="10">
-        <f t="shared" si="3"/>
+        <f>J56+K56+L56-100+M56+ SUM(O56:U56)*5+IF(ISNUMBER(Z56),Z56,0)+Y56</f>
         <v>1</v>
       </c>
       <c r="W56" s="8">
@@ -11258,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>52000054</v>
       </c>
@@ -11273,13 +11355,13 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I57" s="4">
@@ -11322,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="10">
-        <f t="shared" si="3"/>
+        <f>J57+K57+L57-100+M57+ SUM(O57:U57)*5+IF(ISNUMBER(Z57),Z57,0)+Y57</f>
         <v>0</v>
       </c>
       <c r="W57" s="8">
@@ -11354,7 +11436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>52000055</v>
       </c>
@@ -11369,13 +11451,13 @@
         <v>3</v>
       </c>
       <c r="F58">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I58" s="4">
@@ -11403,13 +11485,13 @@
         <v>0</v>
       </c>
       <c r="Q58" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R58" s="8">
         <v>0</v>
       </c>
       <c r="S58" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T58" s="8">
         <v>0</v>
@@ -11418,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="10">
-        <f t="shared" si="3"/>
+        <f>J58+K58+L58-100+M58+ SUM(O58:U58)*5+IF(ISNUMBER(Z58),Z58,0)+Y58</f>
         <v>1</v>
       </c>
       <c r="W58" s="8">
@@ -11452,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>52000056</v>
       </c>
@@ -11467,13 +11549,13 @@
         <v>3</v>
       </c>
       <c r="F59">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I59" s="4">
@@ -11516,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="10">
-        <f t="shared" si="3"/>
+        <f>J59+K59+L59-100+M59+ SUM(O59:U59)*5+IF(ISNUMBER(Z59),Z59,0)+Y59</f>
         <v>4</v>
       </c>
       <c r="W59" s="8">
@@ -11550,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>52000057</v>
       </c>
@@ -11565,13 +11647,13 @@
         <v>3</v>
       </c>
       <c r="F60">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I60" s="4">
@@ -11614,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="10">
-        <f t="shared" si="3"/>
+        <f>J60+K60+L60-100+M60+ SUM(O60:U60)*5+IF(ISNUMBER(Z60),Z60,0)+Y60</f>
         <v>3</v>
       </c>
       <c r="W60" s="8">
@@ -11646,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>52000058</v>
       </c>
@@ -11669,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I61" s="4">
@@ -11712,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="10">
-        <f t="shared" si="3"/>
+        <f>J61+K61+L61-100+M61+ SUM(O61:U61)*5+IF(ISNUMBER(Z61),Z61,0)+Y61</f>
         <v>5</v>
       </c>
       <c r="W61" s="8">
@@ -11748,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>52000059</v>
       </c>
@@ -11771,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I62" s="4">
@@ -11814,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="10">
-        <f t="shared" si="3"/>
+        <f>J62+K62+L62-100+M62+ SUM(O62:U62)*5+IF(ISNUMBER(Z62),Z62,0)+Y62</f>
         <v>5</v>
       </c>
       <c r="W62" s="8">
@@ -11852,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>52000060</v>
       </c>
@@ -11873,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I63" s="4">
@@ -11916,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="10">
-        <f t="shared" si="3"/>
+        <f>J63+K63+L63-100+M63+ SUM(O63:U63)*5+IF(ISNUMBER(Z63),Z63,0)+Y63</f>
         <v>0</v>
       </c>
       <c r="W63" s="8">
@@ -11952,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>52000061</v>
       </c>
@@ -11973,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I64" s="4">
@@ -12016,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="10">
-        <f t="shared" si="3"/>
+        <f>J64+K64+L64-100+M64+ SUM(O64:U64)*5+IF(ISNUMBER(Z64),Z64,0)+Y64</f>
         <v>4</v>
       </c>
       <c r="W64" s="8">
@@ -12052,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>52000062</v>
       </c>
@@ -12073,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I65" s="4">
@@ -12107,16 +12189,16 @@
         <v>0</v>
       </c>
       <c r="S65" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T65" s="8">
         <v>0</v>
       </c>
       <c r="U65" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V65" s="10">
-        <f t="shared" si="3"/>
+        <f>J65+K65+L65-100+M65+ SUM(O65:U65)*5+IF(ISNUMBER(Z65),Z65,0)+Y65</f>
         <v>7</v>
       </c>
       <c r="W65" s="8">
@@ -12154,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>52000063</v>
       </c>
@@ -12177,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I66" s="4">
@@ -12220,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="10">
-        <f t="shared" si="3"/>
+        <f>J66+K66+L66-100+M66+ SUM(O66:U66)*5+IF(ISNUMBER(Z66),Z66,0)+Y66</f>
         <v>-3</v>
       </c>
       <c r="W66" s="8">
@@ -12252,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>52000064</v>
       </c>
@@ -12273,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I67" s="4">
@@ -12283,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L67" s="7">
         <v>0</v>
@@ -12295,7 +12377,7 @@
         <v>4</v>
       </c>
       <c r="O67" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P67" s="8">
         <v>0</v>
@@ -12316,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="10">
-        <f t="shared" si="3"/>
+        <f>J67+K67+L67-100+M67+ SUM(O67:U67)*5+IF(ISNUMBER(Z67),Z67,0)+Y67</f>
         <v>2</v>
       </c>
       <c r="W67" s="8">
@@ -12347,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>52000065</v>
       </c>
@@ -12368,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H99" si="4">IF(AND(V68&gt;=13,V68&lt;=16),5,IF(AND(V68&gt;=9,V68&lt;=12),4,IF(AND(V68&gt;=5,V68&lt;=8),3,IF(AND(V68&gt;=1,V68&lt;=4),2,IF(AND(V68&gt;=-3,V68&lt;=0),1,IF(AND(V68&gt;=-5,V68&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H68:H99" si="2">IF(AND(V68&gt;=13,V68&lt;=16),5,IF(AND(V68&gt;=9,V68&lt;=12),4,IF(AND(V68&gt;=5,V68&lt;=8),3,IF(AND(V68&gt;=1,V68&lt;=4),2,IF(AND(V68&gt;=-3,V68&lt;=0),1,IF(AND(V68&gt;=-5,V68&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I68" s="4">
@@ -12411,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="10">
-        <f t="shared" ref="V68:V99" si="5">J68+K68+L68-100+M68+ SUM(O68:U68)*5+IF(ISNUMBER(Z68),Z68,0)+Y68</f>
+        <f>J68+K68+L68-100+M68+ SUM(O68:U68)*5+IF(ISNUMBER(Z68),Z68,0)+Y68</f>
         <v>-1</v>
       </c>
       <c r="W68" s="8">
@@ -12445,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>52000066</v>
       </c>
@@ -12466,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I69" s="4">
@@ -12509,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="V69" s="10">
-        <f t="shared" si="5"/>
+        <f>J69+K69+L69-100+M69+ SUM(O69:U69)*5+IF(ISNUMBER(Z69),Z69,0)+Y69</f>
         <v>0</v>
       </c>
       <c r="W69" s="8">
@@ -12541,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>52000067</v>
       </c>
@@ -12562,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I70" s="4">
@@ -12605,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="10">
-        <f t="shared" si="5"/>
+        <f>J70+K70+L70-100+M70+ SUM(O70:U70)*5+IF(ISNUMBER(Z70),Z70,0)+Y70</f>
         <v>0</v>
       </c>
       <c r="W70" s="8">
@@ -12637,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>52000068</v>
       </c>
@@ -12658,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I71" s="4">
@@ -12668,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L71" s="7">
         <v>0</v>
@@ -12680,7 +12762,7 @@
         <v>4</v>
       </c>
       <c r="O71" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P71" s="8">
         <v>0</v>
@@ -12701,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="V71" s="10">
-        <f t="shared" si="5"/>
+        <f>J71+K71+L71-100+M71+ SUM(O71:U71)*5+IF(ISNUMBER(Z71),Z71,0)+Y71</f>
         <v>0</v>
       </c>
       <c r="W71" s="8">
@@ -12733,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>52000069</v>
       </c>
@@ -12754,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I72" s="4">
@@ -12797,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="V72" s="10">
-        <f t="shared" si="5"/>
+        <f>J72+K72+L72-100+M72+ SUM(O72:U72)*5+IF(ISNUMBER(Z72),Z72,0)+Y72</f>
         <v>5</v>
       </c>
       <c r="W72" s="8">
@@ -12828,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>52000070</v>
       </c>
@@ -12849,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I73" s="4">
@@ -12859,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L73" s="7">
         <v>0</v>
@@ -12871,7 +12953,7 @@
         <v>4</v>
       </c>
       <c r="O73" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P73" s="8">
         <v>0</v>
@@ -12892,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="10">
-        <f t="shared" si="5"/>
+        <f>J73+K73+L73-100+M73+ SUM(O73:U73)*5+IF(ISNUMBER(Z73),Z73,0)+Y73</f>
         <v>0</v>
       </c>
       <c r="W73" s="8">
@@ -12928,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>52000071</v>
       </c>
@@ -12951,17 +13033,17 @@
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="I74" s="4">
         <v>4</v>
       </c>
       <c r="J74" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K74" s="6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L74" s="7">
         <v>0</v>
@@ -12985,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="S74" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T74" s="8">
         <v>0</v>
@@ -12994,8 +13076,8 @@
         <v>0</v>
       </c>
       <c r="V74" s="10">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>J74+K74+L74-100+M74+ SUM(O74:U74)*5+IF(ISNUMBER(Z74),Z74,0)+Y74</f>
+        <v>2</v>
       </c>
       <c r="W74" s="8">
         <v>0</v>
@@ -13030,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>52000072</v>
       </c>
@@ -13053,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I75" s="4">
@@ -13096,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="V75" s="10">
-        <f t="shared" si="5"/>
+        <f>J75+K75+L75-100+M75+ SUM(O75:U75)*5+IF(ISNUMBER(Z75),Z75,0)+Y75</f>
         <v>0</v>
       </c>
       <c r="W75" s="8">
@@ -13132,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>52000073</v>
       </c>
@@ -13153,14 +13235,14 @@
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I76" s="4">
         <v>4</v>
       </c>
       <c r="J76" s="7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K76" s="7">
         <v>0</v>
@@ -13175,7 +13257,7 @@
         <v>4</v>
       </c>
       <c r="O76" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P76" s="8">
         <v>0</v>
@@ -13196,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="V76" s="10">
-        <f t="shared" si="5"/>
+        <f>J76+K76+L76-100+M76+ SUM(O76:U76)*5+IF(ISNUMBER(Z76),Z76,0)+Y76</f>
         <v>3</v>
       </c>
       <c r="W76" s="8">
@@ -13232,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>52000074</v>
       </c>
@@ -13255,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I77" s="4">
@@ -13298,7 +13380,7 @@
         <v>0</v>
       </c>
       <c r="V77" s="10">
-        <f t="shared" si="5"/>
+        <f>J77+K77+L77-100+M77+ SUM(O77:U77)*5+IF(ISNUMBER(Z77),Z77,0)+Y77</f>
         <v>0</v>
       </c>
       <c r="W77" s="8">
@@ -13334,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>52000075</v>
       </c>
@@ -13357,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I78" s="4">
@@ -13400,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="V78" s="10">
-        <f t="shared" si="5"/>
+        <f>J78+K78+L78-100+M78+ SUM(O78:U78)*5+IF(ISNUMBER(Z78),Z78,0)+Y78</f>
         <v>3</v>
       </c>
       <c r="W78" s="8">
@@ -13436,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>52000076</v>
       </c>
@@ -13459,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I79" s="4">
@@ -13502,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="V79" s="10">
-        <f t="shared" si="5"/>
+        <f>J79+K79+L79-100+M79+ SUM(O79:U79)*5+IF(ISNUMBER(Z79),Z79,0)+Y79</f>
         <v>5</v>
       </c>
       <c r="W79" s="8">
@@ -13538,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>52000077</v>
       </c>
@@ -13561,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I80" s="4">
@@ -13604,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="V80" s="10">
-        <f t="shared" si="5"/>
+        <f>J80+K80+L80-100+M80+ SUM(O80:U80)*5+IF(ISNUMBER(Z80),Z80,0)+Y80</f>
         <v>3</v>
       </c>
       <c r="W80" s="8">
@@ -13640,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>52000078</v>
       </c>
@@ -13663,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I81" s="4">
@@ -13706,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="V81" s="10">
-        <f t="shared" si="5"/>
+        <f>J81+K81+L81-100+M81+ SUM(O81:U81)*5+IF(ISNUMBER(Z81),Z81,0)+Y81</f>
         <v>2</v>
       </c>
       <c r="W81" s="8">
@@ -13742,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>52000079</v>
       </c>
@@ -13765,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I82" s="4">
@@ -13808,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="V82" s="10">
-        <f t="shared" si="5"/>
+        <f>J82+K82+L82-100+M82+ SUM(O82:U82)*5+IF(ISNUMBER(Z82),Z82,0)+Y82</f>
         <v>0</v>
       </c>
       <c r="W82" s="8">
@@ -13844,7 +13926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>52000080</v>
       </c>
@@ -13867,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I83" s="4">
@@ -13910,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="V83" s="10">
-        <f t="shared" si="5"/>
+        <f>J83+K83+L83-100+M83+ SUM(O83:U83)*5+IF(ISNUMBER(Z83),Z83,0)+Y83</f>
         <v>3</v>
       </c>
       <c r="W83" s="8">
@@ -13946,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>52000081</v>
       </c>
@@ -13969,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I84" s="4">
@@ -14012,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="V84" s="10">
-        <f t="shared" si="5"/>
+        <f>J84+K84+L84-100+M84+ SUM(O84:U84)*5+IF(ISNUMBER(Z84),Z84,0)+Y84</f>
         <v>0</v>
       </c>
       <c r="W84" s="8">
@@ -14048,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>52000082</v>
       </c>
@@ -14069,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I85" s="4">
@@ -14112,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="V85" s="10">
-        <f t="shared" si="5"/>
+        <f>J85+K85+L85-100+M85+ SUM(O85:U85)*5+IF(ISNUMBER(Z85),Z85,0)+Y85</f>
         <v>5</v>
       </c>
       <c r="W85" s="8">
@@ -14144,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>52000083</v>
       </c>
@@ -14165,7 +14247,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I86" s="4">
@@ -14208,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="V86" s="10">
-        <f t="shared" si="5"/>
+        <f>J86+K86+L86-100+M86+ SUM(O86:U86)*5+IF(ISNUMBER(Z86),Z86,0)+Y86</f>
         <v>5</v>
       </c>
       <c r="W86" s="8">
@@ -14242,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>52000084</v>
       </c>
@@ -14263,7 +14345,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I87" s="4">
@@ -14306,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="V87" s="10">
-        <f t="shared" si="5"/>
+        <f>J87+K87+L87-100+M87+ SUM(O87:U87)*5+IF(ISNUMBER(Z87),Z87,0)+Y87</f>
         <v>5</v>
       </c>
       <c r="W87" s="8">
@@ -14340,7 +14422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>52000085</v>
       </c>
@@ -14361,7 +14443,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I88" s="4">
@@ -14404,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="V88" s="10">
-        <f t="shared" si="5"/>
+        <f>J88+K88+L88-100+M88+ SUM(O88:U88)*5+IF(ISNUMBER(Z88),Z88,0)+Y88</f>
         <v>5</v>
       </c>
       <c r="W88" s="8">
@@ -14436,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>52000086</v>
       </c>
@@ -14459,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I89" s="4">
@@ -14502,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="V89" s="10">
-        <f t="shared" si="5"/>
+        <f>J89+K89+L89-100+M89+ SUM(O89:U89)*5+IF(ISNUMBER(Z89),Z89,0)+Y89</f>
         <v>9</v>
       </c>
       <c r="W89" s="8">
@@ -14540,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>52000087</v>
       </c>
@@ -14563,7 +14645,7 @@
         <v>5</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I90" s="4">
@@ -14606,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="V90" s="10">
-        <f t="shared" si="5"/>
+        <f>J90+K90+L90-100+M90+ SUM(O90:U90)*5+IF(ISNUMBER(Z90),Z90,0)+Y90</f>
         <v>4</v>
       </c>
       <c r="W90" s="8">
@@ -14644,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>52000088</v>
       </c>
@@ -14665,7 +14747,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I91" s="4">
@@ -14708,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="V91" s="10">
-        <f t="shared" si="5"/>
+        <f>J91+K91+L91-100+M91+ SUM(O91:U91)*5+IF(ISNUMBER(Z91),Z91,0)+Y91</f>
         <v>5</v>
       </c>
       <c r="W91" s="8">
@@ -14742,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>52000089</v>
       </c>
@@ -14763,7 +14845,7 @@
         <v>6</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I92" s="4">
@@ -14806,7 +14888,7 @@
         <v>0</v>
       </c>
       <c r="V92" s="10">
-        <f t="shared" si="5"/>
+        <f>J92+K92+L92-100+M92+ SUM(O92:U92)*5+IF(ISNUMBER(Z92),Z92,0)+Y92</f>
         <v>5</v>
       </c>
       <c r="W92" s="8">
@@ -14840,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>52000090</v>
       </c>
@@ -14861,7 +14943,7 @@
         <v>3</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I93" s="4">
@@ -14904,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="V93" s="10">
-        <f t="shared" si="5"/>
+        <f>J93+K93+L93-100+M93+ SUM(O93:U93)*5+IF(ISNUMBER(Z93),Z93,0)+Y93</f>
         <v>5</v>
       </c>
       <c r="W93" s="8">
@@ -14938,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>52000091</v>
       </c>
@@ -14959,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I94" s="4">
@@ -14969,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="6">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="L94" s="7">
         <v>0</v>
@@ -14981,7 +15063,7 @@
         <v>3</v>
       </c>
       <c r="O94" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P94" s="8">
         <v>0</v>
@@ -14993,7 +15075,7 @@
         <v>0</v>
       </c>
       <c r="S94" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T94" s="8">
         <v>0</v>
@@ -15002,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="V94" s="10">
-        <f t="shared" si="5"/>
+        <f>J94+K94+L94-100+M94+ SUM(O94:U94)*5+IF(ISNUMBER(Z94),Z94,0)+Y94</f>
         <v>2</v>
       </c>
       <c r="W94" s="8">
@@ -15040,7 +15122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>52000092</v>
       </c>
@@ -15063,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I95" s="4">
@@ -15106,7 +15188,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="10">
-        <f t="shared" si="5"/>
+        <f>J95+K95+L95-100+M95+ SUM(O95:U95)*5+IF(ISNUMBER(Z95),Z95,0)+Y95</f>
         <v>-0.59999999999999964</v>
       </c>
       <c r="W95" s="8">
@@ -15144,7 +15226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:33">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>52000093</v>
       </c>
@@ -15165,7 +15247,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I96" s="4">
@@ -15208,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="10">
-        <f t="shared" si="5"/>
+        <f>J96+K96+L96-100+M96+ SUM(O96:U96)*5+IF(ISNUMBER(Z96),Z96,0)+Y96</f>
         <v>7</v>
       </c>
       <c r="W96" s="8">
@@ -15242,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>52000094</v>
       </c>
@@ -15263,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I97" s="4">
@@ -15306,7 +15388,7 @@
         <v>0</v>
       </c>
       <c r="V97" s="10">
-        <f t="shared" si="5"/>
+        <f>J97+K97+L97-100+M97+ SUM(O97:U97)*5+IF(ISNUMBER(Z97),Z97,0)+Y97</f>
         <v>0</v>
       </c>
       <c r="W97" s="8">
@@ -15340,7 +15422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>52000095</v>
       </c>
@@ -15361,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I98" s="4">
@@ -15404,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="V98" s="18">
-        <f t="shared" si="5"/>
+        <f>J98+K98+L98-100+M98+ SUM(O98:U98)*5+IF(ISNUMBER(Z98),Z98,0)+Y98</f>
         <v>5</v>
       </c>
       <c r="W98" s="8">
@@ -15442,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>52000096</v>
       </c>
@@ -15465,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I99" s="4">
@@ -15475,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L99" s="7">
         <v>0</v>
@@ -15487,7 +15569,7 @@
         <v>5</v>
       </c>
       <c r="O99" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P99" s="8">
         <v>0</v>
@@ -15508,7 +15590,7 @@
         <v>0</v>
       </c>
       <c r="V99" s="10">
-        <f t="shared" si="5"/>
+        <f>J99+K99+L99-100+M99+ SUM(O99:U99)*5+IF(ISNUMBER(Z99),Z99,0)+Y99</f>
         <v>10</v>
       </c>
       <c r="W99" s="8">
@@ -15546,7 +15628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>52000097</v>
       </c>
@@ -15567,7 +15649,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" ref="H100:H124" si="6">IF(AND(V100&gt;=13,V100&lt;=16),5,IF(AND(V100&gt;=9,V100&lt;=12),4,IF(AND(V100&gt;=5,V100&lt;=8),3,IF(AND(V100&gt;=1,V100&lt;=4),2,IF(AND(V100&gt;=-3,V100&lt;=0),1,IF(AND(V100&gt;=-5,V100&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H100:H124" si="3">IF(AND(V100&gt;=13,V100&lt;=16),5,IF(AND(V100&gt;=9,V100&lt;=12),4,IF(AND(V100&gt;=5,V100&lt;=8),3,IF(AND(V100&gt;=1,V100&lt;=4),2,IF(AND(V100&gt;=-3,V100&lt;=0),1,IF(AND(V100&gt;=-5,V100&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I100" s="4">
@@ -15610,7 +15692,7 @@
         <v>0</v>
       </c>
       <c r="V100" s="10">
-        <f t="shared" ref="V100:V125" si="7">J100+K100+L100-100+M100+ SUM(O100:U100)*5+IF(ISNUMBER(Z100),Z100,0)+Y100</f>
+        <f>J100+K100+L100-100+M100+ SUM(O100:U100)*5+IF(ISNUMBER(Z100),Z100,0)+Y100</f>
         <v>0</v>
       </c>
       <c r="W100" s="8">
@@ -15648,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>52000098</v>
       </c>
@@ -15671,7 +15753,7 @@
         <v>6</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I101" s="4">
@@ -15714,7 +15796,7 @@
         <v>0</v>
       </c>
       <c r="V101" s="10">
-        <f t="shared" si="7"/>
+        <f>J101+K101+L101-100+M101+ SUM(O101:U101)*5+IF(ISNUMBER(Z101),Z101,0)+Y101</f>
         <v>6.8000000000000007</v>
       </c>
       <c r="W101" s="8">
@@ -15750,7 +15832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>52000099</v>
       </c>
@@ -15771,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I102" s="4">
@@ -15781,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L102" s="7">
         <v>0</v>
@@ -15805,7 +15887,7 @@
         <v>6</v>
       </c>
       <c r="S102" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T102" s="8">
         <v>0</v>
@@ -15814,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="V102" s="10">
-        <f t="shared" si="7"/>
+        <f>J102+K102+L102-100+M102+ SUM(O102:U102)*5+IF(ISNUMBER(Z102),Z102,0)+Y102</f>
         <v>0</v>
       </c>
       <c r="W102" s="8">
@@ -15846,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>52000100</v>
       </c>
@@ -15869,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I103" s="4">
@@ -15912,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="V103" s="10">
-        <f t="shared" si="7"/>
+        <f>J103+K103+L103-100+M103+ SUM(O103:U103)*5+IF(ISNUMBER(Z103),Z103,0)+Y103</f>
         <v>10.5</v>
       </c>
       <c r="W103" s="8">
@@ -15950,7 +16032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>52000101</v>
       </c>
@@ -15967,20 +16049,20 @@
         <v>2</v>
       </c>
       <c r="F104">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G104" s="4">
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="I104" s="4">
         <v>2</v>
       </c>
       <c r="J104" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K104" s="6">
         <v>0</v>
@@ -15989,7 +16071,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N104" s="8">
         <v>1</v>
@@ -16004,20 +16086,20 @@
         <v>0</v>
       </c>
       <c r="R104" s="8">
+        <v>3</v>
+      </c>
+      <c r="S104" s="8">
+        <v>0</v>
+      </c>
+      <c r="T104" s="8">
+        <v>0</v>
+      </c>
+      <c r="U104" s="8">
+        <v>0</v>
+      </c>
+      <c r="V104" s="10">
+        <f>J104+K104+L104-100+M104+ SUM(O104:U104)*5+IF(ISNUMBER(Z104),Z104,0)+Y104</f>
         <v>5</v>
-      </c>
-      <c r="S104" s="8">
-        <v>0</v>
-      </c>
-      <c r="T104" s="8">
-        <v>0</v>
-      </c>
-      <c r="U104" s="8">
-        <v>0</v>
-      </c>
-      <c r="V104" s="10">
-        <f t="shared" si="7"/>
-        <v>2</v>
       </c>
       <c r="W104" s="8">
         <v>0</v>
@@ -16052,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>52000102</v>
       </c>
@@ -16075,7 +16157,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I105" s="4">
@@ -16118,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="V105" s="10">
-        <f t="shared" si="7"/>
+        <f>J105+K105+L105-100+M105+ SUM(O105:U105)*5+IF(ISNUMBER(Z105),Z105,0)+Y105</f>
         <v>10</v>
       </c>
       <c r="W105" s="8">
@@ -16154,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:33">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>52000103</v>
       </c>
@@ -16175,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I106" s="4">
@@ -16185,7 +16267,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L106" s="7">
         <v>0</v>
@@ -16209,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="S106" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T106" s="8">
         <v>0</v>
@@ -16218,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="V106" s="10">
-        <f t="shared" si="7"/>
+        <f>J106+K106+L106-100+M106+ SUM(O106:U106)*5+IF(ISNUMBER(Z106),Z106,0)+Y106</f>
         <v>7</v>
       </c>
       <c r="W106" s="8">
@@ -16252,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:33">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>52000104</v>
       </c>
@@ -16275,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I107" s="4">
@@ -16318,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="V107" s="10">
-        <f t="shared" si="7"/>
+        <f>J107+K107+L107-100+M107+ SUM(O107:U107)*5+IF(ISNUMBER(Z107),Z107,0)+Y107</f>
         <v>1</v>
       </c>
       <c r="W107" s="8">
@@ -16356,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:33">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>52000105</v>
       </c>
@@ -16377,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I108" s="4">
@@ -16420,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="V108" s="10">
-        <f t="shared" si="7"/>
+        <f>J108+K108+L108-100+M108+ SUM(O108:U108)*5+IF(ISNUMBER(Z108),Z108,0)+Y108</f>
         <v>-2</v>
       </c>
       <c r="W108" s="8">
@@ -16458,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>52000106</v>
       </c>
@@ -16479,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I109" s="4">
@@ -16522,7 +16604,7 @@
         <v>0</v>
       </c>
       <c r="V109" s="10">
-        <f t="shared" si="7"/>
+        <f>J109+K109+L109-100+M109+ SUM(O109:U109)*5+IF(ISNUMBER(Z109),Z109,0)+Y109</f>
         <v>1</v>
       </c>
       <c r="W109" s="8">
@@ -16556,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>52000107</v>
       </c>
@@ -16577,17 +16659,17 @@
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I110" s="4">
         <v>2</v>
       </c>
       <c r="J110" s="6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K110" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L110" s="7">
         <v>0</v>
@@ -16599,7 +16681,7 @@
         <v>4</v>
       </c>
       <c r="O110" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P110" s="8">
         <v>0</v>
@@ -16620,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="V110" s="10">
-        <f t="shared" si="7"/>
+        <f>J110+K110+L110-100+M110+ SUM(O110:U110)*5+IF(ISNUMBER(Z110),Z110,0)+Y110</f>
         <v>3</v>
       </c>
       <c r="W110" s="8">
@@ -16656,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:33">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>52000108</v>
       </c>
@@ -16677,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I111" s="4">
@@ -16720,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="V111" s="10">
-        <f t="shared" si="7"/>
+        <f>J111+K111+L111-100+M111+ SUM(O111:U111)*5+IF(ISNUMBER(Z111),Z111,0)+Y111</f>
         <v>0</v>
       </c>
       <c r="W111" s="8">
@@ -16752,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:33">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>52000109</v>
       </c>
@@ -16775,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I112" s="4">
@@ -16818,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="V112" s="10">
-        <f t="shared" si="7"/>
+        <f>J112+K112+L112-100+M112+ SUM(O112:U112)*5+IF(ISNUMBER(Z112),Z112,0)+Y112</f>
         <v>2</v>
       </c>
       <c r="W112" s="8">
@@ -16854,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:33">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>52000110</v>
       </c>
@@ -16875,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I113" s="4">
@@ -16918,7 +17000,7 @@
         <v>0</v>
       </c>
       <c r="V113" s="10">
-        <f t="shared" si="7"/>
+        <f>J113+K113+L113-100+M113+ SUM(O113:U113)*5+IF(ISNUMBER(Z113),Z113,0)+Y113</f>
         <v>8</v>
       </c>
       <c r="W113" s="8">
@@ -16956,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:33">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>52000111</v>
       </c>
@@ -16977,7 +17059,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I114" s="4">
@@ -17020,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="V114" s="18">
-        <f t="shared" si="7"/>
+        <f>J114+K114+L114-100+M114+ SUM(O114:U114)*5+IF(ISNUMBER(Z114),Z114,0)+Y114</f>
         <v>10</v>
       </c>
       <c r="W114" s="8">
@@ -17054,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:33">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>52000112</v>
       </c>
@@ -17075,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I115" s="4">
@@ -17085,7 +17167,7 @@
         <v>50</v>
       </c>
       <c r="K115" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L115" s="7">
         <v>0</v>
@@ -17097,7 +17179,7 @@
         <v>4</v>
       </c>
       <c r="O115" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P115" s="8">
         <v>0</v>
@@ -17118,7 +17200,7 @@
         <v>0</v>
       </c>
       <c r="V115" s="18">
-        <f t="shared" si="7"/>
+        <f>J115+K115+L115-100+M115+ SUM(O115:U115)*5+IF(ISNUMBER(Z115),Z115,0)+Y115</f>
         <v>5</v>
       </c>
       <c r="W115" s="8">
@@ -17152,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:33">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>52000113</v>
       </c>
@@ -17175,7 +17257,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I116" s="4">
@@ -17218,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="V116" s="36">
-        <f t="shared" si="7"/>
+        <f>J116+K116+L116-100+M116+ SUM(O116:U116)*5+IF(ISNUMBER(Z116),Z116,0)+Y116</f>
         <v>2</v>
       </c>
       <c r="W116" s="8">
@@ -17252,7 +17334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:33">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>52000114</v>
       </c>
@@ -17275,7 +17357,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I117" s="4">
@@ -17318,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="V117" s="36">
-        <f t="shared" si="7"/>
+        <f>J117+K117+L117-100+M117+ SUM(O117:U117)*5+IF(ISNUMBER(Z117),Z117,0)+Y117</f>
         <v>0</v>
       </c>
       <c r="W117" s="8">
@@ -17354,7 +17436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:33">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>52000115</v>
       </c>
@@ -17375,7 +17457,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I118" s="4">
@@ -17418,7 +17500,7 @@
         <v>0</v>
       </c>
       <c r="V118" s="18">
-        <f t="shared" si="7"/>
+        <f>J118+K118+L118-100+M118+ SUM(O118:U118)*5+IF(ISNUMBER(Z118),Z118,0)+Y118</f>
         <v>2</v>
       </c>
       <c r="W118" s="8">
@@ -17456,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:33">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>52000116</v>
       </c>
@@ -17477,7 +17559,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I119" s="4">
@@ -17520,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="V119" s="18">
-        <f t="shared" si="7"/>
+        <f>J119+K119+L119-100+M119+ SUM(O119:U119)*5+IF(ISNUMBER(Z119),Z119,0)+Y119</f>
         <v>1</v>
       </c>
       <c r="W119" s="8">
@@ -17556,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:33">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>52000117</v>
       </c>
@@ -17579,7 +17661,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I120" s="4">
@@ -17622,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="V120" s="18">
-        <f t="shared" si="7"/>
+        <f>J120+K120+L120-100+M120+ SUM(O120:U120)*5+IF(ISNUMBER(Z120),Z120,0)+Y120</f>
         <v>7</v>
       </c>
       <c r="W120" s="8">
@@ -17658,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:33">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>52000118</v>
       </c>
@@ -17679,7 +17761,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I121" s="15">
@@ -17689,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="16">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L121" s="7">
         <v>0</v>
@@ -17701,7 +17783,7 @@
         <v>4</v>
       </c>
       <c r="O121" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P121" s="8">
         <v>0</v>
@@ -17722,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="V121" s="18">
-        <f t="shared" si="7"/>
+        <f>J121+K121+L121-100+M121+ SUM(O121:U121)*5+IF(ISNUMBER(Z121),Z121,0)+Y121</f>
         <v>5</v>
       </c>
       <c r="W121" s="8">
@@ -17756,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:33">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>52000119</v>
       </c>
@@ -17777,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I122" s="15">
@@ -17820,7 +17902,7 @@
         <v>0</v>
       </c>
       <c r="V122" s="35">
-        <f t="shared" si="7"/>
+        <f>J122+K122+L122-100+M122+ SUM(O122:U122)*5+IF(ISNUMBER(Z122),Z122,0)+Y122</f>
         <v>3</v>
       </c>
       <c r="W122" s="8">
@@ -17854,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:33">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>52000120</v>
       </c>
@@ -17875,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I123" s="15">
@@ -17885,7 +17967,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="16">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L123" s="7">
         <v>0</v>
@@ -17897,10 +17979,10 @@
         <v>4</v>
       </c>
       <c r="O123" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P123" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q123" s="8">
         <v>0</v>
@@ -17912,13 +17994,13 @@
         <v>0</v>
       </c>
       <c r="T123" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U123" s="8">
         <v>0</v>
       </c>
       <c r="V123" s="35">
-        <f t="shared" si="7"/>
+        <f>J123+K123+L123-100+M123+ SUM(O123:U123)*5+IF(ISNUMBER(Z123),Z123,0)+Y123</f>
         <v>5</v>
       </c>
       <c r="W123" s="8">
@@ -17952,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:33">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>52000121</v>
       </c>
@@ -17973,7 +18055,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I124" s="15">
@@ -18016,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="V124" s="18">
-        <f t="shared" si="7"/>
+        <f>J124+K124+L124-100+M124+ SUM(O124:U124)*5+IF(ISNUMBER(Z124),Z124,0)+Y124</f>
         <v>9</v>
       </c>
       <c r="W124" s="8">
@@ -18050,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:33">
+    <row r="125" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>52000122</v>
       </c>
@@ -18071,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="41">
-        <f t="shared" ref="H125" si="8">IF(AND(V125&gt;=13,V125&lt;=16),5,IF(AND(V125&gt;=9,V125&lt;=12),4,IF(AND(V125&gt;=5,V125&lt;=8),3,IF(AND(V125&gt;=1,V125&lt;=4),2,IF(AND(V125&gt;=-3,V125&lt;=0),1,IF(AND(V125&gt;=-5,V125&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H125" si="4">IF(AND(V125&gt;=13,V125&lt;=16),5,IF(AND(V125&gt;=9,V125&lt;=12),4,IF(AND(V125&gt;=5,V125&lt;=8),3,IF(AND(V125&gt;=1,V125&lt;=4),2,IF(AND(V125&gt;=-3,V125&lt;=0),1,IF(AND(V125&gt;=-5,V125&lt;=-4),0,6))))))</f>
         <v>3</v>
       </c>
       <c r="I125" s="15">
@@ -18114,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="V125" s="10">
-        <f t="shared" si="7"/>
+        <f>J125+K125+L125-100+M125+ SUM(O125:U125)*5+IF(ISNUMBER(Z125),Z125,0)+Y125</f>
         <v>8</v>
       </c>
       <c r="W125" s="8">
@@ -18148,7 +18230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:33">
+    <row r="126" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>52000123</v>
       </c>
@@ -18169,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="41">
-        <f t="shared" ref="H126:H127" si="9">IF(AND(V126&gt;=13,V126&lt;=16),5,IF(AND(V126&gt;=9,V126&lt;=12),4,IF(AND(V126&gt;=5,V126&lt;=8),3,IF(AND(V126&gt;=1,V126&lt;=4),2,IF(AND(V126&gt;=-3,V126&lt;=0),1,IF(AND(V126&gt;=-5,V126&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H126:H127" si="5">IF(AND(V126&gt;=13,V126&lt;=16),5,IF(AND(V126&gt;=9,V126&lt;=12),4,IF(AND(V126&gt;=5,V126&lt;=8),3,IF(AND(V126&gt;=1,V126&lt;=4),2,IF(AND(V126&gt;=-3,V126&lt;=0),1,IF(AND(V126&gt;=-5,V126&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I126" s="15">
@@ -18212,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="V126" s="10">
-        <f t="shared" ref="V126:V127" si="10">J126+K126+L126-100+M126+ SUM(O126:U126)*5+IF(ISNUMBER(Z126),Z126,0)+Y126</f>
+        <f>J126+K126+L126-100+M126+ SUM(O126:U126)*5+IF(ISNUMBER(Z126),Z126,0)+Y126</f>
         <v>1</v>
       </c>
       <c r="W126" s="8">
@@ -18246,7 +18328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:33">
+    <row r="127" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>52000124</v>
       </c>
@@ -18267,7 +18349,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I127" s="15">
@@ -18310,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="V127" s="10">
-        <f t="shared" si="10"/>
+        <f>J127+K127+L127-100+M127+ SUM(O127:U127)*5+IF(ISNUMBER(Z127),Z127,0)+Y127</f>
         <v>5</v>
       </c>
       <c r="W127" s="8">
@@ -18344,7 +18426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:33">
+    <row r="128" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>52000125</v>
       </c>
@@ -18365,7 +18447,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="41">
-        <f t="shared" ref="H128" si="11">IF(AND(V128&gt;=13,V128&lt;=16),5,IF(AND(V128&gt;=9,V128&lt;=12),4,IF(AND(V128&gt;=5,V128&lt;=8),3,IF(AND(V128&gt;=1,V128&lt;=4),2,IF(AND(V128&gt;=-3,V128&lt;=0),1,IF(AND(V128&gt;=-5,V128&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H128" si="6">IF(AND(V128&gt;=13,V128&lt;=16),5,IF(AND(V128&gt;=9,V128&lt;=12),4,IF(AND(V128&gt;=5,V128&lt;=8),3,IF(AND(V128&gt;=1,V128&lt;=4),2,IF(AND(V128&gt;=-3,V128&lt;=0),1,IF(AND(V128&gt;=-5,V128&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I128" s="15">
@@ -18408,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="V128" s="10">
-        <f t="shared" ref="V128" si="12">J128+K128+L128-100+M128+ SUM(O128:U128)*5+IF(ISNUMBER(Z128),Z128,0)+Y128</f>
+        <f>J128+K128+L128-100+M128+ SUM(O128:U128)*5+IF(ISNUMBER(Z128),Z128,0)+Y128</f>
         <v>0</v>
       </c>
       <c r="W128" s="8">
@@ -18442,7 +18524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:33">
+    <row r="129" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>52000126</v>
       </c>
@@ -18463,7 +18545,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="41">
-        <f t="shared" ref="H129" si="13">IF(AND(V129&gt;=13,V129&lt;=16),5,IF(AND(V129&gt;=9,V129&lt;=12),4,IF(AND(V129&gt;=5,V129&lt;=8),3,IF(AND(V129&gt;=1,V129&lt;=4),2,IF(AND(V129&gt;=-3,V129&lt;=0),1,IF(AND(V129&gt;=-5,V129&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H129:H130" si="7">IF(AND(V129&gt;=13,V129&lt;=16),5,IF(AND(V129&gt;=9,V129&lt;=12),4,IF(AND(V129&gt;=5,V129&lt;=8),3,IF(AND(V129&gt;=1,V129&lt;=4),2,IF(AND(V129&gt;=-3,V129&lt;=0),1,IF(AND(V129&gt;=-5,V129&lt;=-4),0,6))))))</f>
         <v>2</v>
       </c>
       <c r="I129" s="15">
@@ -18506,7 +18588,7 @@
         <v>0</v>
       </c>
       <c r="V129" s="10">
-        <f t="shared" ref="V129" si="14">J129+K129+L129-100+M129+ SUM(O129:U129)*5+IF(ISNUMBER(Z129),Z129,0)+Y129</f>
+        <f>J129+K129+L129-100+M129+ SUM(O129:U129)*5+IF(ISNUMBER(Z129),Z129,0)+Y129</f>
         <v>2</v>
       </c>
       <c r="W129" s="8">
@@ -18537,6 +18619,110 @@
         <v>0</v>
       </c>
       <c r="AG129" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>52000127</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D130" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="E130" s="15">
+        <v>4</v>
+      </c>
+      <c r="F130" s="15">
+        <v>100</v>
+      </c>
+      <c r="G130" s="15">
+        <v>0</v>
+      </c>
+      <c r="H130" s="41">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I130" s="15">
+        <v>4</v>
+      </c>
+      <c r="J130" s="16">
+        <v>40</v>
+      </c>
+      <c r="K130" s="16">
+        <v>0</v>
+      </c>
+      <c r="L130" s="7">
+        <v>0</v>
+      </c>
+      <c r="M130" s="14">
+        <v>0</v>
+      </c>
+      <c r="N130" s="8">
+        <v>7</v>
+      </c>
+      <c r="O130" s="8">
+        <v>0</v>
+      </c>
+      <c r="P130" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="8">
+        <v>0</v>
+      </c>
+      <c r="R130" s="8">
+        <v>0</v>
+      </c>
+      <c r="S130" s="8">
+        <v>0</v>
+      </c>
+      <c r="T130" s="8">
+        <v>0</v>
+      </c>
+      <c r="U130" s="8">
+        <v>0</v>
+      </c>
+      <c r="V130" s="10">
+        <f>J130+K130+L130-100+M130+ SUM(O130:U130)*5+IF(ISNUMBER(Z130),Z130,0)+Y130</f>
+        <v>5</v>
+      </c>
+      <c r="W130" s="8">
+        <v>20</v>
+      </c>
+      <c r="X130" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="8">
+        <v>25</v>
+      </c>
+      <c r="Z130" s="10">
+        <f>IF(ISBLANK(AA130),0, LOOKUP(AA130,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB130/100)</f>
+        <v>40</v>
+      </c>
+      <c r="AA130" s="15">
+        <v>55990106</v>
+      </c>
+      <c r="AB130" s="15">
+        <v>100</v>
+      </c>
+      <c r="AC130" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD130" s="15">
+        <v>11000009</v>
+      </c>
+      <c r="AE130" s="17">
+        <v>127</v>
+      </c>
+      <c r="AF130" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG130" s="15">
         <v>1</v>
       </c>
     </row>
@@ -18735,37 +18921,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H124">
-    <cfRule type="cellIs" dxfId="86" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4:V129">
+  <conditionalFormatting sqref="V4:V130">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -18777,21 +18963,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125:H129">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+  <conditionalFormatting sqref="H125:H130">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V125:V129">
+  <conditionalFormatting sqref="V125:V130">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -18819,26 +19005,27 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="5" max="9" width="4.109375" customWidth="1"/>
-    <col min="10" max="12" width="3.77734375" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="9" width="4.125" customWidth="1"/>
+    <col min="10" max="12" width="3.75" customWidth="1"/>
+    <col min="13" max="13" width="4.375" customWidth="1"/>
     <col min="14" max="21" width="4" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" customWidth="1"/>
+    <col min="22" max="22" width="3.75" customWidth="1"/>
     <col min="23" max="25" width="4" customWidth="1"/>
-    <col min="26" max="26" width="3.77734375" customWidth="1"/>
-    <col min="27" max="28" width="7.109375" customWidth="1"/>
+    <col min="26" max="26" width="3.75" customWidth="1"/>
+    <col min="27" max="28" width="7.125" customWidth="1"/>
     <col min="29" max="30" width="9" customWidth="1"/>
-    <col min="31" max="31" width="7.33203125" customWidth="1"/>
-    <col min="32" max="33" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="7.375" customWidth="1"/>
+    <col min="32" max="33" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="73.2">
+    <row r="1" spans="1:33" ht="69" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>241</v>
       </c>
@@ -18939,7 +19126,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -19040,7 +19227,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -19141,7 +19328,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>52100000</v>
       </c>
@@ -19205,7 +19392,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="10">
-        <f t="shared" ref="V4" si="1">J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</f>
+        <f>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</f>
         <v>-53</v>
       </c>
       <c r="W4" s="14">
@@ -19240,19 +19427,19 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19284,9 +19471,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>338</v>
       </c>
@@ -19294,7 +19484,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10</v>
       </c>
@@ -19305,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>15</v>
       </c>
@@ -19316,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20</v>
       </c>
@@ -19327,7 +19517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>25</v>
       </c>
@@ -19338,7 +19528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>30</v>
       </c>
@@ -19349,7 +19539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>35</v>
       </c>
@@ -19360,7 +19550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>40</v>
       </c>
@@ -19371,7 +19561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>45</v>
       </c>
@@ -19382,7 +19572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>50</v>
       </c>
@@ -19393,7 +19583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>60</v>
       </c>
@@ -19401,7 +19591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>70</v>
       </c>
@@ -19409,7 +19599,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>80</v>
       </c>
@@ -19417,7 +19607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>90</v>
       </c>
@@ -19425,7 +19615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>100</v>
       </c>

--- a/ConfigData/Xlsx/Weapon.xlsx
+++ b/ConfigData/Xlsx/Weapon.xlsx
@@ -2270,138 +2270,6 @@
   <dxfs count="87">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3003,6 +2871,44 @@
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3635,6 +3541,100 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5299,7 +5299,7 @@
             <v>55990106</v>
           </cell>
           <cell r="X206">
-            <v>40</v>
+            <v>80</v>
           </cell>
         </row>
       </sheetData>
@@ -5310,102 +5310,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG130" totalsRowShown="0" dataDxfId="86" tableBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AG130" totalsRowShown="0" dataDxfId="73" tableBorderDxfId="72">
   <autoFilter ref="A3:AG130"/>
   <sortState ref="A4:AF124">
     <sortCondition ref="A3:A124"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="84"/>
-    <tableColumn id="2" name="Name" dataDxfId="83"/>
-    <tableColumn id="3" name="Ename" dataDxfId="82"/>
-    <tableColumn id="4" name="Remark" dataDxfId="81"/>
-    <tableColumn id="5" name="Star" dataDxfId="80"/>
-    <tableColumn id="6" name="Type" dataDxfId="79"/>
-    <tableColumn id="7" name="Attr" dataDxfId="78"/>
-    <tableColumn id="34" name="Quality" dataDxfId="77">
+    <tableColumn id="1" name="Id" dataDxfId="71"/>
+    <tableColumn id="2" name="Name" dataDxfId="70"/>
+    <tableColumn id="3" name="Ename" dataDxfId="69"/>
+    <tableColumn id="4" name="Remark" dataDxfId="68"/>
+    <tableColumn id="5" name="Star" dataDxfId="67"/>
+    <tableColumn id="6" name="Type" dataDxfId="66"/>
+    <tableColumn id="7" name="Attr" dataDxfId="65"/>
+    <tableColumn id="34" name="Quality" dataDxfId="64">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="76"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="75"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="74"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="73"/>
-    <tableColumn id="25" name="Modify" dataDxfId="72"/>
-    <tableColumn id="27" name="Dura" dataDxfId="71"/>
-    <tableColumn id="20" name="Def" dataDxfId="70"/>
-    <tableColumn id="21" name="Mag" dataDxfId="69"/>
-    <tableColumn id="29" name="Spd" dataDxfId="68"/>
-    <tableColumn id="30" name="Hit" dataDxfId="67"/>
-    <tableColumn id="19" name="Dhit" dataDxfId="66"/>
-    <tableColumn id="12" name="Crt" dataDxfId="65"/>
-    <tableColumn id="11" name="Luk" dataDxfId="64"/>
-    <tableColumn id="32" name="Sum" dataDxfId="63">
+    <tableColumn id="15" name="Cost" dataDxfId="63"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="62"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="61"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="60"/>
+    <tableColumn id="25" name="Modify" dataDxfId="59"/>
+    <tableColumn id="27" name="Dura" dataDxfId="58"/>
+    <tableColumn id="20" name="Def" dataDxfId="57"/>
+    <tableColumn id="21" name="Mag" dataDxfId="56"/>
+    <tableColumn id="29" name="Spd" dataDxfId="55"/>
+    <tableColumn id="30" name="Hit" dataDxfId="54"/>
+    <tableColumn id="19" name="Dhit" dataDxfId="53"/>
+    <tableColumn id="12" name="Crt" dataDxfId="52"/>
+    <tableColumn id="11" name="Luk" dataDxfId="51"/>
+    <tableColumn id="32" name="Sum" dataDxfId="50">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="62"/>
-    <tableColumn id="31" name="Mov" dataDxfId="61"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="60"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="59">
+    <tableColumn id="10" name="Range" dataDxfId="49"/>
+    <tableColumn id="31" name="Mov" dataDxfId="48"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="47"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="46">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="58"/>
-    <tableColumn id="14" name="Percent" dataDxfId="57"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="56"/>
-    <tableColumn id="26" name="JobId" dataDxfId="55"/>
-    <tableColumn id="18" name="Icon" dataDxfId="54"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="53"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="52"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="45"/>
+    <tableColumn id="14" name="Percent" dataDxfId="44"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="43"/>
+    <tableColumn id="26" name="JobId" dataDxfId="42"/>
+    <tableColumn id="18" name="Icon" dataDxfId="41"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="40"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AG4" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A3:AG4"/>
   <sortState ref="A4:W130">
     <sortCondition ref="A3:A130"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="1" name="Id" dataDxfId="49"/>
-    <tableColumn id="2" name="Name" dataDxfId="48"/>
-    <tableColumn id="3" name="Ename" dataDxfId="47"/>
-    <tableColumn id="4" name="Remark" dataDxfId="46"/>
-    <tableColumn id="5" name="Star" dataDxfId="45"/>
-    <tableColumn id="6" name="Type" dataDxfId="44"/>
-    <tableColumn id="7" name="Attr" dataDxfId="43"/>
-    <tableColumn id="34" name="Quality" dataDxfId="42">
+    <tableColumn id="1" name="Id" dataDxfId="31"/>
+    <tableColumn id="2" name="Name" dataDxfId="30"/>
+    <tableColumn id="3" name="Ename" dataDxfId="29"/>
+    <tableColumn id="4" name="Remark" dataDxfId="28"/>
+    <tableColumn id="5" name="Star" dataDxfId="27"/>
+    <tableColumn id="6" name="Type" dataDxfId="26"/>
+    <tableColumn id="7" name="Attr" dataDxfId="25"/>
+    <tableColumn id="34" name="Quality" dataDxfId="24">
       <calculatedColumnFormula>IF(AND(V4&gt;=13,V4&lt;=16),5,IF(AND(V4&gt;=9,V4&lt;=12),4,IF(AND(V4&gt;=5,V4&lt;=8),3,IF(AND(V4&gt;=1,V4&lt;=4),2,IF(AND(V4&gt;=-3,V4&lt;=0),1,IF(AND(V4&gt;=-5,V4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Cost" dataDxfId="41"/>
-    <tableColumn id="8" name="AtkP" dataDxfId="40"/>
-    <tableColumn id="9" name="PArmor" dataDxfId="39"/>
-    <tableColumn id="17" name="MArmor" dataDxfId="38"/>
-    <tableColumn id="25" name="Modify" dataDxfId="37"/>
-    <tableColumn id="31" name="Dura" dataDxfId="36"/>
-    <tableColumn id="11" name="Def" dataDxfId="35"/>
-    <tableColumn id="21" name="Mag" dataDxfId="34"/>
-    <tableColumn id="29" name="Spd" dataDxfId="33"/>
-    <tableColumn id="30" name="Hit" dataDxfId="32"/>
-    <tableColumn id="20" name="Dhit" dataDxfId="31"/>
-    <tableColumn id="19" name="Crt" dataDxfId="30"/>
-    <tableColumn id="12" name="Luk" dataDxfId="29"/>
-    <tableColumn id="32" name="Sum" dataDxfId="28">
+    <tableColumn id="15" name="Cost" dataDxfId="23"/>
+    <tableColumn id="8" name="AtkP" dataDxfId="22"/>
+    <tableColumn id="9" name="PArmor" dataDxfId="21"/>
+    <tableColumn id="17" name="MArmor" dataDxfId="20"/>
+    <tableColumn id="25" name="Modify" dataDxfId="19"/>
+    <tableColumn id="31" name="Dura" dataDxfId="18"/>
+    <tableColumn id="11" name="Def" dataDxfId="17"/>
+    <tableColumn id="21" name="Mag" dataDxfId="16"/>
+    <tableColumn id="29" name="Spd" dataDxfId="15"/>
+    <tableColumn id="30" name="Hit" dataDxfId="14"/>
+    <tableColumn id="20" name="Dhit" dataDxfId="13"/>
+    <tableColumn id="19" name="Crt" dataDxfId="12"/>
+    <tableColumn id="12" name="Luk" dataDxfId="11"/>
+    <tableColumn id="32" name="Sum" dataDxfId="10">
       <calculatedColumnFormula>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Range" dataDxfId="27"/>
-    <tableColumn id="27" name="Mov" dataDxfId="26"/>
-    <tableColumn id="24" name="~SkillMark" dataDxfId="25"/>
-    <tableColumn id="33" name="~SkillMark2" dataDxfId="24">
+    <tableColumn id="10" name="Range" dataDxfId="9"/>
+    <tableColumn id="27" name="Mov" dataDxfId="8"/>
+    <tableColumn id="24" name="~SkillMark" dataDxfId="7"/>
+    <tableColumn id="33" name="~SkillMark2" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(AA4),0, LOOKUP(AA4,[1]Skill!$A:$A,[1]Skill!$X:$X)*AB4/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="SkillId" dataDxfId="23"/>
-    <tableColumn id="14" name="Percent" dataDxfId="22"/>
-    <tableColumn id="16" name="Arrow" dataDxfId="21"/>
+    <tableColumn id="13" name="SkillId" dataDxfId="5"/>
+    <tableColumn id="14" name="Percent" dataDxfId="4"/>
+    <tableColumn id="16" name="Arrow" dataDxfId="3"/>
     <tableColumn id="26" name="JobId"/>
-    <tableColumn id="18" name="Icon" dataDxfId="20"/>
-    <tableColumn id="22" name="IsSpecial" dataDxfId="19"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="18"/>
+    <tableColumn id="18" name="Icon" dataDxfId="2"/>
+    <tableColumn id="22" name="IsSpecial" dataDxfId="1"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5735,10 +5735,10 @@
   <dimension ref="A1:AG130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="M130" sqref="M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="10">
-        <f>J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</f>
+        <f t="shared" ref="V4:V35" si="1">J4+K4+L4-100+M4+ SUM(O4:U4)*5+IF(ISNUMBER(Z4),Z4,0)+Y4</f>
         <v>-5</v>
       </c>
       <c r="W4" s="8">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="10">
-        <f>J5+K5+L5-100+M5+ SUM(O5:U5)*5+IF(ISNUMBER(Z5),Z5,0)+Y5</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="W5" s="8">
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="10">
-        <f>J6+K6+L6-100+M6+ SUM(O6:U6)*5+IF(ISNUMBER(Z6),Z6,0)+Y6</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="W6" s="8">
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="10">
-        <f>J7+K7+L7-100+M7+ SUM(O7:U7)*5+IF(ISNUMBER(Z7),Z7,0)+Y7</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="W7" s="8">
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="18">
-        <f>J8+K8+L8-100+M8+ SUM(O8:U8)*5+IF(ISNUMBER(Z8),Z8,0)+Y8</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="W8" s="8">
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="10">
-        <f>J9+K9+L9-100+M9+ SUM(O9:U9)*5+IF(ISNUMBER(Z9),Z9,0)+Y9</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="W9" s="8">
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="10">
-        <f>J10+K10+L10-100+M10+ SUM(O10:U10)*5+IF(ISNUMBER(Z10),Z10,0)+Y10</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="W10" s="8">
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="18">
-        <f>J11+K11+L11-100+M11+ SUM(O11:U11)*5+IF(ISNUMBER(Z11),Z11,0)+Y11</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="W11" s="8">
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="18">
-        <f>J12+K12+L12-100+M12+ SUM(O12:U12)*5+IF(ISNUMBER(Z12),Z12,0)+Y12</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W12" s="8">
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="10">
-        <f>J13+K13+L13-100+M13+ SUM(O13:U13)*5+IF(ISNUMBER(Z13),Z13,0)+Y13</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W13" s="8">
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="18">
-        <f>J14+K14+L14-100+M14+ SUM(O14:U14)*5+IF(ISNUMBER(Z14),Z14,0)+Y14</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W14" s="8">
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="10">
-        <f>J15+K15+L15-100+M15+ SUM(O15:U15)*5+IF(ISNUMBER(Z15),Z15,0)+Y15</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W15" s="8">
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="10">
-        <f>J16+K16+L16-100+M16+ SUM(O16:U16)*5+IF(ISNUMBER(Z16),Z16,0)+Y16</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W16" s="8">
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="18">
-        <f>J17+K17+L17-100+M17+ SUM(O17:U17)*5+IF(ISNUMBER(Z17),Z17,0)+Y17</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W17" s="8">
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="10">
-        <f>J18+K18+L18-100+M18+ SUM(O18:U18)*5+IF(ISNUMBER(Z18),Z18,0)+Y18</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W18" s="8">
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" s="8">
         <v>0</v>
@@ -7620,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="18">
-        <f>J19+K19+L19-100+M19+ SUM(O19:U19)*5+IF(ISNUMBER(Z19),Z19,0)+Y19</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="W19" s="8">
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="10">
-        <f>J20+K20+L20-100+M20+ SUM(O20:U20)*5+IF(ISNUMBER(Z20),Z20,0)+Y20</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="W20" s="8">
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="18">
-        <f>J21+K21+L21-100+M21+ SUM(O21:U21)*5+IF(ISNUMBER(Z21),Z21,0)+Y21</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="W21" s="8">
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="10">
-        <f>J22+K22+L22-100+M22+ SUM(O22:U22)*5+IF(ISNUMBER(Z22),Z22,0)+Y22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W22" s="8">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="10">
-        <f>J23+K23+L23-100+M23+ SUM(O23:U23)*5+IF(ISNUMBER(Z23),Z23,0)+Y23</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="W23" s="8">
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="10">
-        <f>J24+K24+L24-100+M24+ SUM(O24:U24)*5+IF(ISNUMBER(Z24),Z24,0)+Y24</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W24" s="8">
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="10">
-        <f>J25+K25+L25-100+M25+ SUM(O25:U25)*5+IF(ISNUMBER(Z25),Z25,0)+Y25</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="W25" s="8">
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="10">
-        <f>J26+K26+L26-100+M26+ SUM(O26:U26)*5+IF(ISNUMBER(Z26),Z26,0)+Y26</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="W26" s="8">
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="10">
-        <f>J27+K27+L27-100+M27+ SUM(O27:U27)*5+IF(ISNUMBER(Z27),Z27,0)+Y27</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="W27" s="8">
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="18">
-        <f>J28+K28+L28-100+M28+ SUM(O28:U28)*5+IF(ISNUMBER(Z28),Z28,0)+Y28</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="W28" s="8">
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="10">
-        <f>J29+K29+L29-100+M29+ SUM(O29:U29)*5+IF(ISNUMBER(Z29),Z29,0)+Y29</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W29" s="8">
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="18">
-        <f>J30+K30+L30-100+M30+ SUM(O30:U30)*5+IF(ISNUMBER(Z30),Z30,0)+Y30</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W30" s="8">
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="10">
-        <f>J31+K31+L31-100+M31+ SUM(O31:U31)*5+IF(ISNUMBER(Z31),Z31,0)+Y31</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W31" s="8">
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="10">
-        <f>J32+K32+L32-100+M32+ SUM(O32:U32)*5+IF(ISNUMBER(Z32),Z32,0)+Y32</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W32" s="8">
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="10">
-        <f>J33+K33+L33-100+M33+ SUM(O33:U33)*5+IF(ISNUMBER(Z33),Z33,0)+Y33</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W33" s="8">
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="10">
-        <f>J34+K34+L34-100+M34+ SUM(O34:U34)*5+IF(ISNUMBER(Z34),Z34,0)+Y34</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="W34" s="8">
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="18">
-        <f>J35+K35+L35-100+M35+ SUM(O35:U35)*5+IF(ISNUMBER(Z35),Z35,0)+Y35</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W35" s="8">
@@ -9293,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" ref="H36:H67" si="1">IF(AND(V36&gt;=13,V36&lt;=16),5,IF(AND(V36&gt;=9,V36&lt;=12),4,IF(AND(V36&gt;=5,V36&lt;=8),3,IF(AND(V36&gt;=1,V36&lt;=4),2,IF(AND(V36&gt;=-3,V36&lt;=0),1,IF(AND(V36&gt;=-5,V36&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H36:H67" si="2">IF(AND(V36&gt;=13,V36&lt;=16),5,IF(AND(V36&gt;=9,V36&lt;=12),4,IF(AND(V36&gt;=5,V36&lt;=8),3,IF(AND(V36&gt;=1,V36&lt;=4),2,IF(AND(V36&gt;=-3,V36&lt;=0),1,IF(AND(V36&gt;=-5,V36&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I36" s="4">
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="10">
-        <f>J36+K36+L36-100+M36+ SUM(O36:U36)*5+IF(ISNUMBER(Z36),Z36,0)+Y36</f>
+        <f t="shared" ref="V36:V67" si="3">J36+K36+L36-100+M36+ SUM(O36:U36)*5+IF(ISNUMBER(Z36),Z36,0)+Y36</f>
         <v>0</v>
       </c>
       <c r="W36" s="8">
@@ -9389,7 +9389,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I37" s="4">
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="10">
-        <f>J37+K37+L37-100+M37+ SUM(O37:U37)*5+IF(ISNUMBER(Z37),Z37,0)+Y37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W37" s="8">
@@ -9487,7 +9487,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I38" s="4">
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="10">
-        <f>J38+K38+L38-100+M38+ SUM(O38:U38)*5+IF(ISNUMBER(Z38),Z38,0)+Y38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W38" s="8">
@@ -9585,7 +9585,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I39" s="4">
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="10">
-        <f>J39+K39+L39-100+M39+ SUM(O39:U39)*5+IF(ISNUMBER(Z39),Z39,0)+Y39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W39" s="8">
@@ -9683,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I40" s="4">
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="10">
-        <f>J40+K40+L40-100+M40+ SUM(O40:U40)*5+IF(ISNUMBER(Z40),Z40,0)+Y40</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W40" s="8">
@@ -9787,7 +9787,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I41" s="4">
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="10">
-        <f>J41+K41+L41-100+M41+ SUM(O41:U41)*5+IF(ISNUMBER(Z41),Z41,0)+Y41</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="W41" s="8">
@@ -9889,7 +9889,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I42" s="4">
@@ -9932,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="10">
-        <f>J42+K42+L42-100+M42+ SUM(O42:U42)*5+IF(ISNUMBER(Z42),Z42,0)+Y42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W42" s="8">
@@ -9987,7 +9987,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I43" s="4">
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="10">
-        <f>J43+K43+L43-100+M43+ SUM(O43:U43)*5+IF(ISNUMBER(Z43),Z43,0)+Y43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W43" s="8">
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I44" s="4">
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="10">
-        <f>J44+K44+L44-100+M44+ SUM(O44:U44)*5+IF(ISNUMBER(Z44),Z44,0)+Y44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W44" s="8">
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I45" s="4">
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="10">
-        <f>J45+K45+L45-100+M45+ SUM(O45:U45)*5+IF(ISNUMBER(Z45),Z45,0)+Y45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W45" s="8">
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I46" s="4">
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="10">
-        <f>J46+K46+L46-100+M46+ SUM(O46:U46)*5+IF(ISNUMBER(Z46),Z46,0)+Y46</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="W46" s="8">
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I47" s="4">
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="10">
-        <f>J47+K47+L47-100+M47+ SUM(O47:U47)*5+IF(ISNUMBER(Z47),Z47,0)+Y47</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="W47" s="8">
@@ -10481,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I48" s="4">
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="10">
-        <f>J48+K48+L48-100+M48+ SUM(O48:U48)*5+IF(ISNUMBER(Z48),Z48,0)+Y48</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="W48" s="8">
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I49" s="4">
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="10">
-        <f>J49+K49+L49-100+M49+ SUM(O49:U49)*5+IF(ISNUMBER(Z49),Z49,0)+Y49</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W49" s="8">
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I50" s="4">
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="10">
-        <f>J50+K50+L50-100+M50+ SUM(O50:U50)*5+IF(ISNUMBER(Z50),Z50,0)+Y50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W50" s="8">
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I51" s="4">
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="10">
-        <f>J51+K51+L51-100+M51+ SUM(O51:U51)*5+IF(ISNUMBER(Z51),Z51,0)+Y51</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W51" s="8">
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I52" s="4">
@@ -10918,7 +10918,7 @@
         <v>2</v>
       </c>
       <c r="V52" s="10">
-        <f>J52+K52+L52-100+M52+ SUM(O52:U52)*5+IF(ISNUMBER(Z52),Z52,0)+Y52</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W52" s="8">
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I53" s="4">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="10">
-        <f>J53+K53+L53-100+M53+ SUM(O53:U53)*5+IF(ISNUMBER(Z53),Z53,0)+Y53</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W53" s="8">
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I54" s="4">
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="10">
-        <f>J54+K54+L54-100+M54+ SUM(O54:U54)*5+IF(ISNUMBER(Z54),Z54,0)+Y54</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="W54" s="8">
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I55" s="4">
@@ -11210,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="10">
-        <f>J55+K55+L55-100+M55+ SUM(O55:U55)*5+IF(ISNUMBER(Z55),Z55,0)+Y55</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="W55" s="8">
@@ -11263,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I56" s="4">
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="10">
-        <f>J56+K56+L56-100+M56+ SUM(O56:U56)*5+IF(ISNUMBER(Z56),Z56,0)+Y56</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W56" s="8">
@@ -11361,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I57" s="4">
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="10">
-        <f>J57+K57+L57-100+M57+ SUM(O57:U57)*5+IF(ISNUMBER(Z57),Z57,0)+Y57</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W57" s="8">
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I58" s="4">
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="10">
-        <f>J58+K58+L58-100+M58+ SUM(O58:U58)*5+IF(ISNUMBER(Z58),Z58,0)+Y58</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W58" s="8">
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I59" s="4">
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="10">
-        <f>J59+K59+L59-100+M59+ SUM(O59:U59)*5+IF(ISNUMBER(Z59),Z59,0)+Y59</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="W59" s="8">
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I60" s="4">
@@ -11696,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="10">
-        <f>J60+K60+L60-100+M60+ SUM(O60:U60)*5+IF(ISNUMBER(Z60),Z60,0)+Y60</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="W60" s="8">
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I61" s="4">
@@ -11794,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="10">
-        <f>J61+K61+L61-100+M61+ SUM(O61:U61)*5+IF(ISNUMBER(Z61),Z61,0)+Y61</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="W61" s="8">
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I62" s="4">
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="10">
-        <f>J62+K62+L62-100+M62+ SUM(O62:U62)*5+IF(ISNUMBER(Z62),Z62,0)+Y62</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="W62" s="8">
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I63" s="4">
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="10">
-        <f>J63+K63+L63-100+M63+ SUM(O63:U63)*5+IF(ISNUMBER(Z63),Z63,0)+Y63</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W63" s="8">
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I64" s="4">
@@ -12098,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="10">
-        <f>J64+K64+L64-100+M64+ SUM(O64:U64)*5+IF(ISNUMBER(Z64),Z64,0)+Y64</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="W64" s="8">
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I65" s="4">
@@ -12198,7 +12198,7 @@
         <v>3</v>
       </c>
       <c r="V65" s="10">
-        <f>J65+K65+L65-100+M65+ SUM(O65:U65)*5+IF(ISNUMBER(Z65),Z65,0)+Y65</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="W65" s="8">
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I66" s="4">
@@ -12302,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="10">
-        <f>J66+K66+L66-100+M66+ SUM(O66:U66)*5+IF(ISNUMBER(Z66),Z66,0)+Y66</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="W66" s="8">
@@ -12355,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I67" s="4">
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="10">
-        <f>J67+K67+L67-100+M67+ SUM(O67:U67)*5+IF(ISNUMBER(Z67),Z67,0)+Y67</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W67" s="8">
@@ -12450,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H99" si="2">IF(AND(V68&gt;=13,V68&lt;=16),5,IF(AND(V68&gt;=9,V68&lt;=12),4,IF(AND(V68&gt;=5,V68&lt;=8),3,IF(AND(V68&gt;=1,V68&lt;=4),2,IF(AND(V68&gt;=-3,V68&lt;=0),1,IF(AND(V68&gt;=-5,V68&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H68:H99" si="4">IF(AND(V68&gt;=13,V68&lt;=16),5,IF(AND(V68&gt;=9,V68&lt;=12),4,IF(AND(V68&gt;=5,V68&lt;=8),3,IF(AND(V68&gt;=1,V68&lt;=4),2,IF(AND(V68&gt;=-3,V68&lt;=0),1,IF(AND(V68&gt;=-5,V68&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I68" s="4">
@@ -12493,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="10">
-        <f>J68+K68+L68-100+M68+ SUM(O68:U68)*5+IF(ISNUMBER(Z68),Z68,0)+Y68</f>
+        <f t="shared" ref="V68:V99" si="5">J68+K68+L68-100+M68+ SUM(O68:U68)*5+IF(ISNUMBER(Z68),Z68,0)+Y68</f>
         <v>-1</v>
       </c>
       <c r="W68" s="8">
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I69" s="4">
@@ -12591,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="V69" s="10">
-        <f>J69+K69+L69-100+M69+ SUM(O69:U69)*5+IF(ISNUMBER(Z69),Z69,0)+Y69</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W69" s="8">
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I70" s="4">
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="10">
-        <f>J70+K70+L70-100+M70+ SUM(O70:U70)*5+IF(ISNUMBER(Z70),Z70,0)+Y70</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W70" s="8">
@@ -12740,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I71" s="4">
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="V71" s="10">
-        <f>J71+K71+L71-100+M71+ SUM(O71:U71)*5+IF(ISNUMBER(Z71),Z71,0)+Y71</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W71" s="8">
@@ -12836,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I72" s="4">
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="V72" s="10">
-        <f>J72+K72+L72-100+M72+ SUM(O72:U72)*5+IF(ISNUMBER(Z72),Z72,0)+Y72</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W72" s="8">
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I73" s="4">
@@ -12974,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="10">
-        <f>J73+K73+L73-100+M73+ SUM(O73:U73)*5+IF(ISNUMBER(Z73),Z73,0)+Y73</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W73" s="8">
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I74" s="4">
@@ -13076,7 +13076,7 @@
         <v>0</v>
       </c>
       <c r="V74" s="10">
-        <f>J74+K74+L74-100+M74+ SUM(O74:U74)*5+IF(ISNUMBER(Z74),Z74,0)+Y74</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="W74" s="8">
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I75" s="4">
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="V75" s="10">
-        <f>J75+K75+L75-100+M75+ SUM(O75:U75)*5+IF(ISNUMBER(Z75),Z75,0)+Y75</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W75" s="8">
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I76" s="4">
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="V76" s="10">
-        <f>J76+K76+L76-100+M76+ SUM(O76:U76)*5+IF(ISNUMBER(Z76),Z76,0)+Y76</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="W76" s="8">
@@ -13337,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I77" s="4">
@@ -13380,7 +13380,7 @@
         <v>0</v>
       </c>
       <c r="V77" s="10">
-        <f>J77+K77+L77-100+M77+ SUM(O77:U77)*5+IF(ISNUMBER(Z77),Z77,0)+Y77</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W77" s="8">
@@ -13439,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I78" s="4">
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="V78" s="10">
-        <f>J78+K78+L78-100+M78+ SUM(O78:U78)*5+IF(ISNUMBER(Z78),Z78,0)+Y78</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="W78" s="8">
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I79" s="4">
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="V79" s="10">
-        <f>J79+K79+L79-100+M79+ SUM(O79:U79)*5+IF(ISNUMBER(Z79),Z79,0)+Y79</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W79" s="8">
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I80" s="4">
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="V80" s="10">
-        <f>J80+K80+L80-100+M80+ SUM(O80:U80)*5+IF(ISNUMBER(Z80),Z80,0)+Y80</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="W80" s="8">
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I81" s="4">
@@ -13788,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="V81" s="10">
-        <f>J81+K81+L81-100+M81+ SUM(O81:U81)*5+IF(ISNUMBER(Z81),Z81,0)+Y81</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="W81" s="8">
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I82" s="4">
@@ -13890,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="V82" s="10">
-        <f>J82+K82+L82-100+M82+ SUM(O82:U82)*5+IF(ISNUMBER(Z82),Z82,0)+Y82</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W82" s="8">
@@ -13949,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I83" s="4">
@@ -13992,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="V83" s="10">
-        <f>J83+K83+L83-100+M83+ SUM(O83:U83)*5+IF(ISNUMBER(Z83),Z83,0)+Y83</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="W83" s="8">
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I84" s="4">
@@ -14094,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="V84" s="10">
-        <f>J84+K84+L84-100+M84+ SUM(O84:U84)*5+IF(ISNUMBER(Z84),Z84,0)+Y84</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W84" s="8">
@@ -14151,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I85" s="4">
@@ -14194,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="V85" s="10">
-        <f>J85+K85+L85-100+M85+ SUM(O85:U85)*5+IF(ISNUMBER(Z85),Z85,0)+Y85</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W85" s="8">
@@ -14247,7 +14247,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I86" s="4">
@@ -14290,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="V86" s="10">
-        <f>J86+K86+L86-100+M86+ SUM(O86:U86)*5+IF(ISNUMBER(Z86),Z86,0)+Y86</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W86" s="8">
@@ -14345,7 +14345,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I87" s="4">
@@ -14388,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="V87" s="10">
-        <f>J87+K87+L87-100+M87+ SUM(O87:U87)*5+IF(ISNUMBER(Z87),Z87,0)+Y87</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W87" s="8">
@@ -14443,7 +14443,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I88" s="4">
@@ -14486,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="V88" s="10">
-        <f>J88+K88+L88-100+M88+ SUM(O88:U88)*5+IF(ISNUMBER(Z88),Z88,0)+Y88</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W88" s="8">
@@ -14541,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I89" s="4">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="V89" s="10">
-        <f>J89+K89+L89-100+M89+ SUM(O89:U89)*5+IF(ISNUMBER(Z89),Z89,0)+Y89</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="W89" s="8">
@@ -14645,7 +14645,7 @@
         <v>5</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I90" s="4">
@@ -14688,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="V90" s="10">
-        <f>J90+K90+L90-100+M90+ SUM(O90:U90)*5+IF(ISNUMBER(Z90),Z90,0)+Y90</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="W90" s="8">
@@ -14747,7 +14747,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I91" s="4">
@@ -14790,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="V91" s="10">
-        <f>J91+K91+L91-100+M91+ SUM(O91:U91)*5+IF(ISNUMBER(Z91),Z91,0)+Y91</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W91" s="8">
@@ -14845,7 +14845,7 @@
         <v>6</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I92" s="4">
@@ -14888,7 +14888,7 @@
         <v>0</v>
       </c>
       <c r="V92" s="10">
-        <f>J92+K92+L92-100+M92+ SUM(O92:U92)*5+IF(ISNUMBER(Z92),Z92,0)+Y92</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W92" s="8">
@@ -14943,7 +14943,7 @@
         <v>3</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I93" s="4">
@@ -14986,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="V93" s="10">
-        <f>J93+K93+L93-100+M93+ SUM(O93:U93)*5+IF(ISNUMBER(Z93),Z93,0)+Y93</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W93" s="8">
@@ -15041,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I94" s="4">
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="V94" s="10">
-        <f>J94+K94+L94-100+M94+ SUM(O94:U94)*5+IF(ISNUMBER(Z94),Z94,0)+Y94</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="W94" s="8">
@@ -15145,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I95" s="4">
@@ -15188,7 +15188,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="10">
-        <f>J95+K95+L95-100+M95+ SUM(O95:U95)*5+IF(ISNUMBER(Z95),Z95,0)+Y95</f>
+        <f t="shared" si="5"/>
         <v>-0.59999999999999964</v>
       </c>
       <c r="W95" s="8">
@@ -15247,7 +15247,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I96" s="4">
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="10">
-        <f>J96+K96+L96-100+M96+ SUM(O96:U96)*5+IF(ISNUMBER(Z96),Z96,0)+Y96</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="W96" s="8">
@@ -15345,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I97" s="4">
@@ -15388,7 +15388,7 @@
         <v>0</v>
       </c>
       <c r="V97" s="10">
-        <f>J97+K97+L97-100+M97+ SUM(O97:U97)*5+IF(ISNUMBER(Z97),Z97,0)+Y97</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W97" s="8">
@@ -15443,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I98" s="4">
@@ -15486,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="V98" s="18">
-        <f>J98+K98+L98-100+M98+ SUM(O98:U98)*5+IF(ISNUMBER(Z98),Z98,0)+Y98</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W98" s="8">
@@ -15547,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I99" s="4">
@@ -15590,7 +15590,7 @@
         <v>0</v>
       </c>
       <c r="V99" s="10">
-        <f>J99+K99+L99-100+M99+ SUM(O99:U99)*5+IF(ISNUMBER(Z99),Z99,0)+Y99</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="W99" s="8">
@@ -15649,7 +15649,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" ref="H100:H124" si="3">IF(AND(V100&gt;=13,V100&lt;=16),5,IF(AND(V100&gt;=9,V100&lt;=12),4,IF(AND(V100&gt;=5,V100&lt;=8),3,IF(AND(V100&gt;=1,V100&lt;=4),2,IF(AND(V100&gt;=-3,V100&lt;=0),1,IF(AND(V100&gt;=-5,V100&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H100:H124" si="6">IF(AND(V100&gt;=13,V100&lt;=16),5,IF(AND(V100&gt;=9,V100&lt;=12),4,IF(AND(V100&gt;=5,V100&lt;=8),3,IF(AND(V100&gt;=1,V100&lt;=4),2,IF(AND(V100&gt;=-3,V100&lt;=0),1,IF(AND(V100&gt;=-5,V100&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I100" s="4">
@@ -15692,7 +15692,7 @@
         <v>0</v>
       </c>
       <c r="V100" s="10">
-        <f>J100+K100+L100-100+M100+ SUM(O100:U100)*5+IF(ISNUMBER(Z100),Z100,0)+Y100</f>
+        <f t="shared" ref="V100:V131" si="7">J100+K100+L100-100+M100+ SUM(O100:U100)*5+IF(ISNUMBER(Z100),Z100,0)+Y100</f>
         <v>0</v>
       </c>
       <c r="W100" s="8">
@@ -15753,7 +15753,7 @@
         <v>6</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I101" s="4">
@@ -15796,7 +15796,7 @@
         <v>0</v>
       </c>
       <c r="V101" s="10">
-        <f>J101+K101+L101-100+M101+ SUM(O101:U101)*5+IF(ISNUMBER(Z101),Z101,0)+Y101</f>
+        <f t="shared" si="7"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="W101" s="8">
@@ -15853,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I102" s="4">
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="V102" s="10">
-        <f>J102+K102+L102-100+M102+ SUM(O102:U102)*5+IF(ISNUMBER(Z102),Z102,0)+Y102</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W102" s="8">
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I103" s="4">
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="V103" s="10">
-        <f>J103+K103+L103-100+M103+ SUM(O103:U103)*5+IF(ISNUMBER(Z103),Z103,0)+Y103</f>
+        <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
       <c r="W103" s="8">
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I104" s="4">
@@ -16098,7 +16098,7 @@
         <v>0</v>
       </c>
       <c r="V104" s="10">
-        <f>J104+K104+L104-100+M104+ SUM(O104:U104)*5+IF(ISNUMBER(Z104),Z104,0)+Y104</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="W104" s="8">
@@ -16157,7 +16157,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I105" s="4">
@@ -16200,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="V105" s="10">
-        <f>J105+K105+L105-100+M105+ SUM(O105:U105)*5+IF(ISNUMBER(Z105),Z105,0)+Y105</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="W105" s="8">
@@ -16257,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I106" s="4">
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="V106" s="10">
-        <f>J106+K106+L106-100+M106+ SUM(O106:U106)*5+IF(ISNUMBER(Z106),Z106,0)+Y106</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="W106" s="8">
@@ -16357,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I107" s="4">
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="V107" s="10">
-        <f>J107+K107+L107-100+M107+ SUM(O107:U107)*5+IF(ISNUMBER(Z107),Z107,0)+Y107</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W107" s="8">
@@ -16459,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I108" s="4">
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="V108" s="10">
-        <f>J108+K108+L108-100+M108+ SUM(O108:U108)*5+IF(ISNUMBER(Z108),Z108,0)+Y108</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="W108" s="8">
@@ -16561,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I109" s="4">
@@ -16604,7 +16604,7 @@
         <v>0</v>
       </c>
       <c r="V109" s="10">
-        <f>J109+K109+L109-100+M109+ SUM(O109:U109)*5+IF(ISNUMBER(Z109),Z109,0)+Y109</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W109" s="8">
@@ -16659,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I110" s="4">
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="V110" s="10">
-        <f>J110+K110+L110-100+M110+ SUM(O110:U110)*5+IF(ISNUMBER(Z110),Z110,0)+Y110</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="W110" s="8">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I111" s="4">
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="V111" s="10">
-        <f>J111+K111+L111-100+M111+ SUM(O111:U111)*5+IF(ISNUMBER(Z111),Z111,0)+Y111</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W111" s="8">
@@ -16857,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I112" s="4">
@@ -16900,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="V112" s="10">
-        <f>J112+K112+L112-100+M112+ SUM(O112:U112)*5+IF(ISNUMBER(Z112),Z112,0)+Y112</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="W112" s="8">
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I113" s="4">
@@ -17000,7 +17000,7 @@
         <v>0</v